--- a/Fanduel.xlsx
+++ b/Fanduel.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Player Mapping'!$A$1:$B$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'To Do'!$A$1:$F$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'To Do'!$A$1:$G$22</definedName>
     <definedName name="cLastDataDate">Parameters!#REF!</definedName>
     <definedName name="clEntryLimit">Parameters!$B$5</definedName>
     <definedName name="cLineUpURL">Parameters!$B$2</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="452">
   <si>
     <t>n_scripts_list</t>
   </si>
@@ -50,9 +50,6 @@
     <t>script_name_0</t>
   </si>
   <si>
-    <t>test.py</t>
-  </si>
-  <si>
     <t>script_path_0</t>
   </si>
   <si>
@@ -74,27 +71,12 @@
     <t>C:\Users\Cole\Desktop\FanduelV2\fanduel\modules\gameday\build_all.py</t>
   </si>
   <si>
-    <t>C:\Users\Cole\Desktop\FanduelV2\fanduel\modules\test.py</t>
-  </si>
-  <si>
-    <t>data_scrapping.py</t>
-  </si>
-  <si>
-    <t>C:\Users\Cole\Desktop\FanduelV2\fanduel\modules\data_scrapping.py</t>
-  </si>
-  <si>
     <t>script_name_2</t>
   </si>
   <si>
     <t>script_path_2</t>
   </si>
   <si>
-    <t>database_operations.py</t>
-  </si>
-  <si>
-    <t>C:\Users\Cole\Desktop\FanduelV2\fanduel\modules\database_operations.py</t>
-  </si>
-  <si>
     <t>script_name_3</t>
   </si>
   <si>
@@ -104,9 +86,6 @@
     <t>main.py</t>
   </si>
   <si>
-    <t>C:\Users\Cole\Desktop\FanduelV2\fanduel\modules\main.py</t>
-  </si>
-  <si>
     <t>script_name_4</t>
   </si>
   <si>
@@ -1407,6 +1386,18 @@
   </si>
   <si>
     <t>Education</t>
+  </si>
+  <si>
+    <t>CS 258 - Software testing</t>
+  </si>
+  <si>
+    <t>CS 212 - Design of computer programs</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>C:\Users\Cole\Desktop\FanDuel\fanduel\modules\main.py</t>
   </si>
 </sst>
 </file>
@@ -2066,11 +2057,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="209605376"/>
-        <c:axId val="209606912"/>
+        <c:axId val="209404672"/>
+        <c:axId val="209406208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="209605376"/>
+        <c:axId val="209404672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2079,7 +2070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209606912"/>
+        <c:crossAx val="209406208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2087,7 +2078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209606912"/>
+        <c:axId val="209406208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2098,7 +2089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209605376"/>
+        <c:crossAx val="209404672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2211,11 +2202,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209635200"/>
-        <c:axId val="209636736"/>
+        <c:axId val="209434496"/>
+        <c:axId val="209436032"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="209635200"/>
+        <c:axId val="209434496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2224,7 +2215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209636736"/>
+        <c:crossAx val="209436032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2232,7 +2223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209636736"/>
+        <c:axId val="209436032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2243,7 +2234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209635200"/>
+        <c:crossAx val="209434496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2378,11 +2369,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210038784"/>
-        <c:axId val="210040320"/>
+        <c:axId val="210186240"/>
+        <c:axId val="210187776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210038784"/>
+        <c:axId val="210186240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2392,12 +2383,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210040320"/>
+        <c:crossAx val="210187776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210040320"/>
+        <c:axId val="210187776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2408,7 +2399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210038784"/>
+        <c:crossAx val="210186240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3091,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3099,79 +3090,79 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3203,34 +3194,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3238,7 +3229,7 @@
         <v>42015</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C2" s="5">
         <v>723.2</v>
@@ -3250,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G2">
         <v>1.8</v>
@@ -3263,7 +3254,7 @@
         <v>0.33750000000000002</v>
       </c>
       <c r="J2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3271,7 +3262,7 @@
         <v>42015</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C3" s="5">
         <v>1096.8</v>
@@ -3283,7 +3274,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G3" s="5">
         <v>3.6</v>
@@ -3296,7 +3287,7 @@
         <v>0.375</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3304,7 +3295,7 @@
         <v>42015</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C4" s="5">
         <v>1716.5</v>
@@ -3316,7 +3307,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G4" s="5">
         <v>9</v>
@@ -3329,7 +3320,7 @@
         <v>0.35</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3337,7 +3328,7 @@
         <v>42015</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C5" s="5">
         <v>933.8</v>
@@ -3349,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G5" s="5">
         <v>1.8</v>
@@ -3362,7 +3353,7 @@
         <v>0.3</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3370,7 +3361,7 @@
         <v>42020</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C6" s="5">
         <v>657.45</v>
@@ -3382,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G6" s="5">
         <v>1.8</v>
@@ -3395,7 +3386,7 @@
         <v>0.23749999999999999</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3403,7 +3394,7 @@
         <v>42020</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C7" s="5">
         <v>538</v>
@@ -3415,7 +3406,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -3428,7 +3419,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3436,7 +3427,7 @@
         <v>42020</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C8" s="5">
         <v>699.95</v>
@@ -3448,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G8">
         <v>1.8</v>
@@ -3461,7 +3452,7 @@
         <v>0.26250000000000001</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3469,7 +3460,7 @@
         <v>42021</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C9" s="5">
         <v>2493.6999999999998</v>
@@ -3481,7 +3472,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -3494,7 +3485,7 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3502,7 +3493,7 @@
         <v>42024</v>
       </c>
       <c r="B10" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C10" s="5">
         <v>1750.3</v>
@@ -3514,10 +3505,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3525,7 +3516,7 @@
         <v>42024</v>
       </c>
       <c r="B11" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C11" s="5">
         <v>3036</v>
@@ -3537,10 +3528,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3548,7 +3539,7 @@
         <v>42024</v>
       </c>
       <c r="B12" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C12" s="5">
         <v>1702.55</v>
@@ -3560,10 +3551,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3571,7 +3562,7 @@
         <v>42024</v>
       </c>
       <c r="B13" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C13" s="5">
         <v>1733.4</v>
@@ -3583,10 +3574,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3609,10 +3600,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3625,376 +3616,391 @@
     <col min="6" max="6" width="31.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="D6" s="6">
         <v>7</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6">
         <v>3</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D9" s="6">
         <v>3</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D10" s="6">
         <v>3</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D11" s="6">
         <v>4</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D12" s="6">
         <v>5</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="B14" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D15" s="6">
         <v>4</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D16" s="6">
         <v>4</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D17" s="6">
         <v>5</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D18" s="6">
         <v>6</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D19" s="6">
         <v>1</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D20" s="6">
         <v>4</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F13">
-    <sortState ref="A2:F14">
-      <sortCondition ref="D1:D14"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:G22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4024,19 +4030,19 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="M2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -4050,7 +4056,7 @@
         <v>-1</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M3" s="14">
         <v>-1</v>
@@ -4058,7 +4064,7 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C4" s="14">
         <v>-10</v>
@@ -4067,7 +4073,7 @@
         <v>-1</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="M4" s="14">
         <v>-1</v>
@@ -4096,22 +4102,22 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3">
         <v>696</v>
@@ -4119,15 +4125,15 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -4135,7 +4141,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B6">
         <v>10000</v>
@@ -4194,15 +4200,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B2">
         <v>13</v>
@@ -4210,7 +4216,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -4218,7 +4224,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B4">
         <v>15</v>
@@ -4226,7 +4232,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B5">
         <v>16</v>
@@ -4234,7 +4240,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B6">
         <v>17</v>
@@ -4242,7 +4248,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B7">
         <v>18</v>
@@ -4250,7 +4256,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B8">
         <v>19</v>
@@ -4258,7 +4264,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -4266,7 +4272,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B10">
         <v>21</v>
@@ -4274,7 +4280,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B11" s="5">
         <v>22</v>
@@ -4282,7 +4288,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B12" s="5">
         <v>23</v>
@@ -4290,7 +4296,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B13" s="5">
         <v>24</v>
@@ -4298,7 +4304,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B14" s="5">
         <v>25</v>
@@ -4306,7 +4312,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B15" s="5">
         <v>26</v>
@@ -4314,7 +4320,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B16" s="5">
         <v>27</v>
@@ -4322,7 +4328,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B17" s="5">
         <v>28</v>
@@ -4330,7 +4336,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B18" s="5">
         <v>29</v>
@@ -4338,7 +4344,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B19" s="5">
         <v>30</v>
@@ -4346,7 +4352,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B20" s="5">
         <v>31</v>
@@ -4354,7 +4360,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B21" s="5">
         <v>32</v>
@@ -4362,7 +4368,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5">
         <v>33</v>
@@ -4370,7 +4376,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B23" s="5">
         <v>34</v>
@@ -4378,7 +4384,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B24" s="5">
         <v>35</v>
@@ -4386,7 +4392,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B25" s="5">
         <v>36</v>
@@ -4394,7 +4400,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B26" s="5">
         <v>37</v>
@@ -4402,7 +4408,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B27" s="5">
         <v>38</v>
@@ -4410,7 +4416,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5">
         <v>39</v>
@@ -4418,7 +4424,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B29" s="5">
         <v>40</v>
@@ -4426,7 +4432,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B30" s="5">
         <v>41</v>
@@ -4434,7 +4440,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B31" s="5">
         <v>42</v>
@@ -4473,1623 +4479,1623 @@
     <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G2" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="H2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="I2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="J2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="K2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B4" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C6" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D6" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B8" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E8" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D9" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E9" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C10" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D10" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B11" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F11" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G11" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H11" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I11" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C13" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E13" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F13" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G13" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B14" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C14" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D14" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B15" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C15" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D15" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E15" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F15" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G15" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H15" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I15" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B16" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C16" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D16" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E17" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F17" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G17" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H17" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I17" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="J17" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E18" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F18" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G18" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C19" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D19" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E19" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C20" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D20" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E20" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C21" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B22" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C22" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D22" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B23" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D23" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E23" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F23" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G23" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B24" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E24" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B25" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C25" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B26" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C26" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B27" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C27" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D27" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E27" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F27" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G27" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H27" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I27" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="J27" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C28" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D28" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E28" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F28" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G28" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H28" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I28" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J28" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C29" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D29" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E29" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F29" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G29" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H29" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="I29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="J29" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B30" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C30" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D30" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E30" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B31" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C31" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" t="s">
+        <v>237</v>
+      </c>
+      <c r="E31" t="s">
+        <v>238</v>
+      </c>
+      <c r="F31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" t="s">
+        <v>240</v>
+      </c>
+      <c r="H31" t="s">
+        <v>241</v>
+      </c>
+      <c r="I31" t="s">
+        <v>242</v>
+      </c>
+      <c r="J31" t="s">
         <v>243</v>
-      </c>
-      <c r="D31" t="s">
-        <v>244</v>
-      </c>
-      <c r="E31" t="s">
-        <v>245</v>
-      </c>
-      <c r="F31" t="s">
-        <v>246</v>
-      </c>
-      <c r="G31" t="s">
-        <v>247</v>
-      </c>
-      <c r="H31" t="s">
-        <v>248</v>
-      </c>
-      <c r="I31" t="s">
-        <v>249</v>
-      </c>
-      <c r="J31" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B32" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C32" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C33" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D33" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E33" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B34" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C34" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D34" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E34" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F34" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G34" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H34" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B35" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C35" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E35" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F35" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G35" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B36" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C36" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D36" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E36" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F36" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G36" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B37" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C37" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D37" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E37" t="s">
+        <v>208</v>
+      </c>
+      <c r="F37" t="s">
+        <v>250</v>
+      </c>
+      <c r="G37" t="s">
         <v>215</v>
-      </c>
-      <c r="F37" t="s">
-        <v>257</v>
-      </c>
-      <c r="G37" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C38" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D38" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E38" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F38" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G38" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D39" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D40" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E40" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F40" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G40" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B41" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C41" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D41" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E41" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F41" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G41" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H41" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B42" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C43" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D43" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E43" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F43" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G43" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B44" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E44" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F44" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G44" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B45" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D45" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E45" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" t="s">
+        <v>236</v>
+      </c>
+      <c r="D46" t="s">
+        <v>237</v>
+      </c>
+      <c r="E46" t="s">
+        <v>238</v>
+      </c>
+      <c r="F46" t="s">
+        <v>239</v>
+      </c>
+      <c r="G46" t="s">
+        <v>240</v>
+      </c>
+      <c r="H46" t="s">
+        <v>300</v>
+      </c>
+      <c r="I46" t="s">
         <v>241</v>
       </c>
-      <c r="B46" t="s">
+      <c r="J46" t="s">
         <v>242</v>
       </c>
-      <c r="C46" t="s">
+      <c r="K46" t="s">
         <v>243</v>
-      </c>
-      <c r="D46" t="s">
-        <v>244</v>
-      </c>
-      <c r="E46" t="s">
-        <v>245</v>
-      </c>
-      <c r="F46" t="s">
-        <v>246</v>
-      </c>
-      <c r="G46" t="s">
-        <v>247</v>
-      </c>
-      <c r="H46" t="s">
-        <v>307</v>
-      </c>
-      <c r="I46" t="s">
-        <v>248</v>
-      </c>
-      <c r="J46" t="s">
-        <v>249</v>
-      </c>
-      <c r="K46" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B47" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C47" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D47" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E47" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F47" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G47" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B48" t="s">
+        <v>236</v>
+      </c>
+      <c r="C48" t="s">
+        <v>237</v>
+      </c>
+      <c r="D48" t="s">
+        <v>238</v>
+      </c>
+      <c r="E48" t="s">
+        <v>239</v>
+      </c>
+      <c r="F48" t="s">
+        <v>240</v>
+      </c>
+      <c r="G48" t="s">
+        <v>241</v>
+      </c>
+      <c r="H48" t="s">
+        <v>242</v>
+      </c>
+      <c r="I48" t="s">
         <v>243</v>
-      </c>
-      <c r="C48" t="s">
-        <v>244</v>
-      </c>
-      <c r="D48" t="s">
-        <v>245</v>
-      </c>
-      <c r="E48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F48" t="s">
-        <v>247</v>
-      </c>
-      <c r="G48" t="s">
-        <v>248</v>
-      </c>
-      <c r="H48" t="s">
-        <v>249</v>
-      </c>
-      <c r="I48" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B49" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C49" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D49" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E49" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B50" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C50" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D50" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E50" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B51" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C51" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D51" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E51" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F51" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G51" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B52" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C52" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D52" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E52" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B53" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C53" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D53" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E53" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B54" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C54" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D54" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B55" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C55" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D55" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E55" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F55" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B56" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C56" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D56" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E56" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B57" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C57" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D57" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E57" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B58" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C58" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D58" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B59" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C59" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D59" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B60" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C60" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D60" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E60" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B61" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C61" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D61" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B62" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C62" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D62" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E62" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B63" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B64" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B65" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C65" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B66" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C66" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D66" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B67" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C67" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D67" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E67" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B68" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B69" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B70" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B72" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C72" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D72" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B73" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C73" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D73" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E73" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F73" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G73" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B74" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C74" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D74" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B75" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C75" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D75" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B76" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C77" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D77" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E77" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F77" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G77" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B78" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C78" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D78" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B79" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B80" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C80" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D80" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B81" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C81" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D81" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B82" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C82" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D82" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E82" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B83" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C83" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B84" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C84" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D84" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B85" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C85" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D85" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B86" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C86" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D86" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E86" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B87" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C87" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B88" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C88" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D88" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E88" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F88" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B89" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C89" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D89" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E89" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B90" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C90" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D90" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E90" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -6114,170 +6120,170 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -6304,30 +6310,30 @@
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D2" s="10">
         <v>637.32000000000005</v>
@@ -6344,13 +6350,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D3" s="10">
         <v>699.12</v>
@@ -6367,13 +6373,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D4" s="10">
         <v>717.35416666699996</v>
@@ -6390,13 +6396,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D5" s="10">
         <v>593.9</v>
@@ -6413,13 +6419,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B6" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D6" s="10">
         <v>793.3125</v>
@@ -6436,13 +6442,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D7" s="10">
         <v>832.125</v>
@@ -6459,13 +6465,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D8" s="10">
         <v>824.72500000000002</v>
@@ -6482,13 +6488,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B9" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D9" s="10">
         <v>-569.35913249999999</v>
@@ -6505,13 +6511,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B10" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D10" s="10">
         <v>409.64</v>
@@ -6563,21 +6569,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B2">
         <v>3403.3</v>
@@ -6591,7 +6597,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B3">
         <v>1913.05</v>
@@ -6605,7 +6611,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B4">
         <v>1943.25</v>
@@ -6619,7 +6625,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B5">
         <v>1733.4</v>

--- a/Fanduel.xlsx
+++ b/Fanduel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="_ironspread_data_" sheetId="4" state="veryHidden" r:id="rId1"/>
@@ -2057,11 +2057,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="209404672"/>
-        <c:axId val="209406208"/>
+        <c:axId val="217797376"/>
+        <c:axId val="217798912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="209404672"/>
+        <c:axId val="217797376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2070,7 +2070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209406208"/>
+        <c:crossAx val="217798912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2078,7 +2078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209406208"/>
+        <c:axId val="217798912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2089,7 +2089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209404672"/>
+        <c:crossAx val="217797376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2202,11 +2202,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209434496"/>
-        <c:axId val="209436032"/>
+        <c:axId val="217827200"/>
+        <c:axId val="217828736"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="209434496"/>
+        <c:axId val="217827200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,7 +2215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209436032"/>
+        <c:crossAx val="217828736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2223,7 +2223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209436032"/>
+        <c:axId val="217828736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2234,7 +2234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209434496"/>
+        <c:crossAx val="217827200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2369,11 +2369,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210186240"/>
-        <c:axId val="210187776"/>
+        <c:axId val="218234880"/>
+        <c:axId val="218236416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210186240"/>
+        <c:axId val="218234880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,12 +2383,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210187776"/>
+        <c:crossAx val="218236416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210187776"/>
+        <c:axId val="218236416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2399,7 +2399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210186240"/>
+        <c:crossAx val="218234880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3602,7 +3602,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4002,6 +4002,7 @@
   </sheetData>
   <autoFilter ref="A1:G22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4090,7 +4091,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/Fanduel.xlsx
+++ b/Fanduel.xlsx
@@ -2057,11 +2057,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="217797376"/>
-        <c:axId val="217798912"/>
+        <c:axId val="221664000"/>
+        <c:axId val="221665536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="217797376"/>
+        <c:axId val="221664000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2070,7 +2070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217798912"/>
+        <c:crossAx val="221665536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2078,7 +2078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217798912"/>
+        <c:axId val="221665536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2089,7 +2089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217797376"/>
+        <c:crossAx val="221664000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2202,11 +2202,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217827200"/>
-        <c:axId val="217828736"/>
+        <c:axId val="221697920"/>
+        <c:axId val="221699456"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="217827200"/>
+        <c:axId val="221697920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,7 +2215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217828736"/>
+        <c:crossAx val="221699456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2223,7 +2223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217828736"/>
+        <c:axId val="221699456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2234,7 +2234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217827200"/>
+        <c:crossAx val="221697920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2369,11 +2369,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="218234880"/>
-        <c:axId val="218236416"/>
+        <c:axId val="222101504"/>
+        <c:axId val="222103040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="218234880"/>
+        <c:axId val="222101504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,12 +2383,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218236416"/>
+        <c:crossAx val="222103040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218236416"/>
+        <c:axId val="222103040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2399,7 +2399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218234880"/>
+        <c:crossAx val="222101504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>

--- a/Fanduel.xlsx
+++ b/Fanduel.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="454">
   <si>
     <t>n_scripts_list</t>
   </si>
@@ -1398,6 +1398,12 @@
   </si>
   <si>
     <t>C:\Users\Cole\Desktop\FanDuel\fanduel\modules\main.py</t>
+  </si>
+  <si>
+    <t>database_operations.py</t>
+  </si>
+  <si>
+    <t>C:\Users\Cole\Desktop\FanDuel\fanduel\modules\database_operations.py</t>
   </si>
 </sst>
 </file>
@@ -2057,11 +2063,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="221664000"/>
-        <c:axId val="221665536"/>
+        <c:axId val="208757504"/>
+        <c:axId val="208759040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="221664000"/>
+        <c:axId val="208757504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2070,7 +2076,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221665536"/>
+        <c:crossAx val="208759040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2078,7 +2084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221665536"/>
+        <c:axId val="208759040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2089,7 +2095,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221664000"/>
+        <c:crossAx val="208757504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2202,11 +2208,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="221697920"/>
-        <c:axId val="221699456"/>
+        <c:axId val="208787328"/>
+        <c:axId val="208788864"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="221697920"/>
+        <c:axId val="208787328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,7 +2221,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221699456"/>
+        <c:crossAx val="208788864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2223,7 +2229,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221699456"/>
+        <c:axId val="208788864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2234,7 +2240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221697920"/>
+        <c:crossAx val="208787328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2369,11 +2375,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="222101504"/>
-        <c:axId val="222103040"/>
+        <c:axId val="209190912"/>
+        <c:axId val="209192448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="222101504"/>
+        <c:axId val="209190912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,12 +2389,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222103040"/>
+        <c:crossAx val="209192448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222103040"/>
+        <c:axId val="209192448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2399,7 +2405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222101504"/>
+        <c:crossAx val="209190912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3082,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3090,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3098,7 +3104,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3106,7 +3112,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3114,7 +3120,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">

--- a/Fanduel.xlsx
+++ b/Fanduel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="_ironspread_data_" sheetId="4" state="veryHidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Performance Monitoring" sheetId="13" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Player Mapping'!$A$1:$B$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Player Mapping'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'To Do'!$A$1:$G$22</definedName>
     <definedName name="cLastDataDate">Parameters!#REF!</definedName>
     <definedName name="clEntryLimit">Parameters!$B$5</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="380">
   <si>
     <t>n_scripts_list</t>
   </si>
@@ -530,9 +530,6 @@
     <t>Lineups Cache</t>
   </si>
   <si>
-    <t>Patrick Kane</t>
-  </si>
-  <si>
     <t>Matt Carle</t>
   </si>
   <si>
@@ -563,9 +560,6 @@
     <t>Max Avg Wins Threshold</t>
   </si>
   <si>
-    <t>Brent Seabrook</t>
-  </si>
-  <si>
     <t>Contest Date</t>
   </si>
   <si>
@@ -632,18 +626,9 @@
     <t>Ryan Carter</t>
   </si>
   <si>
-    <t>Matt Stajan</t>
-  </si>
-  <si>
     <t>Pascal Dupuis</t>
   </si>
   <si>
-    <t>Mark Fayne</t>
-  </si>
-  <si>
-    <t>Liam O'Brien</t>
-  </si>
-  <si>
     <t>Patrick Dwyer</t>
   </si>
   <si>
@@ -671,15 +656,6 @@
     <t>Andrew Cogliano</t>
   </si>
   <si>
-    <t>Kyle Quincey</t>
-  </si>
-  <si>
-    <t>Kyle Turris</t>
-  </si>
-  <si>
-    <t>Kyle Palmieri</t>
-  </si>
-  <si>
     <t>Dmitry Orlov</t>
   </si>
   <si>
@@ -695,12 +671,6 @@
     <t>Patric Hornqvist</t>
   </si>
   <si>
-    <t>Patrick Maroon</t>
-  </si>
-  <si>
-    <t>Troy Brouwer</t>
-  </si>
-  <si>
     <t>Nathan Gerbe</t>
   </si>
   <si>
@@ -722,27 +692,12 @@
     <t>Carl Hagelin</t>
   </si>
   <si>
-    <t>Jason Garrison</t>
-  </si>
-  <si>
-    <t>Anthony Duclair</t>
-  </si>
-  <si>
-    <t>Anthony Peluso</t>
-  </si>
-  <si>
-    <t>Blake Comeau</t>
-  </si>
-  <si>
     <t>Matthew Lombardi</t>
   </si>
   <si>
     <t>Matt Dumba</t>
   </si>
   <si>
-    <t>Brian Gibbons</t>
-  </si>
-  <si>
     <t>Brian Elliott</t>
   </si>
   <si>
@@ -776,15 +731,6 @@
     <t>Chris Kelly</t>
   </si>
   <si>
-    <t>Jared Cowen</t>
-  </si>
-  <si>
-    <t>Ian Cole</t>
-  </si>
-  <si>
-    <t>Emerson Etem</t>
-  </si>
-  <si>
     <t>Jamie Benn</t>
   </si>
   <si>
@@ -797,9 +743,6 @@
     <t>Colin Wilson</t>
   </si>
   <si>
-    <t>Olli Maatta</t>
-  </si>
-  <si>
     <t>Calvin de Haan</t>
   </si>
   <si>
@@ -842,18 +785,6 @@
     <t>Jordan Eberle</t>
   </si>
   <si>
-    <t>Jeff Zatkoff</t>
-  </si>
-  <si>
-    <t>Jeff Carter</t>
-  </si>
-  <si>
-    <t>Scott Hartnell</t>
-  </si>
-  <si>
-    <t>Scott Hannan</t>
-  </si>
-  <si>
     <t>Tomas Vokoun</t>
   </si>
   <si>
@@ -869,36 +800,12 @@
     <t>Keith Aulie</t>
   </si>
   <si>
-    <t>Justin Peters</t>
-  </si>
-  <si>
-    <t>Justin Abdelkader</t>
-  </si>
-  <si>
-    <t>Justin Fontaine</t>
-  </si>
-  <si>
-    <t>Justin Braun</t>
-  </si>
-  <si>
     <t>Jason Demers</t>
   </si>
   <si>
-    <t>Martin St. Louis</t>
-  </si>
-  <si>
-    <t>Bryan Bickell</t>
-  </si>
-  <si>
     <t>Kris Letang</t>
   </si>
   <si>
-    <t>Derrick Pouliot</t>
-  </si>
-  <si>
-    <t>Lubomir Visnovsky</t>
-  </si>
-  <si>
     <t>S119446122</t>
   </si>
   <si>
@@ -929,63 +836,24 @@
     <t>Luke Schenn</t>
   </si>
   <si>
-    <t>Patrick Eaves</t>
-  </si>
-  <si>
-    <t>Patrik Elias</t>
-  </si>
-  <si>
-    <t>Patrick Kaleta</t>
-  </si>
-  <si>
-    <t>Patrick Sharp</t>
-  </si>
-  <si>
-    <t>Dion Phaneuf</t>
-  </si>
-  <si>
     <t>Chris Neil</t>
   </si>
   <si>
-    <t>Chris Phillips</t>
-  </si>
-  <si>
     <t>Chris Kunitz</t>
   </si>
   <si>
-    <t>Chris VandeVelde</t>
-  </si>
-  <si>
-    <t>Martin Erat</t>
-  </si>
-  <si>
-    <t>Keith Yandle</t>
-  </si>
-  <si>
     <t>Joey MacDonald</t>
   </si>
   <si>
     <t>Andrew MacDonald</t>
   </si>
   <si>
-    <t>Joe Thornton</t>
-  </si>
-  <si>
-    <t>John Moore</t>
-  </si>
-  <si>
-    <t>Marcus Johansson</t>
-  </si>
-  <si>
     <t>Andrei Vasilevskii</t>
   </si>
   <si>
     <t>Matt Ellis</t>
   </si>
   <si>
-    <t>Matt Read</t>
-  </si>
-  <si>
     <t>Maxime Fortunus</t>
   </si>
   <si>
@@ -1019,18 +887,6 @@
     <t>Rich Peverley</t>
   </si>
   <si>
-    <t>Mikael Granlund</t>
-  </si>
-  <si>
-    <t>Mikael Backlund</t>
-  </si>
-  <si>
-    <t>Markus Granlund</t>
-  </si>
-  <si>
-    <t>Michael Grabner</t>
-  </si>
-  <si>
     <t>Josh Harding</t>
   </si>
   <si>
@@ -1040,21 +896,9 @@
     <t>Josh Bailey</t>
   </si>
   <si>
-    <t>Brian Flynn</t>
-  </si>
-  <si>
-    <t>Brian Boyle</t>
-  </si>
-  <si>
     <t>Kristers Gudlevskis</t>
   </si>
   <si>
-    <t>Andrew Ladd</t>
-  </si>
-  <si>
-    <t>Andrew Shaw</t>
-  </si>
-  <si>
     <t>Oliver Lauridsen</t>
   </si>
   <si>
@@ -1070,39 +914,12 @@
     <t>Alexei Emelin</t>
   </si>
   <si>
-    <t>David Moss</t>
-  </si>
-  <si>
-    <t>David Pastrnak</t>
-  </si>
-  <si>
-    <t>David Jones</t>
-  </si>
-  <si>
-    <t>Stu Bickel</t>
-  </si>
-  <si>
     <t>Mathew Dumba</t>
   </si>
   <si>
-    <t>Radko Gudas</t>
-  </si>
-  <si>
-    <t>Jakub Kindl</t>
-  </si>
-  <si>
     <t>Quinton Howden</t>
   </si>
   <si>
-    <t>Johan Franzen</t>
-  </si>
-  <si>
-    <t>Jannik Hansen</t>
-  </si>
-  <si>
-    <t>Marcus Kruger</t>
-  </si>
-  <si>
     <t>Jason Williams</t>
   </si>
   <si>
@@ -1118,36 +935,6 @@
     <t>Stefan Elliott</t>
   </si>
   <si>
-    <t>Mark Pysyk</t>
-  </si>
-  <si>
-    <t>Alex Grant</t>
-  </si>
-  <si>
-    <t>Alex Tanguay</t>
-  </si>
-  <si>
-    <t>Alex Killorn</t>
-  </si>
-  <si>
-    <t>Alex Pietrangelo</t>
-  </si>
-  <si>
-    <t>Alex Chiasson</t>
-  </si>
-  <si>
-    <t>Brett Sutter</t>
-  </si>
-  <si>
-    <t>Brandon Sutter</t>
-  </si>
-  <si>
-    <t>Brett Ritchie</t>
-  </si>
-  <si>
-    <t>Brent Burns</t>
-  </si>
-  <si>
     <t>Ryan Callahan</t>
   </si>
   <si>
@@ -1235,18 +1022,6 @@
     <t>Bobby Butler</t>
   </si>
   <si>
-    <t>Andrew Ebbett</t>
-  </si>
-  <si>
-    <t>Andre Benoit</t>
-  </si>
-  <si>
-    <t>Artem Anisimov</t>
-  </si>
-  <si>
-    <t>Karri Ramo</t>
-  </si>
-  <si>
     <t>Patrice Cormier</t>
   </si>
   <si>
@@ -1259,12 +1034,6 @@
     <t>John Carlson</t>
   </si>
   <si>
-    <t>Eric Brewer</t>
-  </si>
-  <si>
-    <t>Eric Fehr</t>
-  </si>
-  <si>
     <t>Nathan Horton</t>
   </si>
   <si>
@@ -1277,12 +1046,6 @@
     <t>John Klingberg</t>
   </si>
   <si>
-    <t>Jason LaBarbera</t>
-  </si>
-  <si>
-    <t>Jason Chimera</t>
-  </si>
-  <si>
     <t>Brad Winchester</t>
   </si>
   <si>
@@ -1298,12 +1061,6 @@
     <t>Chad LaRose</t>
   </si>
   <si>
-    <t>Marcus Foligno</t>
-  </si>
-  <si>
-    <t>Nick Foligno</t>
-  </si>
-  <si>
     <t>Ray Whitney</t>
   </si>
   <si>
@@ -1319,12 +1076,6 @@
     <t>Ryan Ellis</t>
   </si>
   <si>
-    <t>Boone Jenner</t>
-  </si>
-  <si>
-    <t>Matt Donovan</t>
-  </si>
-  <si>
     <t>Brad Thiessen</t>
   </si>
   <si>
@@ -1334,9 +1085,6 @@
     <t>Sheldon Brookbank</t>
   </si>
   <si>
-    <t>Reto Berra</t>
-  </si>
-  <si>
     <t>Andrei Loktionov</t>
   </si>
   <si>
@@ -1349,21 +1097,12 @@
     <t>Josh Jooris</t>
   </si>
   <si>
-    <t>Brian Gionta</t>
-  </si>
-  <si>
-    <t>Brian Strait</t>
-  </si>
-  <si>
     <t>Danny Taylor</t>
   </si>
   <si>
     <t>Manny Malhotra</t>
   </si>
   <si>
-    <t>Grant Clitsome</t>
-  </si>
-  <si>
     <t>Matthew Hackett</t>
   </si>
   <si>
@@ -1404,6 +1143,45 @@
   </si>
   <si>
     <t>C:\Users\Cole\Desktop\FanDuel\fanduel\modules\database_operations.py</t>
+  </si>
+  <si>
+    <t>Mat Clark</t>
+  </si>
+  <si>
+    <t>Johan Larsson</t>
+  </si>
+  <si>
+    <t>Patrick Bordeleau</t>
+  </si>
+  <si>
+    <t>Josh Manson</t>
+  </si>
+  <si>
+    <t>Shawn Thornton</t>
+  </si>
+  <si>
+    <t>Andrei Vasilevskiy</t>
+  </si>
+  <si>
+    <t>Andrew Campbell</t>
+  </si>
+  <si>
+    <t>Chris Porter</t>
+  </si>
+  <si>
+    <t>Cory Conacher</t>
+  </si>
+  <si>
+    <t>Chris Tierney</t>
+  </si>
+  <si>
+    <t>Tomas Vincour</t>
+  </si>
+  <si>
+    <t>Jesse Blacker</t>
+  </si>
+  <si>
+    <t>Brian Dumoulin</t>
   </si>
 </sst>
 </file>
@@ -1853,7 +1631,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1866,9 +1644,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2063,11 +1838,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="208757504"/>
-        <c:axId val="208759040"/>
+        <c:axId val="216687360"/>
+        <c:axId val="216688896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208757504"/>
+        <c:axId val="216687360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2076,7 +1851,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208759040"/>
+        <c:crossAx val="216688896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2084,7 +1859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208759040"/>
+        <c:axId val="216688896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2095,7 +1870,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208757504"/>
+        <c:crossAx val="216687360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2208,11 +1983,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208787328"/>
-        <c:axId val="208788864"/>
+        <c:axId val="216717184"/>
+        <c:axId val="216718720"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="208787328"/>
+        <c:axId val="216717184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2221,7 +1996,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208788864"/>
+        <c:crossAx val="216718720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2229,7 +2004,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208788864"/>
+        <c:axId val="216718720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2240,7 +2015,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208787328"/>
+        <c:crossAx val="216717184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2375,11 +2150,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209190912"/>
-        <c:axId val="209192448"/>
+        <c:axId val="218431488"/>
+        <c:axId val="218433024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209190912"/>
+        <c:axId val="218431488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,12 +2164,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209192448"/>
+        <c:crossAx val="218433024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209192448"/>
+        <c:axId val="218433024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2405,7 +2180,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209190912"/>
+        <c:crossAx val="218431488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3096,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>452</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3104,7 +2879,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>453</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3120,7 +2895,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>451</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3200,7 +2975,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
         <v>125</v>
@@ -3215,27 +2990,27 @@
         <v>127</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G1" t="s">
         <v>128</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>42015</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C2" s="5">
         <v>723.2</v>
@@ -3247,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G2">
         <v>1.8</v>
@@ -3260,15 +3035,15 @@
         <v>0.33750000000000002</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>42015</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3" s="5">
         <v>1096.8</v>
@@ -3280,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G3" s="5">
         <v>3.6</v>
@@ -3293,15 +3068,15 @@
         <v>0.375</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>42015</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C4" s="5">
         <v>1716.5</v>
@@ -3313,7 +3088,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G4" s="5">
         <v>9</v>
@@ -3326,15 +3101,15 @@
         <v>0.35</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>42015</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C5" s="5">
         <v>933.8</v>
@@ -3346,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G5" s="5">
         <v>1.8</v>
@@ -3359,15 +3134,15 @@
         <v>0.3</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>42020</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="C6" s="5">
         <v>657.45</v>
@@ -3379,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G6" s="5">
         <v>1.8</v>
@@ -3392,15 +3167,15 @@
         <v>0.23749999999999999</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>42020</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="C7" s="5">
         <v>538</v>
@@ -3412,7 +3187,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -3425,15 +3200,15 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>42020</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="C8" s="5">
         <v>699.95</v>
@@ -3445,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G8">
         <v>1.8</v>
@@ -3458,15 +3233,15 @@
         <v>0.26250000000000001</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>42021</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>370</v>
+        <v>299</v>
       </c>
       <c r="C9" s="5">
         <v>2493.6999999999998</v>
@@ -3478,7 +3253,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -3491,15 +3266,15 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>42024</v>
       </c>
       <c r="B10" t="s">
-        <v>383</v>
+        <v>312</v>
       </c>
       <c r="C10" s="5">
         <v>1750.3</v>
@@ -3511,18 +3286,18 @@
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>42024</v>
       </c>
       <c r="B11" t="s">
-        <v>384</v>
+        <v>313</v>
       </c>
       <c r="C11" s="5">
         <v>3036</v>
@@ -3534,18 +3309,18 @@
         <v>2</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>42024</v>
       </c>
       <c r="B12" t="s">
-        <v>385</v>
+        <v>314</v>
       </c>
       <c r="C12" s="5">
         <v>1702.55</v>
@@ -3557,18 +3332,18 @@
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>42024</v>
       </c>
       <c r="B13" t="s">
-        <v>386</v>
+        <v>315</v>
       </c>
       <c r="C13" s="5">
         <v>1733.4</v>
@@ -3580,10 +3355,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3642,7 +3417,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>450</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3662,7 +3437,7 @@
         <v>51</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>387</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3844,7 +3619,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>388</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3969,18 +3744,18 @@
         <v>32</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>389</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>445</v>
+        <v>358</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>446</v>
+        <v>359</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>447</v>
+        <v>360</v>
       </c>
       <c r="D20" s="6">
         <v>4</v>
@@ -3991,18 +3766,18 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>448</v>
+        <v>361</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>447</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>449</v>
+        <v>362</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>447</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -4036,53 +3811,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="M2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>42015</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>-10</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>-1</v>
       </c>
-      <c r="L3" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="M3" s="14">
+      <c r="L3" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="M3" s="13">
         <v>-1</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="B4" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="13">
         <v>-10</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>-1</v>
       </c>
-      <c r="L4" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="M4" s="14">
+      <c r="L4" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="M4" s="13">
         <v>-1</v>
       </c>
     </row>
@@ -4097,7 +3872,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4135,12 +3910,12 @@
         <v>161</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>379</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -4148,7 +3923,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6">
         <v>10000</v>
@@ -4464,90 +4239,76 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A63" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>390</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" t="s">
         <v>191</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J2" t="s">
         <v>192</v>
       </c>
-      <c r="D2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>193</v>
-      </c>
-      <c r="F2" t="s">
-        <v>391</v>
-      </c>
-      <c r="G2" t="s">
-        <v>392</v>
-      </c>
-      <c r="H2" t="s">
-        <v>393</v>
-      </c>
-      <c r="I2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J2" t="s">
-        <v>195</v>
-      </c>
-      <c r="K2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E3" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>394</v>
+        <v>323</v>
       </c>
       <c r="B4" t="s">
-        <v>395</v>
+        <v>324</v>
       </c>
       <c r="C4" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
         <v>78</v>
@@ -4555,225 +4316,156 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" t="s">
         <v>194</v>
-      </c>
-      <c r="D5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" t="s">
-        <v>244</v>
-      </c>
-      <c r="F5" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>396</v>
-      </c>
-      <c r="B6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C6" t="s">
-        <v>371</v>
-      </c>
-      <c r="D6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E6" t="s">
-        <v>78</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>397</v>
+        <v>260</v>
       </c>
       <c r="B7" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H7" t="s">
-        <v>217</v>
-      </c>
-      <c r="I7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>399</v>
+        <v>261</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>300</v>
       </c>
       <c r="D8" t="s">
-        <v>332</v>
-      </c>
-      <c r="E8" t="s">
-        <v>333</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
       <c r="C9" t="s">
-        <v>371</v>
+        <v>208</v>
       </c>
       <c r="D9" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>196</v>
+      </c>
+      <c r="F9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G9" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s">
-        <v>293</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>371</v>
+        <v>200</v>
       </c>
       <c r="D10" t="s">
-        <v>294</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>368</v>
       </c>
       <c r="D11" t="s">
-        <v>297</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
-        <v>202</v>
+        <v>370</v>
       </c>
       <c r="F11" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="G11" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="H11" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="I11" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C13" t="s">
-        <v>260</v>
-      </c>
-      <c r="D13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E13" t="s">
-        <v>249</v>
-      </c>
-      <c r="F13" t="s">
-        <v>250</v>
-      </c>
-      <c r="G13" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>330</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>371</v>
       </c>
       <c r="C14" t="s">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="D14" t="s">
-        <v>341</v>
+        <v>209</v>
+      </c>
+      <c r="E14" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" t="s">
+        <v>211</v>
+      </c>
+      <c r="G14" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>401</v>
+        <v>332</v>
       </c>
       <c r="B15" t="s">
-        <v>402</v>
+        <v>333</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="D15" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="E15" t="s">
-        <v>202</v>
-      </c>
-      <c r="F15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G15" t="s">
-        <v>200</v>
-      </c>
-      <c r="H15" t="s">
-        <v>217</v>
-      </c>
-      <c r="I15" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4783,168 +4475,90 @@
       <c r="B16" t="s">
         <v>267</v>
       </c>
-      <c r="C16" t="s">
-        <v>304</v>
-      </c>
-      <c r="D16" t="s">
-        <v>280</v>
-      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>335</v>
       </c>
       <c r="C17" t="s">
-        <v>205</v>
-      </c>
-      <c r="D17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E17" t="s">
-        <v>301</v>
-      </c>
-      <c r="F17" t="s">
-        <v>302</v>
-      </c>
-      <c r="G17" t="s">
-        <v>236</v>
-      </c>
-      <c r="H17" t="s">
-        <v>303</v>
-      </c>
-      <c r="I17" t="s">
-        <v>237</v>
-      </c>
-      <c r="J17" t="s">
-        <v>238</v>
-      </c>
-      <c r="K17" t="s">
-        <v>67</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>403</v>
-      </c>
-      <c r="B18" t="s">
-        <v>404</v>
-      </c>
-      <c r="C18" t="s">
-        <v>222</v>
-      </c>
-      <c r="D18" t="s">
-        <v>248</v>
-      </c>
-      <c r="E18" t="s">
-        <v>249</v>
-      </c>
-      <c r="F18" t="s">
-        <v>250</v>
-      </c>
-      <c r="G18" t="s">
-        <v>215</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C19" t="s">
-        <v>260</v>
-      </c>
-      <c r="D19" t="s">
-        <v>224</v>
-      </c>
-      <c r="E19" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>214</v>
+        <v>339</v>
       </c>
       <c r="B20" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C20" t="s">
-        <v>309</v>
-      </c>
-      <c r="D20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E20" t="s">
-        <v>202</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="B21" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" t="s">
-        <v>299</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>405</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s">
-        <v>406</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>218</v>
-      </c>
-      <c r="D22" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>407</v>
+        <v>270</v>
       </c>
       <c r="B23" t="s">
-        <v>408</v>
-      </c>
-      <c r="C23" t="s">
-        <v>219</v>
-      </c>
-      <c r="D23" t="s">
-        <v>220</v>
-      </c>
-      <c r="E23" t="s">
-        <v>221</v>
-      </c>
-      <c r="F23" t="s">
-        <v>222</v>
-      </c>
-      <c r="G23" t="s">
-        <v>215</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>409</v>
+        <v>342</v>
       </c>
       <c r="B24" t="s">
-        <v>410</v>
+        <v>343</v>
       </c>
       <c r="C24" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="D24" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="E24" t="s">
-        <v>225</v>
+        <v>218</v>
+      </c>
+      <c r="F24" t="s">
+        <v>272</v>
+      </c>
+      <c r="G24" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -4952,1157 +4566,329 @@
         <v>274</v>
       </c>
       <c r="B25" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="C25" t="s">
-        <v>331</v>
+        <v>373</v>
+      </c>
+      <c r="D25" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>411</v>
+        <v>277</v>
       </c>
       <c r="B26" t="s">
-        <v>412</v>
-      </c>
-      <c r="C26" t="s">
-        <v>226</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>350</v>
+        <v>219</v>
       </c>
       <c r="B27" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="C27" t="s">
-        <v>309</v>
+        <v>220</v>
       </c>
       <c r="D27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E27" t="s">
-        <v>221</v>
+        <v>375</v>
       </c>
       <c r="F27" t="s">
+        <v>376</v>
+      </c>
+      <c r="G27" t="s">
         <v>222</v>
       </c>
-      <c r="G27" t="s">
-        <v>240</v>
-      </c>
       <c r="H27" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="I27" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="J27" t="s">
-        <v>243</v>
+        <v>225</v>
+      </c>
+      <c r="K27" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>306</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
+      </c>
+      <c r="B28" t="s">
+        <v>345</v>
       </c>
       <c r="C28" t="s">
-        <v>320</v>
-      </c>
-      <c r="D28" t="s">
-        <v>196</v>
-      </c>
-      <c r="E28" t="s">
-        <v>193</v>
-      </c>
-      <c r="F28" t="s">
-        <v>240</v>
-      </c>
-      <c r="G28" t="s">
-        <v>241</v>
-      </c>
-      <c r="H28" t="s">
-        <v>242</v>
-      </c>
-      <c r="I28" t="s">
-        <v>243</v>
-      </c>
-      <c r="J28" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>246</v>
-      </c>
-      <c r="B29" t="s">
-        <v>322</v>
-      </c>
-      <c r="C29" t="s">
-        <v>239</v>
-      </c>
-      <c r="D29" t="s">
-        <v>301</v>
-      </c>
-      <c r="E29" t="s">
-        <v>302</v>
-      </c>
-      <c r="F29" t="s">
-        <v>236</v>
-      </c>
-      <c r="G29" t="s">
-        <v>303</v>
-      </c>
-      <c r="H29" t="s">
-        <v>237</v>
-      </c>
-      <c r="I29" t="s">
-        <v>238</v>
-      </c>
-      <c r="J29" t="s">
-        <v>67</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>413</v>
-      </c>
-      <c r="B30" t="s">
-        <v>414</v>
-      </c>
-      <c r="C30" t="s">
-        <v>415</v>
-      </c>
-      <c r="D30" t="s">
-        <v>280</v>
-      </c>
-      <c r="E30" t="s">
-        <v>244</v>
-      </c>
-      <c r="F30" t="s">
-        <v>245</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="C31" t="s">
-        <v>236</v>
+        <v>350</v>
       </c>
       <c r="D31" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="E31" t="s">
-        <v>238</v>
-      </c>
-      <c r="F31" t="s">
-        <v>239</v>
-      </c>
-      <c r="G31" t="s">
-        <v>240</v>
-      </c>
-      <c r="H31" t="s">
-        <v>241</v>
-      </c>
-      <c r="I31" t="s">
-        <v>242</v>
-      </c>
-      <c r="J31" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>347</v>
       </c>
       <c r="B32" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>348</v>
+      </c>
+      <c r="B33" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" t="s">
+        <v>349</v>
+      </c>
+      <c r="D33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>301</v>
+      </c>
+      <c r="B35" t="s">
+        <v>302</v>
+      </c>
+      <c r="C35" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>285</v>
+      </c>
+      <c r="B36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>287</v>
+      </c>
+      <c r="B37" t="s">
+        <v>288</v>
+      </c>
+      <c r="C37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>290</v>
+      </c>
+      <c r="B38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>351</v>
+      </c>
+      <c r="B40" t="s">
         <v>352</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" t="s">
+        <v>237</v>
+      </c>
+      <c r="C43" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>240</v>
+      </c>
+      <c r="B44" t="s">
+        <v>241</v>
+      </c>
+      <c r="C44" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" t="s">
+        <v>243</v>
+      </c>
+      <c r="E44" t="s">
+        <v>244</v>
+      </c>
+      <c r="F44" t="s">
+        <v>245</v>
+      </c>
+      <c r="G44" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>292</v>
+      </c>
+      <c r="B45" t="s">
+        <v>293</v>
+      </c>
+      <c r="C45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D45" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>295</v>
+      </c>
+      <c r="B46" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>283</v>
-      </c>
-      <c r="B33" t="s">
-        <v>273</v>
-      </c>
-      <c r="C33" t="s">
-        <v>327</v>
-      </c>
-      <c r="D33" t="s">
-        <v>328</v>
-      </c>
-      <c r="E33" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>416</v>
-      </c>
-      <c r="B34" t="s">
-        <v>330</v>
-      </c>
-      <c r="C34" t="s">
-        <v>331</v>
-      </c>
-      <c r="D34" t="s">
-        <v>222</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="C46" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>353</v>
+      </c>
+      <c r="B47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>296</v>
+      </c>
+      <c r="B48" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>355</v>
+      </c>
+      <c r="B49" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>247</v>
+      </c>
+      <c r="B50" t="s">
+        <v>377</v>
+      </c>
+      <c r="C50" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" t="s">
+        <v>244</v>
+      </c>
+      <c r="E50" t="s">
         <v>248</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F50" t="s">
         <v>249</v>
       </c>
-      <c r="G34" t="s">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>356</v>
+      </c>
+      <c r="B51" t="s">
+        <v>357</v>
+      </c>
+      <c r="C51" t="s">
+        <v>379</v>
+      </c>
+      <c r="D51" t="s">
         <v>250</v>
       </c>
-      <c r="H34" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>417</v>
-      </c>
-      <c r="B35" t="s">
-        <v>215</v>
-      </c>
-      <c r="C35" t="s">
-        <v>366</v>
-      </c>
-      <c r="D35" t="s">
-        <v>173</v>
-      </c>
-      <c r="E35" t="s">
-        <v>367</v>
-      </c>
-      <c r="F35" t="s">
-        <v>250</v>
-      </c>
-      <c r="G35" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>418</v>
-      </c>
-      <c r="B36" t="s">
-        <v>419</v>
-      </c>
-      <c r="C36" t="s">
-        <v>310</v>
-      </c>
-      <c r="D36" t="s">
-        <v>248</v>
-      </c>
-      <c r="E36" t="s">
-        <v>249</v>
-      </c>
-      <c r="F36" t="s">
-        <v>250</v>
-      </c>
-      <c r="G36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>420</v>
-      </c>
-      <c r="B37" t="s">
-        <v>421</v>
-      </c>
-      <c r="C37" t="s">
-        <v>422</v>
-      </c>
-      <c r="D37" t="s">
-        <v>336</v>
-      </c>
-      <c r="E37" t="s">
-        <v>208</v>
-      </c>
-      <c r="F37" t="s">
-        <v>250</v>
-      </c>
-      <c r="G37" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>311</v>
-      </c>
-      <c r="B38" t="s">
-        <v>338</v>
-      </c>
-      <c r="C38" t="s">
-        <v>310</v>
-      </c>
-      <c r="D38" t="s">
-        <v>248</v>
-      </c>
-      <c r="E38" t="s">
-        <v>249</v>
-      </c>
-      <c r="F38" t="s">
-        <v>250</v>
-      </c>
-      <c r="G38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>230</v>
-      </c>
-      <c r="B39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" t="s">
-        <v>231</v>
-      </c>
-      <c r="D39" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>314</v>
-      </c>
-      <c r="B40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40" t="s">
-        <v>341</v>
-      </c>
-      <c r="E40" t="s">
-        <v>263</v>
-      </c>
-      <c r="F40" t="s">
-        <v>264</v>
-      </c>
-      <c r="G40" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>423</v>
-      </c>
-      <c r="B41" t="s">
-        <v>424</v>
-      </c>
-      <c r="C41" t="s">
-        <v>312</v>
-      </c>
-      <c r="D41" t="s">
-        <v>315</v>
-      </c>
-      <c r="E41" t="s">
-        <v>233</v>
-      </c>
-      <c r="F41" t="s">
-        <v>316</v>
-      </c>
-      <c r="G41" t="s">
-        <v>317</v>
-      </c>
-      <c r="H41" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>425</v>
-      </c>
-      <c r="B42" t="s">
-        <v>282</v>
-      </c>
-      <c r="C42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>318</v>
-      </c>
-      <c r="B43" t="s">
-        <v>319</v>
-      </c>
-      <c r="C43" t="s">
-        <v>320</v>
-      </c>
-      <c r="D43" t="s">
-        <v>315</v>
-      </c>
-      <c r="E43" t="s">
-        <v>233</v>
-      </c>
-      <c r="F43" t="s">
-        <v>316</v>
-      </c>
-      <c r="G43" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>321</v>
-      </c>
-      <c r="B44" t="s">
-        <v>322</v>
-      </c>
-      <c r="C44" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44" t="s">
-        <v>262</v>
-      </c>
-      <c r="E44" t="s">
-        <v>263</v>
-      </c>
-      <c r="F44" t="s">
-        <v>264</v>
-      </c>
-      <c r="G44" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>426</v>
-      </c>
-      <c r="B45" t="s">
-        <v>231</v>
-      </c>
-      <c r="C45" t="s">
-        <v>192</v>
-      </c>
-      <c r="D45" t="s">
-        <v>196</v>
-      </c>
-      <c r="E45" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>234</v>
-      </c>
-      <c r="B46" t="s">
-        <v>235</v>
-      </c>
-      <c r="C46" t="s">
-        <v>236</v>
-      </c>
-      <c r="D46" t="s">
-        <v>237</v>
-      </c>
-      <c r="E46" t="s">
-        <v>238</v>
-      </c>
-      <c r="F46" t="s">
-        <v>239</v>
-      </c>
-      <c r="G46" t="s">
-        <v>240</v>
-      </c>
-      <c r="H46" t="s">
-        <v>300</v>
-      </c>
-      <c r="I46" t="s">
-        <v>241</v>
-      </c>
-      <c r="J46" t="s">
-        <v>242</v>
-      </c>
-      <c r="K46" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>427</v>
-      </c>
-      <c r="B47" t="s">
-        <v>428</v>
-      </c>
-      <c r="C47" t="s">
-        <v>323</v>
-      </c>
-      <c r="D47" t="s">
-        <v>196</v>
-      </c>
-      <c r="E47" t="s">
-        <v>193</v>
-      </c>
-      <c r="F47" t="s">
-        <v>264</v>
-      </c>
-      <c r="G47" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>324</v>
-      </c>
-      <c r="B48" t="s">
-        <v>236</v>
-      </c>
-      <c r="C48" t="s">
-        <v>237</v>
-      </c>
-      <c r="D48" t="s">
-        <v>238</v>
-      </c>
-      <c r="E48" t="s">
-        <v>239</v>
-      </c>
-      <c r="F48" t="s">
-        <v>240</v>
-      </c>
-      <c r="G48" t="s">
-        <v>241</v>
-      </c>
-      <c r="H48" t="s">
-        <v>242</v>
-      </c>
-      <c r="I48" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>429</v>
-      </c>
-      <c r="B49" t="s">
-        <v>256</v>
-      </c>
-      <c r="C49" t="s">
-        <v>257</v>
-      </c>
-      <c r="D49" t="s">
-        <v>258</v>
-      </c>
-      <c r="E49" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>325</v>
-      </c>
-      <c r="B50" t="s">
-        <v>326</v>
-      </c>
-      <c r="C50" t="s">
-        <v>327</v>
-      </c>
-      <c r="D50" t="s">
-        <v>328</v>
-      </c>
-      <c r="E50" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>430</v>
-      </c>
-      <c r="B51" t="s">
-        <v>260</v>
-      </c>
-      <c r="C51" t="s">
-        <v>261</v>
-      </c>
-      <c r="D51" t="s">
-        <v>262</v>
-      </c>
       <c r="E51" t="s">
-        <v>263</v>
-      </c>
-      <c r="F51" t="s">
-        <v>264</v>
-      </c>
-      <c r="G51" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>329</v>
-      </c>
-      <c r="B52" t="s">
-        <v>434</v>
-      </c>
-      <c r="C52" t="s">
-        <v>330</v>
-      </c>
-      <c r="D52" t="s">
-        <v>331</v>
-      </c>
-      <c r="E52" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>431</v>
-      </c>
-      <c r="B53" t="s">
-        <v>207</v>
-      </c>
-      <c r="C53" t="s">
-        <v>208</v>
-      </c>
-      <c r="D53" t="s">
-        <v>278</v>
-      </c>
-      <c r="E53" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>432</v>
-      </c>
-      <c r="B54" t="s">
-        <v>219</v>
-      </c>
-      <c r="C54" t="s">
-        <v>433</v>
-      </c>
-      <c r="D54" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>435</v>
-      </c>
-      <c r="B55" t="s">
-        <v>233</v>
-      </c>
-      <c r="C55" t="s">
-        <v>436</v>
-      </c>
-      <c r="D55" t="s">
-        <v>332</v>
-      </c>
-      <c r="E55" t="s">
-        <v>333</v>
-      </c>
-      <c r="F55" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>334</v>
-      </c>
-      <c r="B56" t="s">
-        <v>233</v>
-      </c>
-      <c r="C56" t="s">
-        <v>436</v>
-      </c>
-      <c r="D56" t="s">
-        <v>332</v>
-      </c>
-      <c r="E56" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>372</v>
-      </c>
-      <c r="B57" t="s">
-        <v>373</v>
-      </c>
-      <c r="C57" t="s">
-        <v>308</v>
-      </c>
-      <c r="D57" t="s">
-        <v>309</v>
-      </c>
-      <c r="E57" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>337</v>
-      </c>
-      <c r="B58" t="s">
-        <v>338</v>
-      </c>
-      <c r="C58" t="s">
-        <v>268</v>
-      </c>
-      <c r="D58" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>339</v>
-      </c>
-      <c r="B59" t="s">
-        <v>340</v>
-      </c>
-      <c r="C59" t="s">
-        <v>207</v>
-      </c>
-      <c r="D59" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>345</v>
-      </c>
-      <c r="B60" t="s">
-        <v>281</v>
-      </c>
-      <c r="C60" t="s">
-        <v>366</v>
-      </c>
-      <c r="D60" t="s">
-        <v>173</v>
-      </c>
-      <c r="E60" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>232</v>
-      </c>
-      <c r="B61" t="s">
-        <v>233</v>
-      </c>
-      <c r="C61" t="s">
-        <v>207</v>
-      </c>
-      <c r="D61" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>284</v>
-      </c>
-      <c r="B62" t="s">
-        <v>281</v>
-      </c>
-      <c r="C62" t="s">
-        <v>335</v>
-      </c>
-      <c r="D62" t="s">
-        <v>336</v>
-      </c>
-      <c r="E62" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>346</v>
-      </c>
-      <c r="B63" t="s">
-        <v>231</v>
-      </c>
-      <c r="C63" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>347</v>
-      </c>
-      <c r="B64" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
         <v>251</v>
-      </c>
-      <c r="B65" t="s">
-        <v>231</v>
-      </c>
-      <c r="C65" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>348</v>
-      </c>
-      <c r="B66" t="s">
-        <v>340</v>
-      </c>
-      <c r="C66" t="s">
-        <v>207</v>
-      </c>
-      <c r="D66" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>252</v>
-      </c>
-      <c r="B67" t="s">
-        <v>253</v>
-      </c>
-      <c r="C67" t="s">
-        <v>342</v>
-      </c>
-      <c r="D67" t="s">
-        <v>343</v>
-      </c>
-      <c r="E67" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>437</v>
-      </c>
-      <c r="B68" t="s">
-        <v>438</v>
-      </c>
-      <c r="C68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>349</v>
-      </c>
-      <c r="B69" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>439</v>
-      </c>
-      <c r="B70" t="s">
-        <v>438</v>
-      </c>
-      <c r="C70" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>255</v>
-      </c>
-      <c r="B72" t="s">
-        <v>256</v>
-      </c>
-      <c r="C72" t="s">
-        <v>257</v>
-      </c>
-      <c r="D72" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>259</v>
-      </c>
-      <c r="B73" t="s">
-        <v>260</v>
-      </c>
-      <c r="C73" t="s">
-        <v>261</v>
-      </c>
-      <c r="D73" t="s">
-        <v>262</v>
-      </c>
-      <c r="E73" t="s">
-        <v>263</v>
-      </c>
-      <c r="F73" t="s">
-        <v>264</v>
-      </c>
-      <c r="G73" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>353</v>
-      </c>
-      <c r="B74" t="s">
-        <v>354</v>
-      </c>
-      <c r="C74" t="s">
-        <v>279</v>
-      </c>
-      <c r="D74" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>356</v>
-      </c>
-      <c r="B75" t="s">
-        <v>256</v>
-      </c>
-      <c r="C75" t="s">
-        <v>257</v>
-      </c>
-      <c r="D75" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>199</v>
-      </c>
-      <c r="B76" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>440</v>
-      </c>
-      <c r="B77" t="s">
-        <v>118</v>
-      </c>
-      <c r="C77" t="s">
-        <v>441</v>
-      </c>
-      <c r="D77" t="s">
-        <v>262</v>
-      </c>
-      <c r="E77" t="s">
-        <v>263</v>
-      </c>
-      <c r="F77" t="s">
-        <v>264</v>
-      </c>
-      <c r="G77" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>357</v>
-      </c>
-      <c r="B78" t="s">
-        <v>233</v>
-      </c>
-      <c r="C78" t="s">
-        <v>315</v>
-      </c>
-      <c r="D78" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>358</v>
-      </c>
-      <c r="B79" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>442</v>
-      </c>
-      <c r="B80" t="s">
-        <v>256</v>
-      </c>
-      <c r="C80" t="s">
-        <v>257</v>
-      </c>
-      <c r="D80" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>270</v>
-      </c>
-      <c r="B81" t="s">
-        <v>262</v>
-      </c>
-      <c r="C81" t="s">
-        <v>263</v>
-      </c>
-      <c r="D81" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>364</v>
-      </c>
-      <c r="B82" t="s">
-        <v>365</v>
-      </c>
-      <c r="C82" t="s">
-        <v>366</v>
-      </c>
-      <c r="D82" t="s">
-        <v>173</v>
-      </c>
-      <c r="E82" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>443</v>
-      </c>
-      <c r="B83" t="s">
-        <v>444</v>
-      </c>
-      <c r="C83" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>442</v>
-      </c>
-      <c r="B84" t="s">
-        <v>354</v>
-      </c>
-      <c r="C84" t="s">
-        <v>279</v>
-      </c>
-      <c r="D84" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>270</v>
-      </c>
-      <c r="B85" t="s">
-        <v>262</v>
-      </c>
-      <c r="C85" t="s">
-        <v>263</v>
-      </c>
-      <c r="D85" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>364</v>
-      </c>
-      <c r="B86" t="s">
-        <v>365</v>
-      </c>
-      <c r="C86" t="s">
-        <v>366</v>
-      </c>
-      <c r="D86" t="s">
-        <v>173</v>
-      </c>
-      <c r="E86" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>443</v>
-      </c>
-      <c r="B87" t="s">
-        <v>444</v>
-      </c>
-      <c r="C87" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>359</v>
-      </c>
-      <c r="B88" t="s">
-        <v>340</v>
-      </c>
-      <c r="C88" t="s">
-        <v>360</v>
-      </c>
-      <c r="D88" t="s">
-        <v>361</v>
-      </c>
-      <c r="E88" t="s">
-        <v>362</v>
-      </c>
-      <c r="F88" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>364</v>
-      </c>
-      <c r="B89" t="s">
-        <v>365</v>
-      </c>
-      <c r="C89" t="s">
-        <v>366</v>
-      </c>
-      <c r="D89" t="s">
-        <v>173</v>
-      </c>
-      <c r="E89" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>275</v>
-      </c>
-      <c r="B90" t="s">
-        <v>276</v>
-      </c>
-      <c r="C90" t="s">
-        <v>277</v>
-      </c>
-      <c r="D90" t="s">
-        <v>278</v>
-      </c>
-      <c r="E90" t="s">
-        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -6126,10 +4912,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6287,7 +5073,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
         <v>118</v>
@@ -6317,32 +5103,32 @@
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>368</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
-        <v>374</v>
+        <v>303</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="10">
+        <v>165</v>
+      </c>
+      <c r="D2" s="9">
         <v>637.32000000000005</v>
       </c>
       <c r="E2">
@@ -6357,15 +5143,15 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>369</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s">
-        <v>374</v>
+        <v>303</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="10">
+        <v>163</v>
+      </c>
+      <c r="D3" s="9">
         <v>699.12</v>
       </c>
       <c r="E3">
@@ -6380,15 +5166,15 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>375</v>
+        <v>304</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="10">
+        <v>163</v>
+      </c>
+      <c r="D4" s="9">
         <v>717.35416666699996</v>
       </c>
       <c r="E4">
@@ -6403,15 +5189,15 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>304</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="10">
+        <v>166</v>
+      </c>
+      <c r="D5" s="9">
         <v>593.9</v>
       </c>
       <c r="E5">
@@ -6426,15 +5212,15 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>376</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="10">
+        <v>164</v>
+      </c>
+      <c r="D6" s="9">
         <v>793.3125</v>
       </c>
       <c r="E6">
@@ -6449,15 +5235,15 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>377</v>
+        <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>376</v>
+        <v>305</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" s="10">
+        <v>165</v>
+      </c>
+      <c r="D7" s="9">
         <v>832.125</v>
       </c>
       <c r="E7">
@@ -6472,15 +5258,15 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s">
-        <v>376</v>
+        <v>305</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" s="10">
+        <v>166</v>
+      </c>
+      <c r="D8" s="9">
         <v>824.72500000000002</v>
       </c>
       <c r="E8">
@@ -6495,15 +5281,15 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>380</v>
+        <v>309</v>
       </c>
       <c r="B9" t="s">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" s="10">
+        <v>167</v>
+      </c>
+      <c r="D9" s="9">
         <v>-569.35913249999999</v>
       </c>
       <c r="E9">
@@ -6518,15 +5304,15 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="B10" t="s">
-        <v>378</v>
+        <v>307</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" s="10">
+        <v>164</v>
+      </c>
+      <c r="D10" s="9">
         <v>409.64</v>
       </c>
       <c r="E10">
@@ -6540,7 +5326,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <f>SUM(D2:D10)</f>
         <v>4938.1375341670009</v>
       </c>
@@ -6590,7 +5376,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>384</v>
+        <v>313</v>
       </c>
       <c r="B2">
         <v>3403.3</v>
@@ -6604,7 +5390,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>385</v>
+        <v>314</v>
       </c>
       <c r="B3">
         <v>1913.05</v>
@@ -6618,7 +5404,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>386</v>
+        <v>315</v>
       </c>
       <c r="B4">
         <v>1943.25</v>
@@ -6632,7 +5418,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>386</v>
+        <v>315</v>
       </c>
       <c r="B5">
         <v>1733.4</v>

--- a/Fanduel.xlsx
+++ b/Fanduel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="_ironspread_data_" sheetId="4" state="veryHidden" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Player Mapping'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'To Do'!$A$1:$G$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'To Do'!$A$1:$H$22</definedName>
     <definedName name="cLastDataDate">Parameters!#REF!</definedName>
     <definedName name="clEntryLimit">Parameters!$B$5</definedName>
     <definedName name="cLineUpURL">Parameters!$B$2</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="371">
   <si>
     <t>n_scripts_list</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -599,18 +596,6 @@
     <t>Place</t>
   </si>
   <si>
-    <t>S116326603</t>
-  </si>
-  <si>
-    <t>S116301544</t>
-  </si>
-  <si>
-    <t>S116301404</t>
-  </si>
-  <si>
-    <t>S116301270</t>
-  </si>
-  <si>
     <t>Matt Calvert</t>
   </si>
   <si>
@@ -629,48 +614,21 @@
     <t>Pascal Dupuis</t>
   </si>
   <si>
-    <t>Patrick Dwyer</t>
-  </si>
-  <si>
-    <t>Patrick Wiercioch</t>
-  </si>
-  <si>
     <t>Patrick Marleau</t>
   </si>
   <si>
-    <t>Philipp Grubauer</t>
-  </si>
-  <si>
-    <t>Philip Varone</t>
-  </si>
-  <si>
-    <t>Philip Samuelsson</t>
-  </si>
-  <si>
-    <t>Filip Forsberg</t>
-  </si>
-  <si>
     <t>Andrei Markov</t>
   </si>
   <si>
     <t>Andrew Cogliano</t>
   </si>
   <si>
-    <t>Dmitry Orlov</t>
-  </si>
-  <si>
-    <t>Dmitry Kulikov</t>
-  </si>
-  <si>
     <t>Jacob Markstrom</t>
   </si>
   <si>
     <t>Chad Johnson</t>
   </si>
   <si>
-    <t>Patric Hornqvist</t>
-  </si>
-  <si>
     <t>Nathan Gerbe</t>
   </si>
   <si>
@@ -683,27 +641,12 @@
     <t>Jonathan Ericsson</t>
   </si>
   <si>
-    <t>Carl Soderberg</t>
-  </si>
-  <si>
-    <t>Karl Alzner</t>
-  </si>
-  <si>
-    <t>Carl Hagelin</t>
-  </si>
-  <si>
-    <t>Matthew Lombardi</t>
-  </si>
-  <si>
     <t>Matt Dumba</t>
   </si>
   <si>
     <t>Brian Elliott</t>
   </si>
   <si>
-    <t>Chris Conner</t>
-  </si>
-  <si>
     <t>Chris Terry</t>
   </si>
   <si>
@@ -722,12 +665,6 @@
     <t>Charlie Coyle</t>
   </si>
   <si>
-    <t>Chris Thorburn</t>
-  </si>
-  <si>
-    <t>Erik Condra</t>
-  </si>
-  <si>
     <t>Chris Kelly</t>
   </si>
   <si>
@@ -743,33 +680,15 @@
     <t>Colin Wilson</t>
   </si>
   <si>
-    <t>Calvin de Haan</t>
-  </si>
-  <si>
     <t>Calvin de_Haan</t>
   </si>
   <si>
-    <t>Harry Zolnierczyk</t>
-  </si>
-  <si>
-    <t>Steven Oleksy</t>
-  </si>
-  <si>
-    <t>Steven Stamkos</t>
-  </si>
-  <si>
     <t>Steve Ott</t>
   </si>
   <si>
     <t>Stephen Weiss</t>
   </si>
   <si>
-    <t>Tomas Kaberle</t>
-  </si>
-  <si>
-    <t>Tomas Hertl</t>
-  </si>
-  <si>
     <t>Tomas Tatar</t>
   </si>
   <si>
@@ -800,198 +719,39 @@
     <t>Keith Aulie</t>
   </si>
   <si>
-    <t>Jason Demers</t>
-  </si>
-  <si>
     <t>Kris Letang</t>
   </si>
   <si>
-    <t>S119446122</t>
-  </si>
-  <si>
-    <t>S119468134</t>
-  </si>
-  <si>
-    <t>S119440314</t>
-  </si>
-  <si>
-    <t>Richard Bachman</t>
-  </si>
-  <si>
-    <t>Richard Panik</t>
-  </si>
-  <si>
     <t>Tye McGinn</t>
   </si>
   <si>
-    <t>Jonas Gustavsson</t>
-  </si>
-  <si>
-    <t>Mike McKenna</t>
-  </si>
-  <si>
-    <t>Mike Green</t>
-  </si>
-  <si>
-    <t>Luke Schenn</t>
-  </si>
-  <si>
     <t>Chris Neil</t>
   </si>
   <si>
     <t>Chris Kunitz</t>
   </si>
   <si>
-    <t>Joey MacDonald</t>
-  </si>
-  <si>
-    <t>Andrew MacDonald</t>
-  </si>
-  <si>
-    <t>Andrei Vasilevskii</t>
-  </si>
-  <si>
     <t>Matt Ellis</t>
   </si>
   <si>
-    <t>Maxime Fortunus</t>
-  </si>
-  <si>
-    <t>Sean Collins</t>
-  </si>
-  <si>
-    <t>Dylan Olsen</t>
-  </si>
-  <si>
-    <t>Dan Hamhuis</t>
-  </si>
-  <si>
-    <t>Jack Campbell</t>
-  </si>
-  <si>
-    <t>Brian Campbell</t>
-  </si>
-  <si>
-    <t>Gregory Campbell</t>
-  </si>
-  <si>
-    <t>Andy Miele</t>
-  </si>
-  <si>
-    <t>Andy Greene</t>
-  </si>
-  <si>
-    <t>Brad Boyes</t>
-  </si>
-  <si>
-    <t>Rich Peverley</t>
-  </si>
-  <si>
-    <t>Josh Harding</t>
-  </si>
-  <si>
     <t>Josh Gorges</t>
   </si>
   <si>
     <t>Josh Bailey</t>
   </si>
   <si>
-    <t>Kristers Gudlevskis</t>
-  </si>
-  <si>
-    <t>Oliver Lauridsen</t>
-  </si>
-  <si>
-    <t>Oliver Ekman-Larsson</t>
-  </si>
-  <si>
-    <t>Alexei Marchenko</t>
-  </si>
-  <si>
-    <t>Alex Galchenyuk</t>
-  </si>
-  <si>
     <t>Alexei Emelin</t>
   </si>
   <si>
-    <t>Mathew Dumba</t>
-  </si>
-  <si>
-    <t>Quinton Howden</t>
-  </si>
-  <si>
-    <t>Jason Williams</t>
-  </si>
-  <si>
-    <t>Justin Williams</t>
-  </si>
-  <si>
-    <t>Jason Pominville</t>
-  </si>
-  <si>
-    <t>Allan York</t>
-  </si>
-  <si>
     <t>Stefan Elliott</t>
   </si>
   <si>
     <t>Ryan Callahan</t>
   </si>
   <si>
-    <t>Valtteri Filppula</t>
-  </si>
-  <si>
-    <t>S120331303</t>
-  </si>
-  <si>
-    <t>Mike Weaver</t>
-  </si>
-  <si>
-    <t>Thomas McCollum</t>
-  </si>
-  <si>
-    <t>Tom McCollum</t>
-  </si>
-  <si>
-    <t>['TBL', 'TBL', 'TBL', 'TBL', 'TBL']</t>
-  </si>
-  <si>
-    <t>['MTL', 'MTL', 'MTL', 'MTL']</t>
-  </si>
-  <si>
-    <t>['PIT', 'PIT', 'PIT', 'PIT']</t>
-  </si>
-  <si>
     <t>David Perron</t>
   </si>
   <si>
-    <t>['DET', 'DET', 'DET', 'DET', 'DET']</t>
-  </si>
-  <si>
-    <t>{u'MIN': [['Zach Parise', 'Mikko Koivu', 'Jason Pominville'], ['Jason Zucker', 'Erik Haula', 'Thomas Vanek'], ['Ryan Carter', 'Charlie Coyle', 'Nino Niederreiter'], ['Matt Cooke', 'Kyle Brodziak', 'Justin Fontaine'], ['Ryan Suter', 'Jonas Brodin'], ['Jared Spurgeon', 'Mathew Dumba'], ['Marco Scandella', 'Christian Folin'], ['Zach Parise', 'Mikko Koivu', 'Thomas Vanek', 'Ryan Suter', 'Jason Pominville'], ['Jason Zucker', 'Charlie Coyle', 'Nino Niederreiter', 'Jared Spurgeon', 'Jonas Brodin']], u'TOR': [['James van Riemsdyk', 'Nazem Kadri', 'Phil Kessel'], ['Daniel Winnik', 'Tyler Bozak', 'David Clarkson'], ['Richard Panik', 'Mike Santorelli', 'Josh Leivo'], ['David Booth', 'Trevor Smith', 'Matt Frattin'], ['Dion Phaneuf', 'Cody Franson'], ['Morgan Rielly', 'Roman Polak'], ['Jake Gardiner', 'Korbinian Holzer'], ['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel', 'Dion Phaneuf', 'Cody Franson'], ['Richard Panik', 'Nazem Kadri', 'David Clarkson', 'Jake Gardiner', 'Morgan Rielly']], u'CAR': [['Eric Staal', 'Jordan Staal', 'Jiri Tlusty'], ['Jeff Skinner', 'Victor Rask', 'Elias Lindholm'], ['Nathan Gerbe', 'Riley Nash', 'Chris Terry'], ['Brad Malone', 'Jay McClement', 'Pat Dwyer'], ['Andrej Sekera', 'Justin Faulk'], ['Tim Gleason', 'John-Michael Liles'], ['Ron Hainsey', 'Brett Bellemore'], ['Eric Staal', 'Jordan Staal', 'Jiri Tlusty', 'Andrej Sekera', 'John-Michael Liles'], ['Jeff Skinner', 'Riley Nash', 'Victor Rask', 'Elias Lindholm', 'Justin Faulk']], u'BOS': [['Milan Lucic', 'David Krejci', 'David Pastrnak'], ['Daniel Paille', 'Patrice Bergeron', 'Reilly Smith'], ['Chris Kelly', 'Carl Soderberg', 'Loui Eriksson'], ['Jordan Caron', 'Gregory Campbell', 'Craig Cunningham'], ['Zdeno Chara', 'Dougie Hamilton'], ['Dennis Seidenberg', 'Adam McQuaid'], ['Torey Krug', 'Kevan Miller'], ['Loui Eriksson', 'Patrice Bergeron', 'Reilly Smith', 'Carl Soderberg', 'Dougie Hamilton'], ['Milan Lucic', 'David Krejci', 'David Pastrnak', 'Zdeno Chara', 'Torey Krug']], u'DET': [['Gustav Nyquist', 'Henrik Zetterberg', 'Justin Abdelkader'], ['Tomas Tatar', 'Pavel Datsyuk', 'Darren Helm'], ['Luke Glendening', 'Riley Sheahan', 'Drew Miller'], ['Stephen Weiss', 'Joakim Andersson', 'Teemu Pulkkinen'], ['Jonathan Ericsson', 'Niklas Kronwall'], ['Kyle Quincey', 'Dan DeKeyser'], ['Brendan Smith', 'Xavier Ouellet'], ['Gustav Nyquist', 'Henrik Zetterberg', 'Justin Abdelkader', 'Teemu Pulkkinen', 'Niklas Kronwall'], ['Tomas Tatar', 'Pavel Datsyuk', 'Riley Sheahan', 'Stephen Weiss', 'Dan DeKeyser']], u'NAS': [['Filip Forsberg', 'Mike Ribeiro', 'Craig Smith'], ['Colin Wilson', 'Mike Fisher', 'James Neal'], ['Gabriel Bourque', 'Calle Jarnkrok', 'Matt Cullen'], ['Eric Nystrom', 'Paul Gaustad', 'Olli Jokinen'], ['Roman Josi', 'Shea Weber'], ['Victor Bartley', 'Seth Jones'], ['Mattias Ekholm', 'Anthony Bitetto'], ['Filip Forsberg', 'Mike Fisher', 'James Neal', 'Roman Josi', 'Shea Weber'], ['Colin Wilson', 'Mike Ribeiro', 'Craig Smith', 'Seth Jones', 'Mattias Ekholm']], u'NYI': [['Josh Bailey', 'John Tavares', 'Kyle Okposo'], ['Anders Lee', 'Frans Nielsen', 'Ryan Strome'], ['Michael Grabner', 'Brock Nelson', 'Nikolay Kulemin'], ['Matt Martin', 'Casey Cizikas', 'Cal Clutterbuck'], ['Calvin de Haan', 'Travis Hamonic'], ['Nick Leddy', 'Johnny Boychuk'], ['Thomas Hickey', 'Brian Strait'], ['Brock Nelson', 'John Tavares', 'Kyle Okposo', 'Frans Nielsen', 'Johnny Boychuk'], ['Anders Lee', 'Ryan Strome', 'Josh Bailey', 'Nick Leddy', 'Travis Hamonic']], u'FLA': [['Jonathan Huberdeau', 'Aleksander Barkov', 'Brad Boyes'], ['Jimmy Hayes', 'Nick Bjugstad', 'Brandon Pirri'], ['Jussi Jokinen', 'Dave Bolland', 'Tomas Fleischmann'], ['Tomas Kopecky', 'Derek MacKenzie', 'Scottie Upshall'], ['Brian Campbell', 'Aaron Ekblad'], ['Willie Mitchell', 'Dmitry Kulikov'], ['Erik Gudbranson', 'Dylan Olsen'], ['Jonathan Huberdeau', 'Nick Bjugstad', 'Aleksander Barkov', 'Brian Campbell', 'Aaron Ekblad'], ['Tomas Fleischmann', 'Dave Bolland', 'Jussi Jokinen', 'Dylan Olsen', 'Dmitry Kulikov']], u'COL': [['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon'], ['Alex Tanguay', 'Matt Duchene', 'Jarome Iginla'], ['Dennis Everberg', 'John Mitchell', 'Cody McLeod'], ['Marc-Andre Cliche', 'Max Talbot', 'Danny Briere'], ['Jan Hejda', 'Erik Johnson'], ['Nate Guenin', 'Tyson Barrie'], ['Brad Stuart', 'Nick Holden'], ['Gabriel Landeskog', 'Matt Duchene', 'Nathan Mackinnon', 'Jarome Iginla', 'Erik Johnson'], ['Alex Tanguay', "Ryan O'Reilly", 'Cody McLeod', 'Nick Holden', 'Tyson Barrie']], u'NJD': [['Adam Henrique', 'Scott Gomez', 'Steve Bernier'], ['Patrik Elias', 'Travis Zajac', 'Martin Havlat'], ['Dainius Zubrus', 'Michael Cammalleri', 'Michael Ryder'], ['Joe Whitney', 'Tim Sestito', 'Jordin Tootoo'], ['Andy Greene', 'Adam Larsson'], ['Mark Fraser', 'Marek Zidlicky'], ['Jon Merrill', ''], ['Michael Ryder', 'Travis Zajac', 'Martin Havlat', 'Patrik Elias', 'Marek Zidlicky'], ['Adam Henrique', 'Scott Gomez', 'Michael Cammalleri', 'Jon Merrill', 'Eric Gelinas']], u'DAL': [['Jamie Benn', 'Tyler Seguin', 'Colton Sceviour'], ['Erik Cole', 'Jason Spezza', 'Ales Hemsky'], ['Antoine Roussel', 'Cody Eakin', 'Ryan Garbutt'], ['Shawn Horcoff', 'Vernon Fiddler', 'Travis Moen'], ['Alex Goligoski', 'John Klingberg'], ['Jordie Benn', 'Jason Demers'], ['Jyrki Jokipakka', 'Jamie Oleksiak'], ['Jamie Benn', 'Tyler Seguin', 'Cody Eakin', 'John Klingberg', 'Jason Spezza'], ['Erik Cole', 'Shawn Horcoff', 'Ales Hemsky', 'Alex Goligoski', 'Jason Demers']], u'CGY': [['Johnny Gaudreau', 'Mikael Backlund', 'Jiri Hudler'], ['Lance Bouma', 'Sean Monahan', 'David Jones'], ['Mason Raymond', 'Markus Granlund', 'Joe Colborne'], ['Brandon Bollig', 'Matt Stajan', 'Paul Byron'], ['Mark Giordano', 'T.J. Brodie'], ['Kris Russell', 'Dennis Wideman'], ['Ladislav Smid', 'Deryk Engelland'], ['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler', 'T.J. Brodie', 'Mark Giordano'], ['Mason Raymond', 'Mikael Backlund', 'Joe Colborne', 'Kris Russell', 'Dennis Wideman']], u'NYR': [['Rick Nash', 'Derick Brassard', 'Mats Zuccarello'], ['Chris Kreider', 'Derek Stepan', 'Martin St. Louis'], ['Carl Hagelin', 'Kevin Hayes', 'Jesper Fast'], ['J.T. Miller', 'Dominic Moore', 'Lee Stempniak'], ['Ryan McDonagh', 'Dan Girardi'], ['Marc Staal', 'Dan Boyle'], ['Kevin Klein', 'Matt Hunwick'], ['Rick Nash', 'Derick Brassard', 'Martin St. Louis', 'Derek Stepan', 'Dan Boyle'], ['Chris Kreider', 'J.T. Miller', 'Mats Zuccarello', 'Ryan McDonagh', 'Dan Girardi']], u'SJS': [['Melker Karlsson', 'Joe Thornton', 'Joe Pavelski'], ['Patrick Marleau', 'Logan Couture', 'Tommy Wingels'], ['Matthew Nieto', 'Tomas Hertl', 'Tyler Kennedy'], ['Andrew Desjardins', 'James Sheppard', 'Tye McGinn'], ['Marc-Edouard Vlasic', 'Brent Burns'], ['Brenden Dillon', 'Justin Braun'], ['Matt Irwin', 'Scott Hannan'], ['Patrick Marleau', 'Joe Thornton', 'Logan Couture', 'Joe Pavelski', 'Brent Burns'], ['Melker Karlsson', 'Tomas Hertl', 'Tyler Kennedy', 'Marc-Edouard Vlasic', 'Matt Irwin']], u'PIT': [['Chris Kunitz', 'Sidney Crosby', 'David Perron'], ['Nick Spaling', 'Evgeni Malkin', 'Beau Bennett'], ['Mark Arcobello', 'Brandon Sutter', 'Steve Downie'], ['Bobby Farnham', 'Zach Sill', 'Craig Adams'], ['Paul Martin', 'Kris Letang'], ['Rob Scuderi', 'Christian Ehrhoff'], ['Robert Bortuzzo', 'Simon Despres'], ['Chris Kunitz', 'Sidney Crosby', 'David Perron', 'Evgeni Malkin', 'Kris Letang'], ['Beau Bennett', 'Brandon Sutter', 'Steve Downie', 'Christian Ehrhoff', 'Paul Martin']], u'VAN': [['Daniel Sedin', 'Henrik Sedin', 'Radim Vrbata'], ['Chris Higgins', 'Linden Vey', 'Alexandre Burrows'], ['Shawn Matthias', 'Nick Bonino', 'Zack Kassian'], ['Derek Dorsett', 'Bo Horvat', 'Jannik Hansen'], ['Alexander Edler', 'Chris Tanev'], ['Ryan Stanton', 'Kevin Bieksa'], ['Dan Hamhuis', 'Luca Sbisa'], ['Daniel Sedin', 'Henrik Sedin', 'Radim Vrbata', 'Alexander Edler', 'Alexandre Burrows'], ['Derek Dorsett', 'Nick Bonino', 'Linden Vey', 'Chris Higgins', 'Kevin Bieksa']], u'STL': [['Alex Steen', 'David Backes', 'T.J. Oshie'], ['Patrik Berglund', 'Jori Lehtera', 'Vladimir Tarasenko'], ['Jaden Schwartz', 'Paul Stastny', 'Dmitrij Jaskin'], ['Steve Ott', 'Maxim Lapierre', 'Ryan Reaves'], ['Jay Bouwmeester', 'Alex Pietrangelo'], ['Carl Gunnarsson', 'Kevin Shattenkirk'], ['Barret Jackman', 'Ian Cole'], ['David Backes', 'Paul Stastny', 'T.J. Oshie', 'Alex Steen', 'Kevin Shattenkirk'], ['Jaden Schwartz', 'Jori Lehtera', 'Vladimir Tarasenko', 'Jay Bouwmeester', 'Alex Pietrangelo']], u'CHI': [['Brandon Saad', 'Jonathan Toews', 'Marian Hossa'], ['Bryan Bickell', 'Brad Richards', 'Patrick Kane'], ['Patrick Sharp', 'Teuvo Teravainen', 'Andrew Shaw'], ['Joakim Nordstrom', 'Marcus Kruger', 'Ben Smith'], ['Duncan Keith', 'Brent Seabrook'], ['Niklas Hjalmarsson', 'Johnny Oduya'], ['Michal Rozsival', 'David Rundblad'], ['Andrew Shaw', 'Jonathan Toews', 'Patrick Kane', 'Duncan Keith', 'Brad Richards'], ['Bryan Bickell', 'Brandon Saad', 'Marian Hossa', 'Patrick Sharp', 'Brent Seabrook']], u'MTL': [['Max Pacioretty', 'Tomas Plekanec', 'Dale Weise'], ['Alex Galchenyuk', 'David Desharnais', 'Brendan Gallagher'], ['Jiri Sekac', 'Lars Eller', 'Christian Thomas'], ['Michael Bournival', 'Manny Malhotra', 'Brandon Prust'], ['Andrei Markov', 'P.K. Subban'], ['Nathan Beaulieu', 'Sergei Gonchar'], ['Alexei Emelin', 'Tom Gilbert'], ['Max Pacioretty', 'Tomas Plekanec', 'Brendan Gallagher', 'Andrei Markov', 'P.K. Subban'], ['Jiri Sekac', 'David Desharnais', 'Alex Galchenyuk', 'Nathan Beaulieu', 'Sergei Gonchar']], u'PHI': [['Brayden Schenn', 'Claude Giroux', 'Jakub Voracek'], ['R.J. Umberger', 'Sean Couturier', 'Matt Read'], ['Zac Rinaldo', 'Michael Raffl', 'Wayne Simmonds'], ['Chris VandeVelde', 'Vincent Lecavalier'], ['Mark Streit', 'Andrew MacDonald'], ['Michael Del Zotto', 'Luke Schenn'], ['Brandon Manning', 'Oliver Lauridsen'], ['Brayden Schenn', 'Claude Giroux', 'Wayne Simmonds', 'Jakub Voracek', 'Mark Streit'], ['R.J. Umberger', 'Sean Couturier', 'Vincent Lecavalier', 'Matt Read', 'Michael Del Zotto']], u'ANA': [['Patrick Maroon', 'Ryan Getzlaf', 'Corey Perry'], ['Matt Beleskey', 'Ryan Kesler', 'Kyle Palmieri'], ['Andrew Cogliano', 'Rickard Rakell', 'Jakob Silfverberg'], ['Devante Smith-Pelly', 'Nate Thompson', 'Tim Jackman'], ['Francois Beauchemin', 'Hampus Lindholm'], ['Cam Fowler', 'Ben Lovejoy'], ['Clayton Stoner', 'Sami Vatanen'], ['Patrick Maroon', 'Ryan Getzlaf', 'Corey Perry', 'Cam Fowler', 'Sami Vatanen'], ['Rickard Rakell', 'Ryan Kesler', 'Kyle Palmieri', 'Francois Beauchemin', 'Hampus Lindholm']], u'LAK': [['Marian Gaborik', 'Anze Kopitar', 'Justin Williams'], ['Kyle Clifford', 'Nick Shore', 'Jeff Carter'], ['Dustin Brown', 'Jarret Stoll', 'Trevor Lewis'], ['Dwight King', 'Mike Richards', 'Jordan Nolan'], ['Jake Muzzin', 'Drew Doughty'], ['Brayden McNabb', 'Matt Greene'], ['Robyn Regehr', 'Alec Martinez'], ['Marian Gaborik', 'Anze Kopitar', 'Jeff Carter', 'Jake Muzzin', 'Drew Doughty'], ['Dustin Brown', 'Jarret Stoll', 'Justin Williams', 'Brayden McNabb', 'Alec Martinez']], u'CBJ': [['Nick Foligno', 'Ryan Johansen', 'Jeremy Morin'], ['Scott Hartnell', 'Brandon Dubinsky', 'Josh  Anderson'], ['Matt Calvert', 'Alexander Wennberg', 'Cam Atkinson'], ['Corey Tropp', 'Mark Letestu', 'Jack Skille'], ['Jack Johnson', 'David Savard'], ['Kevin Connauton', 'James Wisniewski'], ['Fedor Tyutin', 'Dalton Prout'], ['Scott Hartnell', 'Ryan Johansen', 'Nick Foligno', 'Jack Johnson', 'James Wisniewski'], ['Alexander Wennberg', 'Brandon Dubinsky', 'Cam Atkinson', 'Kevin Connauton', 'David Savard']], u'BUF': [['Brian Flynn', 'Zemgus  Girgensons', 'Chris Stewart'], ['Matt Moulson', 'Torrey Mitchell', 'Tyler Ennis'], ['Cody Hodgson', 'Phil Varone', 'Drew Stafford'], ['Nicolas Deslauriers', 'Matt Ellis', 'Patrick Kaleta'], ['Tyler Myers', 'Josh Gorges'], ['Nikita Zadorov', 'Tyson Strachan'], ['Andre Benoit', 'Andrej Meszaros'], ['Chris Stewart', 'Zemgus  Girgensons', 'Tyler Ennis', 'Nikita Zadorov', 'Tyler Myers'], ['Matt Moulson', 'Brian Flynn', 'Nicolas Deslauriers', 'Andre Benoit', 'Andrej Meszaros']], u'EDM': [['Taylor Hall', 'Ryan Nugent-Hopkins', 'Jordan Eberle'], ['Benoit Pouliot', 'Derek Roy', 'Nail Yakupov'], ['Matt Fraser', 'Anton Lander', 'Teddy Purcell'], ['Matt Hendricks', 'Boyd Gordon', 'Rob Klinkhammer'], ['Oscar Klefbom', 'Justin Schultz'], ['Andrew Ference', 'Jeff Petry'], ['Nikita Nikitin', 'Mark Fayne'], ['Benoit Pouliot', 'Ryan Nugent-Hopkins', 'Jordan Eberle', 'Taylor Hall', 'Justin Schultz'], ['Nail Yakupov', 'Anton Lander', 'Teddy Purcell', 'Derek Roy', 'Jeff Petry']], u'TBL': [['Valtteri Filppula', 'Steven Stamkos', 'Ryan Callahan'], ['Ondrej Palat', 'Tyler Johnson', 'Nikita Kucherov'], ['Alex Killorn', 'Cedric Paquette', 'Brett Connolly'], ['Brenden Morrow', 'Brian Boyle', 'Jonathan Drouin'], ['Victor Hedman', 'Andrej Sustr'], ['Jason Garrison', 'Anton Stralman'], ['Luke Witkowski', 'Nikita Nesterov'], ['Ondrej Palat', 'Steven Stamkos', 'Nikita Kucherov', 'Tyler Johnson', 'Anton Stralman'], ['Brett Connolly', 'Alex Killorn', 'Ryan Callahan', 'Victor Hedman', 'Valtteri Filppula']], u'WIN': [['Andrew Ladd', 'Bryan Little', 'Blake Wheeler'], ['Evander Kane', 'Mark Scheifele', 'Michael Frolik'], ['Chris Thorburn', 'Adam Lowry', 'Matt Halischuk'], ['T.J. Galiardi', 'Jim Slater', 'Anthony Peluso'], ['Ben Chiarot', 'Dustin Byfuglien'], ['Tobias Enstrom', 'Zach Bogosian'], ['Mark Stuart', 'Jay Harrison'], ['Andrew Ladd', 'Bryan Little', 'Blake Wheeler', 'Tobias Enstrom', 'Dustin Byfuglien'], ['Adam Lowry', 'Mark Scheifele', 'Michael Frolik', 'Evander Kane', 'Zach Bogosian']], u'ARI': [['Tobias Rieder', 'Antoine Vermette', 'Shane Doan'], ['Lauri Korpikoski', 'Martin Hanzal', 'Sam Gagner'], ['Brandon McMillan', 'Kyle Chipchura', 'David Moss'], ['Lucas Lessio', 'Joe Vitale', 'B.J. Crombeen'], ['Oliver Ekman-Larsson', 'Michael Stone'], ['Keith Yandle', 'Connor Murphy'], ['Philip Samuelsson', 'Brandon Gormley'], ['Sam Gagner', 'Antoine Vermette', 'Shane Doan', 'Oliver Ekman-Larsson', 'Keith Yandle'], ['Tobias Rieder', 'Martin Hanzal', 'Lauri Korpikoski', 'Michael Stone', 'Brandon Gormley']], u'OTT': [['Clarke MacArthur', 'Kyle Turris', 'Mark Stone'], ['Mike Hoffman', 'Mika Zibanejad', 'Bobby Ryan'], ['Milan Michalek', 'Jean-Gabriel Pageau', 'Alex Chiasson'], ['Erik Condra', 'David Legwand', 'Chris Neil'], ['Marc Methot', 'Erik Karlsson'], ['Jared Cowen', 'Cody Ceci'], ['Chris Phillips', 'Eric Gryba'], ['Alex Chiasson', 'Mika Zibanejad', 'Bobby Ryan', 'Milan Michalek', 'Erik Karlsson'], ['Clarke MacArthur', 'David Legwand', 'Mark Stone', 'Kyle Turris', 'Cody Ceci']]}</t>
-  </si>
-  <si>
-    <t>Braden Holtby</t>
-  </si>
-  <si>
-    <t>['WSH', 'WSH', 'WSH', 'WSH']</t>
-  </si>
-  <si>
-    <t>Darren Helm</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11476?tableId=9922292&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11476?tableId=9923099&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11476?tableId=9922574&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11476?tableId=9923154&amp;fromLobby=true</t>
-  </si>
-  <si>
     <t>Implemented process, continous effort. Needs to be implemented for player lineups</t>
   </si>
   <si>
@@ -1001,9 +761,6 @@
     <t>Store in local text file?</t>
   </si>
   <si>
-    <t>Matt Carkner</t>
-  </si>
-  <si>
     <t>Matt Greene</t>
   </si>
   <si>
@@ -1016,36 +773,12 @@
     <t>Jamie McGinn</t>
   </si>
   <si>
-    <t>Jamie McBain</t>
-  </si>
-  <si>
-    <t>Bobby Butler</t>
-  </si>
-  <si>
-    <t>Patrice Cormier</t>
-  </si>
-  <si>
-    <t>Patrice Bergeron</t>
-  </si>
-  <si>
     <t>John Gibson</t>
   </si>
   <si>
     <t>John Carlson</t>
   </si>
   <si>
-    <t>Nathan Horton</t>
-  </si>
-  <si>
-    <t>Jonathan Drouin</t>
-  </si>
-  <si>
-    <t>Carl Klingberg</t>
-  </si>
-  <si>
-    <t>John Klingberg</t>
-  </si>
-  <si>
     <t>Brad Winchester</t>
   </si>
   <si>
@@ -1055,36 +788,12 @@
     <t>Brad Richardson</t>
   </si>
   <si>
-    <t>Peter Budaj</t>
-  </si>
-  <si>
     <t>Chad LaRose</t>
   </si>
   <si>
-    <t>Ray Whitney</t>
-  </si>
-  <si>
-    <t>Joe Whitney</t>
-  </si>
-  <si>
-    <t>Ray Emery</t>
-  </si>
-  <si>
-    <t>Dan Ellis</t>
-  </si>
-  <si>
     <t>Ryan Ellis</t>
   </si>
   <si>
-    <t>Brad Thiessen</t>
-  </si>
-  <si>
-    <t>Frans Nielsen</t>
-  </si>
-  <si>
-    <t>Sheldon Brookbank</t>
-  </si>
-  <si>
     <t>Andrei Loktionov</t>
   </si>
   <si>
@@ -1094,15 +803,6 @@
     <t>Nathan Beaulieu</t>
   </si>
   <si>
-    <t>Josh Jooris</t>
-  </si>
-  <si>
-    <t>Danny Taylor</t>
-  </si>
-  <si>
-    <t>Manny Malhotra</t>
-  </si>
-  <si>
     <t>Matthew Hackett</t>
   </si>
   <si>
@@ -1148,27 +848,12 @@
     <t>Mat Clark</t>
   </si>
   <si>
-    <t>Johan Larsson</t>
-  </si>
-  <si>
     <t>Patrick Bordeleau</t>
   </si>
   <si>
     <t>Josh Manson</t>
   </si>
   <si>
-    <t>Shawn Thornton</t>
-  </si>
-  <si>
-    <t>Andrei Vasilevskiy</t>
-  </si>
-  <si>
-    <t>Andrew Campbell</t>
-  </si>
-  <si>
-    <t>Chris Porter</t>
-  </si>
-  <si>
     <t>Cory Conacher</t>
   </si>
   <si>
@@ -1178,10 +863,298 @@
     <t>Tomas Vincour</t>
   </si>
   <si>
-    <t>Jesse Blacker</t>
-  </si>
-  <si>
     <t>Brian Dumoulin</t>
+  </si>
+  <si>
+    <t>{u'MIN': [['Zach Parise', 'Mikael Granlund', 'Thomas Vanek'], ['Jason Zucker', 'Mikko Koivu', 'Jason Pominville'], ['Ryan Carter', 'Charlie Coyle', 'Nino Niederreiter'], ['Matt Cooke', 'Kyle Brodziak', 'Justin Fontaine'], ['Ryan Suter', 'Jonas Brodin'], ['Jared Spurgeon', 'Marco Scandella'], ['Nate Prosser', 'Mathew Dumba'], ['Zach Parise', 'Mikko Koivu', 'Thomas Vanek', 'Ryan Suter', 'Jason Pominville'], ['Nino Niederreiter', 'Mikael Granlund', 'Charlie Coyle', 'Jared Spurgeon', 'Mathew Dumba']], u'TOR': [['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel'], ['Daniel Winnik', 'Nazem Kadri', 'Mike Santorelli'], ['Leo Komarov', 'Peter Holland', 'David Clarkson'], ['David Booth', 'Trevor Smith', 'Joffrey Lupul'], ['Korbinian Holzer', 'Cody Franson'], ['Morgan Rielly', 'Roman Polak'], ['Jake Gardiner', 'Petter Granberg'], ['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel', 'Peter Holland', 'Cody Franson'], ['Joffrey Lupul', 'Nazem Kadri', 'David Clarkson', 'Morgan Rielly', 'Jake Gardiner']], u'CAR': [['Eric Staal', 'Jordan Staal', 'Jiri Tlusty'], ['Nathan Gerbe', 'Victor Rask', 'Elias Lindholm'], ['Jeff Skinner', 'Riley Nash', 'Chris Terry'], ['Brad Malone', 'Jay McClement', 'Pat Dwyer'], ['Andrej Sekera', 'Justin Faulk'], ['Ryan Murphy', 'Tim Gleason'], ['Ron Hainsey', 'Brett Bellemore'], ['Eric Staal', 'Jordan Staal', 'Riley Nash', 'Ryan Murphy', 'Jeff Skinner'], ['Jiri Tlusty', 'Victor Rask', 'Nathan Gerbe', 'Elias Lindholm', 'Justin Faulk']], u'BOS': [['Milan Lucic', 'David Krejci', 'Reilly Smith'], ['Brad Marchand', 'Patrice Bergeron', 'Loui Eriksson'], ['Chris Kelly', 'Carl Soderberg', 'David Pastrnak'], ['Daniel Paille', 'Gregory Campbell', 'Craig Cunningham'], ['Zdeno Chara', 'Dougie Hamilton'], ['Dennis Seidenberg', 'Adam McQuaid'], ['Torey Krug', 'Kevan Miller'], ['Loui Eriksson', 'Patrice Bergeron', 'Carl Soderberg', 'Reilly Smith', 'Dougie Hamilton'], ['Milan Lucic', 'David Krejci', 'David Pastrnak', 'Zdeno Chara', 'Torey Krug']], u'DET': [['Gustav Nyquist', 'Henrik Zetterberg', 'Justin Abdelkader'], ['Tomas Tatar', 'Pavel Datsyuk', 'Darren Helm'], ['Stephen Weiss', 'Riley Sheahan', 'Luke Glendening'], ['Drew Miller', 'Joakim Andersson', 'Tomas Jurco'], ['Jonathan Ericsson', 'Niklas Kronwall'], ['Kyle Quincey', 'Dan DeKeyser'], ['Brendan Smith', 'Jakub Kindl'], ['Gustav Nyquist', 'Henrik Zetterberg', 'Justin Abdelkader', 'Stephen Weiss', 'Niklas Kronwall'], ['Tomas Tatar', 'Riley Sheahan', 'Darren Helm', 'Pavel Datsyuk', 'Dan DeKeyser']], u'NAS': [['Filip Forsberg', 'Mike Ribeiro', 'Craig Smith'], ['Colin Wilson', 'Mike Fisher', 'James Neal'], ['Matt Cullen', 'Calle Jarnkrok', 'Gabriel Bourque'], ['Eric Nystrom', 'Paul Gaustad', 'Olli Jokinen'], ['Roman Josi', 'Shea Weber'], ['Victor Bartley', 'Seth Jones'], ['Mattias Ekholm', 'Anton Volchenkov'], ['Filip Forsberg', 'Mike Fisher', 'James Neal', 'Roman Josi', 'Shea Weber'], ['Colin Wilson', 'Mike Ribeiro', 'Craig Smith', 'Seth Jones', 'Mattias Ekholm']], u'NYI': [['Mikhail Grabovski', 'John Tavares', 'Josh Bailey'], ['Anders Lee', 'Frans Nielsen', 'Ryan Strome'], ['Michael Grabner', 'Brock Nelson', 'Nikolay Kulemin'], ['Matt Martin', 'Casey Cizikas', 'Cal Clutterbuck'], ['Calvin de Haan', 'Travis Hamonic'], ['Nick Leddy', 'Johnny Boychuk'], ['Thomas Hickey', 'Brian Strait'], ['Brock Nelson', 'John Tavares', 'Ryan Strome', 'Frans Nielsen', 'Johnny Boychuk'], ['Anders Lee', 'Mikhail Grabovski', 'Josh Bailey', 'Nick Leddy', 'Travis Hamonic']], u'FLA': [['Jonathan Huberdeau', 'Aleksander Barkov', 'Brad Boyes'], ['Brandon Pirri', 'Nick Bjugstad', 'Jimmy Hayes'], ['Sean Bergenheim', 'Dave Bolland', 'Jussi Jokinen'], ['Tomas Kopecky', 'Derek MacKenzie', 'Shawn Thornton'], ['Brian Campbell', 'Aaron Ekblad'], ['Willie Mitchell', 'Erik Gudbranson'], ['Alex Petrovic', 'Dmitry Kulikov'], ['Jonathan Huberdeau', 'Nick Bjugstad', 'Jimmy Hayes', 'Aleksander Barkov', 'Aaron Ekblad'], ['Jussi Jokinen', 'Dave Bolland', 'Brad Boyes', 'Brian Campbell', 'Dmitry Kulikov']], u'COL': [['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon'], ['Alex Tanguay', 'Matt Duchene', 'Jarome Iginla'], ['Cody McLeod', 'John Mitchell', 'Dennis Everberg'], ['Max Talbot', 'Marc-Andre Cliche', 'Danny Briere'], ['Jan Hejda', 'Zach Redmond'], ['Nate Guenin', 'Tyson Barrie'], ['Brad Stuart', 'Nick Holden'], ['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon', 'Nick Holden', 'Tyson Barrie'], ['Cody McLeod', 'Matt Duchene', 'Jarome Iginla', 'Alex Tanguay', 'Zach Redmond']], u'NJD': [['Adam Henrique', 'Scott Gomez', 'Jaromir Jagr'], ['Patrik Elias', 'Travis Zajac', 'Martin Havlat'], ['Dainius Zubrus', 'Michael Cammalleri', 'Steve Bernier'], ['Jordin Tootoo', 'Jacob Josefson', 'Tuomo Ruutu'], ['Andy Greene', 'Adam Larsson'], ['Mark Fraser', 'Marek Zidlicky'], ['Jon Merrill', 'Peter Harrold'], ['Jordin Tootoo', 'Travis Zajac', 'Martin Havlat', 'Patrik Elias', 'Marek Zidlicky'], ['Michael Cammalleri', 'Scott Gomez', 'Jaromir Jagr', 'Andy Greene', 'Steve Bernier']], u'DAL': [['Jamie Benn', 'Tyler Seguin', 'Patrick Eaves'], ['Shawn Horcoff', 'Jason Spezza', 'Ales Hemsky'], ['Antoine Roussel', 'Cody Eakin', 'Ryan Garbutt'], ['Travis Moen', 'Vernon Fiddler', 'Colton Sceviour'], ['Alex Goligoski', 'John Klingberg'], ['Jamie Oleksiak', 'Trevor Daley'], ['David Schlemko', 'Jason Demers'], ['Jamie Benn', 'Jason Spezza', 'Patrick Eaves', 'Tyler Seguin', 'John Klingberg'], ['Colton Sceviour', 'Shawn Horcoff', 'Ales Hemsky', 'Jason Demers', 'Trevor Daley']], u'CGY': [['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler'], ['Mason Raymond', 'Josh Jooris', 'Joe Colborne'], ['Lance Bouma', 'Mikael Backlund', 'David Jones'], ['Brandon Bollig', 'Matt Stajan', 'Paul Byron'], ['Mark Giordano', 'T.J. Brodie'], ['Kris Russell', 'Dennis Wideman'], ['Raphael Diaz', 'Deryk Engelland'], ['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler', 'Dennis Wideman', 'Mark Giordano'], ['Mason Raymond', 'Mikael Backlund', 'Joe Colborne', 'T.J. Brodie', 'Raphael Diaz']], u'NYR': [['Rick Nash', 'Derick Brassard', 'Mats Zuccarello'], ['Chris Kreider', 'Derek Stepan', 'Martin St. Louis'], ['Carl Hagelin', 'Dominic Moore', 'Lee Stempniak'], ['Tanner Glass', 'Kevin Hayes', 'Jesper Fast'], ['Ryan McDonagh', 'Dan Girardi'], ['Marc Staal', 'Kevin Klein'], ['John Moore', 'Dan Boyle'], ['Rick Nash', 'Derick Brassard', 'Martin St. Louis', 'Derek Stepan', 'Dan Boyle'], ['Chris Kreider', 'Mats Zuccarello', 'Lee Stempniak', 'Ryan McDonagh', 'Dan Girardi']], u'SJS': [['Melker Karlsson', 'Joe Thornton', 'Joe Pavelski'], ['Patrick Marleau', 'Logan Couture', 'Matthew Nieto'], ['Tomas Hertl', 'James Sheppard', 'Barclay Goodrow'], ['Tye McGinn', 'Andrew Desjardins', 'John Scott'], ['Marc-Edouard Vlasic', 'Brent Burns'], ['Brenden Dillon', 'Matt Tennyson'], ['Matt Irwin', 'Scott Hannan'], ['Patrick Marleau', 'Joe Thornton', 'Logan Couture', 'Joe Pavelski', 'Brent Burns'], ['Melker Karlsson', 'Tomas Hertl', 'Matthew Nieto', 'Marc-Edouard Vlasic', 'Matt Tennyson']], u'PIT': [['Chris Kunitz', 'Sidney Crosby', 'David Perron'], ['Nick Spaling', 'Brandon Sutter', 'Patric Hornqvist'], ['Mark Arcobello', 'Maxim Lapierre', 'Steve Downie'], ['Zach Sill', 'Andrew Ebbett', 'Craig Adams'], ['Simon Despres', 'Kris Letang'], ['Rob Scuderi', 'Paul Martin'], ['Robert Bortuzzo', 'Scott Harrington'], ['David Perron', 'Sidney Crosby', 'Patric Hornqvist', 'Paul Martin', 'Kris Letang'], ['Chris Kunitz', 'Brandon Sutter', 'Steve Downie', 'Simon Despres', 'Scott Harrington']], u'VAN': [['Daniel Sedin', 'Henrik Sedin', 'Radim Vrbata'], ['Chris Higgins', 'Linden Vey', 'Alexandre Burrows'], ['Shawn Matthias', 'Nick Bonino', 'Jannik Hansen'], ['Derek Dorsett', 'Bo Horvat', 'Zack Kassian'], ['Alexander Edler', 'Luca Sbisa'], ['Dan Hamhuis', 'Frank Corrado'], ['Chris Tanev', 'Yannick Weber'], ['Daniel Sedin', 'Henrik Sedin', 'Radim Vrbata', 'Alexander Edler', 'Nick Bonino'], ['Derek Dorsett', 'Linden Vey', 'Alexandre Burrows', 'Dan Hamhuis', 'Chris Higgins']], u'STL': [['Alex Steen', 'David Backes', 'T.J. Oshie'], ['Jaden Schwartz', 'Paul Stastny', 'Vladimir Tarasenko'], ['Ty Rattie', 'Joakim Lindstrom', 'Dmitrij Jaskin'], ['Steve Ott', 'Marcel Goc', 'Ryan Reaves'], ['Jay Bouwmeester', 'Alex Pietrangelo'], ['Carl Gunnarsson', 'Kevin Shattenkirk'], ['Barret Jackman', 'Ian Cole'], ['Vladimir Tarasenko', 'David Backes', 'T.J. Oshie', 'Alex Steen', 'Kevin Shattenkirk'], ['Jaden Schwartz', 'Paul Stastny', 'Dmitrij Jaskin', 'Jay Bouwmeester', 'Alex Pietrangelo']], u'CHI': [['Brandon Saad', 'Jonathan Toews', 'Marian Hossa'], ['Patrick Sharp', 'Brad Richards', 'Patrick Kane'], ['Bryan Bickell', 'Teuvo Teravainen', 'Andrew Shaw'], ['Joakim Nordstrom', 'Marcus Kruger', 'Ben Smith'], ['Duncan Keith', 'David Rundblad'], ['Niklas Hjalmarsson', 'Brent Seabrook'], ['Michal Rozsival', 'Johnny Oduya'], ['Andrew Shaw', 'Jonathan Toews', 'Patrick Kane', 'Duncan Keith', 'Patrick Sharp'], ['Bryan Bickell', 'Brandon Saad', 'Marian Hossa', 'Brad Richards', 'Brent Seabrook']], u'MTL': [['Max Pacioretty', 'Tomas Plekanec', 'Dale Weise'], ['Alex Galchenyuk', 'David Desharnais', 'Brendan Gallagher'], ['Jiri Sekac', 'Lars Eller', 'Brandon Prust'], ['Michael Bournival', 'Manny Malhotra', 'Christian Thomas'], ['Andrei Markov', 'P.K. Subban'], ['Nathan Beaulieu', 'Sergei Gonchar'], ['Alexei Emelin', 'Tom Gilbert'], ['Max Pacioretty', 'Tomas Plekanec', 'Brendan Gallagher', 'Andrei Markov', 'P.K. Subban'], ['Alex Galchenyuk', 'David Desharnais', 'Jiri Sekac', 'Nathan Beaulieu', 'Sergei Gonchar']], u'PHI': [['Brayden Schenn', 'Claude Giroux', 'Jakub Voracek'], ['Petr Straka', 'Ryan White', 'Wayne Simmonds'], ['R.J. Umberger', 'Sean Couturier', 'Matt Read'], ['Chris VandeVelde', 'Vincent Lecavalier'], ['Nick Schultz', 'Mark Streit'], ['Michael Del Zotto', 'Luke Schenn'], ['Carlo Colaiacovo', 'Andrew MacDonald'], ['Brayden Schenn', 'Claude Giroux', 'Wayne Simmonds', 'Jakub Voracek', 'Mark Streit'], ['R.J. Umberger', 'Sean Couturier', 'Vincent Lecavalier', 'Matt Read', 'Michael Del Zotto']], u'ANA': [['Patrick Maroon', 'Ryan Getzlaf', 'Corey Perry'], ['Kyle Palmieri', 'Ryan Kesler', 'Matt Beleskey'], ['Andrew Cogliano', 'Rickard Rakell', 'Jakob Silfverberg'], ['Rene Bourque', 'Nate Thompson', 'Devante Smith-Pelly'], ['Cam Fowler', 'Ben Lovejoy'], ['Hampus Lindholm', 'Francois Beauchemin'], ['Clayton Stoner', 'Sami Vatanen'], ['Patrick Maroon', 'Ryan Getzlaf', 'Corey Perry', 'Cam Fowler', 'Sami Vatanen'], ['Rickard Rakell', 'Ryan Kesler', 'Kyle Palmieri', 'Francois Beauchemin', 'Hampus Lindholm']], u'LAK': [['Marian Gaborik', 'Anze Kopitar', 'Dustin Brown'], ['Dwight King', 'Jeff Carter', 'Tyler Toffoli'], ['Kyle Clifford', 'Jarret Stoll', 'Justin Williams'], ['Trevor Lewis', 'Nick Shore', 'Jordan Nolan'], ['Jake Muzzin', 'Drew Doughty'], ['Robyn Regehr', 'Alec Martinez'], ['Brayden McNabb', 'Matt Greene'], ['Marian Gaborik', 'Anze Kopitar', 'Justin Williams', 'Jake Muzzin', 'Drew Doughty'], ['Dwight King', 'Jeff Carter', 'Tyler Toffoli', 'Brayden McNabb', 'Alec Martinez']], u'CBJ': [['Nick Foligno', 'Ryan Johansen', 'Cam Atkinson'], ['Scott Hartnell', 'Brandon Dubinsky', 'Corey Tropp'], ['Matt Calvert', 'Artem Anisimov', 'Alexander Wennberg'], ['Jack Skille', 'Mark Letestu', 'Jared Boll'], ['Jack Johnson', 'David Savard'], ['Kevin Connauton', 'James Wisniewski'], ['Fedor Tyutin', 'Dalton Prout'], ['Nick Foligno', 'Ryan Johansen', 'Cam Atkinson', 'Jack Johnson', 'David Savard'], ['Scott Hartnell', 'Artem Anisimov', 'Brandon Dubinsky', 'Kevin Connauton', 'Mark Letestu']], u'BUF': [['Matt Moulson', 'Zemgus  Girgensons', 'Tyler Ennis'], ['Brian Flynn', 'Torrey Mitchell', 'Brian Gionta'], ['Drew Stafford', 'Cody Hodgson', 'Chris Stewart'], ['Nicolas Deslauriers', 'Matt Ellis', 'Patrick Kaleta'], ['Josh Gorges', 'Tyler Myers'], ['Mike Weber', 'Tyson Strachan'], ['Andrej Meszaros', 'Rasmus Ristolainen'], ['Chris Stewart', 'Zemgus  Girgensons', 'Tyler Ennis', 'Rasmus Ristolainen', 'Tyler Myers'], ['Matt Moulson', 'Brian Flynn', 'Drew Stafford', 'Josh Gorges', 'Andrej Meszaros']], u'EDM': [['Benoit Pouliot', 'Ryan Nugent-Hopkins', 'Jordan Eberle'], ['Nail Yakupov', 'Derek Roy', 'Teddy Purcell'], ['Matt Hendricks', 'Boyd Gordon', 'Rob Klinkhammer'], ['Matt Fraser', 'Anton Lander', 'Luke Gazdic'], ['Oscar Klefbom', 'Justin Schultz'], ['Andrew Ference', 'Jeff Petry'], ['Nikita Nikitin', 'Mark Fayne'], ['Benoit Pouliot', 'Ryan Nugent-Hopkins', 'Teddy Purcell', 'Jordan Eberle', 'Justin Schultz'], ['Matt Fraser', 'Derek Roy', 'Anton Lander', 'Nikita Nikitin', 'Nail Yakupov']], u'TBL': [['Valtteri Filppula', 'Steven Stamkos', 'Ryan Callahan'], ['Ondrej Palat', 'Tyler Johnson', 'Nikita Kucherov'], ['Alex Killorn', 'Cedric Paquette', 'Jonathan Drouin'], ['J.T. Brown', 'Brian Boyle', 'Brett Connolly'], ['Andrej Sustr', 'Victor Hedman'], ['Mark Barberio', 'Anton Stralman'], ['Jason Garrison', 'Nikita Nesterov'], ['Jonathan Drouin', 'Steven Stamkos', 'Ryan Callahan', 'Valtteri Filppula', 'Anton Stralman'], ['Ondrej Palat', 'Tyler Johnson', 'Brett Connolly', 'Jason Garrison', 'Nikita Kucherov']], u'WIN': [['Andrew Ladd', 'Bryan Little', 'Blake Wheeler'], ['Mathieu Perreault', 'Mark Scheifele', 'Michael Frolik'], ['Evander Kane', 'Adam Lowry', 'Chris Thorburn'], ['Matt Halischuk', 'Jim Slater', 'Anthony Peluso'], ['Ben Chiarot', 'Dustin Byfuglien'], ['Tobias Enstrom', 'Zach Bogosian'], ['Mark Stuart', 'Jacob Trouba'], ['Evander Kane', 'Mark Scheifele', 'Michael Frolik', 'Mathieu Perreault', 'Dustin Byfuglien'], ['Andrew Ladd', 'Bryan Little', 'Blake Wheeler', 'Tobias Enstrom', 'Jacob Trouba']], u'ARI': [['Tobias Rieder', 'Antoine Vermette', 'Shane Doan'], ['Martin Erat', 'Martin Hanzal', 'Sam Gagner'], ['Lauri Korpikoski', 'Kyle Chipchura', 'David Moss'], ['Lucas Lessio', 'Brendan Shinnimin', 'B.J. Crombeen'], ['Keith Yandle', 'Michael Stone'], ['Oliver Ekman-Larsson', 'Zbynek Michalek'], ['Andrew Campbell', 'Connor Murphy'], ['Sam Gagner', 'Antoine Vermette', 'Shane Doan', 'Oliver Ekman-Larsson', 'Keith Yandle'], ['Tobias Rieder', 'Martin Hanzal', 'Martin Erat', 'Michael Stone', 'Connor Murphy']], u'OTT': [['Clarke MacArthur', 'Mika Zibanejad', 'Bobby Ryan'], ['Mike Hoffman', 'Kyle Turris', 'Curtis Lazar'], ['Milan Michalek', 'David Legwand', 'Mark Stone'], ['Erik Condra', 'Jean-Gabriel Pageau', 'Chris Neil'], ['Marc Methot', 'Erik Karlsson'], ['Jared Cowen', 'Cody Ceci'], ['Eric Gryba', 'Chris Phillips'], ['Clarke MacArthur', 'Mika Zibanejad', 'Bobby Ryan', 'Erik Karlsson', 'Cody Ceci'], ['Milan Michalek', 'Kyle Turris', 'Mark Stone', 'Mike Hoffman', 'Chris Phillips']]}</t>
+  </si>
+  <si>
+    <t>Kyle Cumiskey</t>
+  </si>
+  <si>
+    <t>Kyle Quincey</t>
+  </si>
+  <si>
+    <t>Kyle Turris</t>
+  </si>
+  <si>
+    <t>Kyle Palmieri</t>
+  </si>
+  <si>
+    <t>Eric Brewer</t>
+  </si>
+  <si>
+    <t>Eric Fehr</t>
+  </si>
+  <si>
+    <t>Troy Brouwer</t>
+  </si>
+  <si>
+    <t>Martin Brodeur</t>
+  </si>
+  <si>
+    <t>Martin Jones</t>
+  </si>
+  <si>
+    <t>Martin Erat</t>
+  </si>
+  <si>
+    <t>Martin St. Louis</t>
+  </si>
+  <si>
+    <t>Jason LaBarbera</t>
+  </si>
+  <si>
+    <t>Jason Chimera</t>
+  </si>
+  <si>
+    <t>Jason Garrison</t>
+  </si>
+  <si>
+    <t>Blake Comeau</t>
+  </si>
+  <si>
+    <t>Marcus Foligno</t>
+  </si>
+  <si>
+    <t>Nick Foligno</t>
+  </si>
+  <si>
+    <t>Marcus Johansson</t>
+  </si>
+  <si>
+    <t>Ruslan Fedotenko</t>
+  </si>
+  <si>
+    <t>Ryane Clowe</t>
+  </si>
+  <si>
+    <t>Ryan Strome</t>
+  </si>
+  <si>
+    <t>Ryan Miller</t>
+  </si>
+  <si>
+    <t>Jared Cowen</t>
+  </si>
+  <si>
+    <t>Ian Cole</t>
+  </si>
+  <si>
+    <t>Matt Climie</t>
+  </si>
+  <si>
+    <t>Matt Cullen</t>
+  </si>
+  <si>
+    <t>Matt Read</t>
+  </si>
+  <si>
+    <t>Reto Berra</t>
+  </si>
+  <si>
+    <t>Paul Bissonnette</t>
+  </si>
+  <si>
+    <t>Beau Bennett</t>
+  </si>
+  <si>
+    <t>Paul Byron</t>
+  </si>
+  <si>
+    <t>Emerson Etem</t>
+  </si>
+  <si>
+    <t>Kris Versteeg</t>
+  </si>
+  <si>
+    <t>Peter Mueller</t>
+  </si>
+  <si>
+    <t>Peter Holland</t>
+  </si>
+  <si>
+    <t>Damien Brunner</t>
+  </si>
+  <si>
+    <t>Derrick Pouliot</t>
+  </si>
+  <si>
+    <t>Olli Maatta</t>
+  </si>
+  <si>
+    <t>Jeff Zatkoff</t>
+  </si>
+  <si>
+    <t>Jeff Carter</t>
+  </si>
+  <si>
+    <t>Mark Pysyk</t>
+  </si>
+  <si>
+    <t>Mark Fayne</t>
+  </si>
+  <si>
+    <t>Scott Darling</t>
+  </si>
+  <si>
+    <t>Scott Harrington</t>
+  </si>
+  <si>
+    <t>Scott Hartnell</t>
+  </si>
+  <si>
+    <t>Scott Hannan</t>
+  </si>
+  <si>
+    <t>Damon Severson</t>
+  </si>
+  <si>
+    <t>Kevin Shattenkirk</t>
+  </si>
+  <si>
+    <t>David Backes</t>
+  </si>
+  <si>
+    <t>T.J. Oshie</t>
+  </si>
+  <si>
+    <t>Paul Martin</t>
+  </si>
+  <si>
+    <t>Jake Allen</t>
+  </si>
+  <si>
+    <t>John Mitchell</t>
+  </si>
+  <si>
+    <t>Viktor Stalberg</t>
+  </si>
+  <si>
+    <t>Jack Hillen</t>
+  </si>
+  <si>
+    <t>Jack Skille</t>
+  </si>
+  <si>
+    <t>Jared Boll</t>
+  </si>
+  <si>
+    <t>Calvin Pickard</t>
+  </si>
+  <si>
+    <t>Alexander Steen</t>
+  </si>
+  <si>
+    <t>Alexander Edler</t>
+  </si>
+  <si>
+    <t>Alexander Wennberg</t>
+  </si>
+  <si>
+    <t>Pekka Rinne</t>
+  </si>
+  <si>
+    <t>Miikka Salomaki</t>
+  </si>
+  <si>
+    <t>Andrej Sekera</t>
+  </si>
+  <si>
+    <t>Andrew Desjardins</t>
+  </si>
+  <si>
+    <t>Michael Hutchinson</t>
+  </si>
+  <si>
+    <t>Ryan O'Reilly</t>
+  </si>
+  <si>
+    <t>Ryan White</t>
+  </si>
+  <si>
+    <t>Ryan Stanton</t>
+  </si>
+  <si>
+    <t>Ryan Johansen</t>
+  </si>
+  <si>
+    <t>Ryan Suter</t>
+  </si>
+  <si>
+    <t>Mike Richards</t>
+  </si>
+  <si>
+    <t>Brad Marchand</t>
+  </si>
+  <si>
+    <t>Brad Malone</t>
+  </si>
+  <si>
+    <t>['VAN', 'VAN', 'VAN', 'VAN', 'VAN']</t>
+  </si>
+  <si>
+    <t>['STL', 'STL', 'STL', 'STL']</t>
+  </si>
+  <si>
+    <t>['PIT', 'PIT', 'PIT', 'PIT', 'PIT', 'PIT']</t>
+  </si>
+  <si>
+    <t>Brandon Sutter</t>
+  </si>
+  <si>
+    <t>data_scrapping.py</t>
+  </si>
+  <si>
+    <t>C:\Users\Cole\Desktop\FanDuel\fanduel\modules\data_scrapping.py</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11536?tableId=10195041&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11536?tableId=10195201&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11536?tableId=10195752&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11536?tableId=10196255&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11536?tableId=10195995&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11536?tableId=10195967&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11536?tableId=10195565&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11536?tableId=10194829&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>Analyzed Entries</t>
+  </si>
+  <si>
+    <t>Avg_ToI*Avg_Line_Goals + Vegas</t>
+  </si>
+  <si>
+    <t>Major Category</t>
+  </si>
+  <si>
+    <t>Sub Category</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Software Testing Course</t>
+  </si>
+  <si>
+    <t>Sublime Text</t>
+  </si>
+  <si>
+    <t>Programming Design Course</t>
   </si>
 </sst>
 </file>
@@ -1838,11 +1811,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216687360"/>
-        <c:axId val="216688896"/>
+        <c:axId val="199844608"/>
+        <c:axId val="199846144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216687360"/>
+        <c:axId val="199844608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1851,7 +1824,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216688896"/>
+        <c:crossAx val="199846144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1859,7 +1832,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216688896"/>
+        <c:axId val="199846144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1870,7 +1843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216687360"/>
+        <c:crossAx val="199844608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1983,11 +1956,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216717184"/>
-        <c:axId val="216718720"/>
+        <c:axId val="199874432"/>
+        <c:axId val="199875968"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="216717184"/>
+        <c:axId val="199874432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1996,7 +1969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216718720"/>
+        <c:crossAx val="199875968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2004,7 +1977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216718720"/>
+        <c:axId val="199875968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,7 +1988,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216717184"/>
+        <c:crossAx val="199874432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2044,160 +2017,6 @@
       </c14:pivotOptions>
     </c:ext>
   </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Performance Monitoring'!$C$2:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>723.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1096.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1716.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>933.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>657.45</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>538</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>699.95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Performance Monitoring'!$I$2:$I$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.33750000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.23749999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.32500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.26250000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="218431488"/>
-        <c:axId val="218433024"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="218431488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218433024"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="218433024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218431488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2266,45 +2085,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2800349</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Cole MacLean" refreshedDate="42015.695505324074" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="6">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J1048576" sheet="Performance Monitoring"/>
+    <worksheetSource ref="A1:K1048576" sheet="Performance Monitoring"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Contest Date" numFmtId="0">
@@ -2863,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2871,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2879,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2887,7 +2671,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2895,7 +2679,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2903,7 +2687,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,7 +2695,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2954,10 +2738,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2967,86 +2751,83 @@
     <col min="3" max="3" width="17" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.28515625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>126</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" t="s">
         <v>127</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>42015</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>188</v>
+        <v>42034</v>
+      </c>
+      <c r="B2" t="s">
+        <v>358</v>
       </c>
       <c r="C2" s="5">
-        <v>723.2</v>
+        <v>1329.8</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G2">
-        <v>1.8</v>
-      </c>
-      <c r="H2" s="5">
-        <v>27</v>
-      </c>
-      <c r="I2" s="5">
-        <f>H2/D2</f>
-        <v>0.33750000000000002</v>
-      </c>
-      <c r="J2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5">
+        <v>21</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="K2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>42015</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>187</v>
+        <v>42034</v>
+      </c>
+      <c r="B3" t="s">
+        <v>359</v>
       </c>
       <c r="C3" s="5">
-        <v>1096.8</v>
+        <v>1401.8</v>
       </c>
       <c r="D3">
         <v>40</v>
@@ -3054,32 +2835,25 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G3" s="5">
-        <v>3.6</v>
-      </c>
-      <c r="H3" s="5">
-        <v>15</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" ref="I3:I9" si="0">H3/D3</f>
-        <v>0.375</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F3" s="5">
+        <v>21</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>42015</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>186</v>
+        <v>42034</v>
+      </c>
+      <c r="B4" t="s">
+        <v>360</v>
       </c>
       <c r="C4" s="5">
-        <v>1716.5</v>
+        <v>1654.2</v>
       </c>
       <c r="D4">
         <v>40</v>
@@ -3087,317 +2861,43 @@
       <c r="E4">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" s="5">
-        <v>9</v>
-      </c>
-      <c r="H4" s="5">
-        <v>14</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="0"/>
-        <v>0.35</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>42015</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="5">
-        <v>933.8</v>
-      </c>
-      <c r="D5">
-        <v>80</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="H5" s="5">
-        <v>24</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>42020</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" s="5">
-        <v>657.45</v>
-      </c>
-      <c r="D6">
-        <v>80</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="H6" s="5">
-        <v>19</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23749999999999999</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>42020</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" s="5">
-        <v>538</v>
-      </c>
-      <c r="D7">
-        <v>40</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7">
-        <v>9</v>
-      </c>
-      <c r="H7" s="5">
-        <v>13</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="0"/>
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>42020</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8" s="5">
-        <v>699.95</v>
-      </c>
-      <c r="D8">
-        <v>80</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G8">
-        <v>1.8</v>
-      </c>
-      <c r="H8" s="5">
-        <v>21</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26250000000000001</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>42021</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2493.6999999999998</v>
-      </c>
-      <c r="D9">
-        <v>40</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>27</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="0"/>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>42024</v>
-      </c>
-      <c r="B10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1750.3</v>
-      </c>
-      <c r="D10">
-        <v>80</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>42024</v>
-      </c>
-      <c r="B11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C11" s="5">
-        <v>3036</v>
-      </c>
-      <c r="D11">
-        <v>40</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>42024</v>
-      </c>
-      <c r="B12" t="s">
-        <v>314</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1702.55</v>
-      </c>
-      <c r="D12">
-        <v>80</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>42024</v>
-      </c>
-      <c r="B13" t="s">
-        <v>315</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1733.4</v>
-      </c>
-      <c r="D13">
-        <v>80</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>168</v>
+      <c r="F4" s="5">
+        <v>23</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="https://www.fanduel.com/entry/DEEJTWTWY"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://www.fanduel.com/entry/CSYJRDAAZ"/>
-    <hyperlink ref="B3" r:id="rId3" display="https://www.fanduel.com/entry/AEQJGHJDX"/>
-    <hyperlink ref="B2" r:id="rId4" display="https://www.fanduel.com/entry/DCOQLQLKB"/>
-    <hyperlink ref="B8" r:id="rId5" display="https://www.fanduel.com/entry/BFXNHPTME"/>
-    <hyperlink ref="B7" r:id="rId6" display="https://www.fanduel.com/entry/BEVROMGZP"/>
-    <hyperlink ref="B6" r:id="rId7" display="https://www.fanduel.com/entry/EUKTUOFAN"/>
-    <hyperlink ref="B9" r:id="rId8" display="https://www.fanduel.com/entry/CPFDKFGQD"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
-  <drawing r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="82.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="6" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="6" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -3405,383 +2905,449 @@
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F5" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6">
+        <v>7</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="6">
-        <v>7</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="6">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="6">
-        <v>3</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="6">
-        <v>3</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="6">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="6">
-        <v>4</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="6">
-        <v>5</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F13" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="E14" s="6">
         <v>2</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="F14" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="B16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="6">
         <v>4</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="F16" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="6">
+        <v>5</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="B18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="6">
+        <v>6</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E20" s="6">
         <v>4</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="6">
-        <v>5</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="6">
-        <v>6</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D20" s="6">
-        <v>4</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>361</v>
+        <v>261</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>360</v>
+        <v>260</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G22"/>
+  <autoFilter ref="A1:H22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3812,19 +3378,19 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>182</v>
-      </c>
       <c r="L2" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -3838,7 +3404,7 @@
         <v>-1</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M3" s="13">
         <v>-1</v>
@@ -3846,7 +3412,7 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="13">
         <v>-10</v>
@@ -3855,7 +3421,7 @@
         <v>-1</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M4" s="13">
         <v>-1</v>
@@ -3873,7 +3439,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3884,7 +3450,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -3892,41 +3458,38 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3">
-        <v>696</v>
+        <v>721</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6">
-        <v>10000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3982,15 +3545,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2">
         <v>13</v>
@@ -3998,7 +3561,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -4006,7 +3569,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4">
         <v>15</v>
@@ -4014,7 +3577,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5">
         <v>16</v>
@@ -4022,7 +3585,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6">
         <v>17</v>
@@ -4030,7 +3593,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7">
         <v>18</v>
@@ -4038,7 +3601,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8">
         <v>19</v>
@@ -4046,7 +3609,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -4054,7 +3617,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10">
         <v>21</v>
@@ -4062,7 +3625,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="5">
         <v>22</v>
@@ -4070,7 +3633,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="5">
         <v>23</v>
@@ -4078,7 +3641,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="5">
         <v>24</v>
@@ -4086,7 +3649,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" s="5">
         <v>25</v>
@@ -4094,7 +3657,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" s="5">
         <v>26</v>
@@ -4102,7 +3665,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16" s="5">
         <v>27</v>
@@ -4110,7 +3673,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" s="5">
         <v>28</v>
@@ -4118,7 +3681,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18" s="5">
         <v>29</v>
@@ -4126,7 +3689,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="5">
         <v>30</v>
@@ -4134,7 +3697,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B20" s="5">
         <v>31</v>
@@ -4142,7 +3705,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B21" s="5">
         <v>32</v>
@@ -4150,7 +3713,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5">
         <v>33</v>
@@ -4158,7 +3721,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" s="5">
         <v>34</v>
@@ -4166,7 +3729,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24" s="5">
         <v>35</v>
@@ -4174,7 +3737,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" s="5">
         <v>36</v>
@@ -4182,7 +3745,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B26" s="5">
         <v>37</v>
@@ -4190,7 +3753,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B27" s="5">
         <v>38</v>
@@ -4198,7 +3761,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" s="5">
         <v>39</v>
@@ -4206,7 +3769,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B29" s="5">
         <v>40</v>
@@ -4214,7 +3777,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" s="5">
         <v>41</v>
@@ -4222,7 +3785,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B31" s="5">
         <v>42</v>
@@ -4241,7 +3804,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="A63" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -4256,639 +3819,876 @@
     <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>320</v>
+        <v>239</v>
       </c>
       <c r="H2" t="s">
-        <v>321</v>
+        <v>240</v>
       </c>
       <c r="I2" t="s">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="J2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>327</v>
+      </c>
+      <c r="C3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>275</v>
+      </c>
+      <c r="B5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>325</v>
+        <v>326</v>
+      </c>
+      <c r="B6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E6" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
-        <v>368</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>194</v>
       </c>
       <c r="C8" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="D8" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="B9" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="C9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" t="s">
         <v>208</v>
       </c>
-      <c r="D9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" t="s">
-        <v>196</v>
-      </c>
       <c r="F9" t="s">
-        <v>369</v>
+        <v>268</v>
       </c>
       <c r="G9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>282</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="C10" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="D10" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="B11" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="C11" t="s">
-        <v>368</v>
+        <v>288</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E11" t="s">
-        <v>370</v>
+        <v>269</v>
       </c>
       <c r="F11" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="G11" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="H11" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="I11" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>332</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>280</v>
+      </c>
+      <c r="C12" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>245</v>
+      </c>
+      <c r="B13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="B14" t="s">
-        <v>371</v>
+        <v>287</v>
       </c>
       <c r="C14" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="G14" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="B15" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="E15" t="s">
-        <v>215</v>
+        <v>297</v>
+      </c>
+      <c r="F15" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="B16" t="s">
-        <v>267</v>
+        <v>246</v>
+      </c>
+      <c r="C16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" t="s">
+        <v>185</v>
+      </c>
+      <c r="H16" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>336</v>
+      </c>
+      <c r="B17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C17" t="s">
         <v>334</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>335</v>
       </c>
-      <c r="C17" t="s">
-        <v>336</v>
+      <c r="E17" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>337</v>
       </c>
+      <c r="B18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>338</v>
+        <v>242</v>
       </c>
       <c r="B19" t="s">
-        <v>207</v>
+        <v>226</v>
+      </c>
+      <c r="C19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="B20" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="C20" t="s">
-        <v>341</v>
+        <v>296</v>
+      </c>
+      <c r="D20" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" t="s">
+        <v>297</v>
+      </c>
+      <c r="F20" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="B21" t="s">
-        <v>372</v>
+        <v>300</v>
+      </c>
+      <c r="C21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>229</v>
+      </c>
+      <c r="G21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H21" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>216</v>
+        <v>302</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>309</v>
       </c>
       <c r="C22" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>195</v>
+      </c>
+      <c r="C23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="B24" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="C24" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="D24" t="s">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F24" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
-        <v>273</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="B25" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C25" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="D25" t="s">
-        <v>276</v>
+        <v>188</v>
+      </c>
+      <c r="E25" t="s">
+        <v>297</v>
+      </c>
+      <c r="F25" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="B26" t="s">
-        <v>278</v>
+        <v>225</v>
+      </c>
+      <c r="C26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>219</v>
+        <v>308</v>
       </c>
       <c r="B27" t="s">
-        <v>374</v>
+        <v>309</v>
       </c>
       <c r="C27" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="D27" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="E27" t="s">
-        <v>375</v>
+        <v>270</v>
       </c>
       <c r="F27" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="G27" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="H27" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="I27" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="J27" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="K27" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="B28" t="s">
-        <v>345</v>
+        <v>208</v>
       </c>
       <c r="C28" t="s">
-        <v>279</v>
+        <v>113</v>
+      </c>
+      <c r="D28" t="s">
+        <v>338</v>
+      </c>
+      <c r="E28" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>280</v>
+        <v>243</v>
+      </c>
+      <c r="B29" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" t="s">
+        <v>210</v>
+      </c>
+      <c r="F29" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>346</v>
+        <v>311</v>
+      </c>
+      <c r="B30" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="C31" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="D31" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="E31" t="s">
-        <v>283</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>347</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s">
-        <v>202</v>
+        <v>318</v>
       </c>
       <c r="C32" t="s">
-        <v>203</v>
+        <v>319</v>
+      </c>
+      <c r="D32" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>348</v>
+        <v>249</v>
       </c>
       <c r="B33" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="C33" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="D33" t="s">
-        <v>210</v>
+        <v>341</v>
+      </c>
+      <c r="E33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33" t="s">
+        <v>200</v>
+      </c>
+      <c r="G33" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>284</v>
+        <v>253</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" t="s">
+        <v>254</v>
+      </c>
+      <c r="D34" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C35" t="s">
-        <v>377</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="B36" t="s">
-        <v>286</v>
+        <v>200</v>
+      </c>
+      <c r="C36" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" t="s">
+        <v>210</v>
+      </c>
+      <c r="F36" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="B37" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="C37" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D37" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s">
-        <v>217</v>
+        <v>318</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>319</v>
+      </c>
+      <c r="D38" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>233</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>351</v>
+        <v>220</v>
       </c>
       <c r="B40" t="s">
-        <v>352</v>
+        <v>216</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>217</v>
+      </c>
+      <c r="D40" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40" t="s">
+        <v>200</v>
+      </c>
+      <c r="G40" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>291</v>
+        <v>253</v>
+      </c>
+      <c r="B41" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>235</v>
+        <v>313</v>
+      </c>
+      <c r="B42" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B43" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="C43" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="D43" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>240</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s">
-        <v>241</v>
+        <v>316</v>
       </c>
       <c r="C44" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="D44" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="E44" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="F44" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G44" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="B45" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C45" t="s">
-        <v>252</v>
+        <v>344</v>
       </c>
       <c r="D45" t="s">
-        <v>294</v>
+        <v>345</v>
+      </c>
+      <c r="E45" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="B46" t="s">
-        <v>226</v>
+        <v>319</v>
       </c>
       <c r="C46" t="s">
-        <v>227</v>
+        <v>320</v>
       </c>
       <c r="D46" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="B48" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="C48" t="s">
-        <v>271</v>
+        <v>346</v>
+      </c>
+      <c r="D48" t="s">
+        <v>347</v>
+      </c>
+      <c r="E48" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>355</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s">
-        <v>378</v>
+        <v>216</v>
+      </c>
+      <c r="C49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" t="s">
+        <v>221</v>
+      </c>
+      <c r="E49" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="B50" t="s">
-        <v>377</v>
+        <v>272</v>
       </c>
       <c r="C50" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="D50" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="E50" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="F50" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="C51" t="s">
-        <v>379</v>
+        <v>273</v>
       </c>
       <c r="D51" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="E51" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4913,170 +4713,170 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
         <v>71</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
         <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
         <v>75</v>
-      </c>
-      <c r="B6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
         <v>77</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
         <v>107</v>
-      </c>
-      <c r="B13" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
         <v>109</v>
-      </c>
-      <c r="B14" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" t="s">
         <v>111</v>
-      </c>
-      <c r="B15" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
         <v>113</v>
-      </c>
-      <c r="B16" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
         <v>105</v>
-      </c>
-      <c r="B17" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
         <v>119</v>
-      </c>
-      <c r="B18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" t="s">
         <v>121</v>
-      </c>
-      <c r="B19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s">
         <v>123</v>
-      </c>
-      <c r="B20" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5091,7 +4891,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5103,232 +4903,232 @@
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D2" s="9">
-        <v>637.32000000000005</v>
+        <v>73.2</v>
       </c>
       <c r="E2">
-        <v>5800</v>
+        <v>3500</v>
       </c>
       <c r="F2">
-        <v>1062.2</v>
+        <v>915</v>
       </c>
       <c r="G2">
-        <v>0.6</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D3" s="9">
-        <v>699.12</v>
+        <v>-649.70428266700003</v>
       </c>
       <c r="E3">
-        <v>5300</v>
+        <v>8700</v>
       </c>
       <c r="F3">
-        <v>1165.2</v>
+        <v>1112.5073333299999</v>
       </c>
       <c r="G3">
-        <v>0.6</v>
+        <v>-0.58399999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D4" s="9">
-        <v>717.35416666699996</v>
+        <v>467.265625</v>
       </c>
       <c r="E4">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="F4">
-        <v>1229.75</v>
+        <v>1495.25</v>
       </c>
       <c r="G4">
-        <v>0.58333333333299997</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>323</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D5" s="9">
-        <v>593.9</v>
+        <v>623.25</v>
       </c>
       <c r="E5">
-        <v>3700</v>
+        <v>7800</v>
       </c>
       <c r="F5">
-        <v>1484.75</v>
+        <v>1246.5</v>
       </c>
       <c r="G5">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>324</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="C6" t="s">
         <v>164</v>
       </c>
       <c r="D6" s="9">
-        <v>793.3125</v>
+        <v>572.625</v>
       </c>
       <c r="E6">
-        <v>7600</v>
+        <v>6400</v>
       </c>
       <c r="F6">
-        <v>1057.75</v>
+        <v>1145.25</v>
       </c>
       <c r="G6">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="B7" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="C7" t="s">
         <v>165</v>
       </c>
       <c r="D7" s="9">
-        <v>832.125</v>
+        <v>459.2</v>
       </c>
       <c r="E7">
-        <v>6000</v>
+        <v>3900</v>
       </c>
       <c r="F7">
-        <v>1109.5</v>
+        <v>1435</v>
       </c>
       <c r="G7">
-        <v>0.75</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D8" s="9">
-        <v>824.72500000000002</v>
+        <v>464.30370370399999</v>
       </c>
       <c r="E8">
-        <v>7000</v>
+        <v>7400</v>
       </c>
       <c r="F8">
-        <v>1499.5</v>
+        <v>1099.66666667</v>
       </c>
       <c r="G8">
-        <v>0.55000000000000004</v>
+        <v>0.42222222222200001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="B9" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D9" s="9">
-        <v>-569.35913249999999</v>
+        <v>296.25</v>
       </c>
       <c r="E9">
-        <v>8600</v>
+        <v>3500</v>
       </c>
       <c r="F9">
-        <v>1133.0530000000001</v>
+        <v>1066.5</v>
       </c>
       <c r="G9">
-        <v>-0.50249999999999995</v>
+        <v>0.277777777778</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
       <c r="B10" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="C10" t="s">
         <v>164</v>
       </c>
       <c r="D10" s="9">
-        <v>409.64</v>
+        <v>492.1</v>
       </c>
       <c r="E10">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="F10">
-        <v>877.8</v>
+        <v>1165.5</v>
       </c>
       <c r="G10">
-        <v>0.46666666666700002</v>
+        <v>0.42222222222200001</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" s="9">
         <f>SUM(D2:D10)</f>
-        <v>4938.1375341670009</v>
+        <v>2798.490046037</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
@@ -5346,10 +5146,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E2" sqref="A2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5360,106 +5160,176 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="B2">
-        <v>3403.3</v>
+        <v>1329.8</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3">
+        <v>1401.8</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B3">
-        <v>1913.05</v>
-      </c>
-      <c r="C3">
-        <v>70</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="B4">
-        <v>1943.25</v>
+        <v>1654.2</v>
       </c>
       <c r="C4">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="B5">
-        <v>1733.4</v>
+        <v>2037.85</v>
       </c>
       <c r="C5">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B6">
+        <v>2175.0500000000002</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7">
+        <v>2902</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8">
+        <v>3214.625</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B9">
+        <v>3704.5</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.fanduel.com/e/Game/11476?tableId=9922292&amp;fromLobby=true"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.fanduel.com/e/Game/11476?tableId=9922574&amp;fromLobby=true"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fanduel.xlsx
+++ b/Fanduel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="_ironspread_data_" sheetId="4" state="veryHidden" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Roster" sheetId="10" r:id="rId8"/>
     <sheet name="Best Contests" sheetId="12" r:id="rId9"/>
     <sheet name="Performance Monitoring" sheetId="13" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Player Mapping'!#REF!</definedName>
@@ -36,13 +37,13 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="385">
   <si>
     <t>n_scripts_list</t>
   </si>
@@ -1155,6 +1156,48 @@
   </si>
   <si>
     <t>Programming Design Course</t>
+  </si>
+  <si>
+    <t>Brenden Dillon</t>
+  </si>
+  <si>
+    <t>Barclay Goodrow</t>
+  </si>
+  <si>
+    <t>Brent Burns</t>
+  </si>
+  <si>
+    <t>Ilya Bryzgalov</t>
+  </si>
+  <si>
+    <t>Matt Tennyson</t>
+  </si>
+  <si>
+    <t>Melker Karlsson</t>
+  </si>
+  <si>
+    <t>Tomas Hertl</t>
+  </si>
+  <si>
+    <t>Marc-Edouard Vlasic</t>
+  </si>
+  <si>
+    <t>Logan Couture</t>
+  </si>
+  <si>
+    <t>John Scott</t>
+  </si>
+  <si>
+    <t>Joe Thornton</t>
+  </si>
+  <si>
+    <t>James Sheppard</t>
+  </si>
+  <si>
+    <t>Joe Pavelski</t>
+  </si>
+  <si>
+    <t>Antti Niemi</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1647,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1629,6 +1672,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1 2" xfId="8"/>
@@ -1811,11 +1866,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="199844608"/>
-        <c:axId val="199846144"/>
+        <c:axId val="220680960"/>
+        <c:axId val="220682496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199844608"/>
+        <c:axId val="220680960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1824,7 +1879,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199846144"/>
+        <c:crossAx val="220682496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1832,7 +1887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199846144"/>
+        <c:axId val="220682496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1843,7 +1898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199844608"/>
+        <c:crossAx val="220680960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1956,11 +2011,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199874432"/>
-        <c:axId val="199875968"/>
+        <c:axId val="220710784"/>
+        <c:axId val="220712320"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="199874432"/>
+        <c:axId val="220710784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,7 +2024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199875968"/>
+        <c:crossAx val="220712320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1977,7 +2032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199875968"/>
+        <c:axId val="220712320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1988,7 +2043,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199874432"/>
+        <c:crossAx val="220710784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2877,12 +2932,710 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15">
+        <v>52018</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" s="15">
+        <v>2014020721</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="15">
+        <v>0</v>
+      </c>
+      <c r="G1" s="15">
+        <v>4</v>
+      </c>
+      <c r="H1" s="15">
+        <v>1</v>
+      </c>
+      <c r="I1" s="15">
+        <v>3</v>
+      </c>
+      <c r="J1" s="16">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="K1" s="15">
+        <v>1</v>
+      </c>
+      <c r="L1" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15">
+        <v>52035</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="D2" s="15">
+        <v>2014020721</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1</v>
+      </c>
+      <c r="G2" s="15">
+        <v>89</v>
+      </c>
+      <c r="H2" s="15">
+        <v>1</v>
+      </c>
+      <c r="I2" s="15">
+        <v>1</v>
+      </c>
+      <c r="J2" s="16">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="K2" s="15">
+        <v>0</v>
+      </c>
+      <c r="L2" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15">
+        <v>52034</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="D3" s="15">
+        <v>2014020721</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="15">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15">
+        <v>88</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>2</v>
+      </c>
+      <c r="J3" s="17">
+        <v>1.117361111111111</v>
+      </c>
+      <c r="K3" s="15">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15">
+        <v>52056</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" s="15">
+        <v>2014020721</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="15">
+        <v>80</v>
+      </c>
+      <c r="G4" s="15">
+        <v>19</v>
+      </c>
+      <c r="H4" s="17">
+        <v>1.5048611111111112</v>
+      </c>
+      <c r="I4" s="15">
+        <v>6</v>
+      </c>
+      <c r="J4" s="15">
+        <v>25</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0.76</v>
+      </c>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15">
+        <v>52032</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="D5" s="15">
+        <v>2014020721</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15">
+        <v>80</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>2</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15">
+        <v>52031</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2014020721</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>68</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="K6" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15">
+        <v>52030</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="15">
+        <v>2014020721</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>52</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1</v>
+      </c>
+      <c r="I7" s="15">
+        <v>3</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="K7" s="15">
+        <v>1</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15">
+        <v>52029</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="D8" s="15">
+        <v>2014020721</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="15">
+        <v>2</v>
+      </c>
+      <c r="G8" s="15">
+        <v>48</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>1</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0.68958333333333333</v>
+      </c>
+      <c r="K8" s="15">
+        <v>1</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15">
+        <v>52028</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="D9" s="15">
+        <v>2014020721</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>44</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>1</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0.9590277777777777</v>
+      </c>
+      <c r="K9" s="15">
+        <v>2</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15">
+        <v>52027</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D10" s="15">
+        <v>2014020721</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15">
+        <v>39</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
+        <v>3</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0.73888888888888893</v>
+      </c>
+      <c r="K10" s="15">
+        <v>2</v>
+      </c>
+      <c r="L10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15">
+        <v>52026</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="15">
+        <v>2014020721</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>27</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="K11" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15">
+        <v>52025</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="15">
+        <v>2014020721</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>25</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
+        <v>2</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15">
+        <v>52024</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D13" s="15">
+        <v>2014020721</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <v>20</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="15">
+        <v>1</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="K13" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15">
+        <v>52023</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="D14" s="15">
+        <v>2014020721</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="15">
+        <v>2</v>
+      </c>
+      <c r="G14" s="15">
+        <v>19</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0</v>
+      </c>
+      <c r="I14" s="15">
+        <v>1</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0.8340277777777777</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15">
+        <v>52022</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2014020721</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15">
+        <v>15</v>
+      </c>
+      <c r="H15" s="15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="K15" s="15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15">
+        <v>52021</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="15">
+        <v>2014020721</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1</v>
+      </c>
+      <c r="G16" s="15">
+        <v>12</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1</v>
+      </c>
+      <c r="I16" s="15">
+        <v>6</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0.7597222222222223</v>
+      </c>
+      <c r="K16" s="15">
+        <v>2</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15">
+        <v>52020</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="D17" s="15">
+        <v>2014020721</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <v>10</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="K17" s="15">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15">
+        <v>52019</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="D18" s="15">
+        <v>2014020721</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>8</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1</v>
+      </c>
+      <c r="I18" s="15">
+        <v>4</v>
+      </c>
+      <c r="J18" s="16">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="K18" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15">
+        <v>52036</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="D19" s="15">
+        <v>2014020721</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="15">
+        <v>31</v>
+      </c>
+      <c r="G19" s="15">
+        <v>25</v>
+      </c>
+      <c r="H19" s="17">
+        <v>2.4993055555555554</v>
+      </c>
+      <c r="I19" s="15">
+        <v>3</v>
+      </c>
+      <c r="J19" s="15">
+        <v>28</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="L19" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -3438,8 +4191,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Fanduel.xlsx
+++ b/Fanduel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="_ironspread_data_" sheetId="4" state="veryHidden" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="Roster" sheetId="10" r:id="rId8"/>
     <sheet name="Best Contests" sheetId="12" r:id="rId9"/>
     <sheet name="Performance Monitoring" sheetId="13" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Player Mapping'!#REF!</definedName>
@@ -37,13 +36,13 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="381">
   <si>
     <t>n_scripts_list</t>
   </si>
@@ -612,9 +611,6 @@
     <t>Ryan Carter</t>
   </si>
   <si>
-    <t>Pascal Dupuis</t>
-  </si>
-  <si>
     <t>Patrick Marleau</t>
   </si>
   <si>
@@ -624,9 +620,6 @@
     <t>Andrew Cogliano</t>
   </si>
   <si>
-    <t>Jacob Markstrom</t>
-  </si>
-  <si>
     <t>Chad Johnson</t>
   </si>
   <si>
@@ -681,9 +674,6 @@
     <t>Colin Wilson</t>
   </si>
   <si>
-    <t>Calvin de_Haan</t>
-  </si>
-  <si>
     <t>Steve Ott</t>
   </si>
   <si>
@@ -705,54 +695,27 @@
     <t>Jordan Eberle</t>
   </si>
   <si>
-    <t>Tomas Vokoun</t>
-  </si>
-  <si>
     <t>Tomas Plekanec</t>
   </si>
   <si>
     <t>Tomas Jurco</t>
   </si>
   <si>
-    <t>Benoit Pouliot</t>
-  </si>
-  <si>
     <t>Keith Aulie</t>
   </si>
   <si>
     <t>Kris Letang</t>
   </si>
   <si>
-    <t>Tye McGinn</t>
-  </si>
-  <si>
     <t>Chris Neil</t>
   </si>
   <si>
-    <t>Chris Kunitz</t>
-  </si>
-  <si>
     <t>Matt Ellis</t>
   </si>
   <si>
-    <t>Josh Gorges</t>
-  </si>
-  <si>
-    <t>Josh Bailey</t>
-  </si>
-  <si>
     <t>Alexei Emelin</t>
   </si>
   <si>
-    <t>Stefan Elliott</t>
-  </si>
-  <si>
-    <t>Ryan Callahan</t>
-  </si>
-  <si>
-    <t>David Perron</t>
-  </si>
-  <si>
     <t>Implemented process, continous effort. Needs to be implemented for player lineups</t>
   </si>
   <si>
@@ -771,54 +734,15 @@
     <t>Matt Niskanen</t>
   </si>
   <si>
-    <t>Jamie McGinn</t>
-  </si>
-  <si>
-    <t>John Gibson</t>
-  </si>
-  <si>
     <t>John Carlson</t>
   </si>
   <si>
-    <t>Brad Winchester</t>
-  </si>
-  <si>
-    <t>Brad Richards</t>
-  </si>
-  <si>
-    <t>Brad Richardson</t>
-  </si>
-  <si>
-    <t>Chad LaRose</t>
-  </si>
-  <si>
-    <t>Ryan Ellis</t>
-  </si>
-  <si>
     <t>Andrei Loktionov</t>
   </si>
   <si>
-    <t>Nathan Lieuwen</t>
-  </si>
-  <si>
     <t>Nathan Beaulieu</t>
   </si>
   <si>
-    <t>Matthew Hackett</t>
-  </si>
-  <si>
-    <t>Matt Halischuk</t>
-  </si>
-  <si>
-    <t>Jesse Winchester</t>
-  </si>
-  <si>
-    <t>Kevin Poulin</t>
-  </si>
-  <si>
-    <t>Kevin Klein</t>
-  </si>
-  <si>
     <t>Learn sublime text tricks</t>
   </si>
   <si>
@@ -846,87 +770,27 @@
     <t>C:\Users\Cole\Desktop\FanDuel\fanduel\modules\database_operations.py</t>
   </si>
   <si>
-    <t>Mat Clark</t>
-  </si>
-  <si>
     <t>Patrick Bordeleau</t>
   </si>
   <si>
-    <t>Josh Manson</t>
-  </si>
-  <si>
     <t>Cory Conacher</t>
   </si>
   <si>
     <t>Chris Tierney</t>
   </si>
   <si>
-    <t>Tomas Vincour</t>
-  </si>
-  <si>
-    <t>Brian Dumoulin</t>
-  </si>
-  <si>
-    <t>{u'MIN': [['Zach Parise', 'Mikael Granlund', 'Thomas Vanek'], ['Jason Zucker', 'Mikko Koivu', 'Jason Pominville'], ['Ryan Carter', 'Charlie Coyle', 'Nino Niederreiter'], ['Matt Cooke', 'Kyle Brodziak', 'Justin Fontaine'], ['Ryan Suter', 'Jonas Brodin'], ['Jared Spurgeon', 'Marco Scandella'], ['Nate Prosser', 'Mathew Dumba'], ['Zach Parise', 'Mikko Koivu', 'Thomas Vanek', 'Ryan Suter', 'Jason Pominville'], ['Nino Niederreiter', 'Mikael Granlund', 'Charlie Coyle', 'Jared Spurgeon', 'Mathew Dumba']], u'TOR': [['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel'], ['Daniel Winnik', 'Nazem Kadri', 'Mike Santorelli'], ['Leo Komarov', 'Peter Holland', 'David Clarkson'], ['David Booth', 'Trevor Smith', 'Joffrey Lupul'], ['Korbinian Holzer', 'Cody Franson'], ['Morgan Rielly', 'Roman Polak'], ['Jake Gardiner', 'Petter Granberg'], ['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel', 'Peter Holland', 'Cody Franson'], ['Joffrey Lupul', 'Nazem Kadri', 'David Clarkson', 'Morgan Rielly', 'Jake Gardiner']], u'CAR': [['Eric Staal', 'Jordan Staal', 'Jiri Tlusty'], ['Nathan Gerbe', 'Victor Rask', 'Elias Lindholm'], ['Jeff Skinner', 'Riley Nash', 'Chris Terry'], ['Brad Malone', 'Jay McClement', 'Pat Dwyer'], ['Andrej Sekera', 'Justin Faulk'], ['Ryan Murphy', 'Tim Gleason'], ['Ron Hainsey', 'Brett Bellemore'], ['Eric Staal', 'Jordan Staal', 'Riley Nash', 'Ryan Murphy', 'Jeff Skinner'], ['Jiri Tlusty', 'Victor Rask', 'Nathan Gerbe', 'Elias Lindholm', 'Justin Faulk']], u'BOS': [['Milan Lucic', 'David Krejci', 'Reilly Smith'], ['Brad Marchand', 'Patrice Bergeron', 'Loui Eriksson'], ['Chris Kelly', 'Carl Soderberg', 'David Pastrnak'], ['Daniel Paille', 'Gregory Campbell', 'Craig Cunningham'], ['Zdeno Chara', 'Dougie Hamilton'], ['Dennis Seidenberg', 'Adam McQuaid'], ['Torey Krug', 'Kevan Miller'], ['Loui Eriksson', 'Patrice Bergeron', 'Carl Soderberg', 'Reilly Smith', 'Dougie Hamilton'], ['Milan Lucic', 'David Krejci', 'David Pastrnak', 'Zdeno Chara', 'Torey Krug']], u'DET': [['Gustav Nyquist', 'Henrik Zetterberg', 'Justin Abdelkader'], ['Tomas Tatar', 'Pavel Datsyuk', 'Darren Helm'], ['Stephen Weiss', 'Riley Sheahan', 'Luke Glendening'], ['Drew Miller', 'Joakim Andersson', 'Tomas Jurco'], ['Jonathan Ericsson', 'Niklas Kronwall'], ['Kyle Quincey', 'Dan DeKeyser'], ['Brendan Smith', 'Jakub Kindl'], ['Gustav Nyquist', 'Henrik Zetterberg', 'Justin Abdelkader', 'Stephen Weiss', 'Niklas Kronwall'], ['Tomas Tatar', 'Riley Sheahan', 'Darren Helm', 'Pavel Datsyuk', 'Dan DeKeyser']], u'NAS': [['Filip Forsberg', 'Mike Ribeiro', 'Craig Smith'], ['Colin Wilson', 'Mike Fisher', 'James Neal'], ['Matt Cullen', 'Calle Jarnkrok', 'Gabriel Bourque'], ['Eric Nystrom', 'Paul Gaustad', 'Olli Jokinen'], ['Roman Josi', 'Shea Weber'], ['Victor Bartley', 'Seth Jones'], ['Mattias Ekholm', 'Anton Volchenkov'], ['Filip Forsberg', 'Mike Fisher', 'James Neal', 'Roman Josi', 'Shea Weber'], ['Colin Wilson', 'Mike Ribeiro', 'Craig Smith', 'Seth Jones', 'Mattias Ekholm']], u'NYI': [['Mikhail Grabovski', 'John Tavares', 'Josh Bailey'], ['Anders Lee', 'Frans Nielsen', 'Ryan Strome'], ['Michael Grabner', 'Brock Nelson', 'Nikolay Kulemin'], ['Matt Martin', 'Casey Cizikas', 'Cal Clutterbuck'], ['Calvin de Haan', 'Travis Hamonic'], ['Nick Leddy', 'Johnny Boychuk'], ['Thomas Hickey', 'Brian Strait'], ['Brock Nelson', 'John Tavares', 'Ryan Strome', 'Frans Nielsen', 'Johnny Boychuk'], ['Anders Lee', 'Mikhail Grabovski', 'Josh Bailey', 'Nick Leddy', 'Travis Hamonic']], u'FLA': [['Jonathan Huberdeau', 'Aleksander Barkov', 'Brad Boyes'], ['Brandon Pirri', 'Nick Bjugstad', 'Jimmy Hayes'], ['Sean Bergenheim', 'Dave Bolland', 'Jussi Jokinen'], ['Tomas Kopecky', 'Derek MacKenzie', 'Shawn Thornton'], ['Brian Campbell', 'Aaron Ekblad'], ['Willie Mitchell', 'Erik Gudbranson'], ['Alex Petrovic', 'Dmitry Kulikov'], ['Jonathan Huberdeau', 'Nick Bjugstad', 'Jimmy Hayes', 'Aleksander Barkov', 'Aaron Ekblad'], ['Jussi Jokinen', 'Dave Bolland', 'Brad Boyes', 'Brian Campbell', 'Dmitry Kulikov']], u'COL': [['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon'], ['Alex Tanguay', 'Matt Duchene', 'Jarome Iginla'], ['Cody McLeod', 'John Mitchell', 'Dennis Everberg'], ['Max Talbot', 'Marc-Andre Cliche', 'Danny Briere'], ['Jan Hejda', 'Zach Redmond'], ['Nate Guenin', 'Tyson Barrie'], ['Brad Stuart', 'Nick Holden'], ['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon', 'Nick Holden', 'Tyson Barrie'], ['Cody McLeod', 'Matt Duchene', 'Jarome Iginla', 'Alex Tanguay', 'Zach Redmond']], u'NJD': [['Adam Henrique', 'Scott Gomez', 'Jaromir Jagr'], ['Patrik Elias', 'Travis Zajac', 'Martin Havlat'], ['Dainius Zubrus', 'Michael Cammalleri', 'Steve Bernier'], ['Jordin Tootoo', 'Jacob Josefson', 'Tuomo Ruutu'], ['Andy Greene', 'Adam Larsson'], ['Mark Fraser', 'Marek Zidlicky'], ['Jon Merrill', 'Peter Harrold'], ['Jordin Tootoo', 'Travis Zajac', 'Martin Havlat', 'Patrik Elias', 'Marek Zidlicky'], ['Michael Cammalleri', 'Scott Gomez', 'Jaromir Jagr', 'Andy Greene', 'Steve Bernier']], u'DAL': [['Jamie Benn', 'Tyler Seguin', 'Patrick Eaves'], ['Shawn Horcoff', 'Jason Spezza', 'Ales Hemsky'], ['Antoine Roussel', 'Cody Eakin', 'Ryan Garbutt'], ['Travis Moen', 'Vernon Fiddler', 'Colton Sceviour'], ['Alex Goligoski', 'John Klingberg'], ['Jamie Oleksiak', 'Trevor Daley'], ['David Schlemko', 'Jason Demers'], ['Jamie Benn', 'Jason Spezza', 'Patrick Eaves', 'Tyler Seguin', 'John Klingberg'], ['Colton Sceviour', 'Shawn Horcoff', 'Ales Hemsky', 'Jason Demers', 'Trevor Daley']], u'CGY': [['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler'], ['Mason Raymond', 'Josh Jooris', 'Joe Colborne'], ['Lance Bouma', 'Mikael Backlund', 'David Jones'], ['Brandon Bollig', 'Matt Stajan', 'Paul Byron'], ['Mark Giordano', 'T.J. Brodie'], ['Kris Russell', 'Dennis Wideman'], ['Raphael Diaz', 'Deryk Engelland'], ['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler', 'Dennis Wideman', 'Mark Giordano'], ['Mason Raymond', 'Mikael Backlund', 'Joe Colborne', 'T.J. Brodie', 'Raphael Diaz']], u'NYR': [['Rick Nash', 'Derick Brassard', 'Mats Zuccarello'], ['Chris Kreider', 'Derek Stepan', 'Martin St. Louis'], ['Carl Hagelin', 'Dominic Moore', 'Lee Stempniak'], ['Tanner Glass', 'Kevin Hayes', 'Jesper Fast'], ['Ryan McDonagh', 'Dan Girardi'], ['Marc Staal', 'Kevin Klein'], ['John Moore', 'Dan Boyle'], ['Rick Nash', 'Derick Brassard', 'Martin St. Louis', 'Derek Stepan', 'Dan Boyle'], ['Chris Kreider', 'Mats Zuccarello', 'Lee Stempniak', 'Ryan McDonagh', 'Dan Girardi']], u'SJS': [['Melker Karlsson', 'Joe Thornton', 'Joe Pavelski'], ['Patrick Marleau', 'Logan Couture', 'Matthew Nieto'], ['Tomas Hertl', 'James Sheppard', 'Barclay Goodrow'], ['Tye McGinn', 'Andrew Desjardins', 'John Scott'], ['Marc-Edouard Vlasic', 'Brent Burns'], ['Brenden Dillon', 'Matt Tennyson'], ['Matt Irwin', 'Scott Hannan'], ['Patrick Marleau', 'Joe Thornton', 'Logan Couture', 'Joe Pavelski', 'Brent Burns'], ['Melker Karlsson', 'Tomas Hertl', 'Matthew Nieto', 'Marc-Edouard Vlasic', 'Matt Tennyson']], u'PIT': [['Chris Kunitz', 'Sidney Crosby', 'David Perron'], ['Nick Spaling', 'Brandon Sutter', 'Patric Hornqvist'], ['Mark Arcobello', 'Maxim Lapierre', 'Steve Downie'], ['Zach Sill', 'Andrew Ebbett', 'Craig Adams'], ['Simon Despres', 'Kris Letang'], ['Rob Scuderi', 'Paul Martin'], ['Robert Bortuzzo', 'Scott Harrington'], ['David Perron', 'Sidney Crosby', 'Patric Hornqvist', 'Paul Martin', 'Kris Letang'], ['Chris Kunitz', 'Brandon Sutter', 'Steve Downie', 'Simon Despres', 'Scott Harrington']], u'VAN': [['Daniel Sedin', 'Henrik Sedin', 'Radim Vrbata'], ['Chris Higgins', 'Linden Vey', 'Alexandre Burrows'], ['Shawn Matthias', 'Nick Bonino', 'Jannik Hansen'], ['Derek Dorsett', 'Bo Horvat', 'Zack Kassian'], ['Alexander Edler', 'Luca Sbisa'], ['Dan Hamhuis', 'Frank Corrado'], ['Chris Tanev', 'Yannick Weber'], ['Daniel Sedin', 'Henrik Sedin', 'Radim Vrbata', 'Alexander Edler', 'Nick Bonino'], ['Derek Dorsett', 'Linden Vey', 'Alexandre Burrows', 'Dan Hamhuis', 'Chris Higgins']], u'STL': [['Alex Steen', 'David Backes', 'T.J. Oshie'], ['Jaden Schwartz', 'Paul Stastny', 'Vladimir Tarasenko'], ['Ty Rattie', 'Joakim Lindstrom', 'Dmitrij Jaskin'], ['Steve Ott', 'Marcel Goc', 'Ryan Reaves'], ['Jay Bouwmeester', 'Alex Pietrangelo'], ['Carl Gunnarsson', 'Kevin Shattenkirk'], ['Barret Jackman', 'Ian Cole'], ['Vladimir Tarasenko', 'David Backes', 'T.J. Oshie', 'Alex Steen', 'Kevin Shattenkirk'], ['Jaden Schwartz', 'Paul Stastny', 'Dmitrij Jaskin', 'Jay Bouwmeester', 'Alex Pietrangelo']], u'CHI': [['Brandon Saad', 'Jonathan Toews', 'Marian Hossa'], ['Patrick Sharp', 'Brad Richards', 'Patrick Kane'], ['Bryan Bickell', 'Teuvo Teravainen', 'Andrew Shaw'], ['Joakim Nordstrom', 'Marcus Kruger', 'Ben Smith'], ['Duncan Keith', 'David Rundblad'], ['Niklas Hjalmarsson', 'Brent Seabrook'], ['Michal Rozsival', 'Johnny Oduya'], ['Andrew Shaw', 'Jonathan Toews', 'Patrick Kane', 'Duncan Keith', 'Patrick Sharp'], ['Bryan Bickell', 'Brandon Saad', 'Marian Hossa', 'Brad Richards', 'Brent Seabrook']], u'MTL': [['Max Pacioretty', 'Tomas Plekanec', 'Dale Weise'], ['Alex Galchenyuk', 'David Desharnais', 'Brendan Gallagher'], ['Jiri Sekac', 'Lars Eller', 'Brandon Prust'], ['Michael Bournival', 'Manny Malhotra', 'Christian Thomas'], ['Andrei Markov', 'P.K. Subban'], ['Nathan Beaulieu', 'Sergei Gonchar'], ['Alexei Emelin', 'Tom Gilbert'], ['Max Pacioretty', 'Tomas Plekanec', 'Brendan Gallagher', 'Andrei Markov', 'P.K. Subban'], ['Alex Galchenyuk', 'David Desharnais', 'Jiri Sekac', 'Nathan Beaulieu', 'Sergei Gonchar']], u'PHI': [['Brayden Schenn', 'Claude Giroux', 'Jakub Voracek'], ['Petr Straka', 'Ryan White', 'Wayne Simmonds'], ['R.J. Umberger', 'Sean Couturier', 'Matt Read'], ['Chris VandeVelde', 'Vincent Lecavalier'], ['Nick Schultz', 'Mark Streit'], ['Michael Del Zotto', 'Luke Schenn'], ['Carlo Colaiacovo', 'Andrew MacDonald'], ['Brayden Schenn', 'Claude Giroux', 'Wayne Simmonds', 'Jakub Voracek', 'Mark Streit'], ['R.J. Umberger', 'Sean Couturier', 'Vincent Lecavalier', 'Matt Read', 'Michael Del Zotto']], u'ANA': [['Patrick Maroon', 'Ryan Getzlaf', 'Corey Perry'], ['Kyle Palmieri', 'Ryan Kesler', 'Matt Beleskey'], ['Andrew Cogliano', 'Rickard Rakell', 'Jakob Silfverberg'], ['Rene Bourque', 'Nate Thompson', 'Devante Smith-Pelly'], ['Cam Fowler', 'Ben Lovejoy'], ['Hampus Lindholm', 'Francois Beauchemin'], ['Clayton Stoner', 'Sami Vatanen'], ['Patrick Maroon', 'Ryan Getzlaf', 'Corey Perry', 'Cam Fowler', 'Sami Vatanen'], ['Rickard Rakell', 'Ryan Kesler', 'Kyle Palmieri', 'Francois Beauchemin', 'Hampus Lindholm']], u'LAK': [['Marian Gaborik', 'Anze Kopitar', 'Dustin Brown'], ['Dwight King', 'Jeff Carter', 'Tyler Toffoli'], ['Kyle Clifford', 'Jarret Stoll', 'Justin Williams'], ['Trevor Lewis', 'Nick Shore', 'Jordan Nolan'], ['Jake Muzzin', 'Drew Doughty'], ['Robyn Regehr', 'Alec Martinez'], ['Brayden McNabb', 'Matt Greene'], ['Marian Gaborik', 'Anze Kopitar', 'Justin Williams', 'Jake Muzzin', 'Drew Doughty'], ['Dwight King', 'Jeff Carter', 'Tyler Toffoli', 'Brayden McNabb', 'Alec Martinez']], u'CBJ': [['Nick Foligno', 'Ryan Johansen', 'Cam Atkinson'], ['Scott Hartnell', 'Brandon Dubinsky', 'Corey Tropp'], ['Matt Calvert', 'Artem Anisimov', 'Alexander Wennberg'], ['Jack Skille', 'Mark Letestu', 'Jared Boll'], ['Jack Johnson', 'David Savard'], ['Kevin Connauton', 'James Wisniewski'], ['Fedor Tyutin', 'Dalton Prout'], ['Nick Foligno', 'Ryan Johansen', 'Cam Atkinson', 'Jack Johnson', 'David Savard'], ['Scott Hartnell', 'Artem Anisimov', 'Brandon Dubinsky', 'Kevin Connauton', 'Mark Letestu']], u'BUF': [['Matt Moulson', 'Zemgus  Girgensons', 'Tyler Ennis'], ['Brian Flynn', 'Torrey Mitchell', 'Brian Gionta'], ['Drew Stafford', 'Cody Hodgson', 'Chris Stewart'], ['Nicolas Deslauriers', 'Matt Ellis', 'Patrick Kaleta'], ['Josh Gorges', 'Tyler Myers'], ['Mike Weber', 'Tyson Strachan'], ['Andrej Meszaros', 'Rasmus Ristolainen'], ['Chris Stewart', 'Zemgus  Girgensons', 'Tyler Ennis', 'Rasmus Ristolainen', 'Tyler Myers'], ['Matt Moulson', 'Brian Flynn', 'Drew Stafford', 'Josh Gorges', 'Andrej Meszaros']], u'EDM': [['Benoit Pouliot', 'Ryan Nugent-Hopkins', 'Jordan Eberle'], ['Nail Yakupov', 'Derek Roy', 'Teddy Purcell'], ['Matt Hendricks', 'Boyd Gordon', 'Rob Klinkhammer'], ['Matt Fraser', 'Anton Lander', 'Luke Gazdic'], ['Oscar Klefbom', 'Justin Schultz'], ['Andrew Ference', 'Jeff Petry'], ['Nikita Nikitin', 'Mark Fayne'], ['Benoit Pouliot', 'Ryan Nugent-Hopkins', 'Teddy Purcell', 'Jordan Eberle', 'Justin Schultz'], ['Matt Fraser', 'Derek Roy', 'Anton Lander', 'Nikita Nikitin', 'Nail Yakupov']], u'TBL': [['Valtteri Filppula', 'Steven Stamkos', 'Ryan Callahan'], ['Ondrej Palat', 'Tyler Johnson', 'Nikita Kucherov'], ['Alex Killorn', 'Cedric Paquette', 'Jonathan Drouin'], ['J.T. Brown', 'Brian Boyle', 'Brett Connolly'], ['Andrej Sustr', 'Victor Hedman'], ['Mark Barberio', 'Anton Stralman'], ['Jason Garrison', 'Nikita Nesterov'], ['Jonathan Drouin', 'Steven Stamkos', 'Ryan Callahan', 'Valtteri Filppula', 'Anton Stralman'], ['Ondrej Palat', 'Tyler Johnson', 'Brett Connolly', 'Jason Garrison', 'Nikita Kucherov']], u'WIN': [['Andrew Ladd', 'Bryan Little', 'Blake Wheeler'], ['Mathieu Perreault', 'Mark Scheifele', 'Michael Frolik'], ['Evander Kane', 'Adam Lowry', 'Chris Thorburn'], ['Matt Halischuk', 'Jim Slater', 'Anthony Peluso'], ['Ben Chiarot', 'Dustin Byfuglien'], ['Tobias Enstrom', 'Zach Bogosian'], ['Mark Stuart', 'Jacob Trouba'], ['Evander Kane', 'Mark Scheifele', 'Michael Frolik', 'Mathieu Perreault', 'Dustin Byfuglien'], ['Andrew Ladd', 'Bryan Little', 'Blake Wheeler', 'Tobias Enstrom', 'Jacob Trouba']], u'ARI': [['Tobias Rieder', 'Antoine Vermette', 'Shane Doan'], ['Martin Erat', 'Martin Hanzal', 'Sam Gagner'], ['Lauri Korpikoski', 'Kyle Chipchura', 'David Moss'], ['Lucas Lessio', 'Brendan Shinnimin', 'B.J. Crombeen'], ['Keith Yandle', 'Michael Stone'], ['Oliver Ekman-Larsson', 'Zbynek Michalek'], ['Andrew Campbell', 'Connor Murphy'], ['Sam Gagner', 'Antoine Vermette', 'Shane Doan', 'Oliver Ekman-Larsson', 'Keith Yandle'], ['Tobias Rieder', 'Martin Hanzal', 'Martin Erat', 'Michael Stone', 'Connor Murphy']], u'OTT': [['Clarke MacArthur', 'Mika Zibanejad', 'Bobby Ryan'], ['Mike Hoffman', 'Kyle Turris', 'Curtis Lazar'], ['Milan Michalek', 'David Legwand', 'Mark Stone'], ['Erik Condra', 'Jean-Gabriel Pageau', 'Chris Neil'], ['Marc Methot', 'Erik Karlsson'], ['Jared Cowen', 'Cody Ceci'], ['Eric Gryba', 'Chris Phillips'], ['Clarke MacArthur', 'Mika Zibanejad', 'Bobby Ryan', 'Erik Karlsson', 'Cody Ceci'], ['Milan Michalek', 'Kyle Turris', 'Mark Stone', 'Mike Hoffman', 'Chris Phillips']]}</t>
-  </si>
-  <si>
-    <t>Kyle Cumiskey</t>
-  </si>
-  <si>
-    <t>Kyle Quincey</t>
-  </si>
-  <si>
-    <t>Kyle Turris</t>
-  </si>
-  <si>
     <t>Kyle Palmieri</t>
   </si>
   <si>
-    <t>Eric Brewer</t>
-  </si>
-  <si>
-    <t>Eric Fehr</t>
-  </si>
-  <si>
     <t>Troy Brouwer</t>
   </si>
   <si>
-    <t>Martin Brodeur</t>
-  </si>
-  <si>
-    <t>Martin Jones</t>
-  </si>
-  <si>
     <t>Martin Erat</t>
   </si>
   <si>
     <t>Martin St. Louis</t>
   </si>
   <si>
-    <t>Jason LaBarbera</t>
-  </si>
-  <si>
-    <t>Jason Chimera</t>
-  </si>
-  <si>
-    <t>Jason Garrison</t>
-  </si>
-  <si>
-    <t>Blake Comeau</t>
-  </si>
-  <si>
-    <t>Marcus Foligno</t>
-  </si>
-  <si>
-    <t>Nick Foligno</t>
-  </si>
-  <si>
-    <t>Marcus Johansson</t>
-  </si>
-  <si>
-    <t>Ruslan Fedotenko</t>
-  </si>
-  <si>
     <t>Ryane Clowe</t>
   </si>
   <si>
@@ -942,60 +806,21 @@
     <t>Ian Cole</t>
   </si>
   <si>
-    <t>Matt Climie</t>
-  </si>
-  <si>
     <t>Matt Cullen</t>
   </si>
   <si>
     <t>Matt Read</t>
   </si>
   <si>
-    <t>Reto Berra</t>
-  </si>
-  <si>
-    <t>Paul Bissonnette</t>
-  </si>
-  <si>
-    <t>Beau Bennett</t>
-  </si>
-  <si>
-    <t>Paul Byron</t>
-  </si>
-  <si>
-    <t>Emerson Etem</t>
-  </si>
-  <si>
     <t>Kris Versteeg</t>
   </si>
   <si>
-    <t>Peter Mueller</t>
-  </si>
-  <si>
     <t>Peter Holland</t>
   </si>
   <si>
     <t>Damien Brunner</t>
   </si>
   <si>
-    <t>Derrick Pouliot</t>
-  </si>
-  <si>
-    <t>Olli Maatta</t>
-  </si>
-  <si>
-    <t>Jeff Zatkoff</t>
-  </si>
-  <si>
-    <t>Jeff Carter</t>
-  </si>
-  <si>
-    <t>Mark Pysyk</t>
-  </si>
-  <si>
-    <t>Mark Fayne</t>
-  </si>
-  <si>
     <t>Scott Darling</t>
   </si>
   <si>
@@ -1011,78 +836,21 @@
     <t>Damon Severson</t>
   </si>
   <si>
-    <t>Kevin Shattenkirk</t>
-  </si>
-  <si>
-    <t>David Backes</t>
-  </si>
-  <si>
-    <t>T.J. Oshie</t>
-  </si>
-  <si>
-    <t>Paul Martin</t>
-  </si>
-  <si>
-    <t>Jake Allen</t>
-  </si>
-  <si>
-    <t>John Mitchell</t>
-  </si>
-  <si>
-    <t>Viktor Stalberg</t>
-  </si>
-  <si>
-    <t>Jack Hillen</t>
-  </si>
-  <si>
-    <t>Jack Skille</t>
-  </si>
-  <si>
     <t>Jared Boll</t>
   </si>
   <si>
-    <t>Calvin Pickard</t>
-  </si>
-  <si>
-    <t>Alexander Steen</t>
-  </si>
-  <si>
-    <t>Alexander Edler</t>
-  </si>
-  <si>
     <t>Alexander Wennberg</t>
   </si>
   <si>
-    <t>Pekka Rinne</t>
-  </si>
-  <si>
-    <t>Miikka Salomaki</t>
-  </si>
-  <si>
     <t>Andrej Sekera</t>
   </si>
   <si>
     <t>Andrew Desjardins</t>
   </si>
   <si>
-    <t>Michael Hutchinson</t>
-  </si>
-  <si>
-    <t>Ryan O'Reilly</t>
-  </si>
-  <si>
     <t>Ryan White</t>
   </si>
   <si>
-    <t>Ryan Stanton</t>
-  </si>
-  <si>
-    <t>Ryan Johansen</t>
-  </si>
-  <si>
-    <t>Ryan Suter</t>
-  </si>
-  <si>
     <t>Mike Richards</t>
   </si>
   <si>
@@ -1092,33 +860,12 @@
     <t>Brad Malone</t>
   </si>
   <si>
-    <t>['VAN', 'VAN', 'VAN', 'VAN', 'VAN']</t>
-  </si>
-  <si>
-    <t>['STL', 'STL', 'STL', 'STL']</t>
-  </si>
-  <si>
-    <t>['PIT', 'PIT', 'PIT', 'PIT', 'PIT', 'PIT']</t>
-  </si>
-  <si>
-    <t>Brandon Sutter</t>
-  </si>
-  <si>
     <t>data_scrapping.py</t>
   </si>
   <si>
     <t>C:\Users\Cole\Desktop\FanDuel\fanduel\modules\data_scrapping.py</t>
   </si>
   <si>
-    <t>https://www.fanduel.com/e/Game/11536?tableId=10195041&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11536?tableId=10195201&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11536?tableId=10195752&amp;fromLobby=true</t>
-  </si>
-  <si>
     <t>https://www.fanduel.com/e/Game/11536?tableId=10196255&amp;fromLobby=true</t>
   </si>
   <si>
@@ -1128,12 +875,6 @@
     <t>https://www.fanduel.com/e/Game/11536?tableId=10195967&amp;fromLobby=true</t>
   </si>
   <si>
-    <t>https://www.fanduel.com/e/Game/11536?tableId=10195565&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11536?tableId=10194829&amp;fromLobby=true</t>
-  </si>
-  <si>
     <t>Analyzed Entries</t>
   </si>
   <si>
@@ -1158,52 +899,301 @@
     <t>Programming Design Course</t>
   </si>
   <si>
-    <t>Brenden Dillon</t>
-  </si>
-  <si>
-    <t>Barclay Goodrow</t>
+    <t>Tomas Hertl</t>
+  </si>
+  <si>
+    <t>Joe Thornton</t>
+  </si>
+  <si>
+    <t>Troy Grosenick</t>
+  </si>
+  <si>
+    <t>Richard Bachman</t>
+  </si>
+  <si>
+    <t>Richard Panik</t>
+  </si>
+  <si>
+    <t>Bobby Butler</t>
+  </si>
+  <si>
+    <t>Jason Williams</t>
+  </si>
+  <si>
+    <t>Justin Williams</t>
+  </si>
+  <si>
+    <t>Jason Demers</t>
+  </si>
+  <si>
+    <t>Jason Pominville</t>
+  </si>
+  <si>
+    <t>Karri Ramo</t>
+  </si>
+  <si>
+    <t>Patrice Cormier</t>
+  </si>
+  <si>
+    <t>Patrice Bergeron</t>
+  </si>
+  <si>
+    <t>Patric Hornqvist</t>
+  </si>
+  <si>
+    <t>Patrick Dwyer</t>
+  </si>
+  <si>
+    <t>Patrick Wiercioch</t>
+  </si>
+  <si>
+    <t>Jonathan Drouin</t>
+  </si>
+  <si>
+    <t>Carl Klingberg</t>
+  </si>
+  <si>
+    <t>John Klingberg</t>
+  </si>
+  <si>
+    <t>Carl Soderberg</t>
+  </si>
+  <si>
+    <t>Karl Alzner</t>
+  </si>
+  <si>
+    <t>Carl Hagelin</t>
+  </si>
+  <si>
+    <t>Anthony Duclair</t>
+  </si>
+  <si>
+    <t>Anthony Peluso</t>
+  </si>
+  <si>
+    <t>Peter Budaj</t>
+  </si>
+  <si>
+    <t>Jeff Drouin-Deslauriers</t>
+  </si>
+  <si>
+    <t>Andrei Vasilevskii</t>
+  </si>
+  <si>
+    <t>Matthew Lombardi</t>
+  </si>
+  <si>
+    <t>Maxime Fortunus</t>
+  </si>
+  <si>
+    <t>Dan Ellis</t>
+  </si>
+  <si>
+    <t>Dylan Olsen</t>
+  </si>
+  <si>
+    <t>Dan Hamhuis</t>
+  </si>
+  <si>
+    <t>Boone Jenner</t>
+  </si>
+  <si>
+    <t>Brian Gibbons</t>
+  </si>
+  <si>
+    <t>Brian Gionta</t>
+  </si>
+  <si>
+    <t>Radko Gudas</t>
+  </si>
+  <si>
+    <t>Brad Thiessen</t>
+  </si>
+  <si>
+    <t>Frans Nielsen</t>
+  </si>
+  <si>
+    <t>Brad Boyes</t>
+  </si>
+  <si>
+    <t>Rich Peverley</t>
+  </si>
+  <si>
+    <t>Sheldon Brookbank</t>
+  </si>
+  <si>
+    <t>Kristers Gudlevskis</t>
+  </si>
+  <si>
+    <t>Viatcheslav Voynov</t>
+  </si>
+  <si>
+    <t>Oliver Lauridsen</t>
+  </si>
+  <si>
+    <t>Oliver Ekman-Larsson</t>
+  </si>
+  <si>
+    <t>David Warsofsky</t>
+  </si>
+  <si>
+    <t>David Clarkson</t>
+  </si>
+  <si>
+    <t>David Moss</t>
+  </si>
+  <si>
+    <t>David Pastrnak</t>
+  </si>
+  <si>
+    <t>David Jones</t>
+  </si>
+  <si>
+    <t>Jack Campbell</t>
+  </si>
+  <si>
+    <t>Brian Campbell</t>
+  </si>
+  <si>
+    <t>Andrew Campbell</t>
+  </si>
+  <si>
+    <t>Gregory Campbell</t>
+  </si>
+  <si>
+    <t>Keith Yandle</t>
+  </si>
+  <si>
+    <t>Danny Taylor</t>
+  </si>
+  <si>
+    <t>Manny Malhotra</t>
+  </si>
+  <si>
+    <t>Quinton Howden</t>
+  </si>
+  <si>
+    <t>Grant Clitsome</t>
+  </si>
+  <si>
+    <t>Tomas Kaberle</t>
+  </si>
+  <si>
+    <t>Joe Morrow</t>
+  </si>
+  <si>
+    <t>Brenden Morrow</t>
+  </si>
+  <si>
+    <t>John Moore</t>
+  </si>
+  <si>
+    <t>Allan York</t>
+  </si>
+  <si>
+    <t>Jamie McBain</t>
+  </si>
+  <si>
+    <t>Tanner Pearson</t>
+  </si>
+  <si>
+    <t>Tanner Glass</t>
+  </si>
+  <si>
+    <t>Simon Gagne</t>
+  </si>
+  <si>
+    <t>Sam Gagner</t>
+  </si>
+  <si>
+    <t>Dion Phaneuf</t>
+  </si>
+  <si>
+    <t>Michael Lee</t>
+  </si>
+  <si>
+    <t>Andrej Nestrasil</t>
+  </si>
+  <si>
+    <t>Andrej Sustr</t>
+  </si>
+  <si>
+    <t>Andrej Meszaros</t>
+  </si>
+  <si>
+    <t>Matt Hackett</t>
+  </si>
+  <si>
+    <t>Matt Beleskey</t>
+  </si>
+  <si>
+    <t>Curtis Glencross</t>
+  </si>
+  <si>
+    <t>Brett Ritchie</t>
+  </si>
+  <si>
+    <t>['WPG', 'WPG', 'WPG', 'WPG']</t>
+  </si>
+  <si>
+    <t>Michael Frolik</t>
+  </si>
+  <si>
+    <t>Mark Scheifele</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11544?tableId=10228290&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11544?tableId=10229052&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11544?tableId=10228991&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>{u'MIN': [['Zach Parise', 'Mikael Granlund', 'Thomas Vanek'], ['Jason Zucker', 'Mikko Koivu', 'Jason Pominville'], ['Ryan Carter', 'Charlie Coyle', 'Nino Niederreiter'], ['Erik Haula', 'Kyle Brodziak', 'Matt Cooke'], ['Ryan Suter', 'Jonas Brodin'], ['Jared Spurgeon', 'Marco Scandella'], ['Nate Prosser', 'Mathew Dumba'], ['Zach Parise', 'Mikko Koivu', 'Thomas Vanek', 'Ryan Suter', 'Jason Pominville'], ['Nino Niederreiter', 'Mikael Granlund', 'Charlie Coyle', 'Jared Spurgeon', 'Mathew Dumba']], u'TOR': [['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel'], ['Joffrey Lupul', 'Nazem Kadri', 'Daniel Winnik'], ['Leo Komarov', 'Peter Holland', 'Mike Santorelli'], ['Richard Panik', 'Trevor Smith', 'David Clarkson'], ['Korbinian Holzer', 'Cody Franson'], ['Morgan Rielly', 'Roman Polak'], ['Jake Gardiner', 'Petter Granberg'], ['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel', 'Peter Holland', 'Cody Franson'], ['Joffrey Lupul', 'Nazem Kadri', 'David Clarkson', 'Morgan Rielly', 'Jake Gardiner']], u'CAR': [['Eric Staal', 'Jordan Staal', 'Jiri Tlusty'], ['Nathan Gerbe', 'Victor Rask', 'Elias Lindholm'], ['Jeff Skinner', 'Riley Nash', 'Chris Terry'], ['Brad Malone', 'Jay McClement', 'Pat Dwyer'], ['Andrej Sekera', 'Justin Faulk'], ['Ryan Murphy', 'Tim Gleason'], ['Ron Hainsey', 'Brett Bellemore'], ['Eric Staal', 'Jordan Staal', 'Riley Nash', 'Ryan Murphy', 'Jeff Skinner'], ['Jiri Tlusty', 'Victor Rask', 'Nathan Gerbe', 'Elias Lindholm', 'Justin Faulk']], u'BOS': [['Milan Lucic', 'David Krejci', 'Reilly Smith'], ['Brad Marchand', 'Patrice Bergeron', 'Loui Eriksson'], ['Chris Kelly', 'Carl Soderberg', 'David Pastrnak'], ['Daniel Paille', 'Gregory Campbell', 'Jordan Caron'], ['Zdeno Chara', 'Dougie Hamilton'], ['Dennis Seidenberg', 'Adam McQuaid'], ['Torey Krug', 'Kevan Miller'], ['Loui Eriksson', 'Patrice Bergeron', 'Carl Soderberg', 'Reilly Smith', 'Dougie Hamilton'], ['Milan Lucic', 'David Krejci', 'David Pastrnak', 'Zdeno Chara', 'Torey Krug']], u'DET': [['Gustav Nyquist', 'Henrik Zetterberg', 'Justin Abdelkader'], ['Tomas Tatar', 'Pavel Datsyuk', 'Darren Helm'], ['Stephen Weiss', 'Riley Sheahan', 'Luke Glendening'], ['Drew Miller', 'Joakim Andersson', 'Tomas Jurco'], ['Jonathan Ericsson', 'Niklas Kronwall'], ['Kyle Quincey', 'Dan DeKeyser'], ['Brendan Smith', 'Alexey Marchenko'], ['Gustav Nyquist', 'Henrik Zetterberg', 'Justin Abdelkader', 'Stephen Weiss', 'Niklas Kronwall'], ['Tomas Tatar', 'Riley Sheahan', 'Darren Helm', 'Pavel Datsyuk', 'Dan DeKeyser']], u'NAS': [['Filip Forsberg', 'Mike Ribeiro', 'Craig Smith'], ['Colin Wilson', 'Mike Fisher', 'James Neal'], ['Matt Cullen', 'Calle Jarnkrok', 'Gabriel Bourque'], ['Eric Nystrom', 'Paul Gaustad', 'Olli Jokinen'], ['Roman Josi', 'Shea Weber'], ['Victor Bartley', 'Seth Jones'], ['Mattias Ekholm', 'Anton Volchenkov'], ['Filip Forsberg', 'Mike Fisher', 'James Neal', 'Roman Josi', 'Shea Weber'], ['Colin Wilson', 'Mike Ribeiro', 'Craig Smith', 'Seth Jones', 'Mattias Ekholm']], u'NYI': [['Anders Lee', 'John Tavares', 'Josh Bailey'], ['Mikhail Grabovski', 'Frans Nielsen', ''], ['Michael Grabner', 'Brock Nelson', 'Colin McDonald'], ['Matt Martin', 'Ryan Strome', 'Cal Clutterbuck'], ['Calvin de Haan', 'Travis Hamonic'], ['Nick Leddy', 'Johnny Boychuk'], ['Thomas Hickey', 'Lubomir Visnovsky'], ['Brock Nelson', 'John Tavares', 'Ryan Strome', 'Frans Nielsen', 'Johnny Boychuk'], ['Anders Lee', 'Mikhail Grabovski', 'Josh Bailey', 'Nick Leddy', 'Lubomir Visnovsky']], u'FLA': [['Jonathan Huberdeau', 'Aleksander Barkov', 'Brad Boyes'], ['Tomas Fleischmann', 'Nick Bjugstad', 'Brandon Pirri'], ['Sean Bergenheim', 'Dave Bolland', 'Jussi Jokinen'], ['Scottie Upshall', 'Derek MacKenzie', 'Shawn Thornton'], ['Brian Campbell', 'Aaron Ekblad'], ['Willie Mitchell', 'Erik Gudbranson'], ['Alex Petrovic', 'Dmitry Kulikov'], ['Jonathan Huberdeau', 'Nick Bjugstad', 'Brad Boyes', 'Aleksander Barkov', 'Aaron Ekblad'], ['Jussi Jokinen', 'Dave Bolland', 'Tomas Fleischmann', 'Brian Campbell', 'Dmitry Kulikov']], u'COL': [['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon'], ['Alex Tanguay', 'Matt Duchene', 'Jarome Iginla'], ['Cody McLeod', 'John Mitchell', 'Dennis Everberg'], ['Max Talbot', 'Marc-Andre Cliche', 'Danny Briere'], ['Jan Hejda', 'Zach Redmond'], ['Nate Guenin', 'Tyson Barrie'], ['Brad Stuart', 'Nick Holden'], ['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon', 'Nick Holden', 'Tyson Barrie'], ['Cody McLeod', 'Matt Duchene', 'Jarome Iginla', 'Alex Tanguay', 'Zach Redmond']], u'NJD': [['Adam Henrique', 'Scott Gomez', 'Jaromir Jagr'], ['Patrik Elias', 'Travis Zajac', 'Martin Havlat'], ['Dainius Zubrus', 'Michael Cammalleri', 'Steve Bernier'], ['Jordin Tootoo', 'Jacob Josefson', 'Tuomo Ruutu'], ['Andy Greene', 'Adam Larsson'], ['Mark Fraser', 'Marek Zidlicky'], ['Jon Merrill', 'Peter Harrold'], ['Jordin Tootoo', 'Travis Zajac', 'Martin Havlat', 'Patrik Elias', 'Marek Zidlicky'], ['Michael Cammalleri', 'Scott Gomez', 'Jaromir Jagr', 'Andy Greene', 'Steve Bernier']], u'DAL': [['Jamie Benn', 'Tyler Seguin', 'Patrick Eaves'], ['Erik Cole', 'Jason Spezza', 'Ales Hemsky'], ['Antoine Roussel', 'Cody Eakin', 'Ryan Garbutt'], ['Shawn Horcoff', 'Vernon Fiddler', 'Colton Sceviour'], ['Alex Goligoski', 'John Klingberg'], ['David Schlemko', 'Trevor Daley'], ['Jordie Benn', 'Jason Demers'], ['Jamie Benn', 'Jason Spezza', 'Patrick Eaves', 'Tyler Seguin', 'John Klingberg'], ['Colton Sceviour', 'Shawn Horcoff', 'Ales Hemsky', 'Jason Demers', 'Trevor Daley']], u'CGY': [['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler'], ['Lance Bouma', 'Mikael Backlund', 'David Jones'], ['Mason Raymond', 'Josh Jooris', 'Joe Colborne'], ['Brandon Bollig', 'Matt Stajan', 'Paul Byron'], ['Mark Giordano', 'T.J. Brodie'], ['Kris Russell', 'Dennis Wideman'], ['Raphael Diaz', 'Deryk Engelland'], ['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler', 'Dennis Wideman', 'Mark Giordano'], ['Mason Raymond', 'Mikael Backlund', 'Joe Colborne', 'T.J. Brodie', 'Raphael Diaz']], u'NYR': [['Rick Nash', 'Derek Stepan', 'Martin St. Louis'], ['Chris Kreider', 'Kevin Hayes', 'Mats Zuccarello'], ['Carl Hagelin', 'Derick Brassard', 'Jesper Fast'], ['Tanner Glass', 'Dominic Moore', 'Lee Stempniak'], ['Ryan McDonagh', 'Dan Girardi'], ['Marc Staal', 'Kevin Klein'], ['John Moore', 'Dan Boyle'], ['Rick Nash', 'Derick Brassard', 'Martin St. Louis', 'Derek Stepan', 'Dan Boyle'], ['Chris Kreider', 'Mats Zuccarello', 'Lee Stempniak', 'Ryan McDonagh', 'Dan Girardi']], u'SJS': [['Melker Karlsson', 'Joe Thornton', 'Joe Pavelski'], ['Patrick Marleau', 'Logan Couture', 'Matthew Nieto'], ['Tomas Hertl', 'James Sheppard', 'Barclay Goodrow'], ['Tye McGinn', 'Andrew Desjardins', 'John Scott'], ['Marc-Edouard Vlasic', 'Brent Burns'], ['Brenden Dillon', 'Matt Tennyson'], ['Matt Irwin', 'Scott Hannan'], ['Patrick Marleau', 'Joe Thornton', 'Logan Couture', 'Joe Pavelski', 'Brent Burns'], ['Melker Karlsson', 'Tomas Hertl', 'Matthew Nieto', 'Marc-Edouard Vlasic', 'Matt Tennyson']], u'PIT': [['Chris Kunitz', 'Sidney Crosby', 'David Perron'], ['Nick Spaling', 'Brandon Sutter', 'Patric Hornqvist'], ['Beau Bennett', 'Maxim Lapierre', 'Steve Downie'], ['Zach Sill', 'Mark Arcobello', 'Craig Adams'], ['Simon Despres', 'Kris Letang'], ['Rob Scuderi', 'Paul Martin'], ['Robert Bortuzzo', 'Derrick Pouliot'], ['Chris Kunitz', 'Sidney Crosby', 'Patric Hornqvist', 'David Perron', 'Kris Letang'], ['Beau Bennett', 'Brandon Sutter', 'Steve Downie', 'Paul Martin', 'Derrick Pouliot']], u'VAN': [['Daniel Sedin', 'Henrik Sedin', 'Radim Vrbata'], ['Chris Higgins', 'Linden Vey', 'Alexandre Burrows'], ['Shawn Matthias', 'Nick Bonino', 'Jannik Hansen'], ['Ronalds Kenins', 'Bo Horvat', 'Derek Dorsett'], ['Alexander Edler', 'Chris Tanev'], ['Dan Hamhuis', 'Frank Corrado'], ['Luca Sbisa', 'Adam Clendening'], ['Daniel Sedin', 'Henrik Sedin', 'Radim Vrbata', 'Alexander Edler', 'Nick Bonino'], ['Chris Higgins', 'Linden Vey', 'Alexandre Burrows', 'Dan Hamhuis', 'Adam Clendening']], u'STL': [['Alex Steen', 'David Backes', 'T.J. Oshie'], ['Jaden Schwartz', 'Paul Stastny', 'Vladimir Tarasenko'], ['Ty Rattie', 'Joakim Lindstrom', 'Dmitrij Jaskin'], ['Steve Ott', 'Marcel Goc', 'Ryan Reaves'], ['Jay Bouwmeester', 'Alex Pietrangelo'], ['Carl Gunnarsson', 'Kevin Shattenkirk'], ['Barret Jackman', 'Ian Cole'], ['Jaden Schwartz', 'David Backes', 'Vladimir Tarasenko', 'Alex Steen', 'Kevin Shattenkirk'], ['Ty Rattie', 'Paul Stastny', 'T.J. Oshie', 'Jay Bouwmeester', 'Alex Pietrangelo']], u'CHI': [['Brandon Saad', 'Jonathan Toews', 'Marian Hossa'], ['Patrick Sharp', 'Brad Richards', 'Patrick Kane'], ['Bryan Bickell', 'Andrew Shaw', 'Teuvo Teravainen'], ['Joakim Nordstrom', 'Marcus Kruger', 'Ben Smith'], ['Duncan Keith', 'David Rundblad'], ['Niklas Hjalmarsson', 'Brent Seabrook'], ['Michal Rozsival', 'Johnny Oduya'], ['Andrew Shaw', 'Jonathan Toews', 'Patrick Kane', 'Duncan Keith', 'Patrick Sharp'], ['Bryan Bickell', 'Brandon Saad', 'Marian Hossa', 'Brad Richards', 'Brent Seabrook']], u'MTL': [['Max Pacioretty', 'Tomas Plekanec', 'Dale Weise'], ['Alex Galchenyuk', 'David Desharnais', 'Brendan Gallagher'], ['Jiri Sekac', 'Lars Eller', 'Christian Thomas'], ['Gabriel Dumont', 'Manny Malhotra', 'Brandon Prust'], ['Andrei Markov', 'P.K. Subban'], ['Nathan Beaulieu', 'Mike Weaver'], ['Alexei Emelin', 'Tom Gilbert'], ['Max Pacioretty', 'Tomas Plekanec', 'Brendan Gallagher', 'Andrei Markov', 'P.K. Subban'], ['Alex Galchenyuk', 'David Desharnais', 'Jiri Sekac', 'Nathan Beaulieu', 'Tom Gilbert']], u'PHI': [['Brayden Schenn', 'Claude Giroux', 'Jakub Voracek'], ['Petr Straka', 'Ryan White', 'Wayne Simmonds'], ['R.J. Umberger', 'Sean Couturier', 'Matt Read'], ['Chris VandeVelde', 'Vincent Lecavalier'], ['Nick Schultz', 'Mark Streit'], ['Michael Del Zotto', 'Luke Schenn'], ['Carlo Colaiacovo', 'Andrew MacDonald'], ['Brayden Schenn', 'Claude Giroux', 'Wayne Simmonds', 'Jakub Voracek', 'Mark Streit'], ['R.J. Umberger', 'Sean Couturier', 'Vincent Lecavalier', 'Matt Read', 'Michael Del Zotto']], u'ANA': [['Patrick Maroon', 'Ryan Getzlaf', 'Corey Perry'], ['Kyle Palmieri', 'Ryan Kesler', 'Matt Beleskey'], ['Andrew Cogliano', 'Rickard Rakell', 'Jakob Silfverberg'], ['Rene Bourque', 'Nate Thompson', 'Devante Smith-Pelly'], ['Cam Fowler', 'Ben Lovejoy'], ['Hampus Lindholm', 'Francois Beauchemin'], ['Clayton Stoner', 'Sami Vatanen'], ['Patrick Maroon', 'Ryan Getzlaf', 'Corey Perry', 'Cam Fowler', 'Sami Vatanen'], ['Rickard Rakell', 'Ryan Kesler', 'Kyle Palmieri', 'Francois Beauchemin', 'Hampus Lindholm']], u'LAK': [['Kyle Clifford', 'Anze Kopitar', 'Dustin Brown'], ['Dwight King', 'Jeff Carter', 'Tyler Toffoli'], ['Marian Gaborik', 'Jarret Stoll', 'Trevor Lewis'], ['Jordan Nolan', 'Nick Shore', 'Justin Williams'], ['Jake Muzzin', 'Drew Doughty'], ['Robyn Regehr', 'Alec Martinez'], ['Brayden McNabb', 'Matt Greene'], ['Marian Gaborik', 'Anze Kopitar', 'Justin Williams', 'Jake Muzzin', 'Drew Doughty'], ['Dwight King', 'Jeff Carter', 'Tyler Toffoli', 'Brayden McNabb', 'Alec Martinez']], u'CBJ': [['Nick Foligno', 'Ryan Johansen', 'Cam Atkinson'], ['Scott Hartnell', 'Brandon Dubinsky', 'Corey Tropp'], ['Matt Calvert', 'Artem Anisimov', 'Alexander Wennberg'], ['Jack Skille', 'Mark Letestu', 'Jared Boll'], ['Fedor Tyutin', 'Jack Johnson'], ['Ryan Murray', 'David Savard'], ['Kevin Connauton', 'James Wisniewski'], ['Nick Foligno', 'Ryan Johansen', 'Cam Atkinson', 'Jack Johnson', 'David Savard'], ['Scott Hartnell', 'Artem Anisimov', 'Brandon Dubinsky', 'Ryan Murray', 'James Wisniewski']], u'BUF': [['Tyler Ennis', 'Zemgus  Girgensons', 'Chris Stewart'], ['Matt Moulson', 'Torrey Mitchell', 'Brian Gionta'], ['Nicolas Deslauriers', 'Brian Flynn', 'Drew Stafford'], ['Andre Benoit', 'Matt Ellis', 'Patrick Kaleta'], ['Josh Gorges', 'Tyler Myers'], ['Nikita Zadorov', 'Rasmus Ristolainen'], ['Mike Weber', 'Andrej Meszaros'], ['Chris Stewart', 'Zemgus  Girgensons', 'Tyler Ennis', 'Nikita Zadorov', 'Tyler Myers'], ['Matt Moulson', 'Brian Flynn', 'Drew Stafford', 'Josh Gorges', 'Rasmus Ristolainen']], u'EDM': [['Benoit Pouliot', 'Ryan Nugent-Hopkins', 'Jordan Eberle'], ['Nail Yakupov', 'Derek Roy', 'Teddy Purcell'], ['Matt Hendricks', 'Boyd Gordon', 'Rob Klinkhammer'], ['Matt Fraser', 'Anton Lander', 'Luke Gazdic'], ['Oscar Klefbom', 'Justin Schultz'], ['Andrew Ference', 'Jeff Petry'], ['Keith Aulie', 'Mark Fayne'], ['Benoit Pouliot', 'Ryan Nugent-Hopkins', 'Teddy Purcell', 'Jordan Eberle', 'Justin Schultz'], ['Matt Fraser', 'Derek Roy', 'Anton Lander', 'Nail Yakupov', 'Jeff Petry']], u'TBL': [['Valtteri Filppula', 'Steven Stamkos', 'Ryan Callahan'], ['Ondrej Palat', 'Tyler Johnson', 'Nikita Kucherov'], ['Alex Killorn', 'Cedric Paquette', 'Jonathan Drouin'], ['J.T. Brown', 'Brian Boyle', 'Brett Connolly'], ['Andrej Sustr', 'Victor Hedman'], ['Mark Barberio', 'Anton Stralman'], ['Jason Garrison', 'Nikita Nesterov'], ['Jonathan Drouin', 'Steven Stamkos', 'Ryan Callahan', 'Valtteri Filppula', 'Anton Stralman'], ['Ondrej Palat', 'Tyler Johnson', 'Brett Connolly', 'Jason Garrison', 'Nikita Kucherov']], u'WIN': [['Andrew Ladd', 'Bryan Little', 'Blake Wheeler'], ['Mathieu Perreault', 'Mark Scheifele', 'Michael Frolik'], ['Evander Kane', 'Adam Lowry', 'Chris Thorburn'], ['T.J. Galiardi', 'Jim Slater', 'Anthony Peluso'], ['Tobias Enstrom', 'Dustin Byfuglien'], ['Ben Chiarot', 'Zach Bogosian'], ['Mark Stuart', 'Jacob Trouba'], ['Evander Kane', 'Mark Scheifele', 'Michael Frolik', 'Mathieu Perreault', 'Dustin Byfuglien'], ['Andrew Ladd', 'Bryan Little', 'Blake Wheeler', 'Tobias Enstrom', 'Jacob Trouba']], u'ARI': [['Tobias Rieder', 'Antoine Vermette', 'Shane Doan'], ['Lauri Korpikoski', 'Sam Gagner', 'Martin Erat'], ['Brandon McMillan', 'Kyle Chipchura', 'David Moss'], ['Lucas Lessio', 'Brendan Shinnimin', 'B.J. Crombeen'], ['Oliver Ekman-Larsson', 'Zbynek Michalek'], ['Keith Yandle', 'Michael Stone'], ['Andrew Campbell', 'Connor Murphy'], ['Tobias Rieder', 'Antoine Vermette', 'Shane Doan', 'Oliver Ekman-Larsson', 'Keith Yandle'], ['Lauri Korpikoski', 'Sam Gagner', 'Martin Erat', 'Michael Stone', 'Connor Murphy']], u'OTT': [['Clarke MacArthur', 'Mika Zibanejad', 'Bobby Ryan'], ['Mike Hoffman', 'Kyle Turris', 'Curtis Lazar'], ['Milan Michalek', 'David Legwand', 'Mark Stone'], ['Erik Condra', 'Jean-Gabriel Pageau', 'Chris Neil'], ['Marc Methot', 'Erik Karlsson'], ['Jared Cowen', 'Cody Ceci'], ['Mark Borowiecki', 'Patrick Wiercioch'], ['Clarke MacArthur', 'Mika Zibanejad', 'Bobby Ryan', 'Erik Karlsson', 'Cody Ceci'], ['Milan Michalek', 'Kyle Turris', 'Mark Stone', 'Mike Hoffman', 'Patrick Wiercioch']]}</t>
+  </si>
+  <si>
+    <t>Joe Pavelski</t>
   </si>
   <si>
     <t>Brent Burns</t>
   </si>
   <si>
-    <t>Ilya Bryzgalov</t>
-  </si>
-  <si>
-    <t>Matt Tennyson</t>
-  </si>
-  <si>
-    <t>Melker Karlsson</t>
-  </si>
-  <si>
-    <t>Tomas Hertl</t>
-  </si>
-  <si>
-    <t>Marc-Edouard Vlasic</t>
-  </si>
-  <si>
-    <t>Logan Couture</t>
-  </si>
-  <si>
-    <t>John Scott</t>
-  </si>
-  <si>
-    <t>Joe Thornton</t>
-  </si>
-  <si>
-    <t>James Sheppard</t>
-  </si>
-  <si>
-    <t>Joe Pavelski</t>
-  </si>
-  <si>
-    <t>Antti Niemi</t>
+    <t>Henrik Lundqvist</t>
+  </si>
+  <si>
+    <t>Vincent Trocheck</t>
+  </si>
+  <si>
+    <t>['SJS', 'SJS', 'SJS', 'SJS', 'SJS']</t>
+  </si>
+  <si>
+    <t>['NYR', 'NYR', 'NYR', 'NYR']</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11550?tableId=10264642&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11550?tableId=10265107&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11550?tableId=10264122&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11550?tableId=10261166&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11550?tableId=10265174&amp;fromLobby=true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1602,7 +1592,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -1646,8 +1636,9 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1672,20 +1663,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1 2" xfId="8"/>
     <cellStyle name="20% - Accent2 2" xfId="9"/>
     <cellStyle name="20% - Accent3 2" xfId="10"/>
@@ -1713,6 +1693,7 @@
     <cellStyle name="Bad 2" xfId="29"/>
     <cellStyle name="Calculation 2" xfId="30"/>
     <cellStyle name="Check Cell" xfId="2" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="43" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="4" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good 2" xfId="31"/>
     <cellStyle name="Heading 1 2" xfId="32"/>
@@ -1866,11 +1847,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="220680960"/>
-        <c:axId val="220682496"/>
+        <c:axId val="224416512"/>
+        <c:axId val="224418048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="220680960"/>
+        <c:axId val="224416512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1879,7 +1860,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220682496"/>
+        <c:crossAx val="224418048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1887,7 +1868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220682496"/>
+        <c:axId val="224418048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1898,7 +1879,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220680960"/>
+        <c:crossAx val="224416512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2011,11 +1992,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220710784"/>
-        <c:axId val="220712320"/>
+        <c:axId val="224446336"/>
+        <c:axId val="224447872"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="220710784"/>
+        <c:axId val="224446336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2024,7 +2005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220712320"/>
+        <c:crossAx val="224447872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2032,7 +2013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220712320"/>
+        <c:axId val="224447872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2043,7 +2024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220710784"/>
+        <c:crossAx val="224446336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2710,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>353</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2718,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>354</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2726,7 +2707,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2734,7 +2715,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2750,7 +2731,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2793,10 +2774,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,7 +2789,7 @@
     <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9.28515625" style="5" customWidth="1"/>
     <col min="11" max="11" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2830,12 +2811,12 @@
         <v>126</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>363</v>
+        <v>277</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="14" t="s">
         <v>127</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -2853,7 +2834,7 @@
         <v>42034</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>274</v>
       </c>
       <c r="C2" s="5">
         <v>1329.8</v>
@@ -2870,8 +2851,18 @@
       <c r="G2" s="5" t="s">
         <v>172</v>
       </c>
+      <c r="H2" s="14">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5">
+        <f t="shared" ref="J2:J6" si="0">I2/D2</f>
+        <v>0.27500000000000002</v>
+      </c>
       <c r="K2" t="s">
-        <v>364</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2879,7 +2870,7 @@
         <v>42034</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>275</v>
       </c>
       <c r="C3" s="5">
         <v>1401.8</v>
@@ -2896,8 +2887,18 @@
       <c r="G3" s="5" t="s">
         <v>172</v>
       </c>
+      <c r="H3" s="14">
+        <v>3.6</v>
+      </c>
+      <c r="I3" s="5">
+        <v>6</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
       <c r="K3" s="5" t="s">
-        <v>364</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2905,7 +2906,7 @@
         <v>42034</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>276</v>
       </c>
       <c r="C4" s="5">
         <v>1654.2</v>
@@ -2922,711 +2923,212 @@
       <c r="G4" s="5" t="s">
         <v>172</v>
       </c>
+      <c r="H4" s="14">
+        <v>8.18</v>
+      </c>
+      <c r="I4" s="5">
+        <v>11</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
       <c r="K4" s="5" t="s">
-        <v>364</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>42035</v>
+      </c>
+      <c r="B5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2289.6</v>
+      </c>
+      <c r="D5">
+        <v>80</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>45</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>41</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>42035</v>
+      </c>
+      <c r="B6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1980.4</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>29</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="14">
+        <v>9</v>
+      </c>
+      <c r="I6" s="5">
+        <v>11</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>42035</v>
+      </c>
+      <c r="B7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2580.1</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>58</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="I7" s="5">
+        <v>34</v>
+      </c>
+      <c r="J7" s="5">
+        <f>I7/D7</f>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f ca="1">TODAY()</f>
+        <v>42037</v>
+      </c>
+      <c r="B8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1855.25</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>59</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f ca="1">TODAY()</f>
+        <v>42037</v>
+      </c>
+      <c r="B9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2978.2</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>25</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f ca="1">TODAY()</f>
+        <v>42037</v>
+      </c>
+      <c r="B10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3088.1</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>24</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15">
-        <v>52018</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="D1" s="15">
-        <v>2014020721</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" s="15">
-        <v>0</v>
-      </c>
-      <c r="G1" s="15">
-        <v>4</v>
-      </c>
-      <c r="H1" s="15">
-        <v>1</v>
-      </c>
-      <c r="I1" s="15">
-        <v>3</v>
-      </c>
-      <c r="J1" s="16">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="K1" s="15">
-        <v>1</v>
-      </c>
-      <c r="L1" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15">
-        <v>52035</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="D2" s="15">
-        <v>2014020721</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="15">
-        <v>1</v>
-      </c>
-      <c r="G2" s="15">
-        <v>89</v>
-      </c>
-      <c r="H2" s="15">
-        <v>1</v>
-      </c>
-      <c r="I2" s="15">
-        <v>1</v>
-      </c>
-      <c r="J2" s="16">
-        <v>0.60972222222222217</v>
-      </c>
-      <c r="K2" s="15">
-        <v>0</v>
-      </c>
-      <c r="L2" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15">
-        <v>52034</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="D3" s="15">
-        <v>2014020721</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="15">
-        <v>1</v>
-      </c>
-      <c r="G3" s="15">
-        <v>88</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15">
-        <v>2</v>
-      </c>
-      <c r="J3" s="17">
-        <v>1.117361111111111</v>
-      </c>
-      <c r="K3" s="15">
-        <v>1</v>
-      </c>
-      <c r="L3" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15">
-        <v>52056</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="D4" s="15">
-        <v>2014020721</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="15">
-        <v>80</v>
-      </c>
-      <c r="G4" s="15">
-        <v>19</v>
-      </c>
-      <c r="H4" s="17">
-        <v>1.5048611111111112</v>
-      </c>
-      <c r="I4" s="15">
-        <v>6</v>
-      </c>
-      <c r="J4" s="15">
-        <v>25</v>
-      </c>
-      <c r="K4" s="15">
-        <v>0.76</v>
-      </c>
-      <c r="L4" s="15"/>
-    </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15">
-        <v>52032</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="D5" s="15">
-        <v>2014020721</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="15">
-        <v>1</v>
-      </c>
-      <c r="G5" s="15">
-        <v>80</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
-        <v>2</v>
-      </c>
-      <c r="J5" s="16">
-        <v>0.86458333333333337</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15">
-        <v>52031</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="D6" s="15">
-        <v>2014020721</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <v>68</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="16">
-        <v>0.74513888888888891</v>
-      </c>
-      <c r="K6" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15">
-        <v>52030</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="D7" s="15">
-        <v>2014020721</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <v>52</v>
-      </c>
-      <c r="H7" s="15">
-        <v>1</v>
-      </c>
-      <c r="I7" s="15">
-        <v>3</v>
-      </c>
-      <c r="J7" s="16">
-        <v>0.52638888888888891</v>
-      </c>
-      <c r="K7" s="15">
-        <v>1</v>
-      </c>
-      <c r="L7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15">
-        <v>52029</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="D8" s="15">
-        <v>2014020721</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" s="15">
-        <v>2</v>
-      </c>
-      <c r="G8" s="15">
-        <v>48</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15">
-        <v>1</v>
-      </c>
-      <c r="J8" s="16">
-        <v>0.68958333333333333</v>
-      </c>
-      <c r="K8" s="15">
-        <v>1</v>
-      </c>
-      <c r="L8" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15">
-        <v>52028</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="D9" s="15">
-        <v>2014020721</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <v>44</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
-        <v>1</v>
-      </c>
-      <c r="J9" s="16">
-        <v>0.9590277777777777</v>
-      </c>
-      <c r="K9" s="15">
-        <v>2</v>
-      </c>
-      <c r="L9" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15">
-        <v>52027</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="D10" s="15">
-        <v>2014020721</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="15">
-        <v>1</v>
-      </c>
-      <c r="G10" s="15">
-        <v>39</v>
-      </c>
-      <c r="H10" s="15">
-        <v>0</v>
-      </c>
-      <c r="I10" s="15">
-        <v>3</v>
-      </c>
-      <c r="J10" s="16">
-        <v>0.73888888888888893</v>
-      </c>
-      <c r="K10" s="15">
-        <v>2</v>
-      </c>
-      <c r="L10" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15">
-        <v>52026</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="D11" s="15">
-        <v>2014020721</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="15">
-        <v>27</v>
-      </c>
-      <c r="H11" s="15">
-        <v>0</v>
-      </c>
-      <c r="I11" s="15">
-        <v>0</v>
-      </c>
-      <c r="J11" s="16">
-        <v>0.50208333333333333</v>
-      </c>
-      <c r="K11" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L11" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15">
-        <v>52025</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="15">
-        <v>2014020721</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="15">
-        <v>25</v>
-      </c>
-      <c r="H12" s="15">
-        <v>0</v>
-      </c>
-      <c r="I12" s="15">
-        <v>2</v>
-      </c>
-      <c r="J12" s="16">
-        <v>0.50208333333333333</v>
-      </c>
-      <c r="K12" s="15">
-        <v>0</v>
-      </c>
-      <c r="L12" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15">
-        <v>52024</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="D13" s="15">
-        <v>2014020721</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15">
-        <v>20</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0</v>
-      </c>
-      <c r="I13" s="15">
-        <v>1</v>
-      </c>
-      <c r="J13" s="16">
-        <v>0.47430555555555554</v>
-      </c>
-      <c r="K13" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L13" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15">
-        <v>52023</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="D14" s="15">
-        <v>2014020721</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" s="15">
-        <v>2</v>
-      </c>
-      <c r="G14" s="15">
-        <v>19</v>
-      </c>
-      <c r="H14" s="15">
-        <v>0</v>
-      </c>
-      <c r="I14" s="15">
-        <v>1</v>
-      </c>
-      <c r="J14" s="16">
-        <v>0.8340277777777777</v>
-      </c>
-      <c r="K14" s="15">
-        <v>0</v>
-      </c>
-      <c r="L14" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15">
-        <v>52022</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="D15" s="15">
-        <v>2014020721</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="15">
-        <v>15</v>
-      </c>
-      <c r="H15" s="15">
-        <v>1</v>
-      </c>
-      <c r="I15" s="15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="16">
-        <v>0.54375000000000007</v>
-      </c>
-      <c r="K15" s="15">
-        <v>1</v>
-      </c>
-      <c r="L15" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15">
-        <v>52021</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="15">
-        <v>2014020721</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F16" s="15">
-        <v>1</v>
-      </c>
-      <c r="G16" s="15">
-        <v>12</v>
-      </c>
-      <c r="H16" s="15">
-        <v>1</v>
-      </c>
-      <c r="I16" s="15">
-        <v>6</v>
-      </c>
-      <c r="J16" s="16">
-        <v>0.7597222222222223</v>
-      </c>
-      <c r="K16" s="15">
-        <v>2</v>
-      </c>
-      <c r="L16" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15">
-        <v>52020</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="D17" s="15">
-        <v>2014020721</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15">
-        <v>10</v>
-      </c>
-      <c r="H17" s="15">
-        <v>0</v>
-      </c>
-      <c r="I17" s="15">
-        <v>1</v>
-      </c>
-      <c r="J17" s="16">
-        <v>0.44027777777777777</v>
-      </c>
-      <c r="K17" s="15">
-        <v>0</v>
-      </c>
-      <c r="L17" s="15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15">
-        <v>52019</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="D18" s="15">
-        <v>2014020721</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F18" s="15">
-        <v>0</v>
-      </c>
-      <c r="G18" s="15">
-        <v>8</v>
-      </c>
-      <c r="H18" s="15">
-        <v>1</v>
-      </c>
-      <c r="I18" s="15">
-        <v>4</v>
-      </c>
-      <c r="J18" s="16">
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="K18" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15">
-        <v>52036</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="D19" s="15">
-        <v>2014020721</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="15">
-        <v>31</v>
-      </c>
-      <c r="G19" s="15">
-        <v>25</v>
-      </c>
-      <c r="H19" s="17">
-        <v>2.4993055555555554</v>
-      </c>
-      <c r="I19" s="15">
-        <v>3</v>
-      </c>
-      <c r="J19" s="15">
-        <v>28</v>
-      </c>
-      <c r="K19" s="15">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="L19" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3658,10 +3160,10 @@
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>365</v>
+        <v>279</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>366</v>
+        <v>280</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
@@ -3673,7 +3175,7 @@
         <v>22</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3684,7 +3186,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>367</v>
+        <v>281</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>24</v>
@@ -3696,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3753,7 +3255,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>367</v>
+        <v>281</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>55</v>
@@ -3796,7 +3298,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>367</v>
+        <v>281</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>32</v>
@@ -3836,7 +3338,7 @@
         <v>43</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>42</v>
@@ -3856,7 +3358,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>367</v>
+        <v>281</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>48</v>
@@ -3896,7 +3398,7 @@
         <v>89</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>367</v>
+        <v>281</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>48</v>
@@ -3908,7 +3410,7 @@
         <v>49</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3919,7 +3421,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>367</v>
+        <v>281</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>32</v>
@@ -3982,7 +3484,7 @@
         <v>93</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>367</v>
+        <v>281</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>94</v>
@@ -4002,7 +3504,7 @@
         <v>96</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>367</v>
+        <v>281</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>95</v>
@@ -4054,21 +3556,21 @@
         <v>31</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>369</v>
+        <v>283</v>
       </c>
       <c r="E20" s="6">
         <v>4</v>
@@ -4079,24 +3581,24 @@
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>368</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>370</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -4191,8 +3693,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4221,7 +3723,7 @@
         <v>63</v>
       </c>
       <c r="B3" s="3">
-        <v>721</v>
+        <v>741</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4229,7 +3731,7 @@
         <v>160</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>274</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4242,7 +3744,7 @@
         <v>170</v>
       </c>
       <c r="B6">
-        <v>2000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4555,7 +4057,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="A63" sqref="A1:G1048576"/>
@@ -4572,10 +4074,10 @@
     <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
         <v>184</v>
@@ -4590,13 +4092,13 @@
         <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="H2" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="I2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="J2" t="s">
         <v>187</v>
@@ -4607,319 +4109,367 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="B3" t="s">
-        <v>327</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>304</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>305</v>
+      </c>
+      <c r="E5" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="B6" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="C6" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="D6" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="E6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>212</v>
+      </c>
+      <c r="D7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>344</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="C8" t="s">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c r="D8" t="s">
-        <v>278</v>
+        <v>213</v>
+      </c>
+      <c r="E8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="B9" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="D9" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F9" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="G9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>282</v>
+        <v>361</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="D10" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="B11" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C11" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>294</v>
       </c>
       <c r="E11" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="F11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" t="s">
         <v>209</v>
       </c>
-      <c r="G11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H11" t="s">
-        <v>211</v>
-      </c>
       <c r="I11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="B12" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="C12" t="s">
-        <v>281</v>
+        <v>293</v>
+      </c>
+      <c r="D12" t="s">
+        <v>294</v>
+      </c>
+      <c r="E12" t="s">
+        <v>300</v>
+      </c>
+      <c r="F12" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
         <v>245</v>
-      </c>
-      <c r="B13" t="s">
-        <v>246</v>
-      </c>
-      <c r="C13" t="s">
-        <v>247</v>
-      </c>
-      <c r="D13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="B14" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="C14" t="s">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="F14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="B15" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="D15" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
-        <v>297</v>
+        <v>194</v>
       </c>
       <c r="F15" t="s">
-        <v>298</v>
+        <v>195</v>
+      </c>
+      <c r="G15" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>316</v>
       </c>
       <c r="F16" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G16" t="s">
         <v>185</v>
       </c>
       <c r="H16" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B17" t="s">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="C17" t="s">
-        <v>334</v>
+        <v>198</v>
       </c>
       <c r="D17" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="E17" t="s">
-        <v>232</v>
+        <v>316</v>
+      </c>
+      <c r="F17" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="B18" t="s">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="C18" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="D18" t="s">
-        <v>196</v>
+        <v>299</v>
+      </c>
+      <c r="E18" t="s">
+        <v>300</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>242</v>
+        <v>321</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="C19" t="s">
-        <v>208</v>
+        <v>323</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>265</v>
+      </c>
+      <c r="E19" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="B20" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="D20" t="s">
         <v>188</v>
       </c>
       <c r="E20" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="F20" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B21" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="C21" t="s">
         <v>184</v>
@@ -4931,517 +4481,604 @@
         <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G21" t="s">
         <v>185</v>
       </c>
       <c r="H21" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B22" t="s">
-        <v>309</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="B23" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="D23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B24" t="s">
-        <v>304</v>
+        <v>197</v>
       </c>
       <c r="C24" t="s">
-        <v>305</v>
+        <v>198</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="E24" t="s">
-        <v>210</v>
+        <v>316</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B25" t="s">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="D25" t="s">
         <v>188</v>
       </c>
       <c r="E25" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="F25" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>315</v>
       </c>
       <c r="E26" t="s">
-        <v>229</v>
+        <v>316</v>
       </c>
       <c r="F26" t="s">
         <v>185</v>
       </c>
       <c r="G26" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B27" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
       <c r="C27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" t="s">
+        <v>243</v>
+      </c>
+      <c r="F27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" t="s">
         <v>201</v>
       </c>
-      <c r="D27" t="s">
+      <c r="H27" t="s">
         <v>202</v>
       </c>
-      <c r="E27" t="s">
-        <v>270</v>
-      </c>
-      <c r="F27" t="s">
-        <v>271</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
         <v>203</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
         <v>204</v>
       </c>
-      <c r="I27" t="s">
-        <v>205</v>
-      </c>
-      <c r="J27" t="s">
-        <v>206</v>
-      </c>
       <c r="K27" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>198</v>
       </c>
       <c r="D28" t="s">
-        <v>338</v>
+        <v>266</v>
       </c>
       <c r="E28" t="s">
-        <v>339</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>243</v>
+        <v>320</v>
       </c>
       <c r="B29" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D29" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" t="s">
+        <v>208</v>
+      </c>
+      <c r="F29" t="s">
         <v>209</v>
       </c>
-      <c r="E29" t="s">
-        <v>210</v>
-      </c>
-      <c r="F29" t="s">
-        <v>211</v>
-      </c>
       <c r="G29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B30" t="s">
-        <v>223</v>
+        <v>322</v>
       </c>
       <c r="C30" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="B31" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="C31" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="D31" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="E31" t="s">
-        <v>231</v>
+        <v>252</v>
+      </c>
+      <c r="F31" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>255</v>
+        <v>325</v>
       </c>
       <c r="B32" t="s">
-        <v>318</v>
+        <v>190</v>
       </c>
       <c r="C32" t="s">
-        <v>319</v>
+        <v>191</v>
       </c>
       <c r="D32" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>249</v>
       </c>
       <c r="B33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C33" t="s">
+        <v>251</v>
+      </c>
+      <c r="D33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" t="s">
+        <v>252</v>
+      </c>
+      <c r="F33" t="s">
+        <v>253</v>
+      </c>
+      <c r="G33" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>356</v>
+      </c>
+      <c r="B34" t="s">
+        <v>357</v>
+      </c>
+      <c r="C34" t="s">
+        <v>358</v>
+      </c>
+      <c r="D34" t="s">
+        <v>266</v>
+      </c>
+      <c r="E34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" t="s">
+        <v>227</v>
+      </c>
+      <c r="G36" t="s">
+        <v>228</v>
+      </c>
+      <c r="H36" t="s">
+        <v>359</v>
+      </c>
+      <c r="I36" t="s">
+        <v>255</v>
+      </c>
+      <c r="J36" t="s">
         <v>229</v>
       </c>
-      <c r="C33" t="s">
-        <v>296</v>
-      </c>
-      <c r="D33" t="s">
-        <v>341</v>
-      </c>
-      <c r="E33" t="s">
-        <v>234</v>
-      </c>
-      <c r="F33" t="s">
-        <v>200</v>
-      </c>
-      <c r="G33" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>253</v>
-      </c>
-      <c r="B34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" t="s">
-        <v>254</v>
-      </c>
-      <c r="D34" t="s">
-        <v>221</v>
-      </c>
-      <c r="E34" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>313</v>
-      </c>
-      <c r="B35" t="s">
-        <v>314</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="K36" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>326</v>
+      </c>
+      <c r="B37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>327</v>
+      </c>
+      <c r="B38" t="s">
+        <v>336</v>
+      </c>
+      <c r="C38" t="s">
+        <v>337</v>
+      </c>
+      <c r="D38" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>328</v>
+      </c>
+      <c r="B39" t="s">
+        <v>329</v>
+      </c>
+      <c r="C39" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>233</v>
-      </c>
-      <c r="B36" t="s">
-        <v>200</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>361</v>
+      </c>
+      <c r="B40" t="s">
+        <v>339</v>
+      </c>
+      <c r="C40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" t="s">
         <v>198</v>
       </c>
-      <c r="D36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="G40" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>330</v>
+      </c>
+      <c r="B41" t="s">
+        <v>331</v>
+      </c>
+      <c r="C41" t="s">
+        <v>332</v>
+      </c>
+      <c r="D41" t="s">
+        <v>333</v>
+      </c>
+      <c r="E41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>362</v>
+      </c>
+      <c r="B43" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43" t="s">
         <v>210</v>
       </c>
-      <c r="F36" t="s">
+      <c r="D43" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>315</v>
-      </c>
-      <c r="B37" t="s">
-        <v>316</v>
-      </c>
-      <c r="C37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D37" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>317</v>
-      </c>
-      <c r="B38" t="s">
-        <v>318</v>
-      </c>
-      <c r="C38" t="s">
-        <v>319</v>
-      </c>
-      <c r="D38" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>321</v>
-      </c>
-      <c r="B39" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>220</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>335</v>
+      </c>
+      <c r="B44" t="s">
+        <v>336</v>
+      </c>
+      <c r="C44" t="s">
+        <v>337</v>
+      </c>
+      <c r="D44" t="s">
+        <v>338</v>
+      </c>
+      <c r="E44" t="s">
+        <v>214</v>
+      </c>
+      <c r="F44" t="s">
+        <v>215</v>
+      </c>
+      <c r="G44" t="s">
         <v>216</v>
       </c>
-      <c r="C40" t="s">
-        <v>217</v>
-      </c>
-      <c r="D40" t="s">
-        <v>221</v>
-      </c>
-      <c r="E40" t="s">
-        <v>222</v>
-      </c>
-      <c r="F40" t="s">
-        <v>200</v>
-      </c>
-      <c r="G40" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>253</v>
-      </c>
-      <c r="B41" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>313</v>
-      </c>
-      <c r="B42" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>233</v>
-      </c>
-      <c r="B43" t="s">
-        <v>200</v>
-      </c>
-      <c r="C43" t="s">
-        <v>213</v>
-      </c>
-      <c r="D43" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>315</v>
-      </c>
-      <c r="B44" t="s">
-        <v>316</v>
-      </c>
-      <c r="C44" t="s">
-        <v>215</v>
-      </c>
-      <c r="D44" t="s">
-        <v>216</v>
-      </c>
-      <c r="E44" t="s">
-        <v>217</v>
-      </c>
-      <c r="F44" t="s">
-        <v>218</v>
-      </c>
-      <c r="G44" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="B45" t="s">
-        <v>295</v>
+        <v>206</v>
       </c>
       <c r="C45" t="s">
-        <v>344</v>
+        <v>113</v>
       </c>
       <c r="D45" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E45" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>317</v>
+        <v>219</v>
       </c>
       <c r="B46" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="C46" t="s">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="D46" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>341</v>
       </c>
       <c r="C47" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>247</v>
+        <v>342</v>
       </c>
       <c r="B48" t="s">
-        <v>246</v>
+        <v>351</v>
       </c>
       <c r="C48" t="s">
+        <v>269</v>
+      </c>
+      <c r="D48" t="s">
+        <v>270</v>
+      </c>
+      <c r="E48" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>343</v>
+      </c>
+      <c r="B49" t="s">
+        <v>260</v>
+      </c>
+      <c r="C49" t="s">
+        <v>261</v>
+      </c>
+      <c r="D49" t="s">
+        <v>262</v>
+      </c>
+      <c r="E49" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>344</v>
+      </c>
+      <c r="B50" t="s">
+        <v>285</v>
+      </c>
+      <c r="C50" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" t="s">
+        <v>214</v>
+      </c>
+      <c r="F50" t="s">
+        <v>215</v>
+      </c>
+      <c r="G50" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>345</v>
+      </c>
+      <c r="B51" t="s">
         <v>346</v>
       </c>
-      <c r="D48" t="s">
+      <c r="C51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D51" t="s">
         <v>347</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E51" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>220</v>
-      </c>
-      <c r="B49" t="s">
-        <v>216</v>
-      </c>
-      <c r="C49" t="s">
-        <v>217</v>
-      </c>
-      <c r="D49" t="s">
-        <v>221</v>
-      </c>
-      <c r="E49" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>220</v>
-      </c>
-      <c r="B50" t="s">
-        <v>272</v>
-      </c>
-      <c r="C50" t="s">
-        <v>216</v>
-      </c>
-      <c r="D50" t="s">
-        <v>217</v>
-      </c>
-      <c r="E50" t="s">
-        <v>221</v>
-      </c>
-      <c r="F50" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>256</v>
-      </c>
-      <c r="B51" t="s">
-        <v>257</v>
-      </c>
-      <c r="C51" t="s">
-        <v>273</v>
-      </c>
-      <c r="D51" t="s">
-        <v>223</v>
-      </c>
-      <c r="E51" t="s">
-        <v>224</v>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>349</v>
+      </c>
+      <c r="B53" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>350</v>
+      </c>
+      <c r="B54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55" t="s">
+        <v>260</v>
+      </c>
+      <c r="C55" t="s">
+        <v>261</v>
+      </c>
+      <c r="D55" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>352</v>
+      </c>
+      <c r="B57" t="s">
+        <v>353</v>
+      </c>
+      <c r="C57" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5644,7 +5281,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5673,215 +5310,215 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D2" s="9">
-        <v>73.2</v>
+        <v>479.84</v>
       </c>
       <c r="E2">
-        <v>3500</v>
+        <v>7900</v>
       </c>
       <c r="F2">
-        <v>915</v>
+        <v>1199.5999999999999</v>
       </c>
       <c r="G2">
-        <v>0.08</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>296</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D3" s="9">
-        <v>-649.70428266700003</v>
+        <v>469.52</v>
       </c>
       <c r="E3">
-        <v>8700</v>
+        <v>6400</v>
       </c>
       <c r="F3">
-        <v>1112.5073333299999</v>
+        <v>1173.8</v>
       </c>
       <c r="G3">
-        <v>-0.58399999999999996</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B4" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D4" s="9">
-        <v>467.265625</v>
+        <v>471.52</v>
       </c>
       <c r="E4">
-        <v>6200</v>
+        <v>5600</v>
       </c>
       <c r="F4">
-        <v>1495.25</v>
+        <v>1178.8</v>
       </c>
       <c r="G4">
-        <v>0.3125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D5" s="9">
-        <v>623.25</v>
+        <v>646.08000000000004</v>
       </c>
       <c r="E5">
-        <v>7800</v>
+        <v>6000</v>
       </c>
       <c r="F5">
-        <v>1246.5</v>
+        <v>1615.2</v>
       </c>
       <c r="G5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D6" s="9">
-        <v>572.625</v>
+        <v>241.6875</v>
       </c>
       <c r="E6">
-        <v>6400</v>
+        <v>5400</v>
       </c>
       <c r="F6">
-        <v>1145.25</v>
+        <v>966.75</v>
       </c>
       <c r="G6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="B7" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D7" s="9">
-        <v>459.2</v>
+        <v>-656.99412625000002</v>
       </c>
       <c r="E7">
-        <v>3900</v>
+        <v>9900</v>
       </c>
       <c r="F7">
-        <v>1435</v>
+        <v>1137.65216667</v>
       </c>
       <c r="G7">
-        <v>0.32</v>
+        <v>-0.57750000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D8" s="9">
-        <v>464.30370370399999</v>
+        <v>259.85000000000002</v>
       </c>
       <c r="E8">
-        <v>7400</v>
+        <v>3800</v>
       </c>
       <c r="F8">
-        <v>1099.66666667</v>
+        <v>1299.25</v>
       </c>
       <c r="G8">
-        <v>0.42222222222200001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="B9" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C9" t="s">
         <v>162</v>
       </c>
       <c r="D9" s="9">
-        <v>296.25</v>
+        <v>220.944444444</v>
       </c>
       <c r="E9">
-        <v>3500</v>
+        <v>4600</v>
       </c>
       <c r="F9">
-        <v>1066.5</v>
+        <v>994.25</v>
       </c>
       <c r="G9">
-        <v>0.277777777778</v>
+        <v>0.222222222222</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>364</v>
       </c>
       <c r="B10" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C10" t="s">
         <v>164</v>
       </c>
       <c r="D10" s="9">
-        <v>492.1</v>
+        <v>236</v>
       </c>
       <c r="E10">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="F10">
-        <v>1165.5</v>
+        <v>1062</v>
       </c>
       <c r="G10">
-        <v>0.42222222222200001</v>
+        <v>0.222222222222</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" s="9">
         <f>SUM(D2:D10)</f>
-        <v>2798.490046037</v>
+        <v>2368.4478181939999</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
@@ -5902,7 +5539,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:E4"/>
+      <selection activeCell="E5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5932,27 +5569,27 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="B2">
-        <v>1329.8</v>
+        <v>1855.25</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="B3">
-        <v>1401.8</v>
+        <v>2978.2</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -5961,15 +5598,15 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="B4">
-        <v>1654.2</v>
+        <v>2980.5</v>
       </c>
       <c r="C4">
         <v>40</v>
@@ -5978,93 +5615,51 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="B5">
-        <v>2037.85</v>
+        <v>3088.1</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="B6">
-        <v>2175.0500000000002</v>
+        <v>4538.25</v>
       </c>
       <c r="C6">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B7">
-        <v>2902</v>
-      </c>
-      <c r="C7">
-        <v>40</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>38</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B8">
-        <v>3214.625</v>
-      </c>
-      <c r="C8">
-        <v>30</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>16</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B9">
-        <v>3704.5</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>21</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -6079,11 +5674,6 @@
       <c r="A13" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Fanduel.xlsx
+++ b/Fanduel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="_ironspread_data_" sheetId="4" state="veryHidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="605">
   <si>
     <t>n_scripts_list</t>
   </si>
@@ -902,24 +902,12 @@
     <t>Tomas Hertl</t>
   </si>
   <si>
-    <t>Joe Thornton</t>
-  </si>
-  <si>
-    <t>Troy Grosenick</t>
-  </si>
-  <si>
-    <t>Richard Bachman</t>
-  </si>
-  <si>
     <t>Richard Panik</t>
   </si>
   <si>
     <t>Bobby Butler</t>
   </si>
   <si>
-    <t>Jason Williams</t>
-  </si>
-  <si>
     <t>Justin Williams</t>
   </si>
   <si>
@@ -929,9 +917,6 @@
     <t>Jason Pominville</t>
   </si>
   <si>
-    <t>Karri Ramo</t>
-  </si>
-  <si>
     <t>Patrice Cormier</t>
   </si>
   <si>
@@ -965,9 +950,6 @@
     <t>Carl Hagelin</t>
   </si>
   <si>
-    <t>Anthony Duclair</t>
-  </si>
-  <si>
     <t>Anthony Peluso</t>
   </si>
   <si>
@@ -980,9 +962,6 @@
     <t>Andrei Vasilevskii</t>
   </si>
   <si>
-    <t>Matthew Lombardi</t>
-  </si>
-  <si>
     <t>Maxime Fortunus</t>
   </si>
   <si>
@@ -1007,36 +986,18 @@
     <t>Radko Gudas</t>
   </si>
   <si>
-    <t>Brad Thiessen</t>
-  </si>
-  <si>
-    <t>Frans Nielsen</t>
-  </si>
-  <si>
     <t>Brad Boyes</t>
   </si>
   <si>
     <t>Rich Peverley</t>
   </si>
   <si>
-    <t>Sheldon Brookbank</t>
-  </si>
-  <si>
     <t>Kristers Gudlevskis</t>
   </si>
   <si>
     <t>Viatcheslav Voynov</t>
   </si>
   <si>
-    <t>Oliver Lauridsen</t>
-  </si>
-  <si>
-    <t>Oliver Ekman-Larsson</t>
-  </si>
-  <si>
-    <t>David Warsofsky</t>
-  </si>
-  <si>
     <t>David Clarkson</t>
   </si>
   <si>
@@ -1076,18 +1037,6 @@
     <t>Grant Clitsome</t>
   </si>
   <si>
-    <t>Tomas Kaberle</t>
-  </si>
-  <si>
-    <t>Joe Morrow</t>
-  </si>
-  <si>
-    <t>Brenden Morrow</t>
-  </si>
-  <si>
-    <t>John Moore</t>
-  </si>
-  <si>
     <t>Allan York</t>
   </si>
   <si>
@@ -1100,48 +1049,18 @@
     <t>Tanner Glass</t>
   </si>
   <si>
-    <t>Simon Gagne</t>
-  </si>
-  <si>
-    <t>Sam Gagner</t>
-  </si>
-  <si>
-    <t>Dion Phaneuf</t>
-  </si>
-  <si>
     <t>Michael Lee</t>
   </si>
   <si>
-    <t>Andrej Nestrasil</t>
-  </si>
-  <si>
-    <t>Andrej Sustr</t>
-  </si>
-  <si>
-    <t>Andrej Meszaros</t>
-  </si>
-  <si>
     <t>Matt Hackett</t>
   </si>
   <si>
     <t>Matt Beleskey</t>
   </si>
   <si>
-    <t>Curtis Glencross</t>
-  </si>
-  <si>
     <t>Brett Ritchie</t>
   </si>
   <si>
-    <t>['WPG', 'WPG', 'WPG', 'WPG']</t>
-  </si>
-  <si>
-    <t>Michael Frolik</t>
-  </si>
-  <si>
-    <t>Mark Scheifele</t>
-  </si>
-  <si>
     <t>https://www.fanduel.com/e/Game/11544?tableId=10228290&amp;fromLobby=true</t>
   </si>
   <si>
@@ -1154,24 +1073,12 @@
     <t>{u'MIN': [['Zach Parise', 'Mikael Granlund', 'Thomas Vanek'], ['Jason Zucker', 'Mikko Koivu', 'Jason Pominville'], ['Ryan Carter', 'Charlie Coyle', 'Nino Niederreiter'], ['Erik Haula', 'Kyle Brodziak', 'Matt Cooke'], ['Ryan Suter', 'Jonas Brodin'], ['Jared Spurgeon', 'Marco Scandella'], ['Nate Prosser', 'Mathew Dumba'], ['Zach Parise', 'Mikko Koivu', 'Thomas Vanek', 'Ryan Suter', 'Jason Pominville'], ['Nino Niederreiter', 'Mikael Granlund', 'Charlie Coyle', 'Jared Spurgeon', 'Mathew Dumba']], u'TOR': [['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel'], ['Joffrey Lupul', 'Nazem Kadri', 'Daniel Winnik'], ['Leo Komarov', 'Peter Holland', 'Mike Santorelli'], ['Richard Panik', 'Trevor Smith', 'David Clarkson'], ['Korbinian Holzer', 'Cody Franson'], ['Morgan Rielly', 'Roman Polak'], ['Jake Gardiner', 'Petter Granberg'], ['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel', 'Peter Holland', 'Cody Franson'], ['Joffrey Lupul', 'Nazem Kadri', 'David Clarkson', 'Morgan Rielly', 'Jake Gardiner']], u'CAR': [['Eric Staal', 'Jordan Staal', 'Jiri Tlusty'], ['Nathan Gerbe', 'Victor Rask', 'Elias Lindholm'], ['Jeff Skinner', 'Riley Nash', 'Chris Terry'], ['Brad Malone', 'Jay McClement', 'Pat Dwyer'], ['Andrej Sekera', 'Justin Faulk'], ['Ryan Murphy', 'Tim Gleason'], ['Ron Hainsey', 'Brett Bellemore'], ['Eric Staal', 'Jordan Staal', 'Riley Nash', 'Ryan Murphy', 'Jeff Skinner'], ['Jiri Tlusty', 'Victor Rask', 'Nathan Gerbe', 'Elias Lindholm', 'Justin Faulk']], u'BOS': [['Milan Lucic', 'David Krejci', 'Reilly Smith'], ['Brad Marchand', 'Patrice Bergeron', 'Loui Eriksson'], ['Chris Kelly', 'Carl Soderberg', 'David Pastrnak'], ['Daniel Paille', 'Gregory Campbell', 'Jordan Caron'], ['Zdeno Chara', 'Dougie Hamilton'], ['Dennis Seidenberg', 'Adam McQuaid'], ['Torey Krug', 'Kevan Miller'], ['Loui Eriksson', 'Patrice Bergeron', 'Carl Soderberg', 'Reilly Smith', 'Dougie Hamilton'], ['Milan Lucic', 'David Krejci', 'David Pastrnak', 'Zdeno Chara', 'Torey Krug']], u'DET': [['Gustav Nyquist', 'Henrik Zetterberg', 'Justin Abdelkader'], ['Tomas Tatar', 'Pavel Datsyuk', 'Darren Helm'], ['Stephen Weiss', 'Riley Sheahan', 'Luke Glendening'], ['Drew Miller', 'Joakim Andersson', 'Tomas Jurco'], ['Jonathan Ericsson', 'Niklas Kronwall'], ['Kyle Quincey', 'Dan DeKeyser'], ['Brendan Smith', 'Alexey Marchenko'], ['Gustav Nyquist', 'Henrik Zetterberg', 'Justin Abdelkader', 'Stephen Weiss', 'Niklas Kronwall'], ['Tomas Tatar', 'Riley Sheahan', 'Darren Helm', 'Pavel Datsyuk', 'Dan DeKeyser']], u'NAS': [['Filip Forsberg', 'Mike Ribeiro', 'Craig Smith'], ['Colin Wilson', 'Mike Fisher', 'James Neal'], ['Matt Cullen', 'Calle Jarnkrok', 'Gabriel Bourque'], ['Eric Nystrom', 'Paul Gaustad', 'Olli Jokinen'], ['Roman Josi', 'Shea Weber'], ['Victor Bartley', 'Seth Jones'], ['Mattias Ekholm', 'Anton Volchenkov'], ['Filip Forsberg', 'Mike Fisher', 'James Neal', 'Roman Josi', 'Shea Weber'], ['Colin Wilson', 'Mike Ribeiro', 'Craig Smith', 'Seth Jones', 'Mattias Ekholm']], u'NYI': [['Anders Lee', 'John Tavares', 'Josh Bailey'], ['Mikhail Grabovski', 'Frans Nielsen', ''], ['Michael Grabner', 'Brock Nelson', 'Colin McDonald'], ['Matt Martin', 'Ryan Strome', 'Cal Clutterbuck'], ['Calvin de Haan', 'Travis Hamonic'], ['Nick Leddy', 'Johnny Boychuk'], ['Thomas Hickey', 'Lubomir Visnovsky'], ['Brock Nelson', 'John Tavares', 'Ryan Strome', 'Frans Nielsen', 'Johnny Boychuk'], ['Anders Lee', 'Mikhail Grabovski', 'Josh Bailey', 'Nick Leddy', 'Lubomir Visnovsky']], u'FLA': [['Jonathan Huberdeau', 'Aleksander Barkov', 'Brad Boyes'], ['Tomas Fleischmann', 'Nick Bjugstad', 'Brandon Pirri'], ['Sean Bergenheim', 'Dave Bolland', 'Jussi Jokinen'], ['Scottie Upshall', 'Derek MacKenzie', 'Shawn Thornton'], ['Brian Campbell', 'Aaron Ekblad'], ['Willie Mitchell', 'Erik Gudbranson'], ['Alex Petrovic', 'Dmitry Kulikov'], ['Jonathan Huberdeau', 'Nick Bjugstad', 'Brad Boyes', 'Aleksander Barkov', 'Aaron Ekblad'], ['Jussi Jokinen', 'Dave Bolland', 'Tomas Fleischmann', 'Brian Campbell', 'Dmitry Kulikov']], u'COL': [['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon'], ['Alex Tanguay', 'Matt Duchene', 'Jarome Iginla'], ['Cody McLeod', 'John Mitchell', 'Dennis Everberg'], ['Max Talbot', 'Marc-Andre Cliche', 'Danny Briere'], ['Jan Hejda', 'Zach Redmond'], ['Nate Guenin', 'Tyson Barrie'], ['Brad Stuart', 'Nick Holden'], ['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon', 'Nick Holden', 'Tyson Barrie'], ['Cody McLeod', 'Matt Duchene', 'Jarome Iginla', 'Alex Tanguay', 'Zach Redmond']], u'NJD': [['Adam Henrique', 'Scott Gomez', 'Jaromir Jagr'], ['Patrik Elias', 'Travis Zajac', 'Martin Havlat'], ['Dainius Zubrus', 'Michael Cammalleri', 'Steve Bernier'], ['Jordin Tootoo', 'Jacob Josefson', 'Tuomo Ruutu'], ['Andy Greene', 'Adam Larsson'], ['Mark Fraser', 'Marek Zidlicky'], ['Jon Merrill', 'Peter Harrold'], ['Jordin Tootoo', 'Travis Zajac', 'Martin Havlat', 'Patrik Elias', 'Marek Zidlicky'], ['Michael Cammalleri', 'Scott Gomez', 'Jaromir Jagr', 'Andy Greene', 'Steve Bernier']], u'DAL': [['Jamie Benn', 'Tyler Seguin', 'Patrick Eaves'], ['Erik Cole', 'Jason Spezza', 'Ales Hemsky'], ['Antoine Roussel', 'Cody Eakin', 'Ryan Garbutt'], ['Shawn Horcoff', 'Vernon Fiddler', 'Colton Sceviour'], ['Alex Goligoski', 'John Klingberg'], ['David Schlemko', 'Trevor Daley'], ['Jordie Benn', 'Jason Demers'], ['Jamie Benn', 'Jason Spezza', 'Patrick Eaves', 'Tyler Seguin', 'John Klingberg'], ['Colton Sceviour', 'Shawn Horcoff', 'Ales Hemsky', 'Jason Demers', 'Trevor Daley']], u'CGY': [['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler'], ['Lance Bouma', 'Mikael Backlund', 'David Jones'], ['Mason Raymond', 'Josh Jooris', 'Joe Colborne'], ['Brandon Bollig', 'Matt Stajan', 'Paul Byron'], ['Mark Giordano', 'T.J. Brodie'], ['Kris Russell', 'Dennis Wideman'], ['Raphael Diaz', 'Deryk Engelland'], ['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler', 'Dennis Wideman', 'Mark Giordano'], ['Mason Raymond', 'Mikael Backlund', 'Joe Colborne', 'T.J. Brodie', 'Raphael Diaz']], u'NYR': [['Rick Nash', 'Derek Stepan', 'Martin St. Louis'], ['Chris Kreider', 'Kevin Hayes', 'Mats Zuccarello'], ['Carl Hagelin', 'Derick Brassard', 'Jesper Fast'], ['Tanner Glass', 'Dominic Moore', 'Lee Stempniak'], ['Ryan McDonagh', 'Dan Girardi'], ['Marc Staal', 'Kevin Klein'], ['John Moore', 'Dan Boyle'], ['Rick Nash', 'Derick Brassard', 'Martin St. Louis', 'Derek Stepan', 'Dan Boyle'], ['Chris Kreider', 'Mats Zuccarello', 'Lee Stempniak', 'Ryan McDonagh', 'Dan Girardi']], u'SJS': [['Melker Karlsson', 'Joe Thornton', 'Joe Pavelski'], ['Patrick Marleau', 'Logan Couture', 'Matthew Nieto'], ['Tomas Hertl', 'James Sheppard', 'Barclay Goodrow'], ['Tye McGinn', 'Andrew Desjardins', 'John Scott'], ['Marc-Edouard Vlasic', 'Brent Burns'], ['Brenden Dillon', 'Matt Tennyson'], ['Matt Irwin', 'Scott Hannan'], ['Patrick Marleau', 'Joe Thornton', 'Logan Couture', 'Joe Pavelski', 'Brent Burns'], ['Melker Karlsson', 'Tomas Hertl', 'Matthew Nieto', 'Marc-Edouard Vlasic', 'Matt Tennyson']], u'PIT': [['Chris Kunitz', 'Sidney Crosby', 'David Perron'], ['Nick Spaling', 'Brandon Sutter', 'Patric Hornqvist'], ['Beau Bennett', 'Maxim Lapierre', 'Steve Downie'], ['Zach Sill', 'Mark Arcobello', 'Craig Adams'], ['Simon Despres', 'Kris Letang'], ['Rob Scuderi', 'Paul Martin'], ['Robert Bortuzzo', 'Derrick Pouliot'], ['Chris Kunitz', 'Sidney Crosby', 'Patric Hornqvist', 'David Perron', 'Kris Letang'], ['Beau Bennett', 'Brandon Sutter', 'Steve Downie', 'Paul Martin', 'Derrick Pouliot']], u'VAN': [['Daniel Sedin', 'Henrik Sedin', 'Radim Vrbata'], ['Chris Higgins', 'Linden Vey', 'Alexandre Burrows'], ['Shawn Matthias', 'Nick Bonino', 'Jannik Hansen'], ['Ronalds Kenins', 'Bo Horvat', 'Derek Dorsett'], ['Alexander Edler', 'Chris Tanev'], ['Dan Hamhuis', 'Frank Corrado'], ['Luca Sbisa', 'Adam Clendening'], ['Daniel Sedin', 'Henrik Sedin', 'Radim Vrbata', 'Alexander Edler', 'Nick Bonino'], ['Chris Higgins', 'Linden Vey', 'Alexandre Burrows', 'Dan Hamhuis', 'Adam Clendening']], u'STL': [['Alex Steen', 'David Backes', 'T.J. Oshie'], ['Jaden Schwartz', 'Paul Stastny', 'Vladimir Tarasenko'], ['Ty Rattie', 'Joakim Lindstrom', 'Dmitrij Jaskin'], ['Steve Ott', 'Marcel Goc', 'Ryan Reaves'], ['Jay Bouwmeester', 'Alex Pietrangelo'], ['Carl Gunnarsson', 'Kevin Shattenkirk'], ['Barret Jackman', 'Ian Cole'], ['Jaden Schwartz', 'David Backes', 'Vladimir Tarasenko', 'Alex Steen', 'Kevin Shattenkirk'], ['Ty Rattie', 'Paul Stastny', 'T.J. Oshie', 'Jay Bouwmeester', 'Alex Pietrangelo']], u'CHI': [['Brandon Saad', 'Jonathan Toews', 'Marian Hossa'], ['Patrick Sharp', 'Brad Richards', 'Patrick Kane'], ['Bryan Bickell', 'Andrew Shaw', 'Teuvo Teravainen'], ['Joakim Nordstrom', 'Marcus Kruger', 'Ben Smith'], ['Duncan Keith', 'David Rundblad'], ['Niklas Hjalmarsson', 'Brent Seabrook'], ['Michal Rozsival', 'Johnny Oduya'], ['Andrew Shaw', 'Jonathan Toews', 'Patrick Kane', 'Duncan Keith', 'Patrick Sharp'], ['Bryan Bickell', 'Brandon Saad', 'Marian Hossa', 'Brad Richards', 'Brent Seabrook']], u'MTL': [['Max Pacioretty', 'Tomas Plekanec', 'Dale Weise'], ['Alex Galchenyuk', 'David Desharnais', 'Brendan Gallagher'], ['Jiri Sekac', 'Lars Eller', 'Christian Thomas'], ['Gabriel Dumont', 'Manny Malhotra', 'Brandon Prust'], ['Andrei Markov', 'P.K. Subban'], ['Nathan Beaulieu', 'Mike Weaver'], ['Alexei Emelin', 'Tom Gilbert'], ['Max Pacioretty', 'Tomas Plekanec', 'Brendan Gallagher', 'Andrei Markov', 'P.K. Subban'], ['Alex Galchenyuk', 'David Desharnais', 'Jiri Sekac', 'Nathan Beaulieu', 'Tom Gilbert']], u'PHI': [['Brayden Schenn', 'Claude Giroux', 'Jakub Voracek'], ['Petr Straka', 'Ryan White', 'Wayne Simmonds'], ['R.J. Umberger', 'Sean Couturier', 'Matt Read'], ['Chris VandeVelde', 'Vincent Lecavalier'], ['Nick Schultz', 'Mark Streit'], ['Michael Del Zotto', 'Luke Schenn'], ['Carlo Colaiacovo', 'Andrew MacDonald'], ['Brayden Schenn', 'Claude Giroux', 'Wayne Simmonds', 'Jakub Voracek', 'Mark Streit'], ['R.J. Umberger', 'Sean Couturier', 'Vincent Lecavalier', 'Matt Read', 'Michael Del Zotto']], u'ANA': [['Patrick Maroon', 'Ryan Getzlaf', 'Corey Perry'], ['Kyle Palmieri', 'Ryan Kesler', 'Matt Beleskey'], ['Andrew Cogliano', 'Rickard Rakell', 'Jakob Silfverberg'], ['Rene Bourque', 'Nate Thompson', 'Devante Smith-Pelly'], ['Cam Fowler', 'Ben Lovejoy'], ['Hampus Lindholm', 'Francois Beauchemin'], ['Clayton Stoner', 'Sami Vatanen'], ['Patrick Maroon', 'Ryan Getzlaf', 'Corey Perry', 'Cam Fowler', 'Sami Vatanen'], ['Rickard Rakell', 'Ryan Kesler', 'Kyle Palmieri', 'Francois Beauchemin', 'Hampus Lindholm']], u'LAK': [['Kyle Clifford', 'Anze Kopitar', 'Dustin Brown'], ['Dwight King', 'Jeff Carter', 'Tyler Toffoli'], ['Marian Gaborik', 'Jarret Stoll', 'Trevor Lewis'], ['Jordan Nolan', 'Nick Shore', 'Justin Williams'], ['Jake Muzzin', 'Drew Doughty'], ['Robyn Regehr', 'Alec Martinez'], ['Brayden McNabb', 'Matt Greene'], ['Marian Gaborik', 'Anze Kopitar', 'Justin Williams', 'Jake Muzzin', 'Drew Doughty'], ['Dwight King', 'Jeff Carter', 'Tyler Toffoli', 'Brayden McNabb', 'Alec Martinez']], u'CBJ': [['Nick Foligno', 'Ryan Johansen', 'Cam Atkinson'], ['Scott Hartnell', 'Brandon Dubinsky', 'Corey Tropp'], ['Matt Calvert', 'Artem Anisimov', 'Alexander Wennberg'], ['Jack Skille', 'Mark Letestu', 'Jared Boll'], ['Fedor Tyutin', 'Jack Johnson'], ['Ryan Murray', 'David Savard'], ['Kevin Connauton', 'James Wisniewski'], ['Nick Foligno', 'Ryan Johansen', 'Cam Atkinson', 'Jack Johnson', 'David Savard'], ['Scott Hartnell', 'Artem Anisimov', 'Brandon Dubinsky', 'Ryan Murray', 'James Wisniewski']], u'BUF': [['Tyler Ennis', 'Zemgus  Girgensons', 'Chris Stewart'], ['Matt Moulson', 'Torrey Mitchell', 'Brian Gionta'], ['Nicolas Deslauriers', 'Brian Flynn', 'Drew Stafford'], ['Andre Benoit', 'Matt Ellis', 'Patrick Kaleta'], ['Josh Gorges', 'Tyler Myers'], ['Nikita Zadorov', 'Rasmus Ristolainen'], ['Mike Weber', 'Andrej Meszaros'], ['Chris Stewart', 'Zemgus  Girgensons', 'Tyler Ennis', 'Nikita Zadorov', 'Tyler Myers'], ['Matt Moulson', 'Brian Flynn', 'Drew Stafford', 'Josh Gorges', 'Rasmus Ristolainen']], u'EDM': [['Benoit Pouliot', 'Ryan Nugent-Hopkins', 'Jordan Eberle'], ['Nail Yakupov', 'Derek Roy', 'Teddy Purcell'], ['Matt Hendricks', 'Boyd Gordon', 'Rob Klinkhammer'], ['Matt Fraser', 'Anton Lander', 'Luke Gazdic'], ['Oscar Klefbom', 'Justin Schultz'], ['Andrew Ference', 'Jeff Petry'], ['Keith Aulie', 'Mark Fayne'], ['Benoit Pouliot', 'Ryan Nugent-Hopkins', 'Teddy Purcell', 'Jordan Eberle', 'Justin Schultz'], ['Matt Fraser', 'Derek Roy', 'Anton Lander', 'Nail Yakupov', 'Jeff Petry']], u'TBL': [['Valtteri Filppula', 'Steven Stamkos', 'Ryan Callahan'], ['Ondrej Palat', 'Tyler Johnson', 'Nikita Kucherov'], ['Alex Killorn', 'Cedric Paquette', 'Jonathan Drouin'], ['J.T. Brown', 'Brian Boyle', 'Brett Connolly'], ['Andrej Sustr', 'Victor Hedman'], ['Mark Barberio', 'Anton Stralman'], ['Jason Garrison', 'Nikita Nesterov'], ['Jonathan Drouin', 'Steven Stamkos', 'Ryan Callahan', 'Valtteri Filppula', 'Anton Stralman'], ['Ondrej Palat', 'Tyler Johnson', 'Brett Connolly', 'Jason Garrison', 'Nikita Kucherov']], u'WIN': [['Andrew Ladd', 'Bryan Little', 'Blake Wheeler'], ['Mathieu Perreault', 'Mark Scheifele', 'Michael Frolik'], ['Evander Kane', 'Adam Lowry', 'Chris Thorburn'], ['T.J. Galiardi', 'Jim Slater', 'Anthony Peluso'], ['Tobias Enstrom', 'Dustin Byfuglien'], ['Ben Chiarot', 'Zach Bogosian'], ['Mark Stuart', 'Jacob Trouba'], ['Evander Kane', 'Mark Scheifele', 'Michael Frolik', 'Mathieu Perreault', 'Dustin Byfuglien'], ['Andrew Ladd', 'Bryan Little', 'Blake Wheeler', 'Tobias Enstrom', 'Jacob Trouba']], u'ARI': [['Tobias Rieder', 'Antoine Vermette', 'Shane Doan'], ['Lauri Korpikoski', 'Sam Gagner', 'Martin Erat'], ['Brandon McMillan', 'Kyle Chipchura', 'David Moss'], ['Lucas Lessio', 'Brendan Shinnimin', 'B.J. Crombeen'], ['Oliver Ekman-Larsson', 'Zbynek Michalek'], ['Keith Yandle', 'Michael Stone'], ['Andrew Campbell', 'Connor Murphy'], ['Tobias Rieder', 'Antoine Vermette', 'Shane Doan', 'Oliver Ekman-Larsson', 'Keith Yandle'], ['Lauri Korpikoski', 'Sam Gagner', 'Martin Erat', 'Michael Stone', 'Connor Murphy']], u'OTT': [['Clarke MacArthur', 'Mika Zibanejad', 'Bobby Ryan'], ['Mike Hoffman', 'Kyle Turris', 'Curtis Lazar'], ['Milan Michalek', 'David Legwand', 'Mark Stone'], ['Erik Condra', 'Jean-Gabriel Pageau', 'Chris Neil'], ['Marc Methot', 'Erik Karlsson'], ['Jared Cowen', 'Cody Ceci'], ['Mark Borowiecki', 'Patrick Wiercioch'], ['Clarke MacArthur', 'Mika Zibanejad', 'Bobby Ryan', 'Erik Karlsson', 'Cody Ceci'], ['Milan Michalek', 'Kyle Turris', 'Mark Stone', 'Mike Hoffman', 'Patrick Wiercioch']]}</t>
   </si>
   <si>
-    <t>Joe Pavelski</t>
-  </si>
-  <si>
     <t>Brent Burns</t>
   </si>
   <si>
-    <t>Henrik Lundqvist</t>
-  </si>
-  <si>
     <t>Vincent Trocheck</t>
   </si>
   <si>
-    <t>['SJS', 'SJS', 'SJS', 'SJS', 'SJS']</t>
-  </si>
-  <si>
-    <t>['NYR', 'NYR', 'NYR', 'NYR']</t>
-  </si>
-  <si>
     <t>https://www.fanduel.com/e/Game/11550?tableId=10264642&amp;fromLobby=true</t>
   </si>
   <si>
@@ -1185,6 +1092,771 @@
   </si>
   <si>
     <t>https://www.fanduel.com/e/Game/11550?tableId=10265174&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>NHL Roster Name</t>
+  </si>
+  <si>
+    <t>Slate Size</t>
+  </si>
+  <si>
+    <t>Web Interface</t>
+  </si>
+  <si>
+    <t>Need to develop a web interface to remotely build lineup. Need to host on server (GAE or RasPi?</t>
+  </si>
+  <si>
+    <t>Web Development</t>
+  </si>
+  <si>
+    <t>Matt Carkner</t>
+  </si>
+  <si>
+    <t>Matt Stajan</t>
+  </si>
+  <si>
+    <t>Jamie McGinn</t>
+  </si>
+  <si>
+    <t>Tye McGinn</t>
+  </si>
+  <si>
+    <t>Ray Whitney</t>
+  </si>
+  <si>
+    <t>Ray Emery</t>
+  </si>
+  <si>
+    <t>Reto Berra</t>
+  </si>
+  <si>
+    <t>Cody Goloubef</t>
+  </si>
+  <si>
+    <t>Mike McKenna</t>
+  </si>
+  <si>
+    <t>Mike Green</t>
+  </si>
+  <si>
+    <t>Mike Weaver</t>
+  </si>
+  <si>
+    <t>Luke Schenn</t>
+  </si>
+  <si>
+    <t>Liam O'Brien</t>
+  </si>
+  <si>
+    <t>Viktor Stalberg</t>
+  </si>
+  <si>
+    <t>Matthew Hackett</t>
+  </si>
+  <si>
+    <t>Matt Halischuk</t>
+  </si>
+  <si>
+    <t>Philipp Grubauer</t>
+  </si>
+  <si>
+    <t>Filip Forsberg</t>
+  </si>
+  <si>
+    <t>Mathew Dumba</t>
+  </si>
+  <si>
+    <t>Kyle Cumiskey</t>
+  </si>
+  <si>
+    <t>Kyle Quincey</t>
+  </si>
+  <si>
+    <t>Kyle Turris</t>
+  </si>
+  <si>
+    <t>Jacob Markstrom</t>
+  </si>
+  <si>
+    <t>Eric Brewer</t>
+  </si>
+  <si>
+    <t>Eric Fehr</t>
+  </si>
+  <si>
+    <t>Nathan Horton</t>
+  </si>
+  <si>
+    <t>Shawn Thornton</t>
+  </si>
+  <si>
+    <t>Todd Bertuzzi</t>
+  </si>
+  <si>
+    <t>Martin Brodeur</t>
+  </si>
+  <si>
+    <t>Martin Jones</t>
+  </si>
+  <si>
+    <t>Jason LaBarbera</t>
+  </si>
+  <si>
+    <t>Jason Chimera</t>
+  </si>
+  <si>
+    <t>Jason Garrison</t>
+  </si>
+  <si>
+    <t>Joey MacDonald</t>
+  </si>
+  <si>
+    <t>Andrew MacDonald</t>
+  </si>
+  <si>
+    <t>Calvin Pickard</t>
+  </si>
+  <si>
+    <t>Brad Winchester</t>
+  </si>
+  <si>
+    <t>Brad Richards</t>
+  </si>
+  <si>
+    <t>Kevin Poulin</t>
+  </si>
+  <si>
+    <t>Kevin Klein</t>
+  </si>
+  <si>
+    <t>Benoit Pouliot</t>
+  </si>
+  <si>
+    <t>Kyle Okposo</t>
+  </si>
+  <si>
+    <t>Dmitry Orlov</t>
+  </si>
+  <si>
+    <t>Dmitry Kulikov</t>
+  </si>
+  <si>
+    <t>Chad LaRose</t>
+  </si>
+  <si>
+    <t>Marcus Foligno</t>
+  </si>
+  <si>
+    <t>Nick Foligno</t>
+  </si>
+  <si>
+    <t>Marcus Johansson</t>
+  </si>
+  <si>
+    <t>Ruslan Fedotenko</t>
+  </si>
+  <si>
+    <t>Pekka Rinne</t>
+  </si>
+  <si>
+    <t>Miikka Salomaki</t>
+  </si>
+  <si>
+    <t>Matt Donovan</t>
+  </si>
+  <si>
+    <t>Chris Conner</t>
+  </si>
+  <si>
+    <t>Chris Thorburn</t>
+  </si>
+  <si>
+    <t>Erik Condra</t>
+  </si>
+  <si>
+    <t>Matt Climie</t>
+  </si>
+  <si>
+    <t>Josh Harding</t>
+  </si>
+  <si>
+    <t>Josh Jooris</t>
+  </si>
+  <si>
+    <t>Josh Gorges</t>
+  </si>
+  <si>
+    <t>Josh Bailey</t>
+  </si>
+  <si>
+    <t>Nathan Lieuwen</t>
+  </si>
+  <si>
+    <t>Michal Neuvirth</t>
+  </si>
+  <si>
+    <t>Michael Ryder</t>
+  </si>
+  <si>
+    <t>Michael Hutchinson</t>
+  </si>
+  <si>
+    <t>Paul Bissonnette</t>
+  </si>
+  <si>
+    <t>Beau Bennett</t>
+  </si>
+  <si>
+    <t>Paul Byron</t>
+  </si>
+  <si>
+    <t>David Dziurzynski</t>
+  </si>
+  <si>
+    <t>Andrew Hammond</t>
+  </si>
+  <si>
+    <t>Andrew Ladd</t>
+  </si>
+  <si>
+    <t>Andrew Shaw</t>
+  </si>
+  <si>
+    <t>Emerson Etem</t>
+  </si>
+  <si>
+    <t>Stu Bickel</t>
+  </si>
+  <si>
+    <t>Bryan Bickell</t>
+  </si>
+  <si>
+    <t>Peter Mueller</t>
+  </si>
+  <si>
+    <t>Mikkel Boedker</t>
+  </si>
+  <si>
+    <t>Mike Weber</t>
+  </si>
+  <si>
+    <t>John Gibson</t>
+  </si>
+  <si>
+    <t>Calvin de Haan</t>
+  </si>
+  <si>
+    <t>Calvin de_Haan</t>
+  </si>
+  <si>
+    <t>Harry Zolnierczyk</t>
+  </si>
+  <si>
+    <t>Steven Oleksy</t>
+  </si>
+  <si>
+    <t>Steven Stamkos</t>
+  </si>
+  <si>
+    <t>Ryan Ellis</t>
+  </si>
+  <si>
+    <t>Ryan O'Reilly</t>
+  </si>
+  <si>
+    <t>Ryan Callahan</t>
+  </si>
+  <si>
+    <t>Brandon Gormley</t>
+  </si>
+  <si>
+    <t>Brandon Bollig</t>
+  </si>
+  <si>
+    <t>Brandon Prust</t>
+  </si>
+  <si>
+    <t>Brandon Pirri</t>
+  </si>
+  <si>
+    <t>Braden Holtby</t>
+  </si>
+  <si>
+    <t>Brandon Sutter</t>
+  </si>
+  <si>
+    <t>Brian Boyle</t>
+  </si>
+  <si>
+    <t>Stefan Elliott</t>
+  </si>
+  <si>
+    <t>Mark Pysyk</t>
+  </si>
+  <si>
+    <t>Mark Fayne</t>
+  </si>
+  <si>
+    <t>Alex Grant</t>
+  </si>
+  <si>
+    <t>Alex Galchenyuk</t>
+  </si>
+  <si>
+    <t>Alex Tanguay</t>
+  </si>
+  <si>
+    <t>Alex Killorn</t>
+  </si>
+  <si>
+    <t>Alex Pietrangelo</t>
+  </si>
+  <si>
+    <t>Alex Chiasson</t>
+  </si>
+  <si>
+    <t>Jesse Winchester</t>
+  </si>
+  <si>
+    <t>Ryan Stanton</t>
+  </si>
+  <si>
+    <t>Ryan Johansen</t>
+  </si>
+  <si>
+    <t>Ryan Suter</t>
+  </si>
+  <si>
+    <t>Brad Richardson</t>
+  </si>
+  <si>
+    <t>Brett Sutter</t>
+  </si>
+  <si>
+    <t>Brent Seabrook</t>
+  </si>
+  <si>
+    <t>Marc Methot</t>
+  </si>
+  <si>
+    <t>['OTT', 'OTT', 'OTT', 'OTT']</t>
+  </si>
+  <si>
+    <t>Erik Karlsson</t>
+  </si>
+  <si>
+    <t>Cedric Paquette</t>
+  </si>
+  <si>
+    <t>['TBL', 'TBL', 'TBL', 'TBL']</t>
+  </si>
+  <si>
+    <t>['DAL', 'DAL', 'DAL', 'DAL']</t>
+  </si>
+  <si>
+    <t>Tyler Seguin</t>
+  </si>
+  <si>
+    <t>['WPG', 'WPG', 'WPG']</t>
+  </si>
+  <si>
+    <t>Pat Dwyer</t>
+  </si>
+  <si>
+    <t>Alexander Steen</t>
+  </si>
+  <si>
+    <t>Alex Steen</t>
+  </si>
+  <si>
+    <t>Christian Thomas</t>
+  </si>
+  <si>
+    <t>['STL', 'STL', 'STL']</t>
+  </si>
+  <si>
+    <t>Trevor Smith</t>
+  </si>
+  <si>
+    <t>Colin McDonald</t>
+  </si>
+  <si>
+    <t>Nathan Mackinnon</t>
+  </si>
+  <si>
+    <t>Nick Shore</t>
+  </si>
+  <si>
+    <t>Zemgus  Girgensons</t>
+  </si>
+  <si>
+    <t>T.J. Galiardi</t>
+  </si>
+  <si>
+    <t>Alexander Semin</t>
+  </si>
+  <si>
+    <t>Alexander Edler</t>
+  </si>
+  <si>
+    <t>Frans Nielse</t>
+  </si>
+  <si>
+    <t>Michael Grabne</t>
+  </si>
+  <si>
+    <t>Brock Nelso</t>
+  </si>
+  <si>
+    <t>Matt Marti</t>
+  </si>
+  <si>
+    <t>Tomas Fleischma</t>
+  </si>
+  <si>
+    <t>Jussi Jokine</t>
+  </si>
+  <si>
+    <t>Shawn Thornto</t>
+  </si>
+  <si>
+    <t>Erik Gudbranso</t>
+  </si>
+  <si>
+    <t>Nathan Mackinno</t>
+  </si>
+  <si>
+    <t>Nate Gueni</t>
+  </si>
+  <si>
+    <t>Nick Holde</t>
+  </si>
+  <si>
+    <t>Jaromir Jag</t>
+  </si>
+  <si>
+    <t>Steve Bernie</t>
+  </si>
+  <si>
+    <t>Jacob Josefso</t>
+  </si>
+  <si>
+    <t>Adam Larsso</t>
+  </si>
+  <si>
+    <t>Mark Frase</t>
+  </si>
+  <si>
+    <t>Jamie Be</t>
+  </si>
+  <si>
+    <t>Tyler Segui</t>
+  </si>
+  <si>
+    <t>Cody Eaki</t>
+  </si>
+  <si>
+    <t>Vernon Fiddle</t>
+  </si>
+  <si>
+    <t>Colton Sceviou</t>
+  </si>
+  <si>
+    <t>Jordie Be</t>
+  </si>
+  <si>
+    <t>Sean Monaha</t>
+  </si>
+  <si>
+    <t>Jiri Hudle</t>
+  </si>
+  <si>
+    <t>Matt Staja</t>
+  </si>
+  <si>
+    <t>Paul Byro</t>
+  </si>
+  <si>
+    <t>Dennis Widema</t>
+  </si>
+  <si>
+    <t>Derek Stepa</t>
+  </si>
+  <si>
+    <t>Chris Kreide</t>
+  </si>
+  <si>
+    <t>Carl Hageli</t>
+  </si>
+  <si>
+    <t>Kevin Klei</t>
+  </si>
+  <si>
+    <t>Melker Karlsso</t>
+  </si>
+  <si>
+    <t>Joe Thornto</t>
+  </si>
+  <si>
+    <t>Tye McGi</t>
+  </si>
+  <si>
+    <t>Brenden Dillo</t>
+  </si>
+  <si>
+    <t>Matt Tennyso</t>
+  </si>
+  <si>
+    <t>Matt Irwi</t>
+  </si>
+  <si>
+    <t>Scott Hanna</t>
+  </si>
+  <si>
+    <t>David Perro</t>
+  </si>
+  <si>
+    <t>Brandon Sutte</t>
+  </si>
+  <si>
+    <t>Paul Marti</t>
+  </si>
+  <si>
+    <t>Daniel Sedi</t>
+  </si>
+  <si>
+    <t>Henrik Sedi</t>
+  </si>
+  <si>
+    <t>Jannik Hanse</t>
+  </si>
+  <si>
+    <t>Alexander Edle</t>
+  </si>
+  <si>
+    <t>Dmitrij Jaski</t>
+  </si>
+  <si>
+    <t>Jay Bouwmeeste</t>
+  </si>
+  <si>
+    <t>Carl Gunnarsso</t>
+  </si>
+  <si>
+    <t>Barret Jackma</t>
+  </si>
+  <si>
+    <t>Teuvo Teravaine</t>
+  </si>
+  <si>
+    <t>Marcus Kruge</t>
+  </si>
+  <si>
+    <t>Niklas Hjalmarsso</t>
+  </si>
+  <si>
+    <t>Brendan Gallaghe</t>
+  </si>
+  <si>
+    <t>Lars Elle</t>
+  </si>
+  <si>
+    <t>P.K. Subba</t>
+  </si>
+  <si>
+    <t>Mike Weave</t>
+  </si>
+  <si>
+    <t>Alexei Emeli</t>
+  </si>
+  <si>
+    <t>Brayden Sche</t>
+  </si>
+  <si>
+    <t>R.J. Umberge</t>
+  </si>
+  <si>
+    <t>Sean Couturie</t>
+  </si>
+  <si>
+    <t>Vincent Lecavalie</t>
+  </si>
+  <si>
+    <t>Luke Sche</t>
+  </si>
+  <si>
+    <t>Patrick Maroo</t>
+  </si>
+  <si>
+    <t>Ryan Kesle</t>
+  </si>
+  <si>
+    <t>Nate Thompso</t>
+  </si>
+  <si>
+    <t>Cam Fowle</t>
+  </si>
+  <si>
+    <t>Francois Beauchemi</t>
+  </si>
+  <si>
+    <t>Clayton Stone</t>
+  </si>
+  <si>
+    <t>Sami Vatane</t>
+  </si>
+  <si>
+    <t>Anze Kopita</t>
+  </si>
+  <si>
+    <t>Dustin Brow</t>
+  </si>
+  <si>
+    <t>Jeff Carte</t>
+  </si>
+  <si>
+    <t>Jordan Nola</t>
+  </si>
+  <si>
+    <t>Jake Muzzi</t>
+  </si>
+  <si>
+    <t>Robyn Regeh</t>
+  </si>
+  <si>
+    <t>Ryan Johanse</t>
+  </si>
+  <si>
+    <t>Cam Atkinso</t>
+  </si>
+  <si>
+    <t>Fedor Tyuti</t>
+  </si>
+  <si>
+    <t>Jack Johnso</t>
+  </si>
+  <si>
+    <t>Kevin Connauto</t>
+  </si>
+  <si>
+    <t>Matt Moulso</t>
+  </si>
+  <si>
+    <t>Brian Fly</t>
+  </si>
+  <si>
+    <t>Rasmus Ristolaine</t>
+  </si>
+  <si>
+    <t>Mike Webe</t>
+  </si>
+  <si>
+    <t>Boyd Gordo</t>
+  </si>
+  <si>
+    <t>Rob Klinkhamme</t>
+  </si>
+  <si>
+    <t>Matt Frase</t>
+  </si>
+  <si>
+    <t>Anton Lande</t>
+  </si>
+  <si>
+    <t>Ryan Callaha</t>
+  </si>
+  <si>
+    <t>Tyler Johnso</t>
+  </si>
+  <si>
+    <t>Alex Killo</t>
+  </si>
+  <si>
+    <t>Jonathan Droui</t>
+  </si>
+  <si>
+    <t>J.T. Brow</t>
+  </si>
+  <si>
+    <t>Andrej Sust</t>
+  </si>
+  <si>
+    <t>Victor Hedma</t>
+  </si>
+  <si>
+    <t>Anton Stralma</t>
+  </si>
+  <si>
+    <t>Jason Garriso</t>
+  </si>
+  <si>
+    <t>Blake Wheele</t>
+  </si>
+  <si>
+    <t>Chris Thorbu</t>
+  </si>
+  <si>
+    <t>Jim Slate</t>
+  </si>
+  <si>
+    <t>Dustin Byfuglie</t>
+  </si>
+  <si>
+    <t>Zach Bogosia</t>
+  </si>
+  <si>
+    <t>Tobias Riede</t>
+  </si>
+  <si>
+    <t>Shane Doa</t>
+  </si>
+  <si>
+    <t>Sam Gagne</t>
+  </si>
+  <si>
+    <t>Brandon McMilla</t>
+  </si>
+  <si>
+    <t>Brendan Shinnimi</t>
+  </si>
+  <si>
+    <t>B.J. Crombee</t>
+  </si>
+  <si>
+    <t>Oliver Ekman-Larsso</t>
+  </si>
+  <si>
+    <t>Clarke MacArthu</t>
+  </si>
+  <si>
+    <t>Bobby Rya</t>
+  </si>
+  <si>
+    <t>Mike Hoffma</t>
+  </si>
+  <si>
+    <t>Curtis Laza</t>
+  </si>
+  <si>
+    <t>Erik Karlsso</t>
+  </si>
+  <si>
+    <t>Jared Cowe</t>
+  </si>
+  <si>
+    <t>Jonathan Toews</t>
+  </si>
+  <si>
+    <t>['CHI', 'CHI', 'CHI', 'CHI', 'CHI']</t>
+  </si>
+  <si>
+    <t>Zemgus Girgensons</t>
+  </si>
+  <si>
+    <t>TJ Galiardi</t>
+  </si>
+  <si>
+    <t>T.J. Oshie</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +2310,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1664,6 +2336,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1 2" xfId="8"/>
@@ -1847,11 +2522,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="224416512"/>
-        <c:axId val="224418048"/>
+        <c:axId val="198206208"/>
+        <c:axId val="198207744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="224416512"/>
+        <c:axId val="198206208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1860,7 +2535,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224418048"/>
+        <c:crossAx val="198207744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1868,7 +2543,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="224418048"/>
+        <c:axId val="198207744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1879,7 +2554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224416512"/>
+        <c:crossAx val="198206208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1992,11 +2667,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="224446336"/>
-        <c:axId val="224447872"/>
+        <c:axId val="198236032"/>
+        <c:axId val="198237568"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="224446336"/>
+        <c:axId val="198236032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2005,7 +2680,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224447872"/>
+        <c:crossAx val="198237568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2013,7 +2688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="224447872"/>
+        <c:axId val="198237568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2024,7 +2699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224446336"/>
+        <c:crossAx val="198236032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2124,7 +2799,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Cole MacLean" refreshedDate="42015.695505324074" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="6">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:K1048576" sheet="Performance Monitoring"/>
+    <worksheetSource ref="A1:L1048576" sheet="Performance Monitoring"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Contest Date" numFmtId="0">
@@ -2774,10 +3449,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,12 +3464,13 @@
     <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.28515625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>171</v>
       </c>
@@ -2816,20 +3492,23 @@
       <c r="G1" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>42034</v>
       </c>
@@ -2851,21 +3530,24 @@
       <c r="G2" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="5">
+        <v>5</v>
+      </c>
+      <c r="I2" s="14">
         <v>9</v>
       </c>
-      <c r="I2" s="5">
+      <c r="J2" s="5">
         <v>11</v>
       </c>
-      <c r="J2" s="5">
-        <f t="shared" ref="J2:J6" si="0">I2/D2</f>
+      <c r="K2" s="5">
+        <f t="shared" ref="K2:K6" si="0">J2/D2</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>42034</v>
       </c>
@@ -2887,21 +3569,24 @@
       <c r="G3" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="5">
+        <v>5</v>
+      </c>
+      <c r="I3" s="14">
         <v>3.6</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="5">
         <v>6</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>42034</v>
       </c>
@@ -2923,26 +3608,29 @@
       <c r="G4" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="5">
+        <v>5</v>
+      </c>
+      <c r="I4" s="14">
         <v>8.18</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <v>11</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <f t="shared" si="0"/>
         <v>0.27500000000000002</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>42035</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="C5" s="5">
         <v>2289.6</v>
@@ -2959,26 +3647,29 @@
       <c r="G5" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="5">
+        <v>5</v>
+      </c>
+      <c r="I5" s="14">
         <v>0</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <v>41</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <f t="shared" si="0"/>
         <v>0.51249999999999996</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>42035</v>
       </c>
       <c r="B6" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="C6" s="5">
         <v>1980.4</v>
@@ -2995,26 +3686,29 @@
       <c r="G6" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="5">
+        <v>5</v>
+      </c>
+      <c r="I6" s="14">
         <v>9</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <v>11</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <f t="shared" si="0"/>
         <v>0.27500000000000002</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>42035</v>
       </c>
       <c r="B7" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="C7" s="5">
         <v>2580.1</v>
@@ -3031,27 +3725,30 @@
       <c r="G7" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="5">
+        <v>5</v>
+      </c>
+      <c r="I7" s="14">
         <v>1.8</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <v>34</v>
       </c>
-      <c r="J7" s="5">
-        <f>I7/D7</f>
+      <c r="K7" s="5">
+        <f>J7/D7</f>
         <v>0.42499999999999999</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f ca="1">TODAY()</f>
         <v>42037</v>
       </c>
       <c r="B8" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="C8" s="5">
         <v>1855.25</v>
@@ -3068,17 +3765,20 @@
       <c r="G8" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="H8" s="5">
+        <v>3</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f ca="1">TODAY()</f>
         <v>42037</v>
       </c>
       <c r="B9" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="C9" s="5">
         <v>2978.2</v>
@@ -3095,17 +3795,20 @@
       <c r="G9" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="H9" s="5">
+        <v>3</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f ca="1">TODAY()</f>
         <v>42037</v>
       </c>
       <c r="B10" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="C10" s="5">
         <v>3088.1</v>
@@ -3122,7 +3825,10 @@
       <c r="G10" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="H10" s="5">
+        <v>3</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3135,10 +3841,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3589,6 +4295,9 @@
       <c r="D21" s="6" t="s">
         <v>282</v>
       </c>
+      <c r="E21" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -3599,6 +4308,26 @@
       </c>
       <c r="D22" s="6" t="s">
         <v>284</v>
+      </c>
+      <c r="E22" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E23" s="6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3731,7 +4460,7 @@
         <v>160</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4057,10 +4786,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A63" sqref="A1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4071,96 +4800,141 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="G2" t="s">
-        <v>227</v>
+        <v>336</v>
       </c>
       <c r="H2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I2" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="J2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>358</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>287</v>
       </c>
-      <c r="B4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" t="s">
-        <v>304</v>
-      </c>
-      <c r="D4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>302</v>
-      </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>477</v>
       </c>
       <c r="C5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D5" t="s">
-        <v>305</v>
-      </c>
-      <c r="E5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="F5" t="s">
+        <v>478</v>
+      </c>
+      <c r="G5" t="s">
+        <v>478</v>
+      </c>
+      <c r="H5" t="s">
+        <v>479</v>
+      </c>
+      <c r="I5" t="s">
+        <v>479</v>
+      </c>
+      <c r="J5" t="s">
+        <v>479</v>
+      </c>
+      <c r="K5" t="s">
+        <v>479</v>
+      </c>
+      <c r="L5" t="s">
+        <v>475</v>
+      </c>
+      <c r="M5" t="s">
+        <v>475</v>
+      </c>
+      <c r="N5" t="s">
+        <v>480</v>
+      </c>
+      <c r="O5" t="s">
+        <v>480</v>
+      </c>
+      <c r="P5" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>481</v>
+      </c>
+      <c r="R5" t="s">
+        <v>481</v>
+      </c>
+      <c r="S5" t="s">
+        <v>481</v>
+      </c>
+      <c r="T5" t="s">
+        <v>482</v>
+      </c>
+      <c r="U5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>361</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C6" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="D6" t="s">
         <v>264</v>
@@ -4169,9 +4943,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>362</v>
       </c>
       <c r="B7" t="s">
         <v>285</v>
@@ -4192,18 +4966,18 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>364</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>365</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>366</v>
       </c>
       <c r="E8" t="s">
         <v>214</v>
@@ -4215,18 +4989,18 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>307</v>
+        <v>367</v>
       </c>
       <c r="B9" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D9" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E9" t="s">
         <v>206</v>
@@ -4238,9 +5012,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B10" t="s">
         <v>210</v>
@@ -4252,9 +5026,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="B11" t="s">
         <v>292</v>
@@ -4266,7 +5040,7 @@
         <v>294</v>
       </c>
       <c r="E11" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F11" t="s">
         <v>189</v>
@@ -4281,46 +5055,46 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C12" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E12" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>369</v>
       </c>
       <c r="B13" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="D13" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="B14" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="C14" t="s">
         <v>79</v>
@@ -4338,15 +5112,15 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>312</v>
+        <v>231</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s">
-        <v>301</v>
+        <v>191</v>
       </c>
       <c r="D15" t="s">
         <v>193</v>
@@ -4361,21 +5135,21 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>374</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>375</v>
       </c>
       <c r="C16" t="s">
-        <v>198</v>
+        <v>376</v>
       </c>
       <c r="D16" t="s">
-        <v>315</v>
+        <v>245</v>
       </c>
       <c r="E16" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F16" t="s">
         <v>222</v>
@@ -4389,19 +5163,19 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>314</v>
+        <v>377</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>375</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
+        <v>376</v>
       </c>
       <c r="D17" t="s">
-        <v>315</v>
+        <v>245</v>
       </c>
       <c r="E17" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F17" t="s">
         <v>189</v>
@@ -4409,19 +5183,19 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="B18" t="s">
-        <v>297</v>
+        <v>379</v>
       </c>
       <c r="C18" t="s">
-        <v>298</v>
+        <v>246</v>
       </c>
       <c r="D18" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E18" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F18" t="s">
         <v>189</v>
@@ -4429,44 +5203,53 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>321</v>
+        <v>380</v>
       </c>
       <c r="B19" t="s">
-        <v>322</v>
+        <v>381</v>
       </c>
       <c r="C19" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="D19" t="s">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="E19" t="s">
-        <v>223</v>
+        <v>194</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="B20" t="s">
-        <v>250</v>
+        <v>381</v>
       </c>
       <c r="C20" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D20" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E20" t="s">
-        <v>252</v>
+        <v>194</v>
       </c>
       <c r="F20" t="s">
-        <v>253</v>
+        <v>195</v>
+      </c>
+      <c r="G20" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B21" t="s">
         <v>254</v>
@@ -4492,44 +5275,50 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>310</v>
+        <v>383</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>384</v>
       </c>
       <c r="C22" t="s">
-        <v>197</v>
+        <v>247</v>
+      </c>
+      <c r="D22" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>298</v>
       </c>
       <c r="C23" t="s">
-        <v>232</v>
+        <v>299</v>
       </c>
       <c r="D23" t="s">
-        <v>194</v>
+        <v>300</v>
+      </c>
+      <c r="E23" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>312</v>
+        <v>385</v>
       </c>
       <c r="B24" t="s">
-        <v>197</v>
+        <v>386</v>
       </c>
       <c r="C24" t="s">
-        <v>198</v>
+        <v>387</v>
       </c>
       <c r="D24" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="E24" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="F24" t="s">
         <v>209</v>
@@ -4540,13 +5329,13 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>313</v>
+        <v>388</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>389</v>
       </c>
       <c r="C25" t="s">
-        <v>251</v>
+        <v>387</v>
       </c>
       <c r="D25" t="s">
         <v>188</v>
@@ -4560,19 +5349,19 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>314</v>
+        <v>390</v>
       </c>
       <c r="B26" t="s">
-        <v>222</v>
+        <v>389</v>
       </c>
       <c r="C26" t="s">
         <v>198</v>
       </c>
       <c r="D26" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E26" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F26" t="s">
         <v>185</v>
@@ -4583,10 +5372,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="B27" t="s">
-        <v>257</v>
+        <v>392</v>
       </c>
       <c r="C27" t="s">
         <v>199</v>
@@ -4618,16 +5407,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>318</v>
+        <v>393</v>
       </c>
       <c r="B28" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C28" t="s">
-        <v>198</v>
+        <v>395</v>
       </c>
       <c r="D28" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="E28" t="s">
         <v>267</v>
@@ -4635,16 +5424,16 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>320</v>
+        <v>396</v>
       </c>
       <c r="B29" t="s">
-        <v>230</v>
+        <v>394</v>
       </c>
       <c r="C29" t="s">
-        <v>196</v>
+        <v>395</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E29" t="s">
         <v>208</v>
@@ -4658,21 +5447,21 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>321</v>
+        <v>397</v>
       </c>
       <c r="B30" t="s">
-        <v>322</v>
+        <v>398</v>
       </c>
       <c r="C30" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="B31" t="s">
-        <v>250</v>
+        <v>398</v>
       </c>
       <c r="C31" t="s">
         <v>251</v>
@@ -4689,10 +5478,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="B32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C32" t="s">
         <v>191</v>
@@ -4703,13 +5492,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>249</v>
+        <v>400</v>
       </c>
       <c r="B33" t="s">
-        <v>250</v>
+        <v>401</v>
       </c>
       <c r="C33" t="s">
-        <v>251</v>
+        <v>402</v>
       </c>
       <c r="D33" t="s">
         <v>188</v>
@@ -4726,13 +5515,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="B34" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="C34" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="D34" t="s">
         <v>266</v>
@@ -4743,7 +5532,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s">
         <v>190</v>
@@ -4754,7 +5543,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>161</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s">
         <v>184</v>
@@ -4775,7 +5564,7 @@
         <v>228</v>
       </c>
       <c r="H36" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="I36" t="s">
         <v>255</v>
@@ -4784,15 +5573,15 @@
         <v>229</v>
       </c>
       <c r="K36" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s">
-        <v>220</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
         <v>190</v>
@@ -4803,35 +5592,44 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="B38" t="s">
-        <v>336</v>
+        <v>222</v>
       </c>
       <c r="C38" t="s">
-        <v>337</v>
+        <v>198</v>
       </c>
       <c r="D38" t="s">
-        <v>338</v>
+        <v>308</v>
+      </c>
+      <c r="E38" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>328</v>
+        <v>404</v>
       </c>
       <c r="B39" t="s">
-        <v>329</v>
+        <v>222</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>198</v>
+      </c>
+      <c r="D39" t="s">
+        <v>308</v>
+      </c>
+      <c r="E39" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>361</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="C40" t="s">
         <v>214</v>
@@ -4851,209 +5649,299 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>330</v>
+        <v>405</v>
       </c>
       <c r="B41" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C41" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D41" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="E41" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>256</v>
+        <v>322</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>323</v>
+      </c>
+      <c r="C42" t="s">
+        <v>324</v>
+      </c>
+      <c r="D42" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="B43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C43" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="D43" t="s">
-        <v>211</v>
+        <v>356</v>
+      </c>
+      <c r="E43" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>335</v>
+        <v>407</v>
       </c>
       <c r="B44" t="s">
-        <v>336</v>
+        <v>199</v>
       </c>
       <c r="C44" t="s">
-        <v>337</v>
+        <v>202</v>
       </c>
       <c r="D44" t="s">
-        <v>338</v>
+        <v>203</v>
       </c>
       <c r="E44" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F44" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G44" t="s">
-        <v>216</v>
+        <v>408</v>
+      </c>
+      <c r="H44" t="s">
+        <v>409</v>
+      </c>
+      <c r="I44" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="B45" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="D45" t="s">
-        <v>347</v>
+        <v>203</v>
       </c>
       <c r="E45" t="s">
-        <v>188</v>
+        <v>204</v>
+      </c>
+      <c r="F45" t="s">
+        <v>221</v>
+      </c>
+      <c r="G45" t="s">
+        <v>408</v>
+      </c>
+      <c r="H45" t="s">
+        <v>409</v>
+      </c>
+      <c r="I45" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="B46" t="s">
-        <v>339</v>
+        <v>250</v>
       </c>
       <c r="C46" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D46" t="s">
-        <v>205</v>
+        <v>188</v>
+      </c>
+      <c r="E46" t="s">
+        <v>252</v>
+      </c>
+      <c r="F46" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="B47" t="s">
-        <v>341</v>
+        <v>254</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>184</v>
+      </c>
+      <c r="D47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" t="s">
+        <v>222</v>
+      </c>
+      <c r="F47" t="s">
+        <v>185</v>
+      </c>
+      <c r="G47" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>342</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>351</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>269</v>
+        <v>483</v>
       </c>
       <c r="D48" t="s">
-        <v>270</v>
+        <v>473</v>
       </c>
       <c r="E48" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="F48" t="s">
+        <v>484</v>
+      </c>
+      <c r="G48" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>343</v>
+        <v>411</v>
       </c>
       <c r="B49" t="s">
-        <v>260</v>
+        <v>412</v>
       </c>
       <c r="C49" t="s">
-        <v>261</v>
+        <v>413</v>
       </c>
       <c r="D49" t="s">
-        <v>262</v>
+        <v>414</v>
       </c>
       <c r="E49" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>344</v>
+        <v>415</v>
       </c>
       <c r="B50" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="C50" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="D50" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="E50" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="F50" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="G50" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="H50" t="s">
+        <v>336</v>
+      </c>
+      <c r="I50" t="s">
+        <v>255</v>
+      </c>
+      <c r="J50" t="s">
+        <v>229</v>
+      </c>
+      <c r="K50" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
       <c r="B51" t="s">
-        <v>346</v>
+        <v>184</v>
       </c>
       <c r="C51" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="D51" t="s">
-        <v>347</v>
+        <v>185</v>
       </c>
       <c r="E51" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="F51" t="s">
+        <v>227</v>
+      </c>
+      <c r="G51" t="s">
+        <v>228</v>
+      </c>
+      <c r="H51" t="s">
+        <v>336</v>
+      </c>
+      <c r="I51" t="s">
+        <v>255</v>
+      </c>
+      <c r="J51" t="s">
+        <v>229</v>
+      </c>
+      <c r="K51" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="B52" t="s">
+        <v>417</v>
+      </c>
+      <c r="C52" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>349</v>
+        <v>416</v>
       </c>
       <c r="B53" t="s">
-        <v>206</v>
+        <v>417</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="B54" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+      <c r="C54" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>259</v>
+        <v>422</v>
       </c>
       <c r="B55" t="s">
         <v>260</v>
@@ -5065,20 +5953,512 @@
         <v>262</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>317</v>
+      </c>
+      <c r="B56" t="s">
+        <v>389</v>
+      </c>
+      <c r="C56" t="s">
+        <v>424</v>
+      </c>
+      <c r="D56" t="s">
+        <v>425</v>
+      </c>
+      <c r="E56" t="s">
+        <v>191</v>
+      </c>
+      <c r="F56" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>423</v>
+      </c>
+      <c r="B57" t="s">
+        <v>389</v>
+      </c>
+      <c r="C57" t="s">
+        <v>424</v>
+      </c>
+      <c r="D57" t="s">
+        <v>425</v>
+      </c>
+      <c r="E57" t="s">
+        <v>191</v>
+      </c>
+      <c r="F57" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>426</v>
+      </c>
+      <c r="B58" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>427</v>
+      </c>
+      <c r="B59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>256</v>
+      </c>
+      <c r="B60" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>338</v>
+      </c>
+      <c r="B61" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>429</v>
+      </c>
+      <c r="B62" t="s">
+        <v>257</v>
+      </c>
+      <c r="C62" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>430</v>
+      </c>
+      <c r="B63" t="s">
+        <v>431</v>
+      </c>
+      <c r="C63" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>311</v>
+      </c>
+      <c r="B64" t="s">
+        <v>312</v>
+      </c>
+      <c r="C64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>258</v>
+      </c>
+      <c r="B65" t="s">
+        <v>206</v>
+      </c>
+      <c r="C65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" t="s">
+        <v>207</v>
+      </c>
+      <c r="E65" t="s">
+        <v>208</v>
+      </c>
+      <c r="F65" t="s">
+        <v>209</v>
+      </c>
+      <c r="G65" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>432</v>
+      </c>
+      <c r="B66" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" t="s">
+        <v>207</v>
+      </c>
+      <c r="E66" t="s">
+        <v>208</v>
+      </c>
+      <c r="F66" t="s">
+        <v>209</v>
+      </c>
+      <c r="G66" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>313</v>
+      </c>
+      <c r="B67" t="s">
+        <v>328</v>
+      </c>
+      <c r="C67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>327</v>
+      </c>
+      <c r="B68" t="s">
+        <v>328</v>
+      </c>
+      <c r="C68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>329</v>
+      </c>
+      <c r="B69" t="s">
+        <v>328</v>
+      </c>
+      <c r="C69" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>435</v>
+      </c>
+      <c r="B71" t="s">
+        <v>437</v>
+      </c>
+      <c r="C71" t="s">
+        <v>210</v>
+      </c>
+      <c r="D71" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>436</v>
+      </c>
+      <c r="B72" t="s">
+        <v>437</v>
+      </c>
+      <c r="C72" t="s">
+        <v>210</v>
+      </c>
+      <c r="D72" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>331</v>
+      </c>
+      <c r="B73" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73" t="s">
+        <v>251</v>
+      </c>
+      <c r="D73" t="s">
+        <v>439</v>
+      </c>
+      <c r="E73" t="s">
+        <v>440</v>
+      </c>
+      <c r="F73" t="s">
+        <v>198</v>
+      </c>
+      <c r="G73" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>438</v>
+      </c>
+      <c r="B74" t="s">
+        <v>222</v>
+      </c>
+      <c r="C74" t="s">
+        <v>251</v>
+      </c>
+      <c r="D74" t="s">
+        <v>439</v>
+      </c>
+      <c r="E74" t="s">
+        <v>440</v>
+      </c>
+      <c r="F74" t="s">
+        <v>198</v>
+      </c>
+      <c r="G74" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>332</v>
+      </c>
+      <c r="B75" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" t="s">
+        <v>444</v>
+      </c>
+      <c r="E75" t="s">
+        <v>445</v>
+      </c>
+      <c r="F75" t="s">
+        <v>446</v>
+      </c>
+      <c r="G75" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>441</v>
+      </c>
+      <c r="B76" t="s">
+        <v>442</v>
+      </c>
+      <c r="C76" t="s">
+        <v>443</v>
+      </c>
+      <c r="D76" t="s">
+        <v>444</v>
+      </c>
+      <c r="E76" t="s">
+        <v>445</v>
+      </c>
+      <c r="F76" t="s">
+        <v>446</v>
+      </c>
+      <c r="G76" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>448</v>
+      </c>
+      <c r="B77" t="s">
+        <v>198</v>
+      </c>
+      <c r="C77" t="s">
+        <v>443</v>
+      </c>
+      <c r="D77" t="s">
+        <v>444</v>
+      </c>
+      <c r="E77" t="s">
+        <v>445</v>
+      </c>
+      <c r="F77" t="s">
+        <v>446</v>
+      </c>
+      <c r="G77" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>449</v>
+      </c>
+      <c r="B78" t="s">
+        <v>450</v>
+      </c>
+      <c r="C78" t="s">
+        <v>453</v>
+      </c>
+      <c r="D78" t="s">
+        <v>454</v>
+      </c>
+      <c r="E78" t="s">
+        <v>455</v>
+      </c>
+      <c r="F78" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>451</v>
+      </c>
+      <c r="B79" t="s">
+        <v>452</v>
+      </c>
+      <c r="C79" t="s">
+        <v>453</v>
+      </c>
+      <c r="D79" t="s">
+        <v>454</v>
+      </c>
+      <c r="E79" t="s">
+        <v>455</v>
+      </c>
+      <c r="F79" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>333</v>
+      </c>
+      <c r="B80" t="s">
+        <v>334</v>
+      </c>
+      <c r="C80" t="s">
+        <v>453</v>
+      </c>
+      <c r="D80" t="s">
+        <v>454</v>
+      </c>
+      <c r="E80" t="s">
+        <v>455</v>
+      </c>
+      <c r="F80" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>457</v>
+      </c>
+      <c r="B81" t="s">
+        <v>250</v>
+      </c>
+      <c r="C81" t="s">
+        <v>459</v>
+      </c>
+      <c r="D81" t="s">
+        <v>460</v>
+      </c>
+      <c r="E81" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>458</v>
+      </c>
+      <c r="B82" t="s">
+        <v>250</v>
+      </c>
+      <c r="C82" t="s">
+        <v>459</v>
+      </c>
+      <c r="D82" t="s">
+        <v>460</v>
+      </c>
+      <c r="E82" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>259</v>
+      </c>
+      <c r="B83" t="s">
+        <v>260</v>
+      </c>
+      <c r="C83" t="s">
+        <v>261</v>
+      </c>
+      <c r="D83" t="s">
+        <v>262</v>
+      </c>
+      <c r="E83" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>352</v>
-      </c>
-      <c r="B57" t="s">
-        <v>353</v>
-      </c>
-      <c r="C57" t="s">
-        <v>354</v>
+      <c r="B84" t="s">
+        <v>392</v>
+      </c>
+      <c r="C84" t="s">
+        <v>269</v>
+      </c>
+      <c r="D84" t="s">
+        <v>270</v>
+      </c>
+      <c r="E84" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>461</v>
+      </c>
+      <c r="B85" t="s">
+        <v>392</v>
+      </c>
+      <c r="C85" t="s">
+        <v>269</v>
+      </c>
+      <c r="D85" t="s">
+        <v>270</v>
+      </c>
+      <c r="E85" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>462</v>
+      </c>
+      <c r="B86" t="s">
+        <v>446</v>
+      </c>
+      <c r="C86" t="s">
+        <v>463</v>
+      </c>
+      <c r="D86" t="s">
+        <v>343</v>
+      </c>
+      <c r="E86" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>462</v>
+      </c>
+      <c r="B87" t="s">
+        <v>446</v>
+      </c>
+      <c r="C87" t="s">
+        <v>463</v>
+      </c>
+      <c r="D87" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -5089,184 +6469,2171 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:E463"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>106</v>
       </c>
       <c r="B13" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>108</v>
       </c>
       <c r="B14" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>110</v>
       </c>
       <c r="B15" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>112</v>
       </c>
       <c r="B16" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>104</v>
       </c>
       <c r="B17" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>118</v>
       </c>
       <c r="B18" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>120</v>
       </c>
       <c r="B19" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>122</v>
       </c>
       <c r="B20" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>161</v>
       </c>
       <c r="B21" t="s">
         <v>117</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>472</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C25" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>482</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E150" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E151" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E152" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E154" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E157" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E158" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E159" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E160" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E161" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E162" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E163" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E164" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E165" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E166" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E167" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E168" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E171" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E172" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E173" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E174" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E175" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E176" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E177" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E178" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E179" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E180" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E181" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E182" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E183" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E184" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E185" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E186" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E187" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E188" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E189" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E190" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E191" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E192" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E193" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E194" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E195" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E196" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E197" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E200" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E201" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E203" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E204" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E205" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E206" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E207" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E208" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E209" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E210" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E211" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E213" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E215" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E216" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E217" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E218" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E219" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E220" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E221" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E222" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E223" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E224" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E225" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E226" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E227" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E228" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E229" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E230" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E231" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E232" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E233" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E234" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E235" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E236" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E237" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E238" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E239" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E240" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E241" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E242" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E243" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E244" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E245" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E246" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E247" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E248" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E249" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E250" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E251" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E252" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E253" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E254" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E255" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E256" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E257" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E258" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E259" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E260" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E261" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E262" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E263" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E264" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E265" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E266" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E267" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E268" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E269" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E270" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E271" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E272" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E273" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E274" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E275" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E276" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="277" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E277" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="278" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E278" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="279" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E279" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="280" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E280" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="281" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E281" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="282" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E282" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="283" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E283" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="284" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E284" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="285" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E285" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="286" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E286" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="287" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E287" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="288" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E288" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="289" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E289" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E290" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="291" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E291" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E292" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="293" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E293" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E294" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="295" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E295" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E296" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="297" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E297" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E298" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="299" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E299" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E300" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E301" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E302" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="303" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E303" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E304" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E305" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E306" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E307" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E308" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E309" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E310" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="311" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E311" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="312" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E312" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="313" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E313" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="314" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E314" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="315" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E315" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="316" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E316" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="317" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E317" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="318" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E318" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="319" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E319" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="320" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E320" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E321" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="322" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E322" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="323" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E323" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="324" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E324" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="325" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E325" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="326" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E326" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="327" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E327" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="328" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E328" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="329" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E329" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="330" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E330" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="331" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E331" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="332" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E332" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="333" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E333" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="334" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E334" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="335" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E335" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="336" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E336" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="337" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E337" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="338" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E338" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="339" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E339" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="340" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E340" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="341" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E341" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="342" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E342" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="343" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E343" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="344" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E344" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="345" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E345" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="346" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E346" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="347" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E347" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="348" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E348" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="349" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E349" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="350" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E350" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="351" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E351" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="352" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E352" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="353" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E353" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="354" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E354" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="355" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E355" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="356" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E356" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="357" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E357" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="358" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E358" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="359" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E359" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="360" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E360" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="361" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E361" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="362" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E362" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="363" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E363" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="364" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E364" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="365" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E365" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="366" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E366" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="367" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E367" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="368" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E368" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="369" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E369" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="370" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E370" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="371" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E371" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="372" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E372" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="373" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E373" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="374" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E374" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="375" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E375" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="376" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E376" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="377" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E377" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="378" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E378" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="379" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E379" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="380" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E380" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="381" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E381" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="382" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E382" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="383" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E383" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="384" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E384" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="385" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E385" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="386" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E386" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="387" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E387" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="388" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E388" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="389" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E389" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="390" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E390" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="391" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E391" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="392" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E392" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="393" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E393" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="394" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E394" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="395" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E395" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="396" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E396" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="397" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E397" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="398" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E398" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="399" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E399" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="400" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E400" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="401" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E401" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="402" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E402" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="403" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E403" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="404" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E404" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="405" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E405" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="406" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E406" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="407" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E407" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="408" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E408" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="409" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E409" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="410" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E410" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="411" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E411" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="412" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E412" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="413" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E413" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="414" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E414" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="415" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E415" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="416" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E416" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E417" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E418" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E419" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E420" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E421" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E422" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E423" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E424" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E425" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E426" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E427" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E428" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E429" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E430" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E431" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E432" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E433" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E434" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E435" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="436" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E436" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="437" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E437" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="438" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E438" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="439" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E439" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="440" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E440" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="441" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E441" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="442" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E442" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="443" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E443" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="444" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E444" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="445" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E445" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="446" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E446" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="447" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E447" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="448" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E448" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="449" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E449" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="450" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E450" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="451" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E451" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="452" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E452" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="453" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E453" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="454" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E454" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="455" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E455" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="456" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E456" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="457" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E457" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="458" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E458" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="459" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E459" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="460" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E460" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="461" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E461" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="462" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E462" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="463" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E463" t="s">
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -5281,7 +8648,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5310,215 +8677,215 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>370</v>
+        <v>464</v>
       </c>
       <c r="B2" t="s">
-        <v>374</v>
+        <v>465</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D2" s="9">
-        <v>479.84</v>
+        <v>671.375</v>
       </c>
       <c r="E2">
-        <v>7900</v>
+        <v>3100</v>
       </c>
       <c r="F2">
-        <v>1199.5999999999999</v>
+        <v>1342.75</v>
       </c>
       <c r="G2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>466</v>
       </c>
       <c r="B3" t="s">
-        <v>374</v>
+        <v>465</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D3" s="9">
-        <v>469.52</v>
+        <v>791</v>
       </c>
       <c r="E3">
-        <v>6400</v>
+        <v>7000</v>
       </c>
       <c r="F3">
-        <v>1173.8</v>
+        <v>1582</v>
       </c>
       <c r="G3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>468</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D4" s="9">
-        <v>471.52</v>
+        <v>506.91666666700002</v>
       </c>
       <c r="E4">
-        <v>5600</v>
+        <v>4100</v>
       </c>
       <c r="F4">
-        <v>1178.8</v>
+        <v>869</v>
       </c>
       <c r="G4">
-        <v>0.4</v>
+        <v>0.58333333333299997</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>371</v>
+        <v>454</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>468</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D5" s="9">
-        <v>646.08000000000004</v>
+        <v>517.85416666699996</v>
       </c>
       <c r="E5">
-        <v>6000</v>
+        <v>3700</v>
       </c>
       <c r="F5">
-        <v>1615.2</v>
+        <v>887.75</v>
       </c>
       <c r="G5">
-        <v>0.4</v>
+        <v>0.58333333333299997</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>600</v>
       </c>
       <c r="B6" t="s">
-        <v>375</v>
+        <v>601</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" s="9">
-        <v>241.6875</v>
+        <v>525.096</v>
       </c>
       <c r="E6">
-        <v>5400</v>
+        <v>7000</v>
       </c>
       <c r="F6">
-        <v>966.75</v>
+        <v>1193.4000000000001</v>
       </c>
       <c r="G6">
-        <v>0.25</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>372</v>
+        <v>470</v>
       </c>
       <c r="B7" t="s">
-        <v>375</v>
+        <v>469</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D7" s="9">
-        <v>-656.99412625000002</v>
+        <v>613.95416666699998</v>
       </c>
       <c r="E7">
-        <v>9900</v>
+        <v>7700</v>
       </c>
       <c r="F7">
-        <v>1137.65216667</v>
+        <v>1270.25</v>
       </c>
       <c r="G7">
-        <v>-0.57750000000000001</v>
+        <v>0.48333333333299999</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>418</v>
       </c>
       <c r="B8" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D8" s="9">
-        <v>259.85000000000002</v>
+        <v>-1013.01043889</v>
       </c>
       <c r="E8">
-        <v>3800</v>
+        <v>7600</v>
       </c>
       <c r="F8">
-        <v>1299.25</v>
+        <v>1066.3267777799999</v>
       </c>
       <c r="G8">
-        <v>0.2</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>473</v>
       </c>
       <c r="B9" t="s">
-        <v>363</v>
+        <v>476</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D9" s="9">
-        <v>220.944444444</v>
+        <v>612.14814814800002</v>
       </c>
       <c r="E9">
-        <v>4600</v>
+        <v>8300</v>
       </c>
       <c r="F9">
-        <v>994.25</v>
+        <v>1377.33333333</v>
       </c>
       <c r="G9">
-        <v>0.222222222222</v>
+        <v>0.444444444444</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>364</v>
+        <v>604</v>
       </c>
       <c r="B10" t="s">
-        <v>363</v>
+        <v>476</v>
       </c>
       <c r="C10" t="s">
         <v>164</v>
       </c>
       <c r="D10" s="9">
-        <v>236</v>
+        <v>548.14814814800002</v>
       </c>
       <c r="E10">
-        <v>4800</v>
+        <v>6400</v>
       </c>
       <c r="F10">
-        <v>1062</v>
+        <v>1233.33333333</v>
       </c>
       <c r="G10">
-        <v>0.222222222222</v>
+        <v>0.444444444444</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" s="9">
         <f>SUM(D2:D10)</f>
-        <v>2368.4478181939999</v>
+        <v>3773.4818574070005</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
@@ -5569,7 +8936,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="B2">
         <v>1855.25</v>
@@ -5586,7 +8953,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="B3">
         <v>2978.2</v>
@@ -5603,7 +8970,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="B4">
         <v>2980.5</v>
@@ -5620,7 +8987,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="B5">
         <v>3088.1</v>
@@ -5637,7 +9004,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="B6">
         <v>4538.25</v>

--- a/Fanduel.xlsx
+++ b/Fanduel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="_ironspread_data_" sheetId="4" state="veryHidden" r:id="rId1"/>
@@ -38,11 +38,12 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId11"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="620">
   <si>
     <t>n_scripts_list</t>
   </si>
@@ -263,9 +264,6 @@
     <t>Alexander Ovechkin</t>
   </si>
   <si>
-    <t>Alex Ovechkin</t>
-  </si>
-  <si>
     <t>Michael Cammalleri</t>
   </si>
   <si>
@@ -614,9 +612,6 @@
     <t>Patrick Marleau</t>
   </si>
   <si>
-    <t>Andrei Markov</t>
-  </si>
-  <si>
     <t>Andrew Cogliano</t>
   </si>
   <si>
@@ -641,12 +636,6 @@
     <t>Brian Elliott</t>
   </si>
   <si>
-    <t>Chris Terry</t>
-  </si>
-  <si>
-    <t>Chris Butler</t>
-  </si>
-  <si>
     <t>Chris Summers</t>
   </si>
   <si>
@@ -680,19 +669,1030 @@
     <t>Stephen Weiss</t>
   </si>
   <si>
-    <t>Tomas Tatar</t>
+    <t>Tomas Kopecky</t>
+  </si>
+  <si>
+    <t>Thomas Greiss</t>
+  </si>
+  <si>
+    <t>Jordan Eberle</t>
+  </si>
+  <si>
+    <t>Keith Aulie</t>
+  </si>
+  <si>
+    <t>Kris Letang</t>
+  </si>
+  <si>
+    <t>Chris Neil</t>
+  </si>
+  <si>
+    <t>Matt Ellis</t>
+  </si>
+  <si>
+    <t>Implemented process, continous effort. Needs to be implemented for player lineups</t>
+  </si>
+  <si>
+    <t>This is hard, maybe rely on tweaking parameters until constraints are avoided (ie Manual)</t>
+  </si>
+  <si>
+    <t>Store in local text file?</t>
+  </si>
+  <si>
+    <t>Matt Greene</t>
+  </si>
+  <si>
+    <t>Matt Fraser</t>
+  </si>
+  <si>
+    <t>Matt Niskanen</t>
+  </si>
+  <si>
+    <t>John Carlson</t>
+  </si>
+  <si>
+    <t>Nathan Beaulieu</t>
+  </si>
+  <si>
+    <t>Learn sublime text tricks</t>
+  </si>
+  <si>
+    <t>Need to learn how to use sublimetext better</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>CS 258 - Software testing</t>
+  </si>
+  <si>
+    <t>CS 212 - Design of computer programs</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>C:\Users\Cole\Desktop\FanDuel\fanduel\modules\main.py</t>
+  </si>
+  <si>
+    <t>database_operations.py</t>
+  </si>
+  <si>
+    <t>C:\Users\Cole\Desktop\FanDuel\fanduel\modules\database_operations.py</t>
+  </si>
+  <si>
+    <t>Patrick Bordeleau</t>
+  </si>
+  <si>
+    <t>Cory Conacher</t>
+  </si>
+  <si>
+    <t>Chris Tierney</t>
+  </si>
+  <si>
+    <t>Kyle Palmieri</t>
+  </si>
+  <si>
+    <t>Ryan Strome</t>
+  </si>
+  <si>
+    <t>Ryan Miller</t>
+  </si>
+  <si>
+    <t>Jared Cowen</t>
+  </si>
+  <si>
+    <t>Ian Cole</t>
+  </si>
+  <si>
+    <t>Matt Cullen</t>
+  </si>
+  <si>
+    <t>Matt Read</t>
+  </si>
+  <si>
+    <t>Kris Versteeg</t>
+  </si>
+  <si>
+    <t>Peter Holland</t>
+  </si>
+  <si>
+    <t>Damien Brunner</t>
+  </si>
+  <si>
+    <t>Scott Darling</t>
+  </si>
+  <si>
+    <t>Scott Harrington</t>
+  </si>
+  <si>
+    <t>Scott Hartnell</t>
+  </si>
+  <si>
+    <t>Scott Hannan</t>
+  </si>
+  <si>
+    <t>Damon Severson</t>
+  </si>
+  <si>
+    <t>Alexander Wennberg</t>
+  </si>
+  <si>
+    <t>Andrej Sekera</t>
+  </si>
+  <si>
+    <t>Andrew Desjardins</t>
+  </si>
+  <si>
+    <t>Ryan White</t>
+  </si>
+  <si>
+    <t>Mike Richards</t>
+  </si>
+  <si>
+    <t>Brad Marchand</t>
+  </si>
+  <si>
+    <t>Brad Malone</t>
+  </si>
+  <si>
+    <t>data_scrapping.py</t>
+  </si>
+  <si>
+    <t>C:\Users\Cole\Desktop\FanDuel\fanduel\modules\data_scrapping.py</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11536?tableId=10196255&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11536?tableId=10195995&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11536?tableId=10195967&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>Analyzed Entries</t>
+  </si>
+  <si>
+    <t>Avg_ToI*Avg_Line_Goals + Vegas</t>
+  </si>
+  <si>
+    <t>Major Category</t>
+  </si>
+  <si>
+    <t>Sub Category</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Software Testing Course</t>
+  </si>
+  <si>
+    <t>Sublime Text</t>
+  </si>
+  <si>
+    <t>Programming Design Course</t>
+  </si>
+  <si>
+    <t>Jason Pominville</t>
+  </si>
+  <si>
+    <t>Patrick Dwyer</t>
+  </si>
+  <si>
+    <t>Patrick Wiercioch</t>
+  </si>
+  <si>
+    <t>Jonathan Drouin</t>
+  </si>
+  <si>
+    <t>Karl Alzner</t>
+  </si>
+  <si>
+    <t>Carl Hagelin</t>
+  </si>
+  <si>
+    <t>Jeff Drouin-Deslauriers</t>
+  </si>
+  <si>
+    <t>Andrei Vasilevskii</t>
+  </si>
+  <si>
+    <t>Dylan Olsen</t>
+  </si>
+  <si>
+    <t>Dan Hamhuis</t>
+  </si>
+  <si>
+    <t>Brian Gibbons</t>
+  </si>
+  <si>
+    <t>Brian Gionta</t>
+  </si>
+  <si>
+    <t>Radko Gudas</t>
+  </si>
+  <si>
+    <t>Kristers Gudlevskis</t>
+  </si>
+  <si>
+    <t>Viatcheslav Voynov</t>
+  </si>
+  <si>
+    <t>David Moss</t>
+  </si>
+  <si>
+    <t>David Pastrnak</t>
+  </si>
+  <si>
+    <t>David Jones</t>
+  </si>
+  <si>
+    <t>Andrew Campbell</t>
+  </si>
+  <si>
+    <t>Gregory Campbell</t>
+  </si>
+  <si>
+    <t>Danny Taylor</t>
+  </si>
+  <si>
+    <t>Manny Malhotra</t>
+  </si>
+  <si>
+    <t>Quinton Howden</t>
+  </si>
+  <si>
+    <t>Grant Clitsome</t>
+  </si>
+  <si>
+    <t>Allan York</t>
+  </si>
+  <si>
+    <t>Jamie McBain</t>
+  </si>
+  <si>
+    <t>Tanner Pearson</t>
+  </si>
+  <si>
+    <t>Tanner Glass</t>
+  </si>
+  <si>
+    <t>Matt Hackett</t>
+  </si>
+  <si>
+    <t>Matt Beleskey</t>
+  </si>
+  <si>
+    <t>Brett Ritchie</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11544?tableId=10228290&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11544?tableId=10229052&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11544?tableId=10228991&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>Brent Burns</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11550?tableId=10264642&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11550?tableId=10265107&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11550?tableId=10265174&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>NHL Roster Name</t>
+  </si>
+  <si>
+    <t>Slate Size</t>
+  </si>
+  <si>
+    <t>Web Interface</t>
+  </si>
+  <si>
+    <t>Need to develop a web interface to remotely build lineup. Need to host on server (GAE or RasPi?</t>
+  </si>
+  <si>
+    <t>Web Development</t>
+  </si>
+  <si>
+    <t>Matt Stajan</t>
+  </si>
+  <si>
+    <t>Tye McGinn</t>
+  </si>
+  <si>
+    <t>Mike Weaver</t>
+  </si>
+  <si>
+    <t>Luke Schenn</t>
+  </si>
+  <si>
+    <t>Matt Halischuk</t>
+  </si>
+  <si>
+    <t>Mathew Dumba</t>
+  </si>
+  <si>
+    <t>Jason Garrison</t>
+  </si>
+  <si>
+    <t>Andrew MacDonald</t>
+  </si>
+  <si>
+    <t>Brad Richards</t>
+  </si>
+  <si>
+    <t>Benoit Pouliot</t>
+  </si>
+  <si>
+    <t>Marcus Johansson</t>
+  </si>
+  <si>
+    <t>Chris Thorburn</t>
+  </si>
+  <si>
+    <t>Erik Condra</t>
+  </si>
+  <si>
+    <t>Josh Harding</t>
+  </si>
+  <si>
+    <t>Josh Jooris</t>
+  </si>
+  <si>
+    <t>Josh Gorges</t>
+  </si>
+  <si>
+    <t>Josh Bailey</t>
+  </si>
+  <si>
+    <t>Nathan Lieuwen</t>
+  </si>
+  <si>
+    <t>Michal Neuvirth</t>
+  </si>
+  <si>
+    <t>Michael Hutchinson</t>
+  </si>
+  <si>
+    <t>Paul Bissonnette</t>
+  </si>
+  <si>
+    <t>Beau Bennett</t>
+  </si>
+  <si>
+    <t>Paul Byron</t>
+  </si>
+  <si>
+    <t>David Dziurzynski</t>
+  </si>
+  <si>
+    <t>Andrew Hammond</t>
+  </si>
+  <si>
+    <t>Andrew Ladd</t>
+  </si>
+  <si>
+    <t>Andrew Shaw</t>
+  </si>
+  <si>
+    <t>Emerson Etem</t>
+  </si>
+  <si>
+    <t>Stu Bickel</t>
+  </si>
+  <si>
+    <t>Bryan Bickell</t>
+  </si>
+  <si>
+    <t>Peter Mueller</t>
+  </si>
+  <si>
+    <t>Mikkel Boedker</t>
+  </si>
+  <si>
+    <t>Mike Weber</t>
+  </si>
+  <si>
+    <t>John Gibson</t>
+  </si>
+  <si>
+    <t>Calvin de Haan</t>
+  </si>
+  <si>
+    <t>Calvin de_Haan</t>
+  </si>
+  <si>
+    <t>Harry Zolnierczyk</t>
+  </si>
+  <si>
+    <t>Steven Oleksy</t>
+  </si>
+  <si>
+    <t>Steven Stamkos</t>
+  </si>
+  <si>
+    <t>Ryan Ellis</t>
+  </si>
+  <si>
+    <t>Ryan O'Reilly</t>
+  </si>
+  <si>
+    <t>Ryan Callahan</t>
+  </si>
+  <si>
+    <t>Brandon Gormley</t>
+  </si>
+  <si>
+    <t>Brandon Bollig</t>
+  </si>
+  <si>
+    <t>Brandon Prust</t>
+  </si>
+  <si>
+    <t>Brandon Pirri</t>
+  </si>
+  <si>
+    <t>Braden Holtby</t>
+  </si>
+  <si>
+    <t>Brandon Sutter</t>
+  </si>
+  <si>
+    <t>Brian Boyle</t>
+  </si>
+  <si>
+    <t>Stefan Elliott</t>
+  </si>
+  <si>
+    <t>Mark Pysyk</t>
+  </si>
+  <si>
+    <t>Mark Fayne</t>
+  </si>
+  <si>
+    <t>Alex Grant</t>
+  </si>
+  <si>
+    <t>Alex Galchenyuk</t>
+  </si>
+  <si>
+    <t>Alex Tanguay</t>
+  </si>
+  <si>
+    <t>Alex Killorn</t>
+  </si>
+  <si>
+    <t>Alex Pietrangelo</t>
+  </si>
+  <si>
+    <t>Alex Chiasson</t>
+  </si>
+  <si>
+    <t>Jesse Winchester</t>
+  </si>
+  <si>
+    <t>Ryan Stanton</t>
+  </si>
+  <si>
+    <t>Ryan Johansen</t>
+  </si>
+  <si>
+    <t>Ryan Suter</t>
+  </si>
+  <si>
+    <t>Brad Richardson</t>
+  </si>
+  <si>
+    <t>Brett Sutter</t>
+  </si>
+  <si>
+    <t>Brent Seabrook</t>
+  </si>
+  <si>
+    <t>Pat Dwyer</t>
+  </si>
+  <si>
+    <t>Alexander Steen</t>
+  </si>
+  <si>
+    <t>Alex Steen</t>
+  </si>
+  <si>
+    <t>Christian Thomas</t>
+  </si>
+  <si>
+    <t>Trevor Smith</t>
+  </si>
+  <si>
+    <t>Colin McDonald</t>
+  </si>
+  <si>
+    <t>Nathan Mackinnon</t>
+  </si>
+  <si>
+    <t>Nick Shore</t>
+  </si>
+  <si>
+    <t>Zemgus  Girgensons</t>
+  </si>
+  <si>
+    <t>T.J. Galiardi</t>
+  </si>
+  <si>
+    <t>Alexander Semin</t>
+  </si>
+  <si>
+    <t>Alexander Edler</t>
+  </si>
+  <si>
+    <t>Frans Nielse</t>
+  </si>
+  <si>
+    <t>Michael Grabne</t>
+  </si>
+  <si>
+    <t>Brock Nelso</t>
+  </si>
+  <si>
+    <t>Matt Marti</t>
+  </si>
+  <si>
+    <t>Tomas Fleischma</t>
+  </si>
+  <si>
+    <t>Jussi Jokine</t>
+  </si>
+  <si>
+    <t>Shawn Thornto</t>
+  </si>
+  <si>
+    <t>Erik Gudbranso</t>
+  </si>
+  <si>
+    <t>Nathan Mackinno</t>
+  </si>
+  <si>
+    <t>Nate Gueni</t>
+  </si>
+  <si>
+    <t>Nick Holde</t>
+  </si>
+  <si>
+    <t>Jaromir Jag</t>
+  </si>
+  <si>
+    <t>Steve Bernie</t>
+  </si>
+  <si>
+    <t>Jacob Josefso</t>
+  </si>
+  <si>
+    <t>Adam Larsso</t>
+  </si>
+  <si>
+    <t>Mark Frase</t>
+  </si>
+  <si>
+    <t>Jamie Be</t>
+  </si>
+  <si>
+    <t>Tyler Segui</t>
+  </si>
+  <si>
+    <t>Cody Eaki</t>
+  </si>
+  <si>
+    <t>Vernon Fiddle</t>
+  </si>
+  <si>
+    <t>Colton Sceviou</t>
+  </si>
+  <si>
+    <t>Jordie Be</t>
+  </si>
+  <si>
+    <t>Sean Monaha</t>
+  </si>
+  <si>
+    <t>Jiri Hudle</t>
+  </si>
+  <si>
+    <t>Matt Staja</t>
+  </si>
+  <si>
+    <t>Paul Byro</t>
+  </si>
+  <si>
+    <t>Dennis Widema</t>
+  </si>
+  <si>
+    <t>Derek Stepa</t>
+  </si>
+  <si>
+    <t>Chris Kreide</t>
+  </si>
+  <si>
+    <t>Carl Hageli</t>
+  </si>
+  <si>
+    <t>Kevin Klei</t>
+  </si>
+  <si>
+    <t>Melker Karlsso</t>
+  </si>
+  <si>
+    <t>Joe Thornto</t>
+  </si>
+  <si>
+    <t>Tye McGi</t>
+  </si>
+  <si>
+    <t>Brenden Dillo</t>
+  </si>
+  <si>
+    <t>Matt Tennyso</t>
+  </si>
+  <si>
+    <t>Matt Irwi</t>
+  </si>
+  <si>
+    <t>Scott Hanna</t>
+  </si>
+  <si>
+    <t>David Perro</t>
+  </si>
+  <si>
+    <t>Brandon Sutte</t>
+  </si>
+  <si>
+    <t>Paul Marti</t>
+  </si>
+  <si>
+    <t>Daniel Sedi</t>
+  </si>
+  <si>
+    <t>Henrik Sedi</t>
+  </si>
+  <si>
+    <t>Jannik Hanse</t>
+  </si>
+  <si>
+    <t>Alexander Edle</t>
+  </si>
+  <si>
+    <t>Dmitrij Jaski</t>
+  </si>
+  <si>
+    <t>Jay Bouwmeeste</t>
+  </si>
+  <si>
+    <t>Carl Gunnarsso</t>
+  </si>
+  <si>
+    <t>Barret Jackma</t>
+  </si>
+  <si>
+    <t>Teuvo Teravaine</t>
+  </si>
+  <si>
+    <t>Marcus Kruge</t>
+  </si>
+  <si>
+    <t>Niklas Hjalmarsso</t>
+  </si>
+  <si>
+    <t>Brendan Gallaghe</t>
+  </si>
+  <si>
+    <t>Lars Elle</t>
+  </si>
+  <si>
+    <t>P.K. Subba</t>
+  </si>
+  <si>
+    <t>Mike Weave</t>
+  </si>
+  <si>
+    <t>Alexei Emeli</t>
+  </si>
+  <si>
+    <t>Brayden Sche</t>
+  </si>
+  <si>
+    <t>R.J. Umberge</t>
+  </si>
+  <si>
+    <t>Sean Couturie</t>
+  </si>
+  <si>
+    <t>Vincent Lecavalie</t>
+  </si>
+  <si>
+    <t>Luke Sche</t>
+  </si>
+  <si>
+    <t>Patrick Maroo</t>
+  </si>
+  <si>
+    <t>Ryan Kesle</t>
+  </si>
+  <si>
+    <t>Nate Thompso</t>
+  </si>
+  <si>
+    <t>Cam Fowle</t>
+  </si>
+  <si>
+    <t>Francois Beauchemi</t>
+  </si>
+  <si>
+    <t>Clayton Stone</t>
+  </si>
+  <si>
+    <t>Sami Vatane</t>
+  </si>
+  <si>
+    <t>Anze Kopita</t>
+  </si>
+  <si>
+    <t>Dustin Brow</t>
+  </si>
+  <si>
+    <t>Jeff Carte</t>
+  </si>
+  <si>
+    <t>Jordan Nola</t>
+  </si>
+  <si>
+    <t>Jake Muzzi</t>
+  </si>
+  <si>
+    <t>Robyn Regeh</t>
+  </si>
+  <si>
+    <t>Ryan Johanse</t>
+  </si>
+  <si>
+    <t>Cam Atkinso</t>
+  </si>
+  <si>
+    <t>Fedor Tyuti</t>
+  </si>
+  <si>
+    <t>Jack Johnso</t>
+  </si>
+  <si>
+    <t>Kevin Connauto</t>
+  </si>
+  <si>
+    <t>Matt Moulso</t>
+  </si>
+  <si>
+    <t>Brian Fly</t>
+  </si>
+  <si>
+    <t>Rasmus Ristolaine</t>
+  </si>
+  <si>
+    <t>Mike Webe</t>
+  </si>
+  <si>
+    <t>Boyd Gordo</t>
+  </si>
+  <si>
+    <t>Rob Klinkhamme</t>
+  </si>
+  <si>
+    <t>Matt Frase</t>
+  </si>
+  <si>
+    <t>Anton Lande</t>
+  </si>
+  <si>
+    <t>Ryan Callaha</t>
+  </si>
+  <si>
+    <t>Tyler Johnso</t>
+  </si>
+  <si>
+    <t>Alex Killo</t>
+  </si>
+  <si>
+    <t>Jonathan Droui</t>
+  </si>
+  <si>
+    <t>J.T. Brow</t>
+  </si>
+  <si>
+    <t>Andrej Sust</t>
+  </si>
+  <si>
+    <t>Victor Hedma</t>
+  </si>
+  <si>
+    <t>Anton Stralma</t>
+  </si>
+  <si>
+    <t>Jason Garriso</t>
+  </si>
+  <si>
+    <t>Blake Wheele</t>
+  </si>
+  <si>
+    <t>Chris Thorbu</t>
+  </si>
+  <si>
+    <t>Jim Slate</t>
+  </si>
+  <si>
+    <t>Dustin Byfuglie</t>
+  </si>
+  <si>
+    <t>Zach Bogosia</t>
+  </si>
+  <si>
+    <t>Tobias Riede</t>
+  </si>
+  <si>
+    <t>Shane Doa</t>
+  </si>
+  <si>
+    <t>Sam Gagne</t>
+  </si>
+  <si>
+    <t>Brandon McMilla</t>
+  </si>
+  <si>
+    <t>Brendan Shinnimi</t>
+  </si>
+  <si>
+    <t>B.J. Crombee</t>
+  </si>
+  <si>
+    <t>Oliver Ekman-Larsso</t>
+  </si>
+  <si>
+    <t>Clarke MacArthu</t>
+  </si>
+  <si>
+    <t>Bobby Rya</t>
+  </si>
+  <si>
+    <t>Mike Hoffma</t>
+  </si>
+  <si>
+    <t>Curtis Laza</t>
+  </si>
+  <si>
+    <t>Erik Karlsso</t>
+  </si>
+  <si>
+    <t>Jared Cowe</t>
+  </si>
+  <si>
+    <t>Zemgus Girgensons</t>
+  </si>
+  <si>
+    <t>TJ Galiardi</t>
+  </si>
+  <si>
+    <t>Frederik Andersen</t>
+  </si>
+  <si>
+    <t>Jordan Schroeder</t>
+  </si>
+  <si>
+    <t>Stephane Robidas</t>
+  </si>
+  <si>
+    <t>Nick Holden</t>
+  </si>
+  <si>
+    <t>Josh Anderson</t>
+  </si>
+  <si>
+    <t>Cam Atkinson</t>
+  </si>
+  <si>
+    <t>Michael Stone</t>
+  </si>
+  <si>
+    <t>Michael Frolik</t>
+  </si>
+  <si>
+    <t>Michael Latta</t>
+  </si>
+  <si>
+    <t>Michael Del Zotto</t>
+  </si>
+  <si>
+    <t>Michael Bournival</t>
+  </si>
+  <si>
+    <t>Evgeni Nabokov</t>
+  </si>
+  <si>
+    <t>Darcy Kuemper</t>
+  </si>
+  <si>
+    <t>Marcus Kruger</t>
+  </si>
+  <si>
+    <t>Anders Lindback</t>
+  </si>
+  <si>
+    <t>Anders Lee</t>
+  </si>
+  <si>
+    <t>Sergei Bobrovsky</t>
+  </si>
+  <si>
+    <t>Andre Burakovsky</t>
+  </si>
+  <si>
+    <t>Sergei Gonchar</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11556?tableId=10286902&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11556?tableId=10287072&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11556?tableId=10289222&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11556?tableId=10288786&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11556?tableId=10292901&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11556?tableId=10292936&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>P/L</t>
+  </si>
+  <si>
+    <t>Sheldon Brookbank</t>
+  </si>
+  <si>
+    <t>Seth Griffith</t>
   </si>
   <si>
     <t>Thomas Vanek</t>
   </si>
   <si>
-    <t>Tomas Kopecky</t>
-  </si>
-  <si>
-    <t>Thomas Greiss</t>
-  </si>
-  <si>
-    <t>Jordan Eberle</t>
+    <t>Joe Morrow</t>
+  </si>
+  <si>
+    <t>Brenden Morrow</t>
+  </si>
+  <si>
+    <t>Joe Thornton</t>
+  </si>
+  <si>
+    <t>John Moore</t>
+  </si>
+  <si>
+    <t>Jason Williams</t>
+  </si>
+  <si>
+    <t>Justin Williams</t>
+  </si>
+  <si>
+    <t>Jason Demers</t>
+  </si>
+  <si>
+    <t>Karri Ramo</t>
+  </si>
+  <si>
+    <t>David Warsofsky</t>
+  </si>
+  <si>
+    <t>David Wolf</t>
+  </si>
+  <si>
+    <t>David Clarkson</t>
+  </si>
+  <si>
+    <t>Brad Thiessen</t>
+  </si>
+  <si>
+    <t>Frans Nielsen</t>
+  </si>
+  <si>
+    <t>Brad Boyes</t>
   </si>
   <si>
     <t>Tomas Plekanec</t>
@@ -701,1162 +1701,208 @@
     <t>Tomas Jurco</t>
   </si>
   <si>
-    <t>Keith Aulie</t>
-  </si>
-  <si>
-    <t>Kris Letang</t>
-  </si>
-  <si>
-    <t>Chris Neil</t>
-  </si>
-  <si>
-    <t>Matt Ellis</t>
-  </si>
-  <si>
-    <t>Alexei Emelin</t>
-  </si>
-  <si>
-    <t>Implemented process, continous effort. Needs to be implemented for player lineups</t>
-  </si>
-  <si>
-    <t>This is hard, maybe rely on tweaking parameters until constraints are avoided (ie Manual)</t>
-  </si>
-  <si>
-    <t>Store in local text file?</t>
-  </si>
-  <si>
-    <t>Matt Greene</t>
-  </si>
-  <si>
-    <t>Matt Fraser</t>
-  </si>
-  <si>
-    <t>Matt Niskanen</t>
-  </si>
-  <si>
-    <t>John Carlson</t>
-  </si>
-  <si>
-    <t>Andrei Loktionov</t>
-  </si>
-  <si>
-    <t>Nathan Beaulieu</t>
-  </si>
-  <si>
-    <t>Learn sublime text tricks</t>
-  </si>
-  <si>
-    <t>Need to learn how to use sublimetext better</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>CS 258 - Software testing</t>
-  </si>
-  <si>
-    <t>CS 212 - Design of computer programs</t>
-  </si>
-  <si>
-    <t>Schedule</t>
-  </si>
-  <si>
-    <t>C:\Users\Cole\Desktop\FanDuel\fanduel\modules\main.py</t>
-  </si>
-  <si>
-    <t>database_operations.py</t>
-  </si>
-  <si>
-    <t>C:\Users\Cole\Desktop\FanDuel\fanduel\modules\database_operations.py</t>
-  </si>
-  <si>
-    <t>Patrick Bordeleau</t>
-  </si>
-  <si>
-    <t>Cory Conacher</t>
-  </si>
-  <si>
-    <t>Chris Tierney</t>
-  </si>
-  <si>
-    <t>Kyle Palmieri</t>
-  </si>
-  <si>
-    <t>Troy Brouwer</t>
+    <t>Simon Gagne</t>
+  </si>
+  <si>
+    <t>Sam Gagner</t>
+  </si>
+  <si>
+    <t>Tom Wilson</t>
+  </si>
+  <si>
+    <t>Justin Faulk</t>
+  </si>
+  <si>
+    <t>Dustin Brown</t>
+  </si>
+  <si>
+    <t>Dustin Byfuglien</t>
+  </si>
+  <si>
+    <t>Justin Peters</t>
+  </si>
+  <si>
+    <t>Justin Schultz</t>
+  </si>
+  <si>
+    <t>Loui Eriksson</t>
+  </si>
+  <si>
+    <t>Joni Ortio</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11564?tableId=10314917&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11564?tableId=10315446&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11564?tableId=10315378&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11564?tableId=10316773&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11564?tableId=10316635&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11564?tableId=10316808&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11564?tableId=10312472&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>Shane Prince</t>
+  </si>
+  <si>
+    <t>Jamie McGinn</t>
+  </si>
+  <si>
+    <t>Brad Winchester</t>
+  </si>
+  <si>
+    <t>Jonas Gustavsson</t>
+  </si>
+  <si>
+    <t>Thomas McCollum</t>
+  </si>
+  <si>
+    <t>Tom McCollum</t>
+  </si>
+  <si>
+    <t>Tyler Johnson</t>
+  </si>
+  <si>
+    <t>Erik Gudbranson</t>
+  </si>
+  <si>
+    <t>Erik Karlsson</t>
+  </si>
+  <si>
+    <t>Todd Bertuzzi</t>
+  </si>
+  <si>
+    <t>Jason LaBarbera</t>
+  </si>
+  <si>
+    <t>Jason Chimera</t>
+  </si>
+  <si>
+    <t>Johan Franzen</t>
+  </si>
+  <si>
+    <t>Jannik Hansen</t>
+  </si>
+  <si>
+    <t>Joey MacDonald</t>
+  </si>
+  <si>
+    <t>Calvin Pickard</t>
+  </si>
+  <si>
+    <t>Craig Anderson</t>
+  </si>
+  <si>
+    <t>Joakim Andersson</t>
+  </si>
+  <si>
+    <t>Craig Adams</t>
+  </si>
+  <si>
+    <t>Andy Miele</t>
+  </si>
+  <si>
+    <t>Andy Greene</t>
+  </si>
+  <si>
+    <t>Martin Jones</t>
+  </si>
+  <si>
+    <t>Marian Hossa</t>
+  </si>
+  <si>
+    <t>Martin St. Louis</t>
+  </si>
+  <si>
+    <t>Martin Hanzal</t>
+  </si>
+  <si>
+    <t>Seth Jones</t>
+  </si>
+  <si>
+    <t>Mark Stone</t>
   </si>
   <si>
     <t>Martin Erat</t>
   </si>
   <si>
-    <t>Martin St. Louis</t>
-  </si>
-  <si>
-    <t>Ryane Clowe</t>
-  </si>
-  <si>
-    <t>Ryan Strome</t>
-  </si>
-  <si>
-    <t>Ryan Miller</t>
-  </si>
-  <si>
-    <t>Jared Cowen</t>
-  </si>
-  <si>
-    <t>Ian Cole</t>
-  </si>
-  <si>
-    <t>Matt Cullen</t>
-  </si>
-  <si>
-    <t>Matt Read</t>
-  </si>
-  <si>
-    <t>Kris Versteeg</t>
-  </si>
-  <si>
-    <t>Peter Holland</t>
-  </si>
-  <si>
-    <t>Damien Brunner</t>
-  </si>
-  <si>
-    <t>Scott Darling</t>
-  </si>
-  <si>
-    <t>Scott Harrington</t>
-  </si>
-  <si>
-    <t>Scott Hartnell</t>
-  </si>
-  <si>
-    <t>Scott Hannan</t>
-  </si>
-  <si>
-    <t>Damon Severson</t>
-  </si>
-  <si>
-    <t>Jared Boll</t>
-  </si>
-  <si>
-    <t>Alexander Wennberg</t>
-  </si>
-  <si>
-    <t>Andrej Sekera</t>
-  </si>
-  <si>
-    <t>Andrew Desjardins</t>
-  </si>
-  <si>
-    <t>Ryan White</t>
-  </si>
-  <si>
-    <t>Mike Richards</t>
-  </si>
-  <si>
-    <t>Brad Marchand</t>
-  </si>
-  <si>
-    <t>Brad Malone</t>
-  </si>
-  <si>
-    <t>data_scrapping.py</t>
-  </si>
-  <si>
-    <t>C:\Users\Cole\Desktop\FanDuel\fanduel\modules\data_scrapping.py</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11536?tableId=10196255&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11536?tableId=10195995&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11536?tableId=10195967&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>Analyzed Entries</t>
-  </si>
-  <si>
-    <t>Avg_ToI*Avg_Line_Goals + Vegas</t>
-  </si>
-  <si>
-    <t>Major Category</t>
-  </si>
-  <si>
-    <t>Sub Category</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
-    <t>Software Testing Course</t>
-  </si>
-  <si>
-    <t>Sublime Text</t>
-  </si>
-  <si>
-    <t>Programming Design Course</t>
-  </si>
-  <si>
-    <t>Tomas Hertl</t>
-  </si>
-  <si>
-    <t>Richard Panik</t>
-  </si>
-  <si>
-    <t>Bobby Butler</t>
-  </si>
-  <si>
-    <t>Justin Williams</t>
-  </si>
-  <si>
-    <t>Jason Demers</t>
-  </si>
-  <si>
-    <t>Jason Pominville</t>
-  </si>
-  <si>
-    <t>Patrice Cormier</t>
-  </si>
-  <si>
-    <t>Patrice Bergeron</t>
-  </si>
-  <si>
-    <t>Patric Hornqvist</t>
-  </si>
-  <si>
-    <t>Patrick Dwyer</t>
-  </si>
-  <si>
-    <t>Patrick Wiercioch</t>
-  </si>
-  <si>
-    <t>Jonathan Drouin</t>
-  </si>
-  <si>
-    <t>Carl Klingberg</t>
-  </si>
-  <si>
-    <t>John Klingberg</t>
-  </si>
-  <si>
-    <t>Carl Soderberg</t>
-  </si>
-  <si>
-    <t>Karl Alzner</t>
-  </si>
-  <si>
-    <t>Carl Hagelin</t>
-  </si>
-  <si>
-    <t>Anthony Peluso</t>
-  </si>
-  <si>
-    <t>Peter Budaj</t>
-  </si>
-  <si>
-    <t>Jeff Drouin-Deslauriers</t>
-  </si>
-  <si>
-    <t>Andrei Vasilevskii</t>
-  </si>
-  <si>
-    <t>Maxime Fortunus</t>
-  </si>
-  <si>
-    <t>Dan Ellis</t>
-  </si>
-  <si>
-    <t>Dylan Olsen</t>
-  </si>
-  <si>
-    <t>Dan Hamhuis</t>
-  </si>
-  <si>
-    <t>Boone Jenner</t>
-  </si>
-  <si>
-    <t>Brian Gibbons</t>
-  </si>
-  <si>
-    <t>Brian Gionta</t>
-  </si>
-  <si>
-    <t>Radko Gudas</t>
-  </si>
-  <si>
-    <t>Brad Boyes</t>
-  </si>
-  <si>
-    <t>Rich Peverley</t>
-  </si>
-  <si>
-    <t>Kristers Gudlevskis</t>
-  </si>
-  <si>
-    <t>Viatcheslav Voynov</t>
-  </si>
-  <si>
-    <t>David Clarkson</t>
-  </si>
-  <si>
-    <t>David Moss</t>
-  </si>
-  <si>
-    <t>David Pastrnak</t>
-  </si>
-  <si>
-    <t>David Jones</t>
-  </si>
-  <si>
-    <t>Jack Campbell</t>
-  </si>
-  <si>
-    <t>Brian Campbell</t>
-  </si>
-  <si>
-    <t>Andrew Campbell</t>
-  </si>
-  <si>
-    <t>Gregory Campbell</t>
-  </si>
-  <si>
-    <t>Keith Yandle</t>
-  </si>
-  <si>
-    <t>Danny Taylor</t>
-  </si>
-  <si>
-    <t>Manny Malhotra</t>
-  </si>
-  <si>
-    <t>Quinton Howden</t>
-  </si>
-  <si>
-    <t>Grant Clitsome</t>
-  </si>
-  <si>
-    <t>Allan York</t>
-  </si>
-  <si>
-    <t>Jamie McBain</t>
-  </si>
-  <si>
-    <t>Tanner Pearson</t>
-  </si>
-  <si>
-    <t>Tanner Glass</t>
-  </si>
-  <si>
-    <t>Michael Lee</t>
-  </si>
-  <si>
-    <t>Matt Hackett</t>
-  </si>
-  <si>
-    <t>Matt Beleskey</t>
-  </si>
-  <si>
-    <t>Brett Ritchie</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11544?tableId=10228290&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11544?tableId=10229052&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11544?tableId=10228991&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>{u'MIN': [['Zach Parise', 'Mikael Granlund', 'Thomas Vanek'], ['Jason Zucker', 'Mikko Koivu', 'Jason Pominville'], ['Ryan Carter', 'Charlie Coyle', 'Nino Niederreiter'], ['Erik Haula', 'Kyle Brodziak', 'Matt Cooke'], ['Ryan Suter', 'Jonas Brodin'], ['Jared Spurgeon', 'Marco Scandella'], ['Nate Prosser', 'Mathew Dumba'], ['Zach Parise', 'Mikko Koivu', 'Thomas Vanek', 'Ryan Suter', 'Jason Pominville'], ['Nino Niederreiter', 'Mikael Granlund', 'Charlie Coyle', 'Jared Spurgeon', 'Mathew Dumba']], u'TOR': [['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel'], ['Joffrey Lupul', 'Nazem Kadri', 'Daniel Winnik'], ['Leo Komarov', 'Peter Holland', 'Mike Santorelli'], ['Richard Panik', 'Trevor Smith', 'David Clarkson'], ['Korbinian Holzer', 'Cody Franson'], ['Morgan Rielly', 'Roman Polak'], ['Jake Gardiner', 'Petter Granberg'], ['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel', 'Peter Holland', 'Cody Franson'], ['Joffrey Lupul', 'Nazem Kadri', 'David Clarkson', 'Morgan Rielly', 'Jake Gardiner']], u'CAR': [['Eric Staal', 'Jordan Staal', 'Jiri Tlusty'], ['Nathan Gerbe', 'Victor Rask', 'Elias Lindholm'], ['Jeff Skinner', 'Riley Nash', 'Chris Terry'], ['Brad Malone', 'Jay McClement', 'Pat Dwyer'], ['Andrej Sekera', 'Justin Faulk'], ['Ryan Murphy', 'Tim Gleason'], ['Ron Hainsey', 'Brett Bellemore'], ['Eric Staal', 'Jordan Staal', 'Riley Nash', 'Ryan Murphy', 'Jeff Skinner'], ['Jiri Tlusty', 'Victor Rask', 'Nathan Gerbe', 'Elias Lindholm', 'Justin Faulk']], u'BOS': [['Milan Lucic', 'David Krejci', 'Reilly Smith'], ['Brad Marchand', 'Patrice Bergeron', 'Loui Eriksson'], ['Chris Kelly', 'Carl Soderberg', 'David Pastrnak'], ['Daniel Paille', 'Gregory Campbell', 'Jordan Caron'], ['Zdeno Chara', 'Dougie Hamilton'], ['Dennis Seidenberg', 'Adam McQuaid'], ['Torey Krug', 'Kevan Miller'], ['Loui Eriksson', 'Patrice Bergeron', 'Carl Soderberg', 'Reilly Smith', 'Dougie Hamilton'], ['Milan Lucic', 'David Krejci', 'David Pastrnak', 'Zdeno Chara', 'Torey Krug']], u'DET': [['Gustav Nyquist', 'Henrik Zetterberg', 'Justin Abdelkader'], ['Tomas Tatar', 'Pavel Datsyuk', 'Darren Helm'], ['Stephen Weiss', 'Riley Sheahan', 'Luke Glendening'], ['Drew Miller', 'Joakim Andersson', 'Tomas Jurco'], ['Jonathan Ericsson', 'Niklas Kronwall'], ['Kyle Quincey', 'Dan DeKeyser'], ['Brendan Smith', 'Alexey Marchenko'], ['Gustav Nyquist', 'Henrik Zetterberg', 'Justin Abdelkader', 'Stephen Weiss', 'Niklas Kronwall'], ['Tomas Tatar', 'Riley Sheahan', 'Darren Helm', 'Pavel Datsyuk', 'Dan DeKeyser']], u'NAS': [['Filip Forsberg', 'Mike Ribeiro', 'Craig Smith'], ['Colin Wilson', 'Mike Fisher', 'James Neal'], ['Matt Cullen', 'Calle Jarnkrok', 'Gabriel Bourque'], ['Eric Nystrom', 'Paul Gaustad', 'Olli Jokinen'], ['Roman Josi', 'Shea Weber'], ['Victor Bartley', 'Seth Jones'], ['Mattias Ekholm', 'Anton Volchenkov'], ['Filip Forsberg', 'Mike Fisher', 'James Neal', 'Roman Josi', 'Shea Weber'], ['Colin Wilson', 'Mike Ribeiro', 'Craig Smith', 'Seth Jones', 'Mattias Ekholm']], u'NYI': [['Anders Lee', 'John Tavares', 'Josh Bailey'], ['Mikhail Grabovski', 'Frans Nielsen', ''], ['Michael Grabner', 'Brock Nelson', 'Colin McDonald'], ['Matt Martin', 'Ryan Strome', 'Cal Clutterbuck'], ['Calvin de Haan', 'Travis Hamonic'], ['Nick Leddy', 'Johnny Boychuk'], ['Thomas Hickey', 'Lubomir Visnovsky'], ['Brock Nelson', 'John Tavares', 'Ryan Strome', 'Frans Nielsen', 'Johnny Boychuk'], ['Anders Lee', 'Mikhail Grabovski', 'Josh Bailey', 'Nick Leddy', 'Lubomir Visnovsky']], u'FLA': [['Jonathan Huberdeau', 'Aleksander Barkov', 'Brad Boyes'], ['Tomas Fleischmann', 'Nick Bjugstad', 'Brandon Pirri'], ['Sean Bergenheim', 'Dave Bolland', 'Jussi Jokinen'], ['Scottie Upshall', 'Derek MacKenzie', 'Shawn Thornton'], ['Brian Campbell', 'Aaron Ekblad'], ['Willie Mitchell', 'Erik Gudbranson'], ['Alex Petrovic', 'Dmitry Kulikov'], ['Jonathan Huberdeau', 'Nick Bjugstad', 'Brad Boyes', 'Aleksander Barkov', 'Aaron Ekblad'], ['Jussi Jokinen', 'Dave Bolland', 'Tomas Fleischmann', 'Brian Campbell', 'Dmitry Kulikov']], u'COL': [['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon'], ['Alex Tanguay', 'Matt Duchene', 'Jarome Iginla'], ['Cody McLeod', 'John Mitchell', 'Dennis Everberg'], ['Max Talbot', 'Marc-Andre Cliche', 'Danny Briere'], ['Jan Hejda', 'Zach Redmond'], ['Nate Guenin', 'Tyson Barrie'], ['Brad Stuart', 'Nick Holden'], ['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon', 'Nick Holden', 'Tyson Barrie'], ['Cody McLeod', 'Matt Duchene', 'Jarome Iginla', 'Alex Tanguay', 'Zach Redmond']], u'NJD': [['Adam Henrique', 'Scott Gomez', 'Jaromir Jagr'], ['Patrik Elias', 'Travis Zajac', 'Martin Havlat'], ['Dainius Zubrus', 'Michael Cammalleri', 'Steve Bernier'], ['Jordin Tootoo', 'Jacob Josefson', 'Tuomo Ruutu'], ['Andy Greene', 'Adam Larsson'], ['Mark Fraser', 'Marek Zidlicky'], ['Jon Merrill', 'Peter Harrold'], ['Jordin Tootoo', 'Travis Zajac', 'Martin Havlat', 'Patrik Elias', 'Marek Zidlicky'], ['Michael Cammalleri', 'Scott Gomez', 'Jaromir Jagr', 'Andy Greene', 'Steve Bernier']], u'DAL': [['Jamie Benn', 'Tyler Seguin', 'Patrick Eaves'], ['Erik Cole', 'Jason Spezza', 'Ales Hemsky'], ['Antoine Roussel', 'Cody Eakin', 'Ryan Garbutt'], ['Shawn Horcoff', 'Vernon Fiddler', 'Colton Sceviour'], ['Alex Goligoski', 'John Klingberg'], ['David Schlemko', 'Trevor Daley'], ['Jordie Benn', 'Jason Demers'], ['Jamie Benn', 'Jason Spezza', 'Patrick Eaves', 'Tyler Seguin', 'John Klingberg'], ['Colton Sceviour', 'Shawn Horcoff', 'Ales Hemsky', 'Jason Demers', 'Trevor Daley']], u'CGY': [['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler'], ['Lance Bouma', 'Mikael Backlund', 'David Jones'], ['Mason Raymond', 'Josh Jooris', 'Joe Colborne'], ['Brandon Bollig', 'Matt Stajan', 'Paul Byron'], ['Mark Giordano', 'T.J. Brodie'], ['Kris Russell', 'Dennis Wideman'], ['Raphael Diaz', 'Deryk Engelland'], ['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler', 'Dennis Wideman', 'Mark Giordano'], ['Mason Raymond', 'Mikael Backlund', 'Joe Colborne', 'T.J. Brodie', 'Raphael Diaz']], u'NYR': [['Rick Nash', 'Derek Stepan', 'Martin St. Louis'], ['Chris Kreider', 'Kevin Hayes', 'Mats Zuccarello'], ['Carl Hagelin', 'Derick Brassard', 'Jesper Fast'], ['Tanner Glass', 'Dominic Moore', 'Lee Stempniak'], ['Ryan McDonagh', 'Dan Girardi'], ['Marc Staal', 'Kevin Klein'], ['John Moore', 'Dan Boyle'], ['Rick Nash', 'Derick Brassard', 'Martin St. Louis', 'Derek Stepan', 'Dan Boyle'], ['Chris Kreider', 'Mats Zuccarello', 'Lee Stempniak', 'Ryan McDonagh', 'Dan Girardi']], u'SJS': [['Melker Karlsson', 'Joe Thornton', 'Joe Pavelski'], ['Patrick Marleau', 'Logan Couture', 'Matthew Nieto'], ['Tomas Hertl', 'James Sheppard', 'Barclay Goodrow'], ['Tye McGinn', 'Andrew Desjardins', 'John Scott'], ['Marc-Edouard Vlasic', 'Brent Burns'], ['Brenden Dillon', 'Matt Tennyson'], ['Matt Irwin', 'Scott Hannan'], ['Patrick Marleau', 'Joe Thornton', 'Logan Couture', 'Joe Pavelski', 'Brent Burns'], ['Melker Karlsson', 'Tomas Hertl', 'Matthew Nieto', 'Marc-Edouard Vlasic', 'Matt Tennyson']], u'PIT': [['Chris Kunitz', 'Sidney Crosby', 'David Perron'], ['Nick Spaling', 'Brandon Sutter', 'Patric Hornqvist'], ['Beau Bennett', 'Maxim Lapierre', 'Steve Downie'], ['Zach Sill', 'Mark Arcobello', 'Craig Adams'], ['Simon Despres', 'Kris Letang'], ['Rob Scuderi', 'Paul Martin'], ['Robert Bortuzzo', 'Derrick Pouliot'], ['Chris Kunitz', 'Sidney Crosby', 'Patric Hornqvist', 'David Perron', 'Kris Letang'], ['Beau Bennett', 'Brandon Sutter', 'Steve Downie', 'Paul Martin', 'Derrick Pouliot']], u'VAN': [['Daniel Sedin', 'Henrik Sedin', 'Radim Vrbata'], ['Chris Higgins', 'Linden Vey', 'Alexandre Burrows'], ['Shawn Matthias', 'Nick Bonino', 'Jannik Hansen'], ['Ronalds Kenins', 'Bo Horvat', 'Derek Dorsett'], ['Alexander Edler', 'Chris Tanev'], ['Dan Hamhuis', 'Frank Corrado'], ['Luca Sbisa', 'Adam Clendening'], ['Daniel Sedin', 'Henrik Sedin', 'Radim Vrbata', 'Alexander Edler', 'Nick Bonino'], ['Chris Higgins', 'Linden Vey', 'Alexandre Burrows', 'Dan Hamhuis', 'Adam Clendening']], u'STL': [['Alex Steen', 'David Backes', 'T.J. Oshie'], ['Jaden Schwartz', 'Paul Stastny', 'Vladimir Tarasenko'], ['Ty Rattie', 'Joakim Lindstrom', 'Dmitrij Jaskin'], ['Steve Ott', 'Marcel Goc', 'Ryan Reaves'], ['Jay Bouwmeester', 'Alex Pietrangelo'], ['Carl Gunnarsson', 'Kevin Shattenkirk'], ['Barret Jackman', 'Ian Cole'], ['Jaden Schwartz', 'David Backes', 'Vladimir Tarasenko', 'Alex Steen', 'Kevin Shattenkirk'], ['Ty Rattie', 'Paul Stastny', 'T.J. Oshie', 'Jay Bouwmeester', 'Alex Pietrangelo']], u'CHI': [['Brandon Saad', 'Jonathan Toews', 'Marian Hossa'], ['Patrick Sharp', 'Brad Richards', 'Patrick Kane'], ['Bryan Bickell', 'Andrew Shaw', 'Teuvo Teravainen'], ['Joakim Nordstrom', 'Marcus Kruger', 'Ben Smith'], ['Duncan Keith', 'David Rundblad'], ['Niklas Hjalmarsson', 'Brent Seabrook'], ['Michal Rozsival', 'Johnny Oduya'], ['Andrew Shaw', 'Jonathan Toews', 'Patrick Kane', 'Duncan Keith', 'Patrick Sharp'], ['Bryan Bickell', 'Brandon Saad', 'Marian Hossa', 'Brad Richards', 'Brent Seabrook']], u'MTL': [['Max Pacioretty', 'Tomas Plekanec', 'Dale Weise'], ['Alex Galchenyuk', 'David Desharnais', 'Brendan Gallagher'], ['Jiri Sekac', 'Lars Eller', 'Christian Thomas'], ['Gabriel Dumont', 'Manny Malhotra', 'Brandon Prust'], ['Andrei Markov', 'P.K. Subban'], ['Nathan Beaulieu', 'Mike Weaver'], ['Alexei Emelin', 'Tom Gilbert'], ['Max Pacioretty', 'Tomas Plekanec', 'Brendan Gallagher', 'Andrei Markov', 'P.K. Subban'], ['Alex Galchenyuk', 'David Desharnais', 'Jiri Sekac', 'Nathan Beaulieu', 'Tom Gilbert']], u'PHI': [['Brayden Schenn', 'Claude Giroux', 'Jakub Voracek'], ['Petr Straka', 'Ryan White', 'Wayne Simmonds'], ['R.J. Umberger', 'Sean Couturier', 'Matt Read'], ['Chris VandeVelde', 'Vincent Lecavalier'], ['Nick Schultz', 'Mark Streit'], ['Michael Del Zotto', 'Luke Schenn'], ['Carlo Colaiacovo', 'Andrew MacDonald'], ['Brayden Schenn', 'Claude Giroux', 'Wayne Simmonds', 'Jakub Voracek', 'Mark Streit'], ['R.J. Umberger', 'Sean Couturier', 'Vincent Lecavalier', 'Matt Read', 'Michael Del Zotto']], u'ANA': [['Patrick Maroon', 'Ryan Getzlaf', 'Corey Perry'], ['Kyle Palmieri', 'Ryan Kesler', 'Matt Beleskey'], ['Andrew Cogliano', 'Rickard Rakell', 'Jakob Silfverberg'], ['Rene Bourque', 'Nate Thompson', 'Devante Smith-Pelly'], ['Cam Fowler', 'Ben Lovejoy'], ['Hampus Lindholm', 'Francois Beauchemin'], ['Clayton Stoner', 'Sami Vatanen'], ['Patrick Maroon', 'Ryan Getzlaf', 'Corey Perry', 'Cam Fowler', 'Sami Vatanen'], ['Rickard Rakell', 'Ryan Kesler', 'Kyle Palmieri', 'Francois Beauchemin', 'Hampus Lindholm']], u'LAK': [['Kyle Clifford', 'Anze Kopitar', 'Dustin Brown'], ['Dwight King', 'Jeff Carter', 'Tyler Toffoli'], ['Marian Gaborik', 'Jarret Stoll', 'Trevor Lewis'], ['Jordan Nolan', 'Nick Shore', 'Justin Williams'], ['Jake Muzzin', 'Drew Doughty'], ['Robyn Regehr', 'Alec Martinez'], ['Brayden McNabb', 'Matt Greene'], ['Marian Gaborik', 'Anze Kopitar', 'Justin Williams', 'Jake Muzzin', 'Drew Doughty'], ['Dwight King', 'Jeff Carter', 'Tyler Toffoli', 'Brayden McNabb', 'Alec Martinez']], u'CBJ': [['Nick Foligno', 'Ryan Johansen', 'Cam Atkinson'], ['Scott Hartnell', 'Brandon Dubinsky', 'Corey Tropp'], ['Matt Calvert', 'Artem Anisimov', 'Alexander Wennberg'], ['Jack Skille', 'Mark Letestu', 'Jared Boll'], ['Fedor Tyutin', 'Jack Johnson'], ['Ryan Murray', 'David Savard'], ['Kevin Connauton', 'James Wisniewski'], ['Nick Foligno', 'Ryan Johansen', 'Cam Atkinson', 'Jack Johnson', 'David Savard'], ['Scott Hartnell', 'Artem Anisimov', 'Brandon Dubinsky', 'Ryan Murray', 'James Wisniewski']], u'BUF': [['Tyler Ennis', 'Zemgus  Girgensons', 'Chris Stewart'], ['Matt Moulson', 'Torrey Mitchell', 'Brian Gionta'], ['Nicolas Deslauriers', 'Brian Flynn', 'Drew Stafford'], ['Andre Benoit', 'Matt Ellis', 'Patrick Kaleta'], ['Josh Gorges', 'Tyler Myers'], ['Nikita Zadorov', 'Rasmus Ristolainen'], ['Mike Weber', 'Andrej Meszaros'], ['Chris Stewart', 'Zemgus  Girgensons', 'Tyler Ennis', 'Nikita Zadorov', 'Tyler Myers'], ['Matt Moulson', 'Brian Flynn', 'Drew Stafford', 'Josh Gorges', 'Rasmus Ristolainen']], u'EDM': [['Benoit Pouliot', 'Ryan Nugent-Hopkins', 'Jordan Eberle'], ['Nail Yakupov', 'Derek Roy', 'Teddy Purcell'], ['Matt Hendricks', 'Boyd Gordon', 'Rob Klinkhammer'], ['Matt Fraser', 'Anton Lander', 'Luke Gazdic'], ['Oscar Klefbom', 'Justin Schultz'], ['Andrew Ference', 'Jeff Petry'], ['Keith Aulie', 'Mark Fayne'], ['Benoit Pouliot', 'Ryan Nugent-Hopkins', 'Teddy Purcell', 'Jordan Eberle', 'Justin Schultz'], ['Matt Fraser', 'Derek Roy', 'Anton Lander', 'Nail Yakupov', 'Jeff Petry']], u'TBL': [['Valtteri Filppula', 'Steven Stamkos', 'Ryan Callahan'], ['Ondrej Palat', 'Tyler Johnson', 'Nikita Kucherov'], ['Alex Killorn', 'Cedric Paquette', 'Jonathan Drouin'], ['J.T. Brown', 'Brian Boyle', 'Brett Connolly'], ['Andrej Sustr', 'Victor Hedman'], ['Mark Barberio', 'Anton Stralman'], ['Jason Garrison', 'Nikita Nesterov'], ['Jonathan Drouin', 'Steven Stamkos', 'Ryan Callahan', 'Valtteri Filppula', 'Anton Stralman'], ['Ondrej Palat', 'Tyler Johnson', 'Brett Connolly', 'Jason Garrison', 'Nikita Kucherov']], u'WIN': [['Andrew Ladd', 'Bryan Little', 'Blake Wheeler'], ['Mathieu Perreault', 'Mark Scheifele', 'Michael Frolik'], ['Evander Kane', 'Adam Lowry', 'Chris Thorburn'], ['T.J. Galiardi', 'Jim Slater', 'Anthony Peluso'], ['Tobias Enstrom', 'Dustin Byfuglien'], ['Ben Chiarot', 'Zach Bogosian'], ['Mark Stuart', 'Jacob Trouba'], ['Evander Kane', 'Mark Scheifele', 'Michael Frolik', 'Mathieu Perreault', 'Dustin Byfuglien'], ['Andrew Ladd', 'Bryan Little', 'Blake Wheeler', 'Tobias Enstrom', 'Jacob Trouba']], u'ARI': [['Tobias Rieder', 'Antoine Vermette', 'Shane Doan'], ['Lauri Korpikoski', 'Sam Gagner', 'Martin Erat'], ['Brandon McMillan', 'Kyle Chipchura', 'David Moss'], ['Lucas Lessio', 'Brendan Shinnimin', 'B.J. Crombeen'], ['Oliver Ekman-Larsson', 'Zbynek Michalek'], ['Keith Yandle', 'Michael Stone'], ['Andrew Campbell', 'Connor Murphy'], ['Tobias Rieder', 'Antoine Vermette', 'Shane Doan', 'Oliver Ekman-Larsson', 'Keith Yandle'], ['Lauri Korpikoski', 'Sam Gagner', 'Martin Erat', 'Michael Stone', 'Connor Murphy']], u'OTT': [['Clarke MacArthur', 'Mika Zibanejad', 'Bobby Ryan'], ['Mike Hoffman', 'Kyle Turris', 'Curtis Lazar'], ['Milan Michalek', 'David Legwand', 'Mark Stone'], ['Erik Condra', 'Jean-Gabriel Pageau', 'Chris Neil'], ['Marc Methot', 'Erik Karlsson'], ['Jared Cowen', 'Cody Ceci'], ['Mark Borowiecki', 'Patrick Wiercioch'], ['Clarke MacArthur', 'Mika Zibanejad', 'Bobby Ryan', 'Erik Karlsson', 'Cody Ceci'], ['Milan Michalek', 'Kyle Turris', 'Mark Stone', 'Mike Hoffman', 'Patrick Wiercioch']]}</t>
-  </si>
-  <si>
-    <t>Brent Burns</t>
-  </si>
-  <si>
-    <t>Vincent Trocheck</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11550?tableId=10264642&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11550?tableId=10265107&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11550?tableId=10264122&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11550?tableId=10261166&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11550?tableId=10265174&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>NHL Roster Name</t>
-  </si>
-  <si>
-    <t>Slate Size</t>
-  </si>
-  <si>
-    <t>Web Interface</t>
-  </si>
-  <si>
-    <t>Need to develop a web interface to remotely build lineup. Need to host on server (GAE or RasPi?</t>
-  </si>
-  <si>
-    <t>Web Development</t>
-  </si>
-  <si>
-    <t>Matt Carkner</t>
-  </si>
-  <si>
-    <t>Matt Stajan</t>
-  </si>
-  <si>
-    <t>Jamie McGinn</t>
-  </si>
-  <si>
-    <t>Tye McGinn</t>
-  </si>
-  <si>
-    <t>Ray Whitney</t>
-  </si>
-  <si>
-    <t>Ray Emery</t>
-  </si>
-  <si>
-    <t>Reto Berra</t>
-  </si>
-  <si>
-    <t>Cody Goloubef</t>
-  </si>
-  <si>
-    <t>Mike McKenna</t>
-  </si>
-  <si>
-    <t>Mike Green</t>
-  </si>
-  <si>
-    <t>Mike Weaver</t>
-  </si>
-  <si>
-    <t>Luke Schenn</t>
-  </si>
-  <si>
-    <t>Liam O'Brien</t>
-  </si>
-  <si>
-    <t>Viktor Stalberg</t>
-  </si>
-  <si>
-    <t>Matthew Hackett</t>
-  </si>
-  <si>
-    <t>Matt Halischuk</t>
-  </si>
-  <si>
-    <t>Philipp Grubauer</t>
-  </si>
-  <si>
-    <t>Filip Forsberg</t>
-  </si>
-  <si>
-    <t>Mathew Dumba</t>
-  </si>
-  <si>
-    <t>Kyle Cumiskey</t>
-  </si>
-  <si>
-    <t>Kyle Quincey</t>
-  </si>
-  <si>
-    <t>Kyle Turris</t>
-  </si>
-  <si>
-    <t>Jacob Markstrom</t>
-  </si>
-  <si>
-    <t>Eric Brewer</t>
-  </si>
-  <si>
-    <t>Eric Fehr</t>
-  </si>
-  <si>
-    <t>Nathan Horton</t>
-  </si>
-  <si>
-    <t>Shawn Thornton</t>
-  </si>
-  <si>
-    <t>Todd Bertuzzi</t>
-  </si>
-  <si>
-    <t>Martin Brodeur</t>
-  </si>
-  <si>
-    <t>Martin Jones</t>
-  </si>
-  <si>
-    <t>Jason LaBarbera</t>
-  </si>
-  <si>
-    <t>Jason Chimera</t>
-  </si>
-  <si>
-    <t>Jason Garrison</t>
-  </si>
-  <si>
-    <t>Joey MacDonald</t>
-  </si>
-  <si>
-    <t>Andrew MacDonald</t>
-  </si>
-  <si>
-    <t>Calvin Pickard</t>
-  </si>
-  <si>
-    <t>Brad Winchester</t>
-  </si>
-  <si>
-    <t>Brad Richards</t>
-  </si>
-  <si>
-    <t>Kevin Poulin</t>
-  </si>
-  <si>
-    <t>Kevin Klein</t>
-  </si>
-  <si>
-    <t>Benoit Pouliot</t>
-  </si>
-  <si>
-    <t>Kyle Okposo</t>
-  </si>
-  <si>
-    <t>Dmitry Orlov</t>
-  </si>
-  <si>
-    <t>Dmitry Kulikov</t>
-  </si>
-  <si>
-    <t>Chad LaRose</t>
-  </si>
-  <si>
-    <t>Marcus Foligno</t>
-  </si>
-  <si>
-    <t>Nick Foligno</t>
-  </si>
-  <si>
-    <t>Marcus Johansson</t>
-  </si>
-  <si>
-    <t>Ruslan Fedotenko</t>
-  </si>
-  <si>
-    <t>Pekka Rinne</t>
-  </si>
-  <si>
-    <t>Miikka Salomaki</t>
-  </si>
-  <si>
-    <t>Matt Donovan</t>
-  </si>
-  <si>
-    <t>Chris Conner</t>
-  </si>
-  <si>
-    <t>Chris Thorburn</t>
-  </si>
-  <si>
-    <t>Erik Condra</t>
-  </si>
-  <si>
-    <t>Matt Climie</t>
-  </si>
-  <si>
-    <t>Josh Harding</t>
-  </si>
-  <si>
-    <t>Josh Jooris</t>
-  </si>
-  <si>
-    <t>Josh Gorges</t>
-  </si>
-  <si>
-    <t>Josh Bailey</t>
-  </si>
-  <si>
-    <t>Nathan Lieuwen</t>
-  </si>
-  <si>
-    <t>Michal Neuvirth</t>
-  </si>
-  <si>
-    <t>Michael Ryder</t>
-  </si>
-  <si>
-    <t>Michael Hutchinson</t>
-  </si>
-  <si>
-    <t>Paul Bissonnette</t>
-  </si>
-  <si>
-    <t>Beau Bennett</t>
-  </si>
-  <si>
-    <t>Paul Byron</t>
-  </si>
-  <si>
-    <t>David Dziurzynski</t>
-  </si>
-  <si>
-    <t>Andrew Hammond</t>
-  </si>
-  <si>
-    <t>Andrew Ladd</t>
-  </si>
-  <si>
-    <t>Andrew Shaw</t>
-  </si>
-  <si>
-    <t>Emerson Etem</t>
-  </si>
-  <si>
-    <t>Stu Bickel</t>
-  </si>
-  <si>
-    <t>Bryan Bickell</t>
-  </si>
-  <si>
-    <t>Peter Mueller</t>
-  </si>
-  <si>
-    <t>Mikkel Boedker</t>
-  </si>
-  <si>
-    <t>Mike Weber</t>
-  </si>
-  <si>
-    <t>John Gibson</t>
-  </si>
-  <si>
-    <t>Calvin de Haan</t>
-  </si>
-  <si>
-    <t>Calvin de_Haan</t>
-  </si>
-  <si>
-    <t>Harry Zolnierczyk</t>
-  </si>
-  <si>
-    <t>Steven Oleksy</t>
-  </si>
-  <si>
-    <t>Steven Stamkos</t>
-  </si>
-  <si>
-    <t>Ryan Ellis</t>
-  </si>
-  <si>
-    <t>Ryan O'Reilly</t>
-  </si>
-  <si>
-    <t>Ryan Callahan</t>
-  </si>
-  <si>
-    <t>Brandon Gormley</t>
-  </si>
-  <si>
-    <t>Brandon Bollig</t>
-  </si>
-  <si>
-    <t>Brandon Prust</t>
-  </si>
-  <si>
-    <t>Brandon Pirri</t>
-  </si>
-  <si>
-    <t>Braden Holtby</t>
-  </si>
-  <si>
-    <t>Brandon Sutter</t>
-  </si>
-  <si>
-    <t>Brian Boyle</t>
-  </si>
-  <si>
-    <t>Stefan Elliott</t>
-  </si>
-  <si>
-    <t>Mark Pysyk</t>
-  </si>
-  <si>
-    <t>Mark Fayne</t>
-  </si>
-  <si>
-    <t>Alex Grant</t>
-  </si>
-  <si>
-    <t>Alex Galchenyuk</t>
-  </si>
-  <si>
-    <t>Alex Tanguay</t>
-  </si>
-  <si>
-    <t>Alex Killorn</t>
-  </si>
-  <si>
-    <t>Alex Pietrangelo</t>
-  </si>
-  <si>
-    <t>Alex Chiasson</t>
-  </si>
-  <si>
-    <t>Jesse Winchester</t>
-  </si>
-  <si>
-    <t>Ryan Stanton</t>
-  </si>
-  <si>
-    <t>Ryan Johansen</t>
-  </si>
-  <si>
-    <t>Ryan Suter</t>
-  </si>
-  <si>
-    <t>Brad Richardson</t>
-  </si>
-  <si>
-    <t>Brett Sutter</t>
-  </si>
-  <si>
-    <t>Brent Seabrook</t>
-  </si>
-  <si>
-    <t>Marc Methot</t>
-  </si>
-  <si>
-    <t>['OTT', 'OTT', 'OTT', 'OTT']</t>
-  </si>
-  <si>
-    <t>Erik Karlsson</t>
-  </si>
-  <si>
-    <t>Cedric Paquette</t>
-  </si>
-  <si>
-    <t>['TBL', 'TBL', 'TBL', 'TBL']</t>
-  </si>
-  <si>
-    <t>['DAL', 'DAL', 'DAL', 'DAL']</t>
-  </si>
-  <si>
-    <t>Tyler Seguin</t>
-  </si>
-  <si>
-    <t>['WPG', 'WPG', 'WPG']</t>
-  </si>
-  <si>
-    <t>Pat Dwyer</t>
-  </si>
-  <si>
-    <t>Alexander Steen</t>
-  </si>
-  <si>
-    <t>Alex Steen</t>
-  </si>
-  <si>
-    <t>Christian Thomas</t>
-  </si>
-  <si>
-    <t>['STL', 'STL', 'STL']</t>
-  </si>
-  <si>
-    <t>Trevor Smith</t>
-  </si>
-  <si>
-    <t>Colin McDonald</t>
-  </si>
-  <si>
-    <t>Nathan Mackinnon</t>
-  </si>
-  <si>
-    <t>Nick Shore</t>
-  </si>
-  <si>
-    <t>Zemgus  Girgensons</t>
-  </si>
-  <si>
-    <t>T.J. Galiardi</t>
-  </si>
-  <si>
-    <t>Alexander Semin</t>
-  </si>
-  <si>
-    <t>Alexander Edler</t>
-  </si>
-  <si>
-    <t>Frans Nielse</t>
-  </si>
-  <si>
-    <t>Michael Grabne</t>
-  </si>
-  <si>
-    <t>Brock Nelso</t>
-  </si>
-  <si>
-    <t>Matt Marti</t>
-  </si>
-  <si>
-    <t>Tomas Fleischma</t>
-  </si>
-  <si>
-    <t>Jussi Jokine</t>
-  </si>
-  <si>
-    <t>Shawn Thornto</t>
-  </si>
-  <si>
-    <t>Erik Gudbranso</t>
-  </si>
-  <si>
-    <t>Nathan Mackinno</t>
-  </si>
-  <si>
-    <t>Nate Gueni</t>
-  </si>
-  <si>
-    <t>Nick Holde</t>
-  </si>
-  <si>
-    <t>Jaromir Jag</t>
-  </si>
-  <si>
-    <t>Steve Bernie</t>
-  </si>
-  <si>
-    <t>Jacob Josefso</t>
-  </si>
-  <si>
-    <t>Adam Larsso</t>
-  </si>
-  <si>
-    <t>Mark Frase</t>
-  </si>
-  <si>
-    <t>Jamie Be</t>
-  </si>
-  <si>
-    <t>Tyler Segui</t>
-  </si>
-  <si>
-    <t>Cody Eaki</t>
-  </si>
-  <si>
-    <t>Vernon Fiddle</t>
-  </si>
-  <si>
-    <t>Colton Sceviou</t>
-  </si>
-  <si>
-    <t>Jordie Be</t>
-  </si>
-  <si>
-    <t>Sean Monaha</t>
-  </si>
-  <si>
-    <t>Jiri Hudle</t>
-  </si>
-  <si>
-    <t>Matt Staja</t>
-  </si>
-  <si>
-    <t>Paul Byro</t>
-  </si>
-  <si>
-    <t>Dennis Widema</t>
-  </si>
-  <si>
-    <t>Derek Stepa</t>
-  </si>
-  <si>
-    <t>Chris Kreide</t>
-  </si>
-  <si>
-    <t>Carl Hageli</t>
-  </si>
-  <si>
-    <t>Kevin Klei</t>
-  </si>
-  <si>
-    <t>Melker Karlsso</t>
-  </si>
-  <si>
-    <t>Joe Thornto</t>
-  </si>
-  <si>
-    <t>Tye McGi</t>
-  </si>
-  <si>
-    <t>Brenden Dillo</t>
-  </si>
-  <si>
-    <t>Matt Tennyso</t>
-  </si>
-  <si>
-    <t>Matt Irwi</t>
-  </si>
-  <si>
-    <t>Scott Hanna</t>
-  </si>
-  <si>
-    <t>David Perro</t>
-  </si>
-  <si>
-    <t>Brandon Sutte</t>
-  </si>
-  <si>
-    <t>Paul Marti</t>
-  </si>
-  <si>
-    <t>Daniel Sedi</t>
-  </si>
-  <si>
-    <t>Henrik Sedi</t>
-  </si>
-  <si>
-    <t>Jannik Hanse</t>
-  </si>
-  <si>
-    <t>Alexander Edle</t>
-  </si>
-  <si>
-    <t>Dmitrij Jaski</t>
-  </si>
-  <si>
-    <t>Jay Bouwmeeste</t>
-  </si>
-  <si>
-    <t>Carl Gunnarsso</t>
-  </si>
-  <si>
-    <t>Barret Jackma</t>
-  </si>
-  <si>
-    <t>Teuvo Teravaine</t>
-  </si>
-  <si>
-    <t>Marcus Kruge</t>
-  </si>
-  <si>
-    <t>Niklas Hjalmarsso</t>
-  </si>
-  <si>
-    <t>Brendan Gallaghe</t>
-  </si>
-  <si>
-    <t>Lars Elle</t>
-  </si>
-  <si>
-    <t>P.K. Subba</t>
-  </si>
-  <si>
-    <t>Mike Weave</t>
-  </si>
-  <si>
-    <t>Alexei Emeli</t>
-  </si>
-  <si>
-    <t>Brayden Sche</t>
-  </si>
-  <si>
-    <t>R.J. Umberge</t>
-  </si>
-  <si>
-    <t>Sean Couturie</t>
-  </si>
-  <si>
-    <t>Vincent Lecavalie</t>
-  </si>
-  <si>
-    <t>Luke Sche</t>
-  </si>
-  <si>
-    <t>Patrick Maroo</t>
-  </si>
-  <si>
-    <t>Ryan Kesle</t>
-  </si>
-  <si>
-    <t>Nate Thompso</t>
-  </si>
-  <si>
-    <t>Cam Fowle</t>
-  </si>
-  <si>
-    <t>Francois Beauchemi</t>
-  </si>
-  <si>
-    <t>Clayton Stone</t>
-  </si>
-  <si>
-    <t>Sami Vatane</t>
-  </si>
-  <si>
-    <t>Anze Kopita</t>
-  </si>
-  <si>
-    <t>Dustin Brow</t>
-  </si>
-  <si>
-    <t>Jeff Carte</t>
-  </si>
-  <si>
-    <t>Jordan Nola</t>
-  </si>
-  <si>
-    <t>Jake Muzzi</t>
-  </si>
-  <si>
-    <t>Robyn Regeh</t>
-  </si>
-  <si>
-    <t>Ryan Johanse</t>
-  </si>
-  <si>
-    <t>Cam Atkinso</t>
-  </si>
-  <si>
-    <t>Fedor Tyuti</t>
-  </si>
-  <si>
-    <t>Jack Johnso</t>
-  </si>
-  <si>
-    <t>Kevin Connauto</t>
-  </si>
-  <si>
-    <t>Matt Moulso</t>
-  </si>
-  <si>
-    <t>Brian Fly</t>
-  </si>
-  <si>
-    <t>Rasmus Ristolaine</t>
-  </si>
-  <si>
-    <t>Mike Webe</t>
-  </si>
-  <si>
-    <t>Boyd Gordo</t>
-  </si>
-  <si>
-    <t>Rob Klinkhamme</t>
-  </si>
-  <si>
-    <t>Matt Frase</t>
-  </si>
-  <si>
-    <t>Anton Lande</t>
-  </si>
-  <si>
-    <t>Ryan Callaha</t>
-  </si>
-  <si>
-    <t>Tyler Johnso</t>
-  </si>
-  <si>
-    <t>Alex Killo</t>
-  </si>
-  <si>
-    <t>Jonathan Droui</t>
-  </si>
-  <si>
-    <t>J.T. Brow</t>
-  </si>
-  <si>
-    <t>Andrej Sust</t>
-  </si>
-  <si>
-    <t>Victor Hedma</t>
-  </si>
-  <si>
-    <t>Anton Stralma</t>
-  </si>
-  <si>
-    <t>Jason Garriso</t>
-  </si>
-  <si>
-    <t>Blake Wheele</t>
-  </si>
-  <si>
-    <t>Chris Thorbu</t>
-  </si>
-  <si>
-    <t>Jim Slate</t>
-  </si>
-  <si>
-    <t>Dustin Byfuglie</t>
-  </si>
-  <si>
-    <t>Zach Bogosia</t>
-  </si>
-  <si>
-    <t>Tobias Riede</t>
-  </si>
-  <si>
-    <t>Shane Doa</t>
-  </si>
-  <si>
-    <t>Sam Gagne</t>
-  </si>
-  <si>
-    <t>Brandon McMilla</t>
-  </si>
-  <si>
-    <t>Brendan Shinnimi</t>
-  </si>
-  <si>
-    <t>B.J. Crombee</t>
-  </si>
-  <si>
-    <t>Oliver Ekman-Larsso</t>
-  </si>
-  <si>
-    <t>Clarke MacArthu</t>
-  </si>
-  <si>
-    <t>Bobby Rya</t>
-  </si>
-  <si>
-    <t>Mike Hoffma</t>
-  </si>
-  <si>
-    <t>Curtis Laza</t>
-  </si>
-  <si>
-    <t>Erik Karlsso</t>
-  </si>
-  <si>
-    <t>Jared Cowe</t>
+    <t>Jakub Kindl</t>
+  </si>
+  <si>
+    <t>Jimmy Howard</t>
+  </si>
+  <si>
+    <t>Jimmy Hayes</t>
+  </si>
+  <si>
+    <t>Daniel Carcillo</t>
+  </si>
+  <si>
+    <t>Daniel Paille</t>
+  </si>
+  <si>
+    <t>{u'MIN': [['Zach Parise', 'Mikko Koivu', 'Jason Pominville'], ['Thomas Vanek', 'Mikael Granlund', 'Justin Fontaine'], ['Nino Niederreiter', 'Charlie Coyle', 'Jordan Schroeder'], ['Stephane Veilleux', 'Erik Haula', 'Kyle Brodziak'], ['Ryan Suter', 'Jonas Brodin'], ['Marco Scandella', 'Jared Spurgeon'], ['Nate Prosser', 'Mathew Dumba'], ['Zach Parise', 'Mikko Koivu', 'Thomas Vanek', 'Ryan Suter', 'Jason Pominville'], ['Nino Niederreiter', 'Mikael Granlund', 'Charlie Coyle', 'Jared Spurgeon', 'Mathew Dumba']], u'TOR': [['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel'], ['Daniel Winnik', 'Nazem Kadri', 'Richard Panik'], ['Leo Komarov', 'Olli Jokinen', 'David Clarkson'], ['David Booth', 'Peter Holland', 'Brandon Kozun'], ['Morgan Rielly', 'Roman Polak'], ['Jake Gardiner', 'Korbinian Holzer'], ['Stephane Robidas', 'Petter Granberg'], ['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel', 'Morgan Rielly', 'Nazem Kadri'], ['Richard Panik', 'Peter Holland', 'David Clarkson', 'Jake Gardiner', 'Stephane Robidas']], u'CAR': [['Eric Staal', 'Jordan Staal', 'Jiri Tlusty'], ['Jeff Skinner', 'Victor Rask', 'Elias Lindholm'], ['Nathan Gerbe', 'Andrej Nestrasil', 'Chris Terry'], ['Brad Malone', 'Jay McClement', 'Pat Dwyer'], ['Andrej Sekera', 'Justin Faulk'], ['Tim Gleason', 'Michal Jordan'], ['Ron Hainsey', 'John-Michael Liles'], ['Jiri Tlusty', 'Eric Staal', 'Elias Lindholm', 'Michal Jordan', 'Justin Faulk'], ['Brad Malone', 'Jordan Staal', 'Riley Nash', 'Andrej Sekera', 'Jeff Skinner']], u'BOS': [['Milan Lucic', 'David Krejci', 'Reilly Smith'], ['Brad Marchand', 'Patrice Bergeron', 'Loui Eriksson'], ['Chris Kelly', 'Carl Soderberg', 'David Pastrnak'], ['Daniel Paille', 'Gregory Campbell', 'Craig Cunningham'], ['Zdeno Chara', 'Dougie Hamilton'], ['Dennis Seidenberg', 'Matt Bartkowski'], ['Torey Krug', 'Kevan Miller'], ['Matt Bartkowski', 'Patrice Bergeron', 'Loui Eriksson', 'Reilly Smith', 'Dougie Hamilton'], ['Brad Marchand', 'David Krejci', 'Milan Lucic', 'Zdeno Chara', 'Torey Krug']], u'DET': [['Justin Abdelkader', 'Henrik Zetterberg', 'Teemu Pulkkinen'], ['Tomas Tatar', 'Pavel Datsyuk', 'Darren Helm'], ['Gustav Nyquist', 'Riley Sheahan', 'Stephen Weiss'], ['Drew Miller', 'Joakim Andersson', 'Luke Glendening'], ['Jonathan Ericsson', 'Niklas Kronwall'], ['Kyle Quincey', 'Dan DeKeyser'], ['Brendan Smith', 'Alexey Marchenko'], ['Gustav Nyquist', 'Henrik Zetterberg', 'Justin Abdelkader', 'Stephen Weiss', 'Niklas Kronwall'], ['Tomas Tatar', 'Pavel Datsyuk', 'Riley Sheahan', 'Teemu Pulkkinen', 'Dan DeKeyser']], u'NAS': [['Colin Wilson', 'Mike Ribeiro', 'James Neal'], ['Matt Cullen', 'Mike Fisher', 'Craig Smith'], ['Filip Forsberg', 'Calle Jarnkrok', 'Taylor Beck'], ['Eric Nystrom', 'Paul Gaustad', 'Gabriel Bourque'], ['Roman Josi', 'Shea Weber'], ['Mattias Ekholm', 'Victor Bartley'], ['Anthony Bitetto', 'Seth Jones'], ['Filip Forsberg', 'Mike Fisher', 'James Neal', 'Roman Josi', 'Shea Weber'], ['Colin Wilson', 'Mike Ribeiro', 'Craig Smith', 'Mattias Ekholm', 'Seth Jones']], u'NYI': [['Anders Lee', 'John Tavares', 'Josh Bailey'], ['Michael Grabner', 'Frans Nielsen', 'Ryan Strome'], ['Nikolay Kulemin', 'Mikhail Grabovski', 'Cal Clutterbuck'], ['Matt Martin', 'Brock Nelson', 'Colin McDonald'], ['Nick Leddy', 'Johnny Boychuk'], ['Brian Strait', 'Travis Hamonic'], ['Thomas Hickey', 'Calvin de Haan'], ['Anders Lee', 'John Tavares', 'Frans Nielsen', 'Nick Leddy', 'Johnny Boychuk'], ['Mikhail Grabovski', 'Brock Nelson', 'Ryan Strome', 'Thomas Hickey', 'Travis Hamonic']], u'FLA': [['Jussi Jokinen', 'Nick Bjugstad', 'Jimmy Hayes'], ['Jonathan Huberdeau', 'Aleksander Barkov', 'Brad Boyes'], ['Tomas Fleischmann', 'Dave Bolland', 'Scottie Upshall'], ['Tomas Kopecky', 'Derek MacKenzie', 'Shawn Thornton'], ['Brian Campbell', 'Aaron Ekblad'], ['Steve Kampfer', 'Erik Gudbranson'], ["Shane O'Brien", 'Alex Petrovic'], ['Jonathan Huberdeau', 'Nick Bjugstad', 'Jimmy Hayes', 'Aleksander Barkov', 'Aaron Ekblad'], ['Tomas Fleischmann', 'Dave Bolland', 'Brad Boyes', 'Brian Campbell', 'Jussi Jokinen']], u'COL': [['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon'], ['Max Talbot', 'Matt Duchene', 'Jarome Iginla'], ['Alex Tanguay', 'John Mitchell', 'Dennis Everberg'], ['Cody McLeod', 'Marc-Andre Cliche', 'Paul Carey'], ['Nate Guenin', 'Tyson Barrie'], ['Jan Hejda', 'Zach Redmond'], ['Brad Stuart', 'Nick Holden'], ['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon', 'Jarome Iginla', 'Tyson Barrie'], ['Alex Tanguay', 'Matt Duchene', 'John Mitchell', 'Nick Holden', 'Zach Redmond']], u'NJD': [['Adam Henrique', 'Patrik Elias', 'Steve Bernier'], ['Tuomo Ruutu', 'Scott Gomez', 'Jaromir Jagr'], ['Michael Cammalleri', 'Travis Zajac', 'Jordin Tootoo'], ['Dainius Zubrus', 'Jacob Josefson', 'Stephen Gionta'], ['Andy Greene', 'Adam Larsson'], ['Jon Merrill', 'Marek Zidlicky'], ['Eric Gelinas', 'Peter Harrold'], ['Steve Bernier', 'Scott Gomez', 'Jaromir Jagr', 'Eric Gelinas', 'Michael Cammalleri'], ['Patrik Elias', 'Adam Henrique', 'Jordin Tootoo', 'Travis Zajac', 'Marek Zidlicky']], u'DAL': [['Jamie Benn', 'Jason Spezza', 'Erik Cole'], ['Antoine Roussel', 'Cody Eakin', 'Ryan Garbutt'], ['Curtis McKenzie', 'Vernon Fiddler', 'Brett Ritchie'], ['Travis Moen', 'Shawn Horcoff', 'Colton Sceviour'], ['Alex Goligoski', 'John Klingberg'], ['Jyrki Jokipakka', 'Trevor Daley'], ['Jordie Benn', 'Jason Demers'], ['Jamie Benn', 'Jason Spezza', 'Brett Ritchie', 'Trevor Daley', 'John Klingberg'], ['Erik Cole', 'Cody Eakin', 'Curtis McKenzie', 'Alex Goligoski', 'Jason Demers']], u'CGY': [['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler'], ['Lance Bouma', 'Mikael Backlund', 'David Jones'], ['Curtis Glencross', 'Josh Jooris', 'Mason Raymond'], ['Brandon Bollig', 'Matt Stajan', 'Joe Colborne'], ['Mark Giordano', 'T.J. Brodie'], ['Kris Russell', 'Dennis Wideman'], ['Raphael Diaz', 'Deryk Engelland'], ['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler', 'T.J. Brodie', 'Dennis Wideman'], ['Mason Raymond', 'Mikael Backlund', 'David Jones', 'Mark Giordano', 'Raphael Diaz']], u'NYR': [['Rick Nash', 'Derick Brassard', 'Mats Zuccarello'], ['Chris Kreider', 'Derek Stepan', 'Martin St. Louis'], ['Carl Hagelin', 'Kevin Hayes', 'J.T. Miller'], ['Tanner Glass', 'Dominic Moore', 'Lee Stempniak'], ['Ryan McDonagh', 'Dan Girardi'], ['Marc Staal', 'Kevin Klein'], ['Dan Boyle', 'Matt Hunwick'], ['Rick Nash', 'Derick Brassard', 'Mats Zuccarello', 'Ryan McDonagh', 'Derek Stepan'], ['Chris Kreider', 'Kevin Hayes', 'Martin St. Louis', 'Dan Boyle', 'Dan Girardi']], u'SJS': [['Melker Karlsson', 'Joe Thornton', 'Joe Pavelski'], ['Patrick Marleau', 'Logan Couture', 'Matthew Nieto'], ['Tomas Hertl', 'Chris Tierney', 'Tommy Wingels'], ['Barclay Goodrow', 'James Sheppard', 'Tyler Kennedy'], ['Marc-Edouard Vlasic', 'Brent Burns'], ['Brenden Dillon', 'Justin Braun'], ['Matt Irwin', 'Scott Hannan'], ['Patrick Marleau', 'Joe Thornton', 'Logan Couture', 'Joe Pavelski', 'Brent Burns'], ['Melker Karlsson', 'Tomas Hertl', 'Matthew Nieto', 'Matt Irwin', 'Marc-Edouard Vlasic']], u'PIT': [['Chris Kunitz', 'Sidney Crosby', 'David Perron'], ['Blake Comeau', 'Evgeni Malkin', 'Patric Hornqvist'], ['Nick Spaling', 'Brandon Sutter', 'Beau Bennett'], ['Craig Adams', 'Maxim Lapierre', 'Steve Downie'], ['Paul Martin', 'Kris Letang'], ['Rob Scuderi', 'Simon Despres'], ['Derrick Pouliot', 'Robert Bortuzzo'], ['Chris Kunitz', 'Sidney Crosby', 'David Perron', 'Derrick Pouliot', 'Kris Letang'], ['Blake Comeau', 'Evgeni Malkin', 'Patric Hornqvist', 'Paul Martin', 'Simon Despres']], u'VAN': [['Daniel Sedin', 'Henrik Sedin', 'Alexandre Burrows'], ['Chris Higgins', 'Linden Vey', 'Radim Vrbata'], ['Derek Dorsett', 'Shawn Matthias', 'Zack Kassian'], ['Ronalds Kenins', 'Bo Horvat', 'Jannik Hansen'], ['Dan Hamhuis', 'Yannick Weber'], ['Ryan Stanton', 'Adam Clendening'], ['Luca Sbisa', 'Alex Biega'], ['Daniel Sedin', 'Henrik Sedin', 'Alexandre Burrows', 'Radim Vrbata', 'Adam Clendening'], ['Chris Higgins', 'Linden Vey', 'Jannik Hansen', 'Dan Hamhuis', 'Yannick Weber']], u'STL': [['Alex Steen', 'David Backes', 'T.J. Oshie'], ['Jaden Schwartz', 'Jori Lehtera', 'Vladimir Tarasenko'], ['Dmitrij Jaskin', 'Paul Stastny', 'Patrik Berglund'], ['Steve Ott', 'Marcel Goc', 'Ryan Reaves'], ['Chris Butler', 'Alex Pietrangelo'], ['Carl Gunnarsson', 'Jay Bouwmeester'], ['Barret Jackman', 'Ian Cole'], ['David Backes', 'Paul Stastny', 'T.J. Oshie', 'Jay Bouwmeester', 'Alex Pietrangelo'], ['Jaden Schwartz', 'Jori Lehtera', 'Vladimir Tarasenko', 'Alex Steen', 'Dmitrij Jaskin']], u'CHI': [['Brandon Saad', 'Jonathan Toews', 'Marian Hossa'], ['Kris Versteeg', 'Brad Richards', 'Patrick Kane'], ['Bryan Bickell', 'Andrew Shaw', 'Ryan Hartman'], ['Patrick Sharp', 'Marcus Kruger', 'Ben Smith'], ['Duncan Keith', 'Michal Rozsival'], ['Niklas Hjalmarsson', 'Johnny Oduya'], ['Kyle Cumiskey', 'Brent Seabrook'], ['Brandon Saad', 'Jonathan Toews', 'Marian Hossa', 'Patrick Kane', 'Brent Seabrook'], ['Patrick Sharp', 'Brad Richards', 'Andrew Shaw', 'Duncan Keith', 'Michal Rozsival']], u'MTL': [['Max Pacioretty', 'David Desharnais', 'Dale Weise'], ['Alex Galchenyuk', 'Tomas Plekanec', 'Brendan Gallagher'], ['Brandon Prust', 'Lars Eller', 'Jiri Sekac'], ['Michael Bournival', 'Jacob De La Rose', 'Christian Thomas'], ['Andrei Markov', 'P.K. Subban'], ['Tom Gilbert', 'Alexei Emelin'], ['Nathan Beaulieu', 'Greg Pateryn'], ['Max Pacioretty', 'David Desharnais', 'Brendan Gallagher', 'Andrei Markov', 'P.K. Subban'], ['Alex Galchenyuk', 'Tomas Plekanec', 'Lars Eller', 'Nathan Beaulieu', 'Tom Gilbert']], u'PHI': [['Brayden Schenn', 'Claude Giroux', 'Jakub Voracek'], ['Matt Read', 'Sean Couturier', 'Wayne Simmonds'], ['Ryan White', 'Michael Raffl', 'R.J. Umberger'], ['Chris VandeVelde', 'Vincent Lecavalier'], ['Nick Schultz', 'Mark Streit'], ['Nicklas Grossmann', 'Braydon Coburn'], ['Michael Del Zotto', 'Luke Schenn'], ['Brayden Schenn', 'Claude Giroux', 'Wayne Simmonds', 'Jakub Voracek', 'Mark Streit'], ['R.J. Umberger', 'Sean Couturier', 'Vincent Lecavalier', 'Matt Read', 'Michael Del Zotto']], u'ANA': [['Patrick Maroon', 'Ryan Getzlaf', 'Corey Perry'], ['Devante Smith-Pelly', 'Ryan Kesler', 'Kyle Palmieri'], ['Andrew Cogliano', 'Rickard Rakell', 'Jakob Silfverberg'], ['Emerson Etem', 'Nate Thompson', 'Tim Jackman'], ['Cam Fowler', 'Ben Lovejoy'], ['Hampus Lindholm', 'Francois Beauchemin'], ['Clayton Stoner', 'Josh Manson'], ['Patrick Maroon', 'Ryan Getzlaf', 'Corey Perry', 'Cam Fowler', 'Hampus Lindholm'], ['Kyle Palmieri', 'Ryan Kesler', 'Jakob Silfverberg', 'Francois Beauchemin', 'Rickard Rakell']], u'LAK': [['Marian Gaborik', 'Anze Kopitar', 'Trevor Lewis'], ['Dwight King', 'Jeff Carter', 'Tyler Toffoli'], ['Dustin Brown', 'Jarret Stoll', 'Justin Williams'], ['Kyle Clifford', 'Nick Shore', 'Jordan Nolan'], ['Robyn Regehr', 'Drew Doughty'], ['Jake Muzzin', 'Matt Greene'], ['Brayden McNabb', 'Jamie McBain'], ['Marian Gaborik', 'Anze Kopitar', 'Jeff Carter', 'Jake Muzzin', 'Drew Doughty'], ['Dwight King', 'Nick Shore', 'Tyler Toffoli', 'Brayden McNabb', 'Jamie McBain']], u'CBJ': [['Scott Hartnell', 'Ryan Johansen', 'Corey Tropp'], ['Matt Calvert', 'Brandon Dubinsky', 'Cam Atkinson'], ['Alexander Wennberg', 'Artem Anisimov', 'Marko Dano'], ['Jack Skille', 'Mark Letestu', 'Jared Boll'], ['Jack Johnson', 'David Savard'], ['Kevin Connauton', 'James Wisniewski'], ['Fedor Tyutin', 'Cody Goloubef'], ['Scott Hartnell', 'Ryan Johansen', 'Alexander Wennberg', 'Kevin Connauton', 'James Wisniewski'], ['Artem Anisimov', 'Brandon Dubinsky', 'Cam Atkinson', 'Jack Johnson', 'David Savard']], u'BUF': [['Chris Stewart', 'Zemgus  Girgensons', 'Tyler Ennis'], ['Matt Moulson', 'Torrey Mitchell', 'Brian Gionta'], ['Marcus Foligno', 'Brian Flynn', 'Nicolas Deslauriers'], ['Johan Larsson', 'Matt Ellis', 'Cody Hodgson'], ['Andre Benoit', 'Zach Bogosian'], ['Nikita Zadorov', 'Rasmus Ristolainen'], ['Mike Weber', 'Andrej Meszaros'], ['Matt Moulson', 'Zemgus  Girgensons', 'Chris Stewart', 'Tyler Ennis', 'Zach Bogosian'], ['Marcus Foligno', 'Brian Flynn', 'Brian Gionta', 'Nikita Zadorov', 'Rasmus Ristolainen']], u'EDM': [['Teddy Purcell', 'Ryan Nugent-Hopkins', 'Jordan Eberle'], ['Ryan  Hamilton', 'Derek Roy', 'Nail Yakupov'], ['Benoit Pouliot', 'Anton Lander', 'Iiro Pakarinen'], ['Matt Hendricks', 'Boyd Gordon', 'Matt Fraser'], ['Andrew Ference', 'Jeff Petry'], ['Oscar Klefbom', 'Justin Schultz'], ['Martin Marincin', 'Mark Fayne'], ['Teddy Purcell', 'Anton Lander', 'Jordan Eberle', 'Ryan Nugent-Hopkins', 'Justin Schultz'], ['Benoit Pouliot', 'Derek Roy', 'Iiro Pakarinen', 'Nail Yakupov', 'Jeff Petry']], u'TBL': [['Alex Killorn', 'Steven Stamkos', 'Ryan Callahan'], ['Ondrej Palat', 'Tyler Johnson', 'Nikita Kucherov'], ['Cedric Paquette', 'Valtteri Filppula', 'Brett Connolly'], ['Jonathan Drouin', 'Brian Boyle', 'J.T. Brown'], ['Victor Hedman', 'Andrej Sustr'], ['Mark Barberio', 'Anton Stralman'], ['Jason Garrison', 'Nikita Nesterov'], ['Alex Killorn', 'Steven Stamkos', 'Valtteri Filppula', 'Victor Hedman', 'Jason Garrison'], ['Ondrej Palat', 'Tyler Johnson', 'Ryan Callahan', 'Anton Stralman', 'Nikita Kucherov']], u'WIN': [['Andrew Ladd', 'Bryan Little', 'Blake Wheeler'], ['Michael Frolik', 'Mark Scheifele', 'Drew Stafford'], ['Chris Thorburn', 'Adam Lowry', 'T.J. Galiardi'], ['Carl Klingberg', 'Jim Slater', 'Anthony Peluso'], ['Ben Chiarot', 'Dustin Byfuglien'], ['Tobias Enstrom', 'Tyler Myers'], ['Mark Stuart', 'Jacob Trouba'], ['Andrew Ladd', 'Bryan Little', 'Blake Wheeler', 'Tobias Enstrom', 'Dustin Byfuglien'], ['Michael Frolik', 'Mark Scheifele', 'Drew Stafford', 'Jacob Trouba', 'Tyler Myers']], u'ARI': [['Lauri Korpikoski', 'Antoine Vermette', 'Martin Erat'], ['Tobias Rieder', 'Mark Arcobello', 'Sam Gagner'], ['Lucas Lessio', 'Kyle Chipchura', 'Shane Doan'], ['Jordan Martinook', 'Joe Vitale', 'David Moss'], ['Oliver Ekman-Larsson', 'Brandon Gormley'], ['Keith Yandle', 'Michael Stone'], ['Andrew Campbell', 'Connor Murphy'], ['Tobias Rieder', 'Antoine Vermette', 'Shane Doan', 'Oliver Ekman-Larsson', 'Keith Yandle'], ['Lauri Korpikoski', 'Sam Gagner', 'Martin Erat', 'Michael Stone', 'Connor Murphy']], u'OTT': [['Mike Hoffman', 'Mika Zibanejad', 'Bobby Ryan'], ['Milan Michalek', 'Kyle Turris', 'Mark Stone'], ['Shane Prince', 'David Legwand', 'Alex Chiasson'], ['Curtis Lazar', 'Jean-Gabriel Pageau', 'Erik Condra'], ['Marc Methot', 'Erik Karlsson'], ['Cody Ceci', 'Jared Cowen'], ['Mark Borowiecki', 'Eric Gryba'], ['Milan Michalek', 'Kyle Turris', 'Mark Stone', 'Cody Ceci', 'Erik Karlsson'], ['David Legwand', 'Mika Zibanejad', 'Bobby Ryan', 'Mike Hoffman', 'Eric Gryba']]}</t>
+  </si>
+  <si>
+    <t>Johan Larsson</t>
+  </si>
+  <si>
+    <t>Jordan Martinook</t>
+  </si>
+  <si>
+    <t>Andrei Vasilevskiy</t>
+  </si>
+  <si>
+    <t>Alex Biega</t>
+  </si>
+  <si>
+    <t>['BOS', 'BOS', 'BOS', 'BOS', 'BOS', 'BOS', 'BOS', 'BOS']</t>
+  </si>
+  <si>
+    <t>['OTT', 'OTT', 'OTT', 'OTT', 'OTT', 'OTT', 'OTT', 'OTT', 'OTT']</t>
+  </si>
+  <si>
+    <t>Valtteri Filppula</t>
+  </si>
+  <si>
+    <t>['TBL', 'TBL', 'TBL', 'TBL', 'TBL', 'TBL', 'TBL', 'TBL', 'TBL', 'TBL']</t>
+  </si>
+  <si>
+    <t>['CHI', 'CHI', 'CHI', 'CHI', 'CHI', 'CHI', 'CHI', 'CHI', 'CHI']</t>
   </si>
   <si>
     <t>Jonathan Toews</t>
   </si>
   <si>
-    <t>['CHI', 'CHI', 'CHI', 'CHI', 'CHI']</t>
-  </si>
-  <si>
-    <t>Zemgus Girgensons</t>
-  </si>
-  <si>
-    <t>TJ Galiardi</t>
-  </si>
-  <si>
-    <t>T.J. Oshie</t>
+    <t>Brandon Saad</t>
+  </si>
+  <si>
+    <t>Jeff Carter</t>
+  </si>
+  <si>
+    <t>['LAK', 'LAK', 'LAK', 'LAK', 'LAK', 'LAK', 'LAK', 'LAK']</t>
+  </si>
+  <si>
+    <t>['DET', 'DET', 'DET']</t>
+  </si>
+  <si>
+    <t>Excel Interface</t>
+  </si>
+  <si>
+    <t>Need to make excel interface for input parameters (contest, losing teams, ex players etc.)</t>
+  </si>
+  <si>
+    <t>Interface</t>
   </si>
 </sst>
 </file>
@@ -2522,11 +2568,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="198206208"/>
-        <c:axId val="198207744"/>
+        <c:axId val="68473600"/>
+        <c:axId val="68475136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198206208"/>
+        <c:axId val="68473600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2535,7 +2581,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198207744"/>
+        <c:crossAx val="68475136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2543,7 +2589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198207744"/>
+        <c:axId val="68475136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2554,7 +2600,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198206208"/>
+        <c:crossAx val="68473600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2667,11 +2713,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198236032"/>
-        <c:axId val="198237568"/>
+        <c:axId val="91232128"/>
+        <c:axId val="91233664"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="198236032"/>
+        <c:axId val="91232128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2680,7 +2726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198237568"/>
+        <c:crossAx val="91233664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2688,7 +2734,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198237568"/>
+        <c:axId val="91233664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2699,7 +2745,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198236032"/>
+        <c:crossAx val="91232128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2799,7 +2845,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Cole MacLean" refreshedDate="42015.695505324074" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="6">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:L1048576" sheet="Performance Monitoring"/>
+    <worksheetSource ref="A1:M1048576" sheet="Performance Monitoring"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Contest Date" numFmtId="0">
@@ -3366,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3374,7 +3420,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3382,7 +3428,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3390,7 +3436,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3406,7 +3452,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3449,10 +3495,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3465,55 +3511,59 @@
     <col min="6" max="6" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.28515625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="14" customWidth="1"/>
+    <col min="11" max="12" width="9.28515625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>183</v>
+      <c r="J1" s="14" t="s">
+        <v>532</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>42034</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C2" s="5">
         <v>1329.8</v>
@@ -3528,7 +3578,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H2" s="5">
         <v>5</v>
@@ -3536,23 +3586,27 @@
       <c r="I2" s="14">
         <v>9</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="14">
+        <f>I2-E2</f>
+        <v>4</v>
+      </c>
+      <c r="K2" s="5">
         <v>11</v>
       </c>
-      <c r="K2" s="5">
-        <f t="shared" ref="K2:K6" si="0">J2/D2</f>
+      <c r="L2" s="5">
+        <f t="shared" ref="L2:L7" si="0">K2/D2</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="L2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>42034</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C3" s="5">
         <v>1401.8</v>
@@ -3567,7 +3621,7 @@
         <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H3" s="5">
         <v>5</v>
@@ -3575,23 +3629,27 @@
       <c r="I3" s="14">
         <v>3.6</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="14">
+        <f t="shared" ref="J3:J16" si="1">I3-E3</f>
+        <v>1.6</v>
+      </c>
+      <c r="K3" s="5">
         <v>6</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>42034</v>
       </c>
       <c r="B4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C4" s="5">
         <v>1654.2</v>
@@ -3606,7 +3664,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H4" s="5">
         <v>5</v>
@@ -3614,23 +3672,27 @@
       <c r="I4" s="14">
         <v>8.18</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="14">
+        <f t="shared" si="1"/>
+        <v>3.1799999999999997</v>
+      </c>
+      <c r="K4" s="5">
         <v>11</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <f t="shared" si="0"/>
         <v>0.27500000000000002</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>42035</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="C5" s="5">
         <v>2289.6</v>
@@ -3645,7 +3707,7 @@
         <v>45</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H5" s="5">
         <v>5</v>
@@ -3653,23 +3715,27 @@
       <c r="I5" s="14">
         <v>0</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="14">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="K5" s="5">
         <v>41</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <f t="shared" si="0"/>
         <v>0.51249999999999996</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>42035</v>
       </c>
       <c r="B6" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="C6" s="5">
         <v>1980.4</v>
@@ -3684,7 +3750,7 @@
         <v>29</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H6" s="5">
         <v>5</v>
@@ -3692,23 +3758,27 @@
       <c r="I6" s="14">
         <v>9</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K6" s="5">
         <v>11</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <f t="shared" si="0"/>
         <v>0.27500000000000002</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>42035</v>
       </c>
       <c r="B7" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="C7" s="5">
         <v>2580.1</v>
@@ -3723,7 +3793,7 @@
         <v>58</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H7" s="5">
         <v>5</v>
@@ -3731,24 +3801,27 @@
       <c r="I7" s="14">
         <v>1.8</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="14">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="K7" s="5">
         <v>34</v>
       </c>
-      <c r="K7" s="5">
-        <f>J7/D7</f>
+      <c r="L7" s="5">
+        <f t="shared" si="0"/>
         <v>0.42499999999999999</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <f ca="1">TODAY()</f>
         <v>42037</v>
       </c>
       <c r="B8" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="C8" s="5">
         <v>1855.25</v>
@@ -3763,22 +3836,28 @@
         <v>59</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H8" s="5">
         <v>3</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <f ca="1">TODAY()</f>
         <v>42037</v>
       </c>
       <c r="B9" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="C9" s="5">
         <v>2978.2</v>
@@ -3793,22 +3872,28 @@
         <v>25</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H9" s="5">
         <v>3</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <f ca="1">TODAY()</f>
         <v>42037</v>
       </c>
       <c r="B10" t="s">
-        <v>349</v>
+        <v>307</v>
       </c>
       <c r="C10" s="5">
         <v>3088.1</v>
@@ -3823,28 +3908,385 @@
         <v>24</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H10" s="5">
         <v>3</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>278</v>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>42038</v>
+      </c>
+      <c r="B11" t="s">
+        <v>526</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2174.6999999999998</v>
+      </c>
+      <c r="D11">
+        <v>80</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>55</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" s="5">
+        <v>11</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>42038</v>
+      </c>
+      <c r="B12" t="s">
+        <v>527</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2679.35</v>
+      </c>
+      <c r="D12">
+        <v>80</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>47</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H12" s="5">
+        <v>11</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>42038</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2441.0500000000002</v>
+      </c>
+      <c r="D13" s="5">
+        <v>80</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>58</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="5">
+        <v>11</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>42038</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2818.4</v>
+      </c>
+      <c r="D14" s="5">
+        <v>80</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>76</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="5">
+        <v>11</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>42038</v>
+      </c>
+      <c r="B15" t="s">
+        <v>530</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1663.9</v>
+      </c>
+      <c r="D15">
+        <v>80</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>53</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="5">
+        <v>11</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0</v>
+      </c>
+      <c r="J15" s="14">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>42038</v>
+      </c>
+      <c r="B16" t="s">
+        <v>531</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2418.3000000000002</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>28</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="5">
+        <v>11</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
+      <c r="J16" s="14">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>42039</v>
+      </c>
+      <c r="B17" t="s">
+        <v>562</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1390.9</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>66</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>42039</v>
+      </c>
+      <c r="B18" t="s">
+        <v>563</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1392.9</v>
+      </c>
+      <c r="D18">
+        <v>80</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>45</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>42039</v>
+      </c>
+      <c r="B19" t="s">
+        <v>564</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1953.4</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>26</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>42039</v>
+      </c>
+      <c r="B20" t="s">
+        <v>565</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1532.05</v>
+      </c>
+      <c r="D20">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>54</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>42039</v>
+      </c>
+      <c r="B21" t="s">
+        <v>566</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2137.5</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5">
+        <v>25</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3866,10 +4308,10 @@
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
@@ -3881,7 +4323,7 @@
         <v>22</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3892,7 +4334,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>24</v>
@@ -3904,7 +4346,7 @@
         <v>50</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3915,7 +4357,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>21</v>
@@ -3924,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>59</v>
@@ -3938,7 +4380,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>21</v>
@@ -3947,10 +4389,10 @@
         <v>41</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3961,7 +4403,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>55</v>
@@ -3981,7 +4423,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>33</v>
@@ -3993,7 +4435,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -4004,7 +4446,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>32</v>
@@ -4044,7 +4486,7 @@
         <v>43</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>42</v>
@@ -4064,7 +4506,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>48</v>
@@ -4084,7 +4526,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>46</v>
@@ -4101,10 +4543,10 @@
         <v>47</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>48</v>
@@ -4116,7 +4558,7 @@
         <v>49</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4127,7 +4569,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>32</v>
@@ -4161,16 +4603,16 @@
     </row>
     <row r="15" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="6">
         <v>4</v>
@@ -4179,21 +4621,21 @@
         <v>50</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="E16" s="6">
         <v>4</v>
@@ -4204,16 +4646,16 @@
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="C17" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" s="6">
         <v>5</v>
@@ -4224,16 +4666,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" s="6">
         <v>6</v>
@@ -4244,16 +4686,16 @@
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
@@ -4262,21 +4704,21 @@
         <v>31</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E20" s="6">
         <v>4</v>
@@ -4287,13 +4729,13 @@
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="E21" s="6">
         <v>5</v>
@@ -4301,13 +4743,13 @@
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="E22" s="6">
         <v>5</v>
@@ -4315,19 +4757,39 @@
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="E23" s="6">
         <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="E24" s="6">
+        <v>5</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4362,19 +4824,19 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="L2" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -4388,7 +4850,7 @@
         <v>-1</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M3" s="13">
         <v>-1</v>
@@ -4396,7 +4858,7 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="13">
         <v>-10</v>
@@ -4405,7 +4867,7 @@
         <v>-1</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M4" s="13">
         <v>-1</v>
@@ -4423,7 +4885,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4452,25 +4914,25 @@
         <v>63</v>
       </c>
       <c r="B3" s="3">
-        <v>741</v>
+        <v>858</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>342</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6">
         <v>10000</v>
@@ -4529,15 +4991,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2">
         <v>13</v>
@@ -4545,7 +5007,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -4553,7 +5015,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4">
         <v>15</v>
@@ -4561,7 +5023,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5">
         <v>16</v>
@@ -4569,7 +5031,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6">
         <v>17</v>
@@ -4577,7 +5039,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7">
         <v>18</v>
@@ -4585,7 +5047,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8">
         <v>19</v>
@@ -4593,7 +5055,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -4601,7 +5063,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10">
         <v>21</v>
@@ -4609,7 +5071,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="5">
         <v>22</v>
@@ -4617,7 +5079,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="5">
         <v>23</v>
@@ -4625,7 +5087,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" s="5">
         <v>24</v>
@@ -4633,7 +5095,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="5">
         <v>25</v>
@@ -4641,7 +5103,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" s="5">
         <v>26</v>
@@ -4649,7 +5111,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" s="5">
         <v>27</v>
@@ -4657,7 +5119,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B17" s="5">
         <v>28</v>
@@ -4665,7 +5127,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" s="5">
         <v>29</v>
@@ -4673,7 +5135,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B19" s="5">
         <v>30</v>
@@ -4681,7 +5143,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B20" s="5">
         <v>31</v>
@@ -4689,7 +5151,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B21" s="5">
         <v>32</v>
@@ -4697,7 +5159,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5">
         <v>33</v>
@@ -4705,7 +5167,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B23" s="5">
         <v>34</v>
@@ -4713,7 +5175,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B24" s="5">
         <v>35</v>
@@ -4721,7 +5183,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B25" s="5">
         <v>36</v>
@@ -4729,7 +5191,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B26" s="5">
         <v>37</v>
@@ -4737,7 +5199,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B27" s="5">
         <v>38</v>
@@ -4745,7 +5207,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B28" s="5">
         <v>39</v>
@@ -4753,7 +5215,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B29" s="5">
         <v>40</v>
@@ -4761,7 +5223,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B30" s="5">
         <v>41</v>
@@ -4769,7 +5231,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B31" s="5">
         <v>42</v>
@@ -4786,7 +5248,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:U87"/>
+  <dimension ref="A1:U98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A1:A1048576"/>
@@ -4803,1662 +5265,2080 @@
     <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>570</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>295</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>314</v>
       </c>
       <c r="D2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I2" t="s">
         <v>186</v>
       </c>
-      <c r="E2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G2" t="s">
-        <v>336</v>
-      </c>
-      <c r="H2" t="s">
-        <v>229</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>187</v>
       </c>
-      <c r="J2" t="s">
-        <v>188</v>
-      </c>
       <c r="K2" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>571</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>359</v>
+        <v>572</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>603</v>
       </c>
       <c r="C4" t="s">
-        <v>360</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="E4" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>540</v>
       </c>
       <c r="B5" t="s">
-        <v>477</v>
+        <v>541</v>
       </c>
       <c r="C5" t="s">
-        <v>477</v>
+        <v>542</v>
+      </c>
+      <c r="D5" t="s">
+        <v>270</v>
       </c>
       <c r="F5" t="s">
-        <v>478</v>
+        <v>383</v>
       </c>
       <c r="G5" t="s">
-        <v>478</v>
+        <v>383</v>
       </c>
       <c r="H5" t="s">
-        <v>479</v>
+        <v>384</v>
       </c>
       <c r="I5" t="s">
-        <v>479</v>
+        <v>384</v>
       </c>
       <c r="J5" t="s">
-        <v>479</v>
+        <v>384</v>
       </c>
       <c r="K5" t="s">
-        <v>479</v>
+        <v>384</v>
       </c>
       <c r="L5" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
       <c r="M5" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
       <c r="N5" t="s">
-        <v>480</v>
+        <v>385</v>
       </c>
       <c r="O5" t="s">
-        <v>480</v>
+        <v>385</v>
       </c>
       <c r="P5" t="s">
-        <v>481</v>
+        <v>386</v>
       </c>
       <c r="Q5" t="s">
-        <v>481</v>
+        <v>386</v>
       </c>
       <c r="R5" t="s">
-        <v>481</v>
+        <v>386</v>
       </c>
       <c r="S5" t="s">
-        <v>481</v>
+        <v>386</v>
       </c>
       <c r="T5" t="s">
-        <v>482</v>
+        <v>387</v>
       </c>
       <c r="U5" t="s">
-        <v>482</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>361</v>
+        <v>561</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>604</v>
       </c>
       <c r="C6" t="s">
-        <v>335</v>
+        <v>542</v>
       </c>
       <c r="D6" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>272</v>
+      </c>
+      <c r="F6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G6" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>317</v>
       </c>
       <c r="E7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>363</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>364</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="D8" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="E8" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F8" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G8" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>573</v>
       </c>
       <c r="B9" t="s">
-        <v>302</v>
+        <v>574</v>
       </c>
       <c r="C9" t="s">
-        <v>289</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="E9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F9" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="G9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D10" t="s">
-        <v>248</v>
+        <v>184</v>
+      </c>
+      <c r="E10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H10" t="s">
+        <v>298</v>
+      </c>
+      <c r="I10" t="s">
+        <v>241</v>
+      </c>
+      <c r="J10" t="s">
+        <v>220</v>
+      </c>
+      <c r="K10" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
-        <v>292</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>575</v>
       </c>
       <c r="D11" t="s">
-        <v>294</v>
+        <v>576</v>
       </c>
       <c r="E11" t="s">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="F11" t="s">
-        <v>189</v>
+        <v>323</v>
       </c>
       <c r="G11" t="s">
-        <v>208</v>
+        <v>577</v>
       </c>
       <c r="H11" t="s">
-        <v>209</v>
+        <v>346</v>
       </c>
       <c r="I11" t="s">
-        <v>192</v>
+        <v>325</v>
+      </c>
+      <c r="J11" t="s">
+        <v>220</v>
+      </c>
+      <c r="K11" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>578</v>
       </c>
       <c r="B12" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="C12" t="s">
-        <v>289</v>
+        <v>194</v>
       </c>
       <c r="D12" t="s">
-        <v>290</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="F12" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="G12" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>579</v>
       </c>
       <c r="B13" t="s">
-        <v>336</v>
+        <v>580</v>
       </c>
       <c r="C13" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="D13" t="s">
-        <v>245</v>
+        <v>576</v>
+      </c>
+      <c r="E13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G13" t="s">
+        <v>577</v>
+      </c>
+      <c r="H13" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>371</v>
+        <v>581</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>603</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>582</v>
       </c>
       <c r="D14" t="s">
+        <v>539</v>
+      </c>
+      <c r="E14" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" t="s">
         <v>193</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>194</v>
-      </c>
-      <c r="F14" t="s">
-        <v>195</v>
-      </c>
-      <c r="G14" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>534</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>580</v>
       </c>
       <c r="C15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" t="s">
         <v>191</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F15" t="s">
         <v>193</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>194</v>
-      </c>
-      <c r="F15" t="s">
-        <v>195</v>
-      </c>
-      <c r="G15" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>374</v>
+        <v>583</v>
       </c>
       <c r="B16" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="C16" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D16" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E16" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="F16" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H16" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>376</v>
+      </c>
+      <c r="B17" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D17" t="s">
         <v>377</v>
       </c>
-      <c r="B17" t="s">
-        <v>375</v>
-      </c>
-      <c r="C17" t="s">
-        <v>376</v>
-      </c>
-      <c r="D17" t="s">
-        <v>245</v>
-      </c>
       <c r="E17" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>378</v>
+        <v>536</v>
       </c>
       <c r="B18" t="s">
-        <v>379</v>
+        <v>537</v>
       </c>
       <c r="C18" t="s">
-        <v>246</v>
+        <v>538</v>
       </c>
       <c r="D18" t="s">
-        <v>294</v>
+        <v>539</v>
       </c>
       <c r="E18" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>380</v>
+        <v>584</v>
       </c>
       <c r="B19" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="C19" t="s">
-        <v>296</v>
+        <v>377</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>304</v>
       </c>
       <c r="E19" t="s">
+        <v>510</v>
+      </c>
+      <c r="F19" t="s">
+        <v>361</v>
+      </c>
+      <c r="G19" t="s">
         <v>194</v>
-      </c>
-      <c r="F19" t="s">
-        <v>195</v>
-      </c>
-      <c r="G19" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>382</v>
+        <v>585</v>
       </c>
       <c r="B20" t="s">
-        <v>381</v>
+        <v>586</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>587</v>
       </c>
       <c r="D20" t="s">
-        <v>193</v>
+        <v>511</v>
       </c>
       <c r="E20" t="s">
+        <v>507</v>
+      </c>
+      <c r="F20" t="s">
+        <v>512</v>
+      </c>
+      <c r="G20" t="s">
         <v>194</v>
-      </c>
-      <c r="F20" t="s">
-        <v>195</v>
-      </c>
-      <c r="G20" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="B21" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="C21" t="s">
-        <v>184</v>
+        <v>273</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="F21" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="G21" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="H21" t="s">
-        <v>255</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>383</v>
+        <v>277</v>
       </c>
       <c r="B22" t="s">
-        <v>384</v>
+        <v>605</v>
       </c>
       <c r="C22" t="s">
-        <v>247</v>
+        <v>587</v>
       </c>
       <c r="D22" t="s">
-        <v>248</v>
+        <v>511</v>
+      </c>
+      <c r="E22" t="s">
+        <v>507</v>
+      </c>
+      <c r="F22" t="s">
+        <v>512</v>
+      </c>
+      <c r="G22" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>297</v>
+        <v>588</v>
       </c>
       <c r="B23" t="s">
-        <v>298</v>
+        <v>589</v>
       </c>
       <c r="C23" t="s">
-        <v>299</v>
+        <v>549</v>
       </c>
       <c r="D23" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="E23" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>282</v>
       </c>
       <c r="B24" t="s">
-        <v>386</v>
+        <v>545</v>
       </c>
       <c r="C24" t="s">
-        <v>387</v>
+        <v>546</v>
       </c>
       <c r="D24" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="E24" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="F24" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="G24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>388</v>
+        <v>547</v>
       </c>
       <c r="B25" t="s">
-        <v>389</v>
+        <v>548</v>
       </c>
       <c r="C25" t="s">
-        <v>387</v>
+        <v>549</v>
       </c>
       <c r="D25" t="s">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="E25" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="F25" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>390</v>
+        <v>533</v>
       </c>
       <c r="B26" t="s">
-        <v>389</v>
+        <v>535</v>
       </c>
       <c r="C26" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D26" t="s">
-        <v>308</v>
+        <v>550</v>
       </c>
       <c r="E26" t="s">
-        <v>309</v>
+        <v>551</v>
       </c>
       <c r="F26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G26" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>391</v>
+        <v>326</v>
       </c>
       <c r="B27" t="s">
-        <v>392</v>
+        <v>327</v>
       </c>
       <c r="C27" t="s">
+        <v>328</v>
+      </c>
+      <c r="D27" t="s">
+        <v>329</v>
+      </c>
+      <c r="E27" t="s">
+        <v>233</v>
+      </c>
+      <c r="F27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" t="s">
+        <v>198</v>
+      </c>
+      <c r="I27" t="s">
         <v>199</v>
       </c>
-      <c r="D27" t="s">
+      <c r="J27" t="s">
         <v>200</v>
       </c>
-      <c r="E27" t="s">
-        <v>243</v>
-      </c>
-      <c r="F27" t="s">
-        <v>244</v>
-      </c>
-      <c r="G27" t="s">
-        <v>201</v>
-      </c>
-      <c r="H27" t="s">
-        <v>202</v>
-      </c>
-      <c r="I27" t="s">
-        <v>203</v>
-      </c>
-      <c r="J27" t="s">
-        <v>204</v>
-      </c>
       <c r="K27" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>393</v>
+        <v>590</v>
       </c>
       <c r="B28" t="s">
-        <v>394</v>
+        <v>287</v>
       </c>
       <c r="C28" t="s">
-        <v>395</v>
+        <v>591</v>
       </c>
       <c r="D28" t="s">
-        <v>219</v>
+        <v>592</v>
       </c>
       <c r="E28" t="s">
-        <v>267</v>
+        <v>593</v>
+      </c>
+      <c r="F28" t="s">
+        <v>594</v>
+      </c>
+      <c r="G28" t="s">
+        <v>595</v>
+      </c>
+      <c r="H28" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>396</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s">
-        <v>394</v>
+        <v>554</v>
       </c>
       <c r="C29" t="s">
-        <v>395</v>
+        <v>322</v>
       </c>
       <c r="D29" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E29" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F29" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>397</v>
+        <v>336</v>
       </c>
       <c r="B30" t="s">
-        <v>398</v>
+        <v>555</v>
       </c>
       <c r="C30" t="s">
-        <v>314</v>
+        <v>556</v>
+      </c>
+      <c r="D30" t="s">
+        <v>557</v>
+      </c>
+      <c r="E30" t="s">
+        <v>558</v>
+      </c>
+      <c r="F30" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s">
-        <v>398</v>
+        <v>327</v>
       </c>
       <c r="C31" t="s">
-        <v>251</v>
+        <v>328</v>
       </c>
       <c r="D31" t="s">
-        <v>188</v>
+        <v>329</v>
       </c>
       <c r="E31" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="F31" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>399</v>
+        <v>340</v>
       </c>
       <c r="B32" t="s">
-        <v>192</v>
+        <v>287</v>
       </c>
       <c r="C32" t="s">
-        <v>191</v>
+        <v>591</v>
       </c>
       <c r="D32" t="s">
-        <v>262</v>
+        <v>592</v>
+      </c>
+      <c r="E32" t="s">
+        <v>593</v>
+      </c>
+      <c r="F32" t="s">
+        <v>594</v>
+      </c>
+      <c r="G32" t="s">
+        <v>595</v>
+      </c>
+      <c r="H32" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>400</v>
+        <v>341</v>
       </c>
       <c r="B33" t="s">
-        <v>401</v>
+        <v>342</v>
       </c>
       <c r="C33" t="s">
-        <v>402</v>
+        <v>323</v>
       </c>
       <c r="D33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E33" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="F33" t="s">
+        <v>239</v>
+      </c>
+      <c r="G33" t="s">
         <v>253</v>
-      </c>
-      <c r="G33" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>403</v>
+        <v>597</v>
       </c>
       <c r="B34" t="s">
-        <v>401</v>
+        <v>190</v>
       </c>
       <c r="C34" t="s">
-        <v>402</v>
+        <v>323</v>
       </c>
       <c r="D34" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="E34" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>304</v>
+        <v>519</v>
       </c>
       <c r="B35" t="s">
-        <v>190</v>
+        <v>520</v>
       </c>
       <c r="C35" t="s">
-        <v>191</v>
+        <v>323</v>
+      </c>
+      <c r="D35" t="s">
+        <v>511</v>
+      </c>
+      <c r="E35" t="s">
+        <v>507</v>
+      </c>
+      <c r="F35" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" t="s">
+        <v>240</v>
+      </c>
+      <c r="D36" t="s">
         <v>184</v>
       </c>
-      <c r="C36" t="s">
-        <v>254</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>185</v>
       </c>
-      <c r="E36" t="s">
-        <v>186</v>
-      </c>
       <c r="F36" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G36" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="H36" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="I36" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="J36" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="K36" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>366</v>
       </c>
       <c r="C37" t="s">
-        <v>190</v>
+        <v>367</v>
       </c>
       <c r="D37" t="s">
-        <v>223</v>
+        <v>368</v>
+      </c>
+      <c r="E37" t="s">
+        <v>369</v>
+      </c>
+      <c r="F37" t="s">
+        <v>370</v>
+      </c>
+      <c r="G37" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s">
-        <v>222</v>
+        <v>297</v>
       </c>
       <c r="C38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D38" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="E38" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>404</v>
+        <v>544</v>
       </c>
       <c r="B39" t="s">
-        <v>222</v>
+        <v>545</v>
       </c>
       <c r="C39" t="s">
-        <v>198</v>
+        <v>546</v>
       </c>
       <c r="D39" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="E39" t="s">
-        <v>309</v>
+        <v>286</v>
+      </c>
+      <c r="F39" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>310</v>
+        <v>371</v>
       </c>
       <c r="B40" t="s">
-        <v>326</v>
+        <v>214</v>
       </c>
       <c r="C40" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s">
-        <v>217</v>
+        <v>278</v>
       </c>
       <c r="E40" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="F40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G40" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>405</v>
+        <v>245</v>
       </c>
       <c r="B41" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="C41" t="s">
-        <v>319</v>
+        <v>247</v>
       </c>
       <c r="D41" t="s">
-        <v>320</v>
+        <v>248</v>
       </c>
       <c r="E41" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>322</v>
+        <v>552</v>
       </c>
       <c r="B42" t="s">
-        <v>323</v>
+        <v>553</v>
       </c>
       <c r="C42" t="s">
-        <v>324</v>
+        <v>513</v>
       </c>
       <c r="D42" t="s">
-        <v>325</v>
+        <v>514</v>
+      </c>
+      <c r="E42" t="s">
+        <v>515</v>
+      </c>
+      <c r="F42" t="s">
+        <v>516</v>
+      </c>
+      <c r="G42" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>406</v>
+        <v>543</v>
       </c>
       <c r="B43" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C43" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" t="s">
+        <v>313</v>
+      </c>
+      <c r="E43" t="s">
         <v>185</v>
-      </c>
-      <c r="D43" t="s">
-        <v>356</v>
-      </c>
-      <c r="E43" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>407</v>
+        <v>295</v>
       </c>
       <c r="B44" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C44" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>203</v>
+        <v>514</v>
       </c>
       <c r="E44" t="s">
-        <v>204</v>
+        <v>515</v>
       </c>
       <c r="F44" t="s">
-        <v>221</v>
+        <v>516</v>
       </c>
       <c r="G44" t="s">
-        <v>408</v>
+        <v>517</v>
       </c>
       <c r="H44" t="s">
-        <v>409</v>
+        <v>325</v>
       </c>
       <c r="I44" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>315</v>
+        <v>598</v>
       </c>
       <c r="B45" t="s">
-        <v>199</v>
+        <v>599</v>
       </c>
       <c r="C45" t="s">
-        <v>202</v>
+        <v>288</v>
       </c>
       <c r="D45" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="E45" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F45" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G45" t="s">
-        <v>408</v>
+        <v>324</v>
       </c>
       <c r="H45" t="s">
-        <v>409</v>
+        <v>325</v>
       </c>
       <c r="I45" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>249</v>
+        <v>362</v>
       </c>
       <c r="B46" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="C46" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="D46" t="s">
-        <v>188</v>
+        <v>313</v>
       </c>
       <c r="E46" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="F46" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s">
-        <v>254</v>
+        <v>366</v>
       </c>
       <c r="C47" t="s">
-        <v>184</v>
+        <v>367</v>
       </c>
       <c r="D47" t="s">
-        <v>71</v>
+        <v>368</v>
       </c>
       <c r="E47" t="s">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="F47" t="s">
-        <v>185</v>
+        <v>370</v>
       </c>
       <c r="G47" t="s">
-        <v>255</v>
+        <v>324</v>
+      </c>
+      <c r="H47" t="s">
+        <v>325</v>
+      </c>
+      <c r="I47" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>297</v>
       </c>
       <c r="C48" t="s">
-        <v>483</v>
+        <v>184</v>
       </c>
       <c r="D48" t="s">
-        <v>473</v>
+        <v>313</v>
       </c>
       <c r="E48" t="s">
-        <v>265</v>
+        <v>185</v>
       </c>
       <c r="F48" t="s">
-        <v>484</v>
+        <v>389</v>
       </c>
       <c r="G48" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>411</v>
+        <v>544</v>
       </c>
       <c r="B49" t="s">
-        <v>412</v>
+        <v>545</v>
       </c>
       <c r="C49" t="s">
-        <v>413</v>
+        <v>546</v>
       </c>
       <c r="D49" t="s">
-        <v>414</v>
+        <v>285</v>
       </c>
       <c r="E49" t="s">
-        <v>218</v>
+        <v>286</v>
+      </c>
+      <c r="F49" t="s">
+        <v>287</v>
+      </c>
+      <c r="G49" t="s">
+        <v>324</v>
+      </c>
+      <c r="H49" t="s">
+        <v>325</v>
+      </c>
+      <c r="I49" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c r="C50" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="D50" t="s">
-        <v>194</v>
+        <v>71</v>
       </c>
       <c r="E50" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="F50" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="G50" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="H50" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="I50" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="J50" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="K50" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="B51" t="s">
-        <v>184</v>
+        <v>246</v>
       </c>
       <c r="C51" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D51" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="E51" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="F51" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="G51" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="H51" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="I51" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="J51" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="K51" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>316</v>
+        <v>552</v>
       </c>
       <c r="B52" t="s">
-        <v>417</v>
+        <v>553</v>
       </c>
       <c r="C52" t="s">
-        <v>418</v>
+        <v>388</v>
+      </c>
+      <c r="D52" t="s">
+        <v>379</v>
+      </c>
+      <c r="E52" t="s">
+        <v>250</v>
+      </c>
+      <c r="F52" t="s">
+        <v>389</v>
+      </c>
+      <c r="G52" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>416</v>
+        <v>600</v>
       </c>
       <c r="B53" t="s">
-        <v>417</v>
+        <v>601</v>
       </c>
       <c r="C53" t="s">
-        <v>418</v>
+        <v>112</v>
+      </c>
+      <c r="D53" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>419</v>
+        <v>330</v>
       </c>
       <c r="B54" t="s">
-        <v>420</v>
+        <v>191</v>
       </c>
       <c r="C54" t="s">
-        <v>421</v>
+        <v>222</v>
+      </c>
+      <c r="D54" t="s">
+        <v>192</v>
+      </c>
+      <c r="E54" t="s">
+        <v>250</v>
+      </c>
+      <c r="F54" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>422</v>
+        <v>160</v>
       </c>
       <c r="B55" t="s">
-        <v>260</v>
+        <v>183</v>
       </c>
       <c r="C55" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="D55" t="s">
-        <v>262</v>
+        <v>184</v>
+      </c>
+      <c r="E55" t="s">
+        <v>185</v>
+      </c>
+      <c r="F55" t="s">
+        <v>218</v>
+      </c>
+      <c r="G55" t="s">
+        <v>219</v>
+      </c>
+      <c r="H55" t="s">
+        <v>298</v>
+      </c>
+      <c r="I55" t="s">
+        <v>241</v>
+      </c>
+      <c r="J55" t="s">
+        <v>220</v>
+      </c>
+      <c r="K55" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="B56" t="s">
-        <v>389</v>
+        <v>191</v>
       </c>
       <c r="C56" t="s">
-        <v>424</v>
+        <v>222</v>
       </c>
       <c r="D56" t="s">
-        <v>425</v>
+        <v>192</v>
       </c>
       <c r="E56" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F56" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>423</v>
+        <v>331</v>
       </c>
       <c r="B57" t="s">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="C57" t="s">
-        <v>424</v>
+        <v>240</v>
       </c>
       <c r="D57" t="s">
-        <v>425</v>
+        <v>184</v>
       </c>
       <c r="E57" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F57" t="s">
-        <v>324</v>
+        <v>218</v>
+      </c>
+      <c r="G57" t="s">
+        <v>219</v>
+      </c>
+      <c r="H57" t="s">
+        <v>298</v>
+      </c>
+      <c r="I57" t="s">
+        <v>241</v>
+      </c>
+      <c r="J57" t="s">
+        <v>220</v>
+      </c>
+      <c r="K57" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>426</v>
+        <v>333</v>
       </c>
       <c r="B58" t="s">
-        <v>428</v>
+        <v>334</v>
+      </c>
+      <c r="C58" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>427</v>
+        <v>336</v>
       </c>
       <c r="B59" t="s">
-        <v>428</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="B60" t="s">
-        <v>220</v>
+        <v>334</v>
+      </c>
+      <c r="C60" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>337</v>
+      </c>
+      <c r="B61" t="s">
+        <v>320</v>
+      </c>
+      <c r="C61" t="s">
         <v>338</v>
       </c>
-      <c r="B61" t="s">
-        <v>257</v>
+      <c r="D61" t="s">
+        <v>339</v>
+      </c>
+      <c r="E61" t="s">
+        <v>189</v>
+      </c>
+      <c r="F61" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>429</v>
+        <v>340</v>
       </c>
       <c r="B62" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C62" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>430</v>
+        <v>341</v>
       </c>
       <c r="B63" t="s">
-        <v>431</v>
+        <v>342</v>
       </c>
       <c r="C63" t="s">
-        <v>365</v>
+        <v>338</v>
+      </c>
+      <c r="D63" t="s">
+        <v>339</v>
+      </c>
+      <c r="E63" t="s">
+        <v>189</v>
+      </c>
+      <c r="F63" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>311</v>
+        <v>242</v>
       </c>
       <c r="B64" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="C64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="B65" t="s">
-        <v>206</v>
+        <v>342</v>
       </c>
       <c r="C65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D65" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E65" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F65" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G65" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>432</v>
+        <v>343</v>
       </c>
       <c r="B66" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C66" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D66" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E66" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F66" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G66" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="B67" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>315</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="B68" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>329</v>
+        <v>244</v>
       </c>
       <c r="B69" t="s">
-        <v>328</v>
+        <v>202</v>
       </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>330</v>
+        <v>346</v>
+      </c>
+      <c r="B70" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" t="s">
+        <v>194</v>
+      </c>
+      <c r="D70" t="s">
+        <v>203</v>
+      </c>
+      <c r="E70" t="s">
+        <v>204</v>
+      </c>
+      <c r="F70" t="s">
+        <v>205</v>
+      </c>
+      <c r="G70" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>435</v>
+        <v>282</v>
       </c>
       <c r="B71" t="s">
-        <v>437</v>
+        <v>202</v>
       </c>
       <c r="C71" t="s">
-        <v>210</v>
+        <v>112</v>
       </c>
       <c r="D71" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>436</v>
+        <v>290</v>
       </c>
       <c r="B72" t="s">
-        <v>437</v>
+        <v>291</v>
       </c>
       <c r="C72" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="D72" t="s">
-        <v>211</v>
+        <v>203</v>
+      </c>
+      <c r="E72" t="s">
+        <v>205</v>
+      </c>
+      <c r="F72" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="B73" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C73" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D73" t="s">
-        <v>439</v>
+        <v>353</v>
       </c>
       <c r="E73" t="s">
-        <v>440</v>
+        <v>354</v>
       </c>
       <c r="F73" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G73" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>438</v>
+        <v>293</v>
       </c>
       <c r="B74" t="s">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="C74" t="s">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>439</v>
+        <v>353</v>
       </c>
       <c r="E74" t="s">
-        <v>440</v>
+        <v>354</v>
       </c>
       <c r="F74" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G74" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="B75" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>444</v>
+        <v>358</v>
       </c>
       <c r="E75" t="s">
-        <v>445</v>
+        <v>359</v>
       </c>
       <c r="F75" t="s">
-        <v>446</v>
+        <v>360</v>
       </c>
       <c r="G75" t="s">
-        <v>447</v>
+        <v>361</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>441</v>
+        <v>518</v>
       </c>
       <c r="B76" t="s">
-        <v>442</v>
+        <v>356</v>
       </c>
       <c r="C76" t="s">
-        <v>443</v>
+        <v>357</v>
       </c>
       <c r="D76" t="s">
-        <v>444</v>
+        <v>358</v>
       </c>
       <c r="E76" t="s">
-        <v>445</v>
+        <v>359</v>
       </c>
       <c r="F76" t="s">
-        <v>446</v>
+        <v>360</v>
       </c>
       <c r="G76" t="s">
-        <v>447</v>
+        <v>361</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>448</v>
+        <v>350</v>
       </c>
       <c r="B77" t="s">
-        <v>198</v>
+        <v>351</v>
       </c>
       <c r="C77" t="s">
-        <v>443</v>
+        <v>206</v>
       </c>
       <c r="D77" t="s">
-        <v>444</v>
+        <v>207</v>
       </c>
       <c r="E77" t="s">
-        <v>445</v>
+        <v>359</v>
       </c>
       <c r="F77" t="s">
-        <v>446</v>
+        <v>360</v>
       </c>
       <c r="G77" t="s">
-        <v>447</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>449</v>
+        <v>519</v>
       </c>
       <c r="B78" t="s">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="C78" t="s">
-        <v>453</v>
+        <v>367</v>
       </c>
       <c r="D78" t="s">
-        <v>454</v>
+        <v>368</v>
       </c>
       <c r="E78" t="s">
-        <v>455</v>
+        <v>369</v>
       </c>
       <c r="F78" t="s">
-        <v>456</v>
+        <v>370</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>451</v>
+        <v>521</v>
       </c>
       <c r="B79" t="s">
-        <v>452</v>
+        <v>522</v>
       </c>
       <c r="C79" t="s">
-        <v>453</v>
+        <v>367</v>
       </c>
       <c r="D79" t="s">
-        <v>454</v>
+        <v>368</v>
       </c>
       <c r="E79" t="s">
-        <v>455</v>
+        <v>369</v>
       </c>
       <c r="F79" t="s">
-        <v>456</v>
+        <v>370</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="B80" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="C80" t="s">
-        <v>453</v>
+        <v>206</v>
       </c>
       <c r="D80" t="s">
-        <v>454</v>
+        <v>207</v>
       </c>
       <c r="E80" t="s">
-        <v>455</v>
+        <v>369</v>
       </c>
       <c r="F80" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>457</v>
+        <v>352</v>
       </c>
       <c r="B81" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="C81" t="s">
-        <v>459</v>
+        <v>237</v>
       </c>
       <c r="D81" t="s">
-        <v>460</v>
+        <v>353</v>
       </c>
       <c r="E81" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="F81" t="s">
+        <v>196</v>
+      </c>
+      <c r="G81" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>458</v>
+        <v>295</v>
       </c>
       <c r="B82" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="C82" t="s">
-        <v>459</v>
+        <v>76</v>
       </c>
       <c r="D82" t="s">
-        <v>460</v>
+        <v>374</v>
       </c>
       <c r="E82" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>259</v>
+        <v>355</v>
       </c>
       <c r="B83" t="s">
-        <v>260</v>
+        <v>356</v>
       </c>
       <c r="C83" t="s">
-        <v>261</v>
+        <v>357</v>
       </c>
       <c r="D83" t="s">
-        <v>262</v>
+        <v>358</v>
       </c>
       <c r="E83" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="F83" t="s">
+        <v>360</v>
+      </c>
+      <c r="G83" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>263</v>
+        <v>362</v>
       </c>
       <c r="B84" t="s">
-        <v>392</v>
+        <v>196</v>
       </c>
       <c r="C84" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="D84" t="s">
-        <v>270</v>
+        <v>353</v>
       </c>
       <c r="E84" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="F84" t="s">
+        <v>196</v>
+      </c>
+      <c r="G84" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>461</v>
+        <v>363</v>
       </c>
       <c r="B85" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="C85" t="s">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="D85" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E85" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>462</v>
+        <v>365</v>
       </c>
       <c r="B86" t="s">
-        <v>446</v>
+        <v>366</v>
       </c>
       <c r="C86" t="s">
-        <v>463</v>
+        <v>367</v>
       </c>
       <c r="D86" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="E86" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+      <c r="F86" t="s">
+        <v>370</v>
+      </c>
+      <c r="G86" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>462</v>
+        <v>296</v>
       </c>
       <c r="B87" t="s">
-        <v>446</v>
+        <v>297</v>
       </c>
       <c r="C87" t="s">
-        <v>463</v>
+        <v>377</v>
       </c>
       <c r="D87" t="s">
-        <v>343</v>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>371</v>
+      </c>
+      <c r="B88" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>372</v>
+      </c>
+      <c r="B89" t="s">
+        <v>236</v>
+      </c>
+      <c r="C89" t="s">
+        <v>373</v>
+      </c>
+      <c r="D89" t="s">
+        <v>374</v>
+      </c>
+      <c r="E89" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>245</v>
+      </c>
+      <c r="B90" t="s">
+        <v>246</v>
+      </c>
+      <c r="C90" t="s">
+        <v>247</v>
+      </c>
+      <c r="D90" t="s">
+        <v>248</v>
+      </c>
+      <c r="E90" t="s">
+        <v>369</v>
+      </c>
+      <c r="F90" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>249</v>
+      </c>
+      <c r="B91" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>375</v>
+      </c>
+      <c r="B92" t="s">
+        <v>321</v>
+      </c>
+      <c r="C92" t="s">
+        <v>254</v>
+      </c>
+      <c r="D92" t="s">
+        <v>255</v>
+      </c>
+      <c r="E92" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>376</v>
+      </c>
+      <c r="B93" t="s">
+        <v>360</v>
+      </c>
+      <c r="C93" t="s">
+        <v>377</v>
+      </c>
+      <c r="D93" t="s">
+        <v>304</v>
+      </c>
+      <c r="E93" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>245</v>
+      </c>
+      <c r="B94" t="s">
+        <v>246</v>
+      </c>
+      <c r="C94" t="s">
+        <v>247</v>
+      </c>
+      <c r="D94" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>375</v>
+      </c>
+      <c r="B96" t="s">
+        <v>321</v>
+      </c>
+      <c r="C96" t="s">
+        <v>255</v>
+      </c>
+      <c r="D96" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>376</v>
+      </c>
+      <c r="B97" t="s">
+        <v>360</v>
+      </c>
+      <c r="C97" t="s">
+        <v>377</v>
+      </c>
+      <c r="D97" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>523</v>
+      </c>
+      <c r="B98" t="s">
+        <v>524</v>
+      </c>
+      <c r="C98" t="s">
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -6471,8 +7351,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E463"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6482,7 +7362,7 @@
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>60</v>
       </c>
@@ -6490,10 +7370,10 @@
         <v>61</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
@@ -6504,7 +7384,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -6515,7 +7395,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -6526,2114 +7406,2139 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>477</v>
+        <v>382</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="E5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
         <v>74</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
         <v>106</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>108</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>110</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>112</v>
       </c>
-      <c r="B16" t="s">
-        <v>113</v>
-      </c>
       <c r="C16" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="B17" t="s">
-        <v>105</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
         <v>118</v>
       </c>
-      <c r="B18" t="s">
-        <v>119</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
         <v>120</v>
       </c>
-      <c r="B19" t="s">
-        <v>121</v>
-      </c>
       <c r="C19" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" t="s">
         <v>122</v>
       </c>
-      <c r="B20" t="s">
-        <v>123</v>
-      </c>
       <c r="C20" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>472</v>
+        <v>378</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>472</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>433</v>
+        <v>347</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>434</v>
+        <v>348</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>433</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>473</v>
+        <v>379</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>473</v>
+        <v>379</v>
       </c>
       <c r="C25" t="s">
-        <v>474</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>479</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>602</v>
+        <v>505</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>602</v>
+        <v>505</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>481</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>482</v>
+        <v>387</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>603</v>
+        <v>506</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>482</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
-        <v>485</v>
+        <v>390</v>
       </c>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
-        <v>486</v>
+        <v>391</v>
       </c>
     </row>
     <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
-        <v>487</v>
+        <v>392</v>
       </c>
     </row>
     <row r="100" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
-        <v>478</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
-        <v>486</v>
+        <v>391</v>
       </c>
     </row>
     <row r="102" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
-        <v>487</v>
+        <v>392</v>
       </c>
     </row>
     <row r="103" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
-        <v>478</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
-        <v>488</v>
+        <v>393</v>
       </c>
     </row>
     <row r="105" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
-        <v>488</v>
+        <v>393</v>
       </c>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
-        <v>487</v>
+        <v>392</v>
       </c>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
-        <v>485</v>
+        <v>390</v>
       </c>
     </row>
     <row r="108" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
-        <v>487</v>
+        <v>392</v>
       </c>
     </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
-        <v>485</v>
+        <v>390</v>
       </c>
     </row>
     <row r="110" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
-        <v>489</v>
+        <v>394</v>
       </c>
     </row>
     <row r="111" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
-        <v>489</v>
+        <v>394</v>
       </c>
     </row>
     <row r="112" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
-        <v>490</v>
+        <v>395</v>
       </c>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
-        <v>490</v>
+        <v>395</v>
       </c>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
-        <v>491</v>
+        <v>396</v>
       </c>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
-        <v>491</v>
+        <v>396</v>
       </c>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
-        <v>492</v>
+        <v>397</v>
       </c>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
-        <v>492</v>
+        <v>397</v>
       </c>
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
-        <v>490</v>
+        <v>395</v>
       </c>
     </row>
     <row r="119" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E119" t="s">
-        <v>489</v>
+        <v>394</v>
       </c>
     </row>
     <row r="120" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
-        <v>490</v>
+        <v>395</v>
       </c>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
-        <v>489</v>
+        <v>394</v>
       </c>
     </row>
     <row r="122" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E122" t="s">
-        <v>493</v>
+        <v>398</v>
       </c>
     </row>
     <row r="123" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E123" t="s">
-        <v>493</v>
+        <v>398</v>
       </c>
     </row>
     <row r="124" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
-        <v>494</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
-        <v>494</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E126" t="s">
-        <v>495</v>
+        <v>400</v>
       </c>
     </row>
     <row r="127" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E127" t="s">
-        <v>495</v>
+        <v>400</v>
       </c>
     </row>
     <row r="128" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
-        <v>493</v>
+        <v>398</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
-        <v>495</v>
+        <v>400</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
-        <v>493</v>
+        <v>398</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E131" t="s">
-        <v>495</v>
+        <v>400</v>
       </c>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
-        <v>496</v>
+        <v>401</v>
       </c>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
-        <v>496</v>
+        <v>401</v>
       </c>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E134" t="s">
-        <v>497</v>
+        <v>402</v>
       </c>
     </row>
     <row r="135" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
-        <v>497</v>
+        <v>402</v>
       </c>
     </row>
     <row r="136" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
-        <v>498</v>
+        <v>403</v>
       </c>
     </row>
     <row r="137" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E137" t="s">
-        <v>498</v>
+        <v>403</v>
       </c>
     </row>
     <row r="138" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E138" t="s">
-        <v>499</v>
+        <v>404</v>
       </c>
     </row>
     <row r="139" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E139" t="s">
-        <v>499</v>
+        <v>404</v>
       </c>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
-        <v>500</v>
+        <v>405</v>
       </c>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
-        <v>500</v>
+        <v>405</v>
       </c>
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E142" t="s">
-        <v>496</v>
+        <v>401</v>
       </c>
     </row>
     <row r="143" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
-        <v>497</v>
+        <v>402</v>
       </c>
     </row>
     <row r="144" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
-        <v>496</v>
+        <v>401</v>
       </c>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
-        <v>497</v>
+        <v>402</v>
       </c>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
-        <v>501</v>
+        <v>406</v>
       </c>
     </row>
     <row r="147" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E147" t="s">
-        <v>502</v>
+        <v>407</v>
       </c>
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
-        <v>501</v>
+        <v>406</v>
       </c>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
-        <v>502</v>
+        <v>407</v>
       </c>
     </row>
     <row r="150" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E150" t="s">
-        <v>503</v>
+        <v>408</v>
       </c>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E151" t="s">
-        <v>503</v>
+        <v>408</v>
       </c>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E152" t="s">
-        <v>504</v>
+        <v>409</v>
       </c>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
-        <v>505</v>
+        <v>410</v>
       </c>
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
-        <v>504</v>
+        <v>409</v>
       </c>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
-        <v>505</v>
+        <v>410</v>
       </c>
     </row>
     <row r="156" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
-        <v>506</v>
+        <v>411</v>
       </c>
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E157" t="s">
-        <v>506</v>
+        <v>411</v>
       </c>
     </row>
     <row r="158" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E158" t="s">
-        <v>501</v>
+        <v>406</v>
       </c>
     </row>
     <row r="159" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E159" t="s">
-        <v>502</v>
+        <v>407</v>
       </c>
     </row>
     <row r="160" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
-        <v>501</v>
+        <v>406</v>
       </c>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E161" t="s">
-        <v>502</v>
+        <v>407</v>
       </c>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E162" t="s">
-        <v>505</v>
+        <v>410</v>
       </c>
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E163" t="s">
-        <v>505</v>
+        <v>410</v>
       </c>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E164" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E165" t="s">
-        <v>508</v>
+        <v>413</v>
       </c>
     </row>
     <row r="166" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E166" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
     </row>
     <row r="167" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E167" t="s">
-        <v>508</v>
+        <v>413</v>
       </c>
     </row>
     <row r="168" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E168" t="s">
-        <v>509</v>
+        <v>414</v>
       </c>
     </row>
     <row r="169" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E169" t="s">
-        <v>510</v>
+        <v>415</v>
       </c>
     </row>
     <row r="170" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E170" t="s">
-        <v>509</v>
+        <v>414</v>
       </c>
     </row>
     <row r="171" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E171" t="s">
-        <v>510</v>
+        <v>415</v>
       </c>
     </row>
     <row r="172" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E172" t="s">
-        <v>511</v>
+        <v>416</v>
       </c>
     </row>
     <row r="173" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E173" t="s">
-        <v>511</v>
+        <v>416</v>
       </c>
     </row>
     <row r="174" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E174" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
     </row>
     <row r="175" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E175" t="s">
-        <v>508</v>
+        <v>413</v>
       </c>
     </row>
     <row r="176" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E176" t="s">
-        <v>511</v>
+        <v>416</v>
       </c>
     </row>
     <row r="177" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E177" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
     </row>
     <row r="178" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E178" t="s">
-        <v>508</v>
+        <v>413</v>
       </c>
     </row>
     <row r="179" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E179" t="s">
-        <v>511</v>
+        <v>416</v>
       </c>
     </row>
     <row r="180" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
-        <v>512</v>
+        <v>417</v>
       </c>
     </row>
     <row r="181" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E181" t="s">
-        <v>512</v>
+        <v>417</v>
       </c>
     </row>
     <row r="182" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E182" t="s">
-        <v>513</v>
+        <v>418</v>
       </c>
     </row>
     <row r="183" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E183" t="s">
-        <v>513</v>
+        <v>418</v>
       </c>
     </row>
     <row r="184" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E184" t="s">
-        <v>514</v>
+        <v>419</v>
       </c>
     </row>
     <row r="185" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E185" t="s">
-        <v>514</v>
+        <v>419</v>
       </c>
     </row>
     <row r="186" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E186" t="s">
-        <v>515</v>
+        <v>420</v>
       </c>
     </row>
     <row r="187" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E187" t="s">
-        <v>515</v>
+        <v>420</v>
       </c>
     </row>
     <row r="188" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
-        <v>512</v>
+        <v>417</v>
       </c>
     </row>
     <row r="189" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E189" t="s">
-        <v>512</v>
+        <v>417</v>
       </c>
     </row>
     <row r="190" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E190" t="s">
-        <v>513</v>
+        <v>418</v>
       </c>
     </row>
     <row r="191" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E191" t="s">
-        <v>513</v>
+        <v>418</v>
       </c>
     </row>
     <row r="192" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E192" t="s">
-        <v>516</v>
+        <v>421</v>
       </c>
     </row>
     <row r="193" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E193" t="s">
-        <v>517</v>
+        <v>422</v>
       </c>
     </row>
     <row r="194" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E194" t="s">
-        <v>516</v>
+        <v>421</v>
       </c>
     </row>
     <row r="195" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E195" t="s">
-        <v>517</v>
+        <v>422</v>
       </c>
     </row>
     <row r="196" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E196" t="s">
-        <v>518</v>
+        <v>423</v>
       </c>
     </row>
     <row r="197" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E197" t="s">
-        <v>518</v>
+        <v>423</v>
       </c>
     </row>
     <row r="198" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E198" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
     </row>
     <row r="199" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E199" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="200" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E200" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
     </row>
     <row r="201" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E201" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="202" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E202" t="s">
-        <v>521</v>
+        <v>426</v>
       </c>
     </row>
     <row r="203" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E203" t="s">
-        <v>522</v>
+        <v>427</v>
       </c>
     </row>
     <row r="204" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E204" t="s">
-        <v>521</v>
+        <v>426</v>
       </c>
     </row>
     <row r="205" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E205" t="s">
-        <v>522</v>
+        <v>427</v>
       </c>
     </row>
     <row r="206" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E206" t="s">
-        <v>517</v>
+        <v>422</v>
       </c>
     </row>
     <row r="207" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E207" t="s">
-        <v>517</v>
+        <v>422</v>
       </c>
     </row>
     <row r="208" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E208" t="s">
-        <v>516</v>
+        <v>421</v>
       </c>
     </row>
     <row r="209" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E209" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="210" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E210" t="s">
-        <v>516</v>
+        <v>421</v>
       </c>
     </row>
     <row r="211" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E211" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="212" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E212" t="s">
-        <v>523</v>
+        <v>428</v>
       </c>
     </row>
     <row r="213" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E213" t="s">
-        <v>523</v>
+        <v>428</v>
       </c>
     </row>
     <row r="214" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E214" t="s">
-        <v>524</v>
+        <v>429</v>
       </c>
     </row>
     <row r="215" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E215" t="s">
-        <v>524</v>
+        <v>429</v>
       </c>
     </row>
     <row r="216" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E216" t="s">
-        <v>525</v>
+        <v>430</v>
       </c>
     </row>
     <row r="217" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E217" t="s">
-        <v>525</v>
+        <v>430</v>
       </c>
     </row>
     <row r="218" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E218" t="s">
-        <v>523</v>
+        <v>428</v>
       </c>
     </row>
     <row r="219" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E219" t="s">
-        <v>523</v>
+        <v>428</v>
       </c>
     </row>
     <row r="220" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E220" t="s">
-        <v>524</v>
+        <v>429</v>
       </c>
     </row>
     <row r="221" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E221" t="s">
-        <v>525</v>
+        <v>430</v>
       </c>
     </row>
     <row r="222" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E222" t="s">
-        <v>524</v>
+        <v>429</v>
       </c>
     </row>
     <row r="223" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E223" t="s">
-        <v>525</v>
+        <v>430</v>
       </c>
     </row>
     <row r="224" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E224" t="s">
-        <v>526</v>
+        <v>431</v>
       </c>
     </row>
     <row r="225" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E225" t="s">
-        <v>527</v>
+        <v>432</v>
       </c>
     </row>
     <row r="226" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E226" t="s">
-        <v>526</v>
+        <v>431</v>
       </c>
     </row>
     <row r="227" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E227" t="s">
-        <v>527</v>
+        <v>432</v>
       </c>
     </row>
     <row r="228" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E228" t="s">
-        <v>528</v>
+        <v>433</v>
       </c>
     </row>
     <row r="229" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E229" t="s">
-        <v>528</v>
+        <v>433</v>
       </c>
     </row>
     <row r="230" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E230" t="s">
-        <v>529</v>
+        <v>434</v>
       </c>
     </row>
     <row r="231" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E231" t="s">
-        <v>529</v>
+        <v>434</v>
       </c>
     </row>
     <row r="232" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E232" t="s">
-        <v>526</v>
+        <v>431</v>
       </c>
     </row>
     <row r="233" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E233" t="s">
-        <v>527</v>
+        <v>432</v>
       </c>
     </row>
     <row r="234" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E234" t="s">
-        <v>529</v>
+        <v>434</v>
       </c>
     </row>
     <row r="235" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E235" t="s">
-        <v>526</v>
+        <v>431</v>
       </c>
     </row>
     <row r="236" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E236" t="s">
-        <v>527</v>
+        <v>432</v>
       </c>
     </row>
     <row r="237" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E237" t="s">
-        <v>529</v>
+        <v>434</v>
       </c>
     </row>
     <row r="238" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E238" t="s">
-        <v>530</v>
+        <v>435</v>
       </c>
     </row>
     <row r="239" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E239" t="s">
-        <v>530</v>
+        <v>435</v>
       </c>
     </row>
     <row r="240" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E240" t="s">
-        <v>531</v>
+        <v>436</v>
       </c>
     </row>
     <row r="241" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E241" t="s">
-        <v>531</v>
+        <v>436</v>
       </c>
     </row>
     <row r="242" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E242" t="s">
-        <v>532</v>
+        <v>437</v>
       </c>
     </row>
     <row r="243" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E243" t="s">
-        <v>532</v>
+        <v>437</v>
       </c>
     </row>
     <row r="244" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E244" t="s">
-        <v>533</v>
+        <v>438</v>
       </c>
     </row>
     <row r="245" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E245" t="s">
-        <v>533</v>
+        <v>438</v>
       </c>
     </row>
     <row r="246" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E246" t="s">
-        <v>531</v>
+        <v>436</v>
       </c>
     </row>
     <row r="247" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E247" t="s">
-        <v>531</v>
+        <v>436</v>
       </c>
     </row>
     <row r="248" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E248" t="s">
-        <v>534</v>
+        <v>439</v>
       </c>
     </row>
     <row r="249" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E249" t="s">
-        <v>534</v>
+        <v>439</v>
       </c>
     </row>
     <row r="250" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E250" t="s">
-        <v>535</v>
+        <v>440</v>
       </c>
     </row>
     <row r="251" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E251" t="s">
-        <v>535</v>
+        <v>440</v>
       </c>
     </row>
     <row r="252" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E252" t="s">
-        <v>536</v>
+        <v>441</v>
       </c>
     </row>
     <row r="253" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E253" t="s">
-        <v>536</v>
+        <v>441</v>
       </c>
     </row>
     <row r="254" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E254" t="s">
-        <v>537</v>
+        <v>442</v>
       </c>
     </row>
     <row r="255" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E255" t="s">
-        <v>537</v>
+        <v>442</v>
       </c>
     </row>
     <row r="256" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E256" t="s">
-        <v>538</v>
+        <v>443</v>
       </c>
     </row>
     <row r="257" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E257" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
     </row>
     <row r="258" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E258" t="s">
-        <v>538</v>
+        <v>443</v>
       </c>
     </row>
     <row r="259" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E259" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
     </row>
     <row r="260" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E260" t="s">
-        <v>539</v>
+        <v>444</v>
       </c>
     </row>
     <row r="261" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E261" t="s">
-        <v>539</v>
+        <v>444</v>
       </c>
     </row>
     <row r="262" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E262" t="s">
-        <v>540</v>
+        <v>445</v>
       </c>
     </row>
     <row r="263" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E263" t="s">
-        <v>540</v>
+        <v>445</v>
       </c>
     </row>
     <row r="264" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E264" t="s">
-        <v>541</v>
+        <v>446</v>
       </c>
     </row>
     <row r="265" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E265" t="s">
-        <v>541</v>
+        <v>446</v>
       </c>
     </row>
     <row r="266" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E266" t="s">
-        <v>537</v>
+        <v>442</v>
       </c>
     </row>
     <row r="267" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E267" t="s">
-        <v>539</v>
+        <v>444</v>
       </c>
     </row>
     <row r="268" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E268" t="s">
-        <v>537</v>
+        <v>442</v>
       </c>
     </row>
     <row r="269" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E269" t="s">
-        <v>539</v>
+        <v>444</v>
       </c>
     </row>
     <row r="270" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E270" t="s">
-        <v>542</v>
+        <v>447</v>
       </c>
     </row>
     <row r="271" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E271" t="s">
-        <v>542</v>
+        <v>447</v>
       </c>
     </row>
     <row r="272" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E272" t="s">
-        <v>543</v>
+        <v>448</v>
       </c>
     </row>
     <row r="273" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E273" t="s">
-        <v>544</v>
+        <v>449</v>
       </c>
     </row>
     <row r="274" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E274" t="s">
-        <v>543</v>
+        <v>448</v>
       </c>
     </row>
     <row r="275" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E275" t="s">
-        <v>544</v>
+        <v>449</v>
       </c>
     </row>
     <row r="276" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E276" t="s">
-        <v>545</v>
+        <v>450</v>
       </c>
     </row>
     <row r="277" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E277" t="s">
-        <v>545</v>
+        <v>450</v>
       </c>
     </row>
     <row r="278" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E278" t="s">
-        <v>546</v>
+        <v>451</v>
       </c>
     </row>
     <row r="279" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E279" t="s">
-        <v>546</v>
+        <v>451</v>
       </c>
     </row>
     <row r="280" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E280" t="s">
-        <v>542</v>
+        <v>447</v>
       </c>
     </row>
     <row r="281" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E281" t="s">
-        <v>542</v>
+        <v>447</v>
       </c>
     </row>
     <row r="282" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E282" t="s">
-        <v>543</v>
+        <v>448</v>
       </c>
     </row>
     <row r="283" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E283" t="s">
-        <v>544</v>
+        <v>449</v>
       </c>
     </row>
     <row r="284" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E284" t="s">
-        <v>545</v>
+        <v>450</v>
       </c>
     </row>
     <row r="285" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E285" t="s">
-        <v>543</v>
+        <v>448</v>
       </c>
     </row>
     <row r="286" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E286" t="s">
-        <v>544</v>
+        <v>449</v>
       </c>
     </row>
     <row r="287" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E287" t="s">
-        <v>545</v>
+        <v>450</v>
       </c>
     </row>
     <row r="288" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E288" t="s">
-        <v>547</v>
+        <v>452</v>
       </c>
     </row>
     <row r="289" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E289" t="s">
-        <v>547</v>
+        <v>452</v>
       </c>
     </row>
     <row r="290" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E290" t="s">
-        <v>548</v>
+        <v>453</v>
       </c>
     </row>
     <row r="291" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E291" t="s">
-        <v>548</v>
+        <v>453</v>
       </c>
     </row>
     <row r="292" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E292" t="s">
-        <v>549</v>
+        <v>454</v>
       </c>
     </row>
     <row r="293" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E293" t="s">
-        <v>549</v>
+        <v>454</v>
       </c>
     </row>
     <row r="294" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E294" t="s">
-        <v>550</v>
+        <v>455</v>
       </c>
     </row>
     <row r="295" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E295" t="s">
-        <v>550</v>
+        <v>455</v>
       </c>
     </row>
     <row r="296" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E296" t="s">
-        <v>551</v>
+        <v>456</v>
       </c>
     </row>
     <row r="297" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E297" t="s">
-        <v>551</v>
+        <v>456</v>
       </c>
     </row>
     <row r="298" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E298" t="s">
-        <v>552</v>
+        <v>457</v>
       </c>
     </row>
     <row r="299" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E299" t="s">
-        <v>553</v>
+        <v>458</v>
       </c>
     </row>
     <row r="300" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E300" t="s">
-        <v>552</v>
+        <v>457</v>
       </c>
     </row>
     <row r="301" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E301" t="s">
-        <v>553</v>
+        <v>458</v>
       </c>
     </row>
     <row r="302" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E302" t="s">
-        <v>547</v>
+        <v>452</v>
       </c>
     </row>
     <row r="303" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E303" t="s">
-        <v>550</v>
+        <v>455</v>
       </c>
     </row>
     <row r="304" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E304" t="s">
-        <v>553</v>
+        <v>458</v>
       </c>
     </row>
     <row r="305" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E305" t="s">
-        <v>547</v>
+        <v>452</v>
       </c>
     </row>
     <row r="306" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E306" t="s">
-        <v>550</v>
+        <v>455</v>
       </c>
     </row>
     <row r="307" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E307" t="s">
-        <v>553</v>
+        <v>458</v>
       </c>
     </row>
     <row r="308" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E308" t="s">
-        <v>548</v>
+        <v>453</v>
       </c>
     </row>
     <row r="309" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E309" t="s">
-        <v>551</v>
+        <v>456</v>
       </c>
     </row>
     <row r="310" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E310" t="s">
-        <v>548</v>
+        <v>453</v>
       </c>
     </row>
     <row r="311" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E311" t="s">
-        <v>551</v>
+        <v>456</v>
       </c>
     </row>
     <row r="312" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E312" t="s">
-        <v>554</v>
+        <v>459</v>
       </c>
     </row>
     <row r="313" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E313" t="s">
-        <v>555</v>
+        <v>460</v>
       </c>
     </row>
     <row r="314" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E314" t="s">
-        <v>554</v>
+        <v>459</v>
       </c>
     </row>
     <row r="315" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E315" t="s">
-        <v>555</v>
+        <v>460</v>
       </c>
     </row>
     <row r="316" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E316" t="s">
-        <v>556</v>
+        <v>461</v>
       </c>
     </row>
     <row r="317" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E317" t="s">
-        <v>556</v>
+        <v>461</v>
       </c>
     </row>
     <row r="318" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E318" t="s">
-        <v>557</v>
+        <v>462</v>
       </c>
     </row>
     <row r="319" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E319" t="s">
-        <v>480</v>
+        <v>385</v>
       </c>
     </row>
     <row r="320" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E320" t="s">
-        <v>557</v>
+        <v>462</v>
       </c>
     </row>
     <row r="321" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E321" t="s">
-        <v>480</v>
+        <v>385</v>
       </c>
     </row>
     <row r="322" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E322" t="s">
-        <v>558</v>
+        <v>463</v>
       </c>
     </row>
     <row r="323" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E323" t="s">
-        <v>558</v>
+        <v>463</v>
       </c>
     </row>
     <row r="324" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E324" t="s">
-        <v>559</v>
+        <v>464</v>
       </c>
     </row>
     <row r="325" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E325" t="s">
-        <v>559</v>
+        <v>464</v>
       </c>
     </row>
     <row r="326" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E326" t="s">
-        <v>554</v>
+        <v>459</v>
       </c>
     </row>
     <row r="327" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E327" t="s">
-        <v>558</v>
+        <v>463</v>
       </c>
     </row>
     <row r="328" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E328" t="s">
-        <v>554</v>
+        <v>459</v>
       </c>
     </row>
     <row r="329" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E329" t="s">
-        <v>558</v>
+        <v>463</v>
       </c>
     </row>
     <row r="330" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E330" t="s">
-        <v>556</v>
+        <v>461</v>
       </c>
     </row>
     <row r="331" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E331" t="s">
-        <v>556</v>
+        <v>461</v>
       </c>
     </row>
     <row r="332" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E332" t="s">
-        <v>560</v>
+        <v>465</v>
       </c>
     </row>
     <row r="333" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E333" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
     </row>
     <row r="334" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E334" t="s">
-        <v>560</v>
+        <v>465</v>
       </c>
     </row>
     <row r="335" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E335" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
     </row>
     <row r="336" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E336" t="s">
-        <v>562</v>
+        <v>467</v>
       </c>
     </row>
     <row r="337" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E337" t="s">
-        <v>563</v>
+        <v>468</v>
       </c>
     </row>
     <row r="338" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E338" t="s">
-        <v>562</v>
+        <v>467</v>
       </c>
     </row>
     <row r="339" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E339" t="s">
-        <v>563</v>
+        <v>468</v>
       </c>
     </row>
     <row r="340" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E340" t="s">
-        <v>564</v>
+        <v>469</v>
       </c>
     </row>
     <row r="341" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E341" t="s">
-        <v>564</v>
+        <v>469</v>
       </c>
     </row>
     <row r="342" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E342" t="s">
-        <v>560</v>
+        <v>465</v>
       </c>
     </row>
     <row r="343" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E343" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
     </row>
     <row r="344" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E344" t="s">
-        <v>563</v>
+        <v>468</v>
       </c>
     </row>
     <row r="345" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E345" t="s">
-        <v>560</v>
+        <v>465</v>
       </c>
     </row>
     <row r="346" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E346" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
     </row>
     <row r="347" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E347" t="s">
-        <v>563</v>
+        <v>468</v>
       </c>
     </row>
     <row r="348" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E348" t="s">
-        <v>481</v>
+        <v>386</v>
       </c>
     </row>
     <row r="349" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E349" t="s">
-        <v>481</v>
+        <v>386</v>
       </c>
     </row>
     <row r="350" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E350" t="s">
-        <v>565</v>
+        <v>470</v>
       </c>
     </row>
     <row r="351" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E351" t="s">
-        <v>565</v>
+        <v>470</v>
       </c>
     </row>
     <row r="352" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E352" t="s">
-        <v>566</v>
+        <v>471</v>
       </c>
     </row>
     <row r="353" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E353" t="s">
-        <v>566</v>
+        <v>471</v>
       </c>
     </row>
     <row r="354" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E354" t="s">
-        <v>567</v>
+        <v>472</v>
       </c>
     </row>
     <row r="355" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E355" t="s">
-        <v>567</v>
+        <v>472</v>
       </c>
     </row>
     <row r="356" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E356" t="s">
-        <v>568</v>
+        <v>473</v>
       </c>
     </row>
     <row r="357" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E357" t="s">
-        <v>568</v>
+        <v>473</v>
       </c>
     </row>
     <row r="358" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E358" t="s">
-        <v>481</v>
+        <v>386</v>
       </c>
     </row>
     <row r="359" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E359" t="s">
-        <v>481</v>
+        <v>386</v>
       </c>
     </row>
     <row r="360" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E360" t="s">
-        <v>565</v>
+        <v>470</v>
       </c>
     </row>
     <row r="361" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E361" t="s">
-        <v>566</v>
+        <v>471</v>
       </c>
     </row>
     <row r="362" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E362" t="s">
-        <v>567</v>
+        <v>472</v>
       </c>
     </row>
     <row r="363" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E363" t="s">
-        <v>565</v>
+        <v>470</v>
       </c>
     </row>
     <row r="364" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E364" t="s">
-        <v>566</v>
+        <v>471</v>
       </c>
     </row>
     <row r="365" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E365" t="s">
-        <v>567</v>
+        <v>472</v>
       </c>
     </row>
     <row r="366" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E366" t="s">
-        <v>569</v>
+        <v>474</v>
       </c>
     </row>
     <row r="367" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E367" t="s">
-        <v>570</v>
+        <v>475</v>
       </c>
     </row>
     <row r="368" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E368" t="s">
-        <v>569</v>
+        <v>474</v>
       </c>
     </row>
     <row r="369" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E369" t="s">
-        <v>570</v>
+        <v>475</v>
       </c>
     </row>
     <row r="370" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E370" t="s">
-        <v>571</v>
+        <v>476</v>
       </c>
     </row>
     <row r="371" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E371" t="s">
-        <v>572</v>
+        <v>477</v>
       </c>
     </row>
     <row r="372" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E372" t="s">
-        <v>571</v>
+        <v>476</v>
       </c>
     </row>
     <row r="373" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E373" t="s">
-        <v>572</v>
+        <v>477</v>
       </c>
     </row>
     <row r="374" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E374" t="s">
-        <v>571</v>
+        <v>476</v>
       </c>
     </row>
     <row r="375" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E375" t="s">
-        <v>572</v>
+        <v>477</v>
       </c>
     </row>
     <row r="376" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E376" t="s">
-        <v>571</v>
+        <v>476</v>
       </c>
     </row>
     <row r="377" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E377" t="s">
-        <v>572</v>
+        <v>477</v>
       </c>
     </row>
     <row r="378" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E378" t="s">
-        <v>573</v>
+        <v>478</v>
       </c>
     </row>
     <row r="379" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E379" t="s">
-        <v>573</v>
+        <v>478</v>
       </c>
     </row>
     <row r="380" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E380" t="s">
-        <v>574</v>
+        <v>479</v>
       </c>
     </row>
     <row r="381" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E381" t="s">
-        <v>574</v>
+        <v>479</v>
       </c>
     </row>
     <row r="382" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E382" t="s">
-        <v>575</v>
+        <v>480</v>
       </c>
     </row>
     <row r="383" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E383" t="s">
-        <v>576</v>
+        <v>481</v>
       </c>
     </row>
     <row r="384" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E384" t="s">
-        <v>575</v>
+        <v>480</v>
       </c>
     </row>
     <row r="385" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E385" t="s">
-        <v>576</v>
+        <v>481</v>
       </c>
     </row>
     <row r="386" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E386" t="s">
-        <v>577</v>
+        <v>482</v>
       </c>
     </row>
     <row r="387" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E387" t="s">
-        <v>577</v>
+        <v>482</v>
       </c>
     </row>
     <row r="388" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E388" t="s">
-        <v>578</v>
+        <v>483</v>
       </c>
     </row>
     <row r="389" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E389" t="s">
-        <v>579</v>
+        <v>484</v>
       </c>
     </row>
     <row r="390" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E390" t="s">
-        <v>578</v>
+        <v>483</v>
       </c>
     </row>
     <row r="391" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E391" t="s">
-        <v>579</v>
+        <v>484</v>
       </c>
     </row>
     <row r="392" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E392" t="s">
-        <v>580</v>
+        <v>485</v>
       </c>
     </row>
     <row r="393" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E393" t="s">
-        <v>580</v>
+        <v>485</v>
       </c>
     </row>
     <row r="394" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E394" t="s">
-        <v>581</v>
+        <v>486</v>
       </c>
     </row>
     <row r="395" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E395" t="s">
-        <v>581</v>
+        <v>486</v>
       </c>
     </row>
     <row r="396" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E396" t="s">
-        <v>576</v>
+        <v>481</v>
       </c>
     </row>
     <row r="397" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E397" t="s">
-        <v>573</v>
+        <v>478</v>
       </c>
     </row>
     <row r="398" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E398" t="s">
-        <v>580</v>
+        <v>485</v>
       </c>
     </row>
     <row r="399" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E399" t="s">
-        <v>576</v>
+        <v>481</v>
       </c>
     </row>
     <row r="400" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E400" t="s">
-        <v>573</v>
+        <v>478</v>
       </c>
     </row>
     <row r="401" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E401" t="s">
-        <v>580</v>
+        <v>485</v>
       </c>
     </row>
     <row r="402" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E402" t="s">
-        <v>574</v>
+        <v>479</v>
       </c>
     </row>
     <row r="403" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E403" t="s">
-        <v>581</v>
+        <v>486</v>
       </c>
     </row>
     <row r="404" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E404" t="s">
-        <v>574</v>
+        <v>479</v>
       </c>
     </row>
     <row r="405" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E405" t="s">
-        <v>581</v>
+        <v>486</v>
       </c>
     </row>
     <row r="406" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E406" t="s">
-        <v>582</v>
+        <v>487</v>
       </c>
     </row>
     <row r="407" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E407" t="s">
-        <v>582</v>
+        <v>487</v>
       </c>
     </row>
     <row r="408" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E408" t="s">
-        <v>583</v>
+        <v>488</v>
       </c>
     </row>
     <row r="409" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E409" t="s">
-        <v>583</v>
+        <v>488</v>
       </c>
     </row>
     <row r="410" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E410" t="s">
-        <v>482</v>
+        <v>387</v>
       </c>
     </row>
     <row r="411" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E411" t="s">
-        <v>584</v>
+        <v>489</v>
       </c>
     </row>
     <row r="412" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E412" t="s">
-        <v>482</v>
+        <v>387</v>
       </c>
     </row>
     <row r="413" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E413" t="s">
-        <v>584</v>
+        <v>489</v>
       </c>
     </row>
     <row r="414" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E414" t="s">
-        <v>585</v>
+        <v>490</v>
       </c>
     </row>
     <row r="415" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E415" t="s">
-        <v>585</v>
+        <v>490</v>
       </c>
     </row>
     <row r="416" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E416" t="s">
-        <v>586</v>
+        <v>491</v>
       </c>
     </row>
     <row r="417" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E417" t="s">
-        <v>586</v>
+        <v>491</v>
       </c>
     </row>
     <row r="418" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E418" t="s">
-        <v>585</v>
+        <v>490</v>
       </c>
     </row>
     <row r="419" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E419" t="s">
-        <v>585</v>
+        <v>490</v>
       </c>
     </row>
     <row r="420" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E420" t="s">
-        <v>582</v>
+        <v>487</v>
       </c>
     </row>
     <row r="421" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E421" t="s">
-        <v>582</v>
+        <v>487</v>
       </c>
     </row>
     <row r="422" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E422" t="s">
-        <v>587</v>
+        <v>492</v>
       </c>
     </row>
     <row r="423" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E423" t="s">
-        <v>588</v>
+        <v>493</v>
       </c>
     </row>
     <row r="424" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E424" t="s">
-        <v>587</v>
+        <v>492</v>
       </c>
     </row>
     <row r="425" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E425" t="s">
-        <v>588</v>
+        <v>493</v>
       </c>
     </row>
     <row r="426" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E426" t="s">
-        <v>589</v>
+        <v>494</v>
       </c>
     </row>
     <row r="427" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E427" t="s">
-        <v>589</v>
+        <v>494</v>
       </c>
     </row>
     <row r="428" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E428" t="s">
-        <v>590</v>
+        <v>495</v>
       </c>
     </row>
     <row r="429" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E429" t="s">
-        <v>590</v>
+        <v>495</v>
       </c>
     </row>
     <row r="430" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E430" t="s">
-        <v>591</v>
+        <v>496</v>
       </c>
     </row>
     <row r="431" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E431" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
     </row>
     <row r="432" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E432" t="s">
-        <v>591</v>
+        <v>496</v>
       </c>
     </row>
     <row r="433" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E433" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
     </row>
     <row r="434" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E434" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
     </row>
     <row r="435" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E435" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
     </row>
     <row r="436" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E436" t="s">
-        <v>587</v>
+        <v>492</v>
       </c>
     </row>
     <row r="437" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E437" t="s">
-        <v>588</v>
+        <v>493</v>
       </c>
     </row>
     <row r="438" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E438" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
     </row>
     <row r="439" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E439" t="s">
-        <v>587</v>
+        <v>492</v>
       </c>
     </row>
     <row r="440" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E440" t="s">
-        <v>588</v>
+        <v>493</v>
       </c>
     </row>
     <row r="441" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E441" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
     </row>
     <row r="442" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E442" t="s">
-        <v>589</v>
+        <v>494</v>
       </c>
     </row>
     <row r="443" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E443" t="s">
-        <v>589</v>
+        <v>494</v>
       </c>
     </row>
     <row r="444" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E444" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="445" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E445" t="s">
-        <v>595</v>
+        <v>500</v>
       </c>
     </row>
     <row r="446" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E446" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="447" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E447" t="s">
-        <v>595</v>
+        <v>500</v>
       </c>
     </row>
     <row r="448" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E448" t="s">
-        <v>596</v>
+        <v>501</v>
       </c>
     </row>
     <row r="449" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E449" t="s">
-        <v>597</v>
+        <v>502</v>
       </c>
     </row>
     <row r="450" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E450" t="s">
-        <v>596</v>
+        <v>501</v>
       </c>
     </row>
     <row r="451" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E451" t="s">
-        <v>597</v>
+        <v>502</v>
       </c>
     </row>
     <row r="452" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E452" t="s">
-        <v>598</v>
+        <v>503</v>
       </c>
     </row>
     <row r="453" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E453" t="s">
-        <v>598</v>
+        <v>503</v>
       </c>
     </row>
     <row r="454" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E454" t="s">
-        <v>599</v>
+        <v>504</v>
       </c>
     </row>
     <row r="455" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E455" t="s">
-        <v>599</v>
+        <v>504</v>
       </c>
     </row>
     <row r="456" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E456" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="457" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E457" t="s">
-        <v>595</v>
+        <v>500</v>
       </c>
     </row>
     <row r="458" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E458" t="s">
-        <v>598</v>
+        <v>503</v>
       </c>
     </row>
     <row r="459" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E459" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="460" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E460" t="s">
-        <v>595</v>
+        <v>500</v>
       </c>
     </row>
     <row r="461" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E461" t="s">
-        <v>598</v>
+        <v>503</v>
       </c>
     </row>
     <row r="462" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E462" t="s">
-        <v>596</v>
+        <v>501</v>
       </c>
     </row>
     <row r="463" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E463" t="s">
-        <v>596</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -8648,7 +9553,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8660,232 +9565,232 @@
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>560</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>607</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D2" s="9">
-        <v>671.375</v>
+        <v>410.015625</v>
       </c>
       <c r="E2">
-        <v>3100</v>
+        <v>5000</v>
       </c>
       <c r="F2">
-        <v>1342.75</v>
+        <v>1093.375</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>466</v>
+        <v>577</v>
       </c>
       <c r="B3" t="s">
-        <v>465</v>
+        <v>608</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D3" s="9">
-        <v>791</v>
+        <v>480.978395062</v>
       </c>
       <c r="E3">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="F3">
-        <v>1582</v>
+        <v>1574.1111111099999</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>0.305555555556</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>467</v>
+        <v>609</v>
       </c>
       <c r="B4" t="s">
-        <v>468</v>
+        <v>610</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D4" s="9">
-        <v>506.91666666700002</v>
+        <v>481.33555555599997</v>
       </c>
       <c r="E4">
-        <v>4100</v>
+        <v>5200</v>
       </c>
       <c r="F4">
-        <v>869</v>
+        <v>1125.2</v>
       </c>
       <c r="G4">
-        <v>0.58333333333299997</v>
+        <v>0.42777777777800002</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>454</v>
+        <v>377</v>
       </c>
       <c r="B5" t="s">
-        <v>468</v>
+        <v>611</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D5" s="9">
-        <v>517.85416666699996</v>
+        <v>475.70370370400002</v>
       </c>
       <c r="E5">
-        <v>3700</v>
+        <v>4400</v>
       </c>
       <c r="F5">
-        <v>887.75</v>
+        <v>1427.1111111099999</v>
       </c>
       <c r="G5">
-        <v>0.58333333333299997</v>
+        <v>0.33333333333300003</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="B6" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6" s="9">
-        <v>525.096</v>
+        <v>484.99588477399999</v>
       </c>
       <c r="E6">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="F6">
-        <v>1193.4000000000001</v>
+        <v>1190.4444444400001</v>
       </c>
       <c r="G6">
-        <v>0.44</v>
+        <v>0.40740740740699999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>470</v>
+        <v>613</v>
       </c>
       <c r="B7" t="s">
-        <v>469</v>
+        <v>611</v>
       </c>
       <c r="C7" t="s">
         <v>162</v>
       </c>
       <c r="D7" s="9">
-        <v>613.95416666699998</v>
+        <v>439.13991769500001</v>
       </c>
       <c r="E7">
-        <v>7700</v>
+        <v>5400</v>
       </c>
       <c r="F7">
-        <v>1270.25</v>
+        <v>1077.8888888900001</v>
       </c>
       <c r="G7">
-        <v>0.48333333333299999</v>
+        <v>0.40740740740699999</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="B8" t="s">
-        <v>471</v>
+        <v>611</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D8" s="9">
-        <v>-1013.01043889</v>
+        <v>461.95473250999999</v>
       </c>
       <c r="E8">
-        <v>7600</v>
+        <v>6600</v>
       </c>
       <c r="F8">
-        <v>1066.3267777799999</v>
+        <v>1133.8888888900001</v>
       </c>
       <c r="G8">
-        <v>-0.95</v>
+        <v>0.40740740740699999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>473</v>
+        <v>614</v>
       </c>
       <c r="B9" t="s">
-        <v>476</v>
+        <v>615</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D9" s="9">
-        <v>612.14814814800002</v>
+        <v>444.79166666700002</v>
       </c>
       <c r="E9">
-        <v>8300</v>
+        <v>6100</v>
       </c>
       <c r="F9">
-        <v>1377.33333333</v>
+        <v>1067.5</v>
       </c>
       <c r="G9">
-        <v>0.444444444444</v>
+        <v>0.41666666666699997</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B10" t="s">
-        <v>476</v>
+        <v>616</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D10" s="9">
-        <v>548.14814814800002</v>
+        <v>-421.61720777800002</v>
       </c>
       <c r="E10">
-        <v>6400</v>
+        <v>8700</v>
       </c>
       <c r="F10">
-        <v>1233.33333333</v>
+        <v>897.05788888899997</v>
       </c>
       <c r="G10">
-        <v>0.444444444444</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" s="9">
         <f>SUM(D2:D10)</f>
-        <v>3773.4818574070005</v>
+        <v>3257.2982731899992</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
@@ -8906,7 +9811,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="A5:E5"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8919,27 +9824,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
         <v>114</v>
-      </c>
-      <c r="B1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>345</v>
+        <v>565</v>
       </c>
       <c r="B2">
-        <v>1855.25</v>
+        <v>1705.3</v>
       </c>
       <c r="C2">
         <v>80</v>
@@ -8948,21 +9853,21 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>346</v>
+        <v>566</v>
       </c>
       <c r="B3">
-        <v>2978.2</v>
+        <v>2116.4</v>
       </c>
       <c r="C3">
         <v>40</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>25</v>
@@ -8970,54 +9875,40 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>347</v>
+        <v>567</v>
       </c>
       <c r="B4">
-        <v>2980.5</v>
+        <v>2505</v>
       </c>
       <c r="C4">
         <v>40</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>349</v>
+        <v>568</v>
       </c>
       <c r="B5">
-        <v>3088.1</v>
+        <v>4125.75</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B6">
-        <v>4538.25</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>22</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -9041,6 +9932,10 @@
       <c r="A13" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Fanduel.xlsx
+++ b/Fanduel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="_ironspread_data_" sheetId="4" state="veryHidden" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Player Mapping'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'To Do'!$A$1:$H$22</definedName>
     <definedName name="cLastDataDate">Parameters!#REF!</definedName>
+    <definedName name="clBCLastRow">Parameters!$B$7</definedName>
     <definedName name="clEntryLimit">Parameters!$B$5</definedName>
     <definedName name="cLineUpURL">Parameters!$B$2</definedName>
     <definedName name="clLastGameDataID">Parameters!$B$3</definedName>
@@ -38,12 +39,11 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId11"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="625">
   <si>
     <t>n_scripts_list</t>
   </si>
@@ -387,9 +387,6 @@
     <t>Contest URL</t>
   </si>
   <si>
-    <t>Entries</t>
-  </si>
-  <si>
     <t>Avg Top 25% Wins</t>
   </si>
   <si>
@@ -1746,12 +1743,6 @@
     <t>https://www.fanduel.com/e/Game/11564?tableId=10316635&amp;fromLobby=true</t>
   </si>
   <si>
-    <t>https://www.fanduel.com/e/Game/11564?tableId=10316808&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11564?tableId=10312472&amp;fromLobby=true</t>
-  </si>
-  <si>
     <t>Shane Prince</t>
   </si>
   <si>
@@ -1903,6 +1894,30 @@
   </si>
   <si>
     <t>Interface</t>
+  </si>
+  <si>
+    <t>Best Contests LastRow</t>
+  </si>
+  <si>
+    <t>18/02/2015</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11647?tableId=10588735&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11647?tableId=10588737&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11647?tableId=10588742&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11647?tableId=10588743&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>TableID</t>
   </si>
 </sst>
 </file>
@@ -2568,11 +2583,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="68473600"/>
-        <c:axId val="68475136"/>
+        <c:axId val="192447232"/>
+        <c:axId val="192448768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68473600"/>
+        <c:axId val="192447232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2581,7 +2596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68475136"/>
+        <c:crossAx val="192448768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2589,7 +2604,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68475136"/>
+        <c:axId val="192448768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2600,13 +2615,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68473600"/>
+        <c:crossAx val="192447232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2651,6 +2667,7 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2713,11 +2730,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="91232128"/>
-        <c:axId val="91233664"/>
+        <c:axId val="192477056"/>
+        <c:axId val="192478592"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="91232128"/>
+        <c:axId val="192477056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2726,7 +2743,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91233664"/>
+        <c:crossAx val="192478592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2734,7 +2751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91233664"/>
+        <c:axId val="192478592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2745,13 +2762,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91232128"/>
+        <c:crossAx val="192477056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3412,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3420,7 +3438,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3428,7 +3446,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3436,7 +3454,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3452,7 +3470,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3519,40 +3537,40 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>124</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>126</v>
-      </c>
       <c r="J1" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M1" t="s">
         <v>3</v>
@@ -3563,7 +3581,7 @@
         <v>42034</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C2" s="5">
         <v>1329.8</v>
@@ -3578,7 +3596,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H2" s="5">
         <v>5</v>
@@ -3598,7 +3616,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="M2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3606,7 +3624,7 @@
         <v>42034</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C3" s="5">
         <v>1401.8</v>
@@ -3621,7 +3639,7 @@
         <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H3" s="5">
         <v>5</v>
@@ -3641,7 +3659,7 @@
         <v>0.15</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -3649,7 +3667,7 @@
         <v>42034</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C4" s="5">
         <v>1654.2</v>
@@ -3664,7 +3682,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H4" s="5">
         <v>5</v>
@@ -3684,7 +3702,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -3692,7 +3710,7 @@
         <v>42035</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C5" s="5">
         <v>2289.6</v>
@@ -3707,7 +3725,7 @@
         <v>45</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H5" s="5">
         <v>5</v>
@@ -3727,7 +3745,7 @@
         <v>0.51249999999999996</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -3735,7 +3753,7 @@
         <v>42035</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C6" s="5">
         <v>1980.4</v>
@@ -3750,7 +3768,7 @@
         <v>29</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H6" s="5">
         <v>5</v>
@@ -3770,7 +3788,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -3778,7 +3796,7 @@
         <v>42035</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C7" s="5">
         <v>2580.1</v>
@@ -3793,7 +3811,7 @@
         <v>58</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" s="5">
         <v>5</v>
@@ -3813,7 +3831,7 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -3821,7 +3839,7 @@
         <v>42037</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C8" s="5">
         <v>1855.25</v>
@@ -3836,7 +3854,7 @@
         <v>59</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H8" s="5">
         <v>3</v>
@@ -3849,7 +3867,7 @@
         <v>-1</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -3857,7 +3875,7 @@
         <v>42037</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C9" s="5">
         <v>2978.2</v>
@@ -3872,7 +3890,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H9" s="5">
         <v>3</v>
@@ -3885,7 +3903,7 @@
         <v>-2</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3893,7 +3911,7 @@
         <v>42037</v>
       </c>
       <c r="B10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C10" s="5">
         <v>3088.1</v>
@@ -3908,7 +3926,7 @@
         <v>24</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H10" s="5">
         <v>3</v>
@@ -3921,7 +3939,7 @@
         <v>-5</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3929,7 +3947,7 @@
         <v>42038</v>
       </c>
       <c r="B11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C11" s="5">
         <v>2174.6999999999998</v>
@@ -3944,7 +3962,7 @@
         <v>55</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H11" s="5">
         <v>11</v>
@@ -3957,7 +3975,7 @@
         <v>-1</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -3965,7 +3983,7 @@
         <v>42038</v>
       </c>
       <c r="B12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C12" s="5">
         <v>2679.35</v>
@@ -3980,7 +3998,7 @@
         <v>47</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H12" s="5">
         <v>11</v>
@@ -3993,7 +4011,7 @@
         <v>-1</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -4001,7 +4019,7 @@
         <v>42038</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C13" s="5">
         <v>2441.0500000000002</v>
@@ -4016,7 +4034,7 @@
         <v>58</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H13" s="5">
         <v>11</v>
@@ -4029,7 +4047,7 @@
         <v>-1</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -4037,7 +4055,7 @@
         <v>42038</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C14" s="5">
         <v>2818.4</v>
@@ -4052,7 +4070,7 @@
         <v>76</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H14" s="5">
         <v>11</v>
@@ -4065,7 +4083,7 @@
         <v>-1</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -4073,7 +4091,7 @@
         <v>42038</v>
       </c>
       <c r="B15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C15" s="5">
         <v>1663.9</v>
@@ -4088,7 +4106,7 @@
         <v>53</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H15" s="5">
         <v>11</v>
@@ -4101,7 +4119,7 @@
         <v>-1</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -4109,7 +4127,7 @@
         <v>42038</v>
       </c>
       <c r="B16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C16" s="5">
         <v>2418.3000000000002</v>
@@ -4124,7 +4142,7 @@
         <v>28</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H16" s="5">
         <v>11</v>
@@ -4137,7 +4155,7 @@
         <v>-2</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -4145,7 +4163,7 @@
         <v>42039</v>
       </c>
       <c r="B17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C17" s="5">
         <v>1390.9</v>
@@ -4160,10 +4178,10 @@
         <v>66</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -4171,7 +4189,7 @@
         <v>42039</v>
       </c>
       <c r="B18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C18" s="5">
         <v>1392.9</v>
@@ -4186,10 +4204,10 @@
         <v>45</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -4197,7 +4215,7 @@
         <v>42039</v>
       </c>
       <c r="B19" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C19" s="5">
         <v>1953.4</v>
@@ -4212,10 +4230,10 @@
         <v>26</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -4223,7 +4241,7 @@
         <v>42039</v>
       </c>
       <c r="B20" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C20" s="5">
         <v>1532.05</v>
@@ -4238,10 +4256,10 @@
         <v>54</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4249,7 +4267,7 @@
         <v>42039</v>
       </c>
       <c r="B21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C21" s="5">
         <v>2137.5</v>
@@ -4264,10 +4282,10 @@
         <v>25</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4285,8 +4303,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4308,10 +4326,10 @@
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
@@ -4323,7 +4341,7 @@
         <v>22</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -4334,7 +4352,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>24</v>
@@ -4346,7 +4364,7 @@
         <v>50</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4403,7 +4421,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>55</v>
@@ -4446,7 +4464,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>32</v>
@@ -4486,7 +4504,7 @@
         <v>43</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>42</v>
@@ -4506,7 +4524,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>48</v>
@@ -4546,7 +4564,7 @@
         <v>88</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>48</v>
@@ -4558,7 +4576,7 @@
         <v>49</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4569,7 +4587,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>32</v>
@@ -4632,7 +4650,7 @@
         <v>92</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>93</v>
@@ -4652,7 +4670,7 @@
         <v>95</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>94</v>
@@ -4704,21 +4722,21 @@
         <v>31</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>225</v>
-      </c>
       <c r="D20" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E20" s="6">
         <v>4</v>
@@ -4729,13 +4747,13 @@
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E21" s="6">
         <v>5</v>
@@ -4743,13 +4761,13 @@
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E22" s="6">
         <v>5</v>
@@ -4757,16 +4775,16 @@
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>312</v>
       </c>
       <c r="E23" s="6">
         <v>5</v>
@@ -4774,16 +4792,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E24" s="6">
         <v>5</v>
@@ -4824,19 +4842,19 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>180</v>
-      </c>
       <c r="L2" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -4850,7 +4868,7 @@
         <v>-1</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M3" s="13">
         <v>-1</v>
@@ -4858,7 +4876,7 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" s="13">
         <v>-10</v>
@@ -4867,7 +4885,7 @@
         <v>-1</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M4" s="13">
         <v>-1</v>
@@ -4885,7 +4903,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4919,23 +4937,32 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>617</v>
+      </c>
+      <c r="B7">
+        <f>COUNTA('Best Contests'!A:A)+1</f>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4991,15 +5018,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2">
         <v>13</v>
@@ -5007,7 +5034,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -5015,7 +5042,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4">
         <v>15</v>
@@ -5023,7 +5050,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5">
         <v>16</v>
@@ -5031,7 +5058,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6">
         <v>17</v>
@@ -5039,7 +5066,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7">
         <v>18</v>
@@ -5047,7 +5074,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8">
         <v>19</v>
@@ -5055,7 +5082,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -5063,7 +5090,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10">
         <v>21</v>
@@ -5071,7 +5098,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="5">
         <v>22</v>
@@ -5079,7 +5106,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="5">
         <v>23</v>
@@ -5087,7 +5114,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="5">
         <v>24</v>
@@ -5095,7 +5122,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" s="5">
         <v>25</v>
@@ -5103,7 +5130,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15" s="5">
         <v>26</v>
@@ -5111,7 +5138,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" s="5">
         <v>27</v>
@@ -5119,7 +5146,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="5">
         <v>28</v>
@@ -5127,7 +5154,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="5">
         <v>29</v>
@@ -5135,7 +5162,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B19" s="5">
         <v>30</v>
@@ -5143,7 +5170,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B20" s="5">
         <v>31</v>
@@ -5151,7 +5178,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="5">
         <v>32</v>
@@ -5159,7 +5186,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5">
         <v>33</v>
@@ -5167,7 +5194,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B23" s="5">
         <v>34</v>
@@ -5175,7 +5202,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" s="5">
         <v>35</v>
@@ -5183,7 +5210,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B25" s="5">
         <v>36</v>
@@ -5191,7 +5218,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B26" s="5">
         <v>37</v>
@@ -5199,7 +5226,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B27" s="5">
         <v>38</v>
@@ -5207,7 +5234,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5">
         <v>39</v>
@@ -5215,7 +5242,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B29" s="5">
         <v>40</v>
@@ -5223,7 +5250,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B30" s="5">
         <v>41</v>
@@ -5231,7 +5258,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B31" s="5">
         <v>42</v>
@@ -5265,48 +5292,48 @@
     <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E2" t="s">
         <v>76</v>
       </c>
       <c r="F2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H2" t="s">
         <v>219</v>
       </c>
-      <c r="G2" t="s">
-        <v>298</v>
-      </c>
-      <c r="H2" t="s">
-        <v>220</v>
-      </c>
       <c r="I2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J2" t="s">
         <v>186</v>
       </c>
-      <c r="J2" t="s">
-        <v>187</v>
-      </c>
       <c r="K2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D3" t="s">
         <v>76</v>
@@ -5314,104 +5341,104 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" t="s">
         <v>274</v>
-      </c>
-      <c r="E4" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B5" t="s">
         <v>540</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>541</v>
       </c>
-      <c r="C5" t="s">
-        <v>542</v>
-      </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F5" t="s">
+        <v>382</v>
+      </c>
+      <c r="G5" t="s">
+        <v>382</v>
+      </c>
+      <c r="H5" t="s">
         <v>383</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>383</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
+        <v>383</v>
+      </c>
+      <c r="K5" t="s">
+        <v>383</v>
+      </c>
+      <c r="L5" t="s">
+        <v>380</v>
+      </c>
+      <c r="M5" t="s">
+        <v>380</v>
+      </c>
+      <c r="N5" t="s">
         <v>384</v>
       </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>384</v>
       </c>
-      <c r="J5" t="s">
-        <v>384</v>
-      </c>
-      <c r="K5" t="s">
-        <v>384</v>
-      </c>
-      <c r="L5" t="s">
-        <v>381</v>
-      </c>
-      <c r="M5" t="s">
-        <v>381</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>385</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>385</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
+        <v>385</v>
+      </c>
+      <c r="S5" t="s">
+        <v>385</v>
+      </c>
+      <c r="T5" t="s">
         <v>386</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="U5" t="s">
         <v>386</v>
-      </c>
-      <c r="R5" t="s">
-        <v>386</v>
-      </c>
-      <c r="S5" t="s">
-        <v>386</v>
-      </c>
-      <c r="T5" t="s">
-        <v>387</v>
-      </c>
-      <c r="U5" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B6" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -5419,22 +5446,22 @@
         <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" t="s">
         <v>208</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>209</v>
-      </c>
-      <c r="G7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -5442,1383 +5469,1383 @@
         <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" t="s">
         <v>315</v>
       </c>
-      <c r="D8" t="s">
-        <v>316</v>
-      </c>
       <c r="E8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" t="s">
         <v>208</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>209</v>
-      </c>
-      <c r="G8" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B9" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" t="s">
         <v>183</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I10" t="s">
         <v>240</v>
       </c>
-      <c r="D10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F10" t="s">
-        <v>218</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
         <v>219</v>
       </c>
-      <c r="H10" t="s">
+      <c r="K10" t="s">
         <v>298</v>
-      </c>
-      <c r="I10" t="s">
-        <v>241</v>
-      </c>
-      <c r="J10" t="s">
-        <v>220</v>
-      </c>
-      <c r="K10" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D11" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G11" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B13" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B14" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C14" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F14" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" t="s">
         <v>193</v>
-      </c>
-      <c r="G14" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B15" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" t="s">
         <v>191</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>192</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>193</v>
-      </c>
-      <c r="G15" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>375</v>
+      </c>
+      <c r="B17" t="s">
+        <v>359</v>
+      </c>
+      <c r="C17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D17" t="s">
         <v>376</v>
       </c>
-      <c r="B17" t="s">
-        <v>360</v>
-      </c>
-      <c r="C17" t="s">
-        <v>300</v>
-      </c>
-      <c r="D17" t="s">
-        <v>377</v>
-      </c>
       <c r="E17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>535</v>
+      </c>
+      <c r="B18" t="s">
         <v>536</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>537</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>538</v>
       </c>
-      <c r="D18" t="s">
-        <v>539</v>
-      </c>
       <c r="E18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B19" t="s">
+        <v>359</v>
+      </c>
+      <c r="C19" t="s">
+        <v>376</v>
+      </c>
+      <c r="D19" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19" t="s">
+        <v>509</v>
+      </c>
+      <c r="F19" t="s">
         <v>360</v>
       </c>
-      <c r="C19" t="s">
-        <v>377</v>
-      </c>
-      <c r="D19" t="s">
-        <v>304</v>
-      </c>
-      <c r="E19" t="s">
-        <v>510</v>
-      </c>
-      <c r="F19" t="s">
-        <v>361</v>
-      </c>
       <c r="G19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B20" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C20" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D20" t="s">
+        <v>510</v>
+      </c>
+      <c r="E20" t="s">
+        <v>506</v>
+      </c>
+      <c r="F20" t="s">
         <v>511</v>
       </c>
-      <c r="E20" t="s">
-        <v>507</v>
-      </c>
-      <c r="F20" t="s">
-        <v>512</v>
-      </c>
       <c r="G20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" t="s">
         <v>191</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>192</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>193</v>
       </c>
-      <c r="G21" t="s">
-        <v>194</v>
-      </c>
       <c r="H21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B22" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C22" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D22" t="s">
+        <v>510</v>
+      </c>
+      <c r="E22" t="s">
+        <v>506</v>
+      </c>
+      <c r="F22" t="s">
         <v>511</v>
       </c>
-      <c r="E22" t="s">
-        <v>507</v>
-      </c>
-      <c r="F22" t="s">
-        <v>512</v>
-      </c>
       <c r="G22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B23" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C23" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D23" t="s">
+        <v>273</v>
+      </c>
+      <c r="E23" t="s">
         <v>274</v>
-      </c>
-      <c r="E23" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B24" t="s">
+        <v>544</v>
+      </c>
+      <c r="C24" t="s">
         <v>545</v>
       </c>
-      <c r="C24" t="s">
-        <v>546</v>
-      </c>
       <c r="D24" t="s">
+        <v>284</v>
+      </c>
+      <c r="E24" t="s">
         <v>285</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>286</v>
       </c>
-      <c r="F24" t="s">
-        <v>287</v>
-      </c>
       <c r="G24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>546</v>
+      </c>
+      <c r="B25" t="s">
         <v>547</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>548</v>
       </c>
-      <c r="C25" t="s">
-        <v>549</v>
-      </c>
       <c r="D25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E25" t="s">
         <v>274</v>
       </c>
-      <c r="E25" t="s">
-        <v>275</v>
-      </c>
       <c r="F25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B26" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D26" t="s">
+        <v>549</v>
+      </c>
+      <c r="E26" t="s">
         <v>550</v>
       </c>
-      <c r="E26" t="s">
-        <v>551</v>
-      </c>
       <c r="F26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>325</v>
+      </c>
+      <c r="B27" t="s">
         <v>326</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>327</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>328</v>
       </c>
-      <c r="D27" t="s">
-        <v>329</v>
-      </c>
       <c r="E27" t="s">
+        <v>232</v>
+      </c>
+      <c r="F27" t="s">
         <v>233</v>
       </c>
-      <c r="F27" t="s">
-        <v>234</v>
-      </c>
       <c r="G27" t="s">
+        <v>196</v>
+      </c>
+      <c r="H27" t="s">
         <v>197</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>198</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>199</v>
       </c>
-      <c r="J27" t="s">
-        <v>200</v>
-      </c>
       <c r="K27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>587</v>
+      </c>
+      <c r="B28" t="s">
+        <v>286</v>
+      </c>
+      <c r="C28" t="s">
+        <v>588</v>
+      </c>
+      <c r="D28" t="s">
+        <v>589</v>
+      </c>
+      <c r="E28" t="s">
         <v>590</v>
       </c>
-      <c r="B28" t="s">
-        <v>287</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="F28" t="s">
         <v>591</v>
       </c>
-      <c r="D28" t="s">
+      <c r="G28" t="s">
         <v>592</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H28" t="s">
         <v>593</v>
-      </c>
-      <c r="F28" t="s">
-        <v>594</v>
-      </c>
-      <c r="G28" t="s">
-        <v>595</v>
-      </c>
-      <c r="H28" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E29" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" t="s">
         <v>204</v>
       </c>
-      <c r="F29" t="s">
-        <v>205</v>
-      </c>
       <c r="G29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B30" t="s">
+        <v>554</v>
+      </c>
+      <c r="C30" t="s">
         <v>555</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>556</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>557</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>558</v>
-      </c>
-      <c r="F30" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s">
+        <v>326</v>
+      </c>
+      <c r="C31" t="s">
         <v>327</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>328</v>
       </c>
-      <c r="D31" t="s">
-        <v>329</v>
-      </c>
       <c r="E31" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" t="s">
         <v>238</v>
-      </c>
-      <c r="F31" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C32" t="s">
+        <v>588</v>
+      </c>
+      <c r="D32" t="s">
+        <v>589</v>
+      </c>
+      <c r="E32" t="s">
+        <v>590</v>
+      </c>
+      <c r="F32" t="s">
         <v>591</v>
       </c>
-      <c r="D32" t="s">
+      <c r="G32" t="s">
         <v>592</v>
       </c>
-      <c r="E32" t="s">
+      <c r="H32" t="s">
         <v>593</v>
-      </c>
-      <c r="F32" t="s">
-        <v>594</v>
-      </c>
-      <c r="G32" t="s">
-        <v>595</v>
-      </c>
-      <c r="H32" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B33" t="s">
         <v>341</v>
       </c>
-      <c r="B33" t="s">
-        <v>342</v>
-      </c>
       <c r="C33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F33" t="s">
         <v>238</v>
       </c>
-      <c r="F33" t="s">
-        <v>239</v>
-      </c>
       <c r="G33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D34" t="s">
+        <v>250</v>
+      </c>
+      <c r="E34" t="s">
         <v>251</v>
-      </c>
-      <c r="E34" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>518</v>
+      </c>
+      <c r="B35" t="s">
         <v>519</v>
       </c>
-      <c r="B35" t="s">
-        <v>520</v>
-      </c>
       <c r="C35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D35" t="s">
+        <v>510</v>
+      </c>
+      <c r="E35" t="s">
+        <v>506</v>
+      </c>
+      <c r="F35" t="s">
         <v>511</v>
-      </c>
-      <c r="E35" t="s">
-        <v>507</v>
-      </c>
-      <c r="F35" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C36" t="s">
+        <v>239</v>
+      </c>
+      <c r="D36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" t="s">
+        <v>217</v>
+      </c>
+      <c r="G36" t="s">
+        <v>218</v>
+      </c>
+      <c r="H36" t="s">
+        <v>297</v>
+      </c>
+      <c r="I36" t="s">
         <v>240</v>
       </c>
-      <c r="D36" t="s">
-        <v>184</v>
-      </c>
-      <c r="E36" t="s">
-        <v>185</v>
-      </c>
-      <c r="F36" t="s">
-        <v>218</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="J36" t="s">
         <v>219</v>
       </c>
-      <c r="H36" t="s">
+      <c r="K36" t="s">
         <v>298</v>
-      </c>
-      <c r="I36" t="s">
-        <v>241</v>
-      </c>
-      <c r="J36" t="s">
-        <v>220</v>
-      </c>
-      <c r="K36" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>364</v>
+      </c>
+      <c r="B37" t="s">
         <v>365</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>366</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>367</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>368</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>369</v>
       </c>
-      <c r="F37" t="s">
-        <v>370</v>
-      </c>
       <c r="G37" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>295</v>
+      </c>
+      <c r="B38" t="s">
         <v>296</v>
       </c>
-      <c r="B38" t="s">
-        <v>297</v>
-      </c>
       <c r="C38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D38" t="s">
+        <v>277</v>
+      </c>
+      <c r="E38" t="s">
         <v>278</v>
-      </c>
-      <c r="E38" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>543</v>
+      </c>
+      <c r="B39" t="s">
         <v>544</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>545</v>
       </c>
-      <c r="C39" t="s">
-        <v>546</v>
-      </c>
       <c r="D39" t="s">
+        <v>284</v>
+      </c>
+      <c r="E39" t="s">
         <v>285</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>286</v>
-      </c>
-      <c r="F39" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D40" t="s">
+        <v>277</v>
+      </c>
+      <c r="E40" t="s">
         <v>278</v>
       </c>
-      <c r="E40" t="s">
-        <v>279</v>
-      </c>
       <c r="F40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>244</v>
+      </c>
+      <c r="B41" t="s">
         <v>245</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>246</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>247</v>
       </c>
-      <c r="D41" t="s">
-        <v>248</v>
-      </c>
       <c r="E41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>551</v>
+      </c>
+      <c r="B42" t="s">
         <v>552</v>
       </c>
-      <c r="B42" t="s">
-        <v>553</v>
-      </c>
       <c r="C42" t="s">
+        <v>512</v>
+      </c>
+      <c r="D42" t="s">
         <v>513</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>514</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>515</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>516</v>
-      </c>
-      <c r="G42" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C43" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" t="s">
+        <v>312</v>
+      </c>
+      <c r="E43" t="s">
         <v>184</v>
-      </c>
-      <c r="D43" t="s">
-        <v>313</v>
-      </c>
-      <c r="E43" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C44" t="s">
         <v>76</v>
       </c>
       <c r="D44" t="s">
+        <v>513</v>
+      </c>
+      <c r="E44" t="s">
         <v>514</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>515</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>516</v>
       </c>
-      <c r="G44" t="s">
-        <v>517</v>
-      </c>
       <c r="H44" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B45" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C45" t="s">
+        <v>287</v>
+      </c>
+      <c r="D45" t="s">
         <v>288</v>
       </c>
-      <c r="D45" t="s">
-        <v>289</v>
-      </c>
       <c r="E45" t="s">
+        <v>199</v>
+      </c>
+      <c r="F45" t="s">
+        <v>212</v>
+      </c>
+      <c r="G45" t="s">
+        <v>323</v>
+      </c>
+      <c r="H45" t="s">
+        <v>324</v>
+      </c>
+      <c r="I45" t="s">
         <v>200</v>
-      </c>
-      <c r="F45" t="s">
-        <v>213</v>
-      </c>
-      <c r="G45" t="s">
-        <v>324</v>
-      </c>
-      <c r="H45" t="s">
-        <v>325</v>
-      </c>
-      <c r="I45" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" t="s">
+        <v>312</v>
+      </c>
+      <c r="E46" t="s">
         <v>184</v>
       </c>
-      <c r="D46" t="s">
-        <v>313</v>
-      </c>
-      <c r="E46" t="s">
-        <v>185</v>
-      </c>
       <c r="F46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>364</v>
+      </c>
+      <c r="B47" t="s">
         <v>365</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>366</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>367</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>368</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>369</v>
       </c>
-      <c r="F47" t="s">
-        <v>370</v>
-      </c>
       <c r="G47" t="s">
+        <v>323</v>
+      </c>
+      <c r="H47" t="s">
         <v>324</v>
       </c>
-      <c r="H47" t="s">
-        <v>325</v>
-      </c>
       <c r="I47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>295</v>
+      </c>
+      <c r="B48" t="s">
         <v>296</v>
       </c>
-      <c r="B48" t="s">
-        <v>297</v>
-      </c>
       <c r="C48" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" t="s">
+        <v>312</v>
+      </c>
+      <c r="E48" t="s">
         <v>184</v>
       </c>
-      <c r="D48" t="s">
-        <v>313</v>
-      </c>
-      <c r="E48" t="s">
-        <v>185</v>
-      </c>
       <c r="F48" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>543</v>
+      </c>
+      <c r="B49" t="s">
         <v>544</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>545</v>
       </c>
-      <c r="C49" t="s">
-        <v>546</v>
-      </c>
       <c r="D49" t="s">
+        <v>284</v>
+      </c>
+      <c r="E49" t="s">
         <v>285</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>286</v>
       </c>
-      <c r="F49" t="s">
-        <v>287</v>
-      </c>
       <c r="G49" t="s">
+        <v>323</v>
+      </c>
+      <c r="H49" t="s">
         <v>324</v>
       </c>
-      <c r="H49" t="s">
-        <v>325</v>
-      </c>
       <c r="I49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D50" t="s">
         <v>71</v>
       </c>
       <c r="E50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H50" t="s">
+        <v>297</v>
+      </c>
+      <c r="I50" t="s">
+        <v>240</v>
+      </c>
+      <c r="J50" t="s">
+        <v>219</v>
+      </c>
+      <c r="K50" t="s">
         <v>298</v>
-      </c>
-      <c r="I50" t="s">
-        <v>241</v>
-      </c>
-      <c r="J50" t="s">
-        <v>220</v>
-      </c>
-      <c r="K50" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>244</v>
+      </c>
+      <c r="B51" t="s">
         <v>245</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>246</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>247</v>
       </c>
-      <c r="D51" t="s">
-        <v>248</v>
-      </c>
       <c r="E51" t="s">
+        <v>237</v>
+      </c>
+      <c r="F51" t="s">
         <v>238</v>
       </c>
-      <c r="F51" t="s">
-        <v>239</v>
-      </c>
       <c r="G51" t="s">
+        <v>218</v>
+      </c>
+      <c r="H51" t="s">
+        <v>297</v>
+      </c>
+      <c r="I51" t="s">
+        <v>240</v>
+      </c>
+      <c r="J51" t="s">
         <v>219</v>
       </c>
-      <c r="H51" t="s">
+      <c r="K51" t="s">
         <v>298</v>
-      </c>
-      <c r="I51" t="s">
-        <v>241</v>
-      </c>
-      <c r="J51" t="s">
-        <v>220</v>
-      </c>
-      <c r="K51" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>551</v>
+      </c>
+      <c r="B52" t="s">
         <v>552</v>
       </c>
-      <c r="B52" t="s">
-        <v>553</v>
-      </c>
       <c r="C52" t="s">
+        <v>387</v>
+      </c>
+      <c r="D52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E52" t="s">
+        <v>249</v>
+      </c>
+      <c r="F52" t="s">
         <v>388</v>
       </c>
-      <c r="D52" t="s">
-        <v>379</v>
-      </c>
-      <c r="E52" t="s">
-        <v>250</v>
-      </c>
-      <c r="F52" t="s">
-        <v>389</v>
-      </c>
       <c r="G52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B53" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C53" t="s">
         <v>112</v>
       </c>
       <c r="D53" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B54" t="s">
+        <v>190</v>
+      </c>
+      <c r="C54" t="s">
+        <v>221</v>
+      </c>
+      <c r="D54" t="s">
         <v>191</v>
       </c>
-      <c r="C54" t="s">
-        <v>222</v>
-      </c>
-      <c r="D54" t="s">
-        <v>192</v>
-      </c>
       <c r="E54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F54" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" t="s">
+        <v>239</v>
+      </c>
+      <c r="D55" t="s">
         <v>183</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
+        <v>184</v>
+      </c>
+      <c r="F55" t="s">
+        <v>217</v>
+      </c>
+      <c r="G55" t="s">
+        <v>218</v>
+      </c>
+      <c r="H55" t="s">
+        <v>297</v>
+      </c>
+      <c r="I55" t="s">
         <v>240</v>
       </c>
-      <c r="D55" t="s">
-        <v>184</v>
-      </c>
-      <c r="E55" t="s">
-        <v>185</v>
-      </c>
-      <c r="F55" t="s">
-        <v>218</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="J55" t="s">
         <v>219</v>
       </c>
-      <c r="H55" t="s">
+      <c r="K55" t="s">
         <v>298</v>
-      </c>
-      <c r="I55" t="s">
-        <v>241</v>
-      </c>
-      <c r="J55" t="s">
-        <v>220</v>
-      </c>
-      <c r="K55" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B56" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" t="s">
         <v>191</v>
       </c>
-      <c r="C56" t="s">
-        <v>222</v>
-      </c>
-      <c r="D56" t="s">
-        <v>192</v>
-      </c>
       <c r="E56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F56" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>330</v>
+      </c>
+      <c r="B57" t="s">
         <v>331</v>
       </c>
-      <c r="B57" t="s">
-        <v>332</v>
-      </c>
       <c r="C57" t="s">
+        <v>239</v>
+      </c>
+      <c r="D57" t="s">
+        <v>183</v>
+      </c>
+      <c r="E57" t="s">
+        <v>184</v>
+      </c>
+      <c r="F57" t="s">
+        <v>217</v>
+      </c>
+      <c r="G57" t="s">
+        <v>218</v>
+      </c>
+      <c r="H57" t="s">
+        <v>297</v>
+      </c>
+      <c r="I57" t="s">
         <v>240</v>
       </c>
-      <c r="D57" t="s">
-        <v>184</v>
-      </c>
-      <c r="E57" t="s">
-        <v>185</v>
-      </c>
-      <c r="F57" t="s">
-        <v>218</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="J57" t="s">
         <v>219</v>
       </c>
-      <c r="H57" t="s">
+      <c r="K57" t="s">
         <v>298</v>
-      </c>
-      <c r="I57" t="s">
-        <v>241</v>
-      </c>
-      <c r="J57" t="s">
-        <v>220</v>
-      </c>
-      <c r="K57" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>332</v>
+      </c>
+      <c r="B58" t="s">
         <v>333</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>334</v>
-      </c>
-      <c r="C58" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B59" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B60" t="s">
+        <v>333</v>
+      </c>
+      <c r="C60" t="s">
         <v>334</v>
-      </c>
-      <c r="C60" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>336</v>
+      </c>
+      <c r="B61" t="s">
+        <v>319</v>
+      </c>
+      <c r="C61" t="s">
         <v>337</v>
       </c>
-      <c r="B61" t="s">
-        <v>320</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>338</v>
       </c>
-      <c r="D61" t="s">
-        <v>339</v>
-      </c>
       <c r="E61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C62" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>340</v>
+      </c>
+      <c r="B63" t="s">
         <v>341</v>
       </c>
-      <c r="B63" t="s">
-        <v>342</v>
-      </c>
       <c r="C63" t="s">
+        <v>337</v>
+      </c>
+      <c r="D63" t="s">
         <v>338</v>
       </c>
-      <c r="D63" t="s">
-        <v>339</v>
-      </c>
       <c r="E63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C65" t="s">
         <v>112</v>
       </c>
       <c r="D65" t="s">
+        <v>202</v>
+      </c>
+      <c r="E65" t="s">
         <v>203</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>204</v>
       </c>
-      <c r="F65" t="s">
-        <v>205</v>
-      </c>
       <c r="G65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" t="s">
         <v>203</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>204</v>
       </c>
-      <c r="F66" t="s">
-        <v>205</v>
-      </c>
       <c r="G66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>343</v>
+      </c>
+      <c r="B67" t="s">
         <v>344</v>
       </c>
-      <c r="B67" t="s">
-        <v>345</v>
-      </c>
       <c r="C67" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>279</v>
+      </c>
+      <c r="B68" t="s">
         <v>280</v>
       </c>
-      <c r="B68" t="s">
-        <v>281</v>
-      </c>
       <c r="C68" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B69" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C69" t="s">
         <v>112</v>
@@ -6826,519 +6853,519 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B70" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D70" t="s">
+        <v>202</v>
+      </c>
+      <c r="E70" t="s">
         <v>203</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>204</v>
       </c>
-      <c r="F70" t="s">
-        <v>205</v>
-      </c>
       <c r="G70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B71" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C71" t="s">
         <v>112</v>
       </c>
       <c r="D71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" t="s">
         <v>290</v>
-      </c>
-      <c r="B72" t="s">
-        <v>291</v>
       </c>
       <c r="C72" t="s">
         <v>78</v>
       </c>
       <c r="D72" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E72" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F72" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B73" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D73" t="s">
+        <v>352</v>
+      </c>
+      <c r="E73" t="s">
         <v>353</v>
       </c>
-      <c r="E73" t="s">
-        <v>354</v>
-      </c>
       <c r="F73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G73" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B74" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C74" t="s">
         <v>78</v>
       </c>
       <c r="D74" t="s">
+        <v>352</v>
+      </c>
+      <c r="E74" t="s">
         <v>353</v>
       </c>
-      <c r="E74" t="s">
-        <v>354</v>
-      </c>
       <c r="F74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
       </c>
       <c r="D75" t="s">
+        <v>357</v>
+      </c>
+      <c r="E75" t="s">
         <v>358</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>359</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>360</v>
-      </c>
-      <c r="G75" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B76" t="s">
+        <v>355</v>
+      </c>
+      <c r="C76" t="s">
         <v>356</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>357</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>358</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>359</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>360</v>
-      </c>
-      <c r="G76" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>349</v>
+      </c>
+      <c r="B77" t="s">
         <v>350</v>
       </c>
-      <c r="B77" t="s">
-        <v>351</v>
-      </c>
       <c r="C77" t="s">
+        <v>205</v>
+      </c>
+      <c r="D77" t="s">
         <v>206</v>
       </c>
-      <c r="D77" t="s">
-        <v>207</v>
-      </c>
       <c r="E77" t="s">
+        <v>358</v>
+      </c>
+      <c r="F77" t="s">
         <v>359</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>360</v>
-      </c>
-      <c r="G77" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>518</v>
+      </c>
+      <c r="B78" t="s">
         <v>519</v>
       </c>
-      <c r="B78" t="s">
-        <v>520</v>
-      </c>
       <c r="C78" t="s">
+        <v>366</v>
+      </c>
+      <c r="D78" t="s">
         <v>367</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>368</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>369</v>
-      </c>
-      <c r="F78" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>520</v>
+      </c>
+      <c r="B79" t="s">
         <v>521</v>
       </c>
-      <c r="B79" t="s">
-        <v>522</v>
-      </c>
       <c r="C79" t="s">
+        <v>366</v>
+      </c>
+      <c r="D79" t="s">
         <v>367</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>368</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>369</v>
-      </c>
-      <c r="F79" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B80" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C80" t="s">
+        <v>205</v>
+      </c>
+      <c r="D80" t="s">
         <v>206</v>
       </c>
-      <c r="D80" t="s">
-        <v>207</v>
-      </c>
       <c r="E80" t="s">
+        <v>368</v>
+      </c>
+      <c r="F80" t="s">
         <v>369</v>
-      </c>
-      <c r="F80" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>351</v>
+      </c>
+      <c r="B81" t="s">
+        <v>213</v>
+      </c>
+      <c r="C81" t="s">
+        <v>236</v>
+      </c>
+      <c r="D81" t="s">
         <v>352</v>
       </c>
-      <c r="B81" t="s">
-        <v>214</v>
-      </c>
-      <c r="C81" t="s">
-        <v>237</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>353</v>
       </c>
-      <c r="E81" t="s">
-        <v>354</v>
-      </c>
       <c r="F81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C82" t="s">
         <v>76</v>
       </c>
       <c r="D82" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>354</v>
+      </c>
+      <c r="B83" t="s">
         <v>355</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>356</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>357</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>358</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>359</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>360</v>
-      </c>
-      <c r="G83" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C84" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" t="s">
+        <v>352</v>
+      </c>
+      <c r="E84" t="s">
         <v>353</v>
       </c>
-      <c r="E84" t="s">
-        <v>354</v>
-      </c>
       <c r="F84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G84" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>362</v>
+      </c>
+      <c r="B85" t="s">
         <v>363</v>
-      </c>
-      <c r="B85" t="s">
-        <v>364</v>
       </c>
       <c r="C85" t="s">
         <v>76</v>
       </c>
       <c r="D85" t="s">
+        <v>254</v>
+      </c>
+      <c r="E85" t="s">
         <v>255</v>
-      </c>
-      <c r="E85" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>364</v>
+      </c>
+      <c r="B86" t="s">
         <v>365</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>366</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>367</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>368</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>369</v>
       </c>
-      <c r="F86" t="s">
-        <v>370</v>
-      </c>
       <c r="G86" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>295</v>
+      </c>
+      <c r="B87" t="s">
         <v>296</v>
       </c>
-      <c r="B87" t="s">
-        <v>297</v>
-      </c>
       <c r="C87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D87" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B88" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>371</v>
+      </c>
+      <c r="B89" t="s">
+        <v>235</v>
+      </c>
+      <c r="C89" t="s">
         <v>372</v>
       </c>
-      <c r="B89" t="s">
-        <v>236</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>373</v>
       </c>
-      <c r="D89" t="s">
-        <v>374</v>
-      </c>
       <c r="E89" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>244</v>
+      </c>
+      <c r="B90" t="s">
         <v>245</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>246</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>247</v>
       </c>
-      <c r="D90" t="s">
-        <v>248</v>
-      </c>
       <c r="E90" t="s">
+        <v>368</v>
+      </c>
+      <c r="F90" t="s">
         <v>369</v>
-      </c>
-      <c r="F90" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B91" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B92" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C92" t="s">
+        <v>253</v>
+      </c>
+      <c r="D92" t="s">
         <v>254</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>255</v>
-      </c>
-      <c r="E92" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>375</v>
+      </c>
+      <c r="B93" t="s">
+        <v>359</v>
+      </c>
+      <c r="C93" t="s">
         <v>376</v>
       </c>
-      <c r="B93" t="s">
-        <v>360</v>
-      </c>
-      <c r="C93" t="s">
-        <v>377</v>
-      </c>
       <c r="D93" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>244</v>
+      </c>
+      <c r="B94" t="s">
         <v>245</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>246</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>247</v>
-      </c>
-      <c r="D94" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B96" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C96" t="s">
+        <v>254</v>
+      </c>
+      <c r="D96" t="s">
         <v>255</v>
-      </c>
-      <c r="D96" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>375</v>
+      </c>
+      <c r="B97" t="s">
+        <v>359</v>
+      </c>
+      <c r="C97" t="s">
         <v>376</v>
       </c>
-      <c r="B97" t="s">
-        <v>360</v>
-      </c>
-      <c r="C97" t="s">
-        <v>377</v>
-      </c>
       <c r="D97" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>522</v>
+      </c>
+      <c r="B98" t="s">
         <v>523</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>524</v>
-      </c>
-      <c r="C98" t="s">
-        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -7370,7 +7397,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7411,13 +7438,13 @@
         <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7554,1991 +7581,1991 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" t="s">
         <v>117</v>
       </c>
-      <c r="B18" t="s">
-        <v>118</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" t="s">
         <v>119</v>
       </c>
-      <c r="B19" t="s">
-        <v>120</v>
-      </c>
       <c r="C19" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" t="s">
         <v>121</v>
       </c>
-      <c r="B20" t="s">
-        <v>122</v>
-      </c>
       <c r="C20" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>348</v>
-      </c>
       <c r="C24" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C25" t="s">
         <v>379</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="C25" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="100" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="102" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="103" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="104" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="105" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="108" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="110" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="111" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="112" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="119" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E119" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="120" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="122" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E122" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E123" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="124" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="125" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="126" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E126" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E127" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E131" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E134" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="135" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="136" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="137" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E137" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="138" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E138" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="139" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E139" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E142" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="143" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="144" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="147" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E147" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="150" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E150" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E151" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E152" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="156" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E157" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="158" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E158" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="159" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E159" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="160" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E161" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E162" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E163" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E164" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E165" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="166" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E166" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="167" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E167" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="168" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E168" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="169" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E169" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="170" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E170" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="171" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E171" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="172" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E172" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="173" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E173" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="174" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E174" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="175" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E175" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="176" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E176" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="177" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E177" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="178" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E178" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="179" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E179" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="180" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="181" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E181" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="182" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E182" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="183" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E183" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="184" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E184" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="185" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E185" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="186" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E186" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="187" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E187" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="188" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="189" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E189" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="190" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E190" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="191" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E191" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="192" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E192" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="193" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E193" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="194" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E194" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="195" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E195" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="196" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E196" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="197" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E197" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="198" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E198" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="199" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E199" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="200" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E200" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="201" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E201" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="202" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E202" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="203" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E203" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="204" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E204" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="205" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E205" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="206" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E206" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="207" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E207" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="208" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E208" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="209" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E209" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="210" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E210" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="211" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E211" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="212" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E212" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="213" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E213" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="214" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E214" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="215" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E215" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="216" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E216" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="217" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E217" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="218" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E218" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="219" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E219" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="220" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E220" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="221" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E221" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="222" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E222" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="223" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E223" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="224" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E224" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="225" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E225" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="226" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E226" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="227" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E227" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="228" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E228" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="229" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E229" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="230" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E230" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="231" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E231" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="232" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E232" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="233" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E233" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="234" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E234" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="235" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E235" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="236" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E236" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="237" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E237" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="238" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E238" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="239" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E239" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="240" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E240" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="241" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E241" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="242" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E242" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="243" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E243" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="244" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E244" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="245" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E245" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="246" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E246" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="247" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E247" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="248" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E248" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="249" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E249" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="250" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E250" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="251" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E251" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="252" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E252" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="253" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E253" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="254" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E254" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="255" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E255" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="256" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E256" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="257" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E257" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="258" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E258" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="259" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E259" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="260" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E260" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="261" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E261" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="262" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E262" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="263" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E263" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="264" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E264" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="265" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E265" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="266" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E266" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="267" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E267" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="268" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E268" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="269" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E269" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="270" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E270" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="271" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E271" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="272" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E272" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="273" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E273" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="274" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E274" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="275" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E275" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="276" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E276" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="277" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E277" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="278" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E278" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="279" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E279" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="280" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E280" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="281" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E281" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="282" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E282" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="283" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E283" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="284" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E284" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="285" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E285" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="286" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E286" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="287" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E287" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="288" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E288" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="289" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E289" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="290" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E290" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="291" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E291" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="292" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E292" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="293" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E293" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="294" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E294" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="295" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E295" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="296" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E296" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="297" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E297" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="298" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E298" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="299" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E299" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="300" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E300" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="301" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E301" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="302" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E302" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="303" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E303" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="304" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E304" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="305" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E305" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="306" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E306" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="307" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E307" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="308" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E308" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="309" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E309" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="310" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E310" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="311" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E311" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="312" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E312" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="313" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E313" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="314" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E314" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="315" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E315" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="316" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E316" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="317" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E317" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="318" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E318" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="319" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E319" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="320" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E320" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="321" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E321" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="322" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E322" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="323" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E323" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="324" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E324" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="325" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E325" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="326" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E326" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="327" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E327" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="328" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E328" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="329" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E329" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="330" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E330" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="331" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E331" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="332" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E332" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="333" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E333" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="334" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E334" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="335" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E335" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="336" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E336" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="337" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E337" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="338" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E338" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="339" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E339" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="340" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E340" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="341" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E341" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="342" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E342" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="343" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E343" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="344" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E344" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="345" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E345" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="346" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E346" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="347" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E347" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="348" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E348" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="349" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E349" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="350" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E350" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="351" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E351" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="352" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E352" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="353" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E353" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="354" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E354" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="355" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E355" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="356" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E356" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="357" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E357" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="358" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E358" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="359" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E359" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="360" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E360" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="361" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E361" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="362" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E362" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="363" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E363" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="364" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E364" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="365" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E365" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="366" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E366" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="367" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E367" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="368" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E368" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="369" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E369" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="370" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E370" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="371" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E371" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="372" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E372" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="373" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E373" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="374" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E374" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="375" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E375" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="376" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E376" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="377" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E377" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="378" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E378" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="379" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E379" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="380" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E380" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="381" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E381" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="382" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E382" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="383" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E383" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="384" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E384" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="385" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E385" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="386" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E386" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="387" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E387" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="388" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E388" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="389" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E389" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="390" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E390" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="391" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E391" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="392" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E392" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="393" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E393" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="394" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E394" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="395" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E395" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="396" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E396" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="397" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E397" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="398" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E398" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="399" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E399" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="400" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E400" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="401" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E401" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="402" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E402" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="403" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E403" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="404" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E404" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="405" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E405" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="406" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E406" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="407" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E407" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="408" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E408" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="409" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E409" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="410" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E410" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="411" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E411" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="412" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E412" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="413" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E413" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="414" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E414" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="415" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E415" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="416" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E416" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="417" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E417" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="418" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E418" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="419" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E419" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="420" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E420" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="421" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E421" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="422" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E422" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="423" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E423" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="424" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E424" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="425" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E425" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="426" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E426" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="427" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E427" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="428" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E428" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="429" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E429" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="430" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E430" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="431" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E431" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="432" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E432" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="433" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E433" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="434" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E434" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="435" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E435" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="436" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E436" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="437" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E437" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="438" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E438" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="439" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E439" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="440" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E440" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="441" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E441" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="442" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E442" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="443" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E443" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="444" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E444" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="445" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E445" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="446" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E446" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="447" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E447" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="448" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E448" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="449" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E449" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="450" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E450" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="451" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E451" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="452" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E452" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="453" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E453" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="454" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E454" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="455" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E455" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="456" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E456" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="457" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E457" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="458" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E458" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="459" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E459" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="460" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E460" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="461" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E461" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="462" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E462" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="463" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E463" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -9565,30 +9592,30 @@
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D2" s="9">
         <v>410.015625</v>
@@ -9605,13 +9632,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="9">
         <v>480.978395062</v>
@@ -9628,13 +9655,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" s="9">
         <v>481.33555555599997</v>
@@ -9651,13 +9678,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B5" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D5" s="9">
         <v>475.70370370400002</v>
@@ -9674,13 +9701,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="9">
         <v>484.99588477399999</v>
@@ -9697,13 +9724,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="9">
         <v>439.13991769500001</v>
@@ -9720,13 +9747,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B8" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" s="9">
         <v>461.95473250999999</v>
@@ -9743,13 +9770,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B9" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" s="9">
         <v>444.79166666700002</v>
@@ -9766,13 +9793,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B10" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" s="9">
         <v>-421.61720777800002</v>
@@ -9808,134 +9835,143 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="B2">
-        <v>1705.3</v>
-      </c>
-      <c r="C2">
-        <v>80</v>
+      <c r="C1" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10588735</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>623.29999999999995</v>
       </c>
       <c r="E2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B3">
-        <v>2116.4</v>
-      </c>
-      <c r="C3">
         <v>40</v>
       </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10588737</v>
+      </c>
       <c r="D3">
-        <v>5</v>
+        <v>951</v>
       </c>
       <c r="E3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B4">
-        <v>2505</v>
-      </c>
-      <c r="C4">
         <v>40</v>
       </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B4" t="s">
+        <v>622</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10588743</v>
+      </c>
       <c r="D4">
-        <v>2</v>
+        <v>1489.75</v>
       </c>
       <c r="E4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B5">
-        <v>4125.75</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C5" s="5">
+        <v>10588742</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>3074.2</v>
       </c>
       <c r="E5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Fanduel.xlsx
+++ b/Fanduel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="_ironspread_data_" sheetId="4" state="veryHidden" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <definedName name="clLineupsCache">Parameters!$B$4</definedName>
     <definedName name="clMaxAvgWins">Parameters!$B$6</definedName>
     <definedName name="clMLBTeamsLocations">Parameters!#REF!</definedName>
+    <definedName name="clPMLastRow">Parameters!$B$8</definedName>
     <definedName name="clUserWinsCache">Parameters!#REF!</definedName>
     <definedName name="cSalaryCap">Parameters!#REF!</definedName>
     <definedName name="cStatsURL">Parameters!#REF!</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="611">
   <si>
     <t>n_scripts_list</t>
   </si>
@@ -555,9 +556,6 @@
     <t>Contest Date</t>
   </si>
   <si>
-    <t>50/50</t>
-  </si>
-  <si>
     <t>Player</t>
   </si>
   <si>
@@ -825,15 +823,9 @@
     <t>https://www.fanduel.com/e/Game/11536?tableId=10195995&amp;fromLobby=true</t>
   </si>
   <si>
-    <t>https://www.fanduel.com/e/Game/11536?tableId=10195967&amp;fromLobby=true</t>
-  </si>
-  <si>
     <t>Analyzed Entries</t>
   </si>
   <si>
-    <t>Avg_ToI*Avg_Line_Goals + Vegas</t>
-  </si>
-  <si>
     <t>Major Category</t>
   </si>
   <si>
@@ -945,27 +937,9 @@
     <t>Brett Ritchie</t>
   </si>
   <si>
-    <t>https://www.fanduel.com/e/Game/11544?tableId=10228290&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11544?tableId=10229052&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11544?tableId=10228991&amp;fromLobby=true</t>
-  </si>
-  <si>
     <t>Brent Burns</t>
   </si>
   <si>
-    <t>https://www.fanduel.com/e/Game/11550?tableId=10264642&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11550?tableId=10265107&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11550?tableId=10265174&amp;fromLobby=true</t>
-  </si>
-  <si>
     <t>NHL Roster Name</t>
   </si>
   <si>
@@ -1620,24 +1594,6 @@
     <t>Sergei Gonchar</t>
   </si>
   <si>
-    <t>https://www.fanduel.com/e/Game/11556?tableId=10286902&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11556?tableId=10287072&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11556?tableId=10289222&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11556?tableId=10288786&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11556?tableId=10292901&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11556?tableId=10292936&amp;fromLobby=true</t>
-  </si>
-  <si>
     <t>P/L</t>
   </si>
   <si>
@@ -1728,21 +1684,6 @@
     <t>Joni Ortio</t>
   </si>
   <si>
-    <t>https://www.fanduel.com/e/Game/11564?tableId=10314917&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11564?tableId=10315446&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11564?tableId=10315378&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11564?tableId=10316773&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11564?tableId=10316635&amp;fromLobby=true</t>
-  </si>
-  <si>
     <t>Shane Prince</t>
   </si>
   <si>
@@ -1918,14 +1859,33 @@
   </si>
   <si>
     <t>TableID</t>
+  </si>
+  <si>
+    <t>Entries</t>
+  </si>
+  <si>
+    <t>Avg Top Wins</t>
+  </si>
+  <si>
+    <t>Performance Monitoring LastRow</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>MySQL-ize data</t>
+  </si>
+  <si>
+    <t>Player Map, best contest and performance data needs to be moved to db</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -2371,7 +2331,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2400,6 +2360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1 2" xfId="8"/>
@@ -2583,11 +2544,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="192447232"/>
-        <c:axId val="192448768"/>
+        <c:axId val="197100288"/>
+        <c:axId val="197101824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192447232"/>
+        <c:axId val="197100288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2596,7 +2557,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192448768"/>
+        <c:crossAx val="197101824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2604,7 +2565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192448768"/>
+        <c:axId val="197101824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2615,7 +2576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192447232"/>
+        <c:crossAx val="197100288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2730,11 +2691,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="192477056"/>
-        <c:axId val="192478592"/>
+        <c:axId val="197134208"/>
+        <c:axId val="197135744"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="192477056"/>
+        <c:axId val="197134208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2743,7 +2704,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192478592"/>
+        <c:crossAx val="197135744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2751,7 +2712,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192478592"/>
+        <c:axId val="197135744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2762,7 +2723,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192477056"/>
+        <c:crossAx val="197134208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2863,7 +2824,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Cole MacLean" refreshedDate="42015.695505324074" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="6">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:M1048576" sheet="Performance Monitoring"/>
+    <worksheetSource ref="A1:N1048576" sheet="Performance Monitoring"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Contest Date" numFmtId="0">
@@ -3430,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3438,7 +3399,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3446,7 +3407,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3454,7 +3415,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3470,7 +3431,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3513,798 +3474,176 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="14" customWidth="1"/>
-    <col min="11" max="12" width="9.28515625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="14" customWidth="1"/>
+    <col min="12" max="13" width="9.28515625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>261</v>
-      </c>
       <c r="G1" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>181</v>
+      <c r="K1" s="14" t="s">
+        <v>516</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>42034</v>
-      </c>
-      <c r="B2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1329.8</v>
-      </c>
-      <c r="D2">
-        <v>40</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H2" s="5">
-        <v>5</v>
-      </c>
-      <c r="I2" s="14">
-        <v>9</v>
-      </c>
-      <c r="J2" s="14">
-        <f>I2-E2</f>
-        <v>4</v>
-      </c>
-      <c r="K2" s="5">
-        <v>11</v>
-      </c>
-      <c r="L2" s="5">
-        <f t="shared" ref="L2:L7" si="0">K2/D2</f>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="M2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>42034</v>
-      </c>
-      <c r="B3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1401.8</v>
-      </c>
-      <c r="D3">
-        <v>40</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H3" s="5">
-        <v>5</v>
-      </c>
-      <c r="I3" s="14">
-        <v>3.6</v>
-      </c>
-      <c r="J3" s="14">
-        <f t="shared" ref="J3:J16" si="1">I3-E3</f>
-        <v>1.6</v>
-      </c>
-      <c r="K3" s="5">
-        <v>6</v>
-      </c>
-      <c r="L3" s="5">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>42034</v>
-      </c>
-      <c r="B4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1654.2</v>
-      </c>
-      <c r="D4">
-        <v>40</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5">
-        <v>23</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4" s="5">
-        <v>5</v>
-      </c>
-      <c r="I4" s="14">
-        <v>8.18</v>
-      </c>
-      <c r="J4" s="14">
-        <f t="shared" si="1"/>
-        <v>3.1799999999999997</v>
-      </c>
-      <c r="K4" s="5">
-        <v>11</v>
-      </c>
-      <c r="L4" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>42035</v>
-      </c>
-      <c r="B5" t="s">
-        <v>300</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2289.6</v>
-      </c>
-      <c r="D5">
-        <v>80</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>45</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H5" s="5">
-        <v>5</v>
-      </c>
-      <c r="I5" s="14">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="K5" s="5">
-        <v>41</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" si="0"/>
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>42035</v>
-      </c>
-      <c r="B6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1980.4</v>
-      </c>
-      <c r="D6">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="5">
-        <v>29</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H6" s="5">
-        <v>5</v>
-      </c>
-      <c r="I6" s="14">
-        <v>9</v>
-      </c>
-      <c r="J6" s="14">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K6" s="5">
-        <v>11</v>
-      </c>
-      <c r="L6" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>42035</v>
-      </c>
-      <c r="B7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2580.1</v>
-      </c>
-      <c r="D7">
-        <v>80</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>58</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H7" s="5">
-        <v>5</v>
-      </c>
-      <c r="I7" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="J7" s="14">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="K7" s="5">
-        <v>34</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" si="0"/>
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>42037</v>
-      </c>
-      <c r="B8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1855.25</v>
-      </c>
-      <c r="D8">
-        <v>80</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>59</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H8" s="5">
-        <v>3</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0</v>
-      </c>
-      <c r="J8" s="14">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>42037</v>
-      </c>
-      <c r="B9" t="s">
-        <v>305</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2978.2</v>
-      </c>
-      <c r="D9">
-        <v>40</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5">
-        <v>25</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H9" s="5">
-        <v>3</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>42037</v>
-      </c>
-      <c r="B10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C10" s="5">
-        <v>3088.1</v>
-      </c>
-      <c r="D10">
-        <v>40</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10" s="5">
-        <v>24</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H10" s="5">
-        <v>3</v>
-      </c>
-      <c r="I10" s="14">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>42038</v>
-      </c>
-      <c r="B11" t="s">
-        <v>525</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2174.6999999999998</v>
-      </c>
-      <c r="D11">
-        <v>80</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>55</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H11" s="5">
-        <v>11</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>42038</v>
-      </c>
-      <c r="B12" t="s">
-        <v>526</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2679.35</v>
-      </c>
-      <c r="D12">
-        <v>80</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>47</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H12" s="5">
-        <v>11</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>42038</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2441.0500000000002</v>
-      </c>
-      <c r="D13" s="5">
-        <v>80</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>58</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H13" s="5">
-        <v>11</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>42038</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C14" s="5">
-        <v>2818.4</v>
-      </c>
-      <c r="D14" s="5">
-        <v>80</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5">
-        <v>76</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H14" s="5">
-        <v>11</v>
-      </c>
-      <c r="I14" s="14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>42038</v>
-      </c>
-      <c r="B15" t="s">
-        <v>529</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1663.9</v>
-      </c>
-      <c r="D15">
-        <v>80</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>53</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H15" s="5">
-        <v>11</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>42038</v>
-      </c>
-      <c r="B16" t="s">
-        <v>530</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2418.3000000000002</v>
-      </c>
-      <c r="D16">
-        <v>40</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" s="5">
-        <v>28</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H16" s="5">
-        <v>11</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0</v>
-      </c>
-      <c r="J16" s="14">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>42039</v>
-      </c>
-      <c r="B17" t="s">
-        <v>561</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1390.9</v>
-      </c>
-      <c r="D17">
-        <v>80</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>66</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>42039</v>
-      </c>
-      <c r="B18" t="s">
-        <v>562</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1392.9</v>
-      </c>
-      <c r="D18">
-        <v>80</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>45</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>42039</v>
-      </c>
-      <c r="B19" t="s">
-        <v>563</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1953.4</v>
-      </c>
-      <c r="D19">
-        <v>40</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19" s="5">
-        <v>26</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>42039</v>
-      </c>
-      <c r="B20" t="s">
-        <v>564</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1532.05</v>
-      </c>
-      <c r="D20">
-        <v>80</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5">
-        <v>54</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>42039</v>
-      </c>
-      <c r="B21" t="s">
-        <v>565</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2137.5</v>
-      </c>
-      <c r="D21">
-        <v>40</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="F21" s="5">
-        <v>25</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>262</v>
-      </c>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>10582846</v>
+      </c>
+      <c r="B2" s="5">
+        <v>136392304</v>
+      </c>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C3" s="8"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="8"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="8"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="C10" s="8"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="8"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="8"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="8"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="8"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="8"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="8"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="8"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="8"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="8"/>
+      <c r="N21" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4326,10 +3665,10 @@
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
@@ -4341,7 +3680,7 @@
         <v>22</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -4352,7 +3691,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>24</v>
@@ -4364,7 +3703,7 @@
         <v>50</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4421,7 +3760,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>55</v>
@@ -4464,7 +3803,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>32</v>
@@ -4504,7 +3843,7 @@
         <v>43</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>42</v>
@@ -4524,7 +3863,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>48</v>
@@ -4564,7 +3903,7 @@
         <v>88</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>48</v>
@@ -4576,7 +3915,7 @@
         <v>49</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4587,7 +3926,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>32</v>
@@ -4650,7 +3989,7 @@
         <v>92</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>93</v>
@@ -4670,7 +4009,7 @@
         <v>95</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>94</v>
@@ -4722,21 +4061,21 @@
         <v>31</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>224</v>
-      </c>
       <c r="D20" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E20" s="6">
         <v>4</v>
@@ -4747,13 +4086,13 @@
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E21" s="6">
         <v>5</v>
@@ -4761,13 +4100,13 @@
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E22" s="6">
         <v>5</v>
@@ -4775,16 +4114,16 @@
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E23" s="6">
         <v>5</v>
@@ -4792,21 +4131,41 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="E24" s="6">
         <v>5</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4842,19 +4201,19 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="L2" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -4876,7 +4235,7 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="13">
         <v>-10</v>
@@ -4885,7 +4244,7 @@
         <v>-1</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M4" s="13">
         <v>-1</v>
@@ -4908,7 +4267,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4940,7 +4299,7 @@
         <v>158</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4958,15 +4317,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="B7">
-        <f>COUNTA('Best Contests'!A:A)+1</f>
-        <v>6</v>
+        <f>COUNTA('Best Contests'!B:B)+1</f>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
+      <c r="A8" t="s">
+        <v>607</v>
+      </c>
+      <c r="B8" s="5">
+        <f>COUNTA('Performance Monitoring'!A:A)+1</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
@@ -5278,7 +4643,7 @@
   <dimension ref="A1:U98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:A1048576"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5292,48 +4657,48 @@
     <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C2" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E2" t="s">
         <v>76</v>
       </c>
       <c r="F2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H2" t="s">
         <v>218</v>
       </c>
-      <c r="G2" t="s">
-        <v>297</v>
-      </c>
-      <c r="H2" t="s">
-        <v>219</v>
-      </c>
       <c r="I2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" t="s">
         <v>185</v>
       </c>
-      <c r="J2" t="s">
-        <v>186</v>
-      </c>
       <c r="K2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
         <v>76</v>
@@ -5341,104 +4706,104 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="B4" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="B5" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="C5" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="D5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F5" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G5" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="H5" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="I5" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="J5" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="K5" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="L5" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="M5" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="N5" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="O5" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="P5" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="Q5" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="R5" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="S5" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="T5" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="U5" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="B6" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="C6" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -5446,22 +4811,22 @@
         <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
         <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" t="s">
         <v>207</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>208</v>
-      </c>
-      <c r="G7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -5469,45 +4834,45 @@
         <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D8" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" t="s">
         <v>207</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>208</v>
-      </c>
-      <c r="G8" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="B9" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -5515,1079 +4880,1079 @@
         <v>159</v>
       </c>
       <c r="B10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" t="s">
         <v>182</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H10" t="s">
+        <v>294</v>
+      </c>
+      <c r="I10" t="s">
         <v>239</v>
       </c>
-      <c r="D10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F10" t="s">
-        <v>217</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
         <v>218</v>
       </c>
-      <c r="H10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I10" t="s">
-        <v>240</v>
-      </c>
-      <c r="J10" t="s">
-        <v>219</v>
-      </c>
       <c r="K10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="D11" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="E11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F11" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G11" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="H11" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="I11" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="J11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="B13" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="C13" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D13" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="E13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F13" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G13" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="H13" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="B14" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="C14" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="D14" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="E14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F14" t="s">
+        <v>191</v>
+      </c>
+      <c r="G14" t="s">
         <v>192</v>
-      </c>
-      <c r="G14" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="B15" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="C15" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" t="s">
         <v>190</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>191</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>192</v>
-      </c>
-      <c r="G15" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="B16" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C16" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B17" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D17" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E17" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="B18" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="C18" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="D18" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="E18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="B19" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C19" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D19" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E19" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F19" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="B20" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="C20" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="D20" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="E20" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="F20" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="G20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" t="s">
         <v>190</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>191</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>192</v>
       </c>
-      <c r="G21" t="s">
-        <v>193</v>
-      </c>
       <c r="H21" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B22" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="C22" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="D22" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="E22" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="F22" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="G22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="B23" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="C23" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="D23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B24" t="s">
+        <v>529</v>
+      </c>
+      <c r="C24" t="s">
+        <v>530</v>
+      </c>
+      <c r="D24" t="s">
         <v>281</v>
       </c>
-      <c r="B24" t="s">
-        <v>544</v>
-      </c>
-      <c r="C24" t="s">
-        <v>545</v>
-      </c>
-      <c r="D24" t="s">
-        <v>284</v>
-      </c>
       <c r="E24" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F24" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="B25" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="C25" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="D25" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E25" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="B26" t="s">
+        <v>519</v>
+      </c>
+      <c r="C26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D26" t="s">
         <v>534</v>
       </c>
-      <c r="C26" t="s">
-        <v>207</v>
-      </c>
-      <c r="D26" t="s">
-        <v>549</v>
-      </c>
       <c r="E26" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="F26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B27" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C27" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D27" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E27" t="s">
+        <v>231</v>
+      </c>
+      <c r="F27" t="s">
         <v>232</v>
       </c>
-      <c r="F27" t="s">
-        <v>233</v>
-      </c>
       <c r="G27" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" t="s">
         <v>196</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>197</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>198</v>
       </c>
-      <c r="J27" t="s">
-        <v>199</v>
-      </c>
       <c r="K27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="B28" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C28" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="D28" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="E28" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="F28" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="G28" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="H28" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="C29" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E29" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" t="s">
         <v>203</v>
       </c>
-      <c r="F29" t="s">
-        <v>204</v>
-      </c>
       <c r="G29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B30" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="C30" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="D30" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="E30" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="F30" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C31" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D31" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E31" t="s">
+        <v>236</v>
+      </c>
+      <c r="F31" t="s">
         <v>237</v>
-      </c>
-      <c r="F31" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B32" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C32" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="D32" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="E32" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="F32" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="G32" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="H32" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B33" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C33" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E33" t="s">
+        <v>236</v>
+      </c>
+      <c r="F33" t="s">
         <v>237</v>
       </c>
-      <c r="F33" t="s">
-        <v>238</v>
-      </c>
       <c r="G33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="B34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C34" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D34" t="s">
+        <v>249</v>
+      </c>
+      <c r="E34" t="s">
         <v>250</v>
-      </c>
-      <c r="E34" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B35" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="C35" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D35" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="E35" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="F35" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C36" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" t="s">
+        <v>183</v>
+      </c>
+      <c r="F36" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" t="s">
+        <v>217</v>
+      </c>
+      <c r="H36" t="s">
+        <v>294</v>
+      </c>
+      <c r="I36" t="s">
         <v>239</v>
       </c>
-      <c r="D36" t="s">
-        <v>183</v>
-      </c>
-      <c r="E36" t="s">
-        <v>184</v>
-      </c>
-      <c r="F36" t="s">
-        <v>217</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="J36" t="s">
         <v>218</v>
       </c>
-      <c r="H36" t="s">
-        <v>297</v>
-      </c>
-      <c r="I36" t="s">
-        <v>240</v>
-      </c>
-      <c r="J36" t="s">
-        <v>219</v>
-      </c>
       <c r="K36" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B37" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C37" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D37" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E37" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F37" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="G37" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B38" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E38" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="B39" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="C39" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="D39" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E39" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F39" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E40" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>243</v>
+      </c>
+      <c r="B41" t="s">
         <v>244</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>245</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>246</v>
       </c>
-      <c r="D41" t="s">
-        <v>247</v>
-      </c>
       <c r="E41" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="B42" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="C42" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D42" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="E42" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="F42" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="G42" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="B43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C43" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" t="s">
+        <v>303</v>
+      </c>
+      <c r="E43" t="s">
         <v>183</v>
-      </c>
-      <c r="D43" t="s">
-        <v>312</v>
-      </c>
-      <c r="E43" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C44" t="s">
         <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="E44" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="F44" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="G44" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="H44" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="I44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="B45" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="C45" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D45" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E45" t="s">
+        <v>198</v>
+      </c>
+      <c r="F45" t="s">
+        <v>211</v>
+      </c>
+      <c r="G45" t="s">
+        <v>314</v>
+      </c>
+      <c r="H45" t="s">
+        <v>315</v>
+      </c>
+      <c r="I45" t="s">
         <v>199</v>
-      </c>
-      <c r="F45" t="s">
-        <v>212</v>
-      </c>
-      <c r="G45" t="s">
-        <v>323</v>
-      </c>
-      <c r="H45" t="s">
-        <v>324</v>
-      </c>
-      <c r="I45" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" t="s">
+        <v>303</v>
+      </c>
+      <c r="E46" t="s">
         <v>183</v>
       </c>
-      <c r="D46" t="s">
-        <v>312</v>
-      </c>
-      <c r="E46" t="s">
-        <v>184</v>
-      </c>
       <c r="F46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B47" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C47" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D47" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E47" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F47" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="G47" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="H47" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="I47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B48" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C48" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" t="s">
+        <v>303</v>
+      </c>
+      <c r="E48" t="s">
         <v>183</v>
       </c>
-      <c r="D48" t="s">
-        <v>312</v>
-      </c>
-      <c r="E48" t="s">
-        <v>184</v>
-      </c>
       <c r="F48" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="B49" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="C49" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="D49" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E49" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F49" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G49" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="H49" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="I49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D50" t="s">
         <v>71</v>
       </c>
       <c r="E50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H50" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K50" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>243</v>
+      </c>
+      <c r="B51" t="s">
         <v>244</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>245</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>246</v>
       </c>
-      <c r="D51" t="s">
-        <v>247</v>
-      </c>
       <c r="E51" t="s">
+        <v>236</v>
+      </c>
+      <c r="F51" t="s">
         <v>237</v>
       </c>
-      <c r="F51" t="s">
-        <v>238</v>
-      </c>
       <c r="G51" t="s">
+        <v>217</v>
+      </c>
+      <c r="H51" t="s">
+        <v>294</v>
+      </c>
+      <c r="I51" t="s">
+        <v>239</v>
+      </c>
+      <c r="J51" t="s">
         <v>218</v>
       </c>
-      <c r="H51" t="s">
-        <v>297</v>
-      </c>
-      <c r="I51" t="s">
-        <v>240</v>
-      </c>
-      <c r="J51" t="s">
-        <v>219</v>
-      </c>
       <c r="K51" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="B52" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="C52" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D52" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F52" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="B53" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="C53" t="s">
         <v>112</v>
       </c>
       <c r="D53" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" t="s">
+        <v>220</v>
+      </c>
+      <c r="D54" t="s">
         <v>190</v>
       </c>
-      <c r="C54" t="s">
-        <v>221</v>
-      </c>
-      <c r="D54" t="s">
-        <v>191</v>
-      </c>
       <c r="E54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F54" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -6595,257 +5960,257 @@
         <v>159</v>
       </c>
       <c r="B55" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" t="s">
+        <v>238</v>
+      </c>
+      <c r="D55" t="s">
         <v>182</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
+        <v>183</v>
+      </c>
+      <c r="F55" t="s">
+        <v>216</v>
+      </c>
+      <c r="G55" t="s">
+        <v>217</v>
+      </c>
+      <c r="H55" t="s">
+        <v>294</v>
+      </c>
+      <c r="I55" t="s">
         <v>239</v>
       </c>
-      <c r="D55" t="s">
-        <v>183</v>
-      </c>
-      <c r="E55" t="s">
-        <v>184</v>
-      </c>
-      <c r="F55" t="s">
-        <v>217</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="J55" t="s">
         <v>218</v>
       </c>
-      <c r="H55" t="s">
-        <v>297</v>
-      </c>
-      <c r="I55" t="s">
-        <v>240</v>
-      </c>
-      <c r="J55" t="s">
-        <v>219</v>
-      </c>
       <c r="K55" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B56" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" t="s">
+        <v>220</v>
+      </c>
+      <c r="D56" t="s">
         <v>190</v>
       </c>
-      <c r="C56" t="s">
-        <v>221</v>
-      </c>
-      <c r="D56" t="s">
-        <v>191</v>
-      </c>
       <c r="E56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F56" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B57" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" t="s">
+        <v>182</v>
+      </c>
+      <c r="E57" t="s">
+        <v>183</v>
+      </c>
+      <c r="F57" t="s">
+        <v>216</v>
+      </c>
+      <c r="G57" t="s">
+        <v>217</v>
+      </c>
+      <c r="H57" t="s">
+        <v>294</v>
+      </c>
+      <c r="I57" t="s">
         <v>239</v>
       </c>
-      <c r="D57" t="s">
-        <v>183</v>
-      </c>
-      <c r="E57" t="s">
-        <v>184</v>
-      </c>
-      <c r="F57" t="s">
-        <v>217</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="J57" t="s">
         <v>218</v>
       </c>
-      <c r="H57" t="s">
-        <v>297</v>
-      </c>
-      <c r="I57" t="s">
-        <v>240</v>
-      </c>
-      <c r="J57" t="s">
-        <v>219</v>
-      </c>
       <c r="K57" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B58" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C58" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B59" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B60" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C60" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B61" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C61" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D61" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="E61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F61" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C62" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B63" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C63" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D63" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="E63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F63" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B65" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C65" t="s">
         <v>112</v>
       </c>
       <c r="D65" t="s">
+        <v>201</v>
+      </c>
+      <c r="E65" t="s">
         <v>202</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>203</v>
       </c>
-      <c r="F65" t="s">
-        <v>204</v>
-      </c>
       <c r="G65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C66" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" t="s">
         <v>202</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>203</v>
       </c>
-      <c r="F66" t="s">
-        <v>204</v>
-      </c>
       <c r="G66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B67" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C67" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B68" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C69" t="s">
         <v>112</v>
@@ -6853,519 +6218,519 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D70" t="s">
+        <v>201</v>
+      </c>
+      <c r="E70" t="s">
         <v>202</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>203</v>
       </c>
-      <c r="F70" t="s">
-        <v>204</v>
-      </c>
       <c r="G70" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C71" t="s">
         <v>112</v>
       </c>
       <c r="D71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B72" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C72" t="s">
         <v>78</v>
       </c>
       <c r="D72" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E72" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F72" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B73" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D73" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="E73" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G73" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B74" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C74" t="s">
         <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="E74" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E75" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F75" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G75" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="B76" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C76" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D76" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E76" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F76" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G76" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>340</v>
+      </c>
+      <c r="B77" t="s">
+        <v>341</v>
+      </c>
+      <c r="C77" t="s">
+        <v>204</v>
+      </c>
+      <c r="D77" t="s">
+        <v>205</v>
+      </c>
+      <c r="E77" t="s">
         <v>349</v>
       </c>
-      <c r="B77" t="s">
+      <c r="F77" t="s">
         <v>350</v>
       </c>
-      <c r="C77" t="s">
-        <v>205</v>
-      </c>
-      <c r="D77" t="s">
-        <v>206</v>
-      </c>
-      <c r="E77" t="s">
-        <v>358</v>
-      </c>
-      <c r="F77" t="s">
-        <v>359</v>
-      </c>
       <c r="G77" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B78" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="C78" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D78" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E78" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F78" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B79" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="C79" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D79" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E79" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F79" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B80" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C80" t="s">
+        <v>204</v>
+      </c>
+      <c r="D80" t="s">
         <v>205</v>
       </c>
-      <c r="D80" t="s">
-        <v>206</v>
-      </c>
       <c r="E80" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F80" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B81" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C81" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="E81" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C82" t="s">
         <v>76</v>
       </c>
       <c r="D82" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E82" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B83" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C83" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D83" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E83" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F83" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G83" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C84" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="E84" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G84" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B85" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C85" t="s">
         <v>76</v>
       </c>
       <c r="D85" t="s">
+        <v>253</v>
+      </c>
+      <c r="E85" t="s">
         <v>254</v>
-      </c>
-      <c r="E85" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B86" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C86" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D86" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E86" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F86" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="G86" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B87" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C87" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D87" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B88" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B89" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C89" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D89" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E89" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>243</v>
+      </c>
+      <c r="B90" t="s">
         <v>244</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>245</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>246</v>
       </c>
-      <c r="D90" t="s">
-        <v>247</v>
-      </c>
       <c r="E90" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F90" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B91" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B92" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C92" t="s">
+        <v>252</v>
+      </c>
+      <c r="D92" t="s">
         <v>253</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>254</v>
-      </c>
-      <c r="E92" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B93" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C93" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D93" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>243</v>
+      </c>
+      <c r="B94" t="s">
         <v>244</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>245</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>246</v>
-      </c>
-      <c r="D94" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B96" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C96" t="s">
+        <v>253</v>
+      </c>
+      <c r="D96" t="s">
         <v>254</v>
-      </c>
-      <c r="D96" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B97" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C97" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D97" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B98" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="C98" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -7397,7 +6762,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7438,13 +6803,13 @@
         <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="E5" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7625,1947 +6990,1947 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C25" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="100" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="104" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="105" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="108" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="110" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="111" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="112" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="119" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E119" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="120" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="122" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E122" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="123" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E123" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="124" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="125" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="126" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E126" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="127" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E127" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="128" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E131" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E134" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="135" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="136" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="137" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E137" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="138" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E138" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="139" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E139" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E142" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="143" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="144" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="147" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E147" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="150" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E150" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E151" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E152" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="156" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E157" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="158" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E158" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="159" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E159" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="160" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E161" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E162" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E163" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E164" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E165" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="166" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E166" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="167" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E167" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="168" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E168" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="169" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E169" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="170" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E170" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="171" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E171" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="172" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E172" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="173" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E173" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="174" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E174" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="175" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E175" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="176" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E176" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="177" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E177" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="178" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E178" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="179" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E179" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="180" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="181" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E181" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="182" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E182" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="183" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E183" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="184" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E184" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="185" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E185" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="186" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E186" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="187" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E187" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="188" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="189" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E189" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="190" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E190" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="191" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E191" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="192" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E192" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="193" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E193" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="194" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E194" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="195" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E195" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="196" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E196" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="197" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E197" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="198" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E198" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="199" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E199" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="200" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E200" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="201" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E201" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="202" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E202" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="203" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E203" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="204" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E204" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="205" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E205" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="206" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E206" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="207" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E207" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="208" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E208" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="209" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E209" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="210" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E210" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="211" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E211" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="212" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E212" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="213" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E213" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="214" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E214" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="215" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E215" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="216" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E216" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="217" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E217" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="218" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E218" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="219" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E219" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="220" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E220" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="221" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E221" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="222" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E222" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="223" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E223" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="224" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E224" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="225" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E225" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="226" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E226" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="227" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E227" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="228" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E228" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="229" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E229" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="230" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E230" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="231" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E231" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="232" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E232" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="233" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E233" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="234" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E234" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="235" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E235" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="236" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E236" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="237" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E237" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="238" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E238" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="239" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E239" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="240" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E240" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="241" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E241" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="242" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E242" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="243" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E243" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="244" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E244" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="245" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E245" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="246" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E246" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="247" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E247" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="248" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E248" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="249" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E249" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="250" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E250" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="251" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E251" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="252" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E252" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="253" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E253" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="254" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E254" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="255" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E255" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="256" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E256" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="257" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E257" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="258" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E258" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="259" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E259" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="260" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E260" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="261" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E261" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="262" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E262" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="263" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E263" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="264" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E264" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="265" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E265" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="266" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E266" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="267" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E267" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="268" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E268" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="269" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E269" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="270" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E270" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="271" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E271" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="272" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E272" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="273" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E273" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="274" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E274" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="275" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E275" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="276" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E276" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="277" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E277" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="278" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E278" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="279" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E279" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="280" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E280" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="281" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E281" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="282" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E282" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="283" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E283" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="284" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E284" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="285" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E285" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="286" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E286" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="287" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E287" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="288" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E288" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="289" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E289" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="290" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E290" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="291" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E291" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="292" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E292" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="293" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E293" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="294" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E294" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="295" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E295" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="296" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E296" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="297" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E297" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="298" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E298" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="299" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E299" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="300" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E300" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="301" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E301" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="302" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E302" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="303" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E303" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="304" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E304" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="305" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E305" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="306" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E306" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="307" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E307" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="308" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E308" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="309" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E309" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="310" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E310" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="311" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E311" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="312" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E312" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="313" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E313" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="314" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E314" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="315" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E315" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="316" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E316" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="317" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E317" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="318" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E318" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="319" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E319" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="320" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E320" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="321" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E321" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="322" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E322" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="323" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E323" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="324" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E324" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="325" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E325" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="326" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E326" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="327" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E327" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="328" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E328" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="329" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E329" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="330" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E330" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="331" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E331" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="332" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E332" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="333" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E333" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="334" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E334" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="335" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E335" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="336" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E336" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="337" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E337" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="338" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E338" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="339" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E339" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="340" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E340" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="341" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E341" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="342" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E342" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="343" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E343" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="344" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E344" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="345" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E345" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="346" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E346" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="347" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E347" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="348" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E348" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="349" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E349" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="350" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E350" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="351" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E351" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="352" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E352" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="353" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E353" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="354" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E354" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="355" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E355" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="356" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E356" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="357" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E357" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="358" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E358" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="359" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E359" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="360" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E360" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="361" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E361" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="362" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E362" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="363" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E363" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="364" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E364" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="365" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E365" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="366" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E366" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="367" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E367" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="368" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E368" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="369" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E369" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="370" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E370" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="371" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E371" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="372" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E372" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="373" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E373" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="374" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E374" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="375" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E375" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="376" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E376" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="377" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E377" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="378" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E378" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="379" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E379" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="380" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E380" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="381" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E381" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="382" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E382" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="383" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E383" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="384" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E384" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="385" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E385" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="386" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E386" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="387" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E387" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="388" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E388" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="389" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E389" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="390" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E390" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="391" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E391" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="392" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E392" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="393" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E393" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="394" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E394" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="395" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E395" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="396" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E396" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="397" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E397" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="398" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E398" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="399" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E399" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="400" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E400" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="401" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E401" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="402" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E402" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="403" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E403" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="404" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E404" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="405" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E405" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="406" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E406" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="407" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E407" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="408" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E408" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="409" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E409" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="410" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E410" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="411" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E411" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="412" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E412" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="413" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E413" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="414" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E414" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="415" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E415" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="416" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E416" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="417" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E417" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="418" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E418" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="419" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E419" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="420" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E420" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="421" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E421" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="422" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E422" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="423" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E423" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="424" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E424" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="425" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E425" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="426" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E426" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="427" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E427" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="428" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E428" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="429" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E429" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="430" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E430" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="431" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E431" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="432" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E432" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="433" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E433" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="434" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E434" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="435" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E435" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="436" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E436" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="437" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E437" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="438" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E438" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="439" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E439" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="440" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E440" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="441" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E441" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="442" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E442" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="443" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E443" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="444" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E444" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="445" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E445" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="446" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E446" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="447" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E447" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="448" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E448" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="449" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E449" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="450" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E450" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="451" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E451" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="452" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E452" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="453" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E453" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="454" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E454" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="455" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E455" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="456" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E456" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="457" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E457" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="458" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E458" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="459" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E459" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="460" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E460" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="461" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E461" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="462" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E462" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="463" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E463" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -9592,27 +8957,27 @@
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="B2" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="C2" t="s">
         <v>162</v>
@@ -9632,10 +8997,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="B3" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="C3" t="s">
         <v>163</v>
@@ -9655,10 +9020,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="B4" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="C4" t="s">
         <v>161</v>
@@ -9678,10 +9043,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="C5" t="s">
         <v>163</v>
@@ -9701,10 +9066,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="B6" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="C6" t="s">
         <v>160</v>
@@ -9724,10 +9089,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="B7" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="C7" t="s">
         <v>161</v>
@@ -9747,10 +9112,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>568</v>
+      </c>
+      <c r="B8" t="s">
         <v>588</v>
-      </c>
-      <c r="B8" t="s">
-        <v>608</v>
       </c>
       <c r="C8" t="s">
         <v>162</v>
@@ -9770,10 +9135,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="B9" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="C9" t="s">
         <v>160</v>
@@ -9793,10 +9158,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="B10" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="C10" t="s">
         <v>164</v>
@@ -9835,140 +9200,182 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="B1" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="B2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="D1" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="E1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>10196255</v>
+      </c>
+      <c r="B2" s="16">
+        <v>42034</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1329.8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>40</v>
+      </c>
+      <c r="F2" s="5">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>10195995</v>
+      </c>
+      <c r="B3" s="16">
+        <v>42034</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1401.8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>40</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>10588735</v>
       </c>
-      <c r="D2">
+      <c r="B4" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="C4" t="s">
+        <v>599</v>
+      </c>
+      <c r="D4">
         <v>623.29999999999995</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>40</v>
       </c>
-      <c r="F2">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="G4">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="B3" t="s">
-        <v>620</v>
-      </c>
-      <c r="C3" s="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>10588737</v>
       </c>
-      <c r="D3">
+      <c r="B5" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="C5" t="s">
+        <v>600</v>
+      </c>
+      <c r="D5">
         <v>951</v>
-      </c>
-      <c r="E3">
-        <v>40</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="B4" t="s">
-        <v>622</v>
-      </c>
-      <c r="C4" s="5">
-        <v>10588743</v>
-      </c>
-      <c r="D4">
-        <v>1489.75</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="B5" t="s">
-        <v>621</v>
-      </c>
-      <c r="C5" s="5">
-        <v>10588742</v>
-      </c>
-      <c r="D5">
-        <v>3074.2</v>
       </c>
       <c r="E5">
         <v>40</v>
       </c>
       <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>10588743</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="C6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D6">
+        <v>1489.75</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>10588742</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="C7" t="s">
+        <v>601</v>
+      </c>
+      <c r="D7">
+        <v>3074.2</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Fanduel.xlsx
+++ b/Fanduel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="_ironspread_data_" sheetId="4" state="veryHidden" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="641">
   <si>
     <t>n_scripts_list</t>
   </si>
@@ -631,9 +631,6 @@
     <t>Brian Elliott</t>
   </si>
   <si>
-    <t>Chris Summers</t>
-  </si>
-  <si>
     <t>Chris Stewart</t>
   </si>
   <si>
@@ -739,15 +736,9 @@
     <t>Patrick Bordeleau</t>
   </si>
   <si>
-    <t>Cory Conacher</t>
-  </si>
-  <si>
     <t>Chris Tierney</t>
   </si>
   <si>
-    <t>Kyle Palmieri</t>
-  </si>
-  <si>
     <t>Ryan Strome</t>
   </si>
   <si>
@@ -862,12 +853,6 @@
     <t>Carl Hagelin</t>
   </si>
   <si>
-    <t>Jeff Drouin-Deslauriers</t>
-  </si>
-  <si>
-    <t>Andrei Vasilevskii</t>
-  </si>
-  <si>
     <t>Dylan Olsen</t>
   </si>
   <si>
@@ -958,9 +943,6 @@
     <t>Matt Stajan</t>
   </si>
   <si>
-    <t>Tye McGinn</t>
-  </si>
-  <si>
     <t>Mike Weaver</t>
   </si>
   <si>
@@ -994,9 +976,6 @@
     <t>Erik Condra</t>
   </si>
   <si>
-    <t>Josh Harding</t>
-  </si>
-  <si>
     <t>Josh Jooris</t>
   </si>
   <si>
@@ -1555,9 +1534,6 @@
     <t>Cam Atkinson</t>
   </si>
   <si>
-    <t>Michael Stone</t>
-  </si>
-  <si>
     <t>Michael Frolik</t>
   </si>
   <si>
@@ -1597,18 +1573,9 @@
     <t>P/L</t>
   </si>
   <si>
-    <t>Sheldon Brookbank</t>
-  </si>
-  <si>
-    <t>Seth Griffith</t>
-  </si>
-  <si>
     <t>Thomas Vanek</t>
   </si>
   <si>
-    <t>Joe Morrow</t>
-  </si>
-  <si>
     <t>Brenden Morrow</t>
   </si>
   <si>
@@ -1618,18 +1585,12 @@
     <t>John Moore</t>
   </si>
   <si>
-    <t>Jason Williams</t>
-  </si>
-  <si>
     <t>Justin Williams</t>
   </si>
   <si>
     <t>Jason Demers</t>
   </si>
   <si>
-    <t>Karri Ramo</t>
-  </si>
-  <si>
     <t>David Warsofsky</t>
   </si>
   <si>
@@ -1639,15 +1600,6 @@
     <t>David Clarkson</t>
   </si>
   <si>
-    <t>Brad Thiessen</t>
-  </si>
-  <si>
-    <t>Frans Nielsen</t>
-  </si>
-  <si>
-    <t>Brad Boyes</t>
-  </si>
-  <si>
     <t>Tomas Plekanec</t>
   </si>
   <si>
@@ -1660,48 +1612,15 @@
     <t>Sam Gagner</t>
   </si>
   <si>
-    <t>Tom Wilson</t>
-  </si>
-  <si>
-    <t>Justin Faulk</t>
-  </si>
-  <si>
-    <t>Dustin Brown</t>
-  </si>
-  <si>
-    <t>Dustin Byfuglien</t>
-  </si>
-  <si>
     <t>Justin Peters</t>
   </si>
   <si>
     <t>Justin Schultz</t>
   </si>
   <si>
-    <t>Loui Eriksson</t>
-  </si>
-  <si>
-    <t>Joni Ortio</t>
-  </si>
-  <si>
     <t>Shane Prince</t>
   </si>
   <si>
-    <t>Jamie McGinn</t>
-  </si>
-  <si>
-    <t>Brad Winchester</t>
-  </si>
-  <si>
-    <t>Jonas Gustavsson</t>
-  </si>
-  <si>
-    <t>Thomas McCollum</t>
-  </si>
-  <si>
-    <t>Tom McCollum</t>
-  </si>
-  <si>
     <t>Tyler Johnson</t>
   </si>
   <si>
@@ -1711,45 +1630,15 @@
     <t>Erik Karlsson</t>
   </si>
   <si>
-    <t>Todd Bertuzzi</t>
-  </si>
-  <si>
-    <t>Jason LaBarbera</t>
-  </si>
-  <si>
     <t>Jason Chimera</t>
   </si>
   <si>
-    <t>Johan Franzen</t>
-  </si>
-  <si>
-    <t>Jannik Hansen</t>
-  </si>
-  <si>
     <t>Joey MacDonald</t>
   </si>
   <si>
-    <t>Calvin Pickard</t>
-  </si>
-  <si>
-    <t>Craig Anderson</t>
-  </si>
-  <si>
-    <t>Joakim Andersson</t>
-  </si>
-  <si>
     <t>Craig Adams</t>
   </si>
   <si>
-    <t>Andy Miele</t>
-  </si>
-  <si>
-    <t>Andy Greene</t>
-  </si>
-  <si>
-    <t>Martin Jones</t>
-  </si>
-  <si>
     <t>Marian Hossa</t>
   </si>
   <si>
@@ -1768,66 +1657,24 @@
     <t>Martin Erat</t>
   </si>
   <si>
-    <t>Jakub Kindl</t>
-  </si>
-  <si>
-    <t>Jimmy Howard</t>
-  </si>
-  <si>
-    <t>Jimmy Hayes</t>
-  </si>
-  <si>
     <t>Daniel Carcillo</t>
   </si>
   <si>
     <t>Daniel Paille</t>
   </si>
   <si>
-    <t>{u'MIN': [['Zach Parise', 'Mikko Koivu', 'Jason Pominville'], ['Thomas Vanek', 'Mikael Granlund', 'Justin Fontaine'], ['Nino Niederreiter', 'Charlie Coyle', 'Jordan Schroeder'], ['Stephane Veilleux', 'Erik Haula', 'Kyle Brodziak'], ['Ryan Suter', 'Jonas Brodin'], ['Marco Scandella', 'Jared Spurgeon'], ['Nate Prosser', 'Mathew Dumba'], ['Zach Parise', 'Mikko Koivu', 'Thomas Vanek', 'Ryan Suter', 'Jason Pominville'], ['Nino Niederreiter', 'Mikael Granlund', 'Charlie Coyle', 'Jared Spurgeon', 'Mathew Dumba']], u'TOR': [['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel'], ['Daniel Winnik', 'Nazem Kadri', 'Richard Panik'], ['Leo Komarov', 'Olli Jokinen', 'David Clarkson'], ['David Booth', 'Peter Holland', 'Brandon Kozun'], ['Morgan Rielly', 'Roman Polak'], ['Jake Gardiner', 'Korbinian Holzer'], ['Stephane Robidas', 'Petter Granberg'], ['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel', 'Morgan Rielly', 'Nazem Kadri'], ['Richard Panik', 'Peter Holland', 'David Clarkson', 'Jake Gardiner', 'Stephane Robidas']], u'CAR': [['Eric Staal', 'Jordan Staal', 'Jiri Tlusty'], ['Jeff Skinner', 'Victor Rask', 'Elias Lindholm'], ['Nathan Gerbe', 'Andrej Nestrasil', 'Chris Terry'], ['Brad Malone', 'Jay McClement', 'Pat Dwyer'], ['Andrej Sekera', 'Justin Faulk'], ['Tim Gleason', 'Michal Jordan'], ['Ron Hainsey', 'John-Michael Liles'], ['Jiri Tlusty', 'Eric Staal', 'Elias Lindholm', 'Michal Jordan', 'Justin Faulk'], ['Brad Malone', 'Jordan Staal', 'Riley Nash', 'Andrej Sekera', 'Jeff Skinner']], u'BOS': [['Milan Lucic', 'David Krejci', 'Reilly Smith'], ['Brad Marchand', 'Patrice Bergeron', 'Loui Eriksson'], ['Chris Kelly', 'Carl Soderberg', 'David Pastrnak'], ['Daniel Paille', 'Gregory Campbell', 'Craig Cunningham'], ['Zdeno Chara', 'Dougie Hamilton'], ['Dennis Seidenberg', 'Matt Bartkowski'], ['Torey Krug', 'Kevan Miller'], ['Matt Bartkowski', 'Patrice Bergeron', 'Loui Eriksson', 'Reilly Smith', 'Dougie Hamilton'], ['Brad Marchand', 'David Krejci', 'Milan Lucic', 'Zdeno Chara', 'Torey Krug']], u'DET': [['Justin Abdelkader', 'Henrik Zetterberg', 'Teemu Pulkkinen'], ['Tomas Tatar', 'Pavel Datsyuk', 'Darren Helm'], ['Gustav Nyquist', 'Riley Sheahan', 'Stephen Weiss'], ['Drew Miller', 'Joakim Andersson', 'Luke Glendening'], ['Jonathan Ericsson', 'Niklas Kronwall'], ['Kyle Quincey', 'Dan DeKeyser'], ['Brendan Smith', 'Alexey Marchenko'], ['Gustav Nyquist', 'Henrik Zetterberg', 'Justin Abdelkader', 'Stephen Weiss', 'Niklas Kronwall'], ['Tomas Tatar', 'Pavel Datsyuk', 'Riley Sheahan', 'Teemu Pulkkinen', 'Dan DeKeyser']], u'NAS': [['Colin Wilson', 'Mike Ribeiro', 'James Neal'], ['Matt Cullen', 'Mike Fisher', 'Craig Smith'], ['Filip Forsberg', 'Calle Jarnkrok', 'Taylor Beck'], ['Eric Nystrom', 'Paul Gaustad', 'Gabriel Bourque'], ['Roman Josi', 'Shea Weber'], ['Mattias Ekholm', 'Victor Bartley'], ['Anthony Bitetto', 'Seth Jones'], ['Filip Forsberg', 'Mike Fisher', 'James Neal', 'Roman Josi', 'Shea Weber'], ['Colin Wilson', 'Mike Ribeiro', 'Craig Smith', 'Mattias Ekholm', 'Seth Jones']], u'NYI': [['Anders Lee', 'John Tavares', 'Josh Bailey'], ['Michael Grabner', 'Frans Nielsen', 'Ryan Strome'], ['Nikolay Kulemin', 'Mikhail Grabovski', 'Cal Clutterbuck'], ['Matt Martin', 'Brock Nelson', 'Colin McDonald'], ['Nick Leddy', 'Johnny Boychuk'], ['Brian Strait', 'Travis Hamonic'], ['Thomas Hickey', 'Calvin de Haan'], ['Anders Lee', 'John Tavares', 'Frans Nielsen', 'Nick Leddy', 'Johnny Boychuk'], ['Mikhail Grabovski', 'Brock Nelson', 'Ryan Strome', 'Thomas Hickey', 'Travis Hamonic']], u'FLA': [['Jussi Jokinen', 'Nick Bjugstad', 'Jimmy Hayes'], ['Jonathan Huberdeau', 'Aleksander Barkov', 'Brad Boyes'], ['Tomas Fleischmann', 'Dave Bolland', 'Scottie Upshall'], ['Tomas Kopecky', 'Derek MacKenzie', 'Shawn Thornton'], ['Brian Campbell', 'Aaron Ekblad'], ['Steve Kampfer', 'Erik Gudbranson'], ["Shane O'Brien", 'Alex Petrovic'], ['Jonathan Huberdeau', 'Nick Bjugstad', 'Jimmy Hayes', 'Aleksander Barkov', 'Aaron Ekblad'], ['Tomas Fleischmann', 'Dave Bolland', 'Brad Boyes', 'Brian Campbell', 'Jussi Jokinen']], u'COL': [['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon'], ['Max Talbot', 'Matt Duchene', 'Jarome Iginla'], ['Alex Tanguay', 'John Mitchell', 'Dennis Everberg'], ['Cody McLeod', 'Marc-Andre Cliche', 'Paul Carey'], ['Nate Guenin', 'Tyson Barrie'], ['Jan Hejda', 'Zach Redmond'], ['Brad Stuart', 'Nick Holden'], ['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon', 'Jarome Iginla', 'Tyson Barrie'], ['Alex Tanguay', 'Matt Duchene', 'John Mitchell', 'Nick Holden', 'Zach Redmond']], u'NJD': [['Adam Henrique', 'Patrik Elias', 'Steve Bernier'], ['Tuomo Ruutu', 'Scott Gomez', 'Jaromir Jagr'], ['Michael Cammalleri', 'Travis Zajac', 'Jordin Tootoo'], ['Dainius Zubrus', 'Jacob Josefson', 'Stephen Gionta'], ['Andy Greene', 'Adam Larsson'], ['Jon Merrill', 'Marek Zidlicky'], ['Eric Gelinas', 'Peter Harrold'], ['Steve Bernier', 'Scott Gomez', 'Jaromir Jagr', 'Eric Gelinas', 'Michael Cammalleri'], ['Patrik Elias', 'Adam Henrique', 'Jordin Tootoo', 'Travis Zajac', 'Marek Zidlicky']], u'DAL': [['Jamie Benn', 'Jason Spezza', 'Erik Cole'], ['Antoine Roussel', 'Cody Eakin', 'Ryan Garbutt'], ['Curtis McKenzie', 'Vernon Fiddler', 'Brett Ritchie'], ['Travis Moen', 'Shawn Horcoff', 'Colton Sceviour'], ['Alex Goligoski', 'John Klingberg'], ['Jyrki Jokipakka', 'Trevor Daley'], ['Jordie Benn', 'Jason Demers'], ['Jamie Benn', 'Jason Spezza', 'Brett Ritchie', 'Trevor Daley', 'John Klingberg'], ['Erik Cole', 'Cody Eakin', 'Curtis McKenzie', 'Alex Goligoski', 'Jason Demers']], u'CGY': [['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler'], ['Lance Bouma', 'Mikael Backlund', 'David Jones'], ['Curtis Glencross', 'Josh Jooris', 'Mason Raymond'], ['Brandon Bollig', 'Matt Stajan', 'Joe Colborne'], ['Mark Giordano', 'T.J. Brodie'], ['Kris Russell', 'Dennis Wideman'], ['Raphael Diaz', 'Deryk Engelland'], ['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler', 'T.J. Brodie', 'Dennis Wideman'], ['Mason Raymond', 'Mikael Backlund', 'David Jones', 'Mark Giordano', 'Raphael Diaz']], u'NYR': [['Rick Nash', 'Derick Brassard', 'Mats Zuccarello'], ['Chris Kreider', 'Derek Stepan', 'Martin St. Louis'], ['Carl Hagelin', 'Kevin Hayes', 'J.T. Miller'], ['Tanner Glass', 'Dominic Moore', 'Lee Stempniak'], ['Ryan McDonagh', 'Dan Girardi'], ['Marc Staal', 'Kevin Klein'], ['Dan Boyle', 'Matt Hunwick'], ['Rick Nash', 'Derick Brassard', 'Mats Zuccarello', 'Ryan McDonagh', 'Derek Stepan'], ['Chris Kreider', 'Kevin Hayes', 'Martin St. Louis', 'Dan Boyle', 'Dan Girardi']], u'SJS': [['Melker Karlsson', 'Joe Thornton', 'Joe Pavelski'], ['Patrick Marleau', 'Logan Couture', 'Matthew Nieto'], ['Tomas Hertl', 'Chris Tierney', 'Tommy Wingels'], ['Barclay Goodrow', 'James Sheppard', 'Tyler Kennedy'], ['Marc-Edouard Vlasic', 'Brent Burns'], ['Brenden Dillon', 'Justin Braun'], ['Matt Irwin', 'Scott Hannan'], ['Patrick Marleau', 'Joe Thornton', 'Logan Couture', 'Joe Pavelski', 'Brent Burns'], ['Melker Karlsson', 'Tomas Hertl', 'Matthew Nieto', 'Matt Irwin', 'Marc-Edouard Vlasic']], u'PIT': [['Chris Kunitz', 'Sidney Crosby', 'David Perron'], ['Blake Comeau', 'Evgeni Malkin', 'Patric Hornqvist'], ['Nick Spaling', 'Brandon Sutter', 'Beau Bennett'], ['Craig Adams', 'Maxim Lapierre', 'Steve Downie'], ['Paul Martin', 'Kris Letang'], ['Rob Scuderi', 'Simon Despres'], ['Derrick Pouliot', 'Robert Bortuzzo'], ['Chris Kunitz', 'Sidney Crosby', 'David Perron', 'Derrick Pouliot', 'Kris Letang'], ['Blake Comeau', 'Evgeni Malkin', 'Patric Hornqvist', 'Paul Martin', 'Simon Despres']], u'VAN': [['Daniel Sedin', 'Henrik Sedin', 'Alexandre Burrows'], ['Chris Higgins', 'Linden Vey', 'Radim Vrbata'], ['Derek Dorsett', 'Shawn Matthias', 'Zack Kassian'], ['Ronalds Kenins', 'Bo Horvat', 'Jannik Hansen'], ['Dan Hamhuis', 'Yannick Weber'], ['Ryan Stanton', 'Adam Clendening'], ['Luca Sbisa', 'Alex Biega'], ['Daniel Sedin', 'Henrik Sedin', 'Alexandre Burrows', 'Radim Vrbata', 'Adam Clendening'], ['Chris Higgins', 'Linden Vey', 'Jannik Hansen', 'Dan Hamhuis', 'Yannick Weber']], u'STL': [['Alex Steen', 'David Backes', 'T.J. Oshie'], ['Jaden Schwartz', 'Jori Lehtera', 'Vladimir Tarasenko'], ['Dmitrij Jaskin', 'Paul Stastny', 'Patrik Berglund'], ['Steve Ott', 'Marcel Goc', 'Ryan Reaves'], ['Chris Butler', 'Alex Pietrangelo'], ['Carl Gunnarsson', 'Jay Bouwmeester'], ['Barret Jackman', 'Ian Cole'], ['David Backes', 'Paul Stastny', 'T.J. Oshie', 'Jay Bouwmeester', 'Alex Pietrangelo'], ['Jaden Schwartz', 'Jori Lehtera', 'Vladimir Tarasenko', 'Alex Steen', 'Dmitrij Jaskin']], u'CHI': [['Brandon Saad', 'Jonathan Toews', 'Marian Hossa'], ['Kris Versteeg', 'Brad Richards', 'Patrick Kane'], ['Bryan Bickell', 'Andrew Shaw', 'Ryan Hartman'], ['Patrick Sharp', 'Marcus Kruger', 'Ben Smith'], ['Duncan Keith', 'Michal Rozsival'], ['Niklas Hjalmarsson', 'Johnny Oduya'], ['Kyle Cumiskey', 'Brent Seabrook'], ['Brandon Saad', 'Jonathan Toews', 'Marian Hossa', 'Patrick Kane', 'Brent Seabrook'], ['Patrick Sharp', 'Brad Richards', 'Andrew Shaw', 'Duncan Keith', 'Michal Rozsival']], u'MTL': [['Max Pacioretty', 'David Desharnais', 'Dale Weise'], ['Alex Galchenyuk', 'Tomas Plekanec', 'Brendan Gallagher'], ['Brandon Prust', 'Lars Eller', 'Jiri Sekac'], ['Michael Bournival', 'Jacob De La Rose', 'Christian Thomas'], ['Andrei Markov', 'P.K. Subban'], ['Tom Gilbert', 'Alexei Emelin'], ['Nathan Beaulieu', 'Greg Pateryn'], ['Max Pacioretty', 'David Desharnais', 'Brendan Gallagher', 'Andrei Markov', 'P.K. Subban'], ['Alex Galchenyuk', 'Tomas Plekanec', 'Lars Eller', 'Nathan Beaulieu', 'Tom Gilbert']], u'PHI': [['Brayden Schenn', 'Claude Giroux', 'Jakub Voracek'], ['Matt Read', 'Sean Couturier', 'Wayne Simmonds'], ['Ryan White', 'Michael Raffl', 'R.J. Umberger'], ['Chris VandeVelde', 'Vincent Lecavalier'], ['Nick Schultz', 'Mark Streit'], ['Nicklas Grossmann', 'Braydon Coburn'], ['Michael Del Zotto', 'Luke Schenn'], ['Brayden Schenn', 'Claude Giroux', 'Wayne Simmonds', 'Jakub Voracek', 'Mark Streit'], ['R.J. Umberger', 'Sean Couturier', 'Vincent Lecavalier', 'Matt Read', 'Michael Del Zotto']], u'ANA': [['Patrick Maroon', 'Ryan Getzlaf', 'Corey Perry'], ['Devante Smith-Pelly', 'Ryan Kesler', 'Kyle Palmieri'], ['Andrew Cogliano', 'Rickard Rakell', 'Jakob Silfverberg'], ['Emerson Etem', 'Nate Thompson', 'Tim Jackman'], ['Cam Fowler', 'Ben Lovejoy'], ['Hampus Lindholm', 'Francois Beauchemin'], ['Clayton Stoner', 'Josh Manson'], ['Patrick Maroon', 'Ryan Getzlaf', 'Corey Perry', 'Cam Fowler', 'Hampus Lindholm'], ['Kyle Palmieri', 'Ryan Kesler', 'Jakob Silfverberg', 'Francois Beauchemin', 'Rickard Rakell']], u'LAK': [['Marian Gaborik', 'Anze Kopitar', 'Trevor Lewis'], ['Dwight King', 'Jeff Carter', 'Tyler Toffoli'], ['Dustin Brown', 'Jarret Stoll', 'Justin Williams'], ['Kyle Clifford', 'Nick Shore', 'Jordan Nolan'], ['Robyn Regehr', 'Drew Doughty'], ['Jake Muzzin', 'Matt Greene'], ['Brayden McNabb', 'Jamie McBain'], ['Marian Gaborik', 'Anze Kopitar', 'Jeff Carter', 'Jake Muzzin', 'Drew Doughty'], ['Dwight King', 'Nick Shore', 'Tyler Toffoli', 'Brayden McNabb', 'Jamie McBain']], u'CBJ': [['Scott Hartnell', 'Ryan Johansen', 'Corey Tropp'], ['Matt Calvert', 'Brandon Dubinsky', 'Cam Atkinson'], ['Alexander Wennberg', 'Artem Anisimov', 'Marko Dano'], ['Jack Skille', 'Mark Letestu', 'Jared Boll'], ['Jack Johnson', 'David Savard'], ['Kevin Connauton', 'James Wisniewski'], ['Fedor Tyutin', 'Cody Goloubef'], ['Scott Hartnell', 'Ryan Johansen', 'Alexander Wennberg', 'Kevin Connauton', 'James Wisniewski'], ['Artem Anisimov', 'Brandon Dubinsky', 'Cam Atkinson', 'Jack Johnson', 'David Savard']], u'BUF': [['Chris Stewart', 'Zemgus  Girgensons', 'Tyler Ennis'], ['Matt Moulson', 'Torrey Mitchell', 'Brian Gionta'], ['Marcus Foligno', 'Brian Flynn', 'Nicolas Deslauriers'], ['Johan Larsson', 'Matt Ellis', 'Cody Hodgson'], ['Andre Benoit', 'Zach Bogosian'], ['Nikita Zadorov', 'Rasmus Ristolainen'], ['Mike Weber', 'Andrej Meszaros'], ['Matt Moulson', 'Zemgus  Girgensons', 'Chris Stewart', 'Tyler Ennis', 'Zach Bogosian'], ['Marcus Foligno', 'Brian Flynn', 'Brian Gionta', 'Nikita Zadorov', 'Rasmus Ristolainen']], u'EDM': [['Teddy Purcell', 'Ryan Nugent-Hopkins', 'Jordan Eberle'], ['Ryan  Hamilton', 'Derek Roy', 'Nail Yakupov'], ['Benoit Pouliot', 'Anton Lander', 'Iiro Pakarinen'], ['Matt Hendricks', 'Boyd Gordon', 'Matt Fraser'], ['Andrew Ference', 'Jeff Petry'], ['Oscar Klefbom', 'Justin Schultz'], ['Martin Marincin', 'Mark Fayne'], ['Teddy Purcell', 'Anton Lander', 'Jordan Eberle', 'Ryan Nugent-Hopkins', 'Justin Schultz'], ['Benoit Pouliot', 'Derek Roy', 'Iiro Pakarinen', 'Nail Yakupov', 'Jeff Petry']], u'TBL': [['Alex Killorn', 'Steven Stamkos', 'Ryan Callahan'], ['Ondrej Palat', 'Tyler Johnson', 'Nikita Kucherov'], ['Cedric Paquette', 'Valtteri Filppula', 'Brett Connolly'], ['Jonathan Drouin', 'Brian Boyle', 'J.T. Brown'], ['Victor Hedman', 'Andrej Sustr'], ['Mark Barberio', 'Anton Stralman'], ['Jason Garrison', 'Nikita Nesterov'], ['Alex Killorn', 'Steven Stamkos', 'Valtteri Filppula', 'Victor Hedman', 'Jason Garrison'], ['Ondrej Palat', 'Tyler Johnson', 'Ryan Callahan', 'Anton Stralman', 'Nikita Kucherov']], u'WIN': [['Andrew Ladd', 'Bryan Little', 'Blake Wheeler'], ['Michael Frolik', 'Mark Scheifele', 'Drew Stafford'], ['Chris Thorburn', 'Adam Lowry', 'T.J. Galiardi'], ['Carl Klingberg', 'Jim Slater', 'Anthony Peluso'], ['Ben Chiarot', 'Dustin Byfuglien'], ['Tobias Enstrom', 'Tyler Myers'], ['Mark Stuart', 'Jacob Trouba'], ['Andrew Ladd', 'Bryan Little', 'Blake Wheeler', 'Tobias Enstrom', 'Dustin Byfuglien'], ['Michael Frolik', 'Mark Scheifele', 'Drew Stafford', 'Jacob Trouba', 'Tyler Myers']], u'ARI': [['Lauri Korpikoski', 'Antoine Vermette', 'Martin Erat'], ['Tobias Rieder', 'Mark Arcobello', 'Sam Gagner'], ['Lucas Lessio', 'Kyle Chipchura', 'Shane Doan'], ['Jordan Martinook', 'Joe Vitale', 'David Moss'], ['Oliver Ekman-Larsson', 'Brandon Gormley'], ['Keith Yandle', 'Michael Stone'], ['Andrew Campbell', 'Connor Murphy'], ['Tobias Rieder', 'Antoine Vermette', 'Shane Doan', 'Oliver Ekman-Larsson', 'Keith Yandle'], ['Lauri Korpikoski', 'Sam Gagner', 'Martin Erat', 'Michael Stone', 'Connor Murphy']], u'OTT': [['Mike Hoffman', 'Mika Zibanejad', 'Bobby Ryan'], ['Milan Michalek', 'Kyle Turris', 'Mark Stone'], ['Shane Prince', 'David Legwand', 'Alex Chiasson'], ['Curtis Lazar', 'Jean-Gabriel Pageau', 'Erik Condra'], ['Marc Methot', 'Erik Karlsson'], ['Cody Ceci', 'Jared Cowen'], ['Mark Borowiecki', 'Eric Gryba'], ['Milan Michalek', 'Kyle Turris', 'Mark Stone', 'Cody Ceci', 'Erik Karlsson'], ['David Legwand', 'Mika Zibanejad', 'Bobby Ryan', 'Mike Hoffman', 'Eric Gryba']]}</t>
-  </si>
-  <si>
     <t>Johan Larsson</t>
   </si>
   <si>
     <t>Jordan Martinook</t>
   </si>
   <si>
-    <t>Andrei Vasilevskiy</t>
-  </si>
-  <si>
     <t>Alex Biega</t>
   </si>
   <si>
-    <t>['BOS', 'BOS', 'BOS', 'BOS', 'BOS', 'BOS', 'BOS', 'BOS']</t>
-  </si>
-  <si>
-    <t>['OTT', 'OTT', 'OTT', 'OTT', 'OTT', 'OTT', 'OTT', 'OTT', 'OTT']</t>
-  </si>
-  <si>
-    <t>Valtteri Filppula</t>
-  </si>
-  <si>
-    <t>['TBL', 'TBL', 'TBL', 'TBL', 'TBL', 'TBL', 'TBL', 'TBL', 'TBL', 'TBL']</t>
-  </si>
-  <si>
-    <t>['CHI', 'CHI', 'CHI', 'CHI', 'CHI', 'CHI', 'CHI', 'CHI', 'CHI']</t>
-  </si>
-  <si>
-    <t>Jonathan Toews</t>
-  </si>
-  <si>
-    <t>Brandon Saad</t>
-  </si>
-  <si>
     <t>Jeff Carter</t>
   </si>
   <si>
-    <t>['LAK', 'LAK', 'LAK', 'LAK', 'LAK', 'LAK', 'LAK', 'LAK']</t>
-  </si>
-  <si>
-    <t>['DET', 'DET', 'DET']</t>
-  </si>
-  <si>
     <t>Excel Interface</t>
   </si>
   <si>
@@ -1877,6 +1724,249 @@
   </si>
   <si>
     <t>Player Map, best contest and performance data needs to be moved to db</t>
+  </si>
+  <si>
+    <t>{u'MIN': [['Zach Parise', 'Mikko Koivu', 'Jason Pominville'], ['Thomas Vanek', 'Mikael Granlund', 'Justin Fontaine'], ['Nino Niederreiter', 'Charlie Coyle', 'Jordan Schroeder'], ['Stephane Veilleux', 'Erik Haula', 'Kyle Brodziak'], ['Ryan Suter', 'Jonas Brodin'], ['Marco Scandella', 'Jared Spurgeon'], ['Nate Prosser', 'Mathew Dumba'], ['Zach Parise', 'Mikko Koivu', 'Thomas Vanek', 'Ryan Suter', 'Jason Pominville'], ['Nino Niederreiter', 'Mikael Granlund', 'Charlie Coyle', 'Jared Spurgeon', 'Mathew Dumba']], u'TOR': [['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel'], ['Daniel Winnik', 'Nazem Kadri', 'Richard Panik'], ['Leo Komarov', 'Olli Jokinen', 'David Clarkson'], ['David Booth', 'Peter Holland', 'Brandon Kozun'], ['Morgan Rielly', 'Roman Polak'], ['Jake Gardiner', 'Korbinian Holzer'], ['Stephane Robidas', 'Petter Granberg'], ['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel', 'Morgan Rielly', 'Nazem Kadri'], ['Richard Panik', 'Peter Holland', 'David Clarkson', 'Jake Gardiner', 'Stephane Robidas']], u'CAR': [['Eric Staal', 'Jordan Staal', 'Jiri Tlusty'], ['Nathan Gerbe', 'Victor Rask', 'Elias Lindholm'], ['Jeff Skinner', 'Riley Nash', 'Alexander Semin'], ['Brad Malone', 'Jay McClement', 'Andrej Nestrasil'], ['Andrej Sekera', 'Justin Faulk'], ['Tim Gleason', 'John-Michael Liles'], ['Ron Hainsey', 'Brett Bellemore'], ['Jiri Tlusty', 'Eric Staal', 'Elias Lindholm', 'John-Michael Liles', 'Justin Faulk'], ['Brad Malone', 'Jordan Staal', 'Riley Nash', 'Andrej Sekera', 'Jeff Skinner']], u'BOS': [['Milan Lucic', 'David Krejci', 'Reilly Smith'], ['Brad Marchand', 'Patrice Bergeron', 'Loui Eriksson'], ['Chris Kelly', 'Carl Soderberg', 'David Pastrnak'], ['Daniel Paille', 'Gregory Campbell', 'Craig Cunningham'], ['Zdeno Chara', 'Dougie Hamilton'], ['Dennis Seidenberg', 'Matt Bartkowski'], ['Torey Krug', 'Kevan Miller'], ['Matt Bartkowski', 'Patrice Bergeron', 'Loui Eriksson', 'Reilly Smith', 'Dougie Hamilton'], ['Brad Marchand', 'David Krejci', 'Milan Lucic', 'Zdeno Chara', 'Torey Krug']], u'DET': [['Justin Abdelkader', 'Henrik Zetterberg', 'Teemu Pulkkinen'], ['Tomas Tatar', 'Pavel Datsyuk', 'Darren Helm'], ['Gustav Nyquist', 'Riley Sheahan', 'Stephen Weiss'], ['Drew Miller', 'Joakim Andersson', 'Luke Glendening'], ['Jonathan Ericsson', 'Niklas Kronwall'], ['Kyle Quincey', 'Dan DeKeyser'], ['Brendan Smith', 'Alexey Marchenko'], ['Gustav Nyquist', 'Henrik Zetterberg', 'Justin Abdelkader', 'Stephen Weiss', 'Niklas Kronwall'], ['Tomas Tatar', 'Pavel Datsyuk', 'Riley Sheahan', 'Teemu Pulkkinen', 'Dan DeKeyser']], u'NAS': [['Colin Wilson', 'Mike Ribeiro', 'James Neal'], ['Matt Cullen', 'Mike Fisher', 'Craig Smith'], ['Filip Forsberg', 'Calle Jarnkrok', 'Taylor Beck'], ['Eric Nystrom', 'Paul Gaustad', 'Gabriel Bourque'], ['Roman Josi', 'Shea Weber'], ['Anthony Bitetto', 'Seth Jones'], ['Mattias Ekholm', 'Victor Bartley'], ['Filip Forsberg', 'Mike Fisher', 'James Neal', 'Roman Josi', 'Shea Weber'], ['Colin Wilson', 'Mike Ribeiro', 'Craig Smith', 'Mattias Ekholm', 'Seth Jones']], u'NYI': [['Anders Lee', 'John Tavares', 'Josh Bailey'], ['Michael Grabner', 'Frans Nielsen', 'Ryan Strome'], ['Nikolay Kulemin', 'Mikhail Grabovski', 'Cal Clutterbuck'], ['Matt Martin', 'Brock Nelson', 'Colin McDonald'], ['Nick Leddy', 'Johnny Boychuk'], ['Brian Strait', 'Travis Hamonic'], ['Thomas Hickey', 'Calvin de Haan'], ['Anders Lee', 'John Tavares', 'Frans Nielsen', 'Nick Leddy', 'Johnny Boychuk'], ['Mikhail Grabovski', 'Brock Nelson', 'Ryan Strome', 'Thomas Hickey', 'Travis Hamonic']], u'FLA': [['Jussi Jokinen', 'Nick Bjugstad', 'Jimmy Hayes'], ['Jonathan Huberdeau', 'Aleksander Barkov', 'Brad Boyes'], ['Tomas Fleischmann', 'Dave Bolland', 'Scottie Upshall'], ['Tomas Kopecky', 'Derek MacKenzie', 'Shawn Thornton'], ['Brian Campbell', 'Aaron Ekblad'], ['Steve Kampfer', 'Erik Gudbranson'], ["Shane O'Brien", 'Alex Petrovic'], ['Jonathan Huberdeau', 'Nick Bjugstad', 'Jimmy Hayes', 'Aleksander Barkov', 'Aaron Ekblad'], ['Tomas Fleischmann', 'Dave Bolland', 'Brad Boyes', 'Brian Campbell', 'Jussi Jokinen']], u'COL': [['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon'], ['Max Talbot', 'Matt Duchene', 'Jarome Iginla'], ['Alex Tanguay', 'John Mitchell', 'Dennis Everberg'], ['Cody McLeod', 'Marc-Andre Cliche', 'Paul Carey'], ['Nate Guenin', 'Tyson Barrie'], ['Jan Hejda', 'Zach Redmond'], ['Brad Stuart', 'Nick Holden'], ['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon', 'Jarome Iginla', 'Tyson Barrie'], ['Alex Tanguay', 'Matt Duchene', 'John Mitchell', 'Nick Holden', 'Zach Redmond']], u'NJD': [['Adam Henrique', 'Patrik Elias', 'Steve Bernier'], ['Tuomo Ruutu', 'Scott Gomez', 'Jaromir Jagr'], ['Michael Cammalleri', 'Travis Zajac', 'Jordin Tootoo'], ['Dainius Zubrus', 'Jacob Josefson', 'Stephen Gionta'], ['Andy Greene', 'Adam Larsson'], ['Jon Merrill', 'Marek Zidlicky'], ['Eric Gelinas', 'Peter Harrold'], ['Steve Bernier', 'Scott Gomez', 'Jaromir Jagr', 'Eric Gelinas', 'Michael Cammalleri'], ['Patrik Elias', 'Adam Henrique', 'Jordin Tootoo', 'Travis Zajac', 'Marek Zidlicky']], u'DAL': [['Jamie Benn', 'Jason Spezza', 'Erik Cole'], ['Antoine Roussel', 'Cody Eakin', 'Ryan Garbutt'], ['Curtis McKenzie', 'Vernon Fiddler', 'Brett Ritchie'], ['Brendan Ranford', 'Shawn Horcoff', 'Colton Sceviour'], ['Alex Goligoski', 'John Klingberg'], ['Jyrki Jokipakka', 'Trevor Daley'], ['Jordie Benn', 'Jason Demers'], ['Jamie Benn', 'Jason Spezza', 'Brett Ritchie', 'Trevor Daley', 'John Klingberg'], ['Erik Cole', 'Cody Eakin', 'Curtis McKenzie', 'Alex Goligoski', 'Jason Demers']], u'CGY': [['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler'], ['Lance Bouma', 'Mikael Backlund', 'David Jones'], ['Curtis Glencross', 'Josh Jooris', 'Mason Raymond'], ['Brandon Bollig', 'Matt Stajan', 'Joe Colborne'], ['Mark Giordano', 'T.J. Brodie'], ['Kris Russell', 'Dennis Wideman'], ['Raphael Diaz', 'Deryk Engelland'], ['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler', 'T.J. Brodie', 'Dennis Wideman'], ['Mason Raymond', 'Mikael Backlund', 'David Jones', 'Mark Giordano', 'Raphael Diaz']], u'NYR': [['Rick Nash', 'Derick Brassard', 'Mats Zuccarello'], ['Chris Kreider', 'Derek Stepan', 'Martin St. Louis'], ['Carl Hagelin', 'Kevin Hayes', 'J.T. Miller'], ['Tanner Glass', 'Dominic Moore', 'Lee Stempniak'], ['Ryan McDonagh', 'Dan Girardi'], ['Marc Staal', 'Kevin Klein'], ['Dan Boyle', 'Matt Hunwick'], ['Rick Nash', 'Derick Brassard', 'Mats Zuccarello', 'Ryan McDonagh', 'Derek Stepan'], ['Chris Kreider', 'Kevin Hayes', 'Martin St. Louis', 'Dan Boyle', 'Dan Girardi']], u'SJS': [['Patrick Marleau', 'Joe Thornton', 'Melker Karlsson'], ['Joe Pavelski', 'Logan Couture', 'Tommy Wingels'], ['Matthew Nieto', 'James Sheppard', 'Tyler Kennedy'], ['Tomas Hertl', 'Chris Tierney', 'Andrew Desjardins'], ['Marc-Edouard Vlasic', 'Brent Burns'], ['Brenden Dillon', 'Justin Braun'], ['Matt Irwin', 'Scott Hannan'], ['Patrick Marleau', 'Joe Thornton', 'Logan Couture', 'Joe Pavelski', 'Brent Burns'], ['Melker Karlsson', 'Tomas Hertl', 'Matthew Nieto', 'Matt Irwin', 'Marc-Edouard Vlasic']], u'PIT': [['Chris Kunitz', 'Sidney Crosby', 'David Perron'], ['Blake Comeau', 'Evgeni Malkin', 'Patric Hornqvist'], ['Nick Spaling', 'Brandon Sutter', 'Beau Bennett'], ['Craig Adams', 'Maxim Lapierre', 'Steve Downie'], ['Paul Martin', 'Kris Letang'], ['Rob Scuderi', 'Simon Despres'], ['Derrick Pouliot', 'Robert Bortuzzo'], ['Chris Kunitz', 'Sidney Crosby', 'David Perron', 'Derrick Pouliot', 'Kris Letang'], ['Blake Comeau', 'Evgeni Malkin', 'Patric Hornqvist', 'Paul Martin', 'Simon Despres']], u'VAN': [['Daniel Sedin', 'Henrik Sedin', 'Alexandre Burrows'], ['Chris Higgins', 'Linden Vey', 'Radim Vrbata'], ['Brandon McMillan', 'Shawn Matthias', 'Derek Dorsett'], ['Ronalds Kenins', 'Bo Horvat', 'Jannik Hansen'], ['Dan Hamhuis', 'Yannick Weber'], ['Ryan Stanton', 'Adam Clendening'], ['Luca Sbisa', 'Alex Biega'], ['Daniel Sedin', 'Henrik Sedin', 'Alexandre Burrows', 'Radim Vrbata', 'Adam Clendening'], ['Chris Higgins', 'Linden Vey', 'Jannik Hansen', 'Dan Hamhuis', 'Yannick Weber']], u'STL': [['Alex Steen', 'David Backes', 'T.J. Oshie'], ['Jaden Schwartz', 'Jori Lehtera', 'Vladimir Tarasenko'], ['Dmitrij Jaskin', 'Paul Stastny', 'Patrik Berglund'], ['Steve Ott', 'Marcel Goc', 'Ryan Reaves'], ['Chris Butler', 'Alex Pietrangelo'], ['Carl Gunnarsson', 'Jay Bouwmeester'], ['Barret Jackman', 'Ian Cole'], ['David Backes', 'Paul Stastny', 'T.J. Oshie', 'Jay Bouwmeester', 'Alex Pietrangelo'], ['Jaden Schwartz', 'Jori Lehtera', 'Vladimir Tarasenko', 'Alex Steen', 'Dmitrij Jaskin']], u'CHI': [['Brandon Saad', 'Jonathan Toews', 'Marian Hossa'], ['Kris Versteeg', 'Brad Richards', 'Patrick Kane'], ['Bryan Bickell', 'Andrew Shaw', 'Ryan Hartman'], ['Patrick Sharp', 'Marcus Kruger', 'Ben Smith'], ['Duncan Keith', 'Michal Rozsival'], ['Niklas Hjalmarsson', 'Johnny Oduya'], ['Kyle Cumiskey', 'Brent Seabrook'], ['Brandon Saad', 'Jonathan Toews', 'Marian Hossa', 'Patrick Kane', 'Brent Seabrook'], ['Patrick Sharp', 'Brad Richards', 'Andrew Shaw', 'Duncan Keith', 'Michal Rozsival']], u'MTL': [['Max Pacioretty', 'David Desharnais', 'Dale Weise'], ['Alex Galchenyuk', 'Tomas Plekanec', 'Brendan Gallagher'], ['Brandon Prust', 'Lars Eller', 'Jiri Sekac'], ['Michael Bournival', 'Jacob De La Rose', 'Christian Thomas'], ['Andrei Markov', 'P.K. Subban'], ['Tom Gilbert', 'Alexei Emelin'], ['Nathan Beaulieu', 'Greg Pateryn'], ['Max Pacioretty', 'David Desharnais', 'Brendan Gallagher', 'Andrei Markov', 'P.K. Subban'], ['Alex Galchenyuk', 'Tomas Plekanec', 'Lars Eller', 'Nathan Beaulieu', 'Tom Gilbert']], u'PHI': [['Brayden Schenn', 'Claude Giroux', 'Jakub Voracek'], ['Matt Read', 'Sean Couturier', 'Wayne Simmonds'], ['Ryan White', 'Michael Raffl', 'R.J. Umberger'], ['Chris VandeVelde', 'Vincent Lecavalier'], ['Nick Schultz', 'Mark Streit'], ['Nicklas Grossmann', 'Braydon Coburn'], ['Michael Del Zotto', 'Luke Schenn'], ['Brayden Schenn', 'Claude Giroux', 'Wayne Simmonds', 'Jakub Voracek', 'Mark Streit'], ['R.J. Umberger', 'Sean Couturier', 'Vincent Lecavalier', 'Matt Read', 'Michael Del Zotto']], u'ANA': [['Rene Bourque', 'Ryan Getzlaf', 'Corey Perry'], ['Andrew Cogliano', 'Ryan Kesler', 'Jakob Silfverberg'], ['Patrick Maroon', 'Rickard Rakell', 'Kyle Palmieri'], ['Devante Smith-Pelly', 'Nate Thompson', 'Emerson Etem'], ['Cam Fowler', 'Francois Beauchemin'], ['Clayton Stoner', 'Ben Lovejoy'], ['Eric Brewer', 'Josh Manson'], ['Patrick Maroon', 'Ryan Getzlaf', 'Ryan Kesler', 'Cam Fowler', 'Corey Perry'], ['Kyle Palmieri', 'Rickard Rakell', 'Rene Bourque', 'Jakob Silfverberg', 'Francois Beauchemin']], u'LAK': [['Marian Gaborik', 'Anze Kopitar', 'Trevor Lewis'], ['Dwight King', 'Jeff Carter', 'Tyler Toffoli'], ['Dustin Brown', 'Jarret Stoll', 'Justin Williams'], ['Kyle Clifford', 'Nick Shore', 'Jordan Nolan'], ['Robyn Regehr', 'Drew Doughty'], ['Jake Muzzin', 'Matt Greene'], ['Brayden McNabb', 'Jamie McBain'], ['Marian Gaborik', 'Anze Kopitar', 'Jeff Carter', 'Jake Muzzin', 'Drew Doughty'], ['Dwight King', 'Nick Shore', 'Tyler Toffoli', 'Brayden McNabb', 'Jamie McBain']], u'CBJ': [['Scott Hartnell', 'Ryan Johansen', 'Corey Tropp'], ['Matt Calvert', 'Brandon Dubinsky', 'Cam Atkinson'], ['Alexander Wennberg', 'Artem Anisimov', 'Marko Dano'], ['Jack Skille', 'Mark Letestu', 'Jared Boll'], ['Jack Johnson', 'David Savard'], ['Kevin Connauton', 'James Wisniewski'], ['Fedor Tyutin', 'Cody Goloubef'], ['Scott Hartnell', 'Ryan Johansen', 'Alexander Wennberg', 'Kevin Connauton', 'James Wisniewski'], ['Artem Anisimov', 'Brandon Dubinsky', 'Cam Atkinson', 'Jack Johnson', 'David Savard']], u'BUF': [['Chris Stewart', 'Zemgus  Girgensons', 'Tyler Ennis'], ['Matt Moulson', 'Torrey Mitchell', 'Brian Gionta'], ['Marcus Foligno', 'Brian Flynn', 'Nicolas Deslauriers'], ['Johan Larsson', 'Matt Ellis', 'Cody Hodgson'], ['Andre Benoit', 'Zach Bogosian'], ['Nikita Zadorov', 'Rasmus Ristolainen'], ['Mike Weber', 'Andrej Meszaros'], ['Matt Moulson', 'Zemgus  Girgensons', 'Chris Stewart', 'Tyler Ennis', 'Zach Bogosian'], ['Marcus Foligno', 'Brian Flynn', 'Brian Gionta', 'Nikita Zadorov', 'Rasmus Ristolainen']], u'EDM': [['Teddy Purcell', 'Ryan Nugent-Hopkins', 'Jordan Eberle'], ['Ryan  Hamilton', 'Derek Roy', 'Nail Yakupov'], ['Benoit Pouliot', 'Anton Lander', 'Iiro Pakarinen'], ['Matt Hendricks', 'Boyd Gordon', 'Matt Fraser'], ['Andrew Ference', 'Jeff Petry'], ['Oscar Klefbom', 'Justin Schultz'], ['Martin Marincin', 'Mark Fayne'], ['Teddy Purcell', 'Anton Lander', 'Jordan Eberle', 'Ryan Nugent-Hopkins', 'Justin Schultz'], ['Benoit Pouliot', 'Derek Roy', 'Iiro Pakarinen', 'Oscar Klefbom', 'Nail Yakupov']], u'TBL': [['Alex Killorn', 'Steven Stamkos', 'Ryan Callahan'], ['Ondrej Palat', 'Tyler Johnson', 'Nikita Kucherov'], ['Cedric Paquette', 'Valtteri Filppula', 'Brett Connolly'], ['Jonathan Drouin', 'Brian Boyle', 'J.T. Brown'], ['Victor Hedman', 'Andrej Sustr'], ['Mark Barberio', 'Anton Stralman'], ['Jason Garrison', 'Nikita Nesterov'], ['Alex Killorn', 'Steven Stamkos', 'Valtteri Filppula', 'Victor Hedman', 'Jason Garrison'], ['Ondrej Palat', 'Tyler Johnson', 'Ryan Callahan', 'Anton Stralman', 'Nikita Kucherov']], u'WIN': [['Andrew Ladd', 'Bryan Little', 'Blake Wheeler'], ['Michael Frolik', 'Mark Scheifele', 'Drew Stafford'], ['Chris Thorburn', 'Adam Lowry', 'T.J. Galiardi'], ['Carl Klingberg', 'Jim Slater', 'Anthony Peluso'], ['Ben Chiarot', 'Dustin Byfuglien'], ['Tobias Enstrom', 'Tyler Myers'], ['Mark Stuart', 'Jacob Trouba'], ['Andrew Ladd', 'Bryan Little', 'Blake Wheeler', 'Tobias Enstrom', 'Dustin Byfuglien'], ['Michael Frolik', 'Mark Scheifele', 'Drew Stafford', 'Jacob Trouba', 'Tyler Myers']], u'ARI': [['Lauri Korpikoski', 'Antoine Vermette', 'Martin Erat'], ['Tobias Rieder', 'Mark Arcobello', 'Sam Gagner'], ['Lucas Lessio', 'Kyle Chipchura', 'Shane Doan'], ['Jordan Martinook', 'Joe Vitale', 'David Moss'], ['Oliver Ekman-Larsson', 'Brandon Gormley'], ['Keith Yandle', 'Michael Stone'], ['Andrew Campbell', 'Connor Murphy'], ['Tobias Rieder', 'Antoine Vermette', 'Shane Doan', 'Oliver Ekman-Larsson', 'Keith Yandle'], ['Lauri Korpikoski', 'Sam Gagner', 'Martin Erat', 'Michael Stone', 'Connor Murphy']], u'OTT': [['Mike Hoffman', 'Mika Zibanejad', 'Bobby Ryan'], ['Milan Michalek', 'Kyle Turris', 'Mark Stone'], ['Shane Prince', 'David Legwand', 'Alex Chiasson'], ['Curtis Lazar', 'Jean-Gabriel Pageau', 'Erik Condra'], ['Marc Methot', 'Erik Karlsson'], ['Cody Ceci', 'Jared Cowen'], ['Mark Borowiecki', 'Eric Gryba'], ['Milan Michalek', 'Kyle Turris', 'Mark Stone', 'Cody Ceci', 'Erik Karlsson'], ['David Legwand', 'Mika Zibanejad', 'Bobby Ryan', 'Mike Hoffman', 'Eric Gryba']]}</t>
+  </si>
+  <si>
+    <t>Carl Klingberg</t>
+  </si>
+  <si>
+    <t>Matt Carkner</t>
+  </si>
+  <si>
+    <t>Troy Grosenick</t>
+  </si>
+  <si>
+    <t>Troy Brouwer</t>
+  </si>
+  <si>
+    <t>Pascal Dupuis</t>
+  </si>
+  <si>
+    <t>Bobby Butler</t>
+  </si>
+  <si>
+    <t>Rob Zepp</t>
+  </si>
+  <si>
+    <t>Liam O'Brien</t>
+  </si>
+  <si>
+    <t>Philipp Grubauer</t>
+  </si>
+  <si>
+    <t>Filip Forsberg</t>
+  </si>
+  <si>
+    <t>Dmitry Orlov</t>
+  </si>
+  <si>
+    <t>Dmitry Kulikov</t>
+  </si>
+  <si>
+    <t>Jacob Markstrom</t>
+  </si>
+  <si>
+    <t>Nathan Horton</t>
+  </si>
+  <si>
+    <t>Shawn Thornton</t>
+  </si>
+  <si>
+    <t>Vincent Trocheck</t>
+  </si>
+  <si>
+    <t>John Klingberg</t>
+  </si>
+  <si>
+    <t>Carl Soderberg</t>
+  </si>
+  <si>
+    <t>Kevin Poulin</t>
+  </si>
+  <si>
+    <t>Kevin Klein</t>
+  </si>
+  <si>
+    <t>Anthony Duclair</t>
+  </si>
+  <si>
+    <t>Anthony Stolarz</t>
+  </si>
+  <si>
+    <t>Anthony Peluso</t>
+  </si>
+  <si>
+    <t>Kyle Okposo</t>
+  </si>
+  <si>
+    <t>Peter Budaj</t>
+  </si>
+  <si>
+    <t>Ray Whitney</t>
+  </si>
+  <si>
+    <t>Ray Emery</t>
+  </si>
+  <si>
+    <t>Matthew Lombardi</t>
+  </si>
+  <si>
+    <t>Maxime Fortunus</t>
+  </si>
+  <si>
+    <t>Dan Ellis</t>
+  </si>
+  <si>
+    <t>Miikka Salomaki</t>
+  </si>
+  <si>
+    <t>Matt Donovan</t>
+  </si>
+  <si>
+    <t>Chris Conner</t>
+  </si>
+  <si>
+    <t>Chris Terry</t>
+  </si>
+  <si>
+    <t>Chris Butler</t>
+  </si>
+  <si>
+    <t>Rich Peverley</t>
+  </si>
+  <si>
+    <t>Kevin Bieksa</t>
+  </si>
+  <si>
+    <t>Kevin Hayes</t>
+  </si>
+  <si>
+    <t>Boone Jenner</t>
+  </si>
+  <si>
+    <t>Oliver Lauridsen</t>
+  </si>
+  <si>
+    <t>Oliver Ekman-Larsson</t>
+  </si>
+  <si>
+    <t>Jack Campbell</t>
+  </si>
+  <si>
+    <t>Brian Campbell</t>
+  </si>
+  <si>
+    <t>Olli Maatta</t>
+  </si>
+  <si>
+    <t>Evgeni Malkin</t>
+  </si>
+  <si>
+    <t>Christian Ehrhoff</t>
+  </si>
+  <si>
+    <t>Tomas Kaberle</t>
+  </si>
+  <si>
+    <t>Tomas Hertl</t>
+  </si>
+  <si>
+    <t>Tomas Tatar</t>
+  </si>
+  <si>
+    <t>Matthew Hackett</t>
+  </si>
+  <si>
+    <t>Jeff Zatkoff</t>
+  </si>
+  <si>
+    <t>Jay Harrison</t>
+  </si>
+  <si>
+    <t>Tomas Vokoun</t>
+  </si>
+  <si>
+    <t>['NYI', 'NYI', 'NYI', 'NYI', 'NYI', 'NYI', 'NYI', 'NYI', 'NYI', 'NYI', 'NYI']</t>
+  </si>
+  <si>
+    <t>John Tavares</t>
+  </si>
+  <si>
+    <t>Ryan McDonagh</t>
+  </si>
+  <si>
+    <t>['NYR', 'NYR', 'NYR', 'NYR', 'NYR', 'NYR', 'NYR', 'NYR', 'NYR', 'NYR']</t>
+  </si>
+  <si>
+    <t>['DAL', 'DAL', 'DAL', 'DAL', 'DAL', 'DAL', 'DAL', 'DAL', 'DAL', 'DAL']</t>
+  </si>
+  <si>
+    <t>Jason Spezza</t>
+  </si>
+  <si>
+    <t>Marc-Andre Fleury</t>
+  </si>
+  <si>
+    <t>['PIT', 'PIT', 'PIT', 'PIT', 'PIT', 'PIT', 'PIT']</t>
+  </si>
+  <si>
+    <t>Luca Sbisa</t>
+  </si>
+  <si>
+    <t>['VAN', 'VAN', 'VAN', 'VAN', 'VAN', 'VAN', 'VAN', 'VAN', 'VAN', 'VAN']</t>
+  </si>
+  <si>
+    <t>Erik Cole</t>
+  </si>
+  <si>
+    <t>['DAL', 'DAL', 'DAL', 'DAL', 'DAL', 'DAL', 'DAL', 'DAL']</t>
+  </si>
+  <si>
+    <t>19/02/2015</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10601885&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10601610&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10601690&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10601474&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10601139&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10600615&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10602745&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10602444&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10602274&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10602094&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10602135&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10601553&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>FD_operations.py</t>
+  </si>
+  <si>
+    <t>C:\Users\Cole\Desktop\FanDuel\fanduel\modules\FD_operations.py</t>
   </si>
 </sst>
 </file>
@@ -1885,7 +1975,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -2360,7 +2450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1 2" xfId="8"/>
@@ -2544,11 +2634,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197100288"/>
-        <c:axId val="197101824"/>
+        <c:axId val="212169472"/>
+        <c:axId val="212171008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197100288"/>
+        <c:axId val="212169472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2557,7 +2647,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197101824"/>
+        <c:crossAx val="212171008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2565,7 +2655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197101824"/>
+        <c:axId val="212171008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2576,14 +2666,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197100288"/>
+        <c:crossAx val="212169472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2628,7 +2717,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2691,11 +2779,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197134208"/>
-        <c:axId val="197135744"/>
+        <c:axId val="212203392"/>
+        <c:axId val="212204928"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="197134208"/>
+        <c:axId val="212203392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2704,7 +2792,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197135744"/>
+        <c:crossAx val="212204928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2712,7 +2800,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197135744"/>
+        <c:axId val="212204928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2723,14 +2811,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197134208"/>
+        <c:crossAx val="212203392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3383,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3391,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3399,7 +3486,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3407,7 +3494,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3415,7 +3502,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3423,7 +3510,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3431,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3439,7 +3526,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3447,7 +3534,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3499,7 +3586,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>604</v>
+        <v>553</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>122</v>
@@ -3517,19 +3604,19 @@
         <v>124</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>166</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>125</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>180</v>
@@ -3642,7 +3729,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -3665,10 +3752,10 @@
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
@@ -3680,7 +3767,7 @@
         <v>22</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3691,7 +3778,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>24</v>
@@ -3703,7 +3790,7 @@
         <v>50</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3760,7 +3847,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>55</v>
@@ -3803,7 +3890,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>32</v>
@@ -3843,7 +3930,7 @@
         <v>43</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>42</v>
@@ -3863,7 +3950,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>48</v>
@@ -3903,7 +3990,7 @@
         <v>88</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>48</v>
@@ -3915,7 +4002,7 @@
         <v>49</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3926,7 +4013,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>32</v>
@@ -3989,7 +4076,7 @@
         <v>92</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>93</v>
@@ -4009,7 +4096,7 @@
         <v>95</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>94</v>
@@ -4061,21 +4148,21 @@
         <v>31</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>223</v>
-      </c>
       <c r="D20" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E20" s="6">
         <v>4</v>
@@ -4086,13 +4173,13 @@
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E21" s="6">
         <v>5</v>
@@ -4100,13 +4187,13 @@
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E22" s="6">
         <v>5</v>
@@ -4114,16 +4201,16 @@
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E23" s="6">
         <v>5</v>
@@ -4131,16 +4218,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>594</v>
+        <v>543</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>595</v>
+        <v>544</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>596</v>
+        <v>545</v>
       </c>
       <c r="E24" s="6">
         <v>5</v>
@@ -4151,16 +4238,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>609</v>
+        <v>558</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>610</v>
+        <v>559</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>608</v>
+        <v>557</v>
       </c>
       <c r="E25" s="6">
         <v>2</v>
@@ -4262,7 +4349,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4291,7 +4378,7 @@
         <v>63</v>
       </c>
       <c r="B3" s="3">
-        <v>858</v>
+        <v>866</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4299,7 +4386,7 @@
         <v>158</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4317,16 +4404,16 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>597</v>
+        <v>546</v>
       </c>
       <c r="B7">
         <f>COUNTA('Best Contests'!B:B)+1</f>
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>607</v>
+        <v>556</v>
       </c>
       <c r="B8" s="5">
         <f>COUNTA('Performance Monitoring'!A:A)+1</f>
@@ -4657,28 +4744,28 @@
     <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="F2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H2" t="s">
         <v>217</v>
-      </c>
-      <c r="G2" t="s">
-        <v>294</v>
-      </c>
-      <c r="H2" t="s">
-        <v>218</v>
       </c>
       <c r="I2" t="s">
         <v>184</v>
@@ -4687,18 +4774,18 @@
         <v>185</v>
       </c>
       <c r="K2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>564</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
         <v>76</v>
@@ -4706,101 +4793,101 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="B4" t="s">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="C4" t="s">
         <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>524</v>
+        <v>566</v>
       </c>
       <c r="B5" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C5" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F5" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="G5" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H5" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="I5" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="J5" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="K5" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="L5" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="M5" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="N5" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="O5" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="P5" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="Q5" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="R5" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="S5" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="T5" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="U5" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
       <c r="B6" t="s">
-        <v>581</v>
+        <v>540</v>
       </c>
       <c r="C6" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G6" t="s">
         <v>186</v>
@@ -4808,25 +4895,25 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>568</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
         <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" t="s">
         <v>206</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>207</v>
-      </c>
-      <c r="G7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -4834,42 +4921,42 @@
         <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D8" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" t="s">
         <v>206</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>207</v>
-      </c>
-      <c r="G8" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="B9" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="C9" t="s">
         <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G9" t="s">
         <v>186</v>
@@ -4877,13 +4964,13 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>571</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>572</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D10" t="s">
         <v>182</v>
@@ -4892,77 +4979,77 @@
         <v>183</v>
       </c>
       <c r="F10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" t="s">
         <v>216</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>289</v>
+      </c>
+      <c r="I10" t="s">
+        <v>236</v>
+      </c>
+      <c r="J10" t="s">
         <v>217</v>
       </c>
-      <c r="H10" t="s">
-        <v>294</v>
-      </c>
-      <c r="I10" t="s">
-        <v>239</v>
-      </c>
-      <c r="J10" t="s">
-        <v>218</v>
-      </c>
       <c r="K10" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>573</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>552</v>
+        <v>525</v>
       </c>
       <c r="D11" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="E11" t="s">
         <v>188</v>
       </c>
       <c r="F11" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G11" t="s">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="H11" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I11" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="J11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K11" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="B12" t="s">
-        <v>219</v>
+        <v>575</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="D12" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E12" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G12" t="s">
         <v>192</v>
@@ -4970,45 +5057,45 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="B13" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="C13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D13" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="E13" t="s">
         <v>188</v>
       </c>
       <c r="F13" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G13" t="s">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="H13" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B14" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C14" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="D14" t="s">
-        <v>523</v>
+        <v>267</v>
       </c>
       <c r="E14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F14" t="s">
         <v>191</v>
@@ -5019,13 +5106,13 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="B15" t="s">
-        <v>557</v>
+        <v>304</v>
       </c>
       <c r="C15" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="D15" t="s">
         <v>189</v>
@@ -5042,45 +5129,45 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="B16" t="s">
-        <v>310</v>
+        <v>580</v>
       </c>
       <c r="C16" t="s">
-        <v>373</v>
+        <v>306</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="E16" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G16" t="s">
         <v>182</v>
       </c>
       <c r="H16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>366</v>
+        <v>581</v>
       </c>
       <c r="B17" t="s">
-        <v>350</v>
+        <v>582</v>
       </c>
       <c r="C17" t="s">
-        <v>296</v>
+        <v>583</v>
       </c>
       <c r="D17" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E17" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F17" t="s">
         <v>186</v>
@@ -5088,19 +5175,19 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>520</v>
+        <v>584</v>
       </c>
       <c r="B18" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C18" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D18" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="E18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F18" t="s">
         <v>186</v>
@@ -5108,22 +5195,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="B19" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C19" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D19" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E19" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F19" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G19" t="s">
         <v>192</v>
@@ -5131,22 +5218,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="B20" t="s">
-        <v>563</v>
+        <v>248</v>
       </c>
       <c r="C20" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="D20" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="E20" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F20" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G20" t="s">
         <v>192</v>
@@ -5154,13 +5241,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>272</v>
+        <v>588</v>
       </c>
       <c r="B21" t="s">
         <v>193</v>
       </c>
       <c r="C21" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D21" t="s">
         <v>189</v>
@@ -5175,27 +5262,27 @@
         <v>192</v>
       </c>
       <c r="H21" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>273</v>
+        <v>589</v>
       </c>
       <c r="B22" t="s">
-        <v>582</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>564</v>
+        <v>530</v>
       </c>
       <c r="D22" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="E22" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F22" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G22" t="s">
         <v>192</v>
@@ -5203,39 +5290,39 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>565</v>
+        <v>590</v>
       </c>
       <c r="B23" t="s">
-        <v>566</v>
+        <v>211</v>
       </c>
       <c r="C23" t="s">
-        <v>533</v>
+        <v>194</v>
       </c>
       <c r="D23" t="s">
+        <v>345</v>
+      </c>
+      <c r="E23" t="s">
         <v>270</v>
-      </c>
-      <c r="E23" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>591</v>
+      </c>
+      <c r="B24" t="s">
+        <v>516</v>
+      </c>
+      <c r="C24" t="s">
+        <v>517</v>
+      </c>
+      <c r="D24" t="s">
+        <v>276</v>
+      </c>
+      <c r="E24" t="s">
+        <v>277</v>
+      </c>
+      <c r="F24" t="s">
         <v>278</v>
-      </c>
-      <c r="B24" t="s">
-        <v>529</v>
-      </c>
-      <c r="C24" t="s">
-        <v>530</v>
-      </c>
-      <c r="D24" t="s">
-        <v>281</v>
-      </c>
-      <c r="E24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F24" t="s">
-        <v>283</v>
       </c>
       <c r="G24" t="s">
         <v>188</v>
@@ -5243,126 +5330,126 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>531</v>
+        <v>271</v>
       </c>
       <c r="B25" t="s">
-        <v>532</v>
+        <v>272</v>
       </c>
       <c r="C25" t="s">
-        <v>533</v>
+        <v>194</v>
       </c>
       <c r="D25" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E25" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>517</v>
+        <v>592</v>
       </c>
       <c r="B26" t="s">
-        <v>519</v>
+        <v>193</v>
       </c>
       <c r="C26" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="D26" t="s">
-        <v>534</v>
+        <v>298</v>
       </c>
       <c r="E26" t="s">
-        <v>535</v>
+        <v>183</v>
       </c>
       <c r="F26" t="s">
         <v>182</v>
       </c>
       <c r="G26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>316</v>
+        <v>593</v>
       </c>
       <c r="B27" t="s">
-        <v>317</v>
+        <v>594</v>
       </c>
       <c r="C27" t="s">
-        <v>318</v>
+        <v>595</v>
       </c>
       <c r="D27" t="s">
-        <v>319</v>
+        <v>230</v>
       </c>
       <c r="E27" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="F27" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="G27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H27" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="I27" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="J27" t="s">
+        <v>309</v>
+      </c>
+      <c r="K27" t="s">
         <v>198</v>
-      </c>
-      <c r="K27" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
       <c r="B28" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C28" t="s">
-        <v>568</v>
+        <v>531</v>
       </c>
       <c r="D28" t="s">
-        <v>569</v>
+        <v>532</v>
       </c>
       <c r="E28" t="s">
-        <v>570</v>
+        <v>533</v>
       </c>
       <c r="F28" t="s">
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="G28" t="s">
-        <v>572</v>
+        <v>535</v>
       </c>
       <c r="H28" t="s">
-        <v>573</v>
+        <v>536</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>279</v>
+        <v>597</v>
       </c>
       <c r="B29" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
       <c r="C29" t="s">
-        <v>312</v>
+        <v>598</v>
       </c>
       <c r="D29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" t="s">
         <v>202</v>
-      </c>
-      <c r="F29" t="s">
-        <v>203</v>
       </c>
       <c r="G29" t="s">
         <v>188</v>
@@ -5370,139 +5457,139 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="B30" t="s">
-        <v>539</v>
+        <v>189</v>
       </c>
       <c r="C30" t="s">
-        <v>540</v>
+        <v>219</v>
       </c>
       <c r="D30" t="s">
-        <v>541</v>
+        <v>190</v>
       </c>
       <c r="E30" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="F30" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>280</v>
+        <v>599</v>
       </c>
       <c r="B31" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C31" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D31" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E31" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F31" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="B32" t="s">
-        <v>283</v>
+        <v>601</v>
       </c>
       <c r="C32" t="s">
-        <v>568</v>
+        <v>531</v>
       </c>
       <c r="D32" t="s">
-        <v>569</v>
+        <v>532</v>
       </c>
       <c r="E32" t="s">
-        <v>570</v>
+        <v>533</v>
       </c>
       <c r="F32" t="s">
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="G32" t="s">
-        <v>572</v>
+        <v>535</v>
       </c>
       <c r="H32" t="s">
-        <v>573</v>
+        <v>536</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>331</v>
+        <v>602</v>
       </c>
       <c r="B33" t="s">
-        <v>332</v>
+        <v>603</v>
       </c>
       <c r="C33" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="D33" t="s">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="E33" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F33" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G33" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>574</v>
+        <v>604</v>
       </c>
       <c r="B34" t="s">
         <v>188</v>
       </c>
       <c r="C34" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D34" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E34" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>509</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s">
-        <v>510</v>
+        <v>282</v>
       </c>
       <c r="C35" t="s">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="E35" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F35" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B36" t="s">
         <v>188</v>
       </c>
       <c r="C36" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D36" t="s">
         <v>182</v>
@@ -5511,159 +5598,165 @@
         <v>183</v>
       </c>
       <c r="F36" t="s">
+        <v>215</v>
+      </c>
+      <c r="G36" t="s">
         <v>216</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
+        <v>289</v>
+      </c>
+      <c r="I36" t="s">
+        <v>236</v>
+      </c>
+      <c r="J36" t="s">
         <v>217</v>
       </c>
-      <c r="H36" t="s">
-        <v>294</v>
-      </c>
-      <c r="I36" t="s">
-        <v>239</v>
-      </c>
-      <c r="J36" t="s">
-        <v>218</v>
-      </c>
       <c r="K36" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>355</v>
+        <v>284</v>
       </c>
       <c r="B37" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C37" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D37" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E37" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F37" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G37" t="s">
-        <v>583</v>
+        <v>541</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>292</v>
+        <v>500</v>
       </c>
       <c r="B38" t="s">
-        <v>293</v>
+        <v>605</v>
       </c>
       <c r="C38" t="s">
         <v>194</v>
       </c>
       <c r="D38" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E38" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>528</v>
+        <v>606</v>
       </c>
       <c r="B39" t="s">
-        <v>529</v>
+        <v>364</v>
       </c>
       <c r="C39" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="D39" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E39" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F39" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>361</v>
+        <v>607</v>
       </c>
       <c r="B40" t="s">
-        <v>212</v>
+        <v>608</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>609</v>
       </c>
       <c r="D40" t="s">
-        <v>274</v>
+        <v>509</v>
       </c>
       <c r="E40" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="F40" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="G40" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>243</v>
+        <v>335</v>
       </c>
       <c r="B41" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="C41" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D41" t="s">
-        <v>246</v>
+        <v>336</v>
       </c>
       <c r="E41" t="s">
-        <v>283</v>
+        <v>337</v>
+      </c>
+      <c r="F41" t="s">
+        <v>194</v>
+      </c>
+      <c r="G41" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>536</v>
+        <v>610</v>
       </c>
       <c r="B42" t="s">
-        <v>537</v>
+        <v>289</v>
       </c>
       <c r="C42" t="s">
-        <v>503</v>
+        <v>301</v>
       </c>
       <c r="D42" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="E42" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F42" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G42" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>527</v>
+        <v>611</v>
       </c>
       <c r="B43" t="s">
-        <v>193</v>
+        <v>542</v>
       </c>
       <c r="C43" t="s">
         <v>182</v>
       </c>
       <c r="D43" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E43" t="s">
         <v>183</v>
@@ -5671,169 +5764,169 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>291</v>
+        <v>612</v>
       </c>
       <c r="B44" t="s">
-        <v>200</v>
+        <v>303</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>539</v>
       </c>
       <c r="D44" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="E44" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F44" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G44" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="H44" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="I44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>575</v>
+        <v>346</v>
       </c>
       <c r="B45" t="s">
-        <v>576</v>
+        <v>347</v>
       </c>
       <c r="C45" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D45" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E45" t="s">
+        <v>197</v>
+      </c>
+      <c r="F45" t="s">
+        <v>210</v>
+      </c>
+      <c r="G45" t="s">
+        <v>308</v>
+      </c>
+      <c r="H45" t="s">
+        <v>309</v>
+      </c>
+      <c r="I45" t="s">
         <v>198</v>
-      </c>
-      <c r="F45" t="s">
-        <v>211</v>
-      </c>
-      <c r="G45" t="s">
-        <v>314</v>
-      </c>
-      <c r="H45" t="s">
-        <v>315</v>
-      </c>
-      <c r="I45" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>352</v>
+        <v>505</v>
       </c>
       <c r="B46" t="s">
-        <v>194</v>
+        <v>506</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>507</v>
       </c>
       <c r="D46" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E46" t="s">
         <v>183</v>
       </c>
       <c r="F46" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="C47" t="s">
-        <v>357</v>
+        <v>250</v>
       </c>
       <c r="D47" t="s">
-        <v>358</v>
+        <v>251</v>
       </c>
       <c r="E47" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F47" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G47" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H47" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="I47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>292</v>
+        <v>613</v>
       </c>
       <c r="B48" t="s">
-        <v>293</v>
+        <v>509</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D48" t="s">
-        <v>303</v>
+        <v>518</v>
       </c>
       <c r="E48" t="s">
-        <v>183</v>
+        <v>519</v>
       </c>
       <c r="F48" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="G48" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="B49" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="C49" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="D49" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E49" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F49" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G49" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H49" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="I49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B50" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C50" t="s">
         <v>181</v>
@@ -5842,117 +5935,117 @@
         <v>71</v>
       </c>
       <c r="E50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F50" t="s">
         <v>182</v>
       </c>
       <c r="G50" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H50" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I50" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K50" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" t="s">
         <v>243</v>
       </c>
-      <c r="B51" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51" t="s">
-        <v>245</v>
-      </c>
-      <c r="D51" t="s">
-        <v>246</v>
-      </c>
       <c r="E51" t="s">
+        <v>233</v>
+      </c>
+      <c r="F51" t="s">
+        <v>234</v>
+      </c>
+      <c r="G51" t="s">
+        <v>216</v>
+      </c>
+      <c r="H51" t="s">
+        <v>289</v>
+      </c>
+      <c r="I51" t="s">
         <v>236</v>
       </c>
-      <c r="F51" t="s">
-        <v>237</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="J51" t="s">
         <v>217</v>
       </c>
-      <c r="H51" t="s">
-        <v>294</v>
-      </c>
-      <c r="I51" t="s">
-        <v>239</v>
-      </c>
-      <c r="J51" t="s">
-        <v>218</v>
-      </c>
       <c r="K51" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="B52" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="C52" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D52" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E52" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F52" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="G52" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>577</v>
+        <v>537</v>
       </c>
       <c r="B53" t="s">
-        <v>578</v>
+        <v>538</v>
       </c>
       <c r="C53" t="s">
         <v>112</v>
       </c>
       <c r="D53" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B54" t="s">
         <v>189</v>
       </c>
       <c r="C54" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D54" t="s">
         <v>190</v>
       </c>
       <c r="E54" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F54" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -5963,7 +6056,7 @@
         <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D55" t="s">
         <v>182</v>
@@ -5972,33 +6065,33 @@
         <v>183</v>
       </c>
       <c r="F55" t="s">
+        <v>215</v>
+      </c>
+      <c r="G55" t="s">
         <v>216</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
+        <v>289</v>
+      </c>
+      <c r="I55" t="s">
+        <v>236</v>
+      </c>
+      <c r="J55" t="s">
         <v>217</v>
       </c>
-      <c r="H55" t="s">
-        <v>294</v>
-      </c>
-      <c r="I55" t="s">
-        <v>239</v>
-      </c>
-      <c r="J55" t="s">
-        <v>218</v>
-      </c>
       <c r="K55" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B56" t="s">
         <v>189</v>
       </c>
       <c r="C56" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D56" t="s">
         <v>190</v>
@@ -6007,18 +6100,18 @@
         <v>187</v>
       </c>
       <c r="F56" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B57" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C57" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D57" t="s">
         <v>182</v>
@@ -6027,111 +6120,111 @@
         <v>183</v>
       </c>
       <c r="F57" t="s">
+        <v>215</v>
+      </c>
+      <c r="G57" t="s">
         <v>216</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
+        <v>289</v>
+      </c>
+      <c r="I57" t="s">
+        <v>236</v>
+      </c>
+      <c r="J57" t="s">
         <v>217</v>
       </c>
-      <c r="H57" t="s">
-        <v>294</v>
-      </c>
-      <c r="I57" t="s">
-        <v>239</v>
-      </c>
-      <c r="J57" t="s">
-        <v>218</v>
-      </c>
       <c r="K57" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C58" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B59" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B60" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C60" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B61" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C61" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D61" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E61" t="s">
         <v>187</v>
       </c>
       <c r="F61" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B62" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C62" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B63" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C63" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D63" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E63" t="s">
         <v>187</v>
       </c>
       <c r="F63" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C64" t="s">
         <v>194</v>
@@ -6139,22 +6232,22 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B65" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C65" t="s">
         <v>112</v>
       </c>
       <c r="D65" t="s">
+        <v>200</v>
+      </c>
+      <c r="E65" t="s">
         <v>201</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>202</v>
-      </c>
-      <c r="F65" t="s">
-        <v>203</v>
       </c>
       <c r="G65" t="s">
         <v>188</v>
@@ -6162,22 +6255,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B66" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C66" t="s">
         <v>192</v>
       </c>
       <c r="D66" t="s">
+        <v>200</v>
+      </c>
+      <c r="E66" t="s">
         <v>201</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>202</v>
-      </c>
-      <c r="F66" t="s">
-        <v>203</v>
       </c>
       <c r="G66" t="s">
         <v>188</v>
@@ -6185,21 +6278,21 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B67" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C67" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B68" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C68" t="s">
         <v>194</v>
@@ -6207,10 +6300,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B69" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C69" t="s">
         <v>112</v>
@@ -6218,22 +6311,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C70" t="s">
         <v>192</v>
       </c>
       <c r="D70" t="s">
+        <v>200</v>
+      </c>
+      <c r="E70" t="s">
         <v>201</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>202</v>
-      </c>
-      <c r="F70" t="s">
-        <v>203</v>
       </c>
       <c r="G70" t="s">
         <v>188</v>
@@ -6241,33 +6334,33 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C71" t="s">
         <v>112</v>
       </c>
       <c r="D71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B72" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C72" t="s">
         <v>78</v>
       </c>
       <c r="D72" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E72" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F72" t="s">
         <v>188</v>
@@ -6275,214 +6368,214 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B73" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C73" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D73" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E73" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F73" t="s">
         <v>194</v>
       </c>
       <c r="G73" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B74" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C74" t="s">
         <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E74" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F74" t="s">
         <v>194</v>
       </c>
       <c r="G74" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B75" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E75" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F75" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G75" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B76" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C76" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D76" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E76" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F76" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G76" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B77" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C77" t="s">
+        <v>203</v>
+      </c>
+      <c r="D77" t="s">
         <v>204</v>
       </c>
-      <c r="D77" t="s">
-        <v>205</v>
-      </c>
       <c r="E77" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F77" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G77" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B78" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C78" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D78" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E78" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F78" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B79" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C79" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D79" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E79" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F79" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B80" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C80" t="s">
+        <v>203</v>
+      </c>
+      <c r="D80" t="s">
         <v>204</v>
       </c>
-      <c r="D80" t="s">
-        <v>205</v>
-      </c>
       <c r="E80" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F80" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B81" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C81" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D81" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E81" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F81" t="s">
         <v>194</v>
       </c>
       <c r="G81" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B82" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C82" t="s">
         <v>76</v>
       </c>
       <c r="D82" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E82" t="s">
         <v>185</v>
@@ -6490,124 +6583,124 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B83" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C83" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D83" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E83" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F83" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G83" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B84" t="s">
         <v>194</v>
       </c>
       <c r="C84" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D84" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E84" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F84" t="s">
         <v>194</v>
       </c>
       <c r="G84" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B85" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C85" t="s">
         <v>76</v>
       </c>
       <c r="D85" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E85" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B86" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C86" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D86" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E86" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F86" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G86" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>287</v>
+      </c>
+      <c r="B87" t="s">
+        <v>288</v>
+      </c>
+      <c r="C87" t="s">
+        <v>360</v>
+      </c>
+      <c r="D87" t="s">
         <v>292</v>
-      </c>
-      <c r="B87" t="s">
-        <v>293</v>
-      </c>
-      <c r="C87" t="s">
-        <v>367</v>
-      </c>
-      <c r="D87" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B88" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B89" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C89" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D89" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E89" t="s">
         <v>185</v>
@@ -6615,61 +6708,61 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>240</v>
+      </c>
+      <c r="B90" t="s">
+        <v>241</v>
+      </c>
+      <c r="C90" t="s">
+        <v>242</v>
+      </c>
+      <c r="D90" t="s">
         <v>243</v>
       </c>
-      <c r="B90" t="s">
-        <v>244</v>
-      </c>
-      <c r="C90" t="s">
-        <v>245</v>
-      </c>
-      <c r="D90" t="s">
-        <v>246</v>
-      </c>
       <c r="E90" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F90" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B91" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B92" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C92" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D92" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E92" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B93" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C93" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D93" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E93" t="s">
         <v>185</v>
@@ -6677,60 +6770,60 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>240</v>
+      </c>
+      <c r="B94" t="s">
+        <v>241</v>
+      </c>
+      <c r="C94" t="s">
+        <v>242</v>
+      </c>
+      <c r="D94" t="s">
         <v>243</v>
-      </c>
-      <c r="B94" t="s">
-        <v>244</v>
-      </c>
-      <c r="C94" t="s">
-        <v>245</v>
-      </c>
-      <c r="D94" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B96" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C96" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D96" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B97" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C97" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D97" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B98" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C98" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -6762,7 +6855,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6803,13 +6896,13 @@
         <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E5" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -6990,46 +7083,46 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B22" t="s">
         <v>193</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C25" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -7040,1897 +7133,1897 @@
         <v>190</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="102" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="103" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="105" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="108" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="110" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="111" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="112" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="119" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E119" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="120" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="122" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E122" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="123" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E123" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="124" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="125" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="126" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E126" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="127" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E127" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="128" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E131" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E134" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="135" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="136" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="137" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E137" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="138" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E138" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="139" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E139" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E142" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="143" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="144" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="147" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E147" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="150" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E150" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E151" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E152" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="156" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E157" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="158" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E158" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="159" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E159" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="160" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E161" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E162" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E163" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E164" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E165" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="166" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E166" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="167" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E167" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="168" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E168" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="169" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E169" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="170" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E170" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="171" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E171" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="172" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E172" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="173" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E173" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="174" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E174" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="175" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E175" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="176" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E176" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E177" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="178" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E178" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="179" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E179" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="181" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E181" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="182" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E182" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="183" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E183" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="184" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E184" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="185" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E185" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="186" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E186" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="187" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E187" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="188" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="189" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E189" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="190" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E190" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="191" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E191" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="192" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E192" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="193" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E193" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="194" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E194" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="195" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E195" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="196" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E196" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="197" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E197" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="198" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E198" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="199" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E199" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="200" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E200" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="201" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E201" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="202" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E202" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="203" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E203" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="204" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E204" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="205" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E205" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="206" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E206" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="207" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E207" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="208" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E208" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="209" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E209" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="210" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E210" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="211" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E211" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="212" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E212" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="213" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E213" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="214" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E214" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="215" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E215" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="216" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E216" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="217" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E217" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="218" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E218" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="219" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E219" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="220" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E220" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="221" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E221" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="222" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E222" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="223" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E223" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="224" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E224" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="225" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E225" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="226" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E226" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="227" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E227" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="228" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E228" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="229" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E229" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="230" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E230" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="231" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E231" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="232" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E232" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="233" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E233" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="234" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E234" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="235" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E235" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="236" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E236" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="237" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E237" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="238" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E238" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="239" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E239" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="240" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E240" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="241" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E241" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="242" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E242" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="243" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E243" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="244" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E244" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="245" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E245" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="246" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E246" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="247" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E247" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="248" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E248" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="249" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E249" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="250" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E250" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="251" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E251" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="252" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E252" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="253" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E253" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="254" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E254" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="255" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E255" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="256" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E256" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="257" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E257" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="258" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E258" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="259" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E259" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="260" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E260" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="261" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E261" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="262" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E262" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="263" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E263" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="264" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E264" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="265" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E265" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="266" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E266" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="267" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E267" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="268" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E268" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="269" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E269" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="270" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E270" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="271" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E271" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="272" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E272" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="273" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E273" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="274" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E274" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="275" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E275" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="276" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E276" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="277" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E277" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="278" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E278" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="279" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E279" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="280" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E280" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="281" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E281" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="282" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E282" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="283" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E283" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="284" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E284" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="285" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E285" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="286" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E286" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="287" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E287" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="288" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E288" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="289" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E289" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="290" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E290" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="291" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E291" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="292" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E292" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="293" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E293" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="294" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E294" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="295" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E295" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="296" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E296" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="297" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E297" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="298" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E298" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="299" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E299" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="300" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E300" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="301" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E301" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="302" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E302" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="303" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E303" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="304" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E304" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="305" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E305" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="306" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E306" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="307" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E307" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="308" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E308" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="309" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E309" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="310" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E310" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="311" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E311" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="312" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E312" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="313" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E313" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="314" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E314" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="315" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E315" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="316" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E316" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="317" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E317" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="318" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E318" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="319" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E319" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="320" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E320" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="321" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E321" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="322" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E322" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="323" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E323" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="324" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E324" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="325" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E325" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="326" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E326" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="327" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E327" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="328" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E328" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="329" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E329" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="330" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E330" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="331" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E331" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="332" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E332" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="333" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E333" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="334" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E334" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="335" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E335" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="336" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E336" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="337" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E337" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="338" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E338" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="339" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E339" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="340" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E340" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="341" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E341" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="342" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E342" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="343" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E343" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="344" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E344" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="345" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E345" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="346" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E346" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="347" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E347" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="348" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E348" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="349" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E349" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="350" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E350" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="351" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E351" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="352" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E352" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="353" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E353" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="354" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E354" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="355" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E355" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="356" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E356" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="357" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E357" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="358" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E358" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="359" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E359" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="360" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E360" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="361" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E361" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="362" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E362" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="363" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E363" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="364" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E364" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="365" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E365" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="366" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E366" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="367" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E367" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="368" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E368" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="369" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E369" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="370" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E370" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="371" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E371" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="372" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E372" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="373" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E373" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="374" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E374" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="375" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E375" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="376" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E376" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="377" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E377" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="378" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E378" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="379" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E379" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="380" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E380" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="381" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E381" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="382" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E382" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="383" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E383" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="384" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E384" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="385" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E385" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="386" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E386" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="387" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E387" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="388" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E388" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="389" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E389" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="390" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E390" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="391" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E391" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="392" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E392" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="393" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E393" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="394" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E394" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="395" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E395" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="396" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E396" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="397" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E397" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="398" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E398" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="399" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E399" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="400" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E400" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="401" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E401" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="402" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E402" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="403" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E403" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="404" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E404" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="405" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E405" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="406" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E406" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="407" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E407" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="408" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E408" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="409" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E409" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="410" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E410" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="411" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E411" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="412" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E412" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="413" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E413" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="414" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E414" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="415" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E415" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="416" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E416" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="417" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E417" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="418" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E418" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="419" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E419" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="420" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E420" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="421" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E421" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="422" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E422" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="423" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E423" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="424" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E424" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="425" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E425" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="426" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E426" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="427" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E427" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="428" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E428" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="429" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E429" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="430" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E430" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="431" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E431" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="432" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E432" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="433" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E433" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="434" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E434" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="435" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E435" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="436" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E436" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="437" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E437" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="438" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E438" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="439" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E439" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="440" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E440" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="441" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E441" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="442" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E442" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="443" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E443" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="444" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E444" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="445" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E445" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="446" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E446" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="447" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E447" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="448" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E448" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="449" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E449" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="450" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E450" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="451" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E451" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="452" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E452" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="453" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E453" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="454" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E454" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="455" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E455" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="456" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E456" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="457" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E457" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="458" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E458" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="459" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E459" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="460" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E460" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="461" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E461" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="462" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E462" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="463" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E463" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -8945,7 +9038,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8974,215 +9067,215 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>544</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="C2" t="s">
         <v>162</v>
       </c>
       <c r="D2" s="9">
-        <v>410.015625</v>
+        <v>477.64462809899999</v>
       </c>
       <c r="E2">
-        <v>5000</v>
+        <v>4200</v>
       </c>
       <c r="F2">
-        <v>1093.375</v>
+        <v>1050.8181818200001</v>
       </c>
       <c r="G2">
-        <v>0.375</v>
+        <v>0.45454545454500001</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>554</v>
+        <v>504</v>
       </c>
       <c r="B3" t="s">
-        <v>585</v>
+        <v>614</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D3" s="9">
-        <v>480.978395062</v>
+        <v>454.83471074400001</v>
       </c>
       <c r="E3">
-        <v>6600</v>
+        <v>4900</v>
       </c>
       <c r="F3">
-        <v>1574.1111111099999</v>
+        <v>1000.63636364</v>
       </c>
       <c r="G3">
-        <v>0.305555555556</v>
+        <v>0.45454545454500001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>586</v>
+        <v>615</v>
       </c>
       <c r="B4" t="s">
-        <v>587</v>
+        <v>614</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" s="9">
-        <v>481.33555555599997</v>
+        <v>552.72727272700001</v>
       </c>
       <c r="E4">
-        <v>5200</v>
+        <v>8800</v>
       </c>
       <c r="F4">
-        <v>1125.2</v>
+        <v>1216</v>
       </c>
       <c r="G4">
-        <v>0.42777777777800002</v>
+        <v>0.45454545454500001</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>616</v>
       </c>
       <c r="B5" t="s">
-        <v>588</v>
+        <v>617</v>
       </c>
       <c r="C5" t="s">
         <v>163</v>
       </c>
       <c r="D5" s="9">
-        <v>475.70370370400002</v>
+        <v>518.89599999999996</v>
       </c>
       <c r="E5">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="F5">
-        <v>1427.1111111099999</v>
+        <v>1423.8</v>
       </c>
       <c r="G5">
-        <v>0.33333333333300003</v>
+        <v>0.36444444444399998</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>589</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D6" s="9">
-        <v>484.99588477399999</v>
+        <v>630.57749999999999</v>
       </c>
       <c r="E6">
-        <v>6700</v>
+        <v>8100</v>
       </c>
       <c r="F6">
-        <v>1190.4444444400001</v>
+        <v>1201.0999999999999</v>
       </c>
       <c r="G6">
-        <v>0.40740740740699999</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>590</v>
+        <v>619</v>
       </c>
       <c r="B7" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="9">
-        <v>439.13991769500001</v>
+        <v>532.29750000000001</v>
       </c>
       <c r="E7">
-        <v>5400</v>
+        <v>6500</v>
       </c>
       <c r="F7">
-        <v>1077.8888888900001</v>
+        <v>1013.9</v>
       </c>
       <c r="G7">
-        <v>0.40740740740699999</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>568</v>
+        <v>620</v>
       </c>
       <c r="B8" t="s">
-        <v>588</v>
+        <v>621</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D8" s="9">
-        <v>461.95473250999999</v>
+        <v>-611.83357469400005</v>
       </c>
       <c r="E8">
-        <v>6600</v>
+        <v>9100</v>
       </c>
       <c r="F8">
-        <v>1133.8888888900001</v>
+        <v>1148.2131428600001</v>
       </c>
       <c r="G8">
-        <v>0.40740740740699999</v>
+        <v>-0.53285714285700003</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>591</v>
+        <v>622</v>
       </c>
       <c r="B9" t="s">
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D9" s="9">
-        <v>444.79166666700002</v>
+        <v>617.54</v>
       </c>
       <c r="E9">
-        <v>6100</v>
+        <v>3300</v>
       </c>
       <c r="F9">
-        <v>1067.5</v>
+        <v>1122.8</v>
       </c>
       <c r="G9">
-        <v>0.41666666666699997</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>575</v>
+        <v>624</v>
       </c>
       <c r="B10" t="s">
-        <v>593</v>
+        <v>625</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D10" s="9">
-        <v>-421.61720777800002</v>
+        <v>512.00625000000002</v>
       </c>
       <c r="E10">
-        <v>8700</v>
+        <v>5300</v>
       </c>
       <c r="F10">
-        <v>897.05788888899997</v>
+        <v>975.25</v>
       </c>
       <c r="G10">
-        <v>-0.47</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" s="9">
         <f>SUM(D2:D10)</f>
-        <v>3257.2982731899992</v>
+        <v>3684.6902868759998</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
@@ -9200,10 +9293,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9218,16 +9311,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>604</v>
+        <v>553</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>603</v>
+        <v>552</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>606</v>
+        <v>555</v>
       </c>
       <c r="E1" t="s">
         <v>123</v>
@@ -9236,7 +9329,7 @@
         <v>124</v>
       </c>
       <c r="G1" t="s">
-        <v>605</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9247,7 +9340,7 @@
         <v>42034</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D2" s="5">
         <v>1329.8</v>
@@ -9270,7 +9363,7 @@
         <v>42034</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D3" s="5">
         <v>1401.8</v>
@@ -9290,10 +9383,10 @@
         <v>10588735</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>598</v>
+        <v>547</v>
       </c>
       <c r="C4" t="s">
-        <v>599</v>
+        <v>548</v>
       </c>
       <c r="D4">
         <v>623.29999999999995</v>
@@ -9313,10 +9406,10 @@
         <v>10588737</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>598</v>
+        <v>547</v>
       </c>
       <c r="C5" t="s">
-        <v>600</v>
+        <v>549</v>
       </c>
       <c r="D5">
         <v>951</v>
@@ -9336,10 +9429,10 @@
         <v>10588743</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>598</v>
+        <v>547</v>
       </c>
       <c r="C6" t="s">
-        <v>602</v>
+        <v>551</v>
       </c>
       <c r="D6">
         <v>1489.75</v>
@@ -9359,10 +9452,10 @@
         <v>10588742</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>598</v>
+        <v>547</v>
       </c>
       <c r="C7" t="s">
-        <v>601</v>
+        <v>550</v>
       </c>
       <c r="D7">
         <v>3074.2</v>
@@ -9377,8 +9470,310 @@
         <v>25</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>10601885</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D8">
+        <v>1533.6</v>
+      </c>
+      <c r="E8">
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>10601610</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="C9" t="s">
+        <v>628</v>
+      </c>
+      <c r="D9">
+        <v>2391.1</v>
+      </c>
+      <c r="E9">
+        <v>80</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>10601690</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="C10" t="s">
+        <v>629</v>
+      </c>
+      <c r="D10">
+        <v>2961.2</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10601474</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="C11" t="s">
+        <v>630</v>
+      </c>
+      <c r="D11">
+        <v>6056.7</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>10601139</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="C12" t="s">
+        <v>631</v>
+      </c>
+      <c r="D12">
+        <v>6694.5</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>10600615</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="C13" t="s">
+        <v>632</v>
+      </c>
+      <c r="D13">
+        <v>7077.25</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>10602745</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="C14" t="s">
+        <v>633</v>
+      </c>
+      <c r="D14">
+        <v>2745.3</v>
+      </c>
+      <c r="E14">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>10602444</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="C15" t="s">
+        <v>634</v>
+      </c>
+      <c r="D15">
+        <v>2788.15</v>
+      </c>
+      <c r="E15">
+        <v>80</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>10602274</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="C16" t="s">
+        <v>635</v>
+      </c>
+      <c r="D16">
+        <v>3447.3</v>
+      </c>
+      <c r="E16">
+        <v>80</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>10602094</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="C17" t="s">
+        <v>636</v>
+      </c>
+      <c r="D17">
+        <v>5587.8</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>10602135</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="C18" t="s">
+        <v>637</v>
+      </c>
+      <c r="D18">
+        <v>6139.375</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>10601139</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="C19" t="s">
+        <v>631</v>
+      </c>
+      <c r="D19">
+        <v>6759.875</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>10601553</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="C20" t="s">
+        <v>638</v>
+      </c>
+      <c r="D20">
+        <v>6759.875</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Fanduel.xlsx
+++ b/Fanduel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="_ironspread_data_" sheetId="4" state="veryHidden" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="617">
   <si>
     <t>n_scripts_list</t>
   </si>
@@ -853,9 +853,6 @@
     <t>Carl Hagelin</t>
   </si>
   <si>
-    <t>Dylan Olsen</t>
-  </si>
-  <si>
     <t>Dan Hamhuis</t>
   </si>
   <si>
@@ -964,9 +961,6 @@
     <t>Brad Richards</t>
   </si>
   <si>
-    <t>Benoit Pouliot</t>
-  </si>
-  <si>
     <t>Marcus Johansson</t>
   </si>
   <si>
@@ -1618,9 +1612,6 @@
     <t>Justin Schultz</t>
   </si>
   <si>
-    <t>Shane Prince</t>
-  </si>
-  <si>
     <t>Tyler Johnson</t>
   </si>
   <si>
@@ -1633,12 +1624,6 @@
     <t>Jason Chimera</t>
   </si>
   <si>
-    <t>Joey MacDonald</t>
-  </si>
-  <si>
-    <t>Craig Adams</t>
-  </si>
-  <si>
     <t>Marian Hossa</t>
   </si>
   <si>
@@ -1726,147 +1711,15 @@
     <t>Player Map, best contest and performance data needs to be moved to db</t>
   </si>
   <si>
-    <t>{u'MIN': [['Zach Parise', 'Mikko Koivu', 'Jason Pominville'], ['Thomas Vanek', 'Mikael Granlund', 'Justin Fontaine'], ['Nino Niederreiter', 'Charlie Coyle', 'Jordan Schroeder'], ['Stephane Veilleux', 'Erik Haula', 'Kyle Brodziak'], ['Ryan Suter', 'Jonas Brodin'], ['Marco Scandella', 'Jared Spurgeon'], ['Nate Prosser', 'Mathew Dumba'], ['Zach Parise', 'Mikko Koivu', 'Thomas Vanek', 'Ryan Suter', 'Jason Pominville'], ['Nino Niederreiter', 'Mikael Granlund', 'Charlie Coyle', 'Jared Spurgeon', 'Mathew Dumba']], u'TOR': [['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel'], ['Daniel Winnik', 'Nazem Kadri', 'Richard Panik'], ['Leo Komarov', 'Olli Jokinen', 'David Clarkson'], ['David Booth', 'Peter Holland', 'Brandon Kozun'], ['Morgan Rielly', 'Roman Polak'], ['Jake Gardiner', 'Korbinian Holzer'], ['Stephane Robidas', 'Petter Granberg'], ['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel', 'Morgan Rielly', 'Nazem Kadri'], ['Richard Panik', 'Peter Holland', 'David Clarkson', 'Jake Gardiner', 'Stephane Robidas']], u'CAR': [['Eric Staal', 'Jordan Staal', 'Jiri Tlusty'], ['Nathan Gerbe', 'Victor Rask', 'Elias Lindholm'], ['Jeff Skinner', 'Riley Nash', 'Alexander Semin'], ['Brad Malone', 'Jay McClement', 'Andrej Nestrasil'], ['Andrej Sekera', 'Justin Faulk'], ['Tim Gleason', 'John-Michael Liles'], ['Ron Hainsey', 'Brett Bellemore'], ['Jiri Tlusty', 'Eric Staal', 'Elias Lindholm', 'John-Michael Liles', 'Justin Faulk'], ['Brad Malone', 'Jordan Staal', 'Riley Nash', 'Andrej Sekera', 'Jeff Skinner']], u'BOS': [['Milan Lucic', 'David Krejci', 'Reilly Smith'], ['Brad Marchand', 'Patrice Bergeron', 'Loui Eriksson'], ['Chris Kelly', 'Carl Soderberg', 'David Pastrnak'], ['Daniel Paille', 'Gregory Campbell', 'Craig Cunningham'], ['Zdeno Chara', 'Dougie Hamilton'], ['Dennis Seidenberg', 'Matt Bartkowski'], ['Torey Krug', 'Kevan Miller'], ['Matt Bartkowski', 'Patrice Bergeron', 'Loui Eriksson', 'Reilly Smith', 'Dougie Hamilton'], ['Brad Marchand', 'David Krejci', 'Milan Lucic', 'Zdeno Chara', 'Torey Krug']], u'DET': [['Justin Abdelkader', 'Henrik Zetterberg', 'Teemu Pulkkinen'], ['Tomas Tatar', 'Pavel Datsyuk', 'Darren Helm'], ['Gustav Nyquist', 'Riley Sheahan', 'Stephen Weiss'], ['Drew Miller', 'Joakim Andersson', 'Luke Glendening'], ['Jonathan Ericsson', 'Niklas Kronwall'], ['Kyle Quincey', 'Dan DeKeyser'], ['Brendan Smith', 'Alexey Marchenko'], ['Gustav Nyquist', 'Henrik Zetterberg', 'Justin Abdelkader', 'Stephen Weiss', 'Niklas Kronwall'], ['Tomas Tatar', 'Pavel Datsyuk', 'Riley Sheahan', 'Teemu Pulkkinen', 'Dan DeKeyser']], u'NAS': [['Colin Wilson', 'Mike Ribeiro', 'James Neal'], ['Matt Cullen', 'Mike Fisher', 'Craig Smith'], ['Filip Forsberg', 'Calle Jarnkrok', 'Taylor Beck'], ['Eric Nystrom', 'Paul Gaustad', 'Gabriel Bourque'], ['Roman Josi', 'Shea Weber'], ['Anthony Bitetto', 'Seth Jones'], ['Mattias Ekholm', 'Victor Bartley'], ['Filip Forsberg', 'Mike Fisher', 'James Neal', 'Roman Josi', 'Shea Weber'], ['Colin Wilson', 'Mike Ribeiro', 'Craig Smith', 'Mattias Ekholm', 'Seth Jones']], u'NYI': [['Anders Lee', 'John Tavares', 'Josh Bailey'], ['Michael Grabner', 'Frans Nielsen', 'Ryan Strome'], ['Nikolay Kulemin', 'Mikhail Grabovski', 'Cal Clutterbuck'], ['Matt Martin', 'Brock Nelson', 'Colin McDonald'], ['Nick Leddy', 'Johnny Boychuk'], ['Brian Strait', 'Travis Hamonic'], ['Thomas Hickey', 'Calvin de Haan'], ['Anders Lee', 'John Tavares', 'Frans Nielsen', 'Nick Leddy', 'Johnny Boychuk'], ['Mikhail Grabovski', 'Brock Nelson', 'Ryan Strome', 'Thomas Hickey', 'Travis Hamonic']], u'FLA': [['Jussi Jokinen', 'Nick Bjugstad', 'Jimmy Hayes'], ['Jonathan Huberdeau', 'Aleksander Barkov', 'Brad Boyes'], ['Tomas Fleischmann', 'Dave Bolland', 'Scottie Upshall'], ['Tomas Kopecky', 'Derek MacKenzie', 'Shawn Thornton'], ['Brian Campbell', 'Aaron Ekblad'], ['Steve Kampfer', 'Erik Gudbranson'], ["Shane O'Brien", 'Alex Petrovic'], ['Jonathan Huberdeau', 'Nick Bjugstad', 'Jimmy Hayes', 'Aleksander Barkov', 'Aaron Ekblad'], ['Tomas Fleischmann', 'Dave Bolland', 'Brad Boyes', 'Brian Campbell', 'Jussi Jokinen']], u'COL': [['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon'], ['Max Talbot', 'Matt Duchene', 'Jarome Iginla'], ['Alex Tanguay', 'John Mitchell', 'Dennis Everberg'], ['Cody McLeod', 'Marc-Andre Cliche', 'Paul Carey'], ['Nate Guenin', 'Tyson Barrie'], ['Jan Hejda', 'Zach Redmond'], ['Brad Stuart', 'Nick Holden'], ['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon', 'Jarome Iginla', 'Tyson Barrie'], ['Alex Tanguay', 'Matt Duchene', 'John Mitchell', 'Nick Holden', 'Zach Redmond']], u'NJD': [['Adam Henrique', 'Patrik Elias', 'Steve Bernier'], ['Tuomo Ruutu', 'Scott Gomez', 'Jaromir Jagr'], ['Michael Cammalleri', 'Travis Zajac', 'Jordin Tootoo'], ['Dainius Zubrus', 'Jacob Josefson', 'Stephen Gionta'], ['Andy Greene', 'Adam Larsson'], ['Jon Merrill', 'Marek Zidlicky'], ['Eric Gelinas', 'Peter Harrold'], ['Steve Bernier', 'Scott Gomez', 'Jaromir Jagr', 'Eric Gelinas', 'Michael Cammalleri'], ['Patrik Elias', 'Adam Henrique', 'Jordin Tootoo', 'Travis Zajac', 'Marek Zidlicky']], u'DAL': [['Jamie Benn', 'Jason Spezza', 'Erik Cole'], ['Antoine Roussel', 'Cody Eakin', 'Ryan Garbutt'], ['Curtis McKenzie', 'Vernon Fiddler', 'Brett Ritchie'], ['Brendan Ranford', 'Shawn Horcoff', 'Colton Sceviour'], ['Alex Goligoski', 'John Klingberg'], ['Jyrki Jokipakka', 'Trevor Daley'], ['Jordie Benn', 'Jason Demers'], ['Jamie Benn', 'Jason Spezza', 'Brett Ritchie', 'Trevor Daley', 'John Klingberg'], ['Erik Cole', 'Cody Eakin', 'Curtis McKenzie', 'Alex Goligoski', 'Jason Demers']], u'CGY': [['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler'], ['Lance Bouma', 'Mikael Backlund', 'David Jones'], ['Curtis Glencross', 'Josh Jooris', 'Mason Raymond'], ['Brandon Bollig', 'Matt Stajan', 'Joe Colborne'], ['Mark Giordano', 'T.J. Brodie'], ['Kris Russell', 'Dennis Wideman'], ['Raphael Diaz', 'Deryk Engelland'], ['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler', 'T.J. Brodie', 'Dennis Wideman'], ['Mason Raymond', 'Mikael Backlund', 'David Jones', 'Mark Giordano', 'Raphael Diaz']], u'NYR': [['Rick Nash', 'Derick Brassard', 'Mats Zuccarello'], ['Chris Kreider', 'Derek Stepan', 'Martin St. Louis'], ['Carl Hagelin', 'Kevin Hayes', 'J.T. Miller'], ['Tanner Glass', 'Dominic Moore', 'Lee Stempniak'], ['Ryan McDonagh', 'Dan Girardi'], ['Marc Staal', 'Kevin Klein'], ['Dan Boyle', 'Matt Hunwick'], ['Rick Nash', 'Derick Brassard', 'Mats Zuccarello', 'Ryan McDonagh', 'Derek Stepan'], ['Chris Kreider', 'Kevin Hayes', 'Martin St. Louis', 'Dan Boyle', 'Dan Girardi']], u'SJS': [['Patrick Marleau', 'Joe Thornton', 'Melker Karlsson'], ['Joe Pavelski', 'Logan Couture', 'Tommy Wingels'], ['Matthew Nieto', 'James Sheppard', 'Tyler Kennedy'], ['Tomas Hertl', 'Chris Tierney', 'Andrew Desjardins'], ['Marc-Edouard Vlasic', 'Brent Burns'], ['Brenden Dillon', 'Justin Braun'], ['Matt Irwin', 'Scott Hannan'], ['Patrick Marleau', 'Joe Thornton', 'Logan Couture', 'Joe Pavelski', 'Brent Burns'], ['Melker Karlsson', 'Tomas Hertl', 'Matthew Nieto', 'Matt Irwin', 'Marc-Edouard Vlasic']], u'PIT': [['Chris Kunitz', 'Sidney Crosby', 'David Perron'], ['Blake Comeau', 'Evgeni Malkin', 'Patric Hornqvist'], ['Nick Spaling', 'Brandon Sutter', 'Beau Bennett'], ['Craig Adams', 'Maxim Lapierre', 'Steve Downie'], ['Paul Martin', 'Kris Letang'], ['Rob Scuderi', 'Simon Despres'], ['Derrick Pouliot', 'Robert Bortuzzo'], ['Chris Kunitz', 'Sidney Crosby', 'David Perron', 'Derrick Pouliot', 'Kris Letang'], ['Blake Comeau', 'Evgeni Malkin', 'Patric Hornqvist', 'Paul Martin', 'Simon Despres']], u'VAN': [['Daniel Sedin', 'Henrik Sedin', 'Alexandre Burrows'], ['Chris Higgins', 'Linden Vey', 'Radim Vrbata'], ['Brandon McMillan', 'Shawn Matthias', 'Derek Dorsett'], ['Ronalds Kenins', 'Bo Horvat', 'Jannik Hansen'], ['Dan Hamhuis', 'Yannick Weber'], ['Ryan Stanton', 'Adam Clendening'], ['Luca Sbisa', 'Alex Biega'], ['Daniel Sedin', 'Henrik Sedin', 'Alexandre Burrows', 'Radim Vrbata', 'Adam Clendening'], ['Chris Higgins', 'Linden Vey', 'Jannik Hansen', 'Dan Hamhuis', 'Yannick Weber']], u'STL': [['Alex Steen', 'David Backes', 'T.J. Oshie'], ['Jaden Schwartz', 'Jori Lehtera', 'Vladimir Tarasenko'], ['Dmitrij Jaskin', 'Paul Stastny', 'Patrik Berglund'], ['Steve Ott', 'Marcel Goc', 'Ryan Reaves'], ['Chris Butler', 'Alex Pietrangelo'], ['Carl Gunnarsson', 'Jay Bouwmeester'], ['Barret Jackman', 'Ian Cole'], ['David Backes', 'Paul Stastny', 'T.J. Oshie', 'Jay Bouwmeester', 'Alex Pietrangelo'], ['Jaden Schwartz', 'Jori Lehtera', 'Vladimir Tarasenko', 'Alex Steen', 'Dmitrij Jaskin']], u'CHI': [['Brandon Saad', 'Jonathan Toews', 'Marian Hossa'], ['Kris Versteeg', 'Brad Richards', 'Patrick Kane'], ['Bryan Bickell', 'Andrew Shaw', 'Ryan Hartman'], ['Patrick Sharp', 'Marcus Kruger', 'Ben Smith'], ['Duncan Keith', 'Michal Rozsival'], ['Niklas Hjalmarsson', 'Johnny Oduya'], ['Kyle Cumiskey', 'Brent Seabrook'], ['Brandon Saad', 'Jonathan Toews', 'Marian Hossa', 'Patrick Kane', 'Brent Seabrook'], ['Patrick Sharp', 'Brad Richards', 'Andrew Shaw', 'Duncan Keith', 'Michal Rozsival']], u'MTL': [['Max Pacioretty', 'David Desharnais', 'Dale Weise'], ['Alex Galchenyuk', 'Tomas Plekanec', 'Brendan Gallagher'], ['Brandon Prust', 'Lars Eller', 'Jiri Sekac'], ['Michael Bournival', 'Jacob De La Rose', 'Christian Thomas'], ['Andrei Markov', 'P.K. Subban'], ['Tom Gilbert', 'Alexei Emelin'], ['Nathan Beaulieu', 'Greg Pateryn'], ['Max Pacioretty', 'David Desharnais', 'Brendan Gallagher', 'Andrei Markov', 'P.K. Subban'], ['Alex Galchenyuk', 'Tomas Plekanec', 'Lars Eller', 'Nathan Beaulieu', 'Tom Gilbert']], u'PHI': [['Brayden Schenn', 'Claude Giroux', 'Jakub Voracek'], ['Matt Read', 'Sean Couturier', 'Wayne Simmonds'], ['Ryan White', 'Michael Raffl', 'R.J. Umberger'], ['Chris VandeVelde', 'Vincent Lecavalier'], ['Nick Schultz', 'Mark Streit'], ['Nicklas Grossmann', 'Braydon Coburn'], ['Michael Del Zotto', 'Luke Schenn'], ['Brayden Schenn', 'Claude Giroux', 'Wayne Simmonds', 'Jakub Voracek', 'Mark Streit'], ['R.J. Umberger', 'Sean Couturier', 'Vincent Lecavalier', 'Matt Read', 'Michael Del Zotto']], u'ANA': [['Rene Bourque', 'Ryan Getzlaf', 'Corey Perry'], ['Andrew Cogliano', 'Ryan Kesler', 'Jakob Silfverberg'], ['Patrick Maroon', 'Rickard Rakell', 'Kyle Palmieri'], ['Devante Smith-Pelly', 'Nate Thompson', 'Emerson Etem'], ['Cam Fowler', 'Francois Beauchemin'], ['Clayton Stoner', 'Ben Lovejoy'], ['Eric Brewer', 'Josh Manson'], ['Patrick Maroon', 'Ryan Getzlaf', 'Ryan Kesler', 'Cam Fowler', 'Corey Perry'], ['Kyle Palmieri', 'Rickard Rakell', 'Rene Bourque', 'Jakob Silfverberg', 'Francois Beauchemin']], u'LAK': [['Marian Gaborik', 'Anze Kopitar', 'Trevor Lewis'], ['Dwight King', 'Jeff Carter', 'Tyler Toffoli'], ['Dustin Brown', 'Jarret Stoll', 'Justin Williams'], ['Kyle Clifford', 'Nick Shore', 'Jordan Nolan'], ['Robyn Regehr', 'Drew Doughty'], ['Jake Muzzin', 'Matt Greene'], ['Brayden McNabb', 'Jamie McBain'], ['Marian Gaborik', 'Anze Kopitar', 'Jeff Carter', 'Jake Muzzin', 'Drew Doughty'], ['Dwight King', 'Nick Shore', 'Tyler Toffoli', 'Brayden McNabb', 'Jamie McBain']], u'CBJ': [['Scott Hartnell', 'Ryan Johansen', 'Corey Tropp'], ['Matt Calvert', 'Brandon Dubinsky', 'Cam Atkinson'], ['Alexander Wennberg', 'Artem Anisimov', 'Marko Dano'], ['Jack Skille', 'Mark Letestu', 'Jared Boll'], ['Jack Johnson', 'David Savard'], ['Kevin Connauton', 'James Wisniewski'], ['Fedor Tyutin', 'Cody Goloubef'], ['Scott Hartnell', 'Ryan Johansen', 'Alexander Wennberg', 'Kevin Connauton', 'James Wisniewski'], ['Artem Anisimov', 'Brandon Dubinsky', 'Cam Atkinson', 'Jack Johnson', 'David Savard']], u'BUF': [['Chris Stewart', 'Zemgus  Girgensons', 'Tyler Ennis'], ['Matt Moulson', 'Torrey Mitchell', 'Brian Gionta'], ['Marcus Foligno', 'Brian Flynn', 'Nicolas Deslauriers'], ['Johan Larsson', 'Matt Ellis', 'Cody Hodgson'], ['Andre Benoit', 'Zach Bogosian'], ['Nikita Zadorov', 'Rasmus Ristolainen'], ['Mike Weber', 'Andrej Meszaros'], ['Matt Moulson', 'Zemgus  Girgensons', 'Chris Stewart', 'Tyler Ennis', 'Zach Bogosian'], ['Marcus Foligno', 'Brian Flynn', 'Brian Gionta', 'Nikita Zadorov', 'Rasmus Ristolainen']], u'EDM': [['Teddy Purcell', 'Ryan Nugent-Hopkins', 'Jordan Eberle'], ['Ryan  Hamilton', 'Derek Roy', 'Nail Yakupov'], ['Benoit Pouliot', 'Anton Lander', 'Iiro Pakarinen'], ['Matt Hendricks', 'Boyd Gordon', 'Matt Fraser'], ['Andrew Ference', 'Jeff Petry'], ['Oscar Klefbom', 'Justin Schultz'], ['Martin Marincin', 'Mark Fayne'], ['Teddy Purcell', 'Anton Lander', 'Jordan Eberle', 'Ryan Nugent-Hopkins', 'Justin Schultz'], ['Benoit Pouliot', 'Derek Roy', 'Iiro Pakarinen', 'Oscar Klefbom', 'Nail Yakupov']], u'TBL': [['Alex Killorn', 'Steven Stamkos', 'Ryan Callahan'], ['Ondrej Palat', 'Tyler Johnson', 'Nikita Kucherov'], ['Cedric Paquette', 'Valtteri Filppula', 'Brett Connolly'], ['Jonathan Drouin', 'Brian Boyle', 'J.T. Brown'], ['Victor Hedman', 'Andrej Sustr'], ['Mark Barberio', 'Anton Stralman'], ['Jason Garrison', 'Nikita Nesterov'], ['Alex Killorn', 'Steven Stamkos', 'Valtteri Filppula', 'Victor Hedman', 'Jason Garrison'], ['Ondrej Palat', 'Tyler Johnson', 'Ryan Callahan', 'Anton Stralman', 'Nikita Kucherov']], u'WIN': [['Andrew Ladd', 'Bryan Little', 'Blake Wheeler'], ['Michael Frolik', 'Mark Scheifele', 'Drew Stafford'], ['Chris Thorburn', 'Adam Lowry', 'T.J. Galiardi'], ['Carl Klingberg', 'Jim Slater', 'Anthony Peluso'], ['Ben Chiarot', 'Dustin Byfuglien'], ['Tobias Enstrom', 'Tyler Myers'], ['Mark Stuart', 'Jacob Trouba'], ['Andrew Ladd', 'Bryan Little', 'Blake Wheeler', 'Tobias Enstrom', 'Dustin Byfuglien'], ['Michael Frolik', 'Mark Scheifele', 'Drew Stafford', 'Jacob Trouba', 'Tyler Myers']], u'ARI': [['Lauri Korpikoski', 'Antoine Vermette', 'Martin Erat'], ['Tobias Rieder', 'Mark Arcobello', 'Sam Gagner'], ['Lucas Lessio', 'Kyle Chipchura', 'Shane Doan'], ['Jordan Martinook', 'Joe Vitale', 'David Moss'], ['Oliver Ekman-Larsson', 'Brandon Gormley'], ['Keith Yandle', 'Michael Stone'], ['Andrew Campbell', 'Connor Murphy'], ['Tobias Rieder', 'Antoine Vermette', 'Shane Doan', 'Oliver Ekman-Larsson', 'Keith Yandle'], ['Lauri Korpikoski', 'Sam Gagner', 'Martin Erat', 'Michael Stone', 'Connor Murphy']], u'OTT': [['Mike Hoffman', 'Mika Zibanejad', 'Bobby Ryan'], ['Milan Michalek', 'Kyle Turris', 'Mark Stone'], ['Shane Prince', 'David Legwand', 'Alex Chiasson'], ['Curtis Lazar', 'Jean-Gabriel Pageau', 'Erik Condra'], ['Marc Methot', 'Erik Karlsson'], ['Cody Ceci', 'Jared Cowen'], ['Mark Borowiecki', 'Eric Gryba'], ['Milan Michalek', 'Kyle Turris', 'Mark Stone', 'Cody Ceci', 'Erik Karlsson'], ['David Legwand', 'Mika Zibanejad', 'Bobby Ryan', 'Mike Hoffman', 'Eric Gryba']]}</t>
-  </si>
-  <si>
-    <t>Carl Klingberg</t>
-  </si>
-  <si>
-    <t>Matt Carkner</t>
-  </si>
-  <si>
-    <t>Troy Grosenick</t>
-  </si>
-  <si>
-    <t>Troy Brouwer</t>
-  </si>
-  <si>
-    <t>Pascal Dupuis</t>
-  </si>
-  <si>
-    <t>Bobby Butler</t>
-  </si>
-  <si>
-    <t>Rob Zepp</t>
-  </si>
-  <si>
-    <t>Liam O'Brien</t>
-  </si>
-  <si>
-    <t>Philipp Grubauer</t>
-  </si>
-  <si>
-    <t>Filip Forsberg</t>
-  </si>
-  <si>
-    <t>Dmitry Orlov</t>
-  </si>
-  <si>
-    <t>Dmitry Kulikov</t>
-  </si>
-  <si>
-    <t>Jacob Markstrom</t>
-  </si>
-  <si>
-    <t>Nathan Horton</t>
-  </si>
-  <si>
-    <t>Shawn Thornton</t>
-  </si>
-  <si>
-    <t>Vincent Trocheck</t>
-  </si>
-  <si>
-    <t>John Klingberg</t>
-  </si>
-  <si>
-    <t>Carl Soderberg</t>
-  </si>
-  <si>
-    <t>Kevin Poulin</t>
-  </si>
-  <si>
     <t>Kevin Klein</t>
   </si>
   <si>
-    <t>Anthony Duclair</t>
-  </si>
-  <si>
-    <t>Anthony Stolarz</t>
-  </si>
-  <si>
-    <t>Anthony Peluso</t>
-  </si>
-  <si>
-    <t>Kyle Okposo</t>
-  </si>
-  <si>
-    <t>Peter Budaj</t>
-  </si>
-  <si>
-    <t>Ray Whitney</t>
-  </si>
-  <si>
-    <t>Ray Emery</t>
-  </si>
-  <si>
-    <t>Matthew Lombardi</t>
-  </si>
-  <si>
-    <t>Maxime Fortunus</t>
-  </si>
-  <si>
-    <t>Dan Ellis</t>
-  </si>
-  <si>
-    <t>Miikka Salomaki</t>
-  </si>
-  <si>
-    <t>Matt Donovan</t>
-  </si>
-  <si>
-    <t>Chris Conner</t>
-  </si>
-  <si>
-    <t>Chris Terry</t>
-  </si>
-  <si>
-    <t>Chris Butler</t>
-  </si>
-  <si>
-    <t>Rich Peverley</t>
-  </si>
-  <si>
     <t>Kevin Bieksa</t>
   </si>
   <si>
     <t>Kevin Hayes</t>
   </si>
   <si>
-    <t>Boone Jenner</t>
-  </si>
-  <si>
-    <t>Oliver Lauridsen</t>
-  </si>
-  <si>
-    <t>Oliver Ekman-Larsson</t>
-  </si>
-  <si>
-    <t>Jack Campbell</t>
-  </si>
-  <si>
-    <t>Brian Campbell</t>
-  </si>
-  <si>
-    <t>Olli Maatta</t>
-  </si>
-  <si>
-    <t>Evgeni Malkin</t>
-  </si>
-  <si>
-    <t>Christian Ehrhoff</t>
-  </si>
-  <si>
     <t>Tomas Kaberle</t>
   </si>
   <si>
@@ -1888,42 +1741,18 @@
     <t>Tomas Vokoun</t>
   </si>
   <si>
-    <t>['NYI', 'NYI', 'NYI', 'NYI', 'NYI', 'NYI', 'NYI', 'NYI', 'NYI', 'NYI', 'NYI']</t>
-  </si>
-  <si>
-    <t>John Tavares</t>
-  </si>
-  <si>
     <t>Ryan McDonagh</t>
   </si>
   <si>
     <t>['NYR', 'NYR', 'NYR', 'NYR', 'NYR', 'NYR', 'NYR', 'NYR', 'NYR', 'NYR']</t>
   </si>
   <si>
-    <t>['DAL', 'DAL', 'DAL', 'DAL', 'DAL', 'DAL', 'DAL', 'DAL', 'DAL', 'DAL']</t>
-  </si>
-  <si>
-    <t>Jason Spezza</t>
-  </si>
-  <si>
-    <t>Marc-Andre Fleury</t>
-  </si>
-  <si>
-    <t>['PIT', 'PIT', 'PIT', 'PIT', 'PIT', 'PIT', 'PIT']</t>
-  </si>
-  <si>
     <t>Luca Sbisa</t>
   </si>
   <si>
     <t>['VAN', 'VAN', 'VAN', 'VAN', 'VAN', 'VAN', 'VAN', 'VAN', 'VAN', 'VAN']</t>
   </si>
   <si>
-    <t>Erik Cole</t>
-  </si>
-  <si>
-    <t>['DAL', 'DAL', 'DAL', 'DAL', 'DAL', 'DAL', 'DAL', 'DAL']</t>
-  </si>
-  <si>
     <t>19/02/2015</t>
   </si>
   <si>
@@ -1967,6 +1796,105 @@
   </si>
   <si>
     <t>C:\Users\Cole\Desktop\FanDuel\fanduel\modules\FD_operations.py</t>
+  </si>
+  <si>
+    <t>{u'MIN': [['Zach Parise', 'Mikko Koivu', 'Jason Pominville'], ['Thomas Vanek', 'Mikael Granlund', 'Justin Fontaine'], ['Nino Niederreiter', 'Charlie Coyle', 'Jordan Schroeder'], ['Stephane Veilleux', 'Erik Haula', 'Kyle Brodziak'], ['Ryan Suter', 'Jonas Brodin'], ['Marco Scandella', 'Christian Folin'], ['Nate Prosser', 'Mathew Dumba'], ['Zach Parise', 'Mikko Koivu', 'Thomas Vanek', 'Ryan Suter', 'Jason Pominville'], ['Nino Niederreiter', 'Mikael Granlund', 'Charlie Coyle', 'Marco Scandella', 'Mathew Dumba']], u'TOR': [['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel'], ['Daniel Winnik', 'Nazem Kadri', 'Richard Panik'], ['Leo Komarov', 'Olli Jokinen', 'David Clarkson'], ['David Booth', 'Peter Holland', 'Brandon Kozun'], ['Morgan Rielly', 'Roman Polak'], ['Jake Gardiner', 'Korbinian Holzer'], ['Stephane Robidas', 'Petter Granberg'], ['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel', 'Morgan Rielly', 'Nazem Kadri'], ['Richard Panik', 'Peter Holland', 'David Clarkson', 'Jake Gardiner', 'Stephane Robidas']], u'CAR': [['Eric Staal', 'Jordan Staal', 'Jiri Tlusty'], ['Nathan Gerbe', 'Victor Rask', 'Elias Lindholm'], ['Jeff Skinner', 'Riley Nash', 'Alexander Semin'], ['Brad Malone', 'Jay McClement', 'Andrej Nestrasil'], ['Andrej Sekera', 'Justin Faulk'], ['Tim Gleason', 'John-Michael Liles'], ['Ron Hainsey', 'Brett Bellemore'], ['Jiri Tlusty', 'Eric Staal', 'Elias Lindholm', 'John-Michael Liles', 'Justin Faulk'], ['Brad Malone', 'Jordan Staal', 'Riley Nash', 'Andrej Sekera', 'Jeff Skinner']], u'BOS': [['Milan Lucic', 'David Krejci', 'David Pastrnak'], ['Brad Marchand', 'Patrice Bergeron', 'Reilly Smith'], ['Chris Kelly', 'Carl Soderberg', 'Loui Eriksson'], ['Daniel Paille', 'Gregory Campbell', 'Brian Ferlin'], ['Zdeno Chara', 'Dougie Hamilton'], ['Matt Bartkowski', 'Dennis Seidenberg'], ['Torey Krug', 'Adam McQuaid'], ['Matt Bartkowski', 'Patrice Bergeron', 'Loui Eriksson', 'Reilly Smith', 'Dougie Hamilton'], ['Brad Marchand', 'David Krejci', 'Milan Lucic', 'Zdeno Chara', 'Torey Krug']], u'DET': [['Justin Abdelkader', 'Henrik Zetterberg', 'Teemu Pulkkinen'], ['Tomas Tatar', 'Pavel Datsyuk', 'Darren Helm'], ['Gustav Nyquist', 'Riley Sheahan', 'Stephen Weiss'], ['Drew Miller', 'Joakim Andersson', 'Luke Glendening'], ['Jonathan Ericsson', 'Niklas Kronwall'], ['Kyle Quincey', 'Dan DeKeyser'], ['Brendan Smith', 'Alexey Marchenko'], ['Gustav Nyquist', 'Henrik Zetterberg', 'Justin Abdelkader', 'Stephen Weiss', 'Niklas Kronwall'], ['Tomas Tatar', 'Pavel Datsyuk', 'Riley Sheahan', 'Teemu Pulkkinen', 'Dan DeKeyser']], u'NAS': [['Colin Wilson', 'Mike Ribeiro', 'James Neal'], ['Matt Cullen', 'Mike Fisher', 'Craig Smith'], ['Filip Forsberg', 'Calle Jarnkrok', 'Taylor Beck'], ['Eric Nystrom', 'Paul Gaustad', 'Gabriel Bourque'], ['Roman Josi', 'Shea Weber'], ['Anthony Bitetto', 'Seth Jones'], ['Mattias Ekholm', 'Victor Bartley'], ['Filip Forsberg', 'Mike Fisher', 'James Neal', 'Roman Josi', 'Shea Weber'], ['Colin Wilson', 'Mike Ribeiro', 'Craig Smith', 'Mattias Ekholm', 'Seth Jones']], u'NYI': [['Anders Lee', 'John Tavares', 'Josh Bailey'], ['Michael Grabner', 'Frans Nielsen', 'Ryan Strome'], ['Nikolay Kulemin', 'Brock Nelson', 'Cal Clutterbuck'], ['Matt Martin', 'Kael Mouillierat', 'Colin McDonald'], ['Nick Leddy', 'Johnny Boychuk'], ['Brian Strait', 'Travis Hamonic'], ['Thomas Hickey', 'Lubomir Visnovsky'], ['Anders Lee', 'John Tavares', 'Frans Nielsen', 'Nick Leddy', 'Johnny Boychuk'], ['Josh Bailey', 'Brock Nelson', 'Ryan Strome', 'Lubomir Visnovsky', 'Travis Hamonic']], u'FLA': [['Jussi Jokinen', 'Nick Bjugstad', 'Jimmy Hayes'], ['Jonathan Huberdeau', 'Aleksander Barkov', 'Brad Boyes'], ['Tomas Fleischmann', 'Dave Bolland', 'Scottie Upshall'], ['Tomas Kopecky', 'Derek MacKenzie', 'Shawn Thornton'], ['Brian Campbell', 'Aaron Ekblad'], ['Steve Kampfer', 'Erik Gudbranson'], ["Shane O'Brien", 'Alex Petrovic'], ['Jonathan Huberdeau', 'Nick Bjugstad', 'Jimmy Hayes', 'Aleksander Barkov', 'Aaron Ekblad'], ['Tomas Fleischmann', 'Dave Bolland', 'Brad Boyes', 'Brian Campbell', 'Jussi Jokinen']], u'COL': [['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon'], ['Max Talbot', 'Matt Duchene', 'Jarome Iginla'], ['Alex Tanguay', 'John Mitchell', 'Dennis Everberg'], ['Cody McLeod', 'Marc-Andre Cliche', 'Paul Carey'], ['Nate Guenin', 'Tyson Barrie'], ['Jan Hejda', 'Zach Redmond'], ['Brad Stuart', 'Nick Holden'], ['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon', 'Jarome Iginla', 'Tyson Barrie'], ['Alex Tanguay', 'Matt Duchene', 'John Mitchell', 'Nick Holden', 'Zach Redmond']], u'NJD': [['Adam Henrique', 'Patrik Elias', 'Steve Bernier'], ['Tuomo Ruutu', 'Scott Gomez', 'Jaromir Jagr'], ['Michael Cammalleri', 'Travis Zajac', 'Jordin Tootoo'], ['Dainius Zubrus', 'Jacob Josefson', 'Stephen Gionta'], ['Andy Greene', 'Adam Larsson'], ['Jon Merrill', 'Marek Zidlicky'], ['Eric Gelinas', 'Peter Harrold'], ['Steve Bernier', 'Scott Gomez', 'Jaromir Jagr', 'Eric Gelinas', 'Michael Cammalleri'], ['Patrik Elias', 'Adam Henrique', 'Jordin Tootoo', 'Travis Zajac', 'Marek Zidlicky']], u'DAL': [['Jamie Benn', 'Jason Spezza', 'Erik Cole'], ['Antoine Roussel', 'Cody Eakin', 'Ryan Garbutt'], ['Curtis McKenzie', 'Vernon Fiddler', 'Brett Ritchie'], ['Brendan Ranford', 'Shawn Horcoff', 'Colton Sceviour'], ['Alex Goligoski', 'John Klingberg'], ['Jyrki Jokipakka', 'Trevor Daley'], ['Jordie Benn', 'Jason Demers'], ['Jamie Benn', 'Jason Spezza', 'Brett Ritchie', 'Trevor Daley', 'John Klingberg'], ['Erik Cole', 'Cody Eakin', 'Curtis McKenzie', 'Alex Goligoski', 'Jason Demers']], u'CGY': [['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler'], ['Lance Bouma', 'Mikael Backlund', 'David Jones'], ['Curtis Glencross', 'Markus Granlund', 'Mason Raymond'], ['Brandon Bollig', 'Matt Stajan', 'Joe Colborne'], ['Mark Giordano', 'T.J. Brodie'], ['Kris Russell', 'Dennis Wideman'], ['Raphael Diaz', 'Deryk Engelland'], ['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler', 'T.J. Brodie', 'Dennis Wideman'], ['Mason Raymond', 'Mikael Backlund', 'David Jones', 'Mark Giordano', 'Raphael Diaz']], u'NYR': [['Rick Nash', 'Derick Brassard', 'Mats Zuccarello'], ['Chris Kreider', 'Derek Stepan', 'Martin St. Louis'], ['Carl Hagelin', 'Kevin Hayes', 'J.T. Miller'], ['Tanner Glass', 'Dominic Moore', 'Lee Stempniak'], ['Ryan McDonagh', 'Dan Girardi'], ['Marc Staal', 'Kevin Klein'], ['Dan Boyle', 'John Moore'], ['Rick Nash', 'Derick Brassard', 'Mats Zuccarello', 'Ryan McDonagh', 'Derek Stepan'], ['Chris Kreider', 'Kevin Hayes', 'Martin St. Louis', 'Dan Boyle', 'Dan Girardi']], u'SJS': [['Patrick Marleau', 'Joe Thornton', 'Melker Karlsson'], ['Joe Pavelski', 'Logan Couture', 'Tommy Wingels'], ['Matthew Nieto', 'James Sheppard', 'Tyler Kennedy'], ['Tomas Hertl', 'Chris Tierney', 'Andrew Desjardins'], ['Marc-Edouard Vlasic', 'Brent Burns'], ['Brenden Dillon', 'Justin Braun'], ['Matt Irwin', 'Scott Hannan'], ['Patrick Marleau', 'Joe Thornton', 'Logan Couture', 'Joe Pavelski', 'Brent Burns'], ['Melker Karlsson', 'Tomas Hertl', 'Matthew Nieto', 'Matt Irwin', 'Marc-Edouard Vlasic']], u'PIT': [['Chris Kunitz', 'Sidney Crosby', 'David Perron'], ['Blake Comeau', 'Evgeni Malkin', 'Patric Hornqvist'], ['Nick Spaling', 'Brandon Sutter', 'Beau Bennett'], ['Craig Adams', 'Maxim Lapierre', 'Steve Downie'], ['Paul Martin', 'Kris Letang'], ['Rob Scuderi', 'Simon Despres'], ['Derrick Pouliot', 'Robert Bortuzzo'], ['Chris Kunitz', 'Sidney Crosby', 'David Perron', 'Derrick Pouliot', 'Kris Letang'], ['Blake Comeau', 'Evgeni Malkin', 'Patric Hornqvist', 'Paul Martin', 'Simon Despres']], u'VAN': [['Daniel Sedin', 'Henrik Sedin', 'Alexandre Burrows'], ['Chris Higgins', 'Linden Vey', 'Radim Vrbata'], ['Brandon McMillan', 'Shawn Matthias', 'Derek Dorsett'], ['Ronalds Kenins', 'Bo Horvat', 'Jannik Hansen'], ['Dan Hamhuis', 'Yannick Weber'], ['Ryan Stanton', 'Adam Clendening'], ['Luca Sbisa', 'Alex Biega'], ['Daniel Sedin', 'Henrik Sedin', 'Radim Vrbata', 'Dan Hamhuis', 'Adam Clendening'], ['Chris Higgins', 'Linden Vey', 'Jannik Hansen', 'Alexandre Burrows', 'Yannick Weber']], u'STL': [['Alex Steen', 'David Backes', 'T.J. Oshie'], ['Jaden Schwartz', 'Jori Lehtera', 'Vladimir Tarasenko'], ['Dmitrij Jaskin', 'Paul Stastny', 'Patrik Berglund'], ['Steve Ott', 'Marcel Goc', 'Ryan Reaves'], ['Jay Bouwmeester', 'Alex Pietrangelo'], ['Carl Gunnarsson', 'Petteri Lindbohm'], ['Barret Jackman', 'Ian Cole'], ['David Backes', 'Paul Stastny', 'T.J. Oshie', 'Jay Bouwmeester', 'Alex Pietrangelo'], ['Jaden Schwartz', 'Jori Lehtera', 'Vladimir Tarasenko', 'Alex Steen', 'Dmitrij Jaskin']], u'CHI': [['Brandon Saad', 'Jonathan Toews', 'Marian Hossa'], ['Kris Versteeg', 'Brad Richards', 'Patrick Kane'], ['Bryan Bickell', 'Andrew Shaw', 'Ryan Hartman'], ['Patrick Sharp', 'Marcus Kruger', 'Ben Smith'], ['Duncan Keith', 'Michal Rozsival'], ['Niklas Hjalmarsson', 'Johnny Oduya'], ['Kyle Cumiskey', 'Brent Seabrook'], ['Brandon Saad', 'Jonathan Toews', 'Marian Hossa', 'Patrick Kane', 'Brent Seabrook'], ['Patrick Sharp', 'Brad Richards', 'Andrew Shaw', 'Duncan Keith', 'Michal Rozsival']], u'MTL': [['Max Pacioretty', 'David Desharnais', 'Dale Weise'], ['Alex Galchenyuk', 'Tomas Plekanec', 'Brendan Gallagher'], ['Brandon Prust', 'Lars Eller', 'Jiri Sekac'], ['Michael Bournival', 'Jacob De La Rose', 'Christian Thomas'], ['Andrei Markov', 'P.K. Subban'], ['Tom Gilbert', 'Alexei Emelin'], ['Nathan Beaulieu', 'Greg Pateryn'], ['Max Pacioretty', 'David Desharnais', 'Brendan Gallagher', 'Andrei Markov', 'P.K. Subban'], ['Alex Galchenyuk', 'Tomas Plekanec', 'Lars Eller', 'Nathan Beaulieu', 'Tom Gilbert']], u'PHI': [['Michael Raffl', 'Claude Giroux', 'Wayne Simmonds'], ['Matt Read', 'Sean Couturier', 'Jakub Voracek'], ['Ryan White', 'Brayden Schenn', 'R.J. Umberger'], ['Zac Rinaldo', 'Chris VandeVelde'], ['Nick Schultz', 'Mark Streit'], ['Michael Del Zotto', 'Braydon Coburn'], ['Nicklas Grossmann', 'Andrew MacDonald'], ['Brayden Schenn', 'Claude Giroux', 'Wayne Simmonds', 'Jakub Voracek', 'Mark Streit'], ['R.J. Umberger', 'Sean Couturier', 'Vincent Lecavalier', 'Matt Read', 'Michael Del Zotto']], u'ANA': [['Rene Bourque', 'Ryan Getzlaf', 'Corey Perry'], ['Andrew Cogliano', 'Ryan Kesler', 'Jakob Silfverberg'], ['Patrick Maroon', 'Rickard Rakell', 'Kyle Palmieri'], ['Devante Smith-Pelly', 'Nate Thompson', 'Emerson Etem'], ['Cam Fowler', 'Francois Beauchemin'], ['Clayton Stoner', 'Ben Lovejoy'], ['Eric Brewer', 'Josh Manson'], ['Patrick Maroon', 'Ryan Getzlaf', 'Ryan Kesler', 'Cam Fowler', 'Corey Perry'], ['Kyle Palmieri', 'Rickard Rakell', 'Rene Bourque', 'Jakob Silfverberg', 'Francois Beauchemin']], u'LAK': [['Marian Gaborik', 'Anze Kopitar', 'Trevor Lewis'], ['Dwight King', 'Jeff Carter', 'Tyler Toffoli'], ['Dustin Brown', 'Jarret Stoll', 'Justin Williams'], ['Kyle Clifford', 'Nick Shore', 'Jordan Nolan'], ['Robyn Regehr', 'Drew Doughty'], ['Jake Muzzin', 'Matt Greene'], ['Brayden McNabb', 'Jamie McBain'], ['Marian Gaborik', 'Anze Kopitar', 'Jeff Carter', 'Jake Muzzin', 'Drew Doughty'], ['Dwight King', 'Nick Shore', 'Tyler Toffoli', 'Brayden McNabb', 'Jamie McBain']], u'CBJ': [['Scott Hartnell', 'Ryan Johansen', 'Corey Tropp'], ['Matt Calvert', 'Brandon Dubinsky', 'Cam Atkinson'], ['Nick Foligno', 'Artem Anisimov', 'Marko Dano'], ['Jack Skille', 'Mark Letestu', 'Jared Boll'], ['Jack Johnson', 'David Savard'], ['Kevin Connauton', 'James Wisniewski'], ['Fedor Tyutin', 'Cody Goloubef'], ['Scott Hartnell', 'Ryan Johansen', 'Nick Foligno', 'Kevin Connauton', 'James Wisniewski'], ['Artem Anisimov', 'Brandon Dubinsky', 'Cam Atkinson', 'Jack Johnson', 'David Savard']], u'BUF': [['Chris Stewart', 'Zemgus  Girgensons', 'Tyler Ennis'], ['Matt Moulson', 'Torrey Mitchell', 'Brian Gionta'], ['Marcus Foligno', 'Brian Flynn', 'Nicolas Deslauriers'], ['Johan Larsson', 'Matt Ellis', 'Cody Hodgson'], ['Andre Benoit', 'Zach Bogosian'], ['Nikita Zadorov', 'Rasmus Ristolainen'], ['Mike Weber', 'Andrej Meszaros'], ['Matt Moulson', 'Zemgus  Girgensons', 'Chris Stewart', 'Tyler Ennis', 'Zach Bogosian'], ['Marcus Foligno', 'Brian Flynn', 'Brian Gionta', 'Nikita Zadorov', 'Rasmus Ristolainen']], u'EDM': [['Teddy Purcell', 'Ryan Nugent-Hopkins', 'Jordan Eberle'], ['Ryan  Hamilton', 'Derek Roy', 'Nail Yakupov'], ['Benoit Pouliot', 'Anton Lander', 'Iiro Pakarinen'], ['Matt Hendricks', 'Boyd Gordon', 'Matt Fraser'], ['Andrew Ference', 'Jeff Petry'], ['Oscar Klefbom', 'Justin Schultz'], ['Martin Marincin', 'Mark Fayne'], ['Teddy Purcell', 'Anton Lander', 'Jordan Eberle', 'Ryan Nugent-Hopkins', 'Justin Schultz'], ['Benoit Pouliot', 'Derek Roy', 'Iiro Pakarinen', 'Oscar Klefbom', 'Nail Yakupov']], u'TBL': [['Alex Killorn', 'Steven Stamkos', 'Ryan Callahan'], ['Ondrej Palat', 'Tyler Johnson', 'Nikita Kucherov'], ['Cedric Paquette', 'Valtteri Filppula', 'Brett Connolly'], ['Jonathan Drouin', 'Brian Boyle', 'J.T. Brown'], ['Victor Hedman', 'Andrej Sustr'], ['Mark Barberio', 'Anton Stralman'], ['Jason Garrison', 'Nikita Nesterov'], ['Alex Killorn', 'Steven Stamkos', 'Valtteri Filppula', 'Victor Hedman', 'Jason Garrison'], ['Ondrej Palat', 'Tyler Johnson', 'Ryan Callahan', 'Anton Stralman', 'Nikita Kucherov']], u'WIN': [['Andrew Ladd', 'Bryan Little', 'Blake Wheeler'], ['Michael Frolik', 'Mark Scheifele', 'Drew Stafford'], ['Chris Thorburn', 'Adam Lowry', 'T.J. Galiardi'], ['Carl Klingberg', 'Jim Slater', 'Anthony Peluso'], ['Ben Chiarot', 'Dustin Byfuglien'], ['Tobias Enstrom', 'Tyler Myers'], ['Mark Stuart', 'Jacob Trouba'], ['Andrew Ladd', 'Bryan Little', 'Blake Wheeler', 'Tobias Enstrom', 'Dustin Byfuglien'], ['Michael Frolik', 'Mark Scheifele', 'Drew Stafford', 'Jacob Trouba', 'Tyler Myers']], u'ARI': [['Lauri Korpikoski', 'Antoine Vermette', 'Martin Erat'], ['Tobias Rieder', 'Mark Arcobello', 'Sam Gagner'], ['Lucas Lessio', 'Kyle Chipchura', 'Shane Doan'], ['Jordan Martinook', 'Joe Vitale', 'David Moss'], ['Oliver Ekman-Larsson', 'Brandon Gormley'], ['Keith Yandle', 'Michael Stone'], ['Andrew Campbell', 'Connor Murphy'], ['Tobias Rieder', 'Antoine Vermette', 'Shane Doan', 'Oliver Ekman-Larsson', 'Keith Yandle'], ['Lauri Korpikoski', 'Sam Gagner', 'Martin Erat', 'Michael Stone', 'Connor Murphy']], u'OTT': [['Mike Hoffman', 'Mika Zibanejad', 'Bobby Ryan'], ['Milan Michalek', 'Kyle Turris', 'Mark Stone'], ['Matt Puempel', 'David Legwand', 'Alex Chiasson'], ['Erik Condra', 'Jean-Gabriel Pageau', 'Curtis Lazar'], ['Marc Methot', 'Erik Karlsson'], ['Cody Ceci', 'Jared Cowen'], ['Mark Borowiecki', 'Eric Gryba'], ['Milan Michalek', 'Kyle Turris', 'Mark Stone', 'Cody Ceci', 'Erik Karlsson'], ['David Legwand', 'Mika Zibanejad', 'Bobby Ryan', 'Mike Hoffman', 'Eric Gryba']]}</t>
+  </si>
+  <si>
+    <t>Matt Puempel</t>
+  </si>
+  <si>
+    <t>Jamie McGinn</t>
+  </si>
+  <si>
+    <t>Jason Williams</t>
+  </si>
+  <si>
+    <t>Joni Ortio</t>
+  </si>
+  <si>
+    <t>Josh Manson</t>
+  </si>
+  <si>
+    <t>Jason LaBarbera</t>
+  </si>
+  <si>
+    <t>Calvin Pickard</t>
+  </si>
+  <si>
+    <t>Brad Winchester</t>
+  </si>
+  <si>
+    <t>Brad Thiessen</t>
+  </si>
+  <si>
+    <t>Frans Nielsen</t>
+  </si>
+  <si>
+    <t>Brad Boyes</t>
+  </si>
+  <si>
+    <t>Sheldon Brookbank</t>
+  </si>
+  <si>
+    <t>Josh Harding</t>
+  </si>
+  <si>
+    <t>Mirco Mueller</t>
+  </si>
+  <si>
+    <t>Tim Sestito</t>
+  </si>
+  <si>
+    <t>Tim Gleason</t>
+  </si>
+  <si>
+    <t>Dion Phaneuf</t>
+  </si>
+  <si>
+    <t>Joe Morrow</t>
+  </si>
+  <si>
+    <t>Derick Brassard</t>
+  </si>
+  <si>
+    <t>Rick Nash</t>
+  </si>
+  <si>
+    <t>Cory Schneider</t>
+  </si>
+  <si>
+    <t>['NJD', 'NJD', 'NJD', 'NJD', 'NJD', 'NJD', 'NJD']</t>
+  </si>
+  <si>
+    <t>Jonathan Toews</t>
+  </si>
+  <si>
+    <t>['CHI', 'CHI', 'CHI', 'CHI', 'CHI', 'CHI', 'CHI', 'CHI', 'CHI', 'CHI']</t>
+  </si>
+  <si>
+    <t>Brandon Saad</t>
+  </si>
+  <si>
+    <t>Niklas Backstrom</t>
+  </si>
+  <si>
+    <t>Nicklas Backstrom</t>
+  </si>
+  <si>
+    <t>Nicklas Grossmann</t>
+  </si>
+  <si>
+    <t>Jason Zucker</t>
+  </si>
+  <si>
+    <t>Taylor Hall</t>
+  </si>
+  <si>
+    <t>Taylor Beck</t>
+  </si>
+  <si>
+    <t>[["LW","8478","87945","663"],["LW","15280","87944","655"],["RW","8263","87944","655"],["RW","9025","87945","660"],["C","8254","87944","655"],["C","14563","87945","660"],["D","8267","87944","655"],["D","23228","87945","660"],["G","8152","87946","653"]]</t>
   </si>
 </sst>
 </file>
@@ -2634,11 +2562,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="212169472"/>
-        <c:axId val="212171008"/>
+        <c:axId val="201491200"/>
+        <c:axId val="201492736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="212169472"/>
+        <c:axId val="201491200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2647,7 +2575,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212171008"/>
+        <c:crossAx val="201492736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2655,7 +2583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212171008"/>
+        <c:axId val="201492736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2666,7 +2594,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212169472"/>
+        <c:crossAx val="201491200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2779,11 +2707,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212203392"/>
-        <c:axId val="212204928"/>
+        <c:axId val="201525120"/>
+        <c:axId val="201526656"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="212203392"/>
+        <c:axId val="201525120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2792,7 +2720,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212204928"/>
+        <c:crossAx val="201526656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2800,7 +2728,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212204928"/>
+        <c:axId val="201526656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2811,7 +2739,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212203392"/>
+        <c:crossAx val="201525120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3478,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>639</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3486,7 +3414,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>640</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3586,7 +3514,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>122</v>
@@ -3610,13 +3538,13 @@
         <v>166</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>125</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>180</v>
@@ -4201,16 +4129,16 @@
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>296</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>259</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E23" s="6">
         <v>5</v>
@@ -4218,16 +4146,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>259</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E24" s="6">
         <v>5</v>
@@ -4238,16 +4166,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>259</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E25" s="6">
         <v>2</v>
@@ -4346,10 +4274,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4358,7 +4286,7 @@
     <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -4366,14 +4294,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -4381,20 +4309,20 @@
         <v>866</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>158</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -4402,46 +4330,49 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B7">
         <f>COUNTA('Best Contests'!B:B)+1</f>
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B8" s="5">
         <f>COUNTA('Performance Monitoring'!A:A)+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
     </row>
     <row r="23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4744,25 +4675,25 @@
     <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>285</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
         <v>216</v>
       </c>
       <c r="G2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H2" t="s">
         <v>217</v>
@@ -4774,35 +4705,41 @@
         <v>185</v>
       </c>
       <c r="K2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>563</v>
+        <v>596</v>
       </c>
       <c r="B3" t="s">
-        <v>564</v>
+        <v>231</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>185</v>
+      </c>
+      <c r="E3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>565</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>539</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>512</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E4" t="s">
         <v>268</v>
@@ -4810,75 +4747,78 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>566</v>
+        <v>597</v>
       </c>
       <c r="B5" t="s">
-        <v>513</v>
+        <v>589</v>
       </c>
       <c r="C5" t="s">
-        <v>514</v>
+        <v>308</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>310</v>
+      </c>
+      <c r="E5" t="s">
+        <v>310</v>
       </c>
       <c r="F5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G5" t="s">
+        <v>364</v>
+      </c>
+      <c r="H5" t="s">
+        <v>365</v>
+      </c>
+      <c r="I5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J5" t="s">
+        <v>365</v>
+      </c>
+      <c r="K5" t="s">
+        <v>365</v>
+      </c>
+      <c r="L5" t="s">
+        <v>362</v>
+      </c>
+      <c r="M5" t="s">
+        <v>362</v>
+      </c>
+      <c r="N5" t="s">
         <v>366</v>
       </c>
-      <c r="G5" t="s">
+      <c r="O5" t="s">
         <v>366</v>
       </c>
-      <c r="H5" t="s">
+      <c r="P5" t="s">
         <v>367</v>
       </c>
-      <c r="I5" t="s">
+      <c r="Q5" t="s">
         <v>367</v>
       </c>
-      <c r="J5" t="s">
+      <c r="R5" t="s">
         <v>367</v>
       </c>
-      <c r="K5" t="s">
+      <c r="S5" t="s">
         <v>367</v>
       </c>
-      <c r="L5" t="s">
-        <v>364</v>
-      </c>
-      <c r="M5" t="s">
-        <v>364</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="T5" t="s">
         <v>368</v>
       </c>
-      <c r="O5" t="s">
+      <c r="U5" t="s">
         <v>368</v>
-      </c>
-      <c r="P5" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>369</v>
-      </c>
-      <c r="R5" t="s">
-        <v>369</v>
-      </c>
-      <c r="S5" t="s">
-        <v>369</v>
-      </c>
-      <c r="T5" t="s">
-        <v>370</v>
-      </c>
-      <c r="U5" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>567</v>
+        <v>610</v>
       </c>
       <c r="B6" t="s">
-        <v>540</v>
+        <v>611</v>
       </c>
       <c r="C6" t="s">
-        <v>514</v>
+        <v>612</v>
       </c>
       <c r="D6" t="s">
         <v>263</v>
@@ -4895,16 +4835,16 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>525</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>302</v>
       </c>
       <c r="D7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E7" t="s">
         <v>205</v>
@@ -4918,16 +4858,16 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>499</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>500</v>
       </c>
       <c r="C8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" t="s">
         <v>299</v>
-      </c>
-      <c r="D8" t="s">
-        <v>300</v>
       </c>
       <c r="E8" t="s">
         <v>205</v>
@@ -4941,39 +4881,48 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>569</v>
+        <v>352</v>
       </c>
       <c r="B9" t="s">
-        <v>570</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>522</v>
       </c>
       <c r="D9" t="s">
-        <v>263</v>
+        <v>523</v>
       </c>
       <c r="E9" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F9" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="G9" t="s">
-        <v>186</v>
+        <v>524</v>
+      </c>
+      <c r="H9" t="s">
+        <v>589</v>
+      </c>
+      <c r="I9" t="s">
+        <v>327</v>
+      </c>
+      <c r="J9" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="B10" t="s">
-        <v>572</v>
+        <v>511</v>
       </c>
       <c r="C10" t="s">
-        <v>235</v>
+        <v>512</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>263</v>
       </c>
       <c r="E10" t="s">
         <v>183</v>
@@ -4985,7 +4934,7 @@
         <v>216</v>
       </c>
       <c r="H10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I10" t="s">
         <v>236</v>
@@ -4994,50 +4943,50 @@
         <v>217</v>
       </c>
       <c r="K10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>511</v>
       </c>
       <c r="C11" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="D11" t="s">
-        <v>526</v>
+        <v>263</v>
       </c>
       <c r="E11" t="s">
         <v>188</v>
       </c>
       <c r="F11" t="s">
+        <v>305</v>
+      </c>
+      <c r="G11" t="s">
+        <v>524</v>
+      </c>
+      <c r="H11" t="s">
+        <v>327</v>
+      </c>
+      <c r="I11" t="s">
         <v>307</v>
-      </c>
-      <c r="G11" t="s">
-        <v>527</v>
-      </c>
-      <c r="H11" t="s">
-        <v>329</v>
-      </c>
-      <c r="I11" t="s">
-        <v>309</v>
       </c>
       <c r="J11" t="s">
         <v>217</v>
       </c>
       <c r="K11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>574</v>
+        <v>488</v>
       </c>
       <c r="B12" t="s">
-        <v>575</v>
+        <v>323</v>
       </c>
       <c r="C12" t="s">
         <v>266</v>
@@ -5057,39 +5006,39 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="B13" t="s">
-        <v>528</v>
+        <v>304</v>
       </c>
       <c r="C13" t="s">
-        <v>303</v>
+        <v>242</v>
       </c>
       <c r="D13" t="s">
-        <v>526</v>
+        <v>243</v>
       </c>
       <c r="E13" t="s">
         <v>188</v>
       </c>
       <c r="F13" t="s">
+        <v>305</v>
+      </c>
+      <c r="G13" t="s">
+        <v>524</v>
+      </c>
+      <c r="H13" t="s">
         <v>307</v>
-      </c>
-      <c r="G13" t="s">
-        <v>527</v>
-      </c>
-      <c r="H13" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>561</v>
+        <v>613</v>
       </c>
       <c r="B14" t="s">
-        <v>577</v>
+        <v>512</v>
       </c>
       <c r="C14" t="s">
-        <v>578</v>
+        <v>525</v>
       </c>
       <c r="D14" t="s">
         <v>267</v>
@@ -5106,19 +5055,19 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>529</v>
+        <v>322</v>
       </c>
       <c r="B15" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="C15" t="s">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>358</v>
       </c>
       <c r="E15" t="s">
-        <v>190</v>
+        <v>291</v>
       </c>
       <c r="F15" t="s">
         <v>191</v>
@@ -5129,45 +5078,51 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>579</v>
+        <v>240</v>
       </c>
       <c r="B16" t="s">
-        <v>580</v>
+        <v>242</v>
       </c>
       <c r="C16" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>523</v>
       </c>
       <c r="E16" t="s">
-        <v>270</v>
+        <v>188</v>
       </c>
       <c r="F16" t="s">
-        <v>211</v>
+        <v>305</v>
       </c>
       <c r="G16" t="s">
-        <v>182</v>
+        <v>524</v>
       </c>
       <c r="H16" t="s">
-        <v>236</v>
+        <v>589</v>
+      </c>
+      <c r="I16" t="s">
+        <v>327</v>
+      </c>
+      <c r="J16" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="B17" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="C17" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="D17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F17" t="s">
         <v>186</v>
@@ -5175,19 +5130,19 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>584</v>
+        <v>357</v>
       </c>
       <c r="B18" t="s">
-        <v>510</v>
+        <v>341</v>
       </c>
       <c r="C18" t="s">
-        <v>511</v>
+        <v>290</v>
       </c>
       <c r="D18" t="s">
-        <v>512</v>
+        <v>358</v>
       </c>
       <c r="E18" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="F18" t="s">
         <v>186</v>
@@ -5195,22 +5150,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>585</v>
+        <v>614</v>
       </c>
       <c r="B19" t="s">
-        <v>343</v>
+        <v>615</v>
       </c>
       <c r="C19" t="s">
-        <v>360</v>
+        <v>595</v>
       </c>
       <c r="D19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G19" t="s">
         <v>192</v>
@@ -5218,25 +5173,34 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>586</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>587</v>
+        <v>522</v>
       </c>
       <c r="D20" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="E20" t="s">
-        <v>490</v>
+        <v>188</v>
       </c>
       <c r="F20" t="s">
-        <v>495</v>
+        <v>305</v>
       </c>
       <c r="G20" t="s">
-        <v>192</v>
+        <v>524</v>
+      </c>
+      <c r="H20" t="s">
+        <v>589</v>
+      </c>
+      <c r="I20" t="s">
+        <v>327</v>
+      </c>
+      <c r="J20" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -5244,45 +5208,45 @@
         <v>588</v>
       </c>
       <c r="B21" t="s">
-        <v>193</v>
+        <v>535</v>
       </c>
       <c r="C21" t="s">
-        <v>266</v>
+        <v>181</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="G21" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="H21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>555</v>
       </c>
       <c r="C22" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="D22" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E22" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F22" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G22" t="s">
         <v>192</v>
@@ -5290,39 +5254,39 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="B23" t="s">
-        <v>211</v>
+        <v>589</v>
       </c>
       <c r="C23" t="s">
-        <v>194</v>
+        <v>308</v>
       </c>
       <c r="D23" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="E23" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>591</v>
+        <v>311</v>
       </c>
       <c r="B24" t="s">
-        <v>516</v>
+        <v>189</v>
       </c>
       <c r="C24" t="s">
-        <v>517</v>
+        <v>219</v>
       </c>
       <c r="D24" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" t="s">
         <v>276</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>277</v>
-      </c>
-      <c r="F24" t="s">
-        <v>278</v>
       </c>
       <c r="G24" t="s">
         <v>188</v>
@@ -5330,13 +5294,13 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="C25" t="s">
-        <v>194</v>
+        <v>316</v>
       </c>
       <c r="D25" t="s">
         <v>267</v>
@@ -5350,16 +5314,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>592</v>
+        <v>322</v>
       </c>
       <c r="B26" t="s">
-        <v>193</v>
+        <v>323</v>
       </c>
       <c r="C26" t="s">
         <v>182</v>
       </c>
       <c r="D26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E26" t="s">
         <v>183</v>
@@ -5373,13 +5337,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>593</v>
+        <v>324</v>
       </c>
       <c r="B27" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C27" t="s">
-        <v>595</v>
+        <v>238</v>
       </c>
       <c r="D27" t="s">
         <v>230</v>
@@ -5397,10 +5361,10 @@
         <v>210</v>
       </c>
       <c r="I27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J27" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K27" t="s">
         <v>198</v>
@@ -5408,39 +5372,39 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B28" t="s">
-        <v>278</v>
+        <v>600</v>
       </c>
       <c r="C28" t="s">
+        <v>526</v>
+      </c>
+      <c r="D28" t="s">
+        <v>527</v>
+      </c>
+      <c r="E28" t="s">
+        <v>528</v>
+      </c>
+      <c r="F28" t="s">
+        <v>529</v>
+      </c>
+      <c r="G28" t="s">
+        <v>530</v>
+      </c>
+      <c r="H28" t="s">
         <v>531</v>
-      </c>
-      <c r="D28" t="s">
-        <v>532</v>
-      </c>
-      <c r="E28" t="s">
-        <v>533</v>
-      </c>
-      <c r="F28" t="s">
-        <v>534</v>
-      </c>
-      <c r="G28" t="s">
-        <v>535</v>
-      </c>
-      <c r="H28" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>597</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s">
-        <v>580</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s">
-        <v>598</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
         <v>208</v>
@@ -5457,7 +5421,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>313</v>
+        <v>601</v>
       </c>
       <c r="B30" t="s">
         <v>189</v>
@@ -5469,24 +5433,24 @@
         <v>190</v>
       </c>
       <c r="E30" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F30" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>599</v>
+        <v>499</v>
       </c>
       <c r="B31" t="s">
+        <v>500</v>
+      </c>
+      <c r="C31" t="s">
+        <v>309</v>
+      </c>
+      <c r="D31" t="s">
         <v>310</v>
-      </c>
-      <c r="C31" t="s">
-        <v>311</v>
-      </c>
-      <c r="D31" t="s">
-        <v>312</v>
       </c>
       <c r="E31" t="s">
         <v>233</v>
@@ -5497,28 +5461,28 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>600</v>
+        <v>558</v>
       </c>
       <c r="B32" t="s">
-        <v>601</v>
+        <v>559</v>
       </c>
       <c r="C32" t="s">
+        <v>560</v>
+      </c>
+      <c r="D32" t="s">
+        <v>507</v>
+      </c>
+      <c r="E32" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" t="s">
         <v>531</v>
-      </c>
-      <c r="D32" t="s">
-        <v>532</v>
-      </c>
-      <c r="E32" t="s">
-        <v>533</v>
-      </c>
-      <c r="F32" t="s">
-        <v>534</v>
-      </c>
-      <c r="G32" t="s">
-        <v>535</v>
-      </c>
-      <c r="H32" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -5526,13 +5490,13 @@
         <v>602</v>
       </c>
       <c r="B33" t="s">
-        <v>603</v>
+        <v>508</v>
       </c>
       <c r="C33" t="s">
-        <v>279</v>
+        <v>509</v>
       </c>
       <c r="D33" t="s">
-        <v>280</v>
+        <v>510</v>
       </c>
       <c r="E33" t="s">
         <v>233</v>
@@ -5546,13 +5510,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>604</v>
+        <v>352</v>
       </c>
       <c r="B34" t="s">
         <v>188</v>
       </c>
       <c r="C34" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D34" t="s">
         <v>246</v>
@@ -5563,30 +5527,30 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>281</v>
+        <v>561</v>
       </c>
       <c r="B35" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="D35" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E35" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F35" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="B36" t="s">
-        <v>188</v>
+        <v>345</v>
       </c>
       <c r="C36" t="s">
         <v>235</v>
@@ -5604,7 +5568,7 @@
         <v>216</v>
       </c>
       <c r="H36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I36" t="s">
         <v>236</v>
@@ -5613,81 +5577,81 @@
         <v>217</v>
       </c>
       <c r="K36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>284</v>
+        <v>513</v>
       </c>
       <c r="B37" t="s">
-        <v>349</v>
+        <v>514</v>
       </c>
       <c r="C37" t="s">
-        <v>350</v>
+        <v>515</v>
       </c>
       <c r="D37" t="s">
-        <v>351</v>
+        <v>275</v>
       </c>
       <c r="E37" t="s">
-        <v>352</v>
+        <v>276</v>
       </c>
       <c r="F37" t="s">
-        <v>353</v>
+        <v>277</v>
       </c>
       <c r="G37" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="B38" t="s">
-        <v>605</v>
+        <v>241</v>
       </c>
       <c r="C38" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D38" t="s">
+        <v>243</v>
+      </c>
+      <c r="E38" t="s">
         <v>269</v>
-      </c>
-      <c r="E38" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>606</v>
+        <v>244</v>
       </c>
       <c r="B39" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C39" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D39" t="s">
+        <v>275</v>
+      </c>
+      <c r="E39" t="s">
         <v>276</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>277</v>
-      </c>
-      <c r="F39" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>607</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s">
-        <v>608</v>
+        <v>304</v>
       </c>
       <c r="C40" t="s">
-        <v>609</v>
+        <v>250</v>
       </c>
       <c r="D40" t="s">
-        <v>509</v>
+        <v>251</v>
       </c>
       <c r="E40" t="s">
         <v>205</v>
@@ -5701,19 +5665,19 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="B41" t="s">
-        <v>211</v>
+        <v>341</v>
       </c>
       <c r="C41" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="D41" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="E41" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="F41" t="s">
         <v>194</v>
@@ -5724,39 +5688,39 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>610</v>
+        <v>518</v>
       </c>
       <c r="B42" t="s">
-        <v>289</v>
+        <v>519</v>
       </c>
       <c r="C42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D42" t="s">
+        <v>494</v>
+      </c>
+      <c r="E42" t="s">
+        <v>495</v>
+      </c>
+      <c r="F42" t="s">
         <v>496</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>497</v>
-      </c>
-      <c r="F42" t="s">
-        <v>498</v>
-      </c>
-      <c r="G42" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>611</v>
+        <v>562</v>
       </c>
       <c r="B43" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C43" t="s">
         <v>182</v>
       </c>
       <c r="D43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E43" t="s">
         <v>183</v>
@@ -5764,28 +5728,28 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>612</v>
+        <v>563</v>
       </c>
       <c r="B44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C44" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D44" t="s">
+        <v>494</v>
+      </c>
+      <c r="E44" t="s">
+        <v>495</v>
+      </c>
+      <c r="F44" t="s">
         <v>496</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>497</v>
       </c>
-      <c r="F44" t="s">
-        <v>498</v>
-      </c>
-      <c r="G44" t="s">
-        <v>499</v>
-      </c>
       <c r="H44" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I44" t="s">
         <v>198</v>
@@ -5793,16 +5757,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B45" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D45" t="s">
         <v>279</v>
-      </c>
-      <c r="D45" t="s">
-        <v>280</v>
       </c>
       <c r="E45" t="s">
         <v>197</v>
@@ -5811,10 +5775,10 @@
         <v>210</v>
       </c>
       <c r="G45" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H45" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I45" t="s">
         <v>198</v>
@@ -5822,16 +5786,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>503</v>
+      </c>
+      <c r="B46" t="s">
+        <v>504</v>
+      </c>
+      <c r="C46" t="s">
         <v>505</v>
       </c>
-      <c r="B46" t="s">
-        <v>506</v>
-      </c>
-      <c r="C46" t="s">
-        <v>507</v>
-      </c>
       <c r="D46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E46" t="s">
         <v>183</v>
@@ -5842,10 +5806,10 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C47" t="s">
         <v>250</v>
@@ -5854,16 +5818,16 @@
         <v>251</v>
       </c>
       <c r="E47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F47" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G47" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H47" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I47" t="s">
         <v>198</v>
@@ -5871,22 +5835,22 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="B48" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C48" t="s">
         <v>205</v>
       </c>
       <c r="D48" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E48" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F48" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G48" t="s">
         <v>236</v>
@@ -5894,28 +5858,28 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>513</v>
+      </c>
+      <c r="B49" t="s">
+        <v>514</v>
+      </c>
+      <c r="C49" t="s">
         <v>515</v>
       </c>
-      <c r="B49" t="s">
-        <v>516</v>
-      </c>
-      <c r="C49" t="s">
-        <v>517</v>
-      </c>
       <c r="D49" t="s">
+        <v>275</v>
+      </c>
+      <c r="E49" t="s">
         <v>276</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>277</v>
       </c>
-      <c r="F49" t="s">
-        <v>278</v>
-      </c>
       <c r="G49" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H49" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I49" t="s">
         <v>198</v>
@@ -5923,7 +5887,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B50" t="s">
         <v>235</v>
@@ -5944,7 +5908,7 @@
         <v>236</v>
       </c>
       <c r="H50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I50" t="s">
         <v>236</v>
@@ -5953,7 +5917,7 @@
         <v>217</v>
       </c>
       <c r="K50" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -5979,7 +5943,7 @@
         <v>216</v>
       </c>
       <c r="H51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I51" t="s">
         <v>236</v>
@@ -5988,27 +5952,27 @@
         <v>217</v>
       </c>
       <c r="K51" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B52" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C52" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D52" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E52" t="s">
         <v>245</v>
       </c>
       <c r="F52" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G52" t="s">
         <v>236</v>
@@ -6016,21 +5980,21 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B53" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C53" t="s">
         <v>112</v>
       </c>
       <c r="D53" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B54" t="s">
         <v>189</v>
@@ -6045,7 +6009,7 @@
         <v>245</v>
       </c>
       <c r="F54" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -6071,7 +6035,7 @@
         <v>216</v>
       </c>
       <c r="H55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I55" t="s">
         <v>236</v>
@@ -6080,12 +6044,12 @@
         <v>217</v>
       </c>
       <c r="K55" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B56" t="s">
         <v>189</v>
@@ -6100,15 +6064,15 @@
         <v>187</v>
       </c>
       <c r="F56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B57" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C57" t="s">
         <v>235</v>
@@ -6126,7 +6090,7 @@
         <v>216</v>
       </c>
       <c r="H57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I57" t="s">
         <v>236</v>
@@ -6135,88 +6099,88 @@
         <v>217</v>
       </c>
       <c r="K57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B58" t="s">
+        <v>315</v>
+      </c>
+      <c r="C58" t="s">
         <v>316</v>
-      </c>
-      <c r="B58" t="s">
-        <v>317</v>
-      </c>
-      <c r="C58" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B59" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B60" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C60" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>318</v>
+      </c>
+      <c r="B61" t="s">
+        <v>303</v>
+      </c>
+      <c r="C61" t="s">
+        <v>319</v>
+      </c>
+      <c r="D61" t="s">
         <v>320</v>
-      </c>
-      <c r="B61" t="s">
-        <v>304</v>
-      </c>
-      <c r="C61" t="s">
-        <v>321</v>
-      </c>
-      <c r="D61" t="s">
-        <v>322</v>
       </c>
       <c r="E61" t="s">
         <v>187</v>
       </c>
       <c r="F61" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B62" t="s">
         <v>238</v>
       </c>
       <c r="C62" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B63" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C63" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D63" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E63" t="s">
         <v>187</v>
       </c>
       <c r="F63" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -6232,10 +6196,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B65" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C65" t="s">
         <v>112</v>
@@ -6255,7 +6219,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B66" t="s">
         <v>238</v>
@@ -6278,21 +6242,21 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B67" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C67" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>270</v>
+      </c>
+      <c r="B68" t="s">
         <v>271</v>
-      </c>
-      <c r="B68" t="s">
-        <v>272</v>
       </c>
       <c r="C68" t="s">
         <v>194</v>
@@ -6311,7 +6275,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B70" t="s">
         <v>218</v>
@@ -6334,7 +6298,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B71" t="s">
         <v>199</v>
@@ -6348,10 +6312,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>280</v>
+      </c>
+      <c r="B72" t="s">
         <v>281</v>
-      </c>
-      <c r="B72" t="s">
-        <v>282</v>
       </c>
       <c r="C72" t="s">
         <v>78</v>
@@ -6368,7 +6332,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B73" t="s">
         <v>211</v>
@@ -6377,10 +6341,10 @@
         <v>232</v>
       </c>
       <c r="D73" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E73" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F73" t="s">
         <v>194</v>
@@ -6391,19 +6355,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B74" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C74" t="s">
         <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E74" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F74" t="s">
         <v>194</v>
@@ -6414,7 +6378,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B75" t="s">
         <v>199</v>
@@ -6423,47 +6387,47 @@
         <v>76</v>
       </c>
       <c r="D75" t="s">
+        <v>339</v>
+      </c>
+      <c r="E75" t="s">
+        <v>340</v>
+      </c>
+      <c r="F75" t="s">
         <v>341</v>
       </c>
-      <c r="E75" t="s">
+      <c r="G75" t="s">
         <v>342</v>
-      </c>
-      <c r="F75" t="s">
-        <v>343</v>
-      </c>
-      <c r="G75" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B76" t="s">
+        <v>337</v>
+      </c>
+      <c r="C76" t="s">
+        <v>338</v>
+      </c>
+      <c r="D76" t="s">
         <v>339</v>
       </c>
-      <c r="C76" t="s">
+      <c r="E76" t="s">
         <v>340</v>
       </c>
-      <c r="D76" t="s">
+      <c r="F76" t="s">
         <v>341</v>
       </c>
-      <c r="E76" t="s">
+      <c r="G76" t="s">
         <v>342</v>
-      </c>
-      <c r="F76" t="s">
-        <v>343</v>
-      </c>
-      <c r="G76" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B77" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C77" t="s">
         <v>203</v>
@@ -6472,61 +6436,61 @@
         <v>204</v>
       </c>
       <c r="E77" t="s">
+        <v>340</v>
+      </c>
+      <c r="F77" t="s">
+        <v>341</v>
+      </c>
+      <c r="G77" t="s">
         <v>342</v>
-      </c>
-      <c r="F77" t="s">
-        <v>343</v>
-      </c>
-      <c r="G77" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B78" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C78" t="s">
+        <v>348</v>
+      </c>
+      <c r="D78" t="s">
+        <v>349</v>
+      </c>
+      <c r="E78" t="s">
         <v>350</v>
       </c>
-      <c r="D78" t="s">
+      <c r="F78" t="s">
         <v>351</v>
-      </c>
-      <c r="E78" t="s">
-        <v>352</v>
-      </c>
-      <c r="F78" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B79" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C79" t="s">
+        <v>348</v>
+      </c>
+      <c r="D79" t="s">
+        <v>349</v>
+      </c>
+      <c r="E79" t="s">
         <v>350</v>
       </c>
-      <c r="D79" t="s">
+      <c r="F79" t="s">
         <v>351</v>
-      </c>
-      <c r="E79" t="s">
-        <v>352</v>
-      </c>
-      <c r="F79" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B80" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C80" t="s">
         <v>203</v>
@@ -6535,15 +6499,15 @@
         <v>204</v>
       </c>
       <c r="E80" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F80" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B81" t="s">
         <v>211</v>
@@ -6552,10 +6516,10 @@
         <v>232</v>
       </c>
       <c r="D81" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E81" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F81" t="s">
         <v>194</v>
@@ -6566,7 +6530,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B82" t="s">
         <v>199</v>
@@ -6575,7 +6539,7 @@
         <v>76</v>
       </c>
       <c r="D82" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E82" t="s">
         <v>185</v>
@@ -6583,30 +6547,30 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>336</v>
+      </c>
+      <c r="B83" t="s">
+        <v>337</v>
+      </c>
+      <c r="C83" t="s">
         <v>338</v>
       </c>
-      <c r="B83" t="s">
+      <c r="D83" t="s">
         <v>339</v>
       </c>
-      <c r="C83" t="s">
+      <c r="E83" t="s">
         <v>340</v>
       </c>
-      <c r="D83" t="s">
+      <c r="F83" t="s">
         <v>341</v>
       </c>
-      <c r="E83" t="s">
+      <c r="G83" t="s">
         <v>342</v>
-      </c>
-      <c r="F83" t="s">
-        <v>343</v>
-      </c>
-      <c r="G83" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B84" t="s">
         <v>194</v>
@@ -6615,10 +6579,10 @@
         <v>232</v>
       </c>
       <c r="D84" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E84" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F84" t="s">
         <v>194</v>
@@ -6629,10 +6593,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B85" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C85" t="s">
         <v>76</v>
@@ -6646,61 +6610,61 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>346</v>
+      </c>
+      <c r="B86" t="s">
+        <v>347</v>
+      </c>
+      <c r="C86" t="s">
         <v>348</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D86" t="s">
         <v>349</v>
       </c>
-      <c r="C86" t="s">
+      <c r="E86" t="s">
         <v>350</v>
       </c>
-      <c r="D86" t="s">
+      <c r="F86" t="s">
         <v>351</v>
       </c>
-      <c r="E86" t="s">
-        <v>352</v>
-      </c>
-      <c r="F86" t="s">
-        <v>353</v>
-      </c>
       <c r="G86" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>286</v>
+      </c>
+      <c r="B87" t="s">
         <v>287</v>
       </c>
-      <c r="B87" t="s">
-        <v>288</v>
-      </c>
       <c r="C87" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B89" t="s">
         <v>231</v>
       </c>
       <c r="C89" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D89" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E89" t="s">
         <v>185</v>
@@ -6720,10 +6684,10 @@
         <v>243</v>
       </c>
       <c r="E90" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F90" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -6731,15 +6695,15 @@
         <v>244</v>
       </c>
       <c r="B91" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B92" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C92" t="s">
         <v>249</v>
@@ -6753,16 +6717,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B93" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C93" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E93" t="s">
         <v>185</v>
@@ -6789,10 +6753,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B96" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C96" t="s">
         <v>250</v>
@@ -6803,27 +6767,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B97" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C97" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>503</v>
+      </c>
+      <c r="B98" t="s">
+        <v>504</v>
+      </c>
+      <c r="C98" t="s">
         <v>505</v>
-      </c>
-      <c r="B98" t="s">
-        <v>506</v>
-      </c>
-      <c r="C98" t="s">
-        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -6855,7 +6819,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6896,13 +6860,13 @@
         <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E5" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7083,46 +7047,46 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B22" t="s">
         <v>193</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>264</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -7133,1897 +7097,1897 @@
         <v>190</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="100" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="102" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="103" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="104" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="105" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="108" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="110" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="111" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="112" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="119" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E119" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="120" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="122" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E122" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="123" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E123" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="124" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="125" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="126" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E126" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="127" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E127" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="128" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E131" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E134" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="135" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="136" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="137" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E137" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="138" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E138" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="139" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E139" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E142" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="143" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="144" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="147" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E147" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="150" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E150" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E151" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E152" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="156" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E157" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="158" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E158" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="159" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E159" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="160" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E161" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E162" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E163" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E164" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E165" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="166" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E166" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="167" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E167" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="168" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E168" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="169" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E169" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="170" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E170" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="171" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E171" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="172" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E172" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="173" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E173" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="174" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E174" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="175" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E175" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="176" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E176" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="177" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E177" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="178" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E178" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="179" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E179" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="180" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="181" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E181" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="182" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E182" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E183" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E184" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="185" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E185" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="186" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E186" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="187" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E187" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="188" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="189" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E189" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="190" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E190" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="191" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E191" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E192" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="193" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E193" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="194" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E194" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="195" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E195" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="196" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E196" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="197" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E197" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="198" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E198" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="199" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E199" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="200" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E200" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="201" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E201" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="202" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E202" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="203" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E203" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="204" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E204" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="205" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E205" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="206" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E206" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="207" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E207" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="208" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E208" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="209" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E209" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="210" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E210" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="211" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E211" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="212" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E212" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="213" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E213" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="214" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E214" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="215" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E215" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="216" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E216" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="217" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E217" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="218" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E218" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="219" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E219" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="220" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E220" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="221" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E221" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="222" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E222" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="223" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E223" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="224" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E224" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="225" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E225" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="226" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E226" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="227" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E227" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="228" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E228" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="229" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E229" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="230" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E230" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="231" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E231" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="232" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E232" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="233" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E233" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="234" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E234" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="235" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E235" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="236" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E236" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="237" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E237" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="238" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E238" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="239" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E239" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="240" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E240" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="241" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E241" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="242" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E242" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="243" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E243" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="244" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E244" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="245" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E245" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="246" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E246" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="247" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E247" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="248" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E248" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="249" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E249" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="250" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E250" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="251" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E251" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="252" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E252" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="253" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E253" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="254" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E254" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="255" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E255" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="256" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E256" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="257" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E257" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="258" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E258" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="259" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E259" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="260" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E260" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="261" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E261" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="262" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E262" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="263" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E263" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="264" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E264" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="265" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E265" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="266" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E266" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="267" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E267" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="268" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E268" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="269" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E269" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="270" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E270" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="271" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E271" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="272" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E272" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="273" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E273" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="274" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E274" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="275" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E275" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="276" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E276" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="277" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E277" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="278" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E278" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="279" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E279" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="280" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E280" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="281" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E281" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="282" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E282" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="283" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E283" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="284" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E284" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="285" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E285" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="286" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E286" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="287" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E287" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="288" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E288" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="289" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E289" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="290" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E290" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="291" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E291" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="292" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E292" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="293" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E293" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="294" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E294" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="295" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E295" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="296" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E296" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="297" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E297" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="298" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E298" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="299" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E299" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="300" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E300" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="301" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E301" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="302" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E302" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="303" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E303" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="304" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E304" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="305" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E305" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="306" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E306" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="307" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E307" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="308" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E308" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="309" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E309" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="310" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E310" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="311" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E311" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="312" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E312" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="313" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E313" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="314" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E314" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="315" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E315" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="316" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E316" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="317" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E317" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="318" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E318" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="319" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E319" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="320" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E320" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="321" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E321" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="322" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E322" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="323" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E323" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="324" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E324" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="325" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E325" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="326" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E326" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="327" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E327" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="328" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E328" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="329" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E329" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="330" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E330" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="331" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E331" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="332" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E332" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="333" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E333" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="334" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E334" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="335" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E335" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="336" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E336" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="337" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E337" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="338" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E338" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="339" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E339" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="340" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E340" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="341" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E341" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="342" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E342" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="343" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E343" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="344" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E344" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="345" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E345" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="346" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E346" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="347" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E347" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="348" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E348" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="349" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E349" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="350" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E350" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="351" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E351" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="352" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E352" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="353" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E353" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="354" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E354" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="355" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E355" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="356" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E356" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="357" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E357" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="358" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E358" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="359" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E359" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="360" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E360" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="361" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E361" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="362" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E362" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="363" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E363" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="364" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E364" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="365" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E365" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="366" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E366" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="367" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E367" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="368" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E368" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="369" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E369" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="370" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E370" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="371" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E371" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="372" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E372" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="373" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E373" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="374" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E374" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="375" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E375" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="376" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E376" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="377" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E377" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="378" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E378" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="379" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E379" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="380" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E380" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="381" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E381" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="382" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E382" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="383" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E383" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="384" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E384" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="385" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E385" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="386" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E386" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="387" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E387" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="388" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E388" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="389" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E389" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="390" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E390" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="391" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E391" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="392" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E392" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="393" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E393" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="394" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E394" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="395" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E395" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="396" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E396" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="397" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E397" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="398" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E398" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="399" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E399" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="400" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E400" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="401" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E401" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="402" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E402" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="403" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E403" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="404" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E404" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="405" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E405" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="406" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E406" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="407" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E407" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="408" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E408" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="409" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E409" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="410" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E410" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="411" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E411" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="412" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E412" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="413" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E413" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="414" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E414" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="415" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E415" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="416" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E416" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="417" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E417" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="418" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E418" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="419" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E419" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="420" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E420" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="421" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E421" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="422" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E422" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="423" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E423" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="424" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E424" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="425" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E425" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="426" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E426" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="427" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E427" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="428" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E428" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="429" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E429" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="430" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E430" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="431" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E431" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="432" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E432" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="433" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E433" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="434" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E434" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="435" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E435" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="436" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E436" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="437" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E437" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="438" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E438" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="439" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E439" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="440" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E440" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="441" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E441" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="442" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E442" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="443" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E443" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="444" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E444" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="445" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E445" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="446" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E446" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="447" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E447" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="448" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E448" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="449" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E449" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="450" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E450" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="451" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E451" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="452" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E452" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="453" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E453" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="454" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E454" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="455" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E455" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="456" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E456" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="457" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E457" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="458" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E458" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="459" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E459" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="460" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E460" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="461" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E461" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="462" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E462" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="463" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E463" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -9038,7 +9002,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9067,215 +9031,215 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>603</v>
       </c>
       <c r="B2" t="s">
-        <v>614</v>
+        <v>566</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D2" s="9">
-        <v>477.64462809899999</v>
+        <v>418.28</v>
       </c>
       <c r="E2">
-        <v>4200</v>
+        <v>5200</v>
       </c>
       <c r="F2">
-        <v>1050.8181818200001</v>
+        <v>1045.7</v>
       </c>
       <c r="G2">
-        <v>0.45454545454500001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>565</v>
       </c>
       <c r="B3" t="s">
-        <v>614</v>
+        <v>566</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D3" s="9">
-        <v>454.83471074400001</v>
+        <v>518.89599999999996</v>
       </c>
       <c r="E3">
-        <v>4900</v>
+        <v>4200</v>
       </c>
       <c r="F3">
-        <v>1000.63636364</v>
+        <v>1423.8</v>
       </c>
       <c r="G3">
-        <v>0.45454545454500001</v>
+        <v>0.36444444444399998</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>615</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>614</v>
+        <v>566</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D4" s="9">
-        <v>552.72727272700001</v>
+        <v>420.28</v>
       </c>
       <c r="E4">
-        <v>8800</v>
+        <v>6100</v>
       </c>
       <c r="F4">
-        <v>1216</v>
+        <v>1050.7</v>
       </c>
       <c r="G4">
-        <v>0.45454545454500001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="B5" t="s">
-        <v>617</v>
+        <v>566</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D5" s="9">
-        <v>518.89599999999996</v>
+        <v>419.68</v>
       </c>
       <c r="E5">
-        <v>4200</v>
+        <v>8500</v>
       </c>
       <c r="F5">
-        <v>1423.8</v>
+        <v>1049.2</v>
       </c>
       <c r="G5">
-        <v>0.36444444444399998</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>605</v>
       </c>
       <c r="B6" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D6" s="9">
-        <v>630.57749999999999</v>
+        <v>-632.79109775500001</v>
       </c>
       <c r="E6">
-        <v>8100</v>
+        <v>8600</v>
       </c>
       <c r="F6">
-        <v>1201.0999999999999</v>
+        <v>1144.58338095</v>
       </c>
       <c r="G6">
-        <v>0.52500000000000002</v>
+        <v>-0.55285714285700005</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>619</v>
+        <v>567</v>
       </c>
       <c r="B7" t="s">
-        <v>618</v>
+        <v>568</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D7" s="9">
-        <v>532.29750000000001</v>
+        <v>617.54</v>
       </c>
       <c r="E7">
-        <v>6500</v>
+        <v>3300</v>
       </c>
       <c r="F7">
-        <v>1013.9</v>
+        <v>1122.8</v>
       </c>
       <c r="G7">
-        <v>0.52500000000000002</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="B8" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D8" s="9">
-        <v>-611.83357469400005</v>
+        <v>483.28</v>
       </c>
       <c r="E8">
-        <v>9100</v>
+        <v>6700</v>
       </c>
       <c r="F8">
-        <v>1148.2131428600001</v>
+        <v>1208.2</v>
       </c>
       <c r="G8">
-        <v>-0.53285714285700003</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="B9" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D9" s="9">
-        <v>617.54</v>
+        <v>436.44</v>
       </c>
       <c r="E9">
-        <v>3300</v>
+        <v>5400</v>
       </c>
       <c r="F9">
-        <v>1122.8</v>
+        <v>1091.0999999999999</v>
       </c>
       <c r="G9">
-        <v>0.55000000000000004</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>624</v>
+        <v>526</v>
       </c>
       <c r="B10" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="C10" t="s">
         <v>162</v>
       </c>
       <c r="D10" s="9">
-        <v>512.00625000000002</v>
+        <v>466.16</v>
       </c>
       <c r="E10">
-        <v>5300</v>
+        <v>6800</v>
       </c>
       <c r="F10">
-        <v>975.25</v>
+        <v>1165.4000000000001</v>
       </c>
       <c r="G10">
-        <v>0.52500000000000002</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" s="9">
         <f>SUM(D2:D10)</f>
-        <v>3684.6902868759998</v>
+        <v>3147.764902245</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
@@ -9295,7 +9259,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -9311,16 +9275,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E1" t="s">
         <v>123</v>
@@ -9329,7 +9293,7 @@
         <v>124</v>
       </c>
       <c r="G1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9383,10 +9347,10 @@
         <v>10588735</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C4" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D4">
         <v>623.29999999999995</v>
@@ -9406,10 +9370,10 @@
         <v>10588737</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C5" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D5">
         <v>951</v>
@@ -9429,10 +9393,10 @@
         <v>10588743</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C6" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D6">
         <v>1489.75</v>
@@ -9452,10 +9416,10 @@
         <v>10588742</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D7">
         <v>3074.2</v>
@@ -9475,10 +9439,10 @@
         <v>10601885</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>626</v>
+        <v>569</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>627</v>
+        <v>570</v>
       </c>
       <c r="D8">
         <v>1533.6</v>
@@ -9498,10 +9462,10 @@
         <v>10601610</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>626</v>
+        <v>569</v>
       </c>
       <c r="C9" t="s">
-        <v>628</v>
+        <v>571</v>
       </c>
       <c r="D9">
         <v>2391.1</v>
@@ -9521,10 +9485,10 @@
         <v>10601690</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>626</v>
+        <v>569</v>
       </c>
       <c r="C10" t="s">
-        <v>629</v>
+        <v>572</v>
       </c>
       <c r="D10">
         <v>2961.2</v>
@@ -9544,10 +9508,10 @@
         <v>10601474</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>626</v>
+        <v>569</v>
       </c>
       <c r="C11" t="s">
-        <v>630</v>
+        <v>573</v>
       </c>
       <c r="D11">
         <v>6056.7</v>
@@ -9567,10 +9531,10 @@
         <v>10601139</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>626</v>
+        <v>569</v>
       </c>
       <c r="C12" t="s">
-        <v>631</v>
+        <v>574</v>
       </c>
       <c r="D12">
         <v>6694.5</v>
@@ -9590,10 +9554,10 @@
         <v>10600615</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>626</v>
+        <v>569</v>
       </c>
       <c r="C13" t="s">
-        <v>632</v>
+        <v>575</v>
       </c>
       <c r="D13">
         <v>7077.25</v>
@@ -9613,10 +9577,10 @@
         <v>10602745</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>626</v>
+        <v>569</v>
       </c>
       <c r="C14" t="s">
-        <v>633</v>
+        <v>576</v>
       </c>
       <c r="D14">
         <v>2745.3</v>
@@ -9636,10 +9600,10 @@
         <v>10602444</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>626</v>
+        <v>569</v>
       </c>
       <c r="C15" t="s">
-        <v>634</v>
+        <v>577</v>
       </c>
       <c r="D15">
         <v>2788.15</v>
@@ -9659,10 +9623,10 @@
         <v>10602274</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>626</v>
+        <v>569</v>
       </c>
       <c r="C16" t="s">
-        <v>635</v>
+        <v>578</v>
       </c>
       <c r="D16">
         <v>3447.3</v>
@@ -9682,10 +9646,10 @@
         <v>10602094</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>626</v>
+        <v>569</v>
       </c>
       <c r="C17" t="s">
-        <v>636</v>
+        <v>579</v>
       </c>
       <c r="D17">
         <v>5587.8</v>
@@ -9705,10 +9669,10 @@
         <v>10602135</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>626</v>
+        <v>569</v>
       </c>
       <c r="C18" t="s">
-        <v>637</v>
+        <v>580</v>
       </c>
       <c r="D18">
         <v>6139.375</v>
@@ -9728,10 +9692,10 @@
         <v>10601139</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>626</v>
+        <v>569</v>
       </c>
       <c r="C19" t="s">
-        <v>631</v>
+        <v>574</v>
       </c>
       <c r="D19">
         <v>6759.875</v>
@@ -9751,10 +9715,10 @@
         <v>10601553</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>626</v>
+        <v>569</v>
       </c>
       <c r="C20" t="s">
-        <v>638</v>
+        <v>581</v>
       </c>
       <c r="D20">
         <v>6759.875</v>

--- a/Fanduel.xlsx
+++ b/Fanduel.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="648">
   <si>
     <t>n_scripts_list</t>
   </si>
@@ -670,12 +670,6 @@
     <t>Jordan Eberle</t>
   </si>
   <si>
-    <t>Keith Aulie</t>
-  </si>
-  <si>
-    <t>Kris Letang</t>
-  </si>
-  <si>
     <t>Chris Neil</t>
   </si>
   <si>
@@ -700,9 +694,6 @@
     <t>Matt Niskanen</t>
   </si>
   <si>
-    <t>John Carlson</t>
-  </si>
-  <si>
     <t>Nathan Beaulieu</t>
   </si>
   <si>
@@ -757,9 +748,6 @@
     <t>Matt Read</t>
   </si>
   <si>
-    <t>Kris Versteeg</t>
-  </si>
-  <si>
     <t>Peter Holland</t>
   </si>
   <si>
@@ -784,9 +772,6 @@
     <t>Alexander Wennberg</t>
   </si>
   <si>
-    <t>Andrej Sekera</t>
-  </si>
-  <si>
     <t>Andrew Desjardins</t>
   </si>
   <si>
@@ -943,9 +928,6 @@
     <t>Mike Weaver</t>
   </si>
   <si>
-    <t>Luke Schenn</t>
-  </si>
-  <si>
     <t>Matt Halischuk</t>
   </si>
   <si>
@@ -979,12 +961,6 @@
     <t>Josh Bailey</t>
   </si>
   <si>
-    <t>Nathan Lieuwen</t>
-  </si>
-  <si>
-    <t>Michal Neuvirth</t>
-  </si>
-  <si>
     <t>Michael Hutchinson</t>
   </si>
   <si>
@@ -1000,21 +976,12 @@
     <t>David Dziurzynski</t>
   </si>
   <si>
-    <t>Andrew Hammond</t>
-  </si>
-  <si>
     <t>Andrew Ladd</t>
   </si>
   <si>
     <t>Andrew Shaw</t>
   </si>
   <si>
-    <t>Emerson Etem</t>
-  </si>
-  <si>
-    <t>Stu Bickel</t>
-  </si>
-  <si>
     <t>Bryan Bickell</t>
   </si>
   <si>
@@ -1153,9 +1120,6 @@
     <t>T.J. Galiardi</t>
   </si>
   <si>
-    <t>Alexander Semin</t>
-  </si>
-  <si>
     <t>Alexander Edler</t>
   </si>
   <si>
@@ -1519,9 +1483,6 @@
     <t>Stephane Robidas</t>
   </si>
   <si>
-    <t>Nick Holden</t>
-  </si>
-  <si>
     <t>Josh Anderson</t>
   </si>
   <si>
@@ -1570,12 +1531,6 @@
     <t>Thomas Vanek</t>
   </si>
   <si>
-    <t>Brenden Morrow</t>
-  </si>
-  <si>
-    <t>Joe Thornton</t>
-  </si>
-  <si>
     <t>John Moore</t>
   </si>
   <si>
@@ -1585,9 +1540,6 @@
     <t>Jason Demers</t>
   </si>
   <si>
-    <t>David Warsofsky</t>
-  </si>
-  <si>
     <t>David Wolf</t>
   </si>
   <si>
@@ -1600,12 +1552,6 @@
     <t>Tomas Jurco</t>
   </si>
   <si>
-    <t>Simon Gagne</t>
-  </si>
-  <si>
-    <t>Sam Gagner</t>
-  </si>
-  <si>
     <t>Justin Peters</t>
   </si>
   <si>
@@ -1642,18 +1588,9 @@
     <t>Martin Erat</t>
   </si>
   <si>
-    <t>Daniel Carcillo</t>
-  </si>
-  <si>
-    <t>Daniel Paille</t>
-  </si>
-  <si>
     <t>Johan Larsson</t>
   </si>
   <si>
-    <t>Jordan Martinook</t>
-  </si>
-  <si>
     <t>Alex Biega</t>
   </si>
   <si>
@@ -1711,27 +1648,15 @@
     <t>Player Map, best contest and performance data needs to be moved to db</t>
   </si>
   <si>
-    <t>Kevin Klein</t>
-  </si>
-  <si>
-    <t>Kevin Bieksa</t>
-  </si>
-  <si>
     <t>Kevin Hayes</t>
   </si>
   <si>
-    <t>Tomas Kaberle</t>
-  </si>
-  <si>
     <t>Tomas Hertl</t>
   </si>
   <si>
     <t>Tomas Tatar</t>
   </si>
   <si>
-    <t>Matthew Hackett</t>
-  </si>
-  <si>
     <t>Jeff Zatkoff</t>
   </si>
   <si>
@@ -1804,42 +1729,24 @@
     <t>Matt Puempel</t>
   </si>
   <si>
-    <t>Jamie McGinn</t>
-  </si>
-  <si>
     <t>Jason Williams</t>
   </si>
   <si>
-    <t>Joni Ortio</t>
-  </si>
-  <si>
     <t>Josh Manson</t>
   </si>
   <si>
     <t>Jason LaBarbera</t>
   </si>
   <si>
-    <t>Calvin Pickard</t>
-  </si>
-  <si>
     <t>Brad Winchester</t>
   </si>
   <si>
-    <t>Brad Thiessen</t>
-  </si>
-  <si>
     <t>Frans Nielsen</t>
   </si>
   <si>
     <t>Brad Boyes</t>
   </si>
   <si>
-    <t>Sheldon Brookbank</t>
-  </si>
-  <si>
-    <t>Josh Harding</t>
-  </si>
-  <si>
     <t>Mirco Mueller</t>
   </si>
   <si>
@@ -1852,9 +1759,6 @@
     <t>Dion Phaneuf</t>
   </si>
   <si>
-    <t>Joe Morrow</t>
-  </si>
-  <si>
     <t>Derick Brassard</t>
   </si>
   <si>
@@ -1876,18 +1780,9 @@
     <t>Brandon Saad</t>
   </si>
   <si>
-    <t>Niklas Backstrom</t>
-  </si>
-  <si>
-    <t>Nicklas Backstrom</t>
-  </si>
-  <si>
     <t>Nicklas Grossmann</t>
   </si>
   <si>
-    <t>Jason Zucker</t>
-  </si>
-  <si>
     <t>Taylor Hall</t>
   </si>
   <si>
@@ -1895,6 +1790,204 @@
   </si>
   <si>
     <t>[["LW","8478","87945","663"],["LW","15280","87944","655"],["RW","8263","87944","655"],["RW","9025","87945","660"],["C","8254","87944","655"],["C","14563","87945","660"],["D","8267","87944","655"],["D","23228","87945","660"],["G","8152","87946","653"]]</t>
+  </si>
+  <si>
+    <t>Carl Klingberg</t>
+  </si>
+  <si>
+    <t>Troy Grosenick</t>
+  </si>
+  <si>
+    <t>Troy Brouwer</t>
+  </si>
+  <si>
+    <t>Keith Kinkaid</t>
+  </si>
+  <si>
+    <t>Keith Yandle</t>
+  </si>
+  <si>
+    <t>Pascal Dupuis</t>
+  </si>
+  <si>
+    <t>Bobby Butler</t>
+  </si>
+  <si>
+    <t>Petr Mrazek</t>
+  </si>
+  <si>
+    <t>Petter Granberg</t>
+  </si>
+  <si>
+    <t>Jonas Gustavsson</t>
+  </si>
+  <si>
+    <t>Andrei Loktionov</t>
+  </si>
+  <si>
+    <t>Andrei Markov</t>
+  </si>
+  <si>
+    <t>Chad LaRose</t>
+  </si>
+  <si>
+    <t>Nathan Horton</t>
+  </si>
+  <si>
+    <t>Shawn Thornton</t>
+  </si>
+  <si>
+    <t>Todd Bertuzzi</t>
+  </si>
+  <si>
+    <t>Thomas McCollum</t>
+  </si>
+  <si>
+    <t>Vincent Trocheck</t>
+  </si>
+  <si>
+    <t>Martin Brodeur</t>
+  </si>
+  <si>
+    <t>John Klingberg</t>
+  </si>
+  <si>
+    <t>Carl Soderberg</t>
+  </si>
+  <si>
+    <t>Joey MacDonald</t>
+  </si>
+  <si>
+    <t>Peter Budaj</t>
+  </si>
+  <si>
+    <t>Craig Anderson</t>
+  </si>
+  <si>
+    <t>Joakim Andersson</t>
+  </si>
+  <si>
+    <t>Craig Adams</t>
+  </si>
+  <si>
+    <t>Ray Whitney</t>
+  </si>
+  <si>
+    <t>Ray Emery</t>
+  </si>
+  <si>
+    <t>Jeff Drouin-Deslauriers</t>
+  </si>
+  <si>
+    <t>Ruslan Fedotenko</t>
+  </si>
+  <si>
+    <t>Andrei Vasilevskii</t>
+  </si>
+  <si>
+    <t>Andrei Vasilevskiy</t>
+  </si>
+  <si>
+    <t>Martin Havlat</t>
+  </si>
+  <si>
+    <t>Martin Marincin</t>
+  </si>
+  <si>
+    <t>Marc Staal</t>
+  </si>
+  <si>
+    <t>Maxime Fortunus</t>
+  </si>
+  <si>
+    <t>Dan Ellis</t>
+  </si>
+  <si>
+    <t>Boone Jenner</t>
+  </si>
+  <si>
+    <t>Matt Tennyson</t>
+  </si>
+  <si>
+    <t>Matt Moulson</t>
+  </si>
+  <si>
+    <t>Jack Campbell</t>
+  </si>
+  <si>
+    <t>Brian Campbell</t>
+  </si>
+  <si>
+    <t>Andy Miele</t>
+  </si>
+  <si>
+    <t>Andy Greene</t>
+  </si>
+  <si>
+    <t>James Reimer</t>
+  </si>
+  <si>
+    <t>James Neal</t>
+  </si>
+  <si>
+    <t>James Sheppard</t>
+  </si>
+  <si>
+    <t>James van Riemsdyk</t>
+  </si>
+  <si>
+    <t>Louis Domingue</t>
+  </si>
+  <si>
+    <t>Rich Peverley</t>
+  </si>
+  <si>
+    <t>Ryane Clowe</t>
+  </si>
+  <si>
+    <t>Matt Climie</t>
+  </si>
+  <si>
+    <t>Martin Jones</t>
+  </si>
+  <si>
+    <t>Kevin Shattenkirk</t>
+  </si>
+  <si>
+    <t>Alec Martinez</t>
+  </si>
+  <si>
+    <t>Paul Martin</t>
+  </si>
+  <si>
+    <t>Matt Hendricks</t>
+  </si>
+  <si>
+    <t>Matt Hunwick</t>
+  </si>
+  <si>
+    <t>Paul Carey</t>
+  </si>
+  <si>
+    <t>Olli Maatta</t>
+  </si>
+  <si>
+    <t>Jakub Kindl</t>
+  </si>
+  <si>
+    <t>Johan Franzen</t>
+  </si>
+  <si>
+    <t>Jannik Hansen</t>
+  </si>
+  <si>
+    <t>Evgeni Malkin</t>
+  </si>
+  <si>
+    <t>Christian Ehrhoff</t>
+  </si>
+  <si>
+    <t>Joffrey Lupul</t>
   </si>
 </sst>
 </file>
@@ -2562,11 +2655,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="201491200"/>
-        <c:axId val="201492736"/>
+        <c:axId val="193491712"/>
+        <c:axId val="193493248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201491200"/>
+        <c:axId val="193491712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2575,7 +2668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201492736"/>
+        <c:crossAx val="193493248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2583,7 +2676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201492736"/>
+        <c:axId val="193493248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,7 +2687,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201491200"/>
+        <c:crossAx val="193491712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2707,11 +2800,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201525120"/>
-        <c:axId val="201526656"/>
+        <c:axId val="193525632"/>
+        <c:axId val="193527168"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="201525120"/>
+        <c:axId val="193525632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2720,7 +2813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201526656"/>
+        <c:crossAx val="193527168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2728,7 +2821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201526656"/>
+        <c:axId val="193527168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2739,7 +2832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201525120"/>
+        <c:crossAx val="193525632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3406,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3414,7 +3507,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3422,7 +3515,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3430,7 +3523,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3438,7 +3531,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3446,7 +3539,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3462,7 +3555,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3514,7 +3607,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>122</v>
@@ -3532,19 +3625,19 @@
         <v>124</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>166</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>125</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>180</v>
@@ -3680,10 +3773,10 @@
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
@@ -3695,7 +3788,7 @@
         <v>22</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3706,7 +3799,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>24</v>
@@ -3718,7 +3811,7 @@
         <v>50</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3775,7 +3868,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>55</v>
@@ -3818,7 +3911,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>32</v>
@@ -3858,7 +3951,7 @@
         <v>43</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>42</v>
@@ -3878,7 +3971,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>48</v>
@@ -3918,7 +4011,7 @@
         <v>88</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>48</v>
@@ -3930,7 +4023,7 @@
         <v>49</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3941,7 +4034,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>32</v>
@@ -4004,7 +4097,7 @@
         <v>92</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>93</v>
@@ -4024,7 +4117,7 @@
         <v>95</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>94</v>
@@ -4076,21 +4169,21 @@
         <v>31</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E20" s="6">
         <v>4</v>
@@ -4101,13 +4194,13 @@
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E21" s="6">
         <v>5</v>
@@ -4115,13 +4208,13 @@
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E22" s="6">
         <v>5</v>
@@ -4129,16 +4222,16 @@
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E23" s="6">
         <v>5</v>
@@ -4146,16 +4239,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="E24" s="6">
         <v>5</v>
@@ -4166,16 +4259,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="E25" s="6">
         <v>2</v>
@@ -4277,7 +4370,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4314,7 +4407,7 @@
         <v>158</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4332,7 +4425,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="B7">
         <f>COUNTA('Best Contests'!B:B)+1</f>
@@ -4341,7 +4434,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="B8" s="5">
         <f>COUNTA('Performance Monitoring'!A:A)+1</f>
@@ -4354,7 +4447,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="J10" t="s">
-        <v>616</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4675,10 +4768,10 @@
     <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>584</v>
       </c>
       <c r="C2" t="s">
         <v>199</v>
@@ -4690,13 +4783,13 @@
         <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I2" t="s">
         <v>184</v>
@@ -4705,129 +4798,129 @@
         <v>185</v>
       </c>
       <c r="K2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>586</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D3" t="s">
         <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>587</v>
       </c>
       <c r="B4" t="s">
         <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="D4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" t="s">
         <v>263</v>
-      </c>
-      <c r="E4" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="B5" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="C5" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F5" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="G5" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="H5" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="I5" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="J5" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="K5" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="L5" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="M5" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="N5" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="O5" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="P5" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="Q5" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="R5" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="S5" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="T5" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="U5" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="B6" t="s">
-        <v>611</v>
+        <v>590</v>
       </c>
       <c r="C6" t="s">
-        <v>612</v>
+        <v>578</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G6" t="s">
         <v>186</v>
@@ -4835,16 +4928,16 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B7" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="C7" t="s">
-        <v>302</v>
+        <v>192</v>
       </c>
       <c r="D7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E7" t="s">
         <v>205</v>
@@ -4858,16 +4951,16 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>499</v>
+        <v>561</v>
       </c>
       <c r="B8" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C8" t="s">
-        <v>298</v>
+        <v>497</v>
       </c>
       <c r="D8" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="E8" t="s">
         <v>205</v>
@@ -4881,115 +4974,115 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>352</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="D9" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="E9" t="s">
         <v>188</v>
       </c>
       <c r="F9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G9" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="H9" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="I9" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>591</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="C10" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E10" t="s">
         <v>183</v>
       </c>
       <c r="F10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" t="s">
+        <v>283</v>
+      </c>
+      <c r="I10" t="s">
+        <v>233</v>
+      </c>
+      <c r="J10" t="s">
         <v>215</v>
       </c>
-      <c r="G10" t="s">
-        <v>216</v>
-      </c>
-      <c r="H10" t="s">
-        <v>288</v>
-      </c>
-      <c r="I10" t="s">
-        <v>236</v>
-      </c>
-      <c r="J10" t="s">
-        <v>217</v>
-      </c>
       <c r="K10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>587</v>
+        <v>537</v>
       </c>
       <c r="B11" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="C11" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="D11" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E11" t="s">
         <v>188</v>
       </c>
       <c r="F11" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G11" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="H11" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I11" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="J11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K11" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>488</v>
+        <v>592</v>
       </c>
       <c r="B12" t="s">
-        <v>323</v>
+        <v>593</v>
       </c>
       <c r="C12" t="s">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="D12" t="s">
         <v>189</v>
@@ -5006,45 +5099,45 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B13" t="s">
-        <v>304</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E13" t="s">
         <v>188</v>
       </c>
       <c r="F13" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G13" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="H13" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="B14" t="s">
-        <v>512</v>
+        <v>596</v>
       </c>
       <c r="C14" t="s">
-        <v>525</v>
+        <v>261</v>
       </c>
       <c r="D14" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
       <c r="E14" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="F14" t="s">
         <v>191</v>
@@ -5055,19 +5148,19 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>322</v>
+        <v>597</v>
       </c>
       <c r="B15" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C15" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D15" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="E15" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F15" t="s">
         <v>191</v>
@@ -5078,51 +5171,51 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>240</v>
+        <v>598</v>
       </c>
       <c r="B16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C16" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D16" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="E16" t="s">
         <v>188</v>
       </c>
       <c r="F16" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G16" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="H16" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="I16" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J16" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B17" t="s">
-        <v>594</v>
+        <v>565</v>
       </c>
       <c r="C17" t="s">
-        <v>595</v>
+        <v>566</v>
       </c>
       <c r="D17" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="E17" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F17" t="s">
         <v>186</v>
@@ -5130,19 +5223,19 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>357</v>
+        <v>600</v>
       </c>
       <c r="B18" t="s">
-        <v>341</v>
+        <v>513</v>
       </c>
       <c r="C18" t="s">
-        <v>290</v>
+        <v>509</v>
       </c>
       <c r="D18" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="E18" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F18" t="s">
         <v>186</v>
@@ -5150,22 +5243,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>614</v>
+        <v>582</v>
       </c>
       <c r="B19" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="C19" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="D19" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="E19" t="s">
-        <v>491</v>
+        <v>263</v>
       </c>
       <c r="F19" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G19" t="s">
         <v>192</v>
@@ -5173,80 +5266,80 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>563</v>
       </c>
       <c r="B20" t="s">
-        <v>200</v>
+        <v>507</v>
       </c>
       <c r="C20" t="s">
-        <v>522</v>
+        <v>296</v>
       </c>
       <c r="D20" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="E20" t="s">
         <v>188</v>
       </c>
       <c r="F20" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G20" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="H20" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="I20" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J20" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="B21" t="s">
-        <v>535</v>
+        <v>297</v>
       </c>
       <c r="C21" t="s">
-        <v>181</v>
+        <v>353</v>
       </c>
       <c r="D21" t="s">
         <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F21" t="s">
         <v>182</v>
       </c>
       <c r="G21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H21" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="B22" t="s">
-        <v>555</v>
+        <v>298</v>
       </c>
       <c r="C22" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
       <c r="D22" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="E22" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F22" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="G22" t="s">
         <v>192</v>
@@ -5254,39 +5347,39 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="B23" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="C23" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D23" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E23" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>311</v>
+        <v>605</v>
       </c>
       <c r="B24" t="s">
-        <v>189</v>
+        <v>606</v>
       </c>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>607</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>480</v>
       </c>
       <c r="E24" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F24" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G24" t="s">
         <v>188</v>
@@ -5294,36 +5387,36 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>314</v>
+        <v>608</v>
       </c>
       <c r="B25" t="s">
-        <v>315</v>
+        <v>243</v>
       </c>
       <c r="C25" t="s">
-        <v>316</v>
+        <v>609</v>
       </c>
       <c r="D25" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E25" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>322</v>
+        <v>610</v>
       </c>
       <c r="B26" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C26" t="s">
         <v>182</v>
       </c>
       <c r="D26" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E26" t="s">
         <v>183</v>
@@ -5332,21 +5425,21 @@
         <v>182</v>
       </c>
       <c r="G26" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>324</v>
+        <v>611</v>
       </c>
       <c r="B27" t="s">
-        <v>598</v>
+        <v>567</v>
       </c>
       <c r="C27" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E27" t="s">
         <v>195</v>
@@ -5358,13 +5451,13 @@
         <v>197</v>
       </c>
       <c r="H27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I27" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="J27" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="K27" t="s">
         <v>198</v>
@@ -5372,48 +5465,48 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="B28" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="C28" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="D28" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="E28" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="F28" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="G28" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="H28" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>239</v>
+        <v>510</v>
       </c>
       <c r="B29" t="s">
-        <v>199</v>
+        <v>614</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>513</v>
       </c>
       <c r="D29" t="s">
-        <v>208</v>
+        <v>615</v>
       </c>
       <c r="E29" t="s">
-        <v>201</v>
+        <v>508</v>
       </c>
       <c r="F29" t="s">
-        <v>202</v>
+        <v>616</v>
       </c>
       <c r="G29" t="s">
         <v>188</v>
@@ -5421,56 +5514,56 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D30" t="s">
         <v>190</v>
       </c>
       <c r="E30" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="F30" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>499</v>
+        <v>618</v>
       </c>
       <c r="B31" t="s">
-        <v>500</v>
+        <v>209</v>
       </c>
       <c r="C31" t="s">
-        <v>309</v>
+        <v>194</v>
       </c>
       <c r="D31" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="E31" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="F31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>558</v>
+        <v>619</v>
       </c>
       <c r="B32" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="C32" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="D32" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="E32" t="s">
         <v>205</v>
@@ -5482,179 +5575,179 @@
         <v>207</v>
       </c>
       <c r="H32" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="B33" t="s">
-        <v>508</v>
+        <v>621</v>
       </c>
       <c r="C33" t="s">
-        <v>509</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="E33" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F33" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G33" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>352</v>
+        <v>622</v>
       </c>
       <c r="B34" t="s">
-        <v>188</v>
+        <v>623</v>
       </c>
       <c r="C34" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="D34" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="E34" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>561</v>
+        <v>624</v>
       </c>
       <c r="B35" t="s">
-        <v>288</v>
+        <v>625</v>
       </c>
       <c r="C35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D35" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="E35" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F35" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>344</v>
+        <v>626</v>
       </c>
       <c r="B36" t="s">
-        <v>345</v>
+        <v>497</v>
       </c>
       <c r="C36" t="s">
-        <v>235</v>
+        <v>507</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>627</v>
       </c>
       <c r="E36" t="s">
-        <v>183</v>
+        <v>628</v>
       </c>
       <c r="F36" t="s">
+        <v>629</v>
+      </c>
+      <c r="G36" t="s">
+        <v>214</v>
+      </c>
+      <c r="H36" t="s">
+        <v>283</v>
+      </c>
+      <c r="I36" t="s">
+        <v>233</v>
+      </c>
+      <c r="J36" t="s">
         <v>215</v>
       </c>
-      <c r="G36" t="s">
-        <v>216</v>
-      </c>
-      <c r="H36" t="s">
-        <v>288</v>
-      </c>
-      <c r="I36" t="s">
-        <v>236</v>
-      </c>
-      <c r="J36" t="s">
-        <v>217</v>
-      </c>
       <c r="K36" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>513</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="C37" t="s">
+        <v>499</v>
+      </c>
+      <c r="D37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E37" t="s">
+        <v>271</v>
+      </c>
+      <c r="F37" t="s">
+        <v>272</v>
+      </c>
+      <c r="G37" t="s">
         <v>515</v>
-      </c>
-      <c r="D37" t="s">
-        <v>275</v>
-      </c>
-      <c r="E37" t="s">
-        <v>276</v>
-      </c>
-      <c r="F37" t="s">
-        <v>277</v>
-      </c>
-      <c r="G37" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>240</v>
+        <v>630</v>
       </c>
       <c r="B38" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C38" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D38" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E38" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>244</v>
+        <v>631</v>
       </c>
       <c r="B39" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C39" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="D39" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E39" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F39" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>356</v>
+        <v>632</v>
       </c>
       <c r="B40" t="s">
-        <v>304</v>
+        <v>228</v>
       </c>
       <c r="C40" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="D40" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="E40" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="F40" t="s">
         <v>206</v>
@@ -5665,62 +5758,62 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>357</v>
+        <v>633</v>
       </c>
       <c r="B41" t="s">
-        <v>341</v>
+        <v>232</v>
       </c>
       <c r="C41" t="s">
-        <v>290</v>
+        <v>181</v>
       </c>
       <c r="D41" t="s">
-        <v>358</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>291</v>
+        <v>209</v>
       </c>
       <c r="F41" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="G41" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>518</v>
+        <v>634</v>
       </c>
       <c r="B42" t="s">
-        <v>519</v>
+        <v>272</v>
       </c>
       <c r="C42" t="s">
-        <v>300</v>
+        <v>508</v>
       </c>
       <c r="D42" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="E42" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="F42" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="G42" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>562</v>
+        <v>268</v>
       </c>
       <c r="B43" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="C43" t="s">
         <v>182</v>
       </c>
       <c r="D43" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E43" t="s">
         <v>183</v>
@@ -5728,28 +5821,28 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>563</v>
+        <v>309</v>
       </c>
       <c r="B44" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C44" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="D44" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="E44" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="F44" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="G44" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="H44" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="I44" t="s">
         <v>198</v>
@@ -5757,28 +5850,28 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>344</v>
+        <v>635</v>
       </c>
       <c r="B45" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C45" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D45" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E45" t="s">
         <v>197</v>
       </c>
       <c r="F45" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G45" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H45" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="I45" t="s">
         <v>198</v>
@@ -5786,48 +5879,48 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>503</v>
+        <v>269</v>
       </c>
       <c r="B46" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="C46" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="D46" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E46" t="s">
         <v>183</v>
       </c>
       <c r="F46" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>356</v>
+        <v>636</v>
       </c>
       <c r="B47" t="s">
-        <v>304</v>
+        <v>637</v>
       </c>
       <c r="C47" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D47" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E47" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F47" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="G47" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H47" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="I47" t="s">
         <v>198</v>
@@ -5835,51 +5928,51 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>564</v>
+        <v>294</v>
       </c>
       <c r="B48" t="s">
-        <v>507</v>
+        <v>209</v>
       </c>
       <c r="C48" t="s">
-        <v>205</v>
+        <v>638</v>
       </c>
       <c r="D48" t="s">
-        <v>516</v>
+        <v>639</v>
       </c>
       <c r="E48" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="F48" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="G48" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>513</v>
+        <v>313</v>
       </c>
       <c r="B49" t="s">
-        <v>514</v>
+        <v>567</v>
       </c>
       <c r="C49" t="s">
-        <v>515</v>
+        <v>234</v>
       </c>
       <c r="D49" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E49" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F49" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G49" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H49" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="I49" t="s">
         <v>198</v>
@@ -5887,140 +5980,155 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="B50" t="s">
-        <v>235</v>
+        <v>315</v>
       </c>
       <c r="C50" t="s">
-        <v>181</v>
+        <v>293</v>
       </c>
       <c r="D50" t="s">
         <v>71</v>
       </c>
       <c r="E50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F50" t="s">
         <v>182</v>
       </c>
       <c r="G50" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H50" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="I50" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J50" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K50" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>240</v>
+        <v>568</v>
       </c>
       <c r="B51" t="s">
-        <v>241</v>
+        <v>569</v>
       </c>
       <c r="C51" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D51" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E51" t="s">
+        <v>230</v>
+      </c>
+      <c r="F51" t="s">
+        <v>231</v>
+      </c>
+      <c r="G51" t="s">
+        <v>214</v>
+      </c>
+      <c r="H51" t="s">
+        <v>283</v>
+      </c>
+      <c r="I51" t="s">
         <v>233</v>
       </c>
-      <c r="F51" t="s">
-        <v>234</v>
-      </c>
-      <c r="G51" t="s">
-        <v>216</v>
-      </c>
-      <c r="H51" t="s">
-        <v>288</v>
-      </c>
-      <c r="I51" t="s">
-        <v>236</v>
-      </c>
       <c r="J51" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K51" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>518</v>
+        <v>265</v>
       </c>
       <c r="B52" t="s">
-        <v>519</v>
+        <v>266</v>
       </c>
       <c r="C52" t="s">
-        <v>369</v>
+        <v>194</v>
       </c>
       <c r="D52" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="E52" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F52" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="G52" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>532</v>
+        <v>235</v>
       </c>
       <c r="B53" t="s">
-        <v>533</v>
+        <v>199</v>
       </c>
       <c r="C53" t="s">
         <v>112</v>
       </c>
       <c r="D53" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>311</v>
+        <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C54" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="D54" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E54" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="F54" t="s">
-        <v>370</v>
+        <v>214</v>
+      </c>
+      <c r="G54" t="s">
+        <v>233</v>
+      </c>
+      <c r="H54" t="s">
+        <v>215</v>
+      </c>
+      <c r="I54" t="s">
+        <v>284</v>
+      </c>
+      <c r="J54" t="s">
+        <v>640</v>
+      </c>
+      <c r="K54" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>641</v>
       </c>
       <c r="B55" t="s">
         <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D55" t="s">
         <v>182</v>
@@ -6029,33 +6137,33 @@
         <v>183</v>
       </c>
       <c r="F55" t="s">
+        <v>213</v>
+      </c>
+      <c r="G55" t="s">
+        <v>214</v>
+      </c>
+      <c r="H55" t="s">
+        <v>283</v>
+      </c>
+      <c r="I55" t="s">
+        <v>233</v>
+      </c>
+      <c r="J55" t="s">
         <v>215</v>
       </c>
-      <c r="G55" t="s">
-        <v>216</v>
-      </c>
-      <c r="H55" t="s">
-        <v>288</v>
-      </c>
-      <c r="I55" t="s">
-        <v>236</v>
-      </c>
-      <c r="J55" t="s">
-        <v>217</v>
-      </c>
       <c r="K55" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>273</v>
+        <v>642</v>
       </c>
       <c r="B56" t="s">
         <v>189</v>
       </c>
       <c r="C56" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D56" t="s">
         <v>190</v>
@@ -6064,18 +6172,18 @@
         <v>187</v>
       </c>
       <c r="F56" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="B57" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="C57" t="s">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="D57" t="s">
         <v>182</v>
@@ -6084,111 +6192,114 @@
         <v>183</v>
       </c>
       <c r="F57" t="s">
+        <v>213</v>
+      </c>
+      <c r="G57" t="s">
+        <v>214</v>
+      </c>
+      <c r="H57" t="s">
+        <v>283</v>
+      </c>
+      <c r="I57" t="s">
+        <v>233</v>
+      </c>
+      <c r="J57" t="s">
         <v>215</v>
       </c>
-      <c r="G57" t="s">
-        <v>216</v>
-      </c>
-      <c r="H57" t="s">
-        <v>288</v>
-      </c>
-      <c r="I57" t="s">
-        <v>236</v>
-      </c>
-      <c r="J57" t="s">
-        <v>217</v>
-      </c>
       <c r="K57" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="B58" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C58" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="B59" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>274</v>
+        <v>643</v>
       </c>
       <c r="B60" t="s">
-        <v>315</v>
+        <v>514</v>
       </c>
       <c r="C60" t="s">
-        <v>316</v>
+        <v>644</v>
+      </c>
+      <c r="D60" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>318</v>
+        <v>570</v>
       </c>
       <c r="B61" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C61" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D61" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E61" t="s">
         <v>187</v>
       </c>
       <c r="F61" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>321</v>
+        <v>476</v>
       </c>
       <c r="B62" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C62" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>322</v>
+        <v>485</v>
       </c>
       <c r="B63" t="s">
-        <v>323</v>
+        <v>645</v>
       </c>
       <c r="C63" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D63" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E63" t="s">
         <v>187</v>
       </c>
       <c r="F63" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>237</v>
+        <v>646</v>
       </c>
       <c r="B64" t="s">
-        <v>209</v>
+        <v>351</v>
       </c>
       <c r="C64" t="s">
         <v>194</v>
@@ -6196,10 +6307,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>290</v>
+        <v>647</v>
       </c>
       <c r="B65" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C65" t="s">
         <v>112</v>
@@ -6219,10 +6330,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="B66" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C66" t="s">
         <v>192</v>
@@ -6242,32 +6353,44 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>325</v>
+        <v>538</v>
       </c>
       <c r="B67" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="C67" t="s">
-        <v>298</v>
+        <v>514</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>270</v>
+        <v>335</v>
       </c>
       <c r="B68" t="s">
-        <v>271</v>
+        <v>336</v>
       </c>
       <c r="C68" t="s">
-        <v>194</v>
+        <v>337</v>
+      </c>
+      <c r="D68" t="s">
+        <v>338</v>
+      </c>
+      <c r="E68" t="s">
+        <v>339</v>
+      </c>
+      <c r="F68" t="s">
+        <v>340</v>
+      </c>
+      <c r="G68" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="B69" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
       <c r="C69" t="s">
         <v>112</v>
@@ -6275,13 +6398,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="B70" t="s">
-        <v>218</v>
+        <v>307</v>
       </c>
       <c r="C70" t="s">
-        <v>192</v>
+        <v>308</v>
       </c>
       <c r="D70" t="s">
         <v>200</v>
@@ -6298,7 +6421,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="B71" t="s">
         <v>199</v>
@@ -6312,13 +6435,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>280</v>
+        <v>490</v>
       </c>
       <c r="B72" t="s">
-        <v>281</v>
+        <v>491</v>
       </c>
       <c r="C72" t="s">
-        <v>78</v>
+        <v>492</v>
       </c>
       <c r="D72" t="s">
         <v>200</v>
@@ -6332,53 +6455,53 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>282</v>
+        <v>539</v>
       </c>
       <c r="B73" t="s">
-        <v>211</v>
+        <v>494</v>
       </c>
       <c r="C73" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="D73" t="s">
-        <v>334</v>
+        <v>500</v>
       </c>
       <c r="E73" t="s">
-        <v>335</v>
+        <v>501</v>
       </c>
       <c r="F73" t="s">
         <v>194</v>
       </c>
       <c r="G73" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>283</v>
+        <v>579</v>
       </c>
       <c r="B74" t="s">
-        <v>281</v>
+        <v>580</v>
       </c>
       <c r="C74" t="s">
         <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E74" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F74" t="s">
         <v>194</v>
       </c>
       <c r="G74" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B75" t="s">
         <v>199</v>
@@ -6387,47 +6510,47 @@
         <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="E75" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="F75" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="G75" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="B76" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C76" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="D76" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="E76" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="F76" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="G76" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B77" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C77" t="s">
         <v>203</v>
@@ -6436,61 +6559,61 @@
         <v>204</v>
       </c>
       <c r="E77" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="F77" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="G77" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="B78" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="C78" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D78" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E78" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F78" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="B79" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="C79" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D79" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E79" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F79" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B80" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C80" t="s">
         <v>203</v>
@@ -6499,38 +6622,38 @@
         <v>204</v>
       </c>
       <c r="E80" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F80" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B81" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C81" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D81" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E81" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F81" t="s">
         <v>194</v>
       </c>
       <c r="G81" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B82" t="s">
         <v>199</v>
@@ -6539,7 +6662,7 @@
         <v>76</v>
       </c>
       <c r="D82" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="E82" t="s">
         <v>185</v>
@@ -6547,124 +6670,124 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B83" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C83" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="D83" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="E83" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="F83" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="G83" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B84" t="s">
         <v>194</v>
       </c>
       <c r="C84" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D84" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E84" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F84" t="s">
         <v>194</v>
       </c>
       <c r="G84" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B85" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C85" t="s">
         <v>76</v>
       </c>
       <c r="D85" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E85" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B86" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C86" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D86" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E86" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F86" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="G86" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>281</v>
+      </c>
+      <c r="B87" t="s">
+        <v>282</v>
+      </c>
+      <c r="C87" t="s">
+        <v>347</v>
+      </c>
+      <c r="D87" t="s">
         <v>286</v>
-      </c>
-      <c r="B87" t="s">
-        <v>287</v>
-      </c>
-      <c r="C87" t="s">
-        <v>358</v>
-      </c>
-      <c r="D87" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B88" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B89" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C89" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D89" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="E89" t="s">
         <v>185</v>
@@ -6672,61 +6795,61 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B90" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C90" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D90" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E90" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F90" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B91" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B92" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C92" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D92" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E92" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B93" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C93" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D93" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E93" t="s">
         <v>185</v>
@@ -6734,60 +6857,60 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B94" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C94" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D94" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B96" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C96" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D96" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B97" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C97" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D97" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="B98" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="C98" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -6819,7 +6942,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6860,13 +6983,13 @@
         <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="E5" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7047,46 +7170,46 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B22" t="s">
         <v>193</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C25" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -7097,1897 +7220,1897 @@
         <v>190</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="100" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="102" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="103" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="104" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="105" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="108" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="110" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="111" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="112" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E119" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="120" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="122" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E122" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="123" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E123" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="124" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="125" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="126" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E126" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="127" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E127" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="128" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E131" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E134" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="135" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="136" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="137" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E137" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="138" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E138" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="139" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E139" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E142" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="143" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="144" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="147" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E147" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="150" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E150" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E151" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E152" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="156" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E157" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="158" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E158" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="159" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E159" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="160" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E161" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E162" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E163" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E164" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E165" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="166" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E166" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="167" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E167" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="168" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E168" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="169" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E169" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="170" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E170" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="171" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E171" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="172" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E172" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="173" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E173" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="174" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E174" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="175" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E175" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="176" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E176" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="177" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E177" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="178" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E178" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="179" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E179" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="180" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="181" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E181" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="182" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E182" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="183" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E183" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="184" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E184" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="185" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E185" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="186" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E186" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="187" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E187" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="188" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="189" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E189" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="190" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E190" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="191" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E191" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="192" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E192" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="193" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E193" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="194" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E194" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="195" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E195" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="196" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E196" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="197" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E197" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="198" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E198" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="199" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E199" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="200" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E200" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="201" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E201" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="202" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E202" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
     <row r="203" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E203" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="204" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E204" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
     <row r="205" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E205" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="206" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E206" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="207" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E207" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="208" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E208" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="209" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E209" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="210" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E210" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="211" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E211" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="212" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E212" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="213" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E213" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="214" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E214" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="215" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E215" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="216" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E216" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E217" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E218" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="219" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E219" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="220" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E220" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="221" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E221" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E222" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="223" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E223" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E224" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="225" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E225" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="226" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E226" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="227" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E227" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="228" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E228" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="229" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E229" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="230" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E230" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="231" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E231" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="232" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E232" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="233" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E233" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="234" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E234" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="235" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E235" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="236" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E236" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="237" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E237" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="238" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E238" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="239" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E239" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="240" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E240" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="241" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E241" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="242" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E242" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="243" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E243" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="244" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E244" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="245" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E245" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="246" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E246" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="247" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E247" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="248" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E248" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="249" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E249" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="250" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E250" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="251" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E251" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="252" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E252" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="253" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E253" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="254" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E254" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="255" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E255" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="256" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E256" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="257" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E257" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="258" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E258" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="259" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E259" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="260" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E260" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="261" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E261" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="262" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E262" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="263" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E263" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="264" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E264" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="265" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E265" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="266" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E266" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="267" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E267" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="268" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E268" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="269" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E269" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="270" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E270" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="271" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E271" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="272" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E272" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="273" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E273" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="274" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E274" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="275" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E275" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="276" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E276" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="277" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E277" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="278" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E278" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="279" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E279" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="280" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E280" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="281" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E281" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="282" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E282" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="283" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E283" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="284" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E284" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="285" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E285" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="286" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E286" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="287" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E287" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="288" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E288" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="289" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E289" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="290" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E290" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="291" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E291" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="292" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E292" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="293" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E293" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="294" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E294" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="295" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E295" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="296" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E296" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="297" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E297" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="298" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E298" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="299" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E299" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="300" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E300" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="301" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E301" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="302" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E302" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="303" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E303" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="304" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E304" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="305" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E305" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="306" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E306" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="307" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E307" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="308" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E308" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="309" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E309" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="310" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E310" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="311" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E311" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="312" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E312" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="313" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E313" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="314" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E314" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="315" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E315" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="316" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E316" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="317" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E317" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="318" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E318" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="319" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E319" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="320" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E320" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="321" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E321" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="322" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E322" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="323" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E323" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="324" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E324" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="325" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E325" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="326" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E326" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="327" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E327" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="328" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E328" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="329" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E329" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="330" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E330" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="331" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E331" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="332" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E332" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="333" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E333" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="334" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E334" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="335" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E335" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="336" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E336" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="337" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E337" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="338" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E338" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="339" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E339" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="340" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E340" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="341" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E341" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="342" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E342" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="343" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E343" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="344" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E344" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="345" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E345" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="346" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E346" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="347" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E347" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="348" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E348" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="349" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E349" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="350" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E350" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="351" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E351" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="352" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E352" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
     </row>
     <row r="353" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E353" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
     </row>
     <row r="354" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E354" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="355" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E355" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="356" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E356" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="357" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E357" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="358" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E358" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="359" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E359" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="360" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E360" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="361" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E361" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
     </row>
     <row r="362" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E362" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="363" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E363" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="364" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E364" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
     </row>
     <row r="365" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E365" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="366" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E366" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
     </row>
     <row r="367" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E367" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="368" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E368" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
     </row>
     <row r="369" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E369" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="370" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E370" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="371" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E371" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="372" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E372" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="373" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E373" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="374" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E374" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="375" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E375" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="376" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E376" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="377" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E377" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="378" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E378" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="379" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E379" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="380" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E380" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="381" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E381" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="382" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E382" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="383" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E383" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="384" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E384" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="385" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E385" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="386" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E386" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="387" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E387" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="388" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E388" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="389" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E389" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="390" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E390" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="391" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E391" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="392" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E392" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="393" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E393" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="394" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E394" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="395" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E395" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="396" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E396" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="397" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E397" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="398" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E398" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="399" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E399" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="400" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E400" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="401" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E401" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="402" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E402" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="403" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E403" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="404" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E404" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="405" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E405" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="406" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E406" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="407" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E407" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="408" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E408" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="409" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E409" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="410" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E410" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="411" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E411" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="412" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E412" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="413" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E413" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="414" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E414" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="415" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E415" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="416" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E416" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="417" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E417" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="418" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E418" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="419" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E419" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="420" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E420" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="421" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E421" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="422" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E422" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="423" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E423" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
     <row r="424" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E424" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="425" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E425" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
     <row r="426" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E426" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="427" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E427" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="428" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E428" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="429" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E429" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="430" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E430" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="431" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E431" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="432" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E432" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="433" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E433" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="434" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E434" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
     </row>
     <row r="435" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E435" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
     </row>
     <row r="436" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E436" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="437" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E437" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
     <row r="438" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E438" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
     </row>
     <row r="439" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E439" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="440" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E440" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
     <row r="441" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E441" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
     </row>
     <row r="442" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E442" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="443" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E443" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="444" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E444" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="445" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E445" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
     </row>
     <row r="446" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E446" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="447" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E447" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
     </row>
     <row r="448" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E448" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
     </row>
     <row r="449" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E449" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="450" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E450" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
     </row>
     <row r="451" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E451" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="452" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E452" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="453" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E453" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="454" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E454" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="455" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E455" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="456" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E456" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="457" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E457" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
     </row>
     <row r="458" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E458" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="459" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E459" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="460" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E460" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
     </row>
     <row r="461" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E461" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="462" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E462" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
     </row>
     <row r="463" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E463" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -9031,10 +9154,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>603</v>
+        <v>571</v>
       </c>
       <c r="B2" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="C2" t="s">
         <v>160</v>
@@ -9054,10 +9177,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="B3" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="C3" t="s">
         <v>163</v>
@@ -9080,7 +9203,7 @@
         <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="C4" t="s">
         <v>162</v>
@@ -9100,10 +9223,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>604</v>
+        <v>572</v>
       </c>
       <c r="B5" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="C5" t="s">
         <v>161</v>
@@ -9123,10 +9246,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>605</v>
+        <v>573</v>
       </c>
       <c r="B6" t="s">
-        <v>606</v>
+        <v>574</v>
       </c>
       <c r="C6" t="s">
         <v>164</v>
@@ -9146,10 +9269,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="B7" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="C7" t="s">
         <v>163</v>
@@ -9169,10 +9292,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>607</v>
+        <v>575</v>
       </c>
       <c r="B8" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
       <c r="C8" t="s">
         <v>160</v>
@@ -9192,10 +9315,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>609</v>
+        <v>577</v>
       </c>
       <c r="B9" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
       <c r="C9" t="s">
         <v>161</v>
@@ -9215,10 +9338,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="B10" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
       <c r="C10" t="s">
         <v>162</v>
@@ -9275,16 +9398,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="E1" t="s">
         <v>123</v>
@@ -9293,7 +9416,7 @@
         <v>124</v>
       </c>
       <c r="G1" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9304,7 +9427,7 @@
         <v>42034</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D2" s="5">
         <v>1329.8</v>
@@ -9327,7 +9450,7 @@
         <v>42034</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D3" s="5">
         <v>1401.8</v>
@@ -9347,10 +9470,10 @@
         <v>10588735</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="C4" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="D4">
         <v>623.29999999999995</v>
@@ -9370,10 +9493,10 @@
         <v>10588737</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="C5" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="D5">
         <v>951</v>
@@ -9393,10 +9516,10 @@
         <v>10588743</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="C6" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="D6">
         <v>1489.75</v>
@@ -9416,10 +9539,10 @@
         <v>10588742</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="C7" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="D7">
         <v>3074.2</v>
@@ -9439,10 +9562,10 @@
         <v>10601885</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="D8">
         <v>1533.6</v>
@@ -9462,10 +9585,10 @@
         <v>10601610</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="C9" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="D9">
         <v>2391.1</v>
@@ -9485,10 +9608,10 @@
         <v>10601690</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="C10" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="D10">
         <v>2961.2</v>
@@ -9508,10 +9631,10 @@
         <v>10601474</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="C11" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="D11">
         <v>6056.7</v>
@@ -9531,10 +9654,10 @@
         <v>10601139</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="C12" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="D12">
         <v>6694.5</v>
@@ -9554,10 +9677,10 @@
         <v>10600615</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="C13" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="D13">
         <v>7077.25</v>
@@ -9577,10 +9700,10 @@
         <v>10602745</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="C14" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="D14">
         <v>2745.3</v>
@@ -9600,10 +9723,10 @@
         <v>10602444</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="C15" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="D15">
         <v>2788.15</v>
@@ -9623,10 +9746,10 @@
         <v>10602274</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="C16" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="D16">
         <v>3447.3</v>
@@ -9646,10 +9769,10 @@
         <v>10602094</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="C17" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="D17">
         <v>5587.8</v>
@@ -9669,10 +9792,10 @@
         <v>10602135</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="C18" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="D18">
         <v>6139.375</v>
@@ -9692,10 +9815,10 @@
         <v>10601139</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="C19" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="D19">
         <v>6759.875</v>
@@ -9715,10 +9838,10 @@
         <v>10601553</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="C20" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="D20">
         <v>6759.875</v>

--- a/Fanduel.xlsx
+++ b/Fanduel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="_ironspread_data_" sheetId="4" state="veryHidden" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Roster" sheetId="10" r:id="rId8"/>
     <sheet name="Best Contests" sheetId="12" r:id="rId9"/>
     <sheet name="Performance Monitoring" sheetId="13" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Player Mapping'!#REF!</definedName>
@@ -38,13 +39,13 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="610">
   <si>
     <t>n_scripts_list</t>
   </si>
@@ -724,9 +725,6 @@
     <t>C:\Users\Cole\Desktop\FanDuel\fanduel\modules\database_operations.py</t>
   </si>
   <si>
-    <t>Patrick Bordeleau</t>
-  </si>
-  <si>
     <t>Chris Tierney</t>
   </si>
   <si>
@@ -751,9 +749,6 @@
     <t>Peter Holland</t>
   </si>
   <si>
-    <t>Damien Brunner</t>
-  </si>
-  <si>
     <t>Scott Darling</t>
   </si>
   <si>
@@ -772,9 +767,6 @@
     <t>Alexander Wennberg</t>
   </si>
   <si>
-    <t>Andrew Desjardins</t>
-  </si>
-  <si>
     <t>Ryan White</t>
   </si>
   <si>
@@ -826,9 +818,6 @@
     <t>Patrick Dwyer</t>
   </si>
   <si>
-    <t>Patrick Wiercioch</t>
-  </si>
-  <si>
     <t>Jonathan Drouin</t>
   </si>
   <si>
@@ -853,9 +842,6 @@
     <t>Kristers Gudlevskis</t>
   </si>
   <si>
-    <t>Viatcheslav Voynov</t>
-  </si>
-  <si>
     <t>David Moss</t>
   </si>
   <si>
@@ -871,18 +857,12 @@
     <t>Gregory Campbell</t>
   </si>
   <si>
-    <t>Danny Taylor</t>
-  </si>
-  <si>
     <t>Manny Malhotra</t>
   </si>
   <si>
     <t>Quinton Howden</t>
   </si>
   <si>
-    <t>Grant Clitsome</t>
-  </si>
-  <si>
     <t>Allan York</t>
   </si>
   <si>
@@ -961,9 +941,6 @@
     <t>Josh Bailey</t>
   </si>
   <si>
-    <t>Michael Hutchinson</t>
-  </si>
-  <si>
     <t>Paul Bissonnette</t>
   </si>
   <si>
@@ -973,9 +950,6 @@
     <t>Paul Byron</t>
   </si>
   <si>
-    <t>David Dziurzynski</t>
-  </si>
-  <si>
     <t>Andrew Ladd</t>
   </si>
   <si>
@@ -985,15 +959,6 @@
     <t>Bryan Bickell</t>
   </si>
   <si>
-    <t>Peter Mueller</t>
-  </si>
-  <si>
-    <t>Mikkel Boedker</t>
-  </si>
-  <si>
-    <t>Mike Weber</t>
-  </si>
-  <si>
     <t>John Gibson</t>
   </si>
   <si>
@@ -1483,24 +1448,9 @@
     <t>Stephane Robidas</t>
   </si>
   <si>
-    <t>Josh Anderson</t>
-  </si>
-  <si>
     <t>Cam Atkinson</t>
   </si>
   <si>
-    <t>Michael Frolik</t>
-  </si>
-  <si>
-    <t>Michael Latta</t>
-  </si>
-  <si>
-    <t>Michael Del Zotto</t>
-  </si>
-  <si>
-    <t>Michael Bournival</t>
-  </si>
-  <si>
     <t>Evgeni Nabokov</t>
   </si>
   <si>
@@ -1534,9 +1484,6 @@
     <t>John Moore</t>
   </si>
   <si>
-    <t>Justin Williams</t>
-  </si>
-  <si>
     <t>Jason Demers</t>
   </si>
   <si>
@@ -1567,18 +1514,12 @@
     <t>Erik Karlsson</t>
   </si>
   <si>
-    <t>Jason Chimera</t>
-  </si>
-  <si>
     <t>Marian Hossa</t>
   </si>
   <si>
     <t>Martin St. Louis</t>
   </si>
   <si>
-    <t>Martin Hanzal</t>
-  </si>
-  <si>
     <t>Seth Jones</t>
   </si>
   <si>
@@ -1669,15 +1610,6 @@
     <t>Ryan McDonagh</t>
   </si>
   <si>
-    <t>['NYR', 'NYR', 'NYR', 'NYR', 'NYR', 'NYR', 'NYR', 'NYR', 'NYR', 'NYR']</t>
-  </si>
-  <si>
-    <t>Luca Sbisa</t>
-  </si>
-  <si>
-    <t>['VAN', 'VAN', 'VAN', 'VAN', 'VAN', 'VAN', 'VAN', 'VAN', 'VAN', 'VAN']</t>
-  </si>
-  <si>
     <t>19/02/2015</t>
   </si>
   <si>
@@ -1723,63 +1655,12 @@
     <t>C:\Users\Cole\Desktop\FanDuel\fanduel\modules\FD_operations.py</t>
   </si>
   <si>
-    <t>{u'MIN': [['Zach Parise', 'Mikko Koivu', 'Jason Pominville'], ['Thomas Vanek', 'Mikael Granlund', 'Justin Fontaine'], ['Nino Niederreiter', 'Charlie Coyle', 'Jordan Schroeder'], ['Stephane Veilleux', 'Erik Haula', 'Kyle Brodziak'], ['Ryan Suter', 'Jonas Brodin'], ['Marco Scandella', 'Christian Folin'], ['Nate Prosser', 'Mathew Dumba'], ['Zach Parise', 'Mikko Koivu', 'Thomas Vanek', 'Ryan Suter', 'Jason Pominville'], ['Nino Niederreiter', 'Mikael Granlund', 'Charlie Coyle', 'Marco Scandella', 'Mathew Dumba']], u'TOR': [['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel'], ['Daniel Winnik', 'Nazem Kadri', 'Richard Panik'], ['Leo Komarov', 'Olli Jokinen', 'David Clarkson'], ['David Booth', 'Peter Holland', 'Brandon Kozun'], ['Morgan Rielly', 'Roman Polak'], ['Jake Gardiner', 'Korbinian Holzer'], ['Stephane Robidas', 'Petter Granberg'], ['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel', 'Morgan Rielly', 'Nazem Kadri'], ['Richard Panik', 'Peter Holland', 'David Clarkson', 'Jake Gardiner', 'Stephane Robidas']], u'CAR': [['Eric Staal', 'Jordan Staal', 'Jiri Tlusty'], ['Nathan Gerbe', 'Victor Rask', 'Elias Lindholm'], ['Jeff Skinner', 'Riley Nash', 'Alexander Semin'], ['Brad Malone', 'Jay McClement', 'Andrej Nestrasil'], ['Andrej Sekera', 'Justin Faulk'], ['Tim Gleason', 'John-Michael Liles'], ['Ron Hainsey', 'Brett Bellemore'], ['Jiri Tlusty', 'Eric Staal', 'Elias Lindholm', 'John-Michael Liles', 'Justin Faulk'], ['Brad Malone', 'Jordan Staal', 'Riley Nash', 'Andrej Sekera', 'Jeff Skinner']], u'BOS': [['Milan Lucic', 'David Krejci', 'David Pastrnak'], ['Brad Marchand', 'Patrice Bergeron', 'Reilly Smith'], ['Chris Kelly', 'Carl Soderberg', 'Loui Eriksson'], ['Daniel Paille', 'Gregory Campbell', 'Brian Ferlin'], ['Zdeno Chara', 'Dougie Hamilton'], ['Matt Bartkowski', 'Dennis Seidenberg'], ['Torey Krug', 'Adam McQuaid'], ['Matt Bartkowski', 'Patrice Bergeron', 'Loui Eriksson', 'Reilly Smith', 'Dougie Hamilton'], ['Brad Marchand', 'David Krejci', 'Milan Lucic', 'Zdeno Chara', 'Torey Krug']], u'DET': [['Justin Abdelkader', 'Henrik Zetterberg', 'Teemu Pulkkinen'], ['Tomas Tatar', 'Pavel Datsyuk', 'Darren Helm'], ['Gustav Nyquist', 'Riley Sheahan', 'Stephen Weiss'], ['Drew Miller', 'Joakim Andersson', 'Luke Glendening'], ['Jonathan Ericsson', 'Niklas Kronwall'], ['Kyle Quincey', 'Dan DeKeyser'], ['Brendan Smith', 'Alexey Marchenko'], ['Gustav Nyquist', 'Henrik Zetterberg', 'Justin Abdelkader', 'Stephen Weiss', 'Niklas Kronwall'], ['Tomas Tatar', 'Pavel Datsyuk', 'Riley Sheahan', 'Teemu Pulkkinen', 'Dan DeKeyser']], u'NAS': [['Colin Wilson', 'Mike Ribeiro', 'James Neal'], ['Matt Cullen', 'Mike Fisher', 'Craig Smith'], ['Filip Forsberg', 'Calle Jarnkrok', 'Taylor Beck'], ['Eric Nystrom', 'Paul Gaustad', 'Gabriel Bourque'], ['Roman Josi', 'Shea Weber'], ['Anthony Bitetto', 'Seth Jones'], ['Mattias Ekholm', 'Victor Bartley'], ['Filip Forsberg', 'Mike Fisher', 'James Neal', 'Roman Josi', 'Shea Weber'], ['Colin Wilson', 'Mike Ribeiro', 'Craig Smith', 'Mattias Ekholm', 'Seth Jones']], u'NYI': [['Anders Lee', 'John Tavares', 'Josh Bailey'], ['Michael Grabner', 'Frans Nielsen', 'Ryan Strome'], ['Nikolay Kulemin', 'Brock Nelson', 'Cal Clutterbuck'], ['Matt Martin', 'Kael Mouillierat', 'Colin McDonald'], ['Nick Leddy', 'Johnny Boychuk'], ['Brian Strait', 'Travis Hamonic'], ['Thomas Hickey', 'Lubomir Visnovsky'], ['Anders Lee', 'John Tavares', 'Frans Nielsen', 'Nick Leddy', 'Johnny Boychuk'], ['Josh Bailey', 'Brock Nelson', 'Ryan Strome', 'Lubomir Visnovsky', 'Travis Hamonic']], u'FLA': [['Jussi Jokinen', 'Nick Bjugstad', 'Jimmy Hayes'], ['Jonathan Huberdeau', 'Aleksander Barkov', 'Brad Boyes'], ['Tomas Fleischmann', 'Dave Bolland', 'Scottie Upshall'], ['Tomas Kopecky', 'Derek MacKenzie', 'Shawn Thornton'], ['Brian Campbell', 'Aaron Ekblad'], ['Steve Kampfer', 'Erik Gudbranson'], ["Shane O'Brien", 'Alex Petrovic'], ['Jonathan Huberdeau', 'Nick Bjugstad', 'Jimmy Hayes', 'Aleksander Barkov', 'Aaron Ekblad'], ['Tomas Fleischmann', 'Dave Bolland', 'Brad Boyes', 'Brian Campbell', 'Jussi Jokinen']], u'COL': [['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon'], ['Max Talbot', 'Matt Duchene', 'Jarome Iginla'], ['Alex Tanguay', 'John Mitchell', 'Dennis Everberg'], ['Cody McLeod', 'Marc-Andre Cliche', 'Paul Carey'], ['Nate Guenin', 'Tyson Barrie'], ['Jan Hejda', 'Zach Redmond'], ['Brad Stuart', 'Nick Holden'], ['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon', 'Jarome Iginla', 'Tyson Barrie'], ['Alex Tanguay', 'Matt Duchene', 'John Mitchell', 'Nick Holden', 'Zach Redmond']], u'NJD': [['Adam Henrique', 'Patrik Elias', 'Steve Bernier'], ['Tuomo Ruutu', 'Scott Gomez', 'Jaromir Jagr'], ['Michael Cammalleri', 'Travis Zajac', 'Jordin Tootoo'], ['Dainius Zubrus', 'Jacob Josefson', 'Stephen Gionta'], ['Andy Greene', 'Adam Larsson'], ['Jon Merrill', 'Marek Zidlicky'], ['Eric Gelinas', 'Peter Harrold'], ['Steve Bernier', 'Scott Gomez', 'Jaromir Jagr', 'Eric Gelinas', 'Michael Cammalleri'], ['Patrik Elias', 'Adam Henrique', 'Jordin Tootoo', 'Travis Zajac', 'Marek Zidlicky']], u'DAL': [['Jamie Benn', 'Jason Spezza', 'Erik Cole'], ['Antoine Roussel', 'Cody Eakin', 'Ryan Garbutt'], ['Curtis McKenzie', 'Vernon Fiddler', 'Brett Ritchie'], ['Brendan Ranford', 'Shawn Horcoff', 'Colton Sceviour'], ['Alex Goligoski', 'John Klingberg'], ['Jyrki Jokipakka', 'Trevor Daley'], ['Jordie Benn', 'Jason Demers'], ['Jamie Benn', 'Jason Spezza', 'Brett Ritchie', 'Trevor Daley', 'John Klingberg'], ['Erik Cole', 'Cody Eakin', 'Curtis McKenzie', 'Alex Goligoski', 'Jason Demers']], u'CGY': [['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler'], ['Lance Bouma', 'Mikael Backlund', 'David Jones'], ['Curtis Glencross', 'Markus Granlund', 'Mason Raymond'], ['Brandon Bollig', 'Matt Stajan', 'Joe Colborne'], ['Mark Giordano', 'T.J. Brodie'], ['Kris Russell', 'Dennis Wideman'], ['Raphael Diaz', 'Deryk Engelland'], ['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler', 'T.J. Brodie', 'Dennis Wideman'], ['Mason Raymond', 'Mikael Backlund', 'David Jones', 'Mark Giordano', 'Raphael Diaz']], u'NYR': [['Rick Nash', 'Derick Brassard', 'Mats Zuccarello'], ['Chris Kreider', 'Derek Stepan', 'Martin St. Louis'], ['Carl Hagelin', 'Kevin Hayes', 'J.T. Miller'], ['Tanner Glass', 'Dominic Moore', 'Lee Stempniak'], ['Ryan McDonagh', 'Dan Girardi'], ['Marc Staal', 'Kevin Klein'], ['Dan Boyle', 'John Moore'], ['Rick Nash', 'Derick Brassard', 'Mats Zuccarello', 'Ryan McDonagh', 'Derek Stepan'], ['Chris Kreider', 'Kevin Hayes', 'Martin St. Louis', 'Dan Boyle', 'Dan Girardi']], u'SJS': [['Patrick Marleau', 'Joe Thornton', 'Melker Karlsson'], ['Joe Pavelski', 'Logan Couture', 'Tommy Wingels'], ['Matthew Nieto', 'James Sheppard', 'Tyler Kennedy'], ['Tomas Hertl', 'Chris Tierney', 'Andrew Desjardins'], ['Marc-Edouard Vlasic', 'Brent Burns'], ['Brenden Dillon', 'Justin Braun'], ['Matt Irwin', 'Scott Hannan'], ['Patrick Marleau', 'Joe Thornton', 'Logan Couture', 'Joe Pavelski', 'Brent Burns'], ['Melker Karlsson', 'Tomas Hertl', 'Matthew Nieto', 'Matt Irwin', 'Marc-Edouard Vlasic']], u'PIT': [['Chris Kunitz', 'Sidney Crosby', 'David Perron'], ['Blake Comeau', 'Evgeni Malkin', 'Patric Hornqvist'], ['Nick Spaling', 'Brandon Sutter', 'Beau Bennett'], ['Craig Adams', 'Maxim Lapierre', 'Steve Downie'], ['Paul Martin', 'Kris Letang'], ['Rob Scuderi', 'Simon Despres'], ['Derrick Pouliot', 'Robert Bortuzzo'], ['Chris Kunitz', 'Sidney Crosby', 'David Perron', 'Derrick Pouliot', 'Kris Letang'], ['Blake Comeau', 'Evgeni Malkin', 'Patric Hornqvist', 'Paul Martin', 'Simon Despres']], u'VAN': [['Daniel Sedin', 'Henrik Sedin', 'Alexandre Burrows'], ['Chris Higgins', 'Linden Vey', 'Radim Vrbata'], ['Brandon McMillan', 'Shawn Matthias', 'Derek Dorsett'], ['Ronalds Kenins', 'Bo Horvat', 'Jannik Hansen'], ['Dan Hamhuis', 'Yannick Weber'], ['Ryan Stanton', 'Adam Clendening'], ['Luca Sbisa', 'Alex Biega'], ['Daniel Sedin', 'Henrik Sedin', 'Radim Vrbata', 'Dan Hamhuis', 'Adam Clendening'], ['Chris Higgins', 'Linden Vey', 'Jannik Hansen', 'Alexandre Burrows', 'Yannick Weber']], u'STL': [['Alex Steen', 'David Backes', 'T.J. Oshie'], ['Jaden Schwartz', 'Jori Lehtera', 'Vladimir Tarasenko'], ['Dmitrij Jaskin', 'Paul Stastny', 'Patrik Berglund'], ['Steve Ott', 'Marcel Goc', 'Ryan Reaves'], ['Jay Bouwmeester', 'Alex Pietrangelo'], ['Carl Gunnarsson', 'Petteri Lindbohm'], ['Barret Jackman', 'Ian Cole'], ['David Backes', 'Paul Stastny', 'T.J. Oshie', 'Jay Bouwmeester', 'Alex Pietrangelo'], ['Jaden Schwartz', 'Jori Lehtera', 'Vladimir Tarasenko', 'Alex Steen', 'Dmitrij Jaskin']], u'CHI': [['Brandon Saad', 'Jonathan Toews', 'Marian Hossa'], ['Kris Versteeg', 'Brad Richards', 'Patrick Kane'], ['Bryan Bickell', 'Andrew Shaw', 'Ryan Hartman'], ['Patrick Sharp', 'Marcus Kruger', 'Ben Smith'], ['Duncan Keith', 'Michal Rozsival'], ['Niklas Hjalmarsson', 'Johnny Oduya'], ['Kyle Cumiskey', 'Brent Seabrook'], ['Brandon Saad', 'Jonathan Toews', 'Marian Hossa', 'Patrick Kane', 'Brent Seabrook'], ['Patrick Sharp', 'Brad Richards', 'Andrew Shaw', 'Duncan Keith', 'Michal Rozsival']], u'MTL': [['Max Pacioretty', 'David Desharnais', 'Dale Weise'], ['Alex Galchenyuk', 'Tomas Plekanec', 'Brendan Gallagher'], ['Brandon Prust', 'Lars Eller', 'Jiri Sekac'], ['Michael Bournival', 'Jacob De La Rose', 'Christian Thomas'], ['Andrei Markov', 'P.K. Subban'], ['Tom Gilbert', 'Alexei Emelin'], ['Nathan Beaulieu', 'Greg Pateryn'], ['Max Pacioretty', 'David Desharnais', 'Brendan Gallagher', 'Andrei Markov', 'P.K. Subban'], ['Alex Galchenyuk', 'Tomas Plekanec', 'Lars Eller', 'Nathan Beaulieu', 'Tom Gilbert']], u'PHI': [['Michael Raffl', 'Claude Giroux', 'Wayne Simmonds'], ['Matt Read', 'Sean Couturier', 'Jakub Voracek'], ['Ryan White', 'Brayden Schenn', 'R.J. Umberger'], ['Zac Rinaldo', 'Chris VandeVelde'], ['Nick Schultz', 'Mark Streit'], ['Michael Del Zotto', 'Braydon Coburn'], ['Nicklas Grossmann', 'Andrew MacDonald'], ['Brayden Schenn', 'Claude Giroux', 'Wayne Simmonds', 'Jakub Voracek', 'Mark Streit'], ['R.J. Umberger', 'Sean Couturier', 'Vincent Lecavalier', 'Matt Read', 'Michael Del Zotto']], u'ANA': [['Rene Bourque', 'Ryan Getzlaf', 'Corey Perry'], ['Andrew Cogliano', 'Ryan Kesler', 'Jakob Silfverberg'], ['Patrick Maroon', 'Rickard Rakell', 'Kyle Palmieri'], ['Devante Smith-Pelly', 'Nate Thompson', 'Emerson Etem'], ['Cam Fowler', 'Francois Beauchemin'], ['Clayton Stoner', 'Ben Lovejoy'], ['Eric Brewer', 'Josh Manson'], ['Patrick Maroon', 'Ryan Getzlaf', 'Ryan Kesler', 'Cam Fowler', 'Corey Perry'], ['Kyle Palmieri', 'Rickard Rakell', 'Rene Bourque', 'Jakob Silfverberg', 'Francois Beauchemin']], u'LAK': [['Marian Gaborik', 'Anze Kopitar', 'Trevor Lewis'], ['Dwight King', 'Jeff Carter', 'Tyler Toffoli'], ['Dustin Brown', 'Jarret Stoll', 'Justin Williams'], ['Kyle Clifford', 'Nick Shore', 'Jordan Nolan'], ['Robyn Regehr', 'Drew Doughty'], ['Jake Muzzin', 'Matt Greene'], ['Brayden McNabb', 'Jamie McBain'], ['Marian Gaborik', 'Anze Kopitar', 'Jeff Carter', 'Jake Muzzin', 'Drew Doughty'], ['Dwight King', 'Nick Shore', 'Tyler Toffoli', 'Brayden McNabb', 'Jamie McBain']], u'CBJ': [['Scott Hartnell', 'Ryan Johansen', 'Corey Tropp'], ['Matt Calvert', 'Brandon Dubinsky', 'Cam Atkinson'], ['Nick Foligno', 'Artem Anisimov', 'Marko Dano'], ['Jack Skille', 'Mark Letestu', 'Jared Boll'], ['Jack Johnson', 'David Savard'], ['Kevin Connauton', 'James Wisniewski'], ['Fedor Tyutin', 'Cody Goloubef'], ['Scott Hartnell', 'Ryan Johansen', 'Nick Foligno', 'Kevin Connauton', 'James Wisniewski'], ['Artem Anisimov', 'Brandon Dubinsky', 'Cam Atkinson', 'Jack Johnson', 'David Savard']], u'BUF': [['Chris Stewart', 'Zemgus  Girgensons', 'Tyler Ennis'], ['Matt Moulson', 'Torrey Mitchell', 'Brian Gionta'], ['Marcus Foligno', 'Brian Flynn', 'Nicolas Deslauriers'], ['Johan Larsson', 'Matt Ellis', 'Cody Hodgson'], ['Andre Benoit', 'Zach Bogosian'], ['Nikita Zadorov', 'Rasmus Ristolainen'], ['Mike Weber', 'Andrej Meszaros'], ['Matt Moulson', 'Zemgus  Girgensons', 'Chris Stewart', 'Tyler Ennis', 'Zach Bogosian'], ['Marcus Foligno', 'Brian Flynn', 'Brian Gionta', 'Nikita Zadorov', 'Rasmus Ristolainen']], u'EDM': [['Teddy Purcell', 'Ryan Nugent-Hopkins', 'Jordan Eberle'], ['Ryan  Hamilton', 'Derek Roy', 'Nail Yakupov'], ['Benoit Pouliot', 'Anton Lander', 'Iiro Pakarinen'], ['Matt Hendricks', 'Boyd Gordon', 'Matt Fraser'], ['Andrew Ference', 'Jeff Petry'], ['Oscar Klefbom', 'Justin Schultz'], ['Martin Marincin', 'Mark Fayne'], ['Teddy Purcell', 'Anton Lander', 'Jordan Eberle', 'Ryan Nugent-Hopkins', 'Justin Schultz'], ['Benoit Pouliot', 'Derek Roy', 'Iiro Pakarinen', 'Oscar Klefbom', 'Nail Yakupov']], u'TBL': [['Alex Killorn', 'Steven Stamkos', 'Ryan Callahan'], ['Ondrej Palat', 'Tyler Johnson', 'Nikita Kucherov'], ['Cedric Paquette', 'Valtteri Filppula', 'Brett Connolly'], ['Jonathan Drouin', 'Brian Boyle', 'J.T. Brown'], ['Victor Hedman', 'Andrej Sustr'], ['Mark Barberio', 'Anton Stralman'], ['Jason Garrison', 'Nikita Nesterov'], ['Alex Killorn', 'Steven Stamkos', 'Valtteri Filppula', 'Victor Hedman', 'Jason Garrison'], ['Ondrej Palat', 'Tyler Johnson', 'Ryan Callahan', 'Anton Stralman', 'Nikita Kucherov']], u'WIN': [['Andrew Ladd', 'Bryan Little', 'Blake Wheeler'], ['Michael Frolik', 'Mark Scheifele', 'Drew Stafford'], ['Chris Thorburn', 'Adam Lowry', 'T.J. Galiardi'], ['Carl Klingberg', 'Jim Slater', 'Anthony Peluso'], ['Ben Chiarot', 'Dustin Byfuglien'], ['Tobias Enstrom', 'Tyler Myers'], ['Mark Stuart', 'Jacob Trouba'], ['Andrew Ladd', 'Bryan Little', 'Blake Wheeler', 'Tobias Enstrom', 'Dustin Byfuglien'], ['Michael Frolik', 'Mark Scheifele', 'Drew Stafford', 'Jacob Trouba', 'Tyler Myers']], u'ARI': [['Lauri Korpikoski', 'Antoine Vermette', 'Martin Erat'], ['Tobias Rieder', 'Mark Arcobello', 'Sam Gagner'], ['Lucas Lessio', 'Kyle Chipchura', 'Shane Doan'], ['Jordan Martinook', 'Joe Vitale', 'David Moss'], ['Oliver Ekman-Larsson', 'Brandon Gormley'], ['Keith Yandle', 'Michael Stone'], ['Andrew Campbell', 'Connor Murphy'], ['Tobias Rieder', 'Antoine Vermette', 'Shane Doan', 'Oliver Ekman-Larsson', 'Keith Yandle'], ['Lauri Korpikoski', 'Sam Gagner', 'Martin Erat', 'Michael Stone', 'Connor Murphy']], u'OTT': [['Mike Hoffman', 'Mika Zibanejad', 'Bobby Ryan'], ['Milan Michalek', 'Kyle Turris', 'Mark Stone'], ['Matt Puempel', 'David Legwand', 'Alex Chiasson'], ['Erik Condra', 'Jean-Gabriel Pageau', 'Curtis Lazar'], ['Marc Methot', 'Erik Karlsson'], ['Cody Ceci', 'Jared Cowen'], ['Mark Borowiecki', 'Eric Gryba'], ['Milan Michalek', 'Kyle Turris', 'Mark Stone', 'Cody Ceci', 'Erik Karlsson'], ['David Legwand', 'Mika Zibanejad', 'Bobby Ryan', 'Mike Hoffman', 'Eric Gryba']]}</t>
-  </si>
-  <si>
-    <t>Matt Puempel</t>
-  </si>
-  <si>
-    <t>Jason Williams</t>
-  </si>
-  <si>
     <t>Josh Manson</t>
   </si>
   <si>
-    <t>Jason LaBarbera</t>
-  </si>
-  <si>
-    <t>Brad Winchester</t>
-  </si>
-  <si>
-    <t>Frans Nielsen</t>
-  </si>
-  <si>
-    <t>Brad Boyes</t>
-  </si>
-  <si>
-    <t>Mirco Mueller</t>
-  </si>
-  <si>
-    <t>Tim Sestito</t>
-  </si>
-  <si>
-    <t>Tim Gleason</t>
-  </si>
-  <si>
     <t>Dion Phaneuf</t>
   </si>
   <si>
-    <t>Derick Brassard</t>
-  </si>
-  <si>
-    <t>Rick Nash</t>
-  </si>
-  <si>
-    <t>Cory Schneider</t>
-  </si>
-  <si>
-    <t>['NJD', 'NJD', 'NJD', 'NJD', 'NJD', 'NJD', 'NJD']</t>
-  </si>
-  <si>
-    <t>Jonathan Toews</t>
-  </si>
-  <si>
-    <t>['CHI', 'CHI', 'CHI', 'CHI', 'CHI', 'CHI', 'CHI', 'CHI', 'CHI', 'CHI']</t>
-  </si>
-  <si>
-    <t>Brandon Saad</t>
-  </si>
-  <si>
     <t>Nicklas Grossmann</t>
   </si>
   <si>
@@ -1789,21 +1670,6 @@
     <t>Taylor Beck</t>
   </si>
   <si>
-    <t>[["LW","8478","87945","663"],["LW","15280","87944","655"],["RW","8263","87944","655"],["RW","9025","87945","660"],["C","8254","87944","655"],["C","14563","87945","660"],["D","8267","87944","655"],["D","23228","87945","660"],["G","8152","87946","653"]]</t>
-  </si>
-  <si>
-    <t>Carl Klingberg</t>
-  </si>
-  <si>
-    <t>Troy Grosenick</t>
-  </si>
-  <si>
-    <t>Troy Brouwer</t>
-  </si>
-  <si>
-    <t>Keith Kinkaid</t>
-  </si>
-  <si>
     <t>Keith Yandle</t>
   </si>
   <si>
@@ -1813,87 +1679,33 @@
     <t>Bobby Butler</t>
   </si>
   <si>
-    <t>Petr Mrazek</t>
-  </si>
-  <si>
-    <t>Petter Granberg</t>
-  </si>
-  <si>
-    <t>Jonas Gustavsson</t>
-  </si>
-  <si>
-    <t>Andrei Loktionov</t>
-  </si>
-  <si>
     <t>Andrei Markov</t>
   </si>
   <si>
-    <t>Chad LaRose</t>
-  </si>
-  <si>
     <t>Nathan Horton</t>
   </si>
   <si>
     <t>Shawn Thornton</t>
   </si>
   <si>
-    <t>Todd Bertuzzi</t>
-  </si>
-  <si>
-    <t>Thomas McCollum</t>
-  </si>
-  <si>
     <t>Vincent Trocheck</t>
   </si>
   <si>
-    <t>Martin Brodeur</t>
-  </si>
-  <si>
-    <t>John Klingberg</t>
-  </si>
-  <si>
     <t>Carl Soderberg</t>
   </si>
   <si>
-    <t>Joey MacDonald</t>
-  </si>
-  <si>
-    <t>Peter Budaj</t>
-  </si>
-  <si>
-    <t>Craig Anderson</t>
-  </si>
-  <si>
-    <t>Joakim Andersson</t>
-  </si>
-  <si>
-    <t>Craig Adams</t>
-  </si>
-  <si>
     <t>Ray Whitney</t>
   </si>
   <si>
     <t>Ray Emery</t>
   </si>
   <si>
-    <t>Jeff Drouin-Deslauriers</t>
-  </si>
-  <si>
-    <t>Ruslan Fedotenko</t>
-  </si>
-  <si>
     <t>Andrei Vasilevskii</t>
   </si>
   <si>
     <t>Andrei Vasilevskiy</t>
   </si>
   <si>
-    <t>Martin Havlat</t>
-  </si>
-  <si>
-    <t>Martin Marincin</t>
-  </si>
-  <si>
     <t>Marc Staal</t>
   </si>
   <si>
@@ -1906,9 +1718,6 @@
     <t>Boone Jenner</t>
   </si>
   <si>
-    <t>Matt Tennyson</t>
-  </si>
-  <si>
     <t>Matt Moulson</t>
   </si>
   <si>
@@ -1918,51 +1727,9 @@
     <t>Brian Campbell</t>
   </si>
   <si>
-    <t>Andy Miele</t>
-  </si>
-  <si>
-    <t>Andy Greene</t>
-  </si>
-  <si>
-    <t>James Reimer</t>
-  </si>
-  <si>
-    <t>James Neal</t>
-  </si>
-  <si>
-    <t>James Sheppard</t>
-  </si>
-  <si>
-    <t>James van Riemsdyk</t>
-  </si>
-  <si>
-    <t>Louis Domingue</t>
-  </si>
-  <si>
     <t>Rich Peverley</t>
   </si>
   <si>
-    <t>Ryane Clowe</t>
-  </si>
-  <si>
-    <t>Matt Climie</t>
-  </si>
-  <si>
-    <t>Martin Jones</t>
-  </si>
-  <si>
-    <t>Kevin Shattenkirk</t>
-  </si>
-  <si>
-    <t>Alec Martinez</t>
-  </si>
-  <si>
-    <t>Paul Martin</t>
-  </si>
-  <si>
-    <t>Matt Hendricks</t>
-  </si>
-  <si>
     <t>Matt Hunwick</t>
   </si>
   <si>
@@ -1972,15 +1739,6 @@
     <t>Olli Maatta</t>
   </si>
   <si>
-    <t>Jakub Kindl</t>
-  </si>
-  <si>
-    <t>Johan Franzen</t>
-  </si>
-  <si>
-    <t>Jannik Hansen</t>
-  </si>
-  <si>
     <t>Evgeni Malkin</t>
   </si>
   <si>
@@ -1988,6 +1746,135 @@
   </si>
   <si>
     <t>Joffrey Lupul</t>
+  </si>
+  <si>
+    <t>Christian Folin</t>
+  </si>
+  <si>
+    <t>Brian Ferlin</t>
+  </si>
+  <si>
+    <t>Ryan  Hamilton</t>
+  </si>
+  <si>
+    <t>Dylan Olsen</t>
+  </si>
+  <si>
+    <t>Matt Carkner</t>
+  </si>
+  <si>
+    <t>Jacob Markstrom</t>
+  </si>
+  <si>
+    <t>Calvin Pickard</t>
+  </si>
+  <si>
+    <t>Kevin Poulin</t>
+  </si>
+  <si>
+    <t>Kevin Klein</t>
+  </si>
+  <si>
+    <t>Benoit Pouliot</t>
+  </si>
+  <si>
+    <t>Keith Aulie</t>
+  </si>
+  <si>
+    <t>Anthony Duclair</t>
+  </si>
+  <si>
+    <t>Anthony Stolarz</t>
+  </si>
+  <si>
+    <t>Anthony Peluso</t>
+  </si>
+  <si>
+    <t>Kyle Okposo</t>
+  </si>
+  <si>
+    <t>Matthew Lombardi</t>
+  </si>
+  <si>
+    <t>Miikka Salomaki</t>
+  </si>
+  <si>
+    <t>Matt Donovan</t>
+  </si>
+  <si>
+    <t>Jamie McGinn</t>
+  </si>
+  <si>
+    <t>Tye McGinn</t>
+  </si>
+  <si>
+    <t>Kevin Bieksa</t>
+  </si>
+  <si>
+    <t>Josh Harding</t>
+  </si>
+  <si>
+    <t>Nathan Lieuwen</t>
+  </si>
+  <si>
+    <t>MacKenzie Skapski</t>
+  </si>
+  <si>
+    <t>Mackenzie Skapski</t>
+  </si>
+  <si>
+    <t>Stu Bickel</t>
+  </si>
+  <si>
+    <t>Tomas Kaberle</t>
+  </si>
+  <si>
+    <t>Matthew Hackett</t>
+  </si>
+  <si>
+    <t>John Tavares</t>
+  </si>
+  <si>
+    <t>{u'MIN': [['Nino Niederreiter', 'Mikko Koivu', 'Jason Pominville'], ['Zach Parise', 'Mikael Granlund', 'Justin Fontaine'], ['Thomas Vanek', 'Charlie Coyle', 'Jordan Schroeder'], ['Stephane Veilleux', 'Kyle Brodziak', 'Erik Haula'], ['Ryan Suter', 'Jonas Brodin'], ['Marco Scandella', 'Mathew Dumba'], ['Christian Folin', 'Nate Prosser'], ['Zach Parise', 'Mikko Koivu', 'Thomas Vanek', 'Ryan Suter', 'Jason Pominville'], ['Nino Niederreiter', 'Mikael Granlund', 'Charlie Coyle', 'Marco Scandella', 'Mathew Dumba']], u'TOR': [['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel'], ['Daniel Winnik', 'Nazem Kadri', 'Joffrey Lupul'], ['Leo Komarov', 'Olli Jokinen', 'David Clarkson'], ['David Booth', 'Peter Holland', 'Richard Panik'], ['Morgan Rielly', 'Roman Polak'], ['Jake Gardiner', 'Korbinian Holzer'], ['Stephane Robidas', 'Petter Granberg'], ['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel', 'Morgan Rielly', 'Nazem Kadri'], ['Joffrey Lupul', 'Peter Holland', 'David Clarkson', 'Jake Gardiner', 'Stephane Robidas']], u'CAR': [['Eric Staal', 'Jordan Staal', 'Jiri Tlusty'], ['Nathan Gerbe', 'Victor Rask', 'Elias Lindholm'], ['Jeff Skinner', 'Riley Nash', 'Alexander Semin'], ['Andrej Nestrasil', 'Jay McClement', 'Pat Dwyer'], ['Andrej Sekera', 'Justin Faulk'], ['John-Michael Liles', 'Tim Gleason'], ['Ron Hainsey', 'Brett Bellemore'], ['Jiri Tlusty', 'Eric Staal', 'Elias Lindholm', 'John-Michael Liles', 'Justin Faulk'], ['Brad Malone', 'Jordan Staal', 'Riley Nash', 'Andrej Sekera', 'Jeff Skinner']], u'BOS': [['Milan Lucic', 'Patrice Bergeron', 'David Pastrnak'], ['Brad Marchand', 'Ryan Spooner', 'Reilly Smith'], ['Chris Kelly', 'Carl Soderberg', 'Loui Eriksson'], ['Jordan Caron', 'Gregory Campbell', 'Brian Ferlin'], ['Zdeno Chara', 'Dougie Hamilton'], ['Matt Bartkowski', 'Dennis Seidenberg'], ['Torey Krug', 'Adam McQuaid'], ['Matt Bartkowski', 'Patrice Bergeron', 'Loui Eriksson', 'Reilly Smith', 'Dougie Hamilton'], ['Brad Marchand', 'Ryan Spooner', 'Milan Lucic', 'Zdeno Chara', 'Torey Krug']], u'DET': [['Justin Abdelkader', 'Henrik Zetterberg', 'Teemu Pulkkinen'], ['Tomas Tatar', 'Pavel Datsyuk', 'Darren Helm'], ['Gustav Nyquist', 'Riley Sheahan', 'Stephen Weiss'], ['Drew Miller', 'Luke Glendening', 'Tomas Jurco'], ['Jonathan Ericsson', 'Niklas Kronwall'], ['Jakub Kindl', 'Dan DeKeyser'], ['Brendan Smith', 'Alexey Marchenko'], ['Gustav Nyquist', 'Henrik Zetterberg', 'Justin Abdelkader', 'Stephen Weiss', 'Niklas Kronwall'], ['Tomas Tatar', 'Pavel Datsyuk', 'Riley Sheahan', 'Teemu Pulkkinen', 'Dan DeKeyser']], u'NAS': [['Colin Wilson', 'Mike Ribeiro', 'James Neal'], ['Filip Forsberg', 'Mike Fisher', 'Craig Smith'], ['Matt Cullen', 'Calle Jarnkrok', 'Mike Santorelli'], ['Eric Nystrom', 'Paul Gaustad', 'Gabriel Bourque'], ['Roman Josi', 'Shea Weber'], ['Victor Bartley', 'Seth Jones'], ['Mattias Ekholm', 'Cody Franson'], ['Filip Forsberg', 'Mike Fisher', 'James Neal', 'Roman Josi', 'Shea Weber'], ['Colin Wilson', 'Mike Ribeiro', 'Craig Smith', 'Cody Franson', 'Seth Jones']], u'NYI': [['Anders Lee', 'John Tavares', 'Josh Bailey'], ['Michael Grabner', 'Frans Nielsen', 'Ryan Strome'], ['Nikolay Kulemin', 'Brock Nelson', 'Cal Clutterbuck'], ['Matt Martin', 'Kael Mouillierat', 'Colin McDonald'], ['Nick Leddy', 'Johnny Boychuk'], ['Calvin de Haan', 'Travis Hamonic'], ['Lubomir Visnovsky', 'Thomas Hickey'], ['Anders Lee', 'John Tavares', 'Frans Nielsen', 'Nick Leddy', 'Johnny Boychuk'], ['Josh Bailey', 'Brock Nelson', 'Ryan Strome', 'Lubomir Visnovsky', 'Travis Hamonic']], u'FLA': [['Jussi Jokinen', 'Nick Bjugstad', 'Jimmy Hayes'], ['Jonathan Huberdeau', 'Aleksander Barkov', 'Brad Boyes'], ['Tomas Fleischmann', 'Dave Bolland', 'Scottie Upshall'], ['Tomas Kopecky', 'Derek MacKenzie', 'Shawn Thornton'], ['Brian Campbell', 'Aaron Ekblad'], ['Dmitry Kulikov', 'Erik Gudbranson'], ['Steve Kampfer', 'Alex Petrovic'], ['Jonathan Huberdeau', 'Nick Bjugstad', 'Jimmy Hayes', 'Aleksander Barkov', 'Aaron Ekblad'], ['Tomas Fleischmann', 'Dave Bolland', 'Jussi Jokinen', 'Brian Campbell', 'Dmitry Kulikov']], u'COL': [['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon'], ['Max Talbot', 'Matt Duchene', 'Jarome Iginla'], ['Alex Tanguay', 'John Mitchell', 'Dennis Everberg'], ['Cody McLeod', 'Marc-Andre Cliche', 'Paul Carey'], ['Jan Hejda', 'Zach Redmond'], ['Nate Guenin', 'Tyson Barrie'], ['Brad Stuart', 'Nick Holden'], ['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon', 'Jarome Iginla', 'Tyson Barrie'], ['Alex Tanguay', 'Matt Duchene', 'John Mitchell', 'Nick Holden', 'Zach Redmond']], u'NJD': [['Adam Henrique', 'Patrik Elias', 'Steve Bernier'], ['Tuomo Ruutu', 'Scott Gomez', 'Jaromir Jagr'], ['Michael Cammalleri', 'Travis Zajac', 'Jordin Tootoo'], ['Dainius Zubrus', 'Jacob Josefson', 'Stephen Gionta'], ['Andy Greene', 'Adam Larsson'], ['Jon Merrill', 'Marek Zidlicky'], ['Eric Gelinas', 'Peter Harrold'], ['Steve Bernier', 'Scott Gomez', 'Jaromir Jagr', 'Eric Gelinas', 'Michael Cammalleri'], ['Patrik Elias', 'Adam Henrique', 'Jordin Tootoo', 'Travis Zajac', 'Marek Zidlicky']], u'DAL': [['Jamie Benn', 'Jason Spezza', 'Erik Cole'], ['Antoine Roussel', 'Cody Eakin', 'Brett Ritchie'], ['Curtis McKenzie', 'Vernon Fiddler', 'Ales Hemsky'], ['Ryan Garbutt', 'Shawn Horcoff', 'Colton Sceviour'], ['Alex Goligoski', 'John Klingberg'], ['Jyrki Jokipakka', 'Trevor Daley'], ['Jordie Benn', 'Jason Demers'], ['Jamie Benn', 'Jason Spezza', 'Brett Ritchie', 'Trevor Daley', 'John Klingberg'], ['Erik Cole', 'Shawn Horcoff', 'Colton Sceviour', 'Alex Goligoski', 'Jason Demers']], u'CGY': [['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler'], ['Lance Bouma', 'Mikael Backlund', 'David Jones'], ['Curtis Glencross', 'Markus Granlund', 'Mason Raymond'], ['Brandon Bollig', 'Matt Stajan', 'Joe Colborne'], ['Mark Giordano', 'T.J. Brodie'], ['Kris Russell', 'Dennis Wideman'], ['Raphael Diaz', 'Deryk Engelland'], ['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler', 'T.J. Brodie', 'Dennis Wideman'], ['Mason Raymond', 'Mikael Backlund', 'David Jones', 'Mark Giordano', 'Raphael Diaz']], u'NYR': [['Rick Nash', 'Derick Brassard', 'Mats Zuccarello'], ['Chris Kreider', 'Derek Stepan', 'Martin St. Louis'], ['Carl Hagelin', 'Kevin Hayes', 'J.T. Miller'], ['Tanner Glass', 'Dominic Moore', 'Lee Stempniak'], ['Ryan McDonagh', 'Dan Girardi'], ['Marc Staal', 'Kevin Klein'], ['Dan Boyle', 'John Moore'], ['Rick Nash', 'Derick Brassard', 'Mats Zuccarello', 'Ryan McDonagh', 'Derek Stepan'], ['Chris Kreider', 'Kevin Hayes', 'Martin St. Louis', 'Dan Boyle', 'Dan Girardi']], u'SJS': [['Patrick Marleau', 'Joe Thornton', 'Melker Karlsson'], ['Joe Pavelski', 'Logan Couture', 'Tommy Wingels'], ['Matthew Nieto', 'James Sheppard', 'Tyler Kennedy'], ['Tomas Hertl', 'Andrew Desjardins', 'John Scott'], ['Marc-Edouard Vlasic', 'Brent Burns'], ['Brenden Dillon', 'Justin Braun'], ['Matt Irwin', 'Scott Hannan'], ['Patrick Marleau', 'Joe Thornton', 'Logan Couture', 'Joe Pavelski', 'Brent Burns'], ['Matthew Nieto', 'Tomas Hertl', 'Tommy Wingels', 'Matt Irwin', 'Marc-Edouard Vlasic']], u'PIT': [['Chris Kunitz', 'Sidney Crosby', 'David Perron'], ['Blake Comeau', 'Evgeni Malkin', 'Patric Hornqvist'], ['Nick Spaling', 'Brandon Sutter', 'Beau Bennett'], ['Craig Adams', 'Maxim Lapierre', 'Steve Downie'], ['Paul Martin', 'Kris Letang'], ['Christian Ehrhoff', 'Simon Despres'], ['Rob Scuderi', 'Robert Bortuzzo'], ['Chris Kunitz', 'Sidney Crosby', 'Patric Hornqvist', 'Evgeni Malkin', 'Kris Letang'], ['David Perron', 'Brandon Sutter', 'Steve Downie', 'Paul Martin', 'Christian Ehrhoff']], u'VAN': [['Daniel Sedin', 'Henrik Sedin', 'Zack Kassian'], ['Chris Higgins', 'Shawn Matthias', 'Radim Vrbata'], ['Brandon McMillan', 'Linden Vey', 'Derek Dorsett'], ['Ronalds Kenins', 'Bo Horvat', 'Jannik Hansen'], ['Dan Hamhuis', 'Yannick Weber'], ['Luca Sbisa', 'Alex Biega'], ['Ryan Stanton', 'Adam Clendening'], ['Daniel Sedin', 'Henrik Sedin', 'Linden Vey', 'Radim Vrbata', 'Adam Clendening'], ['Chris Higgins', 'Bo Horvat', 'Jannik Hansen', 'Dan Hamhuis', 'Yannick Weber']], u'STL': [['Alex Steen', 'David Backes', 'T.J. Oshie'], ['Jaden Schwartz', 'Jori Lehtera', 'Vladimir Tarasenko'], ['Dmitrij Jaskin', 'Paul Stastny', 'Patrik Berglund'], ['Steve Ott', 'Marcel Goc', 'Ryan Reaves'], ['Jay Bouwmeester', 'Alex Pietrangelo'], ['Carl Gunnarsson', 'Petteri Lindbohm'], ['Barret Jackman', 'Ian Cole'], ['David Backes', 'Paul Stastny', 'T.J. Oshie', 'Jay Bouwmeester', 'Alex Pietrangelo'], ['Jaden Schwartz', 'Jori Lehtera', 'Vladimir Tarasenko', 'Alex Steen', 'Dmitrij Jaskin']], u'CHI': [['Brandon Saad', 'Jonathan Toews', 'Marian Hossa'], ['Kris Versteeg', 'Brad Richards', 'Patrick Kane'], ['Bryan Bickell', 'Andrew Shaw', 'Dan Carcillo'], ['Patrick Sharp', 'Marcus Kruger', 'Ryan Hartman'], ['Duncan Keith', 'Michal Rozsival'], ['Johnny Oduya', 'Niklas Hjalmarsson'], ['Kyle Cumiskey', 'Brent Seabrook'], ['Brandon Saad', 'Jonathan Toews', 'Marian Hossa', 'Patrick Kane', 'Brent Seabrook'], ['Patrick Sharp', 'Brad Richards', 'Andrew Shaw', 'Duncan Keith', 'Michal Rozsival']], u'MTL': [['Max Pacioretty', 'David Desharnais', 'Brendan Gallagher'], ['Jiri Sekac', 'Tomas Plekanec', 'Lars Eller'], ['Brandon Prust', 'Jacob De La Rose', 'Dale Weise'], ['Michael Bournival', 'Manny Malhotra', 'Christian Thomas'], ['Andrei Markov', 'P.K. Subban'], ['Nathan Beaulieu', 'Tom Gilbert'], ['Jarred Tinordi', 'Greg Pateryn'], ['Max Pacioretty', 'David Desharnais', 'Brendan Gallagher', 'Andrei Markov', 'P.K. Subban'], ['Jiri Sekac', 'Tomas Plekanec', 'Lars Eller', 'Nathan Beaulieu', 'Tom Gilbert']], u'PHI': [['Michael Raffl', 'Claude Giroux', 'Wayne Simmonds'], ['Matt Read', 'Sean Couturier', 'Jakub Voracek'], ['Ryan White', 'Brayden Schenn', 'R.J. Umberger'], ['Chris VandeVelde', 'Zac Rinaldo'], ['Nick Schultz', 'Mark Streit'], ['Michael Del Zotto', 'Braydon Coburn'], ['Nicklas Grossmann', 'Andrew MacDonald'], ['Brayden Schenn', 'Claude Giroux', 'Wayne Simmonds', 'Jakub Voracek', 'Mark Streit'], ['R.J. Umberger', 'Sean Couturier', 'Michael Raffl', 'Matt Read', 'Michael Del Zotto']], u'ANA': [['Patrick Maroon', 'Ryan Getzlaf', 'Kyle Palmieri'], ['Devante Smith-Pelly', 'Ryan Kesler', 'Corey Perry'], ['Andrew Cogliano', 'Rickard Rakell', 'Jakob Silfverberg'], ['Rene Bourque', 'Nate Thompson', 'Tim Jackman'], ['Cam Fowler', 'Ben Lovejoy'], ['Hampus Lindholm', 'Francois Beauchemin'], ['Clayton Stoner', 'Josh Manson'], ['Patrick Maroon', 'Ryan Getzlaf', 'Ryan Kesler', 'Cam Fowler', 'Corey Perry'], ['Kyle Palmieri', 'Rickard Rakell', 'Jakob Silfverberg', 'Hampus Lindholm', 'Francois Beauchemin']], u'LAK': [['Marian Gaborik', 'Anze Kopitar', 'Trevor Lewis'], ['Dwight King', 'Jeff Carter', 'Tyler Toffoli'], ['Dustin Brown', 'Jarret Stoll', 'Justin Williams'], ['Kyle Clifford', 'Nick Shore', 'Jordan Nolan'], ['Robyn Regehr', 'Drew Doughty'], ['Jake Muzzin', 'Matt Greene'], ['Brayden McNabb', 'Jamie McBain'], ['Marian Gaborik', 'Anze Kopitar', 'Jeff Carter', 'Jake Muzzin', 'Drew Doughty'], ['Dwight King', 'Nick Shore', 'Tyler Toffoli', 'Brayden McNabb', 'Jamie McBain']], u'CBJ': [['Scott Hartnell', 'Ryan Johansen', 'Alexander Wennberg'], ['Matt Calvert', 'Brandon Dubinsky', 'Cam Atkinson'], ['Marko Dano', 'Artem Anisimov', 'Nick Foligno'], ['Corey Tropp', 'Mark Letestu', 'Jared Boll'], ['Jack Johnson', 'David Savard'], ['Kevin Connauton', 'James Wisniewski'], ['Fedor Tyutin', 'Cody Goloubef'], ['Scott Hartnell', 'Ryan Johansen', 'Nick Foligno', 'Kevin Connauton', 'David Savard'], ['Artem Anisimov', 'Brandon Dubinsky', 'Cam Atkinson', 'Jack Johnson', 'James Wisniewski']], u'BUF': [['Chris Stewart', 'Zemgus  Girgensons', 'Tyler Ennis'], ['Matt Moulson', 'Torrey Mitchell', 'Brian Gionta'], ['Marcus Foligno', 'Brian Flynn', 'Nicolas Deslauriers'], ['Johan Larsson', 'Matt Ellis', 'Cody Hodgson'], ['Andre Benoit', 'Zach Bogosian'], ['Nikita Zadorov', 'Rasmus Ristolainen'], ['Mike Weber', 'Andrej Meszaros'], ['Matt Moulson', 'Zemgus  Girgensons', 'Chris Stewart', 'Tyler Ennis', 'Zach Bogosian'], ['Marcus Foligno', 'Brian Flynn', 'Brian Gionta', 'Nikita Zadorov', 'Rasmus Ristolainen']], u'EDM': [['Teddy Purcell', 'Ryan Nugent-Hopkins', 'Jordan Eberle'], ['Ryan  Hamilton', 'Derek Roy', 'Nail Yakupov'], ['Matt Fraser', 'Benoit Pouliot', 'Iiro Pakarinen'], ['Matt Hendricks', 'Boyd Gordon', 'Rob Klinkhammer'], ['Oscar Klefbom', 'Justin Schultz'], ['Martin Marincin', 'Mark Fayne'], ['Andrew Ference', 'Keith Aulie'], ['Teddy Purcell', 'Anton Lander', 'Jordan Eberle', 'Ryan Nugent-Hopkins', 'Justin Schultz'], ['Benoit Pouliot', 'Derek Roy', 'Iiro Pakarinen', 'Oscar Klefbom', 'Nail Yakupov']], u'TBL': [['Alex Killorn', 'Steven Stamkos', 'Ryan Callahan'], ['Ondrej Palat', 'Tyler Johnson', 'Nikita Kucherov'], ['Cedric Paquette', 'Valtteri Filppula', 'Brett Connolly'], ['Jonathan Drouin', 'Brian Boyle', 'J.T. Brown'], ['Victor Hedman', 'Andrej Sustr'], ['Mark Barberio', 'Anton Stralman'], ['Jason Garrison', 'Nikita Nesterov'], ['Alex Killorn', 'Steven Stamkos', 'Valtteri Filppula', 'Victor Hedman', 'Jason Garrison'], ['Ondrej Palat', 'Tyler Johnson', 'Ryan Callahan', 'Anton Stralman', 'Nikita Kucherov']], u'WIN': [['Andrew Ladd', 'Bryan Little', 'Blake Wheeler'], ['Dustin Byfuglien', 'Mark Scheifele', 'Drew Stafford'], ['Chris Thorburn', 'Adam Lowry', 'Michael Frolik'], ['Carl Klingberg', 'Jim Slater', 'Anthony Peluso'], ['Tobias Enstrom', 'Tyler Myers'], ['Mark Stuart', 'Jacob Trouba'], ['Ben Chiarot', 'Adam Pardy'], ['Andrew Ladd', 'Bryan Little', 'Blake Wheeler', 'Tobias Enstrom', 'Dustin Byfuglien'], ['Michael Frolik', 'Mark Scheifele', 'Drew Stafford', 'Jacob Trouba', 'Tyler Myers']], u'ARI': [['Lauri Korpikoski', 'Antoine Vermette', 'Martin Erat'], ['Tobias Rieder', 'Mark Arcobello', 'Sam Gagner'], ['Lucas Lessio', 'Kyle Chipchura', 'Shane Doan'], ['Jordan Martinook', 'Joe Vitale', 'David Moss'], ['Oliver Ekman-Larsson', 'Brandon Gormley'], ['Keith Yandle', 'Michael Stone'], ['Andrew Campbell', 'Connor Murphy'], ['Tobias Rieder', 'Antoine Vermette', 'Shane Doan', 'Oliver Ekman-Larsson', 'Keith Yandle'], ['Lauri Korpikoski', 'Sam Gagner', 'Martin Erat', 'Michael Stone', 'Connor Murphy']], u'OTT': [['Mike Hoffman', 'Mika Zibanejad', 'Bobby Ryan'], ['Milan Michalek', 'Kyle Turris', 'Mark Stone'], ['Matt Puempel', 'David Legwand', 'Alex Chiasson'], ['Erik Condra', 'Jean-Gabriel Pageau', 'Curtis Lazar'], ['Marc Methot', 'Erik Karlsson'], ['Cody Ceci', 'Jared Cowen'], ['Mark Borowiecki', 'Patrick Wiercioch'], ['Milan Michalek', 'Kyle Turris', 'Mark Stone', 'Cody Ceci', 'Erik Karlsson'], ['David Legwand', 'Mika Zibanejad', 'Bobby Ryan', 'Mike Hoffman', 'Patrick Wiercioch']]}</t>
+  </si>
+  <si>
+    <t>Marc-Andre Fleury</t>
+  </si>
+  <si>
+    <t>Marek Mazanec</t>
+  </si>
+  <si>
+    <t>Niklas Backstrom</t>
+  </si>
+  <si>
+    <t>Nicklas Backstrom</t>
+  </si>
+  <si>
+    <t>Henrik Lundqvist</t>
+  </si>
+  <si>
+    <t>Henrik Sedin</t>
+  </si>
+  <si>
+    <t>Evander Kane</t>
+  </si>
+  <si>
+    <t>['NYR', 'NYR', 'NYR', 'NYR', 'NYR', 'NYR', 'NYR']</t>
+  </si>
+  <si>
+    <t>['PIT', 'PIT', 'PIT', 'PIT', 'PIT']</t>
+  </si>
+  <si>
+    <t>['NYI', 'NYI', 'NYI', 'NYI', 'NYI', 'NYI', 'NYI', 'NYI', 'NYI']</t>
+  </si>
+  <si>
+    <t>Ondrej Palat</t>
+  </si>
+  <si>
+    <t>['TBL', 'TBL', 'TBL', 'TBL', 'TBL', 'TBL', 'TBL', 'TBL', 'TBL']</t>
+  </si>
+  <si>
+    <t>Anton Stralman</t>
   </si>
 </sst>
 </file>
@@ -2655,11 +2542,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="193491712"/>
-        <c:axId val="193493248"/>
+        <c:axId val="214070016"/>
+        <c:axId val="214071552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="193491712"/>
+        <c:axId val="214070016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2668,7 +2555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193493248"/>
+        <c:crossAx val="214071552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2676,7 +2563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193493248"/>
+        <c:axId val="214071552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2687,7 +2574,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193491712"/>
+        <c:crossAx val="214070016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2800,11 +2687,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193525632"/>
-        <c:axId val="193527168"/>
+        <c:axId val="214103936"/>
+        <c:axId val="214105472"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="193525632"/>
+        <c:axId val="214103936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2813,7 +2700,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193527168"/>
+        <c:crossAx val="214105472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2821,7 +2708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193527168"/>
+        <c:axId val="214105472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2832,7 +2719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193525632"/>
+        <c:crossAx val="214103936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2861,6 +2748,140 @@
       </c14:pivotOptions>
     </c:ext>
   </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.5135170603674537E-2"/>
+                  <c:y val="4.8729950422863808E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="233949440"/>
+        <c:axId val="233947904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="233949440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="233947904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="233947904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="233949440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2921,6 +2942,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3499,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3507,7 +3563,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3515,7 +3571,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3523,7 +3579,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3607,7 +3663,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>122</v>
@@ -3625,19 +3681,19 @@
         <v>124</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>166</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>125</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>180</v>
@@ -3742,6 +3798,57 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0.9</v>
+      </c>
+      <c r="D2">
+        <f>10*60</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f>1*60</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f>0.0008*E14+0.4992</f>
+        <v>0.54720000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f>5700/60</f>
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3773,10 +3880,10 @@
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
@@ -3799,7 +3906,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>24</v>
@@ -3868,7 +3975,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>55</v>
@@ -3911,7 +4018,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>32</v>
@@ -3971,7 +4078,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>48</v>
@@ -4011,7 +4118,7 @@
         <v>88</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>48</v>
@@ -4034,7 +4141,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>32</v>
@@ -4097,7 +4204,7 @@
         <v>92</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>93</v>
@@ -4117,7 +4224,7 @@
         <v>95</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>94</v>
@@ -4183,7 +4290,7 @@
         <v>219</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E20" s="6">
         <v>4</v>
@@ -4200,7 +4307,7 @@
         <v>219</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E21" s="6">
         <v>5</v>
@@ -4214,7 +4321,7 @@
         <v>219</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E22" s="6">
         <v>5</v>
@@ -4222,16 +4329,16 @@
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E23" s="6">
         <v>5</v>
@@ -4239,16 +4346,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="E24" s="6">
         <v>5</v>
@@ -4259,16 +4366,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="E25" s="6">
         <v>2</v>
@@ -4367,10 +4474,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4379,7 +4486,7 @@
     <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -4387,35 +4494,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="3">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>158</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -4423,49 +4530,46 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="B7">
         <f>COUNTA('Best Contests'!B:B)+1</f>
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="B8" s="5">
         <f>COUNTA('Performance Monitoring'!A:A)+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="J10" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
     </row>
     <row r="23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4768,254 +4872,284 @@
     <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="B2" t="s">
-        <v>584</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="F2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G2" t="s">
-        <v>283</v>
+        <v>184</v>
       </c>
       <c r="H2" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="I2" t="s">
-        <v>184</v>
+        <v>285</v>
       </c>
       <c r="J2" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="K2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>585</v>
+        <v>542</v>
       </c>
       <c r="B3" t="s">
-        <v>586</v>
+        <v>541</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
         <v>185</v>
       </c>
       <c r="E3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" t="s">
         <v>230</v>
-      </c>
-      <c r="F3" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>587</v>
+        <v>543</v>
       </c>
       <c r="B4" t="s">
         <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="D4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="B5" t="s">
-        <v>562</v>
+        <v>322</v>
       </c>
       <c r="C5" t="s">
-        <v>302</v>
+        <v>492</v>
       </c>
       <c r="D5" t="s">
-        <v>304</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>304</v>
+        <v>183</v>
       </c>
       <c r="F5" t="s">
-        <v>353</v>
+        <v>213</v>
       </c>
       <c r="G5" t="s">
-        <v>353</v>
+        <v>214</v>
       </c>
       <c r="H5" t="s">
-        <v>354</v>
+        <v>276</v>
       </c>
       <c r="I5" t="s">
-        <v>354</v>
+        <v>232</v>
       </c>
       <c r="J5" t="s">
-        <v>354</v>
+        <v>215</v>
       </c>
       <c r="K5" t="s">
-        <v>354</v>
+        <v>277</v>
       </c>
       <c r="L5" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="M5" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="N5" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="O5" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="P5" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="Q5" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="R5" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="S5" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="T5" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="U5" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>589</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>590</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>578</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>183</v>
       </c>
       <c r="E6" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="F6" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G6" t="s">
-        <v>186</v>
+        <v>232</v>
+      </c>
+      <c r="H6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J6" t="s">
+        <v>562</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="B7" t="s">
-        <v>514</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>486</v>
       </c>
       <c r="D7" t="s">
+        <v>487</v>
+      </c>
+      <c r="E7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" t="s">
+        <v>488</v>
+      </c>
+      <c r="H7" t="s">
+        <v>536</v>
+      </c>
+      <c r="I7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" t="s">
         <v>294</v>
-      </c>
-      <c r="E7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>561</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
-        <v>496</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="D8" t="s">
-        <v>258</v>
+        <v>487</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F8" t="s">
-        <v>206</v>
+        <v>292</v>
       </c>
       <c r="G8" t="s">
-        <v>207</v>
+        <v>488</v>
+      </c>
+      <c r="H8" t="s">
+        <v>536</v>
+      </c>
+      <c r="I8" t="s">
+        <v>304</v>
+      </c>
+      <c r="J8" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>545</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>546</v>
       </c>
       <c r="C9" t="s">
-        <v>504</v>
+        <v>257</v>
       </c>
       <c r="D9" t="s">
-        <v>505</v>
+        <v>189</v>
       </c>
       <c r="E9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F9" t="s">
-        <v>299</v>
+        <v>191</v>
       </c>
       <c r="G9" t="s">
-        <v>506</v>
+        <v>192</v>
       </c>
       <c r="H9" t="s">
-        <v>562</v>
+        <v>536</v>
       </c>
       <c r="I9" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="J9" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>547</v>
       </c>
       <c r="B10" t="s">
-        <v>496</v>
+        <v>544</v>
       </c>
       <c r="C10" t="s">
-        <v>497</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E10" t="s">
         <v>183</v>
@@ -5027,65 +5161,65 @@
         <v>214</v>
       </c>
       <c r="H10" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J10" t="s">
         <v>215</v>
       </c>
       <c r="K10" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>537</v>
+        <v>573</v>
       </c>
       <c r="B11" t="s">
-        <v>516</v>
+        <v>575</v>
       </c>
       <c r="C11" t="s">
-        <v>497</v>
+        <v>576</v>
       </c>
       <c r="D11" t="s">
-        <v>258</v>
+        <v>577</v>
       </c>
       <c r="E11" t="s">
         <v>188</v>
       </c>
       <c r="F11" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G11" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="H11" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="I11" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="J11" t="s">
         <v>215</v>
       </c>
       <c r="K11" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="B12" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>576</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>577</v>
       </c>
       <c r="E12" t="s">
         <v>190</v>
@@ -5099,39 +5233,39 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>579</v>
       </c>
       <c r="C13" t="s">
-        <v>238</v>
+        <v>580</v>
       </c>
       <c r="D13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E13" t="s">
         <v>188</v>
       </c>
       <c r="F13" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G13" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="H13" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="B14" t="s">
-        <v>596</v>
+        <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>261</v>
+        <v>550</v>
       </c>
       <c r="D14" t="s">
         <v>189</v>
@@ -5148,19 +5282,19 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>597</v>
+        <v>549</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="C15" t="s">
-        <v>285</v>
+        <v>550</v>
       </c>
       <c r="D15" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="E15" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F15" t="s">
         <v>191</v>
@@ -5171,51 +5305,51 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>598</v>
+        <v>551</v>
       </c>
       <c r="B16" t="s">
-        <v>238</v>
+        <v>552</v>
       </c>
       <c r="C16" t="s">
-        <v>239</v>
+        <v>493</v>
       </c>
       <c r="D16" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="E16" t="s">
         <v>188</v>
       </c>
       <c r="F16" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G16" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="H16" t="s">
-        <v>562</v>
+        <v>536</v>
       </c>
       <c r="I16" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="J16" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="B17" t="s">
-        <v>565</v>
+        <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="D17" t="s">
-        <v>347</v>
+        <v>258</v>
       </c>
       <c r="E17" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="F17" t="s">
         <v>186</v>
@@ -5223,42 +5357,42 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>600</v>
+        <v>554</v>
       </c>
       <c r="B18" t="s">
-        <v>513</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>509</v>
+        <v>194</v>
       </c>
       <c r="D18" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="E18" t="s">
-        <v>286</v>
+        <v>570</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>582</v>
+        <v>555</v>
       </c>
       <c r="B19" t="s">
-        <v>601</v>
+        <v>209</v>
       </c>
       <c r="C19" t="s">
-        <v>602</v>
+        <v>194</v>
       </c>
       <c r="D19" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="E19" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F19" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="G19" t="s">
         <v>192</v>
@@ -5266,80 +5400,80 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="B20" t="s">
-        <v>507</v>
+        <v>262</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>194</v>
       </c>
       <c r="D20" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="E20" t="s">
         <v>188</v>
       </c>
       <c r="F20" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G20" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="H20" t="s">
-        <v>562</v>
+        <v>536</v>
       </c>
       <c r="I20" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="J20" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>603</v>
+        <v>261</v>
       </c>
       <c r="B21" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="C21" t="s">
-        <v>353</v>
+        <v>568</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="E21" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="F21" t="s">
         <v>182</v>
       </c>
       <c r="G21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H21" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="B22" t="s">
-        <v>298</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s">
-        <v>534</v>
+        <v>285</v>
       </c>
       <c r="D22" t="s">
-        <v>479</v>
+        <v>183</v>
       </c>
       <c r="E22" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="F22" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="G22" t="s">
         <v>192</v>
@@ -5347,39 +5481,39 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>604</v>
+        <v>560</v>
       </c>
       <c r="B23" t="s">
-        <v>562</v>
+        <v>273</v>
       </c>
       <c r="C23" t="s">
-        <v>302</v>
+        <v>586</v>
       </c>
       <c r="D23" t="s">
-        <v>303</v>
+        <v>199</v>
       </c>
       <c r="E23" t="s">
-        <v>304</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="B24" t="s">
-        <v>606</v>
+        <v>273</v>
       </c>
       <c r="C24" t="s">
-        <v>607</v>
+        <v>199</v>
       </c>
       <c r="D24" t="s">
-        <v>480</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F24" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G24" t="s">
         <v>188</v>
@@ -5387,59 +5521,59 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="B25" t="s">
-        <v>243</v>
+        <v>575</v>
       </c>
       <c r="C25" t="s">
-        <v>609</v>
+        <v>514</v>
       </c>
       <c r="D25" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="E25" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="B26" t="s">
-        <v>312</v>
+        <v>536</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>295</v>
       </c>
       <c r="D26" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E26" t="s">
-        <v>183</v>
+        <v>297</v>
       </c>
       <c r="F26" t="s">
         <v>182</v>
       </c>
       <c r="G26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="B27" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="C27" t="s">
-        <v>234</v>
+        <v>538</v>
       </c>
       <c r="D27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E27" t="s">
         <v>195</v>
@@ -5454,10 +5588,10 @@
         <v>208</v>
       </c>
       <c r="I27" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="J27" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="K27" t="s">
         <v>198</v>
@@ -5465,48 +5599,48 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="B28" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="C28" t="s">
-        <v>508</v>
+        <v>194</v>
       </c>
       <c r="D28" t="s">
-        <v>509</v>
+        <v>320</v>
       </c>
       <c r="E28" t="s">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="F28" t="s">
-        <v>511</v>
+        <v>260</v>
       </c>
       <c r="G28" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="H28" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>510</v>
+        <v>589</v>
       </c>
       <c r="B29" t="s">
-        <v>614</v>
+        <v>189</v>
       </c>
       <c r="C29" t="s">
-        <v>513</v>
+        <v>216</v>
       </c>
       <c r="D29" t="s">
-        <v>615</v>
+        <v>190</v>
       </c>
       <c r="E29" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="F29" t="s">
-        <v>616</v>
+        <v>553</v>
       </c>
       <c r="G29" t="s">
         <v>188</v>
@@ -5514,56 +5648,56 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>617</v>
+        <v>590</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>591</v>
       </c>
       <c r="C30" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="D30" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="E30" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="F30" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>618</v>
+        <v>556</v>
       </c>
       <c r="B31" t="s">
-        <v>209</v>
+        <v>559</v>
       </c>
       <c r="C31" t="s">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="D31" t="s">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="E31" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="B32" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="C32" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="D32" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="E32" t="s">
         <v>205</v>
@@ -5575,179 +5709,191 @@
         <v>207</v>
       </c>
       <c r="H32" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>620</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s">
-        <v>621</v>
+        <v>557</v>
       </c>
       <c r="C33" t="s">
         <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="E33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F33" t="s">
         <v>230</v>
       </c>
-      <c r="F33" t="s">
-        <v>231</v>
-      </c>
       <c r="G33" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>622</v>
+        <v>592</v>
       </c>
       <c r="B34" t="s">
-        <v>623</v>
+        <v>303</v>
       </c>
       <c r="C34" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="D34" t="s">
-        <v>274</v>
+        <v>185</v>
       </c>
       <c r="E34" t="s">
-        <v>242</v>
+        <v>229</v>
+      </c>
+      <c r="F34" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>624</v>
+        <v>558</v>
       </c>
       <c r="B35" t="s">
-        <v>625</v>
+        <v>559</v>
       </c>
       <c r="C35" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="D35" t="s">
-        <v>479</v>
+        <v>269</v>
       </c>
       <c r="E35" t="s">
-        <v>476</v>
+        <v>209</v>
       </c>
       <c r="F35" t="s">
-        <v>480</v>
+        <v>182</v>
+      </c>
+      <c r="G35" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>626</v>
+        <v>263</v>
       </c>
       <c r="B36" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="C36" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="D36" t="s">
-        <v>627</v>
+        <v>477</v>
       </c>
       <c r="E36" t="s">
-        <v>628</v>
+        <v>205</v>
       </c>
       <c r="F36" t="s">
-        <v>629</v>
+        <v>206</v>
       </c>
       <c r="G36" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H36" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J36" t="s">
         <v>215</v>
       </c>
       <c r="K36" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>563</v>
+      </c>
+      <c r="B37" t="s">
+        <v>480</v>
+      </c>
+      <c r="C37" t="s">
+        <v>481</v>
+      </c>
+      <c r="D37" t="s">
+        <v>265</v>
+      </c>
+      <c r="E37" t="s">
+        <v>266</v>
+      </c>
+      <c r="F37" t="s">
         <v>267</v>
       </c>
-      <c r="B37" t="s">
-        <v>498</v>
-      </c>
-      <c r="C37" t="s">
-        <v>499</v>
-      </c>
-      <c r="D37" t="s">
-        <v>270</v>
-      </c>
-      <c r="E37" t="s">
-        <v>271</v>
-      </c>
-      <c r="F37" t="s">
-        <v>272</v>
-      </c>
       <c r="G37" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>630</v>
+        <v>271</v>
       </c>
       <c r="B38" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C38" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D38" t="s">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c r="E38" t="s">
-        <v>264</v>
+        <v>312</v>
+      </c>
+      <c r="F38" t="s">
+        <v>194</v>
+      </c>
+      <c r="G38" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>631</v>
+        <v>469</v>
       </c>
       <c r="B39" t="s">
-        <v>351</v>
+        <v>470</v>
       </c>
       <c r="C39" t="s">
-        <v>499</v>
+        <v>287</v>
       </c>
       <c r="D39" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E39" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F39" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>632</v>
+        <v>565</v>
       </c>
       <c r="B40" t="s">
-        <v>228</v>
+        <v>339</v>
       </c>
       <c r="C40" t="s">
+        <v>567</v>
+      </c>
+      <c r="D40" t="s">
         <v>229</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>230</v>
-      </c>
-      <c r="E40" t="s">
-        <v>231</v>
       </c>
       <c r="F40" t="s">
         <v>206</v>
@@ -5758,120 +5904,132 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>633</v>
+        <v>593</v>
       </c>
       <c r="B41" t="s">
-        <v>232</v>
+        <v>515</v>
       </c>
       <c r="C41" t="s">
-        <v>181</v>
+        <v>516</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>477</v>
       </c>
       <c r="E41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F41" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="G41" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>634</v>
+        <v>272</v>
       </c>
       <c r="B42" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C42" t="s">
-        <v>508</v>
+        <v>194</v>
       </c>
       <c r="D42" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="E42" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="F42" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="G42" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s">
-        <v>516</v>
+        <v>209</v>
       </c>
       <c r="C43" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="D43" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="E43" t="s">
-        <v>183</v>
+        <v>312</v>
+      </c>
+      <c r="F43" t="s">
+        <v>194</v>
+      </c>
+      <c r="G43" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>309</v>
+        <v>594</v>
       </c>
       <c r="B44" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C44" t="s">
-        <v>514</v>
+        <v>242</v>
       </c>
       <c r="D44" t="s">
-        <v>481</v>
+        <v>243</v>
       </c>
       <c r="E44" t="s">
-        <v>482</v>
+        <v>183</v>
       </c>
       <c r="F44" t="s">
-        <v>483</v>
+        <v>213</v>
       </c>
       <c r="G44" t="s">
-        <v>484</v>
+        <v>214</v>
       </c>
       <c r="H44" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="I44" t="s">
-        <v>198</v>
+        <v>232</v>
+      </c>
+      <c r="J44" t="s">
+        <v>215</v>
+      </c>
+      <c r="K44" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>635</v>
+        <v>517</v>
       </c>
       <c r="B45" t="s">
-        <v>334</v>
+        <v>496</v>
       </c>
       <c r="C45" t="s">
-        <v>273</v>
+        <v>205</v>
       </c>
       <c r="D45" t="s">
-        <v>274</v>
+        <v>482</v>
       </c>
       <c r="E45" t="s">
-        <v>197</v>
+        <v>483</v>
       </c>
       <c r="F45" t="s">
         <v>208</v>
       </c>
       <c r="G45" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H45" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I45" t="s">
         <v>198</v>
@@ -5879,48 +6037,48 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s">
-        <v>491</v>
+        <v>322</v>
       </c>
       <c r="C46" t="s">
-        <v>492</v>
+        <v>278</v>
       </c>
       <c r="D46" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="E46" t="s">
-        <v>183</v>
+        <v>279</v>
       </c>
       <c r="F46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>636</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s">
-        <v>637</v>
+        <v>270</v>
       </c>
       <c r="C47" t="s">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="D47" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E47" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F47" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G47" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H47" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I47" t="s">
         <v>198</v>
@@ -5928,51 +6086,51 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>294</v>
+        <v>473</v>
       </c>
       <c r="B48" t="s">
-        <v>209</v>
+        <v>474</v>
       </c>
       <c r="C48" t="s">
-        <v>638</v>
+        <v>475</v>
       </c>
       <c r="D48" t="s">
-        <v>639</v>
+        <v>561</v>
       </c>
       <c r="E48" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="F48" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="B49" t="s">
-        <v>567</v>
+        <v>291</v>
       </c>
       <c r="C49" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D49" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E49" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F49" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G49" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H49" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I49" t="s">
         <v>198</v>
@@ -5980,100 +6138,100 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>314</v>
+        <v>519</v>
       </c>
       <c r="B50" t="s">
-        <v>315</v>
+        <v>477</v>
       </c>
       <c r="C50" t="s">
-        <v>293</v>
+        <v>205</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>482</v>
       </c>
       <c r="E50" t="s">
-        <v>209</v>
+        <v>483</v>
       </c>
       <c r="F50" t="s">
         <v>182</v>
       </c>
       <c r="G50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H50" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J50" t="s">
         <v>215</v>
       </c>
       <c r="K50" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>568</v>
+        <v>334</v>
       </c>
       <c r="B51" t="s">
-        <v>569</v>
+        <v>318</v>
       </c>
       <c r="C51" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="D51" t="s">
-        <v>239</v>
+        <v>335</v>
       </c>
       <c r="E51" t="s">
+        <v>279</v>
+      </c>
+      <c r="F51" t="s">
         <v>230</v>
-      </c>
-      <c r="F51" t="s">
-        <v>231</v>
       </c>
       <c r="G51" t="s">
         <v>214</v>
       </c>
       <c r="H51" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J51" t="s">
         <v>215</v>
       </c>
       <c r="K51" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>265</v>
+        <v>468</v>
       </c>
       <c r="B52" t="s">
-        <v>266</v>
+        <v>564</v>
       </c>
       <c r="C52" t="s">
         <v>194</v>
       </c>
       <c r="D52" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E52" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F52" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="B53" t="s">
         <v>199</v>
@@ -6082,18 +6240,18 @@
         <v>112</v>
       </c>
       <c r="D53" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>518</v>
       </c>
       <c r="B54" t="s">
-        <v>181</v>
+        <v>289</v>
       </c>
       <c r="C54" t="s">
-        <v>232</v>
+        <v>494</v>
       </c>
       <c r="D54" t="s">
         <v>183</v>
@@ -6105,16 +6263,16 @@
         <v>214</v>
       </c>
       <c r="G54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H54" t="s">
         <v>215</v>
       </c>
       <c r="I54" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="J54" t="s">
-        <v>640</v>
+        <v>562</v>
       </c>
       <c r="K54" t="s">
         <v>71</v>
@@ -6122,45 +6280,45 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>641</v>
+        <v>323</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>324</v>
       </c>
       <c r="C55" t="s">
+        <v>325</v>
+      </c>
+      <c r="D55" t="s">
+        <v>326</v>
+      </c>
+      <c r="E55" t="s">
+        <v>327</v>
+      </c>
+      <c r="F55" t="s">
+        <v>328</v>
+      </c>
+      <c r="G55" t="s">
+        <v>495</v>
+      </c>
+      <c r="H55" t="s">
+        <v>276</v>
+      </c>
+      <c r="I55" t="s">
         <v>232</v>
-      </c>
-      <c r="D55" t="s">
-        <v>182</v>
-      </c>
-      <c r="E55" t="s">
-        <v>183</v>
-      </c>
-      <c r="F55" t="s">
-        <v>213</v>
-      </c>
-      <c r="G55" t="s">
-        <v>214</v>
-      </c>
-      <c r="H55" t="s">
-        <v>283</v>
-      </c>
-      <c r="I55" t="s">
-        <v>233</v>
       </c>
       <c r="J55" t="s">
         <v>215</v>
       </c>
       <c r="K55" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>642</v>
+        <v>274</v>
       </c>
       <c r="B56" t="s">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="C56" t="s">
         <v>216</v>
@@ -6172,18 +6330,18 @@
         <v>187</v>
       </c>
       <c r="F56" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="B57" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="D57" t="s">
         <v>182</v>
@@ -6198,108 +6356,114 @@
         <v>214</v>
       </c>
       <c r="H57" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I57" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J57" t="s">
         <v>215</v>
       </c>
       <c r="K57" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="B58" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C58" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>278</v>
+        <v>473</v>
       </c>
       <c r="B59" t="s">
-        <v>305</v>
+        <v>474</v>
+      </c>
+      <c r="C59" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>643</v>
+        <v>519</v>
       </c>
       <c r="B60" t="s">
-        <v>514</v>
+        <v>477</v>
       </c>
       <c r="C60" t="s">
-        <v>644</v>
+        <v>205</v>
       </c>
       <c r="D60" t="s">
-        <v>495</v>
+        <v>482</v>
+      </c>
+      <c r="E60" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>570</v>
+        <v>537</v>
       </c>
       <c r="B61" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C61" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D61" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E61" t="s">
         <v>187</v>
       </c>
       <c r="F61" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C62" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="B63" t="s">
-        <v>645</v>
+        <v>564</v>
       </c>
       <c r="C63" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D63" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E63" t="s">
         <v>187</v>
       </c>
       <c r="F63" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>646</v>
+        <v>565</v>
       </c>
       <c r="B64" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C64" t="s">
         <v>194</v>
@@ -6307,10 +6471,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>647</v>
+        <v>566</v>
       </c>
       <c r="B65" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C65" t="s">
         <v>112</v>
@@ -6330,10 +6494,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C66" t="s">
         <v>192</v>
@@ -6353,44 +6517,44 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="B67" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C67" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B68" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C68" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D68" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="E68" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F68" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G68" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B69" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C69" t="s">
         <v>112</v>
@@ -6398,13 +6562,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B70" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C70" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D70" t="s">
         <v>200</v>
@@ -6421,7 +6585,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B71" t="s">
         <v>199</v>
@@ -6435,13 +6599,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="B72" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="C72" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="D72" t="s">
         <v>200</v>
@@ -6455,53 +6619,53 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="B73" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="C73" t="s">
         <v>205</v>
       </c>
       <c r="D73" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="E73" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="F73" t="s">
         <v>194</v>
       </c>
       <c r="G73" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="B74" t="s">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="C74" t="s">
         <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E74" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F74" t="s">
         <v>194</v>
       </c>
       <c r="G74" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B75" t="s">
         <v>199</v>
@@ -6510,47 +6674,47 @@
         <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E75" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F75" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G75" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="B76" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C76" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="D76" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E76" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F76" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G76" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B77" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C77" t="s">
         <v>203</v>
@@ -6559,61 +6723,61 @@
         <v>204</v>
       </c>
       <c r="E77" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F77" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G77" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="B78" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="C78" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D78" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="E78" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F78" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="B79" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="C79" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D79" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="E79" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F79" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B80" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C80" t="s">
         <v>203</v>
@@ -6622,38 +6786,38 @@
         <v>204</v>
       </c>
       <c r="E80" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F80" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B81" t="s">
         <v>209</v>
       </c>
       <c r="C81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E81" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F81" t="s">
         <v>194</v>
       </c>
       <c r="G81" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B82" t="s">
         <v>199</v>
@@ -6662,7 +6826,7 @@
         <v>76</v>
       </c>
       <c r="D82" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="E82" t="s">
         <v>185</v>
@@ -6670,124 +6834,124 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B83" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C83" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="D83" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E83" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F83" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G83" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B84" t="s">
         <v>194</v>
       </c>
       <c r="C84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D84" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E84" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F84" t="s">
         <v>194</v>
       </c>
       <c r="G84" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B85" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C85" t="s">
         <v>76</v>
       </c>
       <c r="D85" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E85" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B86" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C86" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D86" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="E86" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F86" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G86" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B87" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C87" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D87" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B88" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C89" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="D89" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="E89" t="s">
         <v>185</v>
@@ -6795,61 +6959,61 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>234</v>
+      </c>
+      <c r="B90" t="s">
+        <v>235</v>
+      </c>
+      <c r="C90" t="s">
         <v>236</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D90" t="s">
         <v>237</v>
       </c>
-      <c r="C90" t="s">
-        <v>238</v>
-      </c>
-      <c r="D90" t="s">
-        <v>239</v>
-      </c>
       <c r="E90" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F90" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B91" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B92" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C92" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D92" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E92" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B93" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C93" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D93" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E93" t="s">
         <v>185</v>
@@ -6857,60 +7021,60 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>234</v>
+      </c>
+      <c r="B94" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" t="s">
         <v>236</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D94" t="s">
         <v>237</v>
-      </c>
-      <c r="C94" t="s">
-        <v>238</v>
-      </c>
-      <c r="D94" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B96" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C96" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D96" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B97" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C97" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D97" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="B98" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="C98" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -6942,7 +7106,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6983,13 +7147,13 @@
         <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E5" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7170,46 +7334,46 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B22" t="s">
         <v>193</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C25" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -7220,1897 +7384,1897 @@
         <v>190</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="100" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="102" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="103" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="104" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="105" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="108" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="110" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="111" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="112" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="119" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E119" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="120" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="122" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E122" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="123" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E123" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="124" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
     <row r="125" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
     <row r="126" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E126" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="127" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E127" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="128" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E131" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E134" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="135" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="136" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="137" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E137" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="138" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E138" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="139" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E139" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E142" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="143" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="144" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="147" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E147" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="150" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E150" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E151" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E152" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="156" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E157" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="158" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E158" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="159" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E159" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="160" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E161" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E162" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E163" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E164" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E165" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="166" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E166" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="167" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E167" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="168" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E168" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="169" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E169" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="170" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E170" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="171" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E171" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="172" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E172" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="173" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E173" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="174" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E174" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="175" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E175" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="176" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E176" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="177" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E177" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="178" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E178" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="179" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E179" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="180" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="181" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E181" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="182" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E182" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="183" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E183" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="184" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E184" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="185" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E185" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="186" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E186" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="187" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E187" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="188" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="189" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E189" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="190" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E190" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="191" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E191" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="192" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E192" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="193" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E193" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="194" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E194" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="195" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E195" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="196" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E196" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="197" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E197" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="198" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E198" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="199" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E199" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="200" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E200" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="201" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E201" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="202" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E202" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="203" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E203" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="204" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E204" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="205" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E205" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="206" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E206" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="207" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E207" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="208" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E208" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="209" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E209" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="210" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E210" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="211" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E211" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="212" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E212" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="213" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E213" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="214" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E214" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="215" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E215" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="216" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E216" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="217" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E217" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="218" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E218" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="219" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E219" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="220" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E220" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="221" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E221" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="222" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E222" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="223" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E223" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="224" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E224" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="225" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E225" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="226" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E226" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="227" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E227" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="228" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E228" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="229" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E229" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="230" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E230" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="231" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E231" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="232" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E232" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="233" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E233" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="234" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E234" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="235" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E235" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="236" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E236" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="237" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E237" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="238" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E238" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="239" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E239" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="240" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E240" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="241" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E241" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="242" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E242" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="243" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E243" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="244" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E244" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
     <row r="245" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E245" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
     <row r="246" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E246" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="247" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E247" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="248" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E248" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="249" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E249" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="250" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E250" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="251" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E251" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="252" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E252" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="253" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E253" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="254" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E254" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="255" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E255" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="256" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E256" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="257" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E257" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="258" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E258" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="259" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E259" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="260" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E260" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="261" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E261" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="262" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E262" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="263" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E263" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="264" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E264" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="265" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E265" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="266" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E266" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="267" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E267" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="268" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E268" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="269" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E269" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="270" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E270" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="271" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E271" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="272" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E272" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="273" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E273" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="274" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E274" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="275" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E275" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="276" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E276" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="277" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E277" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="278" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E278" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="279" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E279" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="280" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E280" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="281" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E281" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="282" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E282" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="283" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E283" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="284" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E284" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="285" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E285" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="286" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E286" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="287" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E287" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="288" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E288" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="289" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E289" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="290" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E290" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="291" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E291" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="292" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E292" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="293" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E293" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="294" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E294" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="295" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E295" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="296" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E296" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="297" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E297" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="298" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E298" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="299" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E299" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="300" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E300" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="301" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E301" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="302" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E302" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="303" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E303" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="304" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E304" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="305" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E305" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="306" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E306" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="307" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E307" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="308" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E308" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="309" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E309" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="310" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E310" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="311" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E311" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="312" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E312" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="313" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E313" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="314" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E314" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="315" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E315" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="316" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E316" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="317" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E317" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="318" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E318" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="319" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E319" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="320" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E320" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="321" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E321" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="322" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E322" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="323" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E323" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="324" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E324" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="325" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E325" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="326" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E326" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="327" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E327" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="328" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E328" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="329" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E329" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="330" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E330" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="331" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E331" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="332" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E332" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="333" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E333" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="334" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E334" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="335" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E335" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="336" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E336" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="337" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E337" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="338" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E338" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="339" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E339" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="340" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E340" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="341" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E341" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="342" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E342" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="343" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E343" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="344" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E344" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="345" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E345" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="346" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E346" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="347" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E347" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="348" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E348" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="349" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E349" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="350" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E350" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="351" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E351" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="352" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E352" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="353" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E353" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="354" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E354" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="355" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E355" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="356" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E356" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="357" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E357" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="358" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E358" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="359" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E359" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="360" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E360" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="361" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E361" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="362" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E362" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="363" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E363" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="364" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E364" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="365" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E365" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="366" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E366" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="367" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E367" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="368" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E368" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="369" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E369" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="370" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E370" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="371" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E371" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="372" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E372" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="373" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E373" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="374" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E374" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="375" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E375" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="376" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E376" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="377" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E377" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="378" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E378" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="379" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E379" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="380" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E380" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="381" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E381" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="382" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E382" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="383" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E383" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="384" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E384" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="385" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E385" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="386" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E386" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="387" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E387" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="388" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E388" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
     </row>
     <row r="389" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E389" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="390" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E390" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
     </row>
     <row r="391" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E391" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="392" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E392" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="393" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E393" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="394" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E394" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
     </row>
     <row r="395" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E395" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
     </row>
     <row r="396" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E396" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="397" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E397" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="398" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E398" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="399" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E399" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="400" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E400" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="401" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E401" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="402" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E402" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="403" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E403" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
     </row>
     <row r="404" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E404" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="405" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E405" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
     </row>
     <row r="406" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E406" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="407" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E407" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="408" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E408" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="409" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E409" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="410" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E410" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="411" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E411" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="412" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E412" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="413" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E413" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="414" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E414" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="415" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E415" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="416" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E416" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="417" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E417" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="418" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E418" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="419" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E419" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="420" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E420" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="421" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E421" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="422" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E422" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="423" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E423" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="424" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E424" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="425" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E425" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="426" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E426" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="427" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E427" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="428" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E428" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="429" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E429" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="430" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E430" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="431" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E431" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="432" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E432" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="433" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E433" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="434" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E434" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="435" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E435" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="436" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E436" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="437" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E437" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="438" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E438" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="439" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E439" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="440" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E440" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="441" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E441" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="442" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E442" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="443" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E443" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="444" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E444" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="445" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E445" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="446" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E446" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="447" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E447" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="448" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E448" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="449" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E449" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="450" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E450" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="451" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E451" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="452" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E452" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="453" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E453" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="454" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E454" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="455" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E455" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="456" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E456" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="457" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E457" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="458" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E458" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="459" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E459" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="460" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E460" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="461" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E461" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="462" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E462" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="463" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E463" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -9125,7 +9289,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9154,215 +9318,215 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>520</v>
       </c>
       <c r="B2" t="s">
-        <v>541</v>
+        <v>604</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D2" s="9">
-        <v>418.28</v>
+        <v>591.41088435400002</v>
       </c>
       <c r="E2">
-        <v>5200</v>
+        <v>4200</v>
       </c>
       <c r="F2">
-        <v>1045.7</v>
+        <v>1444.1428571399999</v>
       </c>
       <c r="G2">
-        <v>0.4</v>
+        <v>0.40952380952400003</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>540</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>541</v>
+        <v>604</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" s="9">
-        <v>518.89599999999996</v>
+        <v>443.33877551</v>
       </c>
       <c r="E3">
-        <v>4200</v>
+        <v>6100</v>
       </c>
       <c r="F3">
-        <v>1423.8</v>
+        <v>1082.5714285700001</v>
       </c>
       <c r="G3">
-        <v>0.36444444444399998</v>
+        <v>0.40952380952400003</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>597</v>
       </c>
       <c r="B4" t="s">
-        <v>541</v>
+        <v>605</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D4" s="9">
-        <v>420.28</v>
+        <v>-318.08541600000001</v>
       </c>
       <c r="E4">
-        <v>6100</v>
+        <v>9100</v>
       </c>
       <c r="F4">
-        <v>1050.7</v>
+        <v>1178.09413333</v>
       </c>
       <c r="G4">
-        <v>0.4</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>572</v>
+        <v>297</v>
       </c>
       <c r="B5" t="s">
-        <v>541</v>
+        <v>606</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D5" s="9">
-        <v>419.68</v>
+        <v>456.88888888899999</v>
       </c>
       <c r="E5">
-        <v>8500</v>
+        <v>4200</v>
       </c>
       <c r="F5">
-        <v>1049.2</v>
+        <v>1028</v>
       </c>
       <c r="G5">
-        <v>0.4</v>
+        <v>0.444444444444</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>573</v>
+        <v>472</v>
       </c>
       <c r="B6" t="s">
-        <v>574</v>
+        <v>606</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D6" s="9">
-        <v>-632.79109775500001</v>
+        <v>455.25925925899998</v>
       </c>
       <c r="E6">
-        <v>8600</v>
+        <v>4900</v>
       </c>
       <c r="F6">
-        <v>1144.58338095</v>
+        <v>1024.33333333</v>
       </c>
       <c r="G6">
-        <v>-0.55285714285700005</v>
+        <v>0.444444444444</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>542</v>
+        <v>595</v>
       </c>
       <c r="B7" t="s">
-        <v>543</v>
+        <v>606</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D7" s="9">
-        <v>617.54</v>
+        <v>532.64197530900003</v>
       </c>
       <c r="E7">
-        <v>3300</v>
+        <v>8800</v>
       </c>
       <c r="F7">
-        <v>1122.8</v>
+        <v>1198.4444444400001</v>
       </c>
       <c r="G7">
-        <v>0.55000000000000004</v>
+        <v>0.444444444444</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>575</v>
+        <v>609</v>
       </c>
       <c r="B8" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D8" s="9">
-        <v>483.28</v>
+        <v>474.32098765400002</v>
       </c>
       <c r="E8">
-        <v>6700</v>
+        <v>3600</v>
       </c>
       <c r="F8">
-        <v>1208.2</v>
+        <v>1255.5555555599999</v>
       </c>
       <c r="G8">
-        <v>0.4</v>
+        <v>0.37777777777799998</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>577</v>
+        <v>486</v>
       </c>
       <c r="B9" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" s="9">
-        <v>436.44</v>
+        <v>525.08230452700002</v>
       </c>
       <c r="E9">
-        <v>5400</v>
+        <v>7100</v>
       </c>
       <c r="F9">
-        <v>1091.0999999999999</v>
+        <v>1090.5555555599999</v>
       </c>
       <c r="G9">
-        <v>0.4</v>
+        <v>0.48148148148100001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>508</v>
+        <v>607</v>
       </c>
       <c r="B10" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="9">
-        <v>466.16</v>
+        <v>500.36625514399998</v>
       </c>
       <c r="E10">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="F10">
-        <v>1165.4000000000001</v>
+        <v>1039.22222222</v>
       </c>
       <c r="G10">
-        <v>0.4</v>
+        <v>0.48148148148100001</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" s="9">
         <f>SUM(D2:D10)</f>
-        <v>3147.764902245</v>
+        <v>3661.2239146459997</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
@@ -9398,16 +9562,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="E1" t="s">
         <v>123</v>
@@ -9416,7 +9580,7 @@
         <v>124</v>
       </c>
       <c r="G1" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9427,7 +9591,7 @@
         <v>42034</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D2" s="5">
         <v>1329.8</v>
@@ -9450,7 +9614,7 @@
         <v>42034</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D3" s="5">
         <v>1401.8</v>
@@ -9470,10 +9634,10 @@
         <v>10588735</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="C4" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="D4">
         <v>623.29999999999995</v>
@@ -9493,10 +9657,10 @@
         <v>10588737</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="C5" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="D5">
         <v>951</v>
@@ -9516,10 +9680,10 @@
         <v>10588743</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="C6" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="D6">
         <v>1489.75</v>
@@ -9539,10 +9703,10 @@
         <v>10588742</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="C7" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="D7">
         <v>3074.2</v>
@@ -9562,10 +9726,10 @@
         <v>10601885</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>545</v>
+        <v>522</v>
       </c>
       <c r="D8">
         <v>1533.6</v>
@@ -9585,10 +9749,10 @@
         <v>10601610</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="C9" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="D9">
         <v>2391.1</v>
@@ -9608,10 +9772,10 @@
         <v>10601690</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="C10" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="D10">
         <v>2961.2</v>
@@ -9631,10 +9795,10 @@
         <v>10601474</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="C11" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="D11">
         <v>6056.7</v>
@@ -9654,10 +9818,10 @@
         <v>10601139</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="C12" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="D12">
         <v>6694.5</v>
@@ -9677,10 +9841,10 @@
         <v>10600615</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="C13" t="s">
-        <v>550</v>
+        <v>527</v>
       </c>
       <c r="D13">
         <v>7077.25</v>
@@ -9700,10 +9864,10 @@
         <v>10602745</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="C14" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="D14">
         <v>2745.3</v>
@@ -9723,10 +9887,10 @@
         <v>10602444</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="C15" t="s">
-        <v>552</v>
+        <v>529</v>
       </c>
       <c r="D15">
         <v>2788.15</v>
@@ -9746,10 +9910,10 @@
         <v>10602274</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="C16" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="D16">
         <v>3447.3</v>
@@ -9769,10 +9933,10 @@
         <v>10602094</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="C17" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
       <c r="D17">
         <v>5587.8</v>
@@ -9792,10 +9956,10 @@
         <v>10602135</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="C18" t="s">
-        <v>555</v>
+        <v>532</v>
       </c>
       <c r="D18">
         <v>6139.375</v>
@@ -9815,10 +9979,10 @@
         <v>10601139</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="C19" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="D19">
         <v>6759.875</v>
@@ -9838,10 +10002,10 @@
         <v>10601553</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="C20" t="s">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="D20">
         <v>6759.875</v>

--- a/Fanduel.xlsx
+++ b/Fanduel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="_ironspread_data_" sheetId="4" state="veryHidden" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="632">
   <si>
     <t>n_scripts_list</t>
   </si>
@@ -812,1069 +812,1135 @@
     <t>Programming Design Course</t>
   </si>
   <si>
+    <t>Patrick Dwyer</t>
+  </si>
+  <si>
+    <t>Jonathan Drouin</t>
+  </si>
+  <si>
+    <t>Carl Hagelin</t>
+  </si>
+  <si>
+    <t>Dan Hamhuis</t>
+  </si>
+  <si>
+    <t>Brian Gibbons</t>
+  </si>
+  <si>
+    <t>Brian Gionta</t>
+  </si>
+  <si>
+    <t>David Moss</t>
+  </si>
+  <si>
+    <t>David Pastrnak</t>
+  </si>
+  <si>
+    <t>David Jones</t>
+  </si>
+  <si>
+    <t>Andrew Campbell</t>
+  </si>
+  <si>
+    <t>Gregory Campbell</t>
+  </si>
+  <si>
+    <t>Manny Malhotra</t>
+  </si>
+  <si>
+    <t>Quinton Howden</t>
+  </si>
+  <si>
+    <t>Jamie McBain</t>
+  </si>
+  <si>
+    <t>Tanner Pearson</t>
+  </si>
+  <si>
+    <t>Tanner Glass</t>
+  </si>
+  <si>
+    <t>Matt Hackett</t>
+  </si>
+  <si>
+    <t>Matt Beleskey</t>
+  </si>
+  <si>
+    <t>Brett Ritchie</t>
+  </si>
+  <si>
+    <t>Brent Burns</t>
+  </si>
+  <si>
+    <t>NHL Roster Name</t>
+  </si>
+  <si>
+    <t>Slate Size</t>
+  </si>
+  <si>
+    <t>Web Interface</t>
+  </si>
+  <si>
+    <t>Need to develop a web interface to remotely build lineup. Need to host on server (GAE or RasPi?</t>
+  </si>
+  <si>
+    <t>Web Development</t>
+  </si>
+  <si>
+    <t>Matt Stajan</t>
+  </si>
+  <si>
+    <t>Mike Weaver</t>
+  </si>
+  <si>
+    <t>Matt Halischuk</t>
+  </si>
+  <si>
+    <t>Mathew Dumba</t>
+  </si>
+  <si>
+    <t>Jason Garrison</t>
+  </si>
+  <si>
+    <t>Andrew MacDonald</t>
+  </si>
+  <si>
+    <t>Brad Richards</t>
+  </si>
+  <si>
+    <t>Marcus Johansson</t>
+  </si>
+  <si>
+    <t>Chris Thorburn</t>
+  </si>
+  <si>
+    <t>Erik Condra</t>
+  </si>
+  <si>
+    <t>Josh Jooris</t>
+  </si>
+  <si>
+    <t>Josh Gorges</t>
+  </si>
+  <si>
+    <t>Josh Bailey</t>
+  </si>
+  <si>
+    <t>Paul Bissonnette</t>
+  </si>
+  <si>
+    <t>Beau Bennett</t>
+  </si>
+  <si>
+    <t>Paul Byron</t>
+  </si>
+  <si>
+    <t>Bryan Bickell</t>
+  </si>
+  <si>
+    <t>John Gibson</t>
+  </si>
+  <si>
+    <t>Calvin de Haan</t>
+  </si>
+  <si>
+    <t>Calvin de_Haan</t>
+  </si>
+  <si>
+    <t>Ryan Ellis</t>
+  </si>
+  <si>
+    <t>Ryan O'Reilly</t>
+  </si>
+  <si>
+    <t>Ryan Callahan</t>
+  </si>
+  <si>
+    <t>Brandon Gormley</t>
+  </si>
+  <si>
+    <t>Brandon Bollig</t>
+  </si>
+  <si>
+    <t>Brandon Prust</t>
+  </si>
+  <si>
+    <t>Brandon Pirri</t>
+  </si>
+  <si>
+    <t>Braden Holtby</t>
+  </si>
+  <si>
+    <t>Brandon Sutter</t>
+  </si>
+  <si>
+    <t>Brian Boyle</t>
+  </si>
+  <si>
+    <t>Stefan Elliott</t>
+  </si>
+  <si>
+    <t>Mark Pysyk</t>
+  </si>
+  <si>
+    <t>Mark Fayne</t>
+  </si>
+  <si>
+    <t>Alex Grant</t>
+  </si>
+  <si>
+    <t>Alex Galchenyuk</t>
+  </si>
+  <si>
+    <t>Alex Tanguay</t>
+  </si>
+  <si>
+    <t>Alex Killorn</t>
+  </si>
+  <si>
+    <t>Alex Pietrangelo</t>
+  </si>
+  <si>
+    <t>Alex Chiasson</t>
+  </si>
+  <si>
+    <t>Jesse Winchester</t>
+  </si>
+  <si>
+    <t>Ryan Stanton</t>
+  </si>
+  <si>
+    <t>Ryan Johansen</t>
+  </si>
+  <si>
+    <t>Ryan Suter</t>
+  </si>
+  <si>
+    <t>Brad Richardson</t>
+  </si>
+  <si>
+    <t>Brett Sutter</t>
+  </si>
+  <si>
+    <t>Brent Seabrook</t>
+  </si>
+  <si>
+    <t>Pat Dwyer</t>
+  </si>
+  <si>
+    <t>Alexander Steen</t>
+  </si>
+  <si>
+    <t>Alex Steen</t>
+  </si>
+  <si>
+    <t>Christian Thomas</t>
+  </si>
+  <si>
+    <t>Trevor Smith</t>
+  </si>
+  <si>
+    <t>Colin McDonald</t>
+  </si>
+  <si>
+    <t>Nathan Mackinnon</t>
+  </si>
+  <si>
+    <t>Nick Shore</t>
+  </si>
+  <si>
+    <t>Zemgus  Girgensons</t>
+  </si>
+  <si>
+    <t>T.J. Galiardi</t>
+  </si>
+  <si>
+    <t>Alexander Edler</t>
+  </si>
+  <si>
+    <t>Frans Nielse</t>
+  </si>
+  <si>
+    <t>Michael Grabne</t>
+  </si>
+  <si>
+    <t>Brock Nelso</t>
+  </si>
+  <si>
+    <t>Matt Marti</t>
+  </si>
+  <si>
+    <t>Tomas Fleischma</t>
+  </si>
+  <si>
+    <t>Jussi Jokine</t>
+  </si>
+  <si>
+    <t>Shawn Thornto</t>
+  </si>
+  <si>
+    <t>Erik Gudbranso</t>
+  </si>
+  <si>
+    <t>Nathan Mackinno</t>
+  </si>
+  <si>
+    <t>Nate Gueni</t>
+  </si>
+  <si>
+    <t>Nick Holde</t>
+  </si>
+  <si>
+    <t>Jaromir Jag</t>
+  </si>
+  <si>
+    <t>Steve Bernie</t>
+  </si>
+  <si>
+    <t>Jacob Josefso</t>
+  </si>
+  <si>
+    <t>Adam Larsso</t>
+  </si>
+  <si>
+    <t>Mark Frase</t>
+  </si>
+  <si>
+    <t>Jamie Be</t>
+  </si>
+  <si>
+    <t>Tyler Segui</t>
+  </si>
+  <si>
+    <t>Cody Eaki</t>
+  </si>
+  <si>
+    <t>Vernon Fiddle</t>
+  </si>
+  <si>
+    <t>Colton Sceviou</t>
+  </si>
+  <si>
+    <t>Jordie Be</t>
+  </si>
+  <si>
+    <t>Sean Monaha</t>
+  </si>
+  <si>
+    <t>Jiri Hudle</t>
+  </si>
+  <si>
+    <t>Matt Staja</t>
+  </si>
+  <si>
+    <t>Paul Byro</t>
+  </si>
+  <si>
+    <t>Dennis Widema</t>
+  </si>
+  <si>
+    <t>Derek Stepa</t>
+  </si>
+  <si>
+    <t>Chris Kreide</t>
+  </si>
+  <si>
+    <t>Carl Hageli</t>
+  </si>
+  <si>
+    <t>Kevin Klei</t>
+  </si>
+  <si>
+    <t>Melker Karlsso</t>
+  </si>
+  <si>
+    <t>Joe Thornto</t>
+  </si>
+  <si>
+    <t>Tye McGi</t>
+  </si>
+  <si>
+    <t>Brenden Dillo</t>
+  </si>
+  <si>
+    <t>Matt Tennyso</t>
+  </si>
+  <si>
+    <t>Matt Irwi</t>
+  </si>
+  <si>
+    <t>Scott Hanna</t>
+  </si>
+  <si>
+    <t>David Perro</t>
+  </si>
+  <si>
+    <t>Brandon Sutte</t>
+  </si>
+  <si>
+    <t>Paul Marti</t>
+  </si>
+  <si>
+    <t>Daniel Sedi</t>
+  </si>
+  <si>
+    <t>Henrik Sedi</t>
+  </si>
+  <si>
+    <t>Jannik Hanse</t>
+  </si>
+  <si>
+    <t>Alexander Edle</t>
+  </si>
+  <si>
+    <t>Dmitrij Jaski</t>
+  </si>
+  <si>
+    <t>Jay Bouwmeeste</t>
+  </si>
+  <si>
+    <t>Carl Gunnarsso</t>
+  </si>
+  <si>
+    <t>Barret Jackma</t>
+  </si>
+  <si>
+    <t>Teuvo Teravaine</t>
+  </si>
+  <si>
+    <t>Marcus Kruge</t>
+  </si>
+  <si>
+    <t>Niklas Hjalmarsso</t>
+  </si>
+  <si>
+    <t>Brendan Gallaghe</t>
+  </si>
+  <si>
+    <t>Lars Elle</t>
+  </si>
+  <si>
+    <t>P.K. Subba</t>
+  </si>
+  <si>
+    <t>Mike Weave</t>
+  </si>
+  <si>
+    <t>Alexei Emeli</t>
+  </si>
+  <si>
+    <t>Brayden Sche</t>
+  </si>
+  <si>
+    <t>R.J. Umberge</t>
+  </si>
+  <si>
+    <t>Sean Couturie</t>
+  </si>
+  <si>
+    <t>Vincent Lecavalie</t>
+  </si>
+  <si>
+    <t>Luke Sche</t>
+  </si>
+  <si>
+    <t>Patrick Maroo</t>
+  </si>
+  <si>
+    <t>Ryan Kesle</t>
+  </si>
+  <si>
+    <t>Nate Thompso</t>
+  </si>
+  <si>
+    <t>Cam Fowle</t>
+  </si>
+  <si>
+    <t>Francois Beauchemi</t>
+  </si>
+  <si>
+    <t>Clayton Stone</t>
+  </si>
+  <si>
+    <t>Sami Vatane</t>
+  </si>
+  <si>
+    <t>Anze Kopita</t>
+  </si>
+  <si>
+    <t>Dustin Brow</t>
+  </si>
+  <si>
+    <t>Jeff Carte</t>
+  </si>
+  <si>
+    <t>Jordan Nola</t>
+  </si>
+  <si>
+    <t>Jake Muzzi</t>
+  </si>
+  <si>
+    <t>Robyn Regeh</t>
+  </si>
+  <si>
+    <t>Ryan Johanse</t>
+  </si>
+  <si>
+    <t>Cam Atkinso</t>
+  </si>
+  <si>
+    <t>Fedor Tyuti</t>
+  </si>
+  <si>
+    <t>Jack Johnso</t>
+  </si>
+  <si>
+    <t>Kevin Connauto</t>
+  </si>
+  <si>
+    <t>Matt Moulso</t>
+  </si>
+  <si>
+    <t>Brian Fly</t>
+  </si>
+  <si>
+    <t>Rasmus Ristolaine</t>
+  </si>
+  <si>
+    <t>Mike Webe</t>
+  </si>
+  <si>
+    <t>Boyd Gordo</t>
+  </si>
+  <si>
+    <t>Rob Klinkhamme</t>
+  </si>
+  <si>
+    <t>Matt Frase</t>
+  </si>
+  <si>
+    <t>Anton Lande</t>
+  </si>
+  <si>
+    <t>Ryan Callaha</t>
+  </si>
+  <si>
+    <t>Tyler Johnso</t>
+  </si>
+  <si>
+    <t>Alex Killo</t>
+  </si>
+  <si>
+    <t>Jonathan Droui</t>
+  </si>
+  <si>
+    <t>J.T. Brow</t>
+  </si>
+  <si>
+    <t>Andrej Sust</t>
+  </si>
+  <si>
+    <t>Victor Hedma</t>
+  </si>
+  <si>
+    <t>Anton Stralma</t>
+  </si>
+  <si>
+    <t>Jason Garriso</t>
+  </si>
+  <si>
+    <t>Blake Wheele</t>
+  </si>
+  <si>
+    <t>Chris Thorbu</t>
+  </si>
+  <si>
+    <t>Jim Slate</t>
+  </si>
+  <si>
+    <t>Dustin Byfuglie</t>
+  </si>
+  <si>
+    <t>Zach Bogosia</t>
+  </si>
+  <si>
+    <t>Tobias Riede</t>
+  </si>
+  <si>
+    <t>Shane Doa</t>
+  </si>
+  <si>
+    <t>Sam Gagne</t>
+  </si>
+  <si>
+    <t>Brandon McMilla</t>
+  </si>
+  <si>
+    <t>Brendan Shinnimi</t>
+  </si>
+  <si>
+    <t>B.J. Crombee</t>
+  </si>
+  <si>
+    <t>Oliver Ekman-Larsso</t>
+  </si>
+  <si>
+    <t>Clarke MacArthu</t>
+  </si>
+  <si>
+    <t>Bobby Rya</t>
+  </si>
+  <si>
+    <t>Mike Hoffma</t>
+  </si>
+  <si>
+    <t>Curtis Laza</t>
+  </si>
+  <si>
+    <t>Erik Karlsso</t>
+  </si>
+  <si>
+    <t>Jared Cowe</t>
+  </si>
+  <si>
+    <t>Zemgus Girgensons</t>
+  </si>
+  <si>
+    <t>TJ Galiardi</t>
+  </si>
+  <si>
+    <t>Jordan Schroeder</t>
+  </si>
+  <si>
+    <t>Stephane Robidas</t>
+  </si>
+  <si>
+    <t>Cam Atkinson</t>
+  </si>
+  <si>
+    <t>Evgeni Nabokov</t>
+  </si>
+  <si>
+    <t>Marcus Kruger</t>
+  </si>
+  <si>
+    <t>Sergei Bobrovsky</t>
+  </si>
+  <si>
+    <t>Andre Burakovsky</t>
+  </si>
+  <si>
+    <t>Sergei Gonchar</t>
+  </si>
+  <si>
+    <t>P/L</t>
+  </si>
+  <si>
+    <t>Thomas Vanek</t>
+  </si>
+  <si>
+    <t>John Moore</t>
+  </si>
+  <si>
+    <t>Tomas Plekanec</t>
+  </si>
+  <si>
+    <t>Tomas Jurco</t>
+  </si>
+  <si>
+    <t>Tyler Johnson</t>
+  </si>
+  <si>
+    <t>Erik Gudbranson</t>
+  </si>
+  <si>
+    <t>Erik Karlsson</t>
+  </si>
+  <si>
+    <t>Marian Hossa</t>
+  </si>
+  <si>
+    <t>Martin St. Louis</t>
+  </si>
+  <si>
+    <t>Seth Jones</t>
+  </si>
+  <si>
+    <t>Mark Stone</t>
+  </si>
+  <si>
+    <t>Martin Erat</t>
+  </si>
+  <si>
+    <t>Johan Larsson</t>
+  </si>
+  <si>
+    <t>Alex Biega</t>
+  </si>
+  <si>
+    <t>Jeff Carter</t>
+  </si>
+  <si>
+    <t>Excel Interface</t>
+  </si>
+  <si>
+    <t>Need to make excel interface for input parameters (contest, losing teams, ex players etc.)</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Best Contests LastRow</t>
+  </si>
+  <si>
+    <t>18/02/2015</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11647?tableId=10588735&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11647?tableId=10588737&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11647?tableId=10588742&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11647?tableId=10588743&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>TableID</t>
+  </si>
+  <si>
+    <t>Entries</t>
+  </si>
+  <si>
+    <t>Avg Top Wins</t>
+  </si>
+  <si>
+    <t>Performance Monitoring LastRow</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>MySQL-ize data</t>
+  </si>
+  <si>
+    <t>Player Map, best contest and performance data needs to be moved to db</t>
+  </si>
+  <si>
+    <t>Kevin Hayes</t>
+  </si>
+  <si>
+    <t>Tomas Hertl</t>
+  </si>
+  <si>
+    <t>Tomas Tatar</t>
+  </si>
+  <si>
+    <t>Jay Harrison</t>
+  </si>
+  <si>
+    <t>19/02/2015</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10601885&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10601610&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10601690&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10601474&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10601139&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10600615&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10602745&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10602444&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10602274&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10602094&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10602135&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/e/Game/11649?tableId=10601553&amp;fromLobby=true</t>
+  </si>
+  <si>
+    <t>FD_operations.py</t>
+  </si>
+  <si>
+    <t>C:\Users\Cole\Desktop\FanDuel\fanduel\modules\FD_operations.py</t>
+  </si>
+  <si>
+    <t>Josh Manson</t>
+  </si>
+  <si>
+    <t>Dion Phaneuf</t>
+  </si>
+  <si>
+    <t>Nicklas Grossmann</t>
+  </si>
+  <si>
+    <t>Taylor Hall</t>
+  </si>
+  <si>
+    <t>Taylor Beck</t>
+  </si>
+  <si>
+    <t>Shawn Thornton</t>
+  </si>
+  <si>
+    <t>Ray Emery</t>
+  </si>
+  <si>
+    <t>Marc Staal</t>
+  </si>
+  <si>
+    <t>Dan Ellis</t>
+  </si>
+  <si>
+    <t>Boone Jenner</t>
+  </si>
+  <si>
+    <t>Matt Moulson</t>
+  </si>
+  <si>
+    <t>Matt Hunwick</t>
+  </si>
+  <si>
+    <t>Paul Carey</t>
+  </si>
+  <si>
+    <t>Evgeni Malkin</t>
+  </si>
+  <si>
+    <t>Christian Folin</t>
+  </si>
+  <si>
+    <t>Brian Ferlin</t>
+  </si>
+  <si>
+    <t>Dylan Olsen</t>
+  </si>
+  <si>
+    <t>Kevin Klein</t>
+  </si>
+  <si>
+    <t>Benoit Pouliot</t>
+  </si>
+  <si>
+    <t>Keith Aulie</t>
+  </si>
+  <si>
+    <t>Anthony Peluso</t>
+  </si>
+  <si>
+    <t>Matthew Lombardi</t>
+  </si>
+  <si>
+    <t>Miikka Salomaki</t>
+  </si>
+  <si>
+    <t>Kevin Bieksa</t>
+  </si>
+  <si>
+    <t>Josh Harding</t>
+  </si>
+  <si>
+    <t>Nathan Lieuwen</t>
+  </si>
+  <si>
+    <t>MacKenzie Skapski</t>
+  </si>
+  <si>
+    <t>Mackenzie Skapski</t>
+  </si>
+  <si>
+    <t>Stu Bickel</t>
+  </si>
+  <si>
+    <t>Tomas Kaberle</t>
+  </si>
+  <si>
+    <t>Matthew Hackett</t>
+  </si>
+  <si>
+    <t>Niklas Backstrom</t>
+  </si>
+  <si>
+    <t>Nicklas Backstrom</t>
+  </si>
+  <si>
+    <t>Henrik Lundqvist</t>
+  </si>
+  <si>
+    <t>Henrik Sedin</t>
+  </si>
+  <si>
+    <t>Evander Kane</t>
+  </si>
+  <si>
+    <t>Thomas McCollum</t>
+  </si>
+  <si>
+    <t>Johan Franzen</t>
+  </si>
+  <si>
+    <t>Jannik Hansen</t>
+  </si>
+  <si>
+    <t>Ryan Spooner</t>
+  </si>
+  <si>
+    <t>Jason Chimera</t>
+  </si>
+  <si>
+    <t>Louis Domingue</t>
+  </si>
+  <si>
+    <t>Petr Mrazek</t>
+  </si>
+  <si>
+    <t>Petter Granberg</t>
+  </si>
+  <si>
+    <t>Martin Hanzal</t>
+  </si>
+  <si>
+    <t>Martin Havlat</t>
+  </si>
+  <si>
+    <t>Martin Marincin</t>
+  </si>
+  <si>
+    <t>Mikkel Boedker</t>
+  </si>
+  <si>
+    <t>Mike Weber</t>
+  </si>
+  <si>
+    <t>Tim Gleason</t>
+  </si>
+  <si>
+    <t>Andy Miele</t>
+  </si>
+  <si>
+    <t>Andy Greene</t>
+  </si>
+  <si>
+    <t>Darren Helm</t>
+  </si>
+  <si>
+    <t>Mike Santorelli</t>
+  </si>
+  <si>
+    <t>Marko Dano</t>
+  </si>
+  <si>
+    <t>Bobby Butler</t>
+  </si>
+  <si>
+    <t>Marek Mazanec</t>
+  </si>
+  <si>
+    <t>Jason Zucker</t>
+  </si>
+  <si>
+    <t>Jason Demers</t>
+  </si>
+  <si>
+    <t>Jordan Martinook</t>
+  </si>
+  <si>
+    <t>Jesper Fast</t>
+  </si>
+  <si>
+    <t>Jacob Markstrom</t>
+  </si>
+  <si>
+    <t>Nathan Horton</t>
+  </si>
+  <si>
+    <t>Martin Brodeur</t>
+  </si>
+  <si>
+    <t>Joey MacDonald</t>
+  </si>
+  <si>
+    <t>Anthony Duclair</t>
+  </si>
+  <si>
+    <t>Anthony Stolarz</t>
+  </si>
+  <si>
+    <t>Anthony Bitetto</t>
+  </si>
+  <si>
+    <t>Peter Budaj</t>
+  </si>
+  <si>
+    <t>Jeff Drouin-Deslauriers</t>
+  </si>
+  <si>
+    <t>Matt Climie</t>
+  </si>
+  <si>
+    <t>Frans Nielsen</t>
+  </si>
+  <si>
+    <t>Brad Boyes</t>
+  </si>
+  <si>
+    <t>Martin Jones</t>
+  </si>
+  <si>
+    <t>Kevin Shattenkirk</t>
+  </si>
+  <si>
+    <t>Viatcheslav Voynov</t>
+  </si>
+  <si>
+    <t>Alec Martinez</t>
+  </si>
+  <si>
+    <t>Paul Martin</t>
+  </si>
+  <si>
+    <t>Oliver Lauridsen</t>
+  </si>
+  <si>
+    <t>Oliver Ekman-Larsson</t>
+  </si>
+  <si>
+    <t>Matt Hendricks</t>
+  </si>
+  <si>
+    <t>Peter Mueller</t>
+  </si>
+  <si>
+    <t>Mirco Mueller</t>
+  </si>
+  <si>
+    <t>Steve Mason</t>
+  </si>
+  <si>
+    <t>Steve Downie</t>
+  </si>
+  <si>
+    <t>Steve Oleksy</t>
+  </si>
+  <si>
+    <t>Danny Taylor</t>
+  </si>
+  <si>
+    <t>Grant Clitsome</t>
+  </si>
+  <si>
+    <t>Jason Williams</t>
+  </si>
+  <si>
+    <t>Justin Williams</t>
+  </si>
+  <si>
     <t>Jason Pominville</t>
   </si>
   <si>
-    <t>Patrick Dwyer</t>
-  </si>
-  <si>
-    <t>Jonathan Drouin</t>
-  </si>
-  <si>
-    <t>Karl Alzner</t>
-  </si>
-  <si>
-    <t>Carl Hagelin</t>
-  </si>
-  <si>
-    <t>Dan Hamhuis</t>
-  </si>
-  <si>
-    <t>Brian Gibbons</t>
-  </si>
-  <si>
-    <t>Brian Gionta</t>
-  </si>
-  <si>
-    <t>Radko Gudas</t>
-  </si>
-  <si>
-    <t>Kristers Gudlevskis</t>
-  </si>
-  <si>
-    <t>David Moss</t>
-  </si>
-  <si>
-    <t>David Pastrnak</t>
-  </si>
-  <si>
-    <t>David Jones</t>
-  </si>
-  <si>
-    <t>Andrew Campbell</t>
-  </si>
-  <si>
-    <t>Gregory Campbell</t>
-  </si>
-  <si>
-    <t>Manny Malhotra</t>
-  </si>
-  <si>
-    <t>Quinton Howden</t>
-  </si>
-  <si>
-    <t>Allan York</t>
-  </si>
-  <si>
-    <t>Jamie McBain</t>
-  </si>
-  <si>
-    <t>Tanner Pearson</t>
-  </si>
-  <si>
-    <t>Tanner Glass</t>
-  </si>
-  <si>
-    <t>Matt Hackett</t>
-  </si>
-  <si>
-    <t>Matt Beleskey</t>
-  </si>
-  <si>
-    <t>Brett Ritchie</t>
-  </si>
-  <si>
-    <t>Brent Burns</t>
-  </si>
-  <si>
-    <t>NHL Roster Name</t>
-  </si>
-  <si>
-    <t>Slate Size</t>
-  </si>
-  <si>
-    <t>Web Interface</t>
-  </si>
-  <si>
-    <t>Need to develop a web interface to remotely build lineup. Need to host on server (GAE or RasPi?</t>
-  </si>
-  <si>
-    <t>Web Development</t>
-  </si>
-  <si>
-    <t>Matt Stajan</t>
-  </si>
-  <si>
-    <t>Mike Weaver</t>
-  </si>
-  <si>
-    <t>Matt Halischuk</t>
-  </si>
-  <si>
-    <t>Mathew Dumba</t>
-  </si>
-  <si>
-    <t>Jason Garrison</t>
-  </si>
-  <si>
-    <t>Andrew MacDonald</t>
-  </si>
-  <si>
-    <t>Brad Richards</t>
-  </si>
-  <si>
-    <t>Marcus Johansson</t>
-  </si>
-  <si>
-    <t>Chris Thorburn</t>
-  </si>
-  <si>
-    <t>Erik Condra</t>
-  </si>
-  <si>
-    <t>Josh Jooris</t>
-  </si>
-  <si>
-    <t>Josh Gorges</t>
-  </si>
-  <si>
-    <t>Josh Bailey</t>
-  </si>
-  <si>
-    <t>Paul Bissonnette</t>
-  </si>
-  <si>
-    <t>Beau Bennett</t>
-  </si>
-  <si>
-    <t>Paul Byron</t>
-  </si>
-  <si>
-    <t>Andrew Ladd</t>
-  </si>
-  <si>
-    <t>Andrew Shaw</t>
-  </si>
-  <si>
-    <t>Bryan Bickell</t>
-  </si>
-  <si>
-    <t>John Gibson</t>
-  </si>
-  <si>
-    <t>Calvin de Haan</t>
-  </si>
-  <si>
-    <t>Calvin de_Haan</t>
-  </si>
-  <si>
-    <t>Harry Zolnierczyk</t>
-  </si>
-  <si>
-    <t>Steven Oleksy</t>
-  </si>
-  <si>
-    <t>Steven Stamkos</t>
-  </si>
-  <si>
-    <t>Ryan Ellis</t>
-  </si>
-  <si>
-    <t>Ryan O'Reilly</t>
-  </si>
-  <si>
-    <t>Ryan Callahan</t>
-  </si>
-  <si>
-    <t>Brandon Gormley</t>
-  </si>
-  <si>
-    <t>Brandon Bollig</t>
-  </si>
-  <si>
-    <t>Brandon Prust</t>
-  </si>
-  <si>
-    <t>Brandon Pirri</t>
-  </si>
-  <si>
-    <t>Braden Holtby</t>
-  </si>
-  <si>
-    <t>Brandon Sutter</t>
-  </si>
-  <si>
-    <t>Brian Boyle</t>
-  </si>
-  <si>
-    <t>Stefan Elliott</t>
-  </si>
-  <si>
-    <t>Mark Pysyk</t>
-  </si>
-  <si>
-    <t>Mark Fayne</t>
-  </si>
-  <si>
-    <t>Alex Grant</t>
-  </si>
-  <si>
-    <t>Alex Galchenyuk</t>
-  </si>
-  <si>
-    <t>Alex Tanguay</t>
-  </si>
-  <si>
-    <t>Alex Killorn</t>
-  </si>
-  <si>
-    <t>Alex Pietrangelo</t>
-  </si>
-  <si>
-    <t>Alex Chiasson</t>
-  </si>
-  <si>
-    <t>Jesse Winchester</t>
-  </si>
-  <si>
-    <t>Ryan Stanton</t>
-  </si>
-  <si>
-    <t>Ryan Johansen</t>
-  </si>
-  <si>
-    <t>Ryan Suter</t>
-  </si>
-  <si>
-    <t>Brad Richardson</t>
-  </si>
-  <si>
-    <t>Brett Sutter</t>
-  </si>
-  <si>
-    <t>Brent Seabrook</t>
-  </si>
-  <si>
-    <t>Pat Dwyer</t>
-  </si>
-  <si>
-    <t>Alexander Steen</t>
-  </si>
-  <si>
-    <t>Alex Steen</t>
-  </si>
-  <si>
-    <t>Christian Thomas</t>
-  </si>
-  <si>
-    <t>Trevor Smith</t>
-  </si>
-  <si>
-    <t>Colin McDonald</t>
-  </si>
-  <si>
-    <t>Nathan Mackinnon</t>
-  </si>
-  <si>
-    <t>Nick Shore</t>
-  </si>
-  <si>
-    <t>Zemgus  Girgensons</t>
-  </si>
-  <si>
-    <t>T.J. Galiardi</t>
-  </si>
-  <si>
-    <t>Alexander Edler</t>
-  </si>
-  <si>
-    <t>Frans Nielse</t>
-  </si>
-  <si>
-    <t>Michael Grabne</t>
-  </si>
-  <si>
-    <t>Brock Nelso</t>
-  </si>
-  <si>
-    <t>Matt Marti</t>
-  </si>
-  <si>
-    <t>Tomas Fleischma</t>
-  </si>
-  <si>
-    <t>Jussi Jokine</t>
-  </si>
-  <si>
-    <t>Shawn Thornto</t>
-  </si>
-  <si>
-    <t>Erik Gudbranso</t>
-  </si>
-  <si>
-    <t>Nathan Mackinno</t>
-  </si>
-  <si>
-    <t>Nate Gueni</t>
-  </si>
-  <si>
-    <t>Nick Holde</t>
-  </si>
-  <si>
-    <t>Jaromir Jag</t>
-  </si>
-  <si>
-    <t>Steve Bernie</t>
-  </si>
-  <si>
-    <t>Jacob Josefso</t>
-  </si>
-  <si>
-    <t>Adam Larsso</t>
-  </si>
-  <si>
-    <t>Mark Frase</t>
-  </si>
-  <si>
-    <t>Jamie Be</t>
-  </si>
-  <si>
-    <t>Tyler Segui</t>
-  </si>
-  <si>
-    <t>Cody Eaki</t>
-  </si>
-  <si>
-    <t>Vernon Fiddle</t>
-  </si>
-  <si>
-    <t>Colton Sceviou</t>
-  </si>
-  <si>
-    <t>Jordie Be</t>
-  </si>
-  <si>
-    <t>Sean Monaha</t>
-  </si>
-  <si>
-    <t>Jiri Hudle</t>
-  </si>
-  <si>
-    <t>Matt Staja</t>
-  </si>
-  <si>
-    <t>Paul Byro</t>
-  </si>
-  <si>
-    <t>Dennis Widema</t>
-  </si>
-  <si>
-    <t>Derek Stepa</t>
-  </si>
-  <si>
-    <t>Chris Kreide</t>
-  </si>
-  <si>
-    <t>Carl Hageli</t>
-  </si>
-  <si>
-    <t>Kevin Klei</t>
-  </si>
-  <si>
-    <t>Melker Karlsso</t>
-  </si>
-  <si>
-    <t>Joe Thornto</t>
-  </si>
-  <si>
-    <t>Tye McGi</t>
-  </si>
-  <si>
-    <t>Brenden Dillo</t>
-  </si>
-  <si>
-    <t>Matt Tennyso</t>
-  </si>
-  <si>
-    <t>Matt Irwi</t>
-  </si>
-  <si>
-    <t>Scott Hanna</t>
-  </si>
-  <si>
-    <t>David Perro</t>
-  </si>
-  <si>
-    <t>Brandon Sutte</t>
-  </si>
-  <si>
-    <t>Paul Marti</t>
-  </si>
-  <si>
-    <t>Daniel Sedi</t>
-  </si>
-  <si>
-    <t>Henrik Sedi</t>
-  </si>
-  <si>
-    <t>Jannik Hanse</t>
-  </si>
-  <si>
-    <t>Alexander Edle</t>
-  </si>
-  <si>
-    <t>Dmitrij Jaski</t>
-  </si>
-  <si>
-    <t>Jay Bouwmeeste</t>
-  </si>
-  <si>
-    <t>Carl Gunnarsso</t>
-  </si>
-  <si>
-    <t>Barret Jackma</t>
-  </si>
-  <si>
-    <t>Teuvo Teravaine</t>
-  </si>
-  <si>
-    <t>Marcus Kruge</t>
-  </si>
-  <si>
-    <t>Niklas Hjalmarsso</t>
-  </si>
-  <si>
-    <t>Brendan Gallaghe</t>
-  </si>
-  <si>
-    <t>Lars Elle</t>
-  </si>
-  <si>
-    <t>P.K. Subba</t>
-  </si>
-  <si>
-    <t>Mike Weave</t>
-  </si>
-  <si>
-    <t>Alexei Emeli</t>
-  </si>
-  <si>
-    <t>Brayden Sche</t>
-  </si>
-  <si>
-    <t>R.J. Umberge</t>
-  </si>
-  <si>
-    <t>Sean Couturie</t>
-  </si>
-  <si>
-    <t>Vincent Lecavalie</t>
-  </si>
-  <si>
-    <t>Luke Sche</t>
-  </si>
-  <si>
-    <t>Patrick Maroo</t>
-  </si>
-  <si>
-    <t>Ryan Kesle</t>
-  </si>
-  <si>
-    <t>Nate Thompso</t>
-  </si>
-  <si>
-    <t>Cam Fowle</t>
-  </si>
-  <si>
-    <t>Francois Beauchemi</t>
-  </si>
-  <si>
-    <t>Clayton Stone</t>
-  </si>
-  <si>
-    <t>Sami Vatane</t>
-  </si>
-  <si>
-    <t>Anze Kopita</t>
-  </si>
-  <si>
-    <t>Dustin Brow</t>
-  </si>
-  <si>
-    <t>Jeff Carte</t>
-  </si>
-  <si>
-    <t>Jordan Nola</t>
-  </si>
-  <si>
-    <t>Jake Muzzi</t>
-  </si>
-  <si>
-    <t>Robyn Regeh</t>
-  </si>
-  <si>
-    <t>Ryan Johanse</t>
-  </si>
-  <si>
-    <t>Cam Atkinso</t>
-  </si>
-  <si>
-    <t>Fedor Tyuti</t>
-  </si>
-  <si>
-    <t>Jack Johnso</t>
-  </si>
-  <si>
-    <t>Kevin Connauto</t>
-  </si>
-  <si>
-    <t>Matt Moulso</t>
-  </si>
-  <si>
-    <t>Brian Fly</t>
-  </si>
-  <si>
-    <t>Rasmus Ristolaine</t>
-  </si>
-  <si>
-    <t>Mike Webe</t>
-  </si>
-  <si>
-    <t>Boyd Gordo</t>
-  </si>
-  <si>
-    <t>Rob Klinkhamme</t>
-  </si>
-  <si>
-    <t>Matt Frase</t>
-  </si>
-  <si>
-    <t>Anton Lande</t>
-  </si>
-  <si>
-    <t>Ryan Callaha</t>
-  </si>
-  <si>
-    <t>Tyler Johnso</t>
-  </si>
-  <si>
-    <t>Alex Killo</t>
-  </si>
-  <si>
-    <t>Jonathan Droui</t>
-  </si>
-  <si>
-    <t>J.T. Brow</t>
-  </si>
-  <si>
-    <t>Andrej Sust</t>
-  </si>
-  <si>
-    <t>Victor Hedma</t>
-  </si>
-  <si>
-    <t>Anton Stralma</t>
-  </si>
-  <si>
-    <t>Jason Garriso</t>
-  </si>
-  <si>
-    <t>Blake Wheele</t>
-  </si>
-  <si>
-    <t>Chris Thorbu</t>
-  </si>
-  <si>
-    <t>Jim Slate</t>
-  </si>
-  <si>
-    <t>Dustin Byfuglie</t>
-  </si>
-  <si>
-    <t>Zach Bogosia</t>
-  </si>
-  <si>
-    <t>Tobias Riede</t>
-  </si>
-  <si>
-    <t>Shane Doa</t>
-  </si>
-  <si>
-    <t>Sam Gagne</t>
-  </si>
-  <si>
-    <t>Brandon McMilla</t>
-  </si>
-  <si>
-    <t>Brendan Shinnimi</t>
-  </si>
-  <si>
-    <t>B.J. Crombee</t>
-  </si>
-  <si>
-    <t>Oliver Ekman-Larsso</t>
-  </si>
-  <si>
-    <t>Clarke MacArthu</t>
-  </si>
-  <si>
-    <t>Bobby Rya</t>
-  </si>
-  <si>
-    <t>Mike Hoffma</t>
-  </si>
-  <si>
-    <t>Curtis Laza</t>
-  </si>
-  <si>
-    <t>Erik Karlsso</t>
-  </si>
-  <si>
-    <t>Jared Cowe</t>
-  </si>
-  <si>
-    <t>Zemgus Girgensons</t>
-  </si>
-  <si>
-    <t>TJ Galiardi</t>
-  </si>
-  <si>
-    <t>Frederik Andersen</t>
-  </si>
-  <si>
-    <t>Jordan Schroeder</t>
-  </si>
-  <si>
-    <t>Stephane Robidas</t>
-  </si>
-  <si>
-    <t>Cam Atkinson</t>
-  </si>
-  <si>
-    <t>Evgeni Nabokov</t>
-  </si>
-  <si>
-    <t>Darcy Kuemper</t>
-  </si>
-  <si>
-    <t>Marcus Kruger</t>
-  </si>
-  <si>
-    <t>Anders Lindback</t>
-  </si>
-  <si>
-    <t>Anders Lee</t>
-  </si>
-  <si>
-    <t>Sergei Bobrovsky</t>
-  </si>
-  <si>
-    <t>Andre Burakovsky</t>
-  </si>
-  <si>
-    <t>Sergei Gonchar</t>
-  </si>
-  <si>
-    <t>P/L</t>
-  </si>
-  <si>
-    <t>Thomas Vanek</t>
-  </si>
-  <si>
-    <t>John Moore</t>
-  </si>
-  <si>
-    <t>Jason Demers</t>
-  </si>
-  <si>
-    <t>David Wolf</t>
-  </si>
-  <si>
-    <t>David Clarkson</t>
-  </si>
-  <si>
-    <t>Tomas Plekanec</t>
-  </si>
-  <si>
-    <t>Tomas Jurco</t>
-  </si>
-  <si>
-    <t>Justin Peters</t>
-  </si>
-  <si>
-    <t>Justin Schultz</t>
-  </si>
-  <si>
-    <t>Tyler Johnson</t>
-  </si>
-  <si>
-    <t>Erik Gudbranson</t>
-  </si>
-  <si>
-    <t>Erik Karlsson</t>
-  </si>
-  <si>
-    <t>Marian Hossa</t>
-  </si>
-  <si>
-    <t>Martin St. Louis</t>
-  </si>
-  <si>
-    <t>Seth Jones</t>
-  </si>
-  <si>
-    <t>Mark Stone</t>
-  </si>
-  <si>
-    <t>Martin Erat</t>
-  </si>
-  <si>
-    <t>Johan Larsson</t>
-  </si>
-  <si>
-    <t>Alex Biega</t>
-  </si>
-  <si>
-    <t>Jeff Carter</t>
-  </si>
-  <si>
-    <t>Excel Interface</t>
-  </si>
-  <si>
-    <t>Need to make excel interface for input parameters (contest, losing teams, ex players etc.)</t>
-  </si>
-  <si>
-    <t>Interface</t>
-  </si>
-  <si>
-    <t>Best Contests LastRow</t>
-  </si>
-  <si>
-    <t>18/02/2015</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11647?tableId=10588735&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11647?tableId=10588737&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11647?tableId=10588742&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11647?tableId=10588743&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>TableID</t>
-  </si>
-  <si>
-    <t>Entries</t>
-  </si>
-  <si>
-    <t>Avg Top Wins</t>
-  </si>
-  <si>
-    <t>Performance Monitoring LastRow</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>MySQL-ize data</t>
-  </si>
-  <si>
-    <t>Player Map, best contest and performance data needs to be moved to db</t>
-  </si>
-  <si>
-    <t>Kevin Hayes</t>
-  </si>
-  <si>
-    <t>Tomas Hertl</t>
-  </si>
-  <si>
-    <t>Tomas Tatar</t>
-  </si>
-  <si>
-    <t>Jeff Zatkoff</t>
-  </si>
-  <si>
-    <t>Jay Harrison</t>
-  </si>
-  <si>
-    <t>Tomas Vokoun</t>
+    <t>Mark Giordano</t>
+  </si>
+  <si>
+    <t>Mark Barberio</t>
+  </si>
+  <si>
+    <t>Simon Gagne</t>
+  </si>
+  <si>
+    <t>Sam Gagner</t>
+  </si>
+  <si>
+    <t>Michael Santorelli</t>
+  </si>
+  <si>
+    <t>Mark Streit</t>
+  </si>
+  <si>
+    <t>Tyler Toffoli</t>
   </si>
   <si>
     <t>Ryan McDonagh</t>
   </si>
   <si>
-    <t>19/02/2015</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11649?tableId=10601885&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11649?tableId=10601610&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11649?tableId=10601690&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11649?tableId=10601474&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11649?tableId=10601139&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11649?tableId=10600615&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11649?tableId=10602745&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11649?tableId=10602444&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11649?tableId=10602274&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11649?tableId=10602094&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11649?tableId=10602135&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/e/Game/11649?tableId=10601553&amp;fromLobby=true</t>
-  </si>
-  <si>
-    <t>FD_operations.py</t>
-  </si>
-  <si>
-    <t>C:\Users\Cole\Desktop\FanDuel\fanduel\modules\FD_operations.py</t>
-  </si>
-  <si>
-    <t>Josh Manson</t>
-  </si>
-  <si>
-    <t>Dion Phaneuf</t>
-  </si>
-  <si>
-    <t>Nicklas Grossmann</t>
-  </si>
-  <si>
-    <t>Taylor Hall</t>
-  </si>
-  <si>
-    <t>Taylor Beck</t>
-  </si>
-  <si>
-    <t>Keith Yandle</t>
-  </si>
-  <si>
-    <t>Pascal Dupuis</t>
-  </si>
-  <si>
-    <t>Bobby Butler</t>
-  </si>
-  <si>
-    <t>Andrei Markov</t>
-  </si>
-  <si>
-    <t>Nathan Horton</t>
-  </si>
-  <si>
-    <t>Shawn Thornton</t>
-  </si>
-  <si>
-    <t>Vincent Trocheck</t>
-  </si>
-  <si>
-    <t>Carl Soderberg</t>
-  </si>
-  <si>
-    <t>Ray Whitney</t>
-  </si>
-  <si>
-    <t>Ray Emery</t>
-  </si>
-  <si>
-    <t>Andrei Vasilevskii</t>
-  </si>
-  <si>
-    <t>Andrei Vasilevskiy</t>
-  </si>
-  <si>
-    <t>Marc Staal</t>
-  </si>
-  <si>
-    <t>Maxime Fortunus</t>
-  </si>
-  <si>
-    <t>Dan Ellis</t>
-  </si>
-  <si>
-    <t>Boone Jenner</t>
-  </si>
-  <si>
-    <t>Matt Moulson</t>
-  </si>
-  <si>
-    <t>Jack Campbell</t>
-  </si>
-  <si>
-    <t>Brian Campbell</t>
-  </si>
-  <si>
-    <t>Rich Peverley</t>
-  </si>
-  <si>
-    <t>Matt Hunwick</t>
-  </si>
-  <si>
-    <t>Paul Carey</t>
-  </si>
-  <si>
-    <t>Olli Maatta</t>
-  </si>
-  <si>
-    <t>Evgeni Malkin</t>
-  </si>
-  <si>
-    <t>Christian Ehrhoff</t>
-  </si>
-  <si>
-    <t>Joffrey Lupul</t>
-  </si>
-  <si>
-    <t>Christian Folin</t>
-  </si>
-  <si>
-    <t>Brian Ferlin</t>
-  </si>
-  <si>
-    <t>Ryan  Hamilton</t>
-  </si>
-  <si>
-    <t>Dylan Olsen</t>
-  </si>
-  <si>
-    <t>Matt Carkner</t>
-  </si>
-  <si>
-    <t>Jacob Markstrom</t>
-  </si>
-  <si>
-    <t>Calvin Pickard</t>
-  </si>
-  <si>
-    <t>Kevin Poulin</t>
-  </si>
-  <si>
-    <t>Kevin Klein</t>
-  </si>
-  <si>
-    <t>Benoit Pouliot</t>
-  </si>
-  <si>
-    <t>Keith Aulie</t>
-  </si>
-  <si>
-    <t>Anthony Duclair</t>
-  </si>
-  <si>
-    <t>Anthony Stolarz</t>
-  </si>
-  <si>
-    <t>Anthony Peluso</t>
-  </si>
-  <si>
-    <t>Kyle Okposo</t>
-  </si>
-  <si>
-    <t>Matthew Lombardi</t>
-  </si>
-  <si>
-    <t>Miikka Salomaki</t>
-  </si>
-  <si>
-    <t>Matt Donovan</t>
-  </si>
-  <si>
-    <t>Jamie McGinn</t>
-  </si>
-  <si>
-    <t>Tye McGinn</t>
-  </si>
-  <si>
-    <t>Kevin Bieksa</t>
-  </si>
-  <si>
-    <t>Josh Harding</t>
-  </si>
-  <si>
-    <t>Nathan Lieuwen</t>
-  </si>
-  <si>
-    <t>MacKenzie Skapski</t>
-  </si>
-  <si>
-    <t>Mackenzie Skapski</t>
-  </si>
-  <si>
-    <t>Stu Bickel</t>
-  </si>
-  <si>
-    <t>Tomas Kaberle</t>
-  </si>
-  <si>
-    <t>Matthew Hackett</t>
-  </si>
-  <si>
-    <t>John Tavares</t>
-  </si>
-  <si>
-    <t>{u'MIN': [['Nino Niederreiter', 'Mikko Koivu', 'Jason Pominville'], ['Zach Parise', 'Mikael Granlund', 'Justin Fontaine'], ['Thomas Vanek', 'Charlie Coyle', 'Jordan Schroeder'], ['Stephane Veilleux', 'Kyle Brodziak', 'Erik Haula'], ['Ryan Suter', 'Jonas Brodin'], ['Marco Scandella', 'Mathew Dumba'], ['Christian Folin', 'Nate Prosser'], ['Zach Parise', 'Mikko Koivu', 'Thomas Vanek', 'Ryan Suter', 'Jason Pominville'], ['Nino Niederreiter', 'Mikael Granlund', 'Charlie Coyle', 'Marco Scandella', 'Mathew Dumba']], u'TOR': [['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel'], ['Daniel Winnik', 'Nazem Kadri', 'Joffrey Lupul'], ['Leo Komarov', 'Olli Jokinen', 'David Clarkson'], ['David Booth', 'Peter Holland', 'Richard Panik'], ['Morgan Rielly', 'Roman Polak'], ['Jake Gardiner', 'Korbinian Holzer'], ['Stephane Robidas', 'Petter Granberg'], ['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel', 'Morgan Rielly', 'Nazem Kadri'], ['Joffrey Lupul', 'Peter Holland', 'David Clarkson', 'Jake Gardiner', 'Stephane Robidas']], u'CAR': [['Eric Staal', 'Jordan Staal', 'Jiri Tlusty'], ['Nathan Gerbe', 'Victor Rask', 'Elias Lindholm'], ['Jeff Skinner', 'Riley Nash', 'Alexander Semin'], ['Andrej Nestrasil', 'Jay McClement', 'Pat Dwyer'], ['Andrej Sekera', 'Justin Faulk'], ['John-Michael Liles', 'Tim Gleason'], ['Ron Hainsey', 'Brett Bellemore'], ['Jiri Tlusty', 'Eric Staal', 'Elias Lindholm', 'John-Michael Liles', 'Justin Faulk'], ['Brad Malone', 'Jordan Staal', 'Riley Nash', 'Andrej Sekera', 'Jeff Skinner']], u'BOS': [['Milan Lucic', 'Patrice Bergeron', 'David Pastrnak'], ['Brad Marchand', 'Ryan Spooner', 'Reilly Smith'], ['Chris Kelly', 'Carl Soderberg', 'Loui Eriksson'], ['Jordan Caron', 'Gregory Campbell', 'Brian Ferlin'], ['Zdeno Chara', 'Dougie Hamilton'], ['Matt Bartkowski', 'Dennis Seidenberg'], ['Torey Krug', 'Adam McQuaid'], ['Matt Bartkowski', 'Patrice Bergeron', 'Loui Eriksson', 'Reilly Smith', 'Dougie Hamilton'], ['Brad Marchand', 'Ryan Spooner', 'Milan Lucic', 'Zdeno Chara', 'Torey Krug']], u'DET': [['Justin Abdelkader', 'Henrik Zetterberg', 'Teemu Pulkkinen'], ['Tomas Tatar', 'Pavel Datsyuk', 'Darren Helm'], ['Gustav Nyquist', 'Riley Sheahan', 'Stephen Weiss'], ['Drew Miller', 'Luke Glendening', 'Tomas Jurco'], ['Jonathan Ericsson', 'Niklas Kronwall'], ['Jakub Kindl', 'Dan DeKeyser'], ['Brendan Smith', 'Alexey Marchenko'], ['Gustav Nyquist', 'Henrik Zetterberg', 'Justin Abdelkader', 'Stephen Weiss', 'Niklas Kronwall'], ['Tomas Tatar', 'Pavel Datsyuk', 'Riley Sheahan', 'Teemu Pulkkinen', 'Dan DeKeyser']], u'NAS': [['Colin Wilson', 'Mike Ribeiro', 'James Neal'], ['Filip Forsberg', 'Mike Fisher', 'Craig Smith'], ['Matt Cullen', 'Calle Jarnkrok', 'Mike Santorelli'], ['Eric Nystrom', 'Paul Gaustad', 'Gabriel Bourque'], ['Roman Josi', 'Shea Weber'], ['Victor Bartley', 'Seth Jones'], ['Mattias Ekholm', 'Cody Franson'], ['Filip Forsberg', 'Mike Fisher', 'James Neal', 'Roman Josi', 'Shea Weber'], ['Colin Wilson', 'Mike Ribeiro', 'Craig Smith', 'Cody Franson', 'Seth Jones']], u'NYI': [['Anders Lee', 'John Tavares', 'Josh Bailey'], ['Michael Grabner', 'Frans Nielsen', 'Ryan Strome'], ['Nikolay Kulemin', 'Brock Nelson', 'Cal Clutterbuck'], ['Matt Martin', 'Kael Mouillierat', 'Colin McDonald'], ['Nick Leddy', 'Johnny Boychuk'], ['Calvin de Haan', 'Travis Hamonic'], ['Lubomir Visnovsky', 'Thomas Hickey'], ['Anders Lee', 'John Tavares', 'Frans Nielsen', 'Nick Leddy', 'Johnny Boychuk'], ['Josh Bailey', 'Brock Nelson', 'Ryan Strome', 'Lubomir Visnovsky', 'Travis Hamonic']], u'FLA': [['Jussi Jokinen', 'Nick Bjugstad', 'Jimmy Hayes'], ['Jonathan Huberdeau', 'Aleksander Barkov', 'Brad Boyes'], ['Tomas Fleischmann', 'Dave Bolland', 'Scottie Upshall'], ['Tomas Kopecky', 'Derek MacKenzie', 'Shawn Thornton'], ['Brian Campbell', 'Aaron Ekblad'], ['Dmitry Kulikov', 'Erik Gudbranson'], ['Steve Kampfer', 'Alex Petrovic'], ['Jonathan Huberdeau', 'Nick Bjugstad', 'Jimmy Hayes', 'Aleksander Barkov', 'Aaron Ekblad'], ['Tomas Fleischmann', 'Dave Bolland', 'Jussi Jokinen', 'Brian Campbell', 'Dmitry Kulikov']], u'COL': [['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon'], ['Max Talbot', 'Matt Duchene', 'Jarome Iginla'], ['Alex Tanguay', 'John Mitchell', 'Dennis Everberg'], ['Cody McLeod', 'Marc-Andre Cliche', 'Paul Carey'], ['Jan Hejda', 'Zach Redmond'], ['Nate Guenin', 'Tyson Barrie'], ['Brad Stuart', 'Nick Holden'], ['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon', 'Jarome Iginla', 'Tyson Barrie'], ['Alex Tanguay', 'Matt Duchene', 'John Mitchell', 'Nick Holden', 'Zach Redmond']], u'NJD': [['Adam Henrique', 'Patrik Elias', 'Steve Bernier'], ['Tuomo Ruutu', 'Scott Gomez', 'Jaromir Jagr'], ['Michael Cammalleri', 'Travis Zajac', 'Jordin Tootoo'], ['Dainius Zubrus', 'Jacob Josefson', 'Stephen Gionta'], ['Andy Greene', 'Adam Larsson'], ['Jon Merrill', 'Marek Zidlicky'], ['Eric Gelinas', 'Peter Harrold'], ['Steve Bernier', 'Scott Gomez', 'Jaromir Jagr', 'Eric Gelinas', 'Michael Cammalleri'], ['Patrik Elias', 'Adam Henrique', 'Jordin Tootoo', 'Travis Zajac', 'Marek Zidlicky']], u'DAL': [['Jamie Benn', 'Jason Spezza', 'Erik Cole'], ['Antoine Roussel', 'Cody Eakin', 'Brett Ritchie'], ['Curtis McKenzie', 'Vernon Fiddler', 'Ales Hemsky'], ['Ryan Garbutt', 'Shawn Horcoff', 'Colton Sceviour'], ['Alex Goligoski', 'John Klingberg'], ['Jyrki Jokipakka', 'Trevor Daley'], ['Jordie Benn', 'Jason Demers'], ['Jamie Benn', 'Jason Spezza', 'Brett Ritchie', 'Trevor Daley', 'John Klingberg'], ['Erik Cole', 'Shawn Horcoff', 'Colton Sceviour', 'Alex Goligoski', 'Jason Demers']], u'CGY': [['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler'], ['Lance Bouma', 'Mikael Backlund', 'David Jones'], ['Curtis Glencross', 'Markus Granlund', 'Mason Raymond'], ['Brandon Bollig', 'Matt Stajan', 'Joe Colborne'], ['Mark Giordano', 'T.J. Brodie'], ['Kris Russell', 'Dennis Wideman'], ['Raphael Diaz', 'Deryk Engelland'], ['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler', 'T.J. Brodie', 'Dennis Wideman'], ['Mason Raymond', 'Mikael Backlund', 'David Jones', 'Mark Giordano', 'Raphael Diaz']], u'NYR': [['Rick Nash', 'Derick Brassard', 'Mats Zuccarello'], ['Chris Kreider', 'Derek Stepan', 'Martin St. Louis'], ['Carl Hagelin', 'Kevin Hayes', 'J.T. Miller'], ['Tanner Glass', 'Dominic Moore', 'Lee Stempniak'], ['Ryan McDonagh', 'Dan Girardi'], ['Marc Staal', 'Kevin Klein'], ['Dan Boyle', 'John Moore'], ['Rick Nash', 'Derick Brassard', 'Mats Zuccarello', 'Ryan McDonagh', 'Derek Stepan'], ['Chris Kreider', 'Kevin Hayes', 'Martin St. Louis', 'Dan Boyle', 'Dan Girardi']], u'SJS': [['Patrick Marleau', 'Joe Thornton', 'Melker Karlsson'], ['Joe Pavelski', 'Logan Couture', 'Tommy Wingels'], ['Matthew Nieto', 'James Sheppard', 'Tyler Kennedy'], ['Tomas Hertl', 'Andrew Desjardins', 'John Scott'], ['Marc-Edouard Vlasic', 'Brent Burns'], ['Brenden Dillon', 'Justin Braun'], ['Matt Irwin', 'Scott Hannan'], ['Patrick Marleau', 'Joe Thornton', 'Logan Couture', 'Joe Pavelski', 'Brent Burns'], ['Matthew Nieto', 'Tomas Hertl', 'Tommy Wingels', 'Matt Irwin', 'Marc-Edouard Vlasic']], u'PIT': [['Chris Kunitz', 'Sidney Crosby', 'David Perron'], ['Blake Comeau', 'Evgeni Malkin', 'Patric Hornqvist'], ['Nick Spaling', 'Brandon Sutter', 'Beau Bennett'], ['Craig Adams', 'Maxim Lapierre', 'Steve Downie'], ['Paul Martin', 'Kris Letang'], ['Christian Ehrhoff', 'Simon Despres'], ['Rob Scuderi', 'Robert Bortuzzo'], ['Chris Kunitz', 'Sidney Crosby', 'Patric Hornqvist', 'Evgeni Malkin', 'Kris Letang'], ['David Perron', 'Brandon Sutter', 'Steve Downie', 'Paul Martin', 'Christian Ehrhoff']], u'VAN': [['Daniel Sedin', 'Henrik Sedin', 'Zack Kassian'], ['Chris Higgins', 'Shawn Matthias', 'Radim Vrbata'], ['Brandon McMillan', 'Linden Vey', 'Derek Dorsett'], ['Ronalds Kenins', 'Bo Horvat', 'Jannik Hansen'], ['Dan Hamhuis', 'Yannick Weber'], ['Luca Sbisa', 'Alex Biega'], ['Ryan Stanton', 'Adam Clendening'], ['Daniel Sedin', 'Henrik Sedin', 'Linden Vey', 'Radim Vrbata', 'Adam Clendening'], ['Chris Higgins', 'Bo Horvat', 'Jannik Hansen', 'Dan Hamhuis', 'Yannick Weber']], u'STL': [['Alex Steen', 'David Backes', 'T.J. Oshie'], ['Jaden Schwartz', 'Jori Lehtera', 'Vladimir Tarasenko'], ['Dmitrij Jaskin', 'Paul Stastny', 'Patrik Berglund'], ['Steve Ott', 'Marcel Goc', 'Ryan Reaves'], ['Jay Bouwmeester', 'Alex Pietrangelo'], ['Carl Gunnarsson', 'Petteri Lindbohm'], ['Barret Jackman', 'Ian Cole'], ['David Backes', 'Paul Stastny', 'T.J. Oshie', 'Jay Bouwmeester', 'Alex Pietrangelo'], ['Jaden Schwartz', 'Jori Lehtera', 'Vladimir Tarasenko', 'Alex Steen', 'Dmitrij Jaskin']], u'CHI': [['Brandon Saad', 'Jonathan Toews', 'Marian Hossa'], ['Kris Versteeg', 'Brad Richards', 'Patrick Kane'], ['Bryan Bickell', 'Andrew Shaw', 'Dan Carcillo'], ['Patrick Sharp', 'Marcus Kruger', 'Ryan Hartman'], ['Duncan Keith', 'Michal Rozsival'], ['Johnny Oduya', 'Niklas Hjalmarsson'], ['Kyle Cumiskey', 'Brent Seabrook'], ['Brandon Saad', 'Jonathan Toews', 'Marian Hossa', 'Patrick Kane', 'Brent Seabrook'], ['Patrick Sharp', 'Brad Richards', 'Andrew Shaw', 'Duncan Keith', 'Michal Rozsival']], u'MTL': [['Max Pacioretty', 'David Desharnais', 'Brendan Gallagher'], ['Jiri Sekac', 'Tomas Plekanec', 'Lars Eller'], ['Brandon Prust', 'Jacob De La Rose', 'Dale Weise'], ['Michael Bournival', 'Manny Malhotra', 'Christian Thomas'], ['Andrei Markov', 'P.K. Subban'], ['Nathan Beaulieu', 'Tom Gilbert'], ['Jarred Tinordi', 'Greg Pateryn'], ['Max Pacioretty', 'David Desharnais', 'Brendan Gallagher', 'Andrei Markov', 'P.K. Subban'], ['Jiri Sekac', 'Tomas Plekanec', 'Lars Eller', 'Nathan Beaulieu', 'Tom Gilbert']], u'PHI': [['Michael Raffl', 'Claude Giroux', 'Wayne Simmonds'], ['Matt Read', 'Sean Couturier', 'Jakub Voracek'], ['Ryan White', 'Brayden Schenn', 'R.J. Umberger'], ['Chris VandeVelde', 'Zac Rinaldo'], ['Nick Schultz', 'Mark Streit'], ['Michael Del Zotto', 'Braydon Coburn'], ['Nicklas Grossmann', 'Andrew MacDonald'], ['Brayden Schenn', 'Claude Giroux', 'Wayne Simmonds', 'Jakub Voracek', 'Mark Streit'], ['R.J. Umberger', 'Sean Couturier', 'Michael Raffl', 'Matt Read', 'Michael Del Zotto']], u'ANA': [['Patrick Maroon', 'Ryan Getzlaf', 'Kyle Palmieri'], ['Devante Smith-Pelly', 'Ryan Kesler', 'Corey Perry'], ['Andrew Cogliano', 'Rickard Rakell', 'Jakob Silfverberg'], ['Rene Bourque', 'Nate Thompson', 'Tim Jackman'], ['Cam Fowler', 'Ben Lovejoy'], ['Hampus Lindholm', 'Francois Beauchemin'], ['Clayton Stoner', 'Josh Manson'], ['Patrick Maroon', 'Ryan Getzlaf', 'Ryan Kesler', 'Cam Fowler', 'Corey Perry'], ['Kyle Palmieri', 'Rickard Rakell', 'Jakob Silfverberg', 'Hampus Lindholm', 'Francois Beauchemin']], u'LAK': [['Marian Gaborik', 'Anze Kopitar', 'Trevor Lewis'], ['Dwight King', 'Jeff Carter', 'Tyler Toffoli'], ['Dustin Brown', 'Jarret Stoll', 'Justin Williams'], ['Kyle Clifford', 'Nick Shore', 'Jordan Nolan'], ['Robyn Regehr', 'Drew Doughty'], ['Jake Muzzin', 'Matt Greene'], ['Brayden McNabb', 'Jamie McBain'], ['Marian Gaborik', 'Anze Kopitar', 'Jeff Carter', 'Jake Muzzin', 'Drew Doughty'], ['Dwight King', 'Nick Shore', 'Tyler Toffoli', 'Brayden McNabb', 'Jamie McBain']], u'CBJ': [['Scott Hartnell', 'Ryan Johansen', 'Alexander Wennberg'], ['Matt Calvert', 'Brandon Dubinsky', 'Cam Atkinson'], ['Marko Dano', 'Artem Anisimov', 'Nick Foligno'], ['Corey Tropp', 'Mark Letestu', 'Jared Boll'], ['Jack Johnson', 'David Savard'], ['Kevin Connauton', 'James Wisniewski'], ['Fedor Tyutin', 'Cody Goloubef'], ['Scott Hartnell', 'Ryan Johansen', 'Nick Foligno', 'Kevin Connauton', 'David Savard'], ['Artem Anisimov', 'Brandon Dubinsky', 'Cam Atkinson', 'Jack Johnson', 'James Wisniewski']], u'BUF': [['Chris Stewart', 'Zemgus  Girgensons', 'Tyler Ennis'], ['Matt Moulson', 'Torrey Mitchell', 'Brian Gionta'], ['Marcus Foligno', 'Brian Flynn', 'Nicolas Deslauriers'], ['Johan Larsson', 'Matt Ellis', 'Cody Hodgson'], ['Andre Benoit', 'Zach Bogosian'], ['Nikita Zadorov', 'Rasmus Ristolainen'], ['Mike Weber', 'Andrej Meszaros'], ['Matt Moulson', 'Zemgus  Girgensons', 'Chris Stewart', 'Tyler Ennis', 'Zach Bogosian'], ['Marcus Foligno', 'Brian Flynn', 'Brian Gionta', 'Nikita Zadorov', 'Rasmus Ristolainen']], u'EDM': [['Teddy Purcell', 'Ryan Nugent-Hopkins', 'Jordan Eberle'], ['Ryan  Hamilton', 'Derek Roy', 'Nail Yakupov'], ['Matt Fraser', 'Benoit Pouliot', 'Iiro Pakarinen'], ['Matt Hendricks', 'Boyd Gordon', 'Rob Klinkhammer'], ['Oscar Klefbom', 'Justin Schultz'], ['Martin Marincin', 'Mark Fayne'], ['Andrew Ference', 'Keith Aulie'], ['Teddy Purcell', 'Anton Lander', 'Jordan Eberle', 'Ryan Nugent-Hopkins', 'Justin Schultz'], ['Benoit Pouliot', 'Derek Roy', 'Iiro Pakarinen', 'Oscar Klefbom', 'Nail Yakupov']], u'TBL': [['Alex Killorn', 'Steven Stamkos', 'Ryan Callahan'], ['Ondrej Palat', 'Tyler Johnson', 'Nikita Kucherov'], ['Cedric Paquette', 'Valtteri Filppula', 'Brett Connolly'], ['Jonathan Drouin', 'Brian Boyle', 'J.T. Brown'], ['Victor Hedman', 'Andrej Sustr'], ['Mark Barberio', 'Anton Stralman'], ['Jason Garrison', 'Nikita Nesterov'], ['Alex Killorn', 'Steven Stamkos', 'Valtteri Filppula', 'Victor Hedman', 'Jason Garrison'], ['Ondrej Palat', 'Tyler Johnson', 'Ryan Callahan', 'Anton Stralman', 'Nikita Kucherov']], u'WIN': [['Andrew Ladd', 'Bryan Little', 'Blake Wheeler'], ['Dustin Byfuglien', 'Mark Scheifele', 'Drew Stafford'], ['Chris Thorburn', 'Adam Lowry', 'Michael Frolik'], ['Carl Klingberg', 'Jim Slater', 'Anthony Peluso'], ['Tobias Enstrom', 'Tyler Myers'], ['Mark Stuart', 'Jacob Trouba'], ['Ben Chiarot', 'Adam Pardy'], ['Andrew Ladd', 'Bryan Little', 'Blake Wheeler', 'Tobias Enstrom', 'Dustin Byfuglien'], ['Michael Frolik', 'Mark Scheifele', 'Drew Stafford', 'Jacob Trouba', 'Tyler Myers']], u'ARI': [['Lauri Korpikoski', 'Antoine Vermette', 'Martin Erat'], ['Tobias Rieder', 'Mark Arcobello', 'Sam Gagner'], ['Lucas Lessio', 'Kyle Chipchura', 'Shane Doan'], ['Jordan Martinook', 'Joe Vitale', 'David Moss'], ['Oliver Ekman-Larsson', 'Brandon Gormley'], ['Keith Yandle', 'Michael Stone'], ['Andrew Campbell', 'Connor Murphy'], ['Tobias Rieder', 'Antoine Vermette', 'Shane Doan', 'Oliver Ekman-Larsson', 'Keith Yandle'], ['Lauri Korpikoski', 'Sam Gagner', 'Martin Erat', 'Michael Stone', 'Connor Murphy']], u'OTT': [['Mike Hoffman', 'Mika Zibanejad', 'Bobby Ryan'], ['Milan Michalek', 'Kyle Turris', 'Mark Stone'], ['Matt Puempel', 'David Legwand', 'Alex Chiasson'], ['Erik Condra', 'Jean-Gabriel Pageau', 'Curtis Lazar'], ['Marc Methot', 'Erik Karlsson'], ['Cody Ceci', 'Jared Cowen'], ['Mark Borowiecki', 'Patrick Wiercioch'], ['Milan Michalek', 'Kyle Turris', 'Mark Stone', 'Cody Ceci', 'Erik Karlsson'], ['David Legwand', 'Mika Zibanejad', 'Bobby Ryan', 'Mike Hoffman', 'Patrick Wiercioch']]}</t>
-  </si>
-  <si>
-    <t>Marc-Andre Fleury</t>
-  </si>
-  <si>
-    <t>Marek Mazanec</t>
-  </si>
-  <si>
-    <t>Niklas Backstrom</t>
-  </si>
-  <si>
-    <t>Nicklas Backstrom</t>
-  </si>
-  <si>
-    <t>Henrik Lundqvist</t>
-  </si>
-  <si>
-    <t>Henrik Sedin</t>
-  </si>
-  <si>
-    <t>Evander Kane</t>
-  </si>
-  <si>
-    <t>['NYR', 'NYR', 'NYR', 'NYR', 'NYR', 'NYR', 'NYR']</t>
-  </si>
-  <si>
-    <t>['PIT', 'PIT', 'PIT', 'PIT', 'PIT']</t>
-  </si>
-  <si>
-    <t>['NYI', 'NYI', 'NYI', 'NYI', 'NYI', 'NYI', 'NYI', 'NYI', 'NYI']</t>
-  </si>
-  <si>
-    <t>Ondrej Palat</t>
-  </si>
-  <si>
-    <t>['TBL', 'TBL', 'TBL', 'TBL', 'TBL', 'TBL', 'TBL', 'TBL', 'TBL']</t>
-  </si>
-  <si>
-    <t>Anton Stralman</t>
+    <t>{u'MIN': [['Sean Bergenheim', 'Mikko Koivu', 'Thomas Vanek'], ['Zach Parise', 'Mikael Granlund', 'Jason Pominville'], ['Nino Niederreiter', 'Charlie Coyle', 'Jordan Schroeder'], ['Erik Haula', 'Kyle Brodziak', 'Justin Fontaine'], ['Ryan Suter', 'Jonas Brodin'], ['Marco Scandella', 'Mathew Dumba'], ['Nate Prosser', 'Christian Folin'], ['Zach Parise', 'Mikko Koivu', 'Thomas Vanek', 'Ryan Suter', 'Jason Pominville'], ['Nino Niederreiter', 'Mikael Granlund', 'Charlie Coyle', 'Jonas Brodin', 'Mathew Dumba']], u'TOR': [['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel'], ['Joffrey Lupul', 'Nazem Kadri', 'Richard Panik'], ['Leo Komarov', 'Olli Jokinen', 'David Clarkson'], ['David Booth', 'Peter Holland', 'Zach Sill'], ['Dion Phaneuf', 'Korbinian Holzer'], ['Morgan Rielly', 'Roman Polak'], ['Jake Gardiner', 'Stephane Robidas'], ['James van Riemsdyk', 'Tyler Bozak', 'Phil Kessel', 'Dion Phaneuf', 'Joffrey Lupul'], ['Olli Jokinen', 'Nazem Kadri', 'David Clarkson', 'Morgan Rielly', 'Jake Gardiner']], u'CAR': [['Eric Staal', 'Jordan Staal', 'Elias Lindholm'], ['Nathan Gerbe', 'Victor Rask', 'Alexander Semin'], ['Jeff Skinner', 'Riley Nash', 'Chris Terry'], ['Brad Malone', 'Jay McClement', 'Pat Dwyer'], ['John-Michael Liles', 'Justin Faulk'], ['Michal Jordan', 'Tim Gleason'], ['Ron Hainsey', 'Brett Bellemore'], ['Jeff Skinner', 'Eric Staal', 'Elias Lindholm', 'Victor Rask', 'Justin Faulk'], ['Riley Nash', 'Jordan Staal', 'Alexander Semin', 'John-Michael Liles', 'Michal Jordan']], u'BOS': [['Brad Marchand', 'Patrice Bergeron', 'Reilly Smith'], ['Milan Lucic', 'Ryan Spooner', 'David Pastrnak'], ['Daniel Paille', 'Carl Soderberg', 'Loui Eriksson'], ['Jordan Caron', 'Chris Kelly', 'Brian Ferlin'], ['Zdeno Chara', 'Dougie Hamilton'], ['Torey Krug', 'Adam McQuaid'], ['Dennis Seidenberg', 'Matt Bartkowski'], ['Ryan Spooner', 'Patrice Bergeron', 'Loui Eriksson', 'Torey Krug', 'Dougie Hamilton'], ['Milan Lucic', 'Carl Soderberg', 'David Pastrnak', 'Zdeno Chara', 'Reilly Smith']], u'DET': [['Tomas Tatar', 'Pavel Datsyuk', 'Darren Helm'], ['Gustav Nyquist', 'Riley Sheahan', 'Justin Abdelkader'], ['Teemu Pulkkinen', '', 'Stephen Weiss'], ['Drew Miller', 'Luke Glendening', 'Tomas Jurco'], ['Jonathan Ericsson', 'Niklas Kronwall'], ['Jakub Kindl', 'Dan DeKeyser'], ['Brendan Smith', 'Alexey Marchenko'], ['Gustav Nyquist', 'Pavel Datsyuk', 'Justin Abdelkader', 'Tomas Tatar', 'Niklas Kronwall'], ['Stephen Weiss', 'Riley Sheahan', 'Darren Helm', 'Teemu Pulkkinen', 'Dan DeKeyser']], u'NAS': [['Filip Forsberg', 'Mike Ribeiro', 'James Neal'], ['Craig Smith', 'Mike Fisher', 'Matt Cullen'], ['Colin Wilson', 'Calle Jarnkrok', 'Mike Santorelli'], ['Eric Nystrom', 'Paul Gaustad', 'Gabriel Bourque'], ['Roman Josi', 'Shea Weber'], ['Mattias Ekholm', 'Cody Franson'], ['Victor Bartley', 'Seth Jones'], ['Filip Forsberg', 'Mike Fisher', 'James Neal', 'Roman Josi', 'Shea Weber'], ['Colin Wilson', 'Mike Ribeiro', 'Craig Smith', 'Cody Franson', 'Seth Jones']], u'NYI': [['Anders Lee', 'John Tavares', 'Josh Bailey'], ['Michael Grabner', 'Frans Nielsen', 'Ryan Strome'], ['Nikolay Kulemin', 'Brock Nelson', 'Cal Clutterbuck'], ['Matt Martin', 'Kael Mouillierat', 'Colin McDonald'], ['Nick Leddy', 'Johnny Boychuk'], ['Calvin de Haan', 'Travis Hamonic'], ['Lubomir Visnovsky', 'Thomas Hickey'], ['Anders Lee', 'John Tavares', 'Frans Nielsen', 'Nick Leddy', 'Johnny Boychuk'], ['Josh Bailey', 'Brock Nelson', 'Ryan Strome', 'Lubomir Visnovsky', 'Travis Hamonic']], u'FLA': [['Jussi Jokinen', 'Nick Bjugstad', 'Jimmy Hayes'], ['Jonathan Huberdeau', 'Aleksander Barkov', 'Brad Boyes'], ['Tomas Fleischmann', 'Vincent Trocheck', 'Scottie Upshall'], ['Garrett Wilson', 'Derek MacKenzie', 'Shawn Thornton'], ['Brian Campbell', 'Aaron Ekblad'], ['Dmitry Kulikov', 'Erik Gudbranson'], ['Steve Kampfer', 'Alex Petrovic'], ['Jonathan Huberdeau', 'Nick Bjugstad', 'Jimmy Hayes', 'Aleksander Barkov', 'Aaron Ekblad'], ['Jussi Jokinen', 'Vincent Trocheck', 'Brad Boyes', 'Brian Campbell', 'Erik Gudbranson']], u'COL': [['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon'], ['Max Talbot', 'Matt Duchene', 'Jarome Iginla'], ['Alex Tanguay', 'John Mitchell', 'Dennis Everberg'], ['Cody McLeod', 'Marc-Andre Cliche', 'Paul Carey'], ['Nate Guenin', 'Tyson Barrie'], ['Jan Hejda', 'Zach Redmond'], ['Brad Stuart', 'Nick Holden'], ['Gabriel Landeskog', "Ryan O'Reilly", 'Nathan Mackinnon', 'Jarome Iginla', 'Tyson Barrie'], ['Alex Tanguay', 'Matt Duchene', 'John Mitchell', 'Nick Holden', 'Zach Redmond']], u'NJD': [['Adam Henrique', 'Patrik Elias', 'Steve Bernier'], ['Tuomo Ruutu', 'Scott Gomez', 'Jaromir Jagr'], ['Michael Cammalleri', 'Travis Zajac', 'Jordin Tootoo'], ['Dainius Zubrus', 'Jacob Josefson', 'Stephen Gionta'], ['Andy Greene', 'Adam Larsson'], ['Jon Merrill', 'Marek Zidlicky'], ['Eric Gelinas', 'Peter Harrold'], ['Steve Bernier', 'Scott Gomez', 'Jaromir Jagr', 'Eric Gelinas', 'Michael Cammalleri'], ['Patrik Elias', 'Adam Henrique', 'Jordin Tootoo', 'Travis Zajac', 'Marek Zidlicky']], u'DAL': [['Jamie Benn', 'Jason Spezza', 'Erik Cole'], ['Antoine Roussel', 'Cody Eakin', 'Ryan Garbutt'], ['Curtis McKenzie', 'Vernon Fiddler', 'Ales Hemsky'], ['Brett Ritchie', 'Shawn Horcoff', 'Colton Sceviour'], ['Alex Goligoski', 'John Klingberg'], ['Jyrki Jokipakka', 'Trevor Daley'], ['Jordie Benn', 'Jason Demers'], ['Jamie Benn', 'Jason Spezza', 'Brett Ritchie', 'Trevor Daley', 'John Klingberg'], ['Erik Cole', 'Shawn Horcoff', 'Ales Hemsky', 'Alex Goligoski', 'Jason Demers']], u'CGY': [['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler'], ['Lance Bouma', 'Mikael Backlund', 'David Jones'], ['Curtis Glencross', 'Josh Jooris', 'Joe Colborne'], ['Michael Ferland', 'Markus Granlund', 'Emile Poirier'], ['Mark Giordano', 'T.J. Brodie'], ['Kris Russell', 'Dennis Wideman'], ['Raphael Diaz', 'Deryk Engelland'], ['Johnny Gaudreau', 'Sean Monahan', 'Jiri Hudler', 'T.J. Brodie', 'Dennis Wideman'], ['Curtis Glencross', 'Mikael Backlund', 'David Jones', 'Mark Giordano', 'Raphael Diaz']], u'NYR': [['Rick Nash', 'Derick Brassard', 'Mats Zuccarello'], ['Chris Kreider', 'Derek Stepan', 'Martin St. Louis'], ['Carl Hagelin', 'Kevin Hayes', 'J.T. Miller'], ['Tanner Glass', 'Dominic Moore', 'Lee Stempniak'], ['Ryan McDonagh', 'Dan Girardi'], ['Marc Staal', 'Kevin Klein'], ['Matt Hunwick', 'Dan Boyle'], ['Rick Nash', 'Derick Brassard', 'Martin St. Louis', 'Dan Boyle', 'Derek Stepan'], ['Chris Kreider', 'Kevin Hayes', 'Mats Zuccarello', 'Ryan McDonagh', 'Dan Girardi']], u'SJS': [['Patrick Marleau', 'Joe Thornton', 'Melker Karlsson'], ['Joe Pavelski', 'Logan Couture', 'Tommy Wingels'], ['Tomas Hertl', 'James Sheppard', 'Matthew Nieto'], ['John Scott', 'Andrew Desjardins', 'Tyler Kennedy'], ['Marc-Edouard Vlasic', 'Brent Burns'], ['Brenden Dillon', 'Justin Braun'], ['Matt Irwin', 'Scott Hannan'], ['Patrick Marleau', 'Joe Thornton', 'Logan Couture', 'Joe Pavelski', 'Brent Burns'], ['Melker Karlsson', 'Tomas Hertl', 'Tommy Wingels', 'Matt Irwin', 'Marc-Edouard Vlasic']], u'PIT': [['David Perron', 'Sidney Crosby', 'Patric Hornqvist'], ['Chris Kunitz', 'Evgeni Malkin', 'Blake Comeau'], ['Nick Spaling', 'Brandon Sutter', 'Steve Downie'], ['Craig Adams', 'Maxim Lapierre', 'Beau Bennett'], ['Paul Martin', 'Kris Letang'], ['Derrick Pouliot', 'Christian Ehrhoff'], ['Rob Scuderi', 'Simon Despres'], ['Chris Kunitz', 'Sidney Crosby', 'Patric Hornqvist', 'Evgeni Malkin', 'Kris Letang'], ['David Perron', 'Brandon Sutter', 'Steve Downie', 'Paul Martin', 'Derrick Pouliot']], u'VAN': [['Daniel Sedin', 'Henrik Sedin', 'Zack Kassian'], ['Shawn Matthias', 'Nick Bonino', 'Radim Vrbata'], ['Chris Higgins', 'Linden Vey', 'Derek Dorsett'], ['Ronalds Kenins', 'Bo Horvat', 'Jannik Hansen'], ['Dan Hamhuis', 'Yannick Weber'], ['Luca Sbisa', 'Alex Biega'], ['Ryan Stanton', 'Adam Clendening'], ['Daniel Sedin', 'Henrik Sedin', 'Zack Kassian', 'Radim Vrbata', 'Yannick Weber'], ['Chris Higgins', 'Nick Bonino', 'Jannik Hansen', 'Dan Hamhuis', 'Adam Clendening']], u'STL': [['Alex Steen', 'David Backes', 'T.J. Oshie'], ['Jaden Schwartz', 'Jori Lehtera', 'Vladimir Tarasenko'], ['Patrik Berglund', 'Paul Stastny', 'Dmitrij Jaskin'], ['Steve Ott', 'Marcel Goc', 'Ryan Reaves'], ['Carl Gunnarsson', 'Alex Pietrangelo'], ['Petteri Lindbohm', 'Jay Bouwmeester'], ['Barret Jackman', 'Chris Butler'], ['Jori Lehtera', 'David Backes', 'T.J. Oshie', 'Alex Steen', 'Vladimir Tarasenko'], ['Jaden Schwartz', 'Paul Stastny', 'Dmitrij Jaskin', 'Jay Bouwmeester', 'Alex Pietrangelo']], u'CHI': [['Brandon Saad', 'Jonathan Toews', 'Marian Hossa'], ['Patrick Sharp', 'Brad Richards', 'Kris Versteeg'], ['Bryan Bickell', 'Andrew Shaw', 'Teuvo Teravainen'], ['Joakim Nordstrom', 'Marcus Kruger', 'Ben Smith'], ['Duncan Keith', 'David Rundblad'], ['Niklas Hjalmarsson', 'Brent Seabrook'], ['Kyle Cumiskey', 'Michal Rozsival'], ['Kris Versteeg', 'Jonathan Toews', 'Marian Hossa', 'Duncan Keith', 'Patrick Sharp'], ['Bryan Bickell', 'Brad Richards', 'Andrew Shaw', 'Michal Rozsival', 'Brent Seabrook']], u'MTL': [['Max Pacioretty', 'David Desharnais', 'Brendan Gallagher'], ['Lars Eller', 'Tomas Plekanec', 'Alex Galchenyuk'], ['Brandon Prust', 'Jacob De La Rose', 'Dale Weise'], ['Michael Bournival', 'Manny Malhotra', 'Devante Smith-Pelly'], ['Andrei Markov', 'P.K. Subban'], ['Nathan Beaulieu', 'Tom Gilbert'], ['Jarred Tinordi', 'Greg Pateryn'], ['Max Pacioretty', 'David Desharnais', 'Brendan Gallagher', 'Andrei Markov', 'P.K. Subban'], ['Alex Galchenyuk', 'Tomas Plekanec', 'Lars Eller', 'Nathan Beaulieu', 'Tom Gilbert']], u'PHI': [['Michael Raffl', 'Claude Giroux', 'Wayne Simmonds'], ['Matt Read', 'Sean Couturier', 'Jakub Voracek'], ['Ryan White', 'Brayden Schenn', 'R.J. Umberger'], ['Chris VandeVelde', 'Zac Rinaldo'], ['Nick Schultz', 'Mark Streit'], ['Michael Del Zotto', 'Braydon Coburn'], ['Nicklas Grossmann', 'Andrew MacDonald'], ['Brayden Schenn', 'Claude Giroux', 'Wayne Simmonds', 'Jakub Voracek', 'Mark Streit'], ['R.J. Umberger', 'Sean Couturier', 'Matt Read', 'Michael Del Zotto', 'Andrew MacDonald']], u'ANA': [['Kyle Palmieri', 'Ryan Getzlaf', 'Corey Perry'], ['Jiri Sekac', 'Ryan Kesler', 'Jakob Silfverberg'], ['Andrew Cogliano', 'Rickard Rakell', 'Emerson Etem'], ['Patrick Maroon', 'William Karlsson', 'Rene Bourque'], ['Hampus Lindholm', 'Francois Beauchemin'], ['Cam Fowler', 'Eric Brewer'], ['Clayton Stoner', 'Josh Manson'], ['Patrick Maroon', 'Ryan Getzlaf', 'Corey Perry', 'Cam Fowler', 'Francois Beauchemin'], ['Kyle Palmieri', 'Ryan Kesler', 'Jiri Sekac', 'Hampus Lindholm', 'Jakob Silfverberg']], u'LAK': [['Marian Gaborik', 'Anze Kopitar', 'Dustin Brown'], ['Dwight King', 'Jeff Carter', 'Tyler Toffoli'], ['Trevor Lewis', 'Jarret Stoll', 'Justin Williams'], ['Kyle Clifford', 'Nick Shore', 'Jordan Nolan'], ['Robyn Regehr', 'Drew Doughty'], ['Jake Muzzin', 'Matt Greene'], ['Brayden McNabb', 'Jamie McBain'], ['Marian Gaborik', 'Anze Kopitar', 'Justin Williams', 'Jake Muzzin', 'Drew Doughty'], ['Dwight King', 'Jeff Carter', 'Tyler Toffoli', 'Brayden McNabb', 'Jamie McBain']], u'CBJ': [['Alexander Wennberg', 'Ryan Johansen', 'Nick Foligno'], ['Matt Calvert', 'Brandon Dubinsky', 'Cam Atkinson'], ['Marko Dano', 'Artem Anisimov', 'Scott Hartnell'], ['Corey Tropp', 'Mark Letestu', 'Jared Boll'], ['David Savard', 'Jack Johnson'], ['Jordan Leopold', 'James Wisniewski'], ['Fedor Tyutin', 'Cody Goloubef'], ['Scott Hartnell', 'Ryan Johansen', 'Nick Foligno', 'Alexander Wennberg', 'James Wisniewski'], ['Artem Anisimov', 'Brandon Dubinsky', 'Cam Atkinson', 'Jack Johnson', 'David Savard']], u'BUF': [['Matt Moulson', 'Torrey Mitchell', 'Brian Gionta'], ['Marcus Foligno', 'Brian Flynn', 'Chris Stewart'], ['Johan Larsson', 'Phil Varone', 'Zac Dalpe'], ['Cody Hodgson', 'Matt Ellis', 'Nicolas Deslauriers'], ['Andre Benoit', 'Zach Bogosian'], ['Mike Weber', 'Rasmus Ristolainen'], ['Andrej Meszaros', 'Mark Pysyk'], ['Marcus Foligno', 'Cody Hodgson', 'Chris Stewart', 'Mark Pysyk', 'Rasmus Ristolainen'], ['Matt Moulson', 'Brian Flynn', 'Brian Gionta', 'Andrej Meszaros', 'Zach Bogosian']], u'EDM': [['Benoit Pouliot', 'Ryan Nugent-Hopkins', 'Jordan Eberle'], ['Teddy Purcell', 'Derek Roy', 'Matt Fraser'], ['Ryan  Hamilton', 'Matt Hendricks', 'Iiro Pakarinen'], ['Luke Gazdic', 'Boyd Gordon', 'Rob Klinkhammer'], ['Oscar Klefbom', 'Justin Schultz'], ['Andrew Ference', 'Jeff Petry'], ['Martin Marincin', 'Mark Fayne'], ['Benoit Pouliot', 'Ryan Nugent-Hopkins', 'Jordan Eberle', 'Teddy Purcell', 'Justin Schultz'], ['Ryan  Hamilton', 'Derek Roy', 'Matt Fraser', 'Iiro Pakarinen', 'Jeff Petry']], u'TBL': [['Alex Killorn', 'Steven Stamkos', 'Ryan Callahan'], ['Ondrej Palat', 'Tyler Johnson', 'Nikita Kucherov'], ['Cedric Paquette', 'Valtteri Filppula', 'Brett Connolly'], ['Jonathan Drouin', 'Brian Boyle', 'J.T. Brown'], ['Victor Hedman', 'Andrej Sustr'], ['Mark Barberio', 'Anton Stralman'], ['Jason Garrison', 'Nikita Nesterov'], ['Alex Killorn', 'Steven Stamkos', 'Jonathan Drouin', 'Valtteri Filppula', 'Jason Garrison'], ['Ondrej Palat', 'Tyler Johnson', 'Ryan Callahan', 'Anton Stralman', 'Nikita Kucherov']], u'WIN': [['Andrew Ladd', 'Bryan Little', 'Michael Frolik'], ['Jiri Tlusty', 'Mark Scheifele', 'Drew Stafford'], ['Chris Thorburn', 'Adam Lowry', "Eric O'Dell"], ['Adam Pardy', 'Jim Slater', 'Anthony Peluso'], ['Tobias Enstrom', 'Tyler Myers'], ['Mark Stuart', 'Jacob Trouba'], ['Jay Harrison', 'Dustin Byfuglien'], ['Andrew Ladd', 'Bryan Little', 'Mark Scheifele', 'Tobias Enstrom', 'Dustin Byfuglien'], ['Michael Frolik', 'Adam Lowry', 'Drew Stafford', 'Jacob Trouba', 'Tyler Myers']], u'ARI': [['Lucas Lessio', 'Antoine Vermette', 'Shane Doan'], ['Tobias Rieder', 'Kyle Chipchura', 'Sam Gagner'], ['Martin Erat', 'Mark Arcobello', 'David Moss'], ['Lauri Korpikoski', 'Joe Vitale', 'Henrik Samuelsson'], ['Oliver Ekman-Larsson', 'Michael Stone'], ['Keith Yandle', 'Andrew Campbell'], ['Brandon Gormley', 'Connor Murphy'], ['Tobias Rieder', 'Antoine Vermette', 'Shane Doan', 'Oliver Ekman-Larsson', 'Keith Yandle'], ['Lauri Korpikoski', 'Sam Gagner', 'Martin Erat', 'Michael Stone', 'Brandon Gormley']], u'OTT': [['Mike Hoffman', 'Mika Zibanejad', 'Bobby Ryan'], ['Milan Michalek', 'Kyle Turris', 'Mark Stone'], ['Matt Puempel', 'David Legwand', 'Alex Chiasson'], ['Erik Condra', 'Jean-Gabriel Pageau', 'Curtis Lazar'], ['Marc Methot', 'Erik Karlsson'], ['Patrick Wiercioch', 'Cody Ceci'], ['Mark Borowiecki', 'Eric Gryba'], ['David Legwand', 'Kyle Turris', 'Mark Stone', 'Cody Ceci', 'Erik Karlsson'], ['Alex Chiasson', 'Mika Zibanejad', 'Bobby Ryan', 'Milan Michalek', 'Patrick Wiercioch']]}</t>
+  </si>
+  <si>
+    <t>Henrik Samuelsson</t>
+  </si>
+  <si>
+    <t>Troy Grosenick</t>
+  </si>
+  <si>
+    <t>Troy Brouwer</t>
+  </si>
+  <si>
+    <t>Todd Bertuzzi</t>
+  </si>
+  <si>
+    <t>Craig Anderson</t>
+  </si>
+  <si>
+    <t>Joakim Andersson</t>
+  </si>
+  <si>
+    <t>Craig Adams</t>
+  </si>
+  <si>
+    <t>Matt Tennyson</t>
+  </si>
+  <si>
+    <t>David Dziurzynski</t>
+  </si>
+  <si>
+    <t>Joe Pavelski</t>
+  </si>
+  <si>
+    <t>['SJS', 'SJS', 'SJS', 'SJS', 'SJS']</t>
+  </si>
+  <si>
+    <t>['NYR', 'NYR', 'NYR', 'NYR', 'NYR']</t>
+  </si>
+  <si>
+    <t>Carey Price</t>
+  </si>
+  <si>
+    <t>['MTL', 'MTL', 'MTL', 'MTL', 'MTL']</t>
+  </si>
+  <si>
+    <t>['LAK', 'LAK', 'LAK', 'LAK', 'LAK', 'LAK']</t>
+  </si>
+  <si>
+    <t>['DET', 'DET', 'DET', 'DET', 'DET', 'DET', 'DET']</t>
+  </si>
+  <si>
+    <t>David Desharnais</t>
+  </si>
+  <si>
+    <t>['MTL', 'MTL', 'MTL', 'MTL', 'MTL', 'MTL', 'MTL']</t>
   </si>
 </sst>
 </file>
@@ -2542,11 +2608,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="214070016"/>
-        <c:axId val="214071552"/>
+        <c:axId val="206877824"/>
+        <c:axId val="206879360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214070016"/>
+        <c:axId val="206877824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2555,7 +2621,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214071552"/>
+        <c:crossAx val="206879360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2563,7 +2629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214071552"/>
+        <c:axId val="206879360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2574,7 +2640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214070016"/>
+        <c:crossAx val="206877824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2687,11 +2753,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214103936"/>
-        <c:axId val="214105472"/>
+        <c:axId val="206903552"/>
+        <c:axId val="206909440"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="214103936"/>
+        <c:axId val="206903552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2700,7 +2766,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214105472"/>
+        <c:crossAx val="206909440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2708,7 +2774,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214105472"/>
+        <c:axId val="206909440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2719,7 +2785,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214103936"/>
+        <c:crossAx val="206903552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2752,6 +2818,135 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Roster!$B$15:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Roster!$C$15:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="45813760"/>
+        <c:axId val="43767680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="45813760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43767680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="43767680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45813760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2833,11 +3028,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="233949440"/>
-        <c:axId val="233947904"/>
+        <c:axId val="207249408"/>
+        <c:axId val="207250944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="233949440"/>
+        <c:axId val="207249408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2847,12 +3042,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233947904"/>
+        <c:crossAx val="207250944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="233947904"/>
+        <c:axId val="207250944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2863,14 +3058,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233949440"/>
+        <c:crossAx val="207249408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2951,6 +3145,41 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3555,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3563,7 +3792,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3663,7 +3892,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>122</v>
@@ -3687,13 +3916,13 @@
         <v>166</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>125</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>180</v>
@@ -3805,7 +4034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -4329,16 +4558,16 @@
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>251</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E23" s="6">
         <v>5</v>
@@ -4346,16 +4575,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>251</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="E24" s="6">
         <v>5</v>
@@ -4366,16 +4595,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>251</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="E25" s="6">
         <v>2</v>
@@ -4476,8 +4705,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4506,7 +4735,7 @@
         <v>63</v>
       </c>
       <c r="B3" s="3">
-        <v>883</v>
+        <v>907</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4514,7 +4743,7 @@
         <v>158</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4532,7 +4761,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="B7">
         <f>COUNTA('Best Contests'!B:B)+1</f>
@@ -4541,7 +4770,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="B8" s="5">
         <f>COUNTA('Performance Monitoring'!A:A)+1</f>
@@ -4872,10 +5101,10 @@
     <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>615</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>616</v>
       </c>
       <c r="C2" t="s">
         <v>183</v>
@@ -4893,30 +5122,30 @@
         <v>184</v>
       </c>
       <c r="H2" t="s">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="I2" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="J2" t="s">
         <v>231</v>
       </c>
       <c r="K2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="B3" t="s">
-        <v>541</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>520</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>464</v>
       </c>
       <c r="E3" t="s">
         <v>229</v>
@@ -4927,30 +5156,36 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
-        <v>479</v>
+        <v>228</v>
       </c>
       <c r="D4" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>230</v>
+      </c>
+      <c r="F4" t="s">
+        <v>553</v>
+      </c>
+      <c r="G4" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>598</v>
+        <v>556</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>557</v>
       </c>
       <c r="C5" t="s">
-        <v>492</v>
+        <v>284</v>
       </c>
       <c r="D5" t="s">
         <v>182</v>
@@ -4965,7 +5200,7 @@
         <v>214</v>
       </c>
       <c r="H5" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I5" t="s">
         <v>232</v>
@@ -4974,51 +5209,51 @@
         <v>215</v>
       </c>
       <c r="K5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L5" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="M5" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="N5" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="O5" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="P5" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="Q5" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="R5" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="S5" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="T5" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="U5" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>570</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>312</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>568</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>473</v>
       </c>
       <c r="E6" t="s">
         <v>213</v>
@@ -5033,10 +5268,10 @@
         <v>215</v>
       </c>
       <c r="I6" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J6" t="s">
-        <v>562</v>
+        <v>526</v>
       </c>
       <c r="K6" t="s">
         <v>71</v>
@@ -5044,77 +5279,77 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B7" t="s">
         <v>572</v>
       </c>
-      <c r="B7" t="s">
-        <v>200</v>
-      </c>
       <c r="C7" t="s">
-        <v>486</v>
+        <v>554</v>
       </c>
       <c r="D7" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="E7" t="s">
         <v>188</v>
       </c>
       <c r="F7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G7" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="H7" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="I7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="J7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>573</v>
       </c>
       <c r="C8" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="D8" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="E8" t="s">
         <v>188</v>
       </c>
       <c r="F8" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G8" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="H8" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="I8" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="J8" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>545</v>
+        <v>574</v>
       </c>
       <c r="B9" t="s">
-        <v>546</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D9" t="s">
         <v>189</v>
@@ -5129,39 +5364,39 @@
         <v>192</v>
       </c>
       <c r="H9" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="I9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="J9" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="B10" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>474</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>560</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
+        <v>470</v>
       </c>
       <c r="F10" t="s">
-        <v>213</v>
+        <v>521</v>
       </c>
       <c r="G10" t="s">
         <v>214</v>
       </c>
       <c r="H10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I10" t="s">
         <v>232</v>
@@ -5170,56 +5405,56 @@
         <v>215</v>
       </c>
       <c r="K10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B11" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="C11" t="s">
-        <v>576</v>
+        <v>256</v>
       </c>
       <c r="D11" t="s">
-        <v>577</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F11" t="s">
-        <v>292</v>
+        <v>191</v>
       </c>
       <c r="G11" t="s">
-        <v>488</v>
+        <v>192</v>
       </c>
       <c r="H11" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="I11" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J11" t="s">
         <v>215</v>
       </c>
       <c r="K11" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>574</v>
+        <v>617</v>
       </c>
       <c r="B12" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="C12" t="s">
-        <v>576</v>
+        <v>532</v>
       </c>
       <c r="D12" t="s">
-        <v>577</v>
+        <v>533</v>
       </c>
       <c r="E12" t="s">
         <v>190</v>
@@ -5233,39 +5468,45 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>578</v>
+        <v>550</v>
       </c>
       <c r="B13" t="s">
-        <v>579</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>580</v>
+        <v>467</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>468</v>
       </c>
       <c r="E13" t="s">
         <v>188</v>
       </c>
       <c r="F13" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G13" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="H13" t="s">
-        <v>294</v>
+        <v>514</v>
+      </c>
+      <c r="I13" t="s">
+        <v>297</v>
+      </c>
+      <c r="J13" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>474</v>
       </c>
       <c r="C14" t="s">
-        <v>550</v>
+        <v>471</v>
       </c>
       <c r="D14" t="s">
         <v>189</v>
@@ -5282,19 +5523,19 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B15" t="s">
-        <v>240</v>
+        <v>475</v>
       </c>
       <c r="C15" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D15" t="s">
-        <v>335</v>
+        <v>464</v>
       </c>
       <c r="E15" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F15" t="s">
         <v>191</v>
@@ -5305,51 +5546,51 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="B16" t="s">
-        <v>552</v>
+        <v>285</v>
       </c>
       <c r="C16" t="s">
-        <v>493</v>
+        <v>331</v>
       </c>
       <c r="D16" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E16" t="s">
         <v>188</v>
       </c>
       <c r="F16" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G16" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="H16" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="I16" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="J16" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>580</v>
       </c>
       <c r="C17" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="D17" t="s">
-        <v>258</v>
+        <v>581</v>
       </c>
       <c r="E17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F17" t="s">
         <v>186</v>
@@ -5357,42 +5598,42 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>268</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D18" t="s">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="F18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>555</v>
+        <v>618</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>619</v>
       </c>
       <c r="C19" t="s">
-        <v>194</v>
+        <v>620</v>
       </c>
       <c r="D19" t="s">
-        <v>320</v>
+        <v>456</v>
       </c>
       <c r="E19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F19" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="G19" t="s">
         <v>192</v>
@@ -5400,60 +5641,60 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>583</v>
+        <v>535</v>
       </c>
       <c r="B20" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="C20" t="s">
         <v>194</v>
       </c>
       <c r="D20" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="E20" t="s">
         <v>188</v>
       </c>
       <c r="F20" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G20" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="H20" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="I20" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="J20" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>261</v>
+        <v>558</v>
       </c>
       <c r="B21" t="s">
-        <v>262</v>
+        <v>559</v>
       </c>
       <c r="C21" t="s">
-        <v>568</v>
+        <v>474</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>560</v>
       </c>
       <c r="E21" t="s">
-        <v>183</v>
+        <v>470</v>
       </c>
       <c r="F21" t="s">
-        <v>182</v>
+        <v>521</v>
       </c>
       <c r="G21" t="s">
         <v>232</v>
       </c>
       <c r="H21" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -5461,19 +5702,19 @@
         <v>584</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="C22" t="s">
-        <v>285</v>
+        <v>181</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>464</v>
+        <v>209</v>
       </c>
       <c r="F22" t="s">
-        <v>467</v>
+        <v>232</v>
       </c>
       <c r="G22" t="s">
         <v>192</v>
@@ -5481,27 +5722,27 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="B23" t="s">
-        <v>273</v>
+        <v>209</v>
       </c>
       <c r="C23" t="s">
-        <v>586</v>
+        <v>194</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>310</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>585</v>
+        <v>523</v>
       </c>
       <c r="B24" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C24" t="s">
         <v>199</v>
@@ -5510,10 +5751,10 @@
         <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F24" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G24" t="s">
         <v>188</v>
@@ -5521,19 +5762,19 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>587</v>
+        <v>621</v>
       </c>
       <c r="B25" t="s">
-        <v>575</v>
+        <v>524</v>
       </c>
       <c r="C25" t="s">
-        <v>514</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E25" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F25" t="s">
         <v>230</v>
@@ -5541,19 +5782,19 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>588</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s">
-        <v>536</v>
+        <v>260</v>
       </c>
       <c r="C26" t="s">
-        <v>295</v>
+        <v>529</v>
       </c>
       <c r="D26" t="s">
-        <v>296</v>
+        <v>194</v>
       </c>
       <c r="E26" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F26" t="s">
         <v>182</v>
@@ -5564,13 +5805,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="B27" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="C27" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="D27" t="s">
         <v>226</v>
@@ -5588,10 +5829,10 @@
         <v>208</v>
       </c>
       <c r="I27" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="J27" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K27" t="s">
         <v>198</v>
@@ -5599,48 +5840,48 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="B28" t="s">
-        <v>602</v>
+        <v>193</v>
       </c>
       <c r="C28" t="s">
         <v>194</v>
       </c>
       <c r="D28" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E28" t="s">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="F28" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G28" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="H28" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>589</v>
+        <v>555</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>559</v>
       </c>
       <c r="C29" t="s">
-        <v>216</v>
+        <v>474</v>
       </c>
       <c r="D29" t="s">
-        <v>190</v>
+        <v>560</v>
       </c>
       <c r="E29" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="F29" t="s">
-        <v>553</v>
+        <v>521</v>
       </c>
       <c r="G29" t="s">
         <v>188</v>
@@ -5648,39 +5889,39 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>590</v>
+        <v>537</v>
       </c>
       <c r="B30" t="s">
-        <v>591</v>
+        <v>531</v>
       </c>
       <c r="C30" t="s">
-        <v>268</v>
+        <v>495</v>
       </c>
       <c r="D30" t="s">
-        <v>269</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>484</v>
+        <v>209</v>
       </c>
       <c r="F30" t="s">
-        <v>485</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="B31" t="s">
-        <v>559</v>
+        <v>514</v>
       </c>
       <c r="C31" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="D31" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="E31" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F31" t="s">
         <v>230</v>
@@ -5688,19 +5929,19 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>603</v>
+        <v>545</v>
       </c>
       <c r="B32" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
       <c r="C32" t="s">
         <v>516</v>
       </c>
       <c r="D32" t="s">
-        <v>477</v>
+        <v>310</v>
       </c>
       <c r="E32" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="F32" t="s">
         <v>206</v>
@@ -5709,38 +5950,38 @@
         <v>207</v>
       </c>
       <c r="H32" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>264</v>
+        <v>587</v>
       </c>
       <c r="B33" t="s">
-        <v>557</v>
+        <v>263</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>470</v>
       </c>
       <c r="D33" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="E33" t="s">
-        <v>229</v>
+        <v>472</v>
       </c>
       <c r="F33" t="s">
-        <v>230</v>
+        <v>473</v>
       </c>
       <c r="G33" t="s">
-        <v>240</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>592</v>
+        <v>547</v>
       </c>
       <c r="B34" t="s">
-        <v>303</v>
+        <v>548</v>
       </c>
       <c r="C34" t="s">
         <v>228</v>
@@ -5757,19 +5998,19 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="B35" t="s">
-        <v>559</v>
+        <v>189</v>
       </c>
       <c r="C35" t="s">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="D35" t="s">
-        <v>269</v>
+        <v>190</v>
       </c>
       <c r="E35" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="F35" t="s">
         <v>182</v>
@@ -5780,16 +6021,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>263</v>
+        <v>540</v>
       </c>
       <c r="B36" t="s">
-        <v>515</v>
+        <v>541</v>
       </c>
       <c r="C36" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="D36" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="E36" t="s">
         <v>205</v>
@@ -5801,7 +6042,7 @@
         <v>207</v>
       </c>
       <c r="H36" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I36" t="s">
         <v>232</v>
@@ -5810,47 +6051,47 @@
         <v>215</v>
       </c>
       <c r="K36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="B37" t="s">
-        <v>480</v>
+        <v>193</v>
       </c>
       <c r="C37" t="s">
-        <v>481</v>
+        <v>280</v>
       </c>
       <c r="D37" t="s">
-        <v>265</v>
+        <v>183</v>
       </c>
       <c r="E37" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F37" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G37" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>271</v>
+        <v>622</v>
       </c>
       <c r="B38" t="s">
-        <v>209</v>
+        <v>585</v>
       </c>
       <c r="C38" t="s">
-        <v>228</v>
+        <v>586</v>
       </c>
       <c r="D38" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E38" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F38" t="s">
         <v>194</v>
@@ -5861,33 +6102,33 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>469</v>
+        <v>588</v>
       </c>
       <c r="B39" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C39" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D39" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E39" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F39" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="B40" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C40" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
       <c r="D40" t="s">
         <v>229</v>
@@ -5904,16 +6145,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B41" t="s">
-        <v>515</v>
+        <v>591</v>
       </c>
       <c r="C41" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="D41" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="E41" t="s">
         <v>205</v>
@@ -5927,42 +6168,42 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>272</v>
+        <v>592</v>
       </c>
       <c r="B42" t="s">
-        <v>262</v>
+        <v>593</v>
       </c>
       <c r="C42" t="s">
-        <v>194</v>
+        <v>495</v>
       </c>
       <c r="D42" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E42" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="F42" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="G42" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="B43" t="s">
         <v>209</v>
       </c>
       <c r="C43" t="s">
-        <v>228</v>
+        <v>594</v>
       </c>
       <c r="D43" t="s">
-        <v>311</v>
+        <v>525</v>
       </c>
       <c r="E43" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F43" t="s">
         <v>194</v>
@@ -5973,13 +6214,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>594</v>
+        <v>542</v>
       </c>
       <c r="B44" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C44" t="s">
-        <v>242</v>
+        <v>516</v>
       </c>
       <c r="D44" t="s">
         <v>243</v>
@@ -5994,7 +6235,7 @@
         <v>214</v>
       </c>
       <c r="H44" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I44" t="s">
         <v>232</v>
@@ -6003,33 +6244,33 @@
         <v>215</v>
       </c>
       <c r="K44" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>517</v>
+        <v>595</v>
       </c>
       <c r="B45" t="s">
-        <v>496</v>
+        <v>596</v>
       </c>
       <c r="C45" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="D45" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="E45" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="F45" t="s">
-        <v>208</v>
+        <v>473</v>
       </c>
       <c r="G45" t="s">
-        <v>293</v>
+        <v>474</v>
       </c>
       <c r="H45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I45" t="s">
         <v>198</v>
@@ -6037,19 +6278,19 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>321</v>
+        <v>561</v>
       </c>
       <c r="B46" t="s">
-        <v>322</v>
+        <v>562</v>
       </c>
       <c r="C46" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D46" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E46" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F46" t="s">
         <v>230</v>
@@ -6057,28 +6298,28 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>329</v>
+        <v>597</v>
       </c>
       <c r="B47" t="s">
-        <v>270</v>
+        <v>598</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>599</v>
       </c>
       <c r="D47" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="E47" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F47" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="G47" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H47" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I47" t="s">
         <v>198</v>
@@ -6086,22 +6327,22 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>473</v>
+        <v>600</v>
       </c>
       <c r="B48" t="s">
-        <v>474</v>
+        <v>266</v>
       </c>
       <c r="C48" t="s">
-        <v>475</v>
+        <v>78</v>
       </c>
       <c r="D48" t="s">
-        <v>561</v>
+        <v>190</v>
       </c>
       <c r="E48" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="F48" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G48" t="s">
         <v>232</v>
@@ -6109,10 +6350,10 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="B49" t="s">
-        <v>291</v>
+        <v>541</v>
       </c>
       <c r="C49" t="s">
         <v>242</v>
@@ -6121,16 +6362,16 @@
         <v>243</v>
       </c>
       <c r="E49" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F49" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G49" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H49" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I49" t="s">
         <v>198</v>
@@ -6138,19 +6379,19 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>519</v>
+        <v>601</v>
       </c>
       <c r="B50" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="C50" t="s">
         <v>205</v>
       </c>
       <c r="D50" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="E50" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="F50" t="s">
         <v>182</v>
@@ -6159,7 +6400,7 @@
         <v>232</v>
       </c>
       <c r="H50" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I50" t="s">
         <v>232</v>
@@ -6168,24 +6409,24 @@
         <v>215</v>
       </c>
       <c r="K50" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>334</v>
+        <v>515</v>
       </c>
       <c r="B51" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C51" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D51" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E51" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F51" t="s">
         <v>230</v>
@@ -6194,7 +6435,7 @@
         <v>214</v>
       </c>
       <c r="H51" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I51" t="s">
         <v>232</v>
@@ -6203,27 +6444,27 @@
         <v>215</v>
       </c>
       <c r="K51" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B52" t="s">
-        <v>564</v>
+        <v>527</v>
       </c>
       <c r="C52" t="s">
-        <v>194</v>
+        <v>295</v>
       </c>
       <c r="D52" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="E52" t="s">
         <v>239</v>
       </c>
       <c r="F52" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G52" t="s">
         <v>232</v>
@@ -6231,27 +6472,36 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>272</v>
+        <v>543</v>
       </c>
       <c r="B53" t="s">
-        <v>199</v>
+        <v>496</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>497</v>
       </c>
       <c r="D53" t="s">
-        <v>297</v>
+        <v>463</v>
+      </c>
+      <c r="E53" t="s">
+        <v>205</v>
+      </c>
+      <c r="F53" t="s">
+        <v>206</v>
+      </c>
+      <c r="G53" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>518</v>
+        <v>293</v>
       </c>
       <c r="B54" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C54" t="s">
-        <v>494</v>
+        <v>295</v>
       </c>
       <c r="D54" t="s">
         <v>183</v>
@@ -6269,10 +6519,10 @@
         <v>215</v>
       </c>
       <c r="I54" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J54" t="s">
-        <v>562</v>
+        <v>526</v>
       </c>
       <c r="K54" t="s">
         <v>71</v>
@@ -6280,28 +6530,28 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="B55" t="s">
-        <v>324</v>
+        <v>209</v>
       </c>
       <c r="C55" t="s">
-        <v>325</v>
+        <v>228</v>
       </c>
       <c r="D55" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="E55" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="F55" t="s">
-        <v>328</v>
+        <v>194</v>
       </c>
       <c r="G55" t="s">
-        <v>495</v>
+        <v>240</v>
       </c>
       <c r="H55" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I55" t="s">
         <v>232</v>
@@ -6310,15 +6560,15 @@
         <v>215</v>
       </c>
       <c r="K55" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>274</v>
+        <v>544</v>
       </c>
       <c r="B56" t="s">
-        <v>275</v>
+        <v>593</v>
       </c>
       <c r="C56" t="s">
         <v>216</v>
@@ -6330,33 +6580,33 @@
         <v>187</v>
       </c>
       <c r="F56" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="B57" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="C57" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="D57" t="s">
-        <v>182</v>
+        <v>316</v>
       </c>
       <c r="E57" t="s">
-        <v>183</v>
+        <v>317</v>
       </c>
       <c r="F57" t="s">
-        <v>213</v>
+        <v>318</v>
       </c>
       <c r="G57" t="s">
-        <v>214</v>
+        <v>476</v>
       </c>
       <c r="H57" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I57" t="s">
         <v>232</v>
@@ -6365,116 +6615,128 @@
         <v>215</v>
       </c>
       <c r="K57" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="B58" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="C58" t="s">
-        <v>300</v>
+        <v>261</v>
+      </c>
+      <c r="D58" t="s">
+        <v>262</v>
+      </c>
+      <c r="E58" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>473</v>
+        <v>323</v>
       </c>
       <c r="B59" t="s">
-        <v>474</v>
+        <v>286</v>
       </c>
       <c r="C59" t="s">
-        <v>475</v>
+        <v>242</v>
+      </c>
+      <c r="D59" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>519</v>
+        <v>324</v>
       </c>
       <c r="B60" t="s">
-        <v>477</v>
+        <v>308</v>
       </c>
       <c r="C60" t="s">
-        <v>205</v>
+        <v>273</v>
       </c>
       <c r="D60" t="s">
-        <v>482</v>
+        <v>325</v>
       </c>
       <c r="E60" t="s">
-        <v>483</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="B61" t="s">
-        <v>290</v>
+        <v>609</v>
       </c>
       <c r="C61" t="s">
-        <v>301</v>
+        <v>610</v>
       </c>
       <c r="D61" t="s">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="E61" t="s">
         <v>187</v>
       </c>
       <c r="F61" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B62" t="s">
-        <v>233</v>
+        <v>460</v>
       </c>
       <c r="C62" t="s">
-        <v>286</v>
+        <v>461</v>
+      </c>
+      <c r="D62" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>468</v>
+        <v>597</v>
       </c>
       <c r="B63" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="C63" t="s">
-        <v>301</v>
+        <v>599</v>
       </c>
       <c r="D63" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="E63" t="s">
         <v>187</v>
       </c>
       <c r="F63" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>565</v>
+        <v>600</v>
       </c>
       <c r="B64" t="s">
-        <v>339</v>
+        <v>266</v>
       </c>
       <c r="C64" t="s">
-        <v>194</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>566</v>
+        <v>267</v>
       </c>
       <c r="B65" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C65" t="s">
         <v>112</v>
@@ -6494,7 +6756,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>272</v>
+        <v>601</v>
       </c>
       <c r="B66" t="s">
         <v>233</v>
@@ -6517,44 +6779,47 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>518</v>
+        <v>551</v>
       </c>
       <c r="B67" t="s">
-        <v>289</v>
+        <v>475</v>
       </c>
       <c r="C67" t="s">
-        <v>494</v>
+        <v>552</v>
+      </c>
+      <c r="D67" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>323</v>
+        <v>543</v>
       </c>
       <c r="B68" t="s">
-        <v>324</v>
+        <v>496</v>
       </c>
       <c r="C68" t="s">
-        <v>325</v>
+        <v>497</v>
       </c>
       <c r="D68" t="s">
-        <v>326</v>
+        <v>463</v>
       </c>
       <c r="E68" t="s">
-        <v>327</v>
+        <v>205</v>
       </c>
       <c r="F68" t="s">
-        <v>328</v>
+        <v>206</v>
       </c>
       <c r="G68" t="s">
-        <v>495</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="B69" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C69" t="s">
         <v>112</v>
@@ -6562,16 +6827,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>298</v>
+        <v>602</v>
       </c>
       <c r="B70" t="s">
-        <v>299</v>
+        <v>603</v>
       </c>
       <c r="C70" t="s">
-        <v>300</v>
+        <v>572</v>
       </c>
       <c r="D70" t="s">
-        <v>200</v>
+        <v>604</v>
       </c>
       <c r="E70" t="s">
         <v>201</v>
@@ -6585,27 +6850,36 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="B71" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C71" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="D71" t="s">
-        <v>204</v>
+        <v>301</v>
+      </c>
+      <c r="E71" t="s">
+        <v>302</v>
+      </c>
+      <c r="F71" t="s">
+        <v>194</v>
+      </c>
+      <c r="G71" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>473</v>
+        <v>544</v>
       </c>
       <c r="B72" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="C72" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="D72" t="s">
         <v>200</v>
@@ -6619,19 +6893,19 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>519</v>
+        <v>568</v>
       </c>
       <c r="B73" t="s">
-        <v>477</v>
+        <v>312</v>
       </c>
       <c r="C73" t="s">
-        <v>205</v>
+        <v>605</v>
       </c>
       <c r="D73" t="s">
-        <v>482</v>
+        <v>606</v>
       </c>
       <c r="E73" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F73" t="s">
         <v>194</v>
@@ -6642,19 +6916,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>539</v>
+        <v>607</v>
       </c>
       <c r="B74" t="s">
-        <v>540</v>
+        <v>608</v>
       </c>
       <c r="C74" t="s">
         <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E74" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F74" t="s">
         <v>194</v>
@@ -6665,148 +6939,148 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>498</v>
+      </c>
+      <c r="B75" t="s">
+        <v>284</v>
+      </c>
+      <c r="C75" t="s">
+        <v>475</v>
+      </c>
+      <c r="D75" t="s">
+        <v>306</v>
+      </c>
+      <c r="E75" t="s">
         <v>307</v>
       </c>
-      <c r="B75" t="s">
-        <v>199</v>
-      </c>
-      <c r="C75" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" t="s">
-        <v>316</v>
-      </c>
-      <c r="E75" t="s">
-        <v>317</v>
-      </c>
       <c r="F75" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="G75" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>468</v>
+        <v>269</v>
       </c>
       <c r="B76" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="C76" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D76" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="E76" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F76" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="G76" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>308</v>
+        <v>234</v>
       </c>
       <c r="B77" t="s">
-        <v>309</v>
+        <v>236</v>
       </c>
       <c r="C77" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="D77" t="s">
         <v>204</v>
       </c>
       <c r="E77" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F77" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="G77" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>469</v>
+        <v>323</v>
       </c>
       <c r="B78" t="s">
-        <v>470</v>
+        <v>286</v>
       </c>
       <c r="C78" t="s">
-        <v>325</v>
+        <v>242</v>
       </c>
       <c r="D78" t="s">
-        <v>326</v>
+        <v>243</v>
       </c>
       <c r="E78" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F78" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>471</v>
+        <v>324</v>
       </c>
       <c r="B79" t="s">
-        <v>472</v>
+        <v>308</v>
       </c>
       <c r="C79" t="s">
+        <v>273</v>
+      </c>
+      <c r="D79" t="s">
         <v>325</v>
       </c>
-      <c r="D79" t="s">
-        <v>326</v>
-      </c>
       <c r="E79" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="F79" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>272</v>
+        <v>567</v>
       </c>
       <c r="B80" t="s">
-        <v>309</v>
+        <v>609</v>
       </c>
       <c r="C80" t="s">
-        <v>203</v>
+        <v>610</v>
       </c>
       <c r="D80" t="s">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="E80" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F80" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>310</v>
+        <v>517</v>
       </c>
       <c r="B81" t="s">
-        <v>209</v>
+        <v>518</v>
       </c>
       <c r="C81" t="s">
         <v>228</v>
       </c>
       <c r="D81" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E81" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F81" t="s">
         <v>194</v>
@@ -6817,16 +7091,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>273</v>
+        <v>459</v>
       </c>
       <c r="B82" t="s">
-        <v>199</v>
+        <v>460</v>
       </c>
       <c r="C82" t="s">
-        <v>76</v>
+        <v>461</v>
       </c>
       <c r="D82" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E82" t="s">
         <v>185</v>
@@ -6834,30 +7108,30 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B83" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C83" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D83" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="E83" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F83" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="G83" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B84" t="s">
         <v>194</v>
@@ -6866,10 +7140,10 @@
         <v>228</v>
       </c>
       <c r="D84" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E84" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F84" t="s">
         <v>194</v>
@@ -6880,10 +7154,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B85" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C85" t="s">
         <v>76</v>
@@ -6897,61 +7171,61 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B86" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C86" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D86" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E86" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F86" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="G86" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>269</v>
+      </c>
+      <c r="B87" t="s">
+        <v>270</v>
+      </c>
+      <c r="C87" t="s">
+        <v>325</v>
+      </c>
+      <c r="D87" t="s">
         <v>274</v>
-      </c>
-      <c r="B87" t="s">
-        <v>275</v>
-      </c>
-      <c r="C87" t="s">
-        <v>335</v>
-      </c>
-      <c r="D87" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B88" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B89" t="s">
         <v>227</v>
       </c>
       <c r="C89" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D89" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E89" t="s">
         <v>185</v>
@@ -6971,10 +7245,10 @@
         <v>237</v>
       </c>
       <c r="E90" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F90" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -6982,15 +7256,15 @@
         <v>238</v>
       </c>
       <c r="B91" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B92" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C92" t="s">
         <v>241</v>
@@ -7004,16 +7278,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B93" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C93" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D93" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E93" t="s">
         <v>185</v>
@@ -7040,10 +7314,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B96" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C96" t="s">
         <v>242</v>
@@ -7054,27 +7328,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B97" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C97" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D97" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="B98" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="C98" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -7106,7 +7380,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7147,13 +7421,13 @@
         <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E5" t="s">
-        <v>569</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7334,46 +7608,46 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B22" t="s">
         <v>193</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C25" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -7384,1897 +7658,1897 @@
         <v>190</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="100" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="102" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="103" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="104" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="105" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="108" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="110" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="111" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="112" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="119" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E119" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="120" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E122" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="123" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E123" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="124" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="125" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="126" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E126" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="127" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E127" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="128" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E131" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E134" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="135" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="136" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="137" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E137" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="138" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E138" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="139" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E139" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E142" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="143" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="144" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="147" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E147" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="150" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E150" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E151" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E152" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="156" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E157" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="158" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E158" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="159" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E159" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="160" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E161" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E162" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E163" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E164" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E165" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="166" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E166" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="167" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E167" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="168" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E168" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="169" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E169" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="170" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E170" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="171" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E171" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="172" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E172" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="173" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E173" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="174" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E174" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="175" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E175" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="176" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E176" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="177" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E177" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="178" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E178" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="179" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E179" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="180" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="181" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E181" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="182" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E182" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="183" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E183" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="184" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E184" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="185" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E185" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="186" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E186" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="187" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E187" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="188" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="189" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E189" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="190" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E190" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="191" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E191" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="192" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E192" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="193" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E193" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="194" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E194" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="195" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E195" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="196" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E196" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="197" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E197" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="198" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E198" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="199" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E199" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="200" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E200" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="201" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E201" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="202" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E202" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="203" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E203" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="204" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E204" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="205" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E205" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="206" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E206" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="207" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E207" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="208" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E208" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="209" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E209" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="210" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E210" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="211" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E211" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="212" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E212" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="213" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E213" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="214" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E214" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="215" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E215" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="216" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E216" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="217" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E217" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="218" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E218" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="219" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E219" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="220" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E220" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="221" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E221" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="222" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E222" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="223" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E223" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="224" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E224" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="225" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E225" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="226" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E226" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="227" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E227" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="228" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E228" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="229" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E229" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="230" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E230" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="231" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E231" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="232" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E232" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="233" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E233" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="234" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E234" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="235" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E235" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="236" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E236" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="237" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E237" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="238" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E238" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="239" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E239" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="240" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E240" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="241" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E241" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="242" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E242" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="243" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E243" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="244" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E244" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="245" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E245" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="246" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E246" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="247" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E247" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="248" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E248" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="249" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E249" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="250" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E250" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="251" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E251" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="252" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E252" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="253" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E253" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="254" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E254" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="255" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E255" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="256" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E256" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="257" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E257" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="258" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E258" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="259" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E259" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="260" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E260" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="261" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E261" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="262" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E262" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="263" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E263" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="264" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E264" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="265" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E265" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="266" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E266" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="267" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E267" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="268" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E268" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="269" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E269" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="270" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E270" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="271" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E271" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="272" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E272" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="273" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E273" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="274" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E274" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="275" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E275" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="276" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E276" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="277" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E277" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="278" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E278" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="279" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E279" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="280" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E280" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="281" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E281" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="282" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E282" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="283" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E283" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="284" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E284" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="285" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E285" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="286" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E286" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="287" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E287" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="288" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E288" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="289" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E289" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="290" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E290" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="291" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E291" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="292" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E292" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="293" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E293" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="294" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E294" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="295" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E295" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="296" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E296" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="297" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E297" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="298" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E298" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="299" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E299" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="300" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E300" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="301" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E301" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="302" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E302" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="303" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E303" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="304" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E304" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="305" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E305" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="306" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E306" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="307" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E307" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="308" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E308" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="309" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E309" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="310" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E310" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="311" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E311" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="312" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E312" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="313" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E313" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="314" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E314" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="315" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E315" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="316" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E316" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="317" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E317" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="318" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E318" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="319" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E319" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="320" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E320" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="321" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E321" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="322" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E322" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="323" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E323" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="324" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E324" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="325" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E325" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="326" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E326" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="327" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E327" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="328" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E328" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="329" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E329" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="330" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E330" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="331" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E331" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="332" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E332" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="333" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E333" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="334" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E334" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="335" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E335" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="336" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E336" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="337" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E337" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="338" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E338" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="339" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E339" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="340" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E340" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="341" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E341" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="342" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E342" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="343" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E343" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="344" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E344" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="345" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E345" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="346" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E346" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="347" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E347" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="348" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E348" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="349" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E349" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="350" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E350" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="351" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E351" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="352" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E352" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="353" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E353" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="354" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E354" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="355" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E355" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="356" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E356" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="357" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E357" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="358" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E358" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="359" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E359" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="360" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E360" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="361" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E361" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="362" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E362" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="363" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E363" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="364" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E364" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="365" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E365" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="366" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E366" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="367" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E367" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="368" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E368" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="369" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E369" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="370" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E370" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="371" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E371" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="372" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E372" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="373" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E373" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="374" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E374" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="375" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E375" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="376" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E376" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="377" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E377" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="378" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E378" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="379" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E379" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="380" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E380" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="381" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E381" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="382" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E382" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="383" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E383" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="384" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E384" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="385" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E385" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="386" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E386" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="387" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E387" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="388" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E388" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="389" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E389" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="390" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E390" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="391" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E391" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="392" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E392" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="393" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E393" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="394" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E394" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="395" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E395" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="396" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E396" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="397" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E397" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="398" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E398" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="399" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E399" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="400" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E400" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="401" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E401" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="402" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E402" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="403" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E403" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="404" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E404" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="405" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E405" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="406" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E406" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="407" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E407" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="408" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E408" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="409" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E409" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="410" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E410" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="411" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E411" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="412" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E412" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="413" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E413" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="414" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E414" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="415" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E415" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="416" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E416" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="417" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E417" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="418" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E418" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="419" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E419" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="420" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E420" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="421" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E421" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="422" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E422" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="423" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E423" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="424" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E424" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="425" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E425" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="426" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E426" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="427" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E427" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="428" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E428" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="429" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E429" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="430" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E430" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="431" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E431" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="432" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E432" t="s">
-        <v>453</v>
+        <v>443</v>
      